--- a/Assets/Level blueprint.xlsx
+++ b/Assets/Level blueprint.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco\Documents\GitHub\Horror_FPS\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A65CCAF-51AE-402D-A54D-DC4D8731F86C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61BCDD3-8F0B-4B83-BCD9-B2EC46669650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>Scale: 1sqr = 1mt</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>bathroom 5</t>
+  </si>
+  <si>
+    <t>lab</t>
   </si>
 </sst>
 </file>
@@ -2216,8 +2219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:BI41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:BH40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AO27" sqref="AO27:BI28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4522,23 +4525,33 @@
       <c r="M39" s="90"/>
       <c r="N39" s="64"/>
       <c r="O39" s="65"/>
-      <c r="P39" s="50"/>
+      <c r="P39" s="50" t="s">
+        <v>27</v>
+      </c>
       <c r="Q39" s="50"/>
       <c r="R39" s="51"/>
       <c r="S39" s="65"/>
-      <c r="T39" s="50"/>
+      <c r="T39" s="50" t="s">
+        <v>27</v>
+      </c>
       <c r="U39" s="50"/>
       <c r="V39" s="51"/>
       <c r="W39" s="65"/>
-      <c r="X39" s="50"/>
+      <c r="X39" s="50" t="s">
+        <v>27</v>
+      </c>
       <c r="Y39" s="50"/>
       <c r="Z39" s="51"/>
       <c r="AA39" s="65"/>
-      <c r="AB39" s="50"/>
+      <c r="AB39" s="50" t="s">
+        <v>27</v>
+      </c>
       <c r="AC39" s="50"/>
       <c r="AD39" s="51"/>
       <c r="AE39" s="65"/>
-      <c r="AF39" s="50"/>
+      <c r="AF39" s="50" t="s">
+        <v>27</v>
+      </c>
       <c r="AG39" s="50"/>
       <c r="AH39" s="51"/>
       <c r="AI39" s="98"/>

--- a/Assets/Level blueprint.xlsx
+++ b/Assets/Level blueprint.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco\Documents\GitHub\Horror_FPS\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61BCDD3-8F0B-4B83-BCD9-B2EC46669650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB522E6-ABAA-44C5-95CA-E735877A311F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,23 +25,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
   <si>
     <t>Scale: 1sqr = 1mt</t>
   </si>
   <si>
-    <t>entrance</t>
-  </si>
-  <si>
     <t>investigative zone</t>
   </si>
   <si>
     <t>fighting zone</t>
   </si>
   <si>
-    <t>final room</t>
-  </si>
-  <si>
     <t>dinning room</t>
   </si>
   <si>
@@ -108,7 +102,157 @@
     <t>bathroom 5</t>
   </si>
   <si>
-    <t>lab</t>
+    <t>lab 1</t>
+  </si>
+  <si>
+    <t>lab 2</t>
+  </si>
+  <si>
+    <t>lab 3</t>
+  </si>
+  <si>
+    <t>lab 4</t>
+  </si>
+  <si>
+    <t>lab 5</t>
+  </si>
+  <si>
+    <t>third storage</t>
+  </si>
+  <si>
+    <t>fourth storage</t>
+  </si>
+  <si>
+    <t>locker 1</t>
+  </si>
+  <si>
+    <t>locker 2</t>
+  </si>
+  <si>
+    <t>locker 3</t>
+  </si>
+  <si>
+    <t>locker 4</t>
+  </si>
+  <si>
+    <t>cell 1</t>
+  </si>
+  <si>
+    <t>cell 2</t>
+  </si>
+  <si>
+    <t>cell 3</t>
+  </si>
+  <si>
+    <t>cell 4</t>
+  </si>
+  <si>
+    <t>cell 5</t>
+  </si>
+  <si>
+    <t>cell 6</t>
+  </si>
+  <si>
+    <t>cell 7</t>
+  </si>
+  <si>
+    <t>cell 8</t>
+  </si>
+  <si>
+    <t>cell 9</t>
+  </si>
+  <si>
+    <t>cell 10</t>
+  </si>
+  <si>
+    <t>cage 1</t>
+  </si>
+  <si>
+    <t>cage 2</t>
+  </si>
+  <si>
+    <t>cage 3</t>
+  </si>
+  <si>
+    <t>cage 4</t>
+  </si>
+  <si>
+    <t>cage 5</t>
+  </si>
+  <si>
+    <t>cage 6</t>
+  </si>
+  <si>
+    <t>cage 7</t>
+  </si>
+  <si>
+    <t>torture room</t>
+  </si>
+  <si>
+    <t>fifth storage</t>
+  </si>
+  <si>
+    <t>ammunition room</t>
+  </si>
+  <si>
+    <t>torture</t>
+  </si>
+  <si>
+    <t>weapon</t>
+  </si>
+  <si>
+    <t>room</t>
+  </si>
+  <si>
+    <t>radio station</t>
+  </si>
+  <si>
+    <t>cell 11</t>
+  </si>
+  <si>
+    <t>cell 12</t>
+  </si>
+  <si>
+    <t>cell 13</t>
+  </si>
+  <si>
+    <t>cell 14</t>
+  </si>
+  <si>
+    <t>bars</t>
+  </si>
+  <si>
+    <t>gamplay flow</t>
+  </si>
+  <si>
+    <t>walls</t>
+  </si>
+  <si>
+    <t>1x1 meter</t>
+  </si>
+  <si>
+    <t>door</t>
+  </si>
+  <si>
+    <t>hallways</t>
+  </si>
+  <si>
+    <t>locked entrance</t>
+  </si>
+  <si>
+    <t>interrogation</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">death </t>
+  </si>
+  <si>
+    <t>final room / portal room</t>
+  </si>
+  <si>
+    <t>tv room</t>
   </si>
 </sst>
 </file>
@@ -157,7 +301,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="106">
+  <borders count="114">
     <border>
       <left/>
       <right/>
@@ -1536,11 +1680,117 @@
         <color indexed="64"/>
       </diagonal>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="slantDashDot">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="slantDashDot">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="slantDashDot">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="slantDashDot">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1">
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal style="medium">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1566,9 +1816,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1593,9 +1840,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1830,9 +2074,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1930,6 +2171,102 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="109" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2217,10 +2554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:BI41"/>
+  <dimension ref="B2:CD41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AO27" sqref="AO27:BI28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AG30" sqref="AG30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2228,10 +2565,7 @@
     <col min="1" max="16384" width="3.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:61" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="2" spans="2:82" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I2" s="1">
         <v>1</v>
       </c>
@@ -2389,7 +2723,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="2:61" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:82" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="I3" s="2"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -2446,2203 +2780,2478 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:61" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="9"/>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="11"/>
-      <c r="AG4" s="12"/>
-      <c r="AH4" s="13"/>
-      <c r="AI4" s="11"/>
-      <c r="AJ4" s="11"/>
-      <c r="AK4" s="11"/>
-      <c r="AL4" s="12"/>
-      <c r="AM4" s="13"/>
-      <c r="AN4" s="11"/>
-      <c r="AO4" s="11"/>
-      <c r="AP4" s="11"/>
-      <c r="AQ4" s="12"/>
-      <c r="AR4" s="13"/>
-      <c r="AS4" s="11"/>
-      <c r="AT4" s="11"/>
-      <c r="AU4" s="11"/>
-      <c r="AV4" s="12"/>
-      <c r="AW4" s="14"/>
-      <c r="AX4" s="15"/>
-      <c r="AY4" s="13"/>
-      <c r="AZ4" s="11"/>
-      <c r="BA4" s="11"/>
-      <c r="BB4" s="11"/>
-      <c r="BC4" s="11"/>
-      <c r="BD4" s="11"/>
-      <c r="BE4" s="11"/>
-      <c r="BF4" s="11"/>
-      <c r="BG4" s="11"/>
-      <c r="BH4" s="16"/>
+    <row r="4" spans="2:82" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="150"/>
+      <c r="C4" s="150"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="11"/>
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="11"/>
+      <c r="AM4" s="12"/>
+      <c r="AN4" s="10"/>
+      <c r="AO4" s="10"/>
+      <c r="AP4" s="10"/>
+      <c r="AQ4" s="11"/>
+      <c r="AR4" s="12"/>
+      <c r="AS4" s="10"/>
+      <c r="AT4" s="10"/>
+      <c r="AU4" s="10"/>
+      <c r="AV4" s="11"/>
+      <c r="AW4" s="13"/>
+      <c r="AX4" s="14"/>
+      <c r="AY4" s="12"/>
+      <c r="AZ4" s="10"/>
+      <c r="BA4" s="10"/>
+      <c r="BB4" s="10"/>
+      <c r="BC4" s="10"/>
+      <c r="BD4" s="10"/>
+      <c r="BE4" s="10"/>
+      <c r="BF4" s="10"/>
+      <c r="BG4" s="10"/>
+      <c r="BH4" s="15"/>
       <c r="BI4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:61" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I5" s="10"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11" t="s">
+    <row r="5" spans="2:82" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="150"/>
+      <c r="C5" s="150"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="10"/>
+      <c r="AJ5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="11"/>
-      <c r="AE5" s="11" t="s">
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="12"/>
+      <c r="AN5" s="10"/>
+      <c r="AO5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="AF5" s="11"/>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="13"/>
-      <c r="AI5" s="11"/>
-      <c r="AJ5" s="11" t="s">
+      <c r="AP5" s="10"/>
+      <c r="AQ5" s="11"/>
+      <c r="AR5" s="12"/>
+      <c r="AS5" s="10"/>
+      <c r="AT5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AK5" s="11"/>
-      <c r="AL5" s="12"/>
-      <c r="AM5" s="13"/>
-      <c r="AN5" s="11"/>
-      <c r="AO5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP5" s="11"/>
-      <c r="AQ5" s="12"/>
-      <c r="AR5" s="13"/>
-      <c r="AS5" s="11"/>
-      <c r="AT5" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="AU5" s="11"/>
-      <c r="AV5" s="12"/>
-      <c r="AW5" s="14"/>
-      <c r="AX5" s="15"/>
-      <c r="AY5" s="17"/>
-      <c r="AZ5" s="11"/>
-      <c r="BA5" s="11"/>
-      <c r="BB5" s="11"/>
-      <c r="BC5" s="11"/>
-      <c r="BD5" s="11"/>
-      <c r="BE5" s="11"/>
-      <c r="BF5" s="11"/>
-      <c r="BG5" s="11"/>
-      <c r="BH5" s="16"/>
+      <c r="AU5" s="10"/>
+      <c r="AV5" s="11"/>
+      <c r="AW5" s="13"/>
+      <c r="AX5" s="14"/>
+      <c r="AY5" s="16"/>
+      <c r="AZ5" s="10"/>
+      <c r="BA5" s="10"/>
+      <c r="BB5" s="10"/>
+      <c r="BC5" s="10"/>
+      <c r="BD5" s="10"/>
+      <c r="BE5" s="10"/>
+      <c r="BF5" s="10"/>
+      <c r="BG5" s="10"/>
+      <c r="BH5" s="15"/>
       <c r="BI5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:61" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="18"/>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="11"/>
-      <c r="AG6" s="12"/>
-      <c r="AH6" s="13"/>
-      <c r="AI6" s="11"/>
-      <c r="AJ6" s="11"/>
-      <c r="AK6" s="11"/>
-      <c r="AL6" s="12"/>
-      <c r="AM6" s="13"/>
-      <c r="AN6" s="11"/>
-      <c r="AO6" s="11"/>
-      <c r="AP6" s="11"/>
-      <c r="AQ6" s="12"/>
-      <c r="AR6" s="13"/>
-      <c r="AS6" s="11"/>
-      <c r="AT6" s="11"/>
-      <c r="AU6" s="11"/>
-      <c r="AV6" s="12"/>
-      <c r="AW6" s="14"/>
-      <c r="AX6" s="19"/>
-      <c r="AY6" s="20"/>
-      <c r="AZ6" s="11"/>
-      <c r="BA6" s="11"/>
-      <c r="BB6" s="11"/>
-      <c r="BC6" s="11"/>
-      <c r="BD6" s="11"/>
-      <c r="BE6" s="11"/>
-      <c r="BF6" s="11"/>
-      <c r="BG6" s="11"/>
-      <c r="BH6" s="16"/>
+    <row r="6" spans="2:82" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="150"/>
+      <c r="C6" s="150"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="11"/>
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="10"/>
+      <c r="AO6" s="10"/>
+      <c r="AP6" s="10"/>
+      <c r="AQ6" s="11"/>
+      <c r="AR6" s="12"/>
+      <c r="AS6" s="10"/>
+      <c r="AT6" s="10"/>
+      <c r="AU6" s="10"/>
+      <c r="AV6" s="11"/>
+      <c r="AW6" s="13"/>
+      <c r="AX6" s="17"/>
+      <c r="AY6" s="18"/>
+      <c r="AZ6" s="10"/>
+      <c r="BA6" s="10"/>
+      <c r="BB6" s="10"/>
+      <c r="BC6" s="10"/>
+      <c r="BD6" s="10"/>
+      <c r="BE6" s="10"/>
+      <c r="BF6" s="10"/>
+      <c r="BG6" s="10"/>
+      <c r="BH6" s="15"/>
       <c r="BI6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:61" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H7" s="21"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="24"/>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="25"/>
-      <c r="AC7" s="22"/>
-      <c r="AD7" s="23"/>
-      <c r="AE7" s="24"/>
-      <c r="AF7" s="23"/>
-      <c r="AG7" s="25"/>
-      <c r="AH7" s="22"/>
-      <c r="AI7" s="23"/>
-      <c r="AJ7" s="24"/>
-      <c r="AK7" s="23"/>
-      <c r="AL7" s="25"/>
-      <c r="AM7" s="22"/>
-      <c r="AN7" s="23"/>
-      <c r="AO7" s="24"/>
-      <c r="AP7" s="23"/>
-      <c r="AQ7" s="25"/>
-      <c r="AR7" s="22"/>
-      <c r="AS7" s="23"/>
-      <c r="AT7" s="24"/>
-      <c r="AU7" s="23"/>
-      <c r="AV7" s="25"/>
-      <c r="AW7" s="14"/>
-      <c r="AX7" s="15"/>
-      <c r="AY7" s="13"/>
-      <c r="AZ7" s="11"/>
-      <c r="BA7" s="11"/>
-      <c r="BB7" s="11"/>
-      <c r="BC7" s="11"/>
-      <c r="BD7" s="11"/>
-      <c r="BE7" s="11"/>
-      <c r="BF7" s="11"/>
-      <c r="BG7" s="11"/>
-      <c r="BH7" s="16"/>
+    <row r="7" spans="2:82" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H7" s="19"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="20"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="23"/>
+      <c r="AC7" s="20"/>
+      <c r="AD7" s="21"/>
+      <c r="AE7" s="22"/>
+      <c r="AF7" s="21"/>
+      <c r="AG7" s="23"/>
+      <c r="AH7" s="20"/>
+      <c r="AI7" s="21"/>
+      <c r="AJ7" s="22"/>
+      <c r="AK7" s="21"/>
+      <c r="AL7" s="23"/>
+      <c r="AM7" s="20"/>
+      <c r="AN7" s="21"/>
+      <c r="AO7" s="22"/>
+      <c r="AP7" s="21"/>
+      <c r="AQ7" s="23"/>
+      <c r="AR7" s="20"/>
+      <c r="AS7" s="21"/>
+      <c r="AT7" s="22"/>
+      <c r="AU7" s="21"/>
+      <c r="AV7" s="23"/>
+      <c r="AW7" s="13"/>
+      <c r="AX7" s="14"/>
+      <c r="AY7" s="12"/>
+      <c r="AZ7" s="10"/>
+      <c r="BA7" s="10"/>
+      <c r="BB7" s="10"/>
+      <c r="BC7" s="10"/>
+      <c r="BD7" s="10"/>
+      <c r="BE7" s="10"/>
+      <c r="BF7" s="10"/>
+      <c r="BG7" s="10"/>
+      <c r="BH7" s="15"/>
       <c r="BI7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:61" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G8" s="21"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="27"/>
-      <c r="Z8" s="27"/>
-      <c r="AA8" s="27"/>
-      <c r="AB8" s="27"/>
-      <c r="AC8" s="27"/>
-      <c r="AD8" s="27"/>
-      <c r="AE8" s="27"/>
-      <c r="AF8" s="27"/>
-      <c r="AG8" s="27"/>
-      <c r="AH8" s="27"/>
-      <c r="AI8" s="27"/>
-      <c r="AJ8" s="27"/>
-      <c r="AK8" s="27"/>
-      <c r="AL8" s="27"/>
-      <c r="AM8" s="27"/>
-      <c r="AN8" s="27"/>
-      <c r="AO8" s="27"/>
-      <c r="AP8" s="27"/>
-      <c r="AQ8" s="27"/>
-      <c r="AR8" s="27"/>
-      <c r="AS8" s="27"/>
-      <c r="AT8" s="27"/>
-      <c r="AU8" s="27"/>
-      <c r="AV8" s="27"/>
-      <c r="AW8" s="28"/>
-      <c r="AX8" s="15"/>
-      <c r="AY8" s="13"/>
-      <c r="AZ8" s="11"/>
-      <c r="BA8" s="11"/>
-      <c r="BB8" s="11"/>
-      <c r="BC8" s="11"/>
-      <c r="BD8" s="11"/>
-      <c r="BE8" s="11"/>
-      <c r="BF8" s="11"/>
-      <c r="BG8" s="11"/>
-      <c r="BH8" s="16"/>
+    <row r="8" spans="2:82" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G8" s="19"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="25"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="25"/>
+      <c r="AC8" s="25"/>
+      <c r="AD8" s="25"/>
+      <c r="AE8" s="25"/>
+      <c r="AF8" s="25"/>
+      <c r="AG8" s="25"/>
+      <c r="AH8" s="25"/>
+      <c r="AI8" s="25"/>
+      <c r="AJ8" s="25"/>
+      <c r="AK8" s="25"/>
+      <c r="AL8" s="25"/>
+      <c r="AM8" s="25"/>
+      <c r="AN8" s="25"/>
+      <c r="AO8" s="25"/>
+      <c r="AP8" s="25"/>
+      <c r="AQ8" s="25"/>
+      <c r="AR8" s="25"/>
+      <c r="AS8" s="25"/>
+      <c r="AT8" s="25"/>
+      <c r="AU8" s="25"/>
+      <c r="AV8" s="25"/>
+      <c r="AW8" s="26"/>
+      <c r="AX8" s="14"/>
+      <c r="AY8" s="12"/>
+      <c r="AZ8" s="10"/>
+      <c r="BA8" s="10"/>
+      <c r="BB8" s="10"/>
+      <c r="BC8" s="10"/>
+      <c r="BD8" s="10"/>
+      <c r="BE8" s="10"/>
+      <c r="BF8" s="10"/>
+      <c r="BG8" s="10"/>
+      <c r="BH8" s="15"/>
       <c r="BI8" s="1">
         <v>6</v>
       </c>
+      <c r="BT8" s="152" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU8" s="153"/>
+      <c r="BV8" s="153"/>
+      <c r="BW8" s="153"/>
+      <c r="BX8" s="153"/>
+      <c r="BY8" s="153"/>
+      <c r="BZ8" s="153"/>
+      <c r="CA8" s="153"/>
+      <c r="CB8" s="153"/>
+      <c r="CC8" s="154"/>
     </row>
-    <row r="9" spans="2:61" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I9" s="20"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="30"/>
-      <c r="X9" s="31"/>
-      <c r="Y9" s="32"/>
-      <c r="Z9" s="32"/>
-      <c r="AA9" s="32"/>
-      <c r="AB9" s="32"/>
-      <c r="AC9" s="32"/>
-      <c r="AD9" s="32"/>
-      <c r="AE9" s="32"/>
-      <c r="AF9" s="32"/>
-      <c r="AG9" s="32"/>
-      <c r="AH9" s="33"/>
-      <c r="AI9" s="34"/>
-      <c r="AJ9" s="32"/>
-      <c r="AK9" s="32"/>
-      <c r="AL9" s="32"/>
-      <c r="AM9" s="32"/>
-      <c r="AN9" s="32"/>
-      <c r="AO9" s="32"/>
-      <c r="AP9" s="32"/>
-      <c r="AQ9" s="32"/>
-      <c r="AR9" s="32"/>
-      <c r="AS9" s="32"/>
-      <c r="AT9" s="32"/>
-      <c r="AU9" s="32"/>
-      <c r="AV9" s="32"/>
-      <c r="AW9" s="32"/>
-      <c r="AX9" s="15"/>
-      <c r="AY9" s="13"/>
-      <c r="AZ9" s="11"/>
-      <c r="BA9" s="11"/>
-      <c r="BB9" s="11"/>
-      <c r="BC9" s="11" t="s">
+    <row r="9" spans="2:82" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I9" s="18"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="BD9" s="11"/>
-      <c r="BE9" s="11"/>
-      <c r="BF9" s="11"/>
-      <c r="BG9" s="11"/>
-      <c r="BH9" s="16"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="30"/>
+      <c r="AE9" s="30"/>
+      <c r="AF9" s="30"/>
+      <c r="AG9" s="30"/>
+      <c r="AH9" s="31"/>
+      <c r="AI9" s="32"/>
+      <c r="AJ9" s="30"/>
+      <c r="AK9" s="30"/>
+      <c r="AL9" s="30"/>
+      <c r="AM9" s="30"/>
+      <c r="AN9" s="30"/>
+      <c r="AO9" s="30"/>
+      <c r="AP9" s="30"/>
+      <c r="AQ9" s="30"/>
+      <c r="AR9" s="30"/>
+      <c r="AS9" s="30"/>
+      <c r="AT9" s="30"/>
+      <c r="AU9" s="30"/>
+      <c r="AV9" s="30"/>
+      <c r="AW9" s="30"/>
+      <c r="AX9" s="14"/>
+      <c r="AY9" s="12"/>
+      <c r="AZ9" s="10"/>
+      <c r="BA9" s="10"/>
+      <c r="BB9" s="10"/>
+      <c r="BC9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD9" s="10"/>
+      <c r="BE9" s="10"/>
+      <c r="BF9" s="10"/>
+      <c r="BG9" s="10"/>
+      <c r="BH9" s="15"/>
       <c r="BI9" s="1">
         <v>7</v>
       </c>
+      <c r="BT9" s="137"/>
+      <c r="BU9" s="134"/>
+      <c r="BV9" s="134"/>
+      <c r="BW9" s="134"/>
+      <c r="BX9" s="134"/>
+      <c r="BY9" s="134"/>
+      <c r="BZ9" s="134"/>
+      <c r="CA9" s="134"/>
+      <c r="CB9" s="134"/>
+      <c r="CC9" s="138"/>
     </row>
-    <row r="10" spans="2:61" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I10" s="35"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="36"/>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="38"/>
-      <c r="AA10" s="37"/>
-      <c r="AB10" s="39"/>
-      <c r="AC10" s="36"/>
-      <c r="AD10" s="37"/>
-      <c r="AE10" s="38"/>
-      <c r="AF10" s="37"/>
-      <c r="AG10" s="39"/>
-      <c r="AH10" s="40"/>
-      <c r="AI10" s="15"/>
-      <c r="AJ10" s="36"/>
-      <c r="AK10" s="37"/>
-      <c r="AL10" s="38"/>
-      <c r="AM10" s="37"/>
-      <c r="AN10" s="39"/>
-      <c r="AO10" s="36"/>
-      <c r="AP10" s="37"/>
-      <c r="AQ10" s="38"/>
-      <c r="AR10" s="37"/>
-      <c r="AS10" s="39"/>
-      <c r="AT10" s="36"/>
-      <c r="AU10" s="37"/>
-      <c r="AV10" s="38"/>
-      <c r="AW10" s="37"/>
-      <c r="AX10" s="39"/>
-      <c r="AY10" s="13"/>
-      <c r="AZ10" s="11"/>
-      <c r="BA10" s="11"/>
-      <c r="BB10" s="11"/>
-      <c r="BC10" s="11"/>
-      <c r="BD10" s="11"/>
-      <c r="BE10" s="11"/>
-      <c r="BF10" s="11"/>
-      <c r="BG10" s="11"/>
-      <c r="BH10" s="16"/>
+    <row r="10" spans="2:82" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I10" s="33"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="35"/>
+      <c r="Z10" s="36"/>
+      <c r="AA10" s="35"/>
+      <c r="AB10" s="37"/>
+      <c r="AC10" s="34"/>
+      <c r="AD10" s="35"/>
+      <c r="AE10" s="36"/>
+      <c r="AF10" s="35"/>
+      <c r="AG10" s="37"/>
+      <c r="AH10" s="38"/>
+      <c r="AI10" s="14"/>
+      <c r="AJ10" s="34"/>
+      <c r="AK10" s="35"/>
+      <c r="AL10" s="36"/>
+      <c r="AM10" s="35"/>
+      <c r="AN10" s="37"/>
+      <c r="AO10" s="34"/>
+      <c r="AP10" s="35"/>
+      <c r="AQ10" s="36"/>
+      <c r="AR10" s="35"/>
+      <c r="AS10" s="37"/>
+      <c r="AT10" s="34"/>
+      <c r="AU10" s="35"/>
+      <c r="AV10" s="36"/>
+      <c r="AW10" s="35"/>
+      <c r="AX10" s="37"/>
+      <c r="AY10" s="12"/>
+      <c r="AZ10" s="10"/>
+      <c r="BA10" s="10"/>
+      <c r="BB10" s="10"/>
+      <c r="BC10" s="10"/>
+      <c r="BD10" s="10"/>
+      <c r="BE10" s="10"/>
+      <c r="BF10" s="10"/>
+      <c r="BG10" s="10"/>
+      <c r="BH10" s="15"/>
       <c r="BI10" s="1">
         <v>8</v>
       </c>
+      <c r="BT10" s="137"/>
+      <c r="BU10" s="134"/>
+      <c r="BV10" s="148"/>
+      <c r="BW10" s="134"/>
+      <c r="BX10" s="155" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY10" s="134"/>
+      <c r="BZ10" s="134"/>
+      <c r="CA10" s="134"/>
+      <c r="CB10" s="134"/>
+      <c r="CC10" s="138"/>
     </row>
-    <row r="11" spans="2:61" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="11"/>
-      <c r="AA11" s="11"/>
-      <c r="AB11" s="12"/>
-      <c r="AC11" s="13"/>
-      <c r="AD11" s="11"/>
-      <c r="AE11" s="11"/>
-      <c r="AF11" s="11"/>
-      <c r="AG11" s="12"/>
-      <c r="AH11" s="14"/>
-      <c r="AI11" s="15"/>
-      <c r="AJ11" s="13"/>
-      <c r="AK11" s="11"/>
-      <c r="AL11" s="11"/>
-      <c r="AM11" s="11"/>
-      <c r="AN11" s="12"/>
-      <c r="AO11" s="13"/>
-      <c r="AP11" s="11"/>
-      <c r="AQ11" s="11"/>
-      <c r="AR11" s="11"/>
-      <c r="AS11" s="12"/>
-      <c r="AT11" s="13"/>
-      <c r="AU11" s="11"/>
-      <c r="AV11" s="11"/>
-      <c r="AW11" s="11"/>
-      <c r="AX11" s="12"/>
-      <c r="AY11" s="13"/>
-      <c r="AZ11" s="11"/>
-      <c r="BA11" s="11"/>
-      <c r="BB11" s="11"/>
-      <c r="BC11" s="11"/>
-      <c r="BD11" s="11"/>
-      <c r="BE11" s="11"/>
-      <c r="BF11" s="11"/>
-      <c r="BG11" s="11"/>
-      <c r="BH11" s="16"/>
+    <row r="11" spans="2:82" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I11" s="9"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="13"/>
+      <c r="AI11" s="14"/>
+      <c r="AJ11" s="12"/>
+      <c r="AK11" s="10"/>
+      <c r="AL11" s="10"/>
+      <c r="AM11" s="10"/>
+      <c r="AN11" s="11"/>
+      <c r="AO11" s="12"/>
+      <c r="AP11" s="10"/>
+      <c r="AQ11" s="10"/>
+      <c r="AR11" s="10"/>
+      <c r="AS11" s="11"/>
+      <c r="AT11" s="12"/>
+      <c r="AU11" s="10"/>
+      <c r="AV11" s="10"/>
+      <c r="AW11" s="10"/>
+      <c r="AX11" s="11"/>
+      <c r="AY11" s="12"/>
+      <c r="AZ11" s="10"/>
+      <c r="BA11" s="10"/>
+      <c r="BB11" s="10"/>
+      <c r="BC11" s="10"/>
+      <c r="BD11" s="10"/>
+      <c r="BE11" s="10"/>
+      <c r="BF11" s="10"/>
+      <c r="BG11" s="10"/>
+      <c r="BH11" s="15"/>
       <c r="BI11" s="1">
         <v>9</v>
       </c>
+      <c r="BT11" s="137"/>
+      <c r="BU11" s="134"/>
+      <c r="BV11" s="134"/>
+      <c r="BW11" s="134"/>
+      <c r="BX11" s="155"/>
+      <c r="BY11" s="134"/>
+      <c r="BZ11" s="134"/>
+      <c r="CA11" s="134"/>
+      <c r="CB11" s="134"/>
+      <c r="CC11" s="138"/>
     </row>
-    <row r="12" spans="2:61" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="11" t="s">
+    <row r="12" spans="2:82" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I12" s="9"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="13"/>
+      <c r="AI12" s="14"/>
+      <c r="AJ12" s="12"/>
+      <c r="AK12" s="10"/>
+      <c r="AL12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="12"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="11"/>
-      <c r="AE12" s="11" t="s">
+      <c r="AM12" s="10"/>
+      <c r="AN12" s="11"/>
+      <c r="AO12" s="12"/>
+      <c r="AP12" s="10"/>
+      <c r="AQ12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="AF12" s="11"/>
-      <c r="AG12" s="12"/>
-      <c r="AH12" s="14"/>
-      <c r="AI12" s="15"/>
-      <c r="AJ12" s="13"/>
-      <c r="AK12" s="11"/>
-      <c r="AL12" s="11" t="s">
+      <c r="AR12" s="10"/>
+      <c r="AS12" s="11"/>
+      <c r="AT12" s="12"/>
+      <c r="AU12" s="10"/>
+      <c r="AV12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="AM12" s="11"/>
-      <c r="AN12" s="12"/>
-      <c r="AO12" s="13"/>
-      <c r="AP12" s="11"/>
-      <c r="AQ12" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AR12" s="11"/>
-      <c r="AS12" s="12"/>
-      <c r="AT12" s="13"/>
-      <c r="AU12" s="11"/>
-      <c r="AV12" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AW12" s="11"/>
-      <c r="AX12" s="12"/>
-      <c r="AY12" s="13"/>
-      <c r="AZ12" s="11"/>
-      <c r="BA12" s="11"/>
-      <c r="BB12" s="11"/>
-      <c r="BC12" s="11"/>
-      <c r="BD12" s="11"/>
-      <c r="BE12" s="11"/>
-      <c r="BF12" s="11"/>
-      <c r="BG12" s="11"/>
-      <c r="BH12" s="16"/>
+      <c r="AW12" s="10"/>
+      <c r="AX12" s="11"/>
+      <c r="AY12" s="12"/>
+      <c r="AZ12" s="10"/>
+      <c r="BA12" s="10"/>
+      <c r="BB12" s="10"/>
+      <c r="BC12" s="10"/>
+      <c r="BD12" s="10"/>
+      <c r="BE12" s="10"/>
+      <c r="BF12" s="10"/>
+      <c r="BG12" s="10"/>
+      <c r="BH12" s="15"/>
       <c r="BI12" s="1">
         <v>10</v>
       </c>
+      <c r="BT12" s="137"/>
+      <c r="BU12" s="134"/>
+      <c r="BV12" s="149"/>
+      <c r="BW12" s="134"/>
+      <c r="BX12" s="155" t="s">
+        <v>2</v>
+      </c>
+      <c r="BY12" s="134"/>
+      <c r="BZ12" s="134"/>
+      <c r="CA12" s="134"/>
+      <c r="CB12" s="134"/>
+      <c r="CC12" s="138"/>
     </row>
-    <row r="13" spans="2:61" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="11"/>
-      <c r="AB13" s="12"/>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="11"/>
-      <c r="AE13" s="11"/>
-      <c r="AF13" s="11"/>
-      <c r="AG13" s="12"/>
-      <c r="AH13" s="14"/>
-      <c r="AI13" s="15"/>
-      <c r="AJ13" s="13"/>
-      <c r="AK13" s="11"/>
-      <c r="AL13" s="11"/>
-      <c r="AM13" s="11"/>
-      <c r="AN13" s="12"/>
-      <c r="AO13" s="13"/>
-      <c r="AP13" s="11"/>
-      <c r="AQ13" s="11"/>
-      <c r="AR13" s="11"/>
-      <c r="AS13" s="12"/>
-      <c r="AT13" s="13"/>
-      <c r="AU13" s="11"/>
-      <c r="AV13" s="11"/>
-      <c r="AW13" s="11"/>
-      <c r="AX13" s="12"/>
-      <c r="AY13" s="13"/>
-      <c r="AZ13" s="11"/>
-      <c r="BA13" s="11"/>
-      <c r="BB13" s="11"/>
-      <c r="BC13" s="11"/>
-      <c r="BD13" s="11"/>
-      <c r="BE13" s="11"/>
-      <c r="BF13" s="11"/>
-      <c r="BG13" s="11"/>
-      <c r="BH13" s="16"/>
+    <row r="13" spans="2:82" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I13" s="9"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="11"/>
+      <c r="AH13" s="13"/>
+      <c r="AI13" s="14"/>
+      <c r="AJ13" s="12"/>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="10"/>
+      <c r="AM13" s="10"/>
+      <c r="AN13" s="11"/>
+      <c r="AO13" s="12"/>
+      <c r="AP13" s="10"/>
+      <c r="AQ13" s="10"/>
+      <c r="AR13" s="10"/>
+      <c r="AS13" s="11"/>
+      <c r="AT13" s="12"/>
+      <c r="AU13" s="10"/>
+      <c r="AV13" s="10"/>
+      <c r="AW13" s="10"/>
+      <c r="AX13" s="11"/>
+      <c r="AY13" s="12"/>
+      <c r="AZ13" s="10"/>
+      <c r="BA13" s="10"/>
+      <c r="BB13" s="10"/>
+      <c r="BC13" s="10"/>
+      <c r="BD13" s="10"/>
+      <c r="BE13" s="10"/>
+      <c r="BF13" s="10"/>
+      <c r="BG13" s="10"/>
+      <c r="BH13" s="15"/>
       <c r="BI13" s="1">
         <v>11</v>
       </c>
+      <c r="BT13" s="137"/>
+      <c r="BU13" s="134"/>
+      <c r="BV13" s="134"/>
+      <c r="BW13" s="134"/>
+      <c r="BX13" s="156" t="s">
+        <v>64</v>
+      </c>
+      <c r="BY13" s="156"/>
+      <c r="BZ13" s="155"/>
+      <c r="CA13" s="155"/>
+      <c r="CB13" s="155"/>
+      <c r="CC13" s="157"/>
+      <c r="CD13" s="133"/>
     </row>
-    <row r="14" spans="2:61" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I14" s="41"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="23"/>
-      <c r="AA14" s="23"/>
-      <c r="AB14" s="25"/>
-      <c r="AC14" s="22"/>
-      <c r="AD14" s="23"/>
-      <c r="AE14" s="23"/>
-      <c r="AF14" s="23"/>
-      <c r="AG14" s="25"/>
-      <c r="AH14" s="14"/>
-      <c r="AI14" s="15"/>
-      <c r="AJ14" s="22"/>
-      <c r="AK14" s="23"/>
-      <c r="AL14" s="23"/>
-      <c r="AM14" s="23"/>
-      <c r="AN14" s="25"/>
-      <c r="AO14" s="22"/>
-      <c r="AP14" s="23"/>
-      <c r="AQ14" s="23"/>
-      <c r="AR14" s="23"/>
-      <c r="AS14" s="25"/>
-      <c r="AT14" s="22"/>
-      <c r="AU14" s="23"/>
-      <c r="AV14" s="23"/>
-      <c r="AW14" s="23"/>
-      <c r="AX14" s="25"/>
-      <c r="AY14" s="22"/>
-      <c r="AZ14" s="23"/>
-      <c r="BA14" s="23"/>
-      <c r="BB14" s="23"/>
-      <c r="BC14" s="23"/>
-      <c r="BD14" s="23"/>
-      <c r="BE14" s="23"/>
-      <c r="BF14" s="23"/>
-      <c r="BG14" s="23"/>
-      <c r="BH14" s="42"/>
+    <row r="14" spans="2:82" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I14" s="39"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="23"/>
+      <c r="AC14" s="20"/>
+      <c r="AD14" s="21"/>
+      <c r="AE14" s="21"/>
+      <c r="AF14" s="21"/>
+      <c r="AG14" s="23"/>
+      <c r="AH14" s="13"/>
+      <c r="AI14" s="14"/>
+      <c r="AJ14" s="20"/>
+      <c r="AK14" s="21"/>
+      <c r="AL14" s="21"/>
+      <c r="AM14" s="21"/>
+      <c r="AN14" s="23"/>
+      <c r="AO14" s="20"/>
+      <c r="AP14" s="21"/>
+      <c r="AQ14" s="21"/>
+      <c r="AR14" s="21"/>
+      <c r="AS14" s="23"/>
+      <c r="AT14" s="20"/>
+      <c r="AU14" s="21"/>
+      <c r="AV14" s="21"/>
+      <c r="AW14" s="21"/>
+      <c r="AX14" s="23"/>
+      <c r="AY14" s="20"/>
+      <c r="AZ14" s="21"/>
+      <c r="BA14" s="21"/>
+      <c r="BB14" s="21"/>
+      <c r="BC14" s="21"/>
+      <c r="BD14" s="21"/>
+      <c r="BE14" s="21"/>
+      <c r="BF14" s="21"/>
+      <c r="BG14" s="21"/>
+      <c r="BH14" s="40"/>
       <c r="BI14" s="1">
         <v>12</v>
       </c>
+      <c r="BT14" s="137"/>
+      <c r="BU14" s="131"/>
+      <c r="BV14" s="131"/>
+      <c r="BW14" s="134"/>
+      <c r="BX14" s="156"/>
+      <c r="BY14" s="156"/>
+      <c r="BZ14" s="155"/>
+      <c r="CA14" s="155"/>
+      <c r="CB14" s="155"/>
+      <c r="CC14" s="157"/>
+      <c r="CD14" s="133"/>
     </row>
-    <row r="15" spans="2:61" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I15" s="43"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="44"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="46"/>
-      <c r="U15" s="44"/>
-      <c r="V15" s="44"/>
-      <c r="W15" s="44"/>
-      <c r="X15" s="45"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="15"/>
-      <c r="AB15" s="15"/>
-      <c r="AC15" s="15"/>
-      <c r="AD15" s="15"/>
-      <c r="AE15" s="15"/>
-      <c r="AF15" s="15"/>
-      <c r="AG15" s="15"/>
-      <c r="AH15" s="47"/>
-      <c r="AI15" s="15"/>
-      <c r="AJ15" s="15"/>
-      <c r="AK15" s="15"/>
-      <c r="AL15" s="15"/>
-      <c r="AM15" s="15"/>
-      <c r="AN15" s="15"/>
-      <c r="AO15" s="15"/>
-      <c r="AP15" s="15"/>
-      <c r="AQ15" s="15"/>
-      <c r="AR15" s="15"/>
-      <c r="AS15" s="15"/>
-      <c r="AT15" s="15"/>
-      <c r="AU15" s="15"/>
-      <c r="AV15" s="15"/>
-      <c r="AW15" s="15"/>
-      <c r="AX15" s="15"/>
-      <c r="AY15" s="36"/>
-      <c r="AZ15" s="37"/>
-      <c r="BA15" s="37"/>
-      <c r="BB15" s="37"/>
-      <c r="BC15" s="39"/>
-      <c r="BD15" s="36"/>
-      <c r="BE15" s="37"/>
-      <c r="BF15" s="37"/>
-      <c r="BG15" s="37"/>
-      <c r="BH15" s="48"/>
+    <row r="15" spans="2:82" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I15" s="41"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="43"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="14"/>
+      <c r="AE15" s="14"/>
+      <c r="AF15" s="14"/>
+      <c r="AG15" s="14"/>
+      <c r="AH15" s="45"/>
+      <c r="AI15" s="14"/>
+      <c r="AJ15" s="14"/>
+      <c r="AK15" s="14"/>
+      <c r="AL15" s="14"/>
+      <c r="AM15" s="14"/>
+      <c r="AN15" s="14"/>
+      <c r="AO15" s="14"/>
+      <c r="AP15" s="14"/>
+      <c r="AQ15" s="14"/>
+      <c r="AR15" s="14"/>
+      <c r="AS15" s="14"/>
+      <c r="AT15" s="14"/>
+      <c r="AU15" s="14"/>
+      <c r="AV15" s="14"/>
+      <c r="AW15" s="14"/>
+      <c r="AX15" s="14"/>
+      <c r="AY15" s="34"/>
+      <c r="AZ15" s="35"/>
+      <c r="BA15" s="35"/>
+      <c r="BB15" s="35"/>
+      <c r="BC15" s="37"/>
+      <c r="BD15" s="34"/>
+      <c r="BE15" s="35"/>
+      <c r="BF15" s="35"/>
+      <c r="BG15" s="35"/>
+      <c r="BH15" s="46"/>
       <c r="BI15" s="1">
         <v>13</v>
       </c>
+      <c r="BT15" s="137"/>
+      <c r="BU15" s="134"/>
+      <c r="BV15" s="134"/>
+      <c r="BW15" s="134"/>
+      <c r="BX15" s="156" t="s">
+        <v>65</v>
+      </c>
+      <c r="BY15" s="156"/>
+      <c r="BZ15" s="156"/>
+      <c r="CA15" s="156"/>
+      <c r="CB15" s="156"/>
+      <c r="CC15" s="158"/>
+      <c r="CD15" s="151"/>
     </row>
-    <row r="16" spans="2:61" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I16" s="49"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="50"/>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="50"/>
-      <c r="S16" s="51"/>
-      <c r="T16" s="52"/>
-      <c r="U16" s="50"/>
-      <c r="V16" s="50"/>
-      <c r="W16" s="50"/>
-      <c r="X16" s="53"/>
-      <c r="Y16" s="14"/>
-      <c r="Z16" s="32"/>
-      <c r="AA16" s="32"/>
-      <c r="AB16" s="32"/>
-      <c r="AC16" s="32"/>
-      <c r="AD16" s="32"/>
-      <c r="AE16" s="32"/>
-      <c r="AF16" s="33"/>
-      <c r="AG16" s="15"/>
-      <c r="AH16" s="54"/>
-      <c r="AI16" s="55"/>
-      <c r="AJ16" s="55"/>
-      <c r="AK16" s="55"/>
-      <c r="AL16" s="55"/>
-      <c r="AM16" s="55"/>
-      <c r="AN16" s="55"/>
-      <c r="AO16" s="32"/>
-      <c r="AP16" s="32"/>
-      <c r="AQ16" s="32"/>
-      <c r="AR16" s="32"/>
-      <c r="AS16" s="32"/>
-      <c r="AT16" s="32"/>
-      <c r="AU16" s="32"/>
-      <c r="AV16" s="32"/>
-      <c r="AW16" s="33"/>
-      <c r="AX16" s="15"/>
-      <c r="AY16" s="13"/>
-      <c r="AZ16" s="11"/>
-      <c r="BA16" s="11"/>
-      <c r="BB16" s="11"/>
-      <c r="BC16" s="12"/>
-      <c r="BD16" s="13"/>
-      <c r="BE16" s="11"/>
-      <c r="BF16" s="11"/>
-      <c r="BG16" s="11"/>
-      <c r="BH16" s="16"/>
+    <row r="16" spans="2:82" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I16" s="47"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="50"/>
+      <c r="U16" s="48"/>
+      <c r="V16" s="48"/>
+      <c r="W16" s="48"/>
+      <c r="X16" s="51"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="30"/>
+      <c r="AB16" s="30"/>
+      <c r="AC16" s="30"/>
+      <c r="AD16" s="30"/>
+      <c r="AE16" s="30"/>
+      <c r="AF16" s="31"/>
+      <c r="AG16" s="14"/>
+      <c r="AH16" s="52"/>
+      <c r="AI16" s="53"/>
+      <c r="AJ16" s="53"/>
+      <c r="AK16" s="53"/>
+      <c r="AL16" s="53"/>
+      <c r="AM16" s="53"/>
+      <c r="AN16" s="53"/>
+      <c r="AO16" s="30"/>
+      <c r="AP16" s="30"/>
+      <c r="AQ16" s="30"/>
+      <c r="AR16" s="30"/>
+      <c r="AS16" s="30"/>
+      <c r="AT16" s="30"/>
+      <c r="AU16" s="30"/>
+      <c r="AV16" s="30"/>
+      <c r="AW16" s="31"/>
+      <c r="AX16" s="14"/>
+      <c r="AY16" s="12"/>
+      <c r="AZ16" s="10"/>
+      <c r="BA16" s="10"/>
+      <c r="BB16" s="10"/>
+      <c r="BC16" s="11"/>
+      <c r="BD16" s="12"/>
+      <c r="BE16" s="10"/>
+      <c r="BF16" s="10"/>
+      <c r="BG16" s="10"/>
+      <c r="BH16" s="15"/>
       <c r="BI16" s="1">
         <v>14</v>
       </c>
+      <c r="BT16" s="137"/>
+      <c r="BU16" s="132"/>
+      <c r="BV16" s="132"/>
+      <c r="BW16" s="134"/>
+      <c r="BX16" s="156"/>
+      <c r="BY16" s="156"/>
+      <c r="BZ16" s="156"/>
+      <c r="CA16" s="156"/>
+      <c r="CB16" s="156"/>
+      <c r="CC16" s="158"/>
+      <c r="CD16" s="151"/>
     </row>
-    <row r="17" spans="9:61" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I17" s="49"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="50"/>
-      <c r="R17" s="50"/>
-      <c r="S17" s="51"/>
-      <c r="T17" s="52"/>
-      <c r="U17" s="50"/>
-      <c r="V17" s="50"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="57"/>
-      <c r="Y17" s="14"/>
-      <c r="Z17" s="15"/>
-      <c r="AA17" s="58"/>
-      <c r="AB17" s="58"/>
-      <c r="AC17" s="58"/>
-      <c r="AD17" s="58"/>
-      <c r="AE17" s="59"/>
-      <c r="AF17" s="14"/>
-      <c r="AG17" s="15"/>
-      <c r="AH17" s="15"/>
-      <c r="AI17" s="15"/>
-      <c r="AJ17" s="60"/>
-      <c r="AK17" s="44"/>
-      <c r="AL17" s="44"/>
-      <c r="AM17" s="44"/>
-      <c r="AN17" s="45"/>
-      <c r="AO17" s="60"/>
-      <c r="AP17" s="61"/>
-      <c r="AQ17" s="61"/>
-      <c r="AR17" s="61"/>
-      <c r="AS17" s="61"/>
-      <c r="AT17" s="61"/>
-      <c r="AU17" s="61"/>
-      <c r="AV17" s="62"/>
-      <c r="AW17" s="14"/>
-      <c r="AX17" s="15"/>
-      <c r="AY17" s="17"/>
-      <c r="AZ17" s="11"/>
-      <c r="BA17" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="BB17" s="11"/>
-      <c r="BC17" s="12"/>
-      <c r="BD17" s="13"/>
-      <c r="BE17" s="11"/>
-      <c r="BF17" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="BG17" s="11"/>
-      <c r="BH17" s="16"/>
+    <row r="17" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I17" s="47"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="48"/>
+      <c r="W17" s="54"/>
+      <c r="X17" s="55"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="56"/>
+      <c r="AB17" s="56"/>
+      <c r="AC17" s="56"/>
+      <c r="AD17" s="56"/>
+      <c r="AE17" s="57"/>
+      <c r="AF17" s="13"/>
+      <c r="AG17" s="14"/>
+      <c r="AH17" s="14"/>
+      <c r="AI17" s="14"/>
+      <c r="AJ17" s="58"/>
+      <c r="AK17" s="42"/>
+      <c r="AL17" s="42"/>
+      <c r="AM17" s="42"/>
+      <c r="AN17" s="43"/>
+      <c r="AO17" s="58"/>
+      <c r="AP17" s="59"/>
+      <c r="AQ17" s="59"/>
+      <c r="AR17" s="59"/>
+      <c r="AS17" s="59"/>
+      <c r="AT17" s="59"/>
+      <c r="AU17" s="59"/>
+      <c r="AV17" s="60"/>
+      <c r="AW17" s="13"/>
+      <c r="AX17" s="14"/>
+      <c r="AY17" s="16"/>
+      <c r="AZ17" s="10"/>
+      <c r="BA17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="BB17" s="10"/>
+      <c r="BC17" s="11"/>
+      <c r="BD17" s="12"/>
+      <c r="BE17" s="10"/>
+      <c r="BF17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="BG17" s="10"/>
+      <c r="BH17" s="15"/>
       <c r="BI17" s="1">
         <v>15</v>
       </c>
+      <c r="BT17" s="137"/>
+      <c r="BU17" s="134"/>
+      <c r="BV17" s="134"/>
+      <c r="BW17" s="134"/>
+      <c r="BX17" s="156" t="s">
+        <v>66</v>
+      </c>
+      <c r="BY17" s="156"/>
+      <c r="BZ17" s="156"/>
+      <c r="CA17" s="156"/>
+      <c r="CB17" s="134"/>
+      <c r="CC17" s="138"/>
     </row>
-    <row r="18" spans="9:61" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I18" s="49"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="50"/>
-      <c r="S18" s="51"/>
-      <c r="T18" s="52"/>
-      <c r="U18" s="50"/>
-      <c r="V18" s="50"/>
-      <c r="W18" s="50"/>
-      <c r="X18" s="63"/>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="32"/>
-      <c r="AA18" s="32"/>
-      <c r="AB18" s="32"/>
-      <c r="AC18" s="32"/>
-      <c r="AD18" s="33"/>
-      <c r="AE18" s="64"/>
-      <c r="AF18" s="15"/>
-      <c r="AG18" s="32"/>
-      <c r="AH18" s="33"/>
-      <c r="AI18" s="15"/>
-      <c r="AJ18" s="65"/>
-      <c r="AK18" s="50"/>
-      <c r="AL18" s="50"/>
-      <c r="AM18" s="50"/>
-      <c r="AN18" s="51"/>
-      <c r="AO18" s="66"/>
-      <c r="AP18" s="67"/>
-      <c r="AQ18" s="68" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR18" s="68"/>
-      <c r="AS18" s="68"/>
-      <c r="AT18" s="68"/>
-      <c r="AU18" s="68"/>
-      <c r="AV18" s="69"/>
-      <c r="AW18" s="33"/>
-      <c r="AX18" s="15"/>
-      <c r="AY18" s="13"/>
-      <c r="AZ18" s="11"/>
-      <c r="BA18" s="11"/>
-      <c r="BB18" s="11"/>
-      <c r="BC18" s="12"/>
-      <c r="BD18" s="13"/>
-      <c r="BE18" s="11"/>
-      <c r="BF18" s="11"/>
-      <c r="BG18" s="11"/>
-      <c r="BH18" s="16"/>
+    <row r="18" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I18" s="47"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="50"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="W18" s="48"/>
+      <c r="X18" s="61"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="30"/>
+      <c r="AA18" s="30"/>
+      <c r="AB18" s="30"/>
+      <c r="AC18" s="30"/>
+      <c r="AD18" s="31"/>
+      <c r="AE18" s="62"/>
+      <c r="AF18" s="14"/>
+      <c r="AG18" s="30"/>
+      <c r="AH18" s="31"/>
+      <c r="AI18" s="14"/>
+      <c r="AJ18" s="63"/>
+      <c r="AK18" s="48"/>
+      <c r="AL18" s="48"/>
+      <c r="AM18" s="48"/>
+      <c r="AN18" s="49"/>
+      <c r="AO18" s="64"/>
+      <c r="AP18" s="65"/>
+      <c r="AQ18" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR18" s="66"/>
+      <c r="AS18" s="66"/>
+      <c r="AT18" s="66"/>
+      <c r="AU18" s="66"/>
+      <c r="AV18" s="67"/>
+      <c r="AW18" s="31"/>
+      <c r="AX18" s="14"/>
+      <c r="AY18" s="12"/>
+      <c r="AZ18" s="10"/>
+      <c r="BA18" s="10"/>
+      <c r="BB18" s="10"/>
+      <c r="BC18" s="11"/>
+      <c r="BD18" s="12"/>
+      <c r="BE18" s="10"/>
+      <c r="BF18" s="10"/>
+      <c r="BG18" s="10"/>
+      <c r="BH18" s="15"/>
       <c r="BI18" s="1">
         <v>16</v>
       </c>
+      <c r="BT18" s="137"/>
+      <c r="BU18" s="135"/>
+      <c r="BV18" s="135"/>
+      <c r="BW18" s="134"/>
+      <c r="BX18" s="156"/>
+      <c r="BY18" s="156"/>
+      <c r="BZ18" s="156"/>
+      <c r="CA18" s="156"/>
+      <c r="CB18" s="134"/>
+      <c r="CC18" s="138"/>
     </row>
-    <row r="19" spans="9:61" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I19" s="49"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="50"/>
-      <c r="R19" s="50"/>
-      <c r="S19" s="51"/>
-      <c r="T19" s="70"/>
-      <c r="U19" s="71"/>
-      <c r="V19" s="71"/>
-      <c r="W19" s="71"/>
-      <c r="X19" s="72"/>
-      <c r="Y19" s="60"/>
-      <c r="Z19" s="44"/>
-      <c r="AA19" s="57"/>
-      <c r="AB19" s="44"/>
-      <c r="AC19" s="45"/>
-      <c r="AD19" s="14"/>
-      <c r="AE19" s="15"/>
-      <c r="AF19" s="58"/>
-      <c r="AG19" s="59"/>
-      <c r="AH19" s="14"/>
-      <c r="AI19" s="15"/>
-      <c r="AJ19" s="73"/>
-      <c r="AK19" s="50"/>
-      <c r="AL19" s="50"/>
-      <c r="AM19" s="50"/>
-      <c r="AN19" s="51"/>
-      <c r="AO19" s="74"/>
-      <c r="AP19" s="75"/>
-      <c r="AQ19" s="76"/>
-      <c r="AR19" s="71"/>
-      <c r="AS19" s="71"/>
-      <c r="AT19" s="71"/>
-      <c r="AU19" s="71"/>
-      <c r="AV19" s="77"/>
-      <c r="AW19" s="14"/>
-      <c r="AX19" s="15"/>
-      <c r="AY19" s="22"/>
-      <c r="AZ19" s="23"/>
-      <c r="BA19" s="23"/>
-      <c r="BB19" s="23"/>
-      <c r="BC19" s="25"/>
-      <c r="BD19" s="22"/>
-      <c r="BE19" s="23"/>
-      <c r="BF19" s="24"/>
-      <c r="BG19" s="23"/>
-      <c r="BH19" s="42"/>
+    <row r="19" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I19" s="47"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="68"/>
+      <c r="U19" s="69"/>
+      <c r="V19" s="69"/>
+      <c r="W19" s="69"/>
+      <c r="X19" s="70"/>
+      <c r="Y19" s="58"/>
+      <c r="Z19" s="42"/>
+      <c r="AA19" s="55"/>
+      <c r="AB19" s="42"/>
+      <c r="AC19" s="43"/>
+      <c r="AD19" s="13"/>
+      <c r="AE19" s="14"/>
+      <c r="AF19" s="56"/>
+      <c r="AG19" s="57"/>
+      <c r="AH19" s="13"/>
+      <c r="AI19" s="14"/>
+      <c r="AJ19" s="71"/>
+      <c r="AK19" s="48"/>
+      <c r="AL19" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM19" s="48"/>
+      <c r="AN19" s="49"/>
+      <c r="AO19" s="72"/>
+      <c r="AP19" s="73"/>
+      <c r="AQ19" s="74"/>
+      <c r="AR19" s="69"/>
+      <c r="AS19" s="69"/>
+      <c r="AT19" s="69"/>
+      <c r="AU19" s="69"/>
+      <c r="AV19" s="75"/>
+      <c r="AW19" s="13"/>
+      <c r="AX19" s="14"/>
+      <c r="AY19" s="20"/>
+      <c r="AZ19" s="21"/>
+      <c r="BA19" s="21"/>
+      <c r="BB19" s="21"/>
+      <c r="BC19" s="23"/>
+      <c r="BD19" s="20"/>
+      <c r="BE19" s="21"/>
+      <c r="BF19" s="22"/>
+      <c r="BG19" s="21"/>
+      <c r="BH19" s="40"/>
       <c r="BI19" s="1">
         <v>17</v>
       </c>
+      <c r="BT19" s="137"/>
+      <c r="BU19" s="134"/>
+      <c r="BV19" s="136"/>
+      <c r="BW19" s="134"/>
+      <c r="BX19" s="155" t="s">
+        <v>67</v>
+      </c>
+      <c r="BY19" s="134"/>
+      <c r="BZ19" s="134"/>
+      <c r="CA19" s="134"/>
+      <c r="CB19" s="134"/>
+      <c r="CC19" s="138"/>
     </row>
-    <row r="20" spans="9:61" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I20" s="49"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="O20" s="50"/>
-      <c r="P20" s="50"/>
-      <c r="Q20" s="50"/>
-      <c r="R20" s="50"/>
-      <c r="S20" s="51"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="78"/>
-      <c r="V20" s="15"/>
-      <c r="W20" s="15"/>
-      <c r="X20" s="15"/>
-      <c r="Y20" s="65"/>
-      <c r="Z20" s="50"/>
-      <c r="AA20" s="50"/>
-      <c r="AB20" s="50"/>
-      <c r="AC20" s="51"/>
-      <c r="AD20" s="15"/>
-      <c r="AE20" s="32"/>
-      <c r="AF20" s="33"/>
-      <c r="AG20" s="64"/>
-      <c r="AH20" s="14"/>
-      <c r="AI20" s="15"/>
-      <c r="AJ20" s="65"/>
-      <c r="AK20" s="50"/>
-      <c r="AL20" s="50"/>
-      <c r="AM20" s="50"/>
-      <c r="AN20" s="51"/>
-      <c r="AO20" s="79"/>
-      <c r="AP20" s="80"/>
-      <c r="AQ20" s="63"/>
-      <c r="AR20" s="15"/>
-      <c r="AS20" s="15"/>
-      <c r="AT20" s="15"/>
-      <c r="AU20" s="15"/>
-      <c r="AV20" s="15"/>
-      <c r="AW20" s="28"/>
-      <c r="AX20" s="15"/>
-      <c r="AY20" s="15"/>
-      <c r="AZ20" s="15"/>
-      <c r="BA20" s="15"/>
-      <c r="BB20" s="15"/>
-      <c r="BC20" s="15"/>
-      <c r="BD20" s="15"/>
-      <c r="BE20" s="15"/>
-      <c r="BF20" s="15"/>
-      <c r="BG20" s="15"/>
-      <c r="BH20" s="81"/>
+    <row r="20" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I20" s="47"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="76"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="63"/>
+      <c r="Z20" s="48"/>
+      <c r="AA20" s="48"/>
+      <c r="AB20" s="48"/>
+      <c r="AC20" s="49"/>
+      <c r="AD20" s="14"/>
+      <c r="AE20" s="30"/>
+      <c r="AF20" s="31"/>
+      <c r="AG20" s="62"/>
+      <c r="AH20" s="13"/>
+      <c r="AI20" s="14"/>
+      <c r="AJ20" s="63"/>
+      <c r="AK20" s="48"/>
+      <c r="AL20" s="48"/>
+      <c r="AM20" s="48"/>
+      <c r="AN20" s="49"/>
+      <c r="AO20" s="77"/>
+      <c r="AP20" s="78"/>
+      <c r="AQ20" s="61"/>
+      <c r="AR20" s="14"/>
+      <c r="AS20" s="14"/>
+      <c r="AT20" s="14"/>
+      <c r="AU20" s="14"/>
+      <c r="AV20" s="14"/>
+      <c r="AW20" s="26"/>
+      <c r="AX20" s="14"/>
+      <c r="AY20" s="14"/>
+      <c r="AZ20" s="14"/>
+      <c r="BA20" s="14"/>
+      <c r="BB20" s="14"/>
+      <c r="BC20" s="14"/>
+      <c r="BD20" s="14"/>
+      <c r="BE20" s="14"/>
+      <c r="BF20" s="14"/>
+      <c r="BG20" s="14"/>
+      <c r="BH20" s="79"/>
       <c r="BI20" s="1">
         <v>18</v>
       </c>
+      <c r="BT20" s="137"/>
+      <c r="BU20" s="134"/>
+      <c r="BV20" s="134"/>
+      <c r="BW20" s="134"/>
+      <c r="BX20" s="134"/>
+      <c r="BY20" s="134"/>
+      <c r="BZ20" s="134"/>
+      <c r="CA20" s="134"/>
+      <c r="CB20" s="134"/>
+      <c r="CC20" s="138"/>
     </row>
-    <row r="21" spans="9:61" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I21" s="49"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="50"/>
-      <c r="R21" s="50"/>
-      <c r="S21" s="51"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="82"/>
-      <c r="V21" s="83"/>
-      <c r="W21" s="78"/>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="65"/>
-      <c r="Z21" s="50"/>
-      <c r="AA21" s="50"/>
-      <c r="AB21" s="50"/>
-      <c r="AC21" s="56"/>
-      <c r="AD21" s="60"/>
-      <c r="AE21" s="45"/>
-      <c r="AF21" s="14"/>
-      <c r="AG21" s="64"/>
-      <c r="AH21" s="14"/>
-      <c r="AI21" s="15"/>
-      <c r="AJ21" s="84"/>
-      <c r="AK21" s="71"/>
-      <c r="AL21" s="71"/>
-      <c r="AM21" s="71"/>
-      <c r="AN21" s="77"/>
-      <c r="AO21" s="66"/>
-      <c r="AP21" s="85"/>
-      <c r="AQ21" s="51"/>
-      <c r="AR21" s="47"/>
-      <c r="AS21" s="32"/>
-      <c r="AT21" s="32"/>
-      <c r="AU21" s="32"/>
-      <c r="AV21" s="32"/>
-      <c r="AW21" s="32"/>
-      <c r="AX21" s="32"/>
-      <c r="AY21" s="32"/>
-      <c r="AZ21" s="32"/>
-      <c r="BA21" s="32"/>
-      <c r="BB21" s="32"/>
-      <c r="BC21" s="32"/>
-      <c r="BD21" s="32"/>
-      <c r="BE21" s="32"/>
-      <c r="BF21" s="32"/>
-      <c r="BG21" s="32"/>
-      <c r="BH21" s="86"/>
+    <row r="21" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I21" s="47"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="80"/>
+      <c r="V21" s="81"/>
+      <c r="W21" s="76"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="63"/>
+      <c r="Z21" s="48"/>
+      <c r="AA21" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB21" s="48"/>
+      <c r="AC21" s="54"/>
+      <c r="AD21" s="58"/>
+      <c r="AE21" s="43"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="62"/>
+      <c r="AH21" s="13"/>
+      <c r="AI21" s="14"/>
+      <c r="AJ21" s="82"/>
+      <c r="AK21" s="69"/>
+      <c r="AL21" s="69"/>
+      <c r="AM21" s="69"/>
+      <c r="AN21" s="75"/>
+      <c r="AO21" s="64"/>
+      <c r="AP21" s="83"/>
+      <c r="AQ21" s="49"/>
+      <c r="AR21" s="45"/>
+      <c r="AS21" s="30"/>
+      <c r="AT21" s="30"/>
+      <c r="AU21" s="30"/>
+      <c r="AV21" s="30"/>
+      <c r="AW21" s="30"/>
+      <c r="AX21" s="30"/>
+      <c r="AY21" s="30"/>
+      <c r="AZ21" s="30"/>
+      <c r="BA21" s="30"/>
+      <c r="BB21" s="30"/>
+      <c r="BC21" s="30"/>
+      <c r="BD21" s="30"/>
+      <c r="BE21" s="30"/>
+      <c r="BF21" s="30"/>
+      <c r="BG21" s="30"/>
+      <c r="BH21" s="84"/>
       <c r="BI21" s="1">
         <v>19</v>
       </c>
+      <c r="BT21" s="137"/>
+      <c r="BU21" s="141"/>
+      <c r="BV21" s="142"/>
+      <c r="BW21" s="134"/>
+      <c r="BX21" s="156" t="s">
+        <v>68</v>
+      </c>
+      <c r="BY21" s="156"/>
+      <c r="BZ21" s="134"/>
+      <c r="CA21" s="134"/>
+      <c r="CB21" s="134"/>
+      <c r="CC21" s="138"/>
     </row>
-    <row r="22" spans="9:61" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I22" s="49"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="50"/>
-      <c r="Q22" s="50"/>
-      <c r="R22" s="50"/>
-      <c r="S22" s="51"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="82"/>
-      <c r="V22" s="15"/>
-      <c r="W22" s="82"/>
-      <c r="X22" s="15"/>
-      <c r="Y22" s="65"/>
-      <c r="Z22" s="50"/>
-      <c r="AA22" s="50"/>
-      <c r="AB22" s="50"/>
-      <c r="AC22" s="56"/>
-      <c r="AD22" s="65"/>
-      <c r="AE22" s="51"/>
-      <c r="AF22" s="14"/>
-      <c r="AG22" s="64"/>
-      <c r="AH22" s="14"/>
-      <c r="AI22" s="15"/>
-      <c r="AJ22" s="15"/>
-      <c r="AK22" s="15"/>
-      <c r="AL22" s="15"/>
-      <c r="AM22" s="15"/>
-      <c r="AN22" s="87"/>
-      <c r="AO22" s="88"/>
-      <c r="AP22" s="85"/>
-      <c r="AQ22" s="51"/>
-      <c r="AR22" s="47"/>
-      <c r="AS22" s="15"/>
-      <c r="AT22" s="36"/>
-      <c r="AU22" s="89"/>
-      <c r="AV22" s="39"/>
-      <c r="AW22" s="36"/>
-      <c r="AX22" s="89"/>
-      <c r="AY22" s="39"/>
-      <c r="AZ22" s="36"/>
-      <c r="BA22" s="89"/>
-      <c r="BB22" s="39"/>
-      <c r="BC22" s="36"/>
-      <c r="BD22" s="89"/>
-      <c r="BE22" s="39"/>
-      <c r="BF22" s="36"/>
-      <c r="BG22" s="89"/>
-      <c r="BH22" s="48"/>
+    <row r="22" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I22" s="47"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="80"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="80"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="63"/>
+      <c r="Z22" s="48"/>
+      <c r="AA22" s="48"/>
+      <c r="AB22" s="48"/>
+      <c r="AC22" s="54"/>
+      <c r="AD22" s="63"/>
+      <c r="AE22" s="49"/>
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="62"/>
+      <c r="AH22" s="13"/>
+      <c r="AI22" s="14"/>
+      <c r="AJ22" s="14"/>
+      <c r="AK22" s="14"/>
+      <c r="AL22" s="14"/>
+      <c r="AM22" s="14"/>
+      <c r="AN22" s="85"/>
+      <c r="AO22" s="86"/>
+      <c r="AP22" s="83"/>
+      <c r="AQ22" s="49"/>
+      <c r="AR22" s="45"/>
+      <c r="AS22" s="14"/>
+      <c r="AT22" s="34"/>
+      <c r="AU22" s="87"/>
+      <c r="AV22" s="37"/>
+      <c r="AW22" s="34"/>
+      <c r="AX22" s="87"/>
+      <c r="AY22" s="37"/>
+      <c r="AZ22" s="34"/>
+      <c r="BA22" s="87"/>
+      <c r="BB22" s="37"/>
+      <c r="BC22" s="34"/>
+      <c r="BD22" s="87"/>
+      <c r="BE22" s="37"/>
+      <c r="BF22" s="34"/>
+      <c r="BG22" s="87"/>
+      <c r="BH22" s="46"/>
       <c r="BI22" s="1">
         <v>20</v>
       </c>
+      <c r="BT22" s="137"/>
+      <c r="BU22" s="139"/>
+      <c r="BV22" s="140"/>
+      <c r="BW22" s="134"/>
+      <c r="BX22" s="156"/>
+      <c r="BY22" s="156"/>
+      <c r="BZ22" s="134"/>
+      <c r="CA22" s="134"/>
+      <c r="CB22" s="134"/>
+      <c r="CC22" s="138"/>
     </row>
-    <row r="23" spans="9:61" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I23" s="49"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="50"/>
-      <c r="Q23" s="50"/>
-      <c r="R23" s="50"/>
-      <c r="S23" s="51"/>
-      <c r="T23" s="15"/>
-      <c r="U23" s="82"/>
-      <c r="V23" s="15"/>
-      <c r="W23" s="82"/>
-      <c r="X23" s="15"/>
-      <c r="Y23" s="84"/>
-      <c r="Z23" s="71"/>
-      <c r="AA23" s="71"/>
-      <c r="AB23" s="71"/>
-      <c r="AC23" s="72"/>
-      <c r="AD23" s="65"/>
-      <c r="AE23" s="51"/>
-      <c r="AF23" s="14"/>
-      <c r="AG23" s="64"/>
-      <c r="AH23" s="90"/>
-      <c r="AI23" s="55"/>
-      <c r="AJ23" s="55"/>
-      <c r="AK23" s="55"/>
-      <c r="AL23" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM23" s="55"/>
-      <c r="AN23" s="55"/>
-      <c r="AO23" s="91"/>
-      <c r="AP23" s="50"/>
-      <c r="AQ23" s="51"/>
-      <c r="AR23" s="47"/>
-      <c r="AS23" s="15"/>
-      <c r="AT23" s="13"/>
-      <c r="AU23" s="13" t="s">
+    <row r="23" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I23" s="47"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="80"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="80"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="82"/>
+      <c r="Z23" s="69"/>
+      <c r="AA23" s="69"/>
+      <c r="AB23" s="69"/>
+      <c r="AC23" s="70"/>
+      <c r="AD23" s="63"/>
+      <c r="AE23" s="49"/>
+      <c r="AF23" s="13"/>
+      <c r="AG23" s="62"/>
+      <c r="AH23" s="88"/>
+      <c r="AI23" s="53"/>
+      <c r="AJ23" s="53"/>
+      <c r="AK23" s="53"/>
+      <c r="AL23" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM23" s="53"/>
+      <c r="AN23" s="53"/>
+      <c r="AO23" s="89"/>
+      <c r="AP23" s="48"/>
+      <c r="AQ23" s="49"/>
+      <c r="AR23" s="45"/>
+      <c r="AS23" s="14"/>
+      <c r="AT23" s="12"/>
+      <c r="AU23" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AV23" s="11"/>
+      <c r="AW23" s="12"/>
+      <c r="AX23" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AY23" s="11"/>
+      <c r="AZ23" s="12"/>
+      <c r="BA23" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="AV23" s="12"/>
-      <c r="AW23" s="13"/>
-      <c r="AX23" s="13" t="s">
+      <c r="BB23" s="11"/>
+      <c r="BC23" s="12"/>
+      <c r="BD23" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="AY23" s="12"/>
-      <c r="AZ23" s="13"/>
-      <c r="BA23" s="13" t="s">
+      <c r="BE23" s="11"/>
+      <c r="BF23" s="12"/>
+      <c r="BG23" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="BB23" s="12"/>
-      <c r="BC23" s="13"/>
-      <c r="BD23" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="BE23" s="12"/>
-      <c r="BF23" s="13"/>
-      <c r="BG23" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="BH23" s="16"/>
+      <c r="BH23" s="15"/>
       <c r="BI23" s="1">
         <v>21</v>
       </c>
+      <c r="BT23" s="137"/>
+      <c r="BU23" s="134"/>
+      <c r="BV23" s="134"/>
+      <c r="BW23" s="134"/>
+      <c r="BX23" s="134"/>
+      <c r="BY23" s="134"/>
+      <c r="BZ23" s="134"/>
+      <c r="CA23" s="134"/>
+      <c r="CB23" s="134"/>
+      <c r="CC23" s="138"/>
     </row>
-    <row r="24" spans="9:61" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I24" s="49"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="50"/>
-      <c r="Q24" s="50"/>
-      <c r="R24" s="50"/>
-      <c r="S24" s="51"/>
-      <c r="T24" s="15"/>
-      <c r="U24" s="82"/>
-      <c r="V24" s="15"/>
-      <c r="W24" s="82"/>
-      <c r="X24" s="15"/>
-      <c r="Y24" s="60"/>
-      <c r="Z24" s="44"/>
-      <c r="AA24" s="44"/>
-      <c r="AB24" s="44"/>
-      <c r="AC24" s="44"/>
-      <c r="AD24" s="50"/>
-      <c r="AE24" s="57"/>
-      <c r="AF24" s="14"/>
-      <c r="AG24" s="15"/>
-      <c r="AH24" s="15"/>
-      <c r="AI24" s="15"/>
-      <c r="AJ24" s="15"/>
-      <c r="AK24" s="15"/>
-      <c r="AL24" s="15"/>
-      <c r="AM24" s="15"/>
-      <c r="AN24" s="15"/>
-      <c r="AO24" s="84"/>
-      <c r="AP24" s="71"/>
-      <c r="AQ24" s="77"/>
-      <c r="AR24" s="54"/>
-      <c r="AS24" s="92"/>
-      <c r="AT24" s="22"/>
-      <c r="AU24" s="23"/>
-      <c r="AV24" s="25"/>
-      <c r="AW24" s="22"/>
-      <c r="AX24" s="23"/>
-      <c r="AY24" s="25"/>
-      <c r="AZ24" s="22"/>
-      <c r="BA24" s="23"/>
-      <c r="BB24" s="25"/>
-      <c r="BC24" s="22"/>
-      <c r="BD24" s="23"/>
-      <c r="BE24" s="25"/>
-      <c r="BF24" s="22"/>
-      <c r="BG24" s="23"/>
-      <c r="BH24" s="42"/>
+    <row r="24" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I24" s="47"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="48"/>
+      <c r="R24" s="48"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="80"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="80"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="58"/>
+      <c r="Z24" s="42"/>
+      <c r="AA24" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB24" s="42"/>
+      <c r="AC24" s="42"/>
+      <c r="AD24" s="48"/>
+      <c r="AE24" s="55"/>
+      <c r="AF24" s="13"/>
+      <c r="AG24" s="14"/>
+      <c r="AH24" s="14"/>
+      <c r="AI24" s="14"/>
+      <c r="AJ24" s="14"/>
+      <c r="AK24" s="14"/>
+      <c r="AL24" s="14"/>
+      <c r="AM24" s="14"/>
+      <c r="AN24" s="14"/>
+      <c r="AO24" s="82"/>
+      <c r="AP24" s="69"/>
+      <c r="AQ24" s="75"/>
+      <c r="AR24" s="52"/>
+      <c r="AS24" s="90"/>
+      <c r="AT24" s="20"/>
+      <c r="AU24" s="21"/>
+      <c r="AV24" s="23"/>
+      <c r="AW24" s="20"/>
+      <c r="AX24" s="21"/>
+      <c r="AY24" s="23"/>
+      <c r="AZ24" s="20"/>
+      <c r="BA24" s="21"/>
+      <c r="BB24" s="23"/>
+      <c r="BC24" s="20"/>
+      <c r="BD24" s="21"/>
+      <c r="BE24" s="23"/>
+      <c r="BF24" s="20"/>
+      <c r="BG24" s="21"/>
+      <c r="BH24" s="40"/>
       <c r="BI24" s="1">
         <v>22</v>
       </c>
+      <c r="BT24" s="137"/>
+      <c r="BU24" s="146"/>
+      <c r="BV24" s="147"/>
+      <c r="BW24" s="134"/>
+      <c r="BX24" s="155" t="s">
+        <v>69</v>
+      </c>
+      <c r="BY24" s="134"/>
+      <c r="BZ24" s="134"/>
+      <c r="CA24" s="134"/>
+      <c r="CB24" s="134"/>
+      <c r="CC24" s="138"/>
     </row>
-    <row r="25" spans="9:61" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I25" s="49"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="50"/>
-      <c r="R25" s="50"/>
-      <c r="S25" s="51"/>
-      <c r="T25" s="15"/>
-      <c r="U25" s="82"/>
-      <c r="V25" s="15"/>
-      <c r="W25" s="82"/>
-      <c r="X25" s="15"/>
-      <c r="Y25" s="84"/>
-      <c r="Z25" s="71"/>
-      <c r="AA25" s="71"/>
-      <c r="AB25" s="71"/>
-      <c r="AC25" s="71"/>
-      <c r="AD25" s="71"/>
-      <c r="AE25" s="77"/>
-      <c r="AF25" s="15"/>
-      <c r="AG25" s="32"/>
-      <c r="AH25" s="32"/>
-      <c r="AI25" s="32"/>
-      <c r="AJ25" s="32"/>
-      <c r="AK25" s="32"/>
-      <c r="AL25" s="32"/>
-      <c r="AM25" s="33"/>
-      <c r="AN25" s="15"/>
-      <c r="AO25" s="15"/>
-      <c r="AP25" s="15"/>
-      <c r="AQ25" s="15"/>
-      <c r="AR25" s="15"/>
-      <c r="AS25" s="15"/>
-      <c r="AT25" s="15"/>
-      <c r="AU25" s="15"/>
-      <c r="AV25" s="15"/>
-      <c r="AW25" s="15"/>
-      <c r="AX25" s="15"/>
-      <c r="AY25" s="15"/>
-      <c r="AZ25" s="15"/>
-      <c r="BA25" s="15"/>
-      <c r="BB25" s="15"/>
-      <c r="BC25" s="15"/>
-      <c r="BD25" s="15"/>
-      <c r="BE25" s="15"/>
-      <c r="BF25" s="15"/>
-      <c r="BG25" s="15"/>
-      <c r="BH25" s="81"/>
+    <row r="25" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I25" s="47"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="49"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="80"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="80"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="82"/>
+      <c r="Z25" s="69"/>
+      <c r="AA25" s="69"/>
+      <c r="AB25" s="69"/>
+      <c r="AC25" s="69"/>
+      <c r="AD25" s="69"/>
+      <c r="AE25" s="75"/>
+      <c r="AF25" s="14"/>
+      <c r="AG25" s="30"/>
+      <c r="AH25" s="30"/>
+      <c r="AI25" s="30"/>
+      <c r="AJ25" s="30"/>
+      <c r="AK25" s="30"/>
+      <c r="AL25" s="30"/>
+      <c r="AM25" s="31"/>
+      <c r="AN25" s="14"/>
+      <c r="AO25" s="14"/>
+      <c r="AP25" s="14"/>
+      <c r="AQ25" s="14"/>
+      <c r="AR25" s="14"/>
+      <c r="AS25" s="14"/>
+      <c r="AT25" s="14"/>
+      <c r="AU25" s="14"/>
+      <c r="AV25" s="14"/>
+      <c r="AW25" s="14"/>
+      <c r="AX25" s="14"/>
+      <c r="AY25" s="14"/>
+      <c r="AZ25" s="14"/>
+      <c r="BA25" s="14"/>
+      <c r="BB25" s="14"/>
+      <c r="BC25" s="14"/>
+      <c r="BD25" s="14"/>
+      <c r="BE25" s="14"/>
+      <c r="BF25" s="14"/>
+      <c r="BG25" s="14"/>
+      <c r="BH25" s="79"/>
       <c r="BI25" s="1">
         <v>23</v>
       </c>
+      <c r="BT25" s="139"/>
+      <c r="BU25" s="159"/>
+      <c r="BV25" s="159"/>
+      <c r="BW25" s="159"/>
+      <c r="BX25" s="159"/>
+      <c r="BY25" s="159"/>
+      <c r="BZ25" s="159"/>
+      <c r="CA25" s="159"/>
+      <c r="CB25" s="159"/>
+      <c r="CC25" s="140"/>
     </row>
-    <row r="26" spans="9:61" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I26" s="93"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="71"/>
-      <c r="N26" s="71"/>
-      <c r="O26" s="71"/>
-      <c r="P26" s="71"/>
-      <c r="Q26" s="71"/>
-      <c r="R26" s="71"/>
-      <c r="S26" s="77"/>
-      <c r="T26" s="15"/>
-      <c r="U26" s="82"/>
-      <c r="V26" s="15"/>
-      <c r="W26" s="82"/>
-      <c r="X26" s="15"/>
-      <c r="Y26" s="60"/>
-      <c r="Z26" s="44"/>
-      <c r="AA26" s="44"/>
-      <c r="AB26" s="44"/>
-      <c r="AC26" s="45"/>
-      <c r="AD26" s="15"/>
-      <c r="AE26" s="15"/>
-      <c r="AF26" s="60"/>
-      <c r="AG26" s="44"/>
-      <c r="AH26" s="45"/>
-      <c r="AI26" s="94"/>
-      <c r="AJ26" s="45"/>
-      <c r="AK26" s="94"/>
-      <c r="AL26" s="45"/>
-      <c r="AM26" s="14"/>
-      <c r="AN26" s="32"/>
-      <c r="AO26" s="32"/>
-      <c r="AP26" s="32"/>
-      <c r="AQ26" s="32"/>
-      <c r="AR26" s="32"/>
-      <c r="AS26" s="32"/>
-      <c r="AT26" s="32"/>
-      <c r="AU26" s="32"/>
-      <c r="AV26" s="32"/>
-      <c r="AW26" s="32"/>
-      <c r="AX26" s="32"/>
-      <c r="AY26" s="32"/>
-      <c r="AZ26" s="32"/>
-      <c r="BA26" s="32"/>
-      <c r="BB26" s="32"/>
-      <c r="BC26" s="32"/>
-      <c r="BD26" s="32"/>
-      <c r="BE26" s="32"/>
-      <c r="BF26" s="32"/>
-      <c r="BG26" s="32"/>
-      <c r="BH26" s="86"/>
+    <row r="26" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I26" s="91"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="69"/>
+      <c r="N26" s="69"/>
+      <c r="O26" s="69"/>
+      <c r="P26" s="69"/>
+      <c r="Q26" s="69"/>
+      <c r="R26" s="69"/>
+      <c r="S26" s="75"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="80"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="80"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="58"/>
+      <c r="Z26" s="42"/>
+      <c r="AA26" s="42"/>
+      <c r="AB26" s="42"/>
+      <c r="AC26" s="43"/>
+      <c r="AD26" s="14"/>
+      <c r="AE26" s="14"/>
+      <c r="AF26" s="58"/>
+      <c r="AG26" s="42"/>
+      <c r="AH26" s="43"/>
+      <c r="AI26" s="92"/>
+      <c r="AJ26" s="43"/>
+      <c r="AK26" s="92"/>
+      <c r="AL26" s="43"/>
+      <c r="AM26" s="13"/>
+      <c r="AN26" s="30"/>
+      <c r="AO26" s="30"/>
+      <c r="AP26" s="30"/>
+      <c r="AQ26" s="30"/>
+      <c r="AR26" s="30"/>
+      <c r="AS26" s="30"/>
+      <c r="AT26" s="30"/>
+      <c r="AU26" s="30"/>
+      <c r="AV26" s="30"/>
+      <c r="AW26" s="30"/>
+      <c r="AX26" s="30"/>
+      <c r="AY26" s="30"/>
+      <c r="AZ26" s="30"/>
+      <c r="BA26" s="30"/>
+      <c r="BB26" s="30"/>
+      <c r="BC26" s="30"/>
+      <c r="BD26" s="30"/>
+      <c r="BE26" s="30"/>
+      <c r="BF26" s="30"/>
+      <c r="BG26" s="30"/>
+      <c r="BH26" s="84"/>
       <c r="BI26" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="9:61" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I27" s="95"/>
-      <c r="J27" s="96"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="44"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="44"/>
-      <c r="P27" s="45"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
-      <c r="T27" s="15"/>
-      <c r="U27" s="82"/>
-      <c r="V27" s="15"/>
-      <c r="W27" s="82"/>
-      <c r="X27" s="15"/>
-      <c r="Y27" s="65"/>
-      <c r="Z27" s="50"/>
-      <c r="AA27" s="50"/>
-      <c r="AB27" s="50"/>
-      <c r="AC27" s="51"/>
-      <c r="AD27" s="14"/>
-      <c r="AE27" s="15"/>
-      <c r="AF27" s="65"/>
-      <c r="AG27" s="50"/>
-      <c r="AH27" s="51"/>
-      <c r="AI27" s="84"/>
-      <c r="AJ27" s="77"/>
-      <c r="AK27" s="84"/>
-      <c r="AL27" s="77"/>
-      <c r="AM27" s="14"/>
-      <c r="AN27" s="15"/>
-      <c r="AO27" s="94"/>
-      <c r="AP27" s="45"/>
-      <c r="AQ27" s="94"/>
-      <c r="AR27" s="45"/>
-      <c r="AS27" s="94"/>
-      <c r="AT27" s="45"/>
-      <c r="AU27" s="94"/>
-      <c r="AV27" s="45"/>
-      <c r="AW27" s="94"/>
-      <c r="AX27" s="45"/>
-      <c r="AY27" s="94"/>
-      <c r="AZ27" s="45"/>
-      <c r="BA27" s="94"/>
-      <c r="BB27" s="45"/>
-      <c r="BC27" s="94"/>
-      <c r="BD27" s="45"/>
-      <c r="BE27" s="94"/>
-      <c r="BF27" s="45"/>
-      <c r="BG27" s="94"/>
-      <c r="BH27" s="97"/>
+    <row r="27" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I27" s="93"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="80"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="80"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="63"/>
+      <c r="Z27" s="48"/>
+      <c r="AA27" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB27" s="48"/>
+      <c r="AC27" s="49"/>
+      <c r="AD27" s="13"/>
+      <c r="AE27" s="14"/>
+      <c r="AF27" s="63"/>
+      <c r="AG27" s="48"/>
+      <c r="AH27" s="49"/>
+      <c r="AI27" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ27" s="75"/>
+      <c r="AK27" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL27" s="75"/>
+      <c r="AM27" s="13"/>
+      <c r="AN27" s="14"/>
+      <c r="AO27" s="128"/>
+      <c r="AP27" s="129"/>
+      <c r="AQ27" s="128"/>
+      <c r="AR27" s="129"/>
+      <c r="AS27" s="128"/>
+      <c r="AT27" s="129"/>
+      <c r="AU27" s="128"/>
+      <c r="AV27" s="129"/>
+      <c r="AW27" s="128"/>
+      <c r="AX27" s="129"/>
+      <c r="AY27" s="128"/>
+      <c r="AZ27" s="129"/>
+      <c r="BA27" s="128"/>
+      <c r="BB27" s="129"/>
+      <c r="BC27" s="128"/>
+      <c r="BD27" s="129"/>
+      <c r="BE27" s="128"/>
+      <c r="BF27" s="129"/>
+      <c r="BG27" s="128"/>
+      <c r="BH27" s="130"/>
       <c r="BI27" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="9:61" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I28" s="95"/>
-      <c r="J28" s="98"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="57"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="60"/>
-      <c r="S28" s="99"/>
-      <c r="T28" s="15"/>
-      <c r="U28" s="82"/>
-      <c r="V28" s="15"/>
-      <c r="W28" s="82"/>
-      <c r="X28" s="15"/>
-      <c r="Y28" s="65"/>
-      <c r="Z28" s="50"/>
-      <c r="AA28" s="50"/>
-      <c r="AB28" s="50"/>
-      <c r="AC28" s="100"/>
-      <c r="AD28" s="14"/>
-      <c r="AE28" s="15"/>
-      <c r="AF28" s="65"/>
-      <c r="AG28" s="50"/>
-      <c r="AH28" s="51"/>
-      <c r="AI28" s="60"/>
-      <c r="AJ28" s="45"/>
-      <c r="AK28" s="60"/>
-      <c r="AL28" s="45"/>
-      <c r="AM28" s="14"/>
-      <c r="AN28" s="15"/>
-      <c r="AO28" s="84" t="s">
-        <v>6</v>
-      </c>
-      <c r="AP28" s="77"/>
-      <c r="AQ28" s="84" t="s">
-        <v>6</v>
-      </c>
-      <c r="AR28" s="77"/>
-      <c r="AS28" s="84" t="s">
-        <v>6</v>
-      </c>
-      <c r="AT28" s="77"/>
-      <c r="AU28" s="84" t="s">
-        <v>6</v>
-      </c>
-      <c r="AV28" s="77"/>
-      <c r="AW28" s="84" t="s">
-        <v>6</v>
-      </c>
-      <c r="AX28" s="77"/>
-      <c r="AY28" s="84" t="s">
-        <v>6</v>
-      </c>
-      <c r="AZ28" s="77"/>
-      <c r="BA28" s="84" t="s">
-        <v>6</v>
-      </c>
-      <c r="BB28" s="77"/>
-      <c r="BC28" s="84" t="s">
-        <v>6</v>
-      </c>
-      <c r="BD28" s="77"/>
-      <c r="BE28" s="84" t="s">
-        <v>6</v>
-      </c>
-      <c r="BF28" s="77"/>
-      <c r="BG28" s="84" t="s">
-        <v>6</v>
-      </c>
-      <c r="BH28" s="101"/>
+    <row r="28" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I28" s="93"/>
+      <c r="J28" s="95"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="N28" s="48"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="55"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="58"/>
+      <c r="S28" s="96"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="80"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="80"/>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="63"/>
+      <c r="Z28" s="48"/>
+      <c r="AA28" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB28" s="48"/>
+      <c r="AC28" s="97"/>
+      <c r="AD28" s="13"/>
+      <c r="AE28" s="14"/>
+      <c r="AF28" s="63"/>
+      <c r="AG28" s="48"/>
+      <c r="AH28" s="49"/>
+      <c r="AI28" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ28" s="43"/>
+      <c r="AK28" s="58"/>
+      <c r="AL28" s="43"/>
+      <c r="AM28" s="13"/>
+      <c r="AN28" s="14"/>
+      <c r="AO28" s="82" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP28" s="75"/>
+      <c r="AQ28" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR28" s="75"/>
+      <c r="AS28" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT28" s="75"/>
+      <c r="AU28" s="82" t="s">
+        <v>39</v>
+      </c>
+      <c r="AV28" s="75"/>
+      <c r="AW28" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="AX28" s="75"/>
+      <c r="AY28" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="AZ28" s="75"/>
+      <c r="BA28" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB28" s="75"/>
+      <c r="BC28" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="BD28" s="75"/>
+      <c r="BE28" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="BF28" s="75"/>
+      <c r="BG28" s="82" t="s">
+        <v>45</v>
+      </c>
+      <c r="BH28" s="98"/>
       <c r="BI28" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="9:61" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I29" s="95"/>
-      <c r="J29" s="98"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="51"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="65"/>
-      <c r="S29" s="51"/>
-      <c r="T29" s="15"/>
-      <c r="U29" s="82"/>
-      <c r="V29" s="15"/>
-      <c r="W29" s="82"/>
-      <c r="X29" s="15"/>
-      <c r="Y29" s="65"/>
-      <c r="Z29" s="50"/>
-      <c r="AA29" s="50"/>
-      <c r="AB29" s="50"/>
-      <c r="AC29" s="51"/>
-      <c r="AD29" s="14"/>
-      <c r="AE29" s="15"/>
-      <c r="AF29" s="65"/>
-      <c r="AG29" s="50"/>
-      <c r="AH29" s="51"/>
-      <c r="AI29" s="84"/>
-      <c r="AJ29" s="77"/>
-      <c r="AK29" s="84"/>
-      <c r="AL29" s="102"/>
-      <c r="AM29" s="14"/>
-      <c r="AN29" s="15"/>
-      <c r="AO29" s="15"/>
-      <c r="AP29" s="15"/>
-      <c r="AQ29" s="60"/>
-      <c r="AR29" s="44"/>
-      <c r="AS29" s="44"/>
-      <c r="AT29" s="45"/>
-      <c r="AU29" s="15"/>
-      <c r="AV29" s="15"/>
-      <c r="AW29" s="15"/>
-      <c r="AX29" s="15"/>
-      <c r="AY29" s="15"/>
-      <c r="AZ29" s="15"/>
-      <c r="BA29" s="15"/>
-      <c r="BB29" s="15"/>
-      <c r="BC29" s="60"/>
-      <c r="BD29" s="44"/>
-      <c r="BE29" s="44"/>
-      <c r="BF29" s="45"/>
-      <c r="BG29" s="58"/>
-      <c r="BH29" s="81"/>
+    <row r="29" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I29" s="93"/>
+      <c r="J29" s="95"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="N29" s="48"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="49"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="63"/>
+      <c r="S29" s="49"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="80"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="80"/>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="63"/>
+      <c r="Z29" s="48"/>
+      <c r="AA29" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB29" s="48"/>
+      <c r="AC29" s="49"/>
+      <c r="AD29" s="13"/>
+      <c r="AE29" s="14"/>
+      <c r="AF29" s="63"/>
+      <c r="AG29" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH29" s="54"/>
+      <c r="AI29" s="109"/>
+      <c r="AJ29" s="75"/>
+      <c r="AK29" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL29" s="99"/>
+      <c r="AM29" s="13"/>
+      <c r="AN29" s="14"/>
+      <c r="AO29" s="14"/>
+      <c r="AP29" s="14"/>
+      <c r="AQ29" s="58"/>
+      <c r="AR29" s="42"/>
+      <c r="AS29" s="42"/>
+      <c r="AT29" s="43"/>
+      <c r="AU29" s="14"/>
+      <c r="AV29" s="14"/>
+      <c r="AW29" s="14"/>
+      <c r="AX29" s="14"/>
+      <c r="AY29" s="14"/>
+      <c r="AZ29" s="14"/>
+      <c r="BA29" s="14"/>
+      <c r="BB29" s="14"/>
+      <c r="BC29" s="58"/>
+      <c r="BD29" s="42"/>
+      <c r="BE29" s="42"/>
+      <c r="BF29" s="43"/>
+      <c r="BG29" s="56"/>
+      <c r="BH29" s="79"/>
       <c r="BI29" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="9:61" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I30" s="95"/>
-      <c r="J30" s="98"/>
-      <c r="K30" s="84"/>
-      <c r="L30" s="71"/>
-      <c r="M30" s="71"/>
-      <c r="N30" s="71"/>
-      <c r="O30" s="71"/>
-      <c r="P30" s="77"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="84"/>
-      <c r="S30" s="77"/>
-      <c r="T30" s="15"/>
-      <c r="U30" s="82"/>
-      <c r="V30" s="15"/>
-      <c r="W30" s="82"/>
-      <c r="X30" s="15"/>
-      <c r="Y30" s="84"/>
-      <c r="Z30" s="71"/>
-      <c r="AA30" s="71"/>
-      <c r="AB30" s="71"/>
-      <c r="AC30" s="77"/>
-      <c r="AD30" s="14"/>
-      <c r="AE30" s="15"/>
-      <c r="AF30" s="103"/>
-      <c r="AG30" s="50"/>
-      <c r="AH30" s="51"/>
-      <c r="AI30" s="60"/>
-      <c r="AJ30" s="45"/>
-      <c r="AK30" s="60"/>
-      <c r="AL30" s="45"/>
-      <c r="AM30" s="15"/>
-      <c r="AN30" s="32"/>
-      <c r="AO30" s="33"/>
-      <c r="AP30" s="15"/>
-      <c r="AQ30" s="73"/>
-      <c r="AR30" s="50"/>
-      <c r="AS30" s="50"/>
-      <c r="AT30" s="51"/>
-      <c r="AU30" s="14"/>
-      <c r="AV30" s="32"/>
-      <c r="AW30" s="32"/>
-      <c r="AX30" s="32"/>
-      <c r="AY30" s="32"/>
-      <c r="AZ30" s="32"/>
-      <c r="BA30" s="33"/>
-      <c r="BB30" s="15"/>
-      <c r="BC30" s="65"/>
-      <c r="BD30" s="50"/>
-      <c r="BE30" s="50"/>
-      <c r="BF30" s="104"/>
-      <c r="BG30" s="14"/>
-      <c r="BH30" s="105"/>
+    <row r="30" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I30" s="93"/>
+      <c r="J30" s="95"/>
+      <c r="K30" s="82"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="69"/>
+      <c r="N30" s="69"/>
+      <c r="O30" s="69"/>
+      <c r="P30" s="75"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="143" t="s">
+        <v>60</v>
+      </c>
+      <c r="S30" s="75"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="80"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="80"/>
+      <c r="X30" s="14"/>
+      <c r="Y30" s="82"/>
+      <c r="Z30" s="69"/>
+      <c r="AA30" s="69"/>
+      <c r="AB30" s="69"/>
+      <c r="AC30" s="75"/>
+      <c r="AD30" s="13"/>
+      <c r="AE30" s="14"/>
+      <c r="AF30" s="100"/>
+      <c r="AG30" s="48"/>
+      <c r="AH30" s="49"/>
+      <c r="AI30" s="58">
+        <v>1</v>
+      </c>
+      <c r="AJ30" s="43"/>
+      <c r="AK30" s="58">
+        <v>2</v>
+      </c>
+      <c r="AL30" s="43"/>
+      <c r="AM30" s="14"/>
+      <c r="AN30" s="30"/>
+      <c r="AO30" s="31"/>
+      <c r="AP30" s="14"/>
+      <c r="AQ30" s="71"/>
+      <c r="AR30" s="48"/>
+      <c r="AS30" s="48"/>
+      <c r="AT30" s="49"/>
+      <c r="AU30" s="13"/>
+      <c r="AV30" s="30"/>
+      <c r="AW30" s="30"/>
+      <c r="AX30" s="30"/>
+      <c r="AY30" s="30"/>
+      <c r="AZ30" s="30"/>
+      <c r="BA30" s="31"/>
+      <c r="BB30" s="14"/>
+      <c r="BC30" s="63"/>
+      <c r="BD30" s="48"/>
+      <c r="BE30" s="48"/>
+      <c r="BF30" s="101"/>
+      <c r="BG30" s="13"/>
+      <c r="BH30" s="102"/>
       <c r="BI30" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="9:61" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I31" s="95"/>
-      <c r="J31" s="98"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="58"/>
-      <c r="P31" s="106"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="60"/>
-      <c r="S31" s="45"/>
-      <c r="T31" s="15"/>
-      <c r="U31" s="82"/>
-      <c r="V31" s="15"/>
-      <c r="W31" s="82"/>
-      <c r="X31" s="15"/>
-      <c r="Y31" s="107"/>
-      <c r="Z31" s="108"/>
-      <c r="AA31" s="108"/>
-      <c r="AB31" s="108"/>
-      <c r="AC31" s="63"/>
-      <c r="AD31" s="14"/>
-      <c r="AE31" s="15"/>
-      <c r="AF31" s="65"/>
-      <c r="AG31" s="50"/>
-      <c r="AH31" s="51"/>
-      <c r="AI31" s="84"/>
-      <c r="AJ31" s="109"/>
-      <c r="AK31" s="84"/>
-      <c r="AL31" s="109"/>
-      <c r="AM31" s="60"/>
-      <c r="AN31" s="45"/>
-      <c r="AO31" s="14"/>
-      <c r="AP31" s="15"/>
-      <c r="AQ31" s="65"/>
-      <c r="AR31" s="50"/>
-      <c r="AS31" s="50"/>
-      <c r="AT31" s="51"/>
-      <c r="AU31" s="14"/>
-      <c r="AV31" s="15"/>
-      <c r="AW31" s="60"/>
-      <c r="AX31" s="44"/>
-      <c r="AY31" s="44"/>
-      <c r="AZ31" s="45"/>
-      <c r="BA31" s="14"/>
-      <c r="BB31" s="15"/>
-      <c r="BC31" s="65"/>
-      <c r="BD31" s="50"/>
-      <c r="BE31" s="50"/>
-      <c r="BF31" s="51"/>
-      <c r="BG31" s="14"/>
-      <c r="BH31" s="105"/>
+    <row r="31" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I31" s="93"/>
+      <c r="J31" s="95"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="56"/>
+      <c r="P31" s="103"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="144" t="s">
+        <v>61</v>
+      </c>
+      <c r="S31" s="43"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="80"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="80"/>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="104"/>
+      <c r="Z31" s="105"/>
+      <c r="AA31" s="105"/>
+      <c r="AB31" s="105"/>
+      <c r="AC31" s="61"/>
+      <c r="AD31" s="13"/>
+      <c r="AE31" s="14"/>
+      <c r="AF31" s="63"/>
+      <c r="AG31" s="48"/>
+      <c r="AH31" s="49"/>
+      <c r="AI31" s="82"/>
+      <c r="AJ31" s="106"/>
+      <c r="AK31" s="82"/>
+      <c r="AL31" s="106"/>
+      <c r="AM31" s="58">
+        <v>3</v>
+      </c>
+      <c r="AN31" s="43"/>
+      <c r="AO31" s="13"/>
+      <c r="AP31" s="14"/>
+      <c r="AQ31" s="63"/>
+      <c r="AR31" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS31" s="48"/>
+      <c r="AT31" s="49"/>
+      <c r="AU31" s="13"/>
+      <c r="AV31" s="14"/>
+      <c r="AW31" s="58"/>
+      <c r="AX31" s="42"/>
+      <c r="AY31" s="42"/>
+      <c r="AZ31" s="43"/>
+      <c r="BA31" s="13"/>
+      <c r="BB31" s="14"/>
+      <c r="BC31" s="63"/>
+      <c r="BD31" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="BE31" s="48"/>
+      <c r="BF31" s="49"/>
+      <c r="BG31" s="13"/>
+      <c r="BH31" s="102"/>
       <c r="BI31" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="9:61" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I32" s="95"/>
-      <c r="J32" s="98"/>
-      <c r="K32" s="60"/>
-      <c r="L32" s="44"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="45"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="110"/>
-      <c r="Q32" s="15"/>
-      <c r="R32" s="84"/>
-      <c r="S32" s="102"/>
-      <c r="T32" s="15"/>
-      <c r="U32" s="82"/>
-      <c r="V32" s="15"/>
-      <c r="W32" s="82"/>
-      <c r="X32" s="15"/>
-      <c r="Y32" s="65"/>
-      <c r="Z32" s="50"/>
-      <c r="AA32" s="50"/>
-      <c r="AB32" s="50"/>
-      <c r="AC32" s="100"/>
-      <c r="AD32" s="14"/>
-      <c r="AE32" s="15"/>
-      <c r="AF32" s="65"/>
-      <c r="AG32" s="50"/>
-      <c r="AH32" s="51"/>
-      <c r="AI32" s="60"/>
-      <c r="AJ32" s="108"/>
-      <c r="AK32" s="44"/>
-      <c r="AL32" s="63"/>
-      <c r="AM32" s="111"/>
-      <c r="AN32" s="102"/>
-      <c r="AO32" s="14"/>
-      <c r="AP32" s="15"/>
-      <c r="AQ32" s="84"/>
-      <c r="AR32" s="71"/>
-      <c r="AS32" s="71"/>
-      <c r="AT32" s="77"/>
-      <c r="AU32" s="14"/>
-      <c r="AV32" s="15"/>
-      <c r="AW32" s="65"/>
-      <c r="AX32" s="50"/>
-      <c r="AY32" s="50"/>
-      <c r="AZ32" s="51"/>
-      <c r="BA32" s="14"/>
-      <c r="BB32" s="15"/>
-      <c r="BC32" s="84"/>
-      <c r="BD32" s="71"/>
-      <c r="BE32" s="71"/>
-      <c r="BF32" s="77"/>
-      <c r="BG32" s="14"/>
-      <c r="BH32" s="105"/>
+    <row r="32" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I32" s="93"/>
+      <c r="J32" s="95"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="107"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="143"/>
+      <c r="S32" s="99"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="80"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="80"/>
+      <c r="X32" s="14"/>
+      <c r="Y32" s="63"/>
+      <c r="Z32" s="48"/>
+      <c r="AA32" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB32" s="48"/>
+      <c r="AC32" s="97"/>
+      <c r="AD32" s="13"/>
+      <c r="AE32" s="14"/>
+      <c r="AF32" s="63"/>
+      <c r="AG32" s="48"/>
+      <c r="AH32" s="49"/>
+      <c r="AI32" s="58"/>
+      <c r="AJ32" s="105"/>
+      <c r="AK32" s="42"/>
+      <c r="AL32" s="61"/>
+      <c r="AM32" s="108"/>
+      <c r="AN32" s="106"/>
+      <c r="AO32" s="13"/>
+      <c r="AP32" s="14"/>
+      <c r="AQ32" s="82"/>
+      <c r="AR32" s="69"/>
+      <c r="AS32" s="69"/>
+      <c r="AT32" s="75"/>
+      <c r="AU32" s="13"/>
+      <c r="AV32" s="14"/>
+      <c r="AW32" s="63"/>
+      <c r="AX32" s="48"/>
+      <c r="AY32" s="48"/>
+      <c r="AZ32" s="49"/>
+      <c r="BA32" s="13"/>
+      <c r="BB32" s="14"/>
+      <c r="BC32" s="82"/>
+      <c r="BD32" s="69"/>
+      <c r="BE32" s="69"/>
+      <c r="BF32" s="75"/>
+      <c r="BG32" s="13"/>
+      <c r="BH32" s="102"/>
       <c r="BI32" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="33" spans="9:61" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I33" s="95"/>
-      <c r="J33" s="98"/>
-      <c r="K33" s="65"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="50"/>
-      <c r="N33" s="51"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="110"/>
-      <c r="Q33" s="15"/>
-      <c r="R33" s="60"/>
-      <c r="S33" s="45"/>
-      <c r="T33" s="15"/>
-      <c r="U33" s="82"/>
-      <c r="V33" s="15"/>
-      <c r="W33" s="82"/>
-      <c r="X33" s="15"/>
-      <c r="Y33" s="65"/>
-      <c r="Z33" s="50"/>
-      <c r="AA33" s="50"/>
-      <c r="AB33" s="50"/>
-      <c r="AC33" s="51"/>
-      <c r="AD33" s="14"/>
-      <c r="AE33" s="15"/>
-      <c r="AF33" s="65"/>
-      <c r="AG33" s="50"/>
-      <c r="AH33" s="51"/>
-      <c r="AI33" s="65"/>
-      <c r="AJ33" s="50"/>
-      <c r="AK33" s="50"/>
-      <c r="AL33" s="50"/>
-      <c r="AM33" s="44"/>
-      <c r="AN33" s="45"/>
-      <c r="AO33" s="14"/>
-      <c r="AP33" s="15"/>
-      <c r="AQ33" s="15"/>
-      <c r="AR33" s="15"/>
-      <c r="AS33" s="15"/>
-      <c r="AT33" s="15"/>
-      <c r="AU33" s="14"/>
-      <c r="AV33" s="15"/>
-      <c r="AW33" s="65"/>
-      <c r="AX33" s="50"/>
-      <c r="AY33" s="50"/>
-      <c r="AZ33" s="104"/>
-      <c r="BA33" s="14"/>
-      <c r="BB33" s="15"/>
-      <c r="BC33" s="15"/>
-      <c r="BD33" s="15"/>
-      <c r="BE33" s="15"/>
-      <c r="BF33" s="15"/>
-      <c r="BG33" s="14"/>
-      <c r="BH33" s="105"/>
+      <c r="I33" s="93"/>
+      <c r="J33" s="95"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="M33" s="48"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="107"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="144" t="s">
+        <v>62</v>
+      </c>
+      <c r="S33" s="43"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="80"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="80"/>
+      <c r="X33" s="14"/>
+      <c r="Y33" s="63"/>
+      <c r="Z33" s="48"/>
+      <c r="AA33" s="48"/>
+      <c r="AB33" s="48"/>
+      <c r="AC33" s="49"/>
+      <c r="AD33" s="13"/>
+      <c r="AE33" s="14"/>
+      <c r="AF33" s="63"/>
+      <c r="AG33" s="48"/>
+      <c r="AH33" s="49"/>
+      <c r="AI33" s="63"/>
+      <c r="AJ33" s="48"/>
+      <c r="AK33" s="48"/>
+      <c r="AL33" s="48"/>
+      <c r="AM33" s="42"/>
+      <c r="AN33" s="61"/>
+      <c r="AO33" s="13"/>
+      <c r="AP33" s="14"/>
+      <c r="AQ33" s="14"/>
+      <c r="AR33" s="14"/>
+      <c r="AS33" s="14"/>
+      <c r="AT33" s="14"/>
+      <c r="AU33" s="13"/>
+      <c r="AV33" s="14"/>
+      <c r="AW33" s="63"/>
+      <c r="AX33" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="AY33" s="48"/>
+      <c r="AZ33" s="101"/>
+      <c r="BA33" s="13"/>
+      <c r="BB33" s="14"/>
+      <c r="BC33" s="14"/>
+      <c r="BD33" s="14"/>
+      <c r="BE33" s="14"/>
+      <c r="BF33" s="14"/>
+      <c r="BG33" s="13"/>
+      <c r="BH33" s="102"/>
       <c r="BI33" s="1">
         <v>31</v>
       </c>
     </row>
     <row r="34" spans="9:61" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I34" s="95"/>
-      <c r="J34" s="98"/>
-      <c r="K34" s="73"/>
-      <c r="L34" s="50"/>
-      <c r="M34" s="50"/>
-      <c r="N34" s="51"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="110"/>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="112"/>
-      <c r="S34" s="77"/>
-      <c r="T34" s="15"/>
-      <c r="U34" s="82"/>
-      <c r="V34" s="15"/>
-      <c r="W34" s="82"/>
-      <c r="X34" s="15"/>
-      <c r="Y34" s="84"/>
-      <c r="Z34" s="71"/>
-      <c r="AA34" s="71"/>
-      <c r="AB34" s="71"/>
-      <c r="AC34" s="77"/>
-      <c r="AD34" s="14"/>
-      <c r="AE34" s="15"/>
-      <c r="AF34" s="84"/>
-      <c r="AG34" s="71"/>
-      <c r="AH34" s="77"/>
-      <c r="AI34" s="65"/>
-      <c r="AJ34" s="50"/>
-      <c r="AK34" s="50"/>
-      <c r="AL34" s="50"/>
-      <c r="AM34" s="50"/>
-      <c r="AN34" s="51"/>
-      <c r="AO34" s="15"/>
-      <c r="AP34" s="32"/>
-      <c r="AQ34" s="32"/>
-      <c r="AR34" s="32"/>
-      <c r="AS34" s="32"/>
-      <c r="AT34" s="32"/>
-      <c r="AU34" s="32"/>
-      <c r="AV34" s="15"/>
-      <c r="AW34" s="84"/>
-      <c r="AX34" s="71"/>
-      <c r="AY34" s="71"/>
-      <c r="AZ34" s="77"/>
-      <c r="BA34" s="15"/>
-      <c r="BB34" s="32"/>
-      <c r="BC34" s="32"/>
-      <c r="BD34" s="32"/>
-      <c r="BE34" s="32"/>
-      <c r="BF34" s="32"/>
-      <c r="BG34" s="33"/>
-      <c r="BH34" s="105"/>
+      <c r="I34" s="93"/>
+      <c r="J34" s="95"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="M34" s="48"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="107"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="145"/>
+      <c r="S34" s="75"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="80"/>
+      <c r="V34" s="14"/>
+      <c r="W34" s="80"/>
+      <c r="X34" s="14"/>
+      <c r="Y34" s="82"/>
+      <c r="Z34" s="69"/>
+      <c r="AA34" s="69"/>
+      <c r="AB34" s="69"/>
+      <c r="AC34" s="75"/>
+      <c r="AD34" s="13"/>
+      <c r="AE34" s="14"/>
+      <c r="AF34" s="82"/>
+      <c r="AG34" s="69"/>
+      <c r="AH34" s="75"/>
+      <c r="AI34" s="63"/>
+      <c r="AJ34" s="48"/>
+      <c r="AK34" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL34" s="48"/>
+      <c r="AM34" s="48"/>
+      <c r="AN34" s="49"/>
+      <c r="AO34" s="14"/>
+      <c r="AP34" s="30"/>
+      <c r="AQ34" s="30"/>
+      <c r="AR34" s="30"/>
+      <c r="AS34" s="30"/>
+      <c r="AT34" s="30"/>
+      <c r="AU34" s="30"/>
+      <c r="AV34" s="14"/>
+      <c r="AW34" s="82"/>
+      <c r="AX34" s="69"/>
+      <c r="AY34" s="69"/>
+      <c r="AZ34" s="75"/>
+      <c r="BA34" s="14"/>
+      <c r="BB34" s="30"/>
+      <c r="BC34" s="30"/>
+      <c r="BD34" s="30"/>
+      <c r="BE34" s="30"/>
+      <c r="BF34" s="30"/>
+      <c r="BG34" s="31"/>
+      <c r="BH34" s="102"/>
       <c r="BI34" s="1">
         <v>32</v>
       </c>
     </row>
     <row r="35" spans="9:61" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I35" s="95"/>
-      <c r="J35" s="98"/>
-      <c r="K35" s="84"/>
-      <c r="L35" s="71"/>
-      <c r="M35" s="71"/>
-      <c r="N35" s="77"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="113"/>
-      <c r="Q35" s="15"/>
-      <c r="R35" s="60"/>
-      <c r="S35" s="45"/>
-      <c r="T35" s="83"/>
-      <c r="U35" s="114"/>
-      <c r="V35" s="15"/>
-      <c r="W35" s="82"/>
-      <c r="X35" s="15"/>
-      <c r="Y35" s="15"/>
-      <c r="Z35" s="15"/>
-      <c r="AA35" s="15"/>
-      <c r="AB35" s="15"/>
-      <c r="AC35" s="15"/>
-      <c r="AD35" s="28"/>
-      <c r="AE35" s="15"/>
-      <c r="AF35" s="15"/>
-      <c r="AG35" s="15"/>
-      <c r="AH35" s="115"/>
-      <c r="AI35" s="116"/>
-      <c r="AJ35" s="76"/>
-      <c r="AK35" s="76"/>
-      <c r="AL35" s="76"/>
-      <c r="AM35" s="50"/>
-      <c r="AN35" s="50"/>
-      <c r="AO35" s="44"/>
-      <c r="AP35" s="45"/>
-      <c r="AQ35" s="60"/>
-      <c r="AR35" s="44"/>
-      <c r="AS35" s="44"/>
-      <c r="AT35" s="45"/>
-      <c r="AU35" s="60"/>
-      <c r="AV35" s="44"/>
-      <c r="AW35" s="44"/>
-      <c r="AX35" s="45"/>
-      <c r="AY35" s="60"/>
-      <c r="AZ35" s="44"/>
-      <c r="BA35" s="44"/>
-      <c r="BB35" s="45"/>
-      <c r="BC35" s="60"/>
-      <c r="BD35" s="44"/>
-      <c r="BE35" s="44"/>
-      <c r="BF35" s="45"/>
-      <c r="BG35" s="14"/>
-      <c r="BH35" s="105"/>
+      <c r="I35" s="93"/>
+      <c r="J35" s="95"/>
+      <c r="K35" s="82"/>
+      <c r="L35" s="69"/>
+      <c r="M35" s="69"/>
+      <c r="N35" s="75"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="110"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="144" t="s">
+        <v>63</v>
+      </c>
+      <c r="S35" s="43"/>
+      <c r="T35" s="81"/>
+      <c r="U35" s="111"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="80"/>
+      <c r="X35" s="14"/>
+      <c r="Y35" s="14"/>
+      <c r="Z35" s="14"/>
+      <c r="AA35" s="14"/>
+      <c r="AB35" s="14"/>
+      <c r="AC35" s="14"/>
+      <c r="AD35" s="26"/>
+      <c r="AE35" s="14"/>
+      <c r="AF35" s="14"/>
+      <c r="AG35" s="14"/>
+      <c r="AH35" s="112"/>
+      <c r="AI35" s="113"/>
+      <c r="AJ35" s="74"/>
+      <c r="AK35" s="74"/>
+      <c r="AL35" s="74"/>
+      <c r="AM35" s="48"/>
+      <c r="AN35" s="48"/>
+      <c r="AO35" s="42"/>
+      <c r="AP35" s="43"/>
+      <c r="AQ35" s="58"/>
+      <c r="AR35" s="42"/>
+      <c r="AS35" s="42"/>
+      <c r="AT35" s="43"/>
+      <c r="AU35" s="58"/>
+      <c r="AV35" s="42"/>
+      <c r="AW35" s="42"/>
+      <c r="AX35" s="43"/>
+      <c r="AY35" s="58"/>
+      <c r="AZ35" s="42"/>
+      <c r="BA35" s="42"/>
+      <c r="BB35" s="43"/>
+      <c r="BC35" s="58"/>
+      <c r="BD35" s="42"/>
+      <c r="BE35" s="42"/>
+      <c r="BF35" s="43"/>
+      <c r="BG35" s="13"/>
+      <c r="BH35" s="102"/>
       <c r="BI35" s="1">
         <v>33</v>
       </c>
     </row>
     <row r="36" spans="9:61" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I36" s="95"/>
-      <c r="J36" s="98"/>
-      <c r="K36" s="60"/>
-      <c r="L36" s="44"/>
-      <c r="M36" s="44"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="15"/>
-      <c r="Q36" s="92"/>
-      <c r="R36" s="84"/>
-      <c r="S36" s="102"/>
-      <c r="T36" s="15"/>
-      <c r="U36" s="15"/>
-      <c r="V36" s="90"/>
-      <c r="W36" s="114"/>
-      <c r="X36" s="54"/>
-      <c r="Y36" s="32"/>
-      <c r="Z36" s="32"/>
-      <c r="AA36" s="32"/>
-      <c r="AB36" s="32"/>
-      <c r="AC36" s="32"/>
-      <c r="AD36" s="32"/>
-      <c r="AE36" s="32"/>
-      <c r="AF36" s="32"/>
-      <c r="AG36" s="32"/>
-      <c r="AH36" s="32"/>
-      <c r="AI36" s="91"/>
-      <c r="AJ36" s="68"/>
-      <c r="AK36" s="68"/>
-      <c r="AL36" s="117"/>
-      <c r="AM36" s="52"/>
-      <c r="AN36" s="50"/>
-      <c r="AO36" s="50"/>
-      <c r="AP36" s="51"/>
-      <c r="AQ36" s="65"/>
-      <c r="AR36" s="50"/>
-      <c r="AS36" s="50"/>
-      <c r="AT36" s="51"/>
-      <c r="AU36" s="65"/>
-      <c r="AV36" s="50"/>
-      <c r="AW36" s="50"/>
-      <c r="AX36" s="51"/>
-      <c r="AY36" s="65"/>
-      <c r="AZ36" s="50"/>
-      <c r="BA36" s="50"/>
-      <c r="BB36" s="51"/>
-      <c r="BC36" s="65"/>
-      <c r="BD36" s="50"/>
-      <c r="BE36" s="50"/>
-      <c r="BF36" s="51"/>
-      <c r="BG36" s="14"/>
-      <c r="BH36" s="105"/>
+      <c r="I36" s="93"/>
+      <c r="J36" s="95"/>
+      <c r="K36" s="58"/>
+      <c r="L36" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="M36" s="42"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="90"/>
+      <c r="R36" s="143"/>
+      <c r="S36" s="99"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="14"/>
+      <c r="V36" s="88"/>
+      <c r="W36" s="111"/>
+      <c r="X36" s="52"/>
+      <c r="Y36" s="30"/>
+      <c r="Z36" s="30"/>
+      <c r="AA36" s="30"/>
+      <c r="AB36" s="30"/>
+      <c r="AC36" s="30"/>
+      <c r="AD36" s="30"/>
+      <c r="AE36" s="30"/>
+      <c r="AF36" s="30"/>
+      <c r="AG36" s="30"/>
+      <c r="AH36" s="30"/>
+      <c r="AI36" s="89"/>
+      <c r="AJ36" s="66"/>
+      <c r="AK36" s="66"/>
+      <c r="AL36" s="114"/>
+      <c r="AM36" s="50"/>
+      <c r="AN36" s="48"/>
+      <c r="AO36" s="48"/>
+      <c r="AP36" s="49"/>
+      <c r="AQ36" s="63"/>
+      <c r="AR36" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS36" s="48"/>
+      <c r="AT36" s="49"/>
+      <c r="AU36" s="63"/>
+      <c r="AV36" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW36" s="48"/>
+      <c r="AX36" s="49"/>
+      <c r="AY36" s="63"/>
+      <c r="AZ36" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA36" s="48"/>
+      <c r="BB36" s="49"/>
+      <c r="BC36" s="63"/>
+      <c r="BD36" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE36" s="48"/>
+      <c r="BF36" s="49"/>
+      <c r="BG36" s="13"/>
+      <c r="BH36" s="102"/>
       <c r="BI36" s="1">
         <v>34</v>
       </c>
     </row>
     <row r="37" spans="9:61" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I37" s="95"/>
-      <c r="J37" s="98"/>
-      <c r="K37" s="65"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="50"/>
-      <c r="N37" s="51"/>
-      <c r="O37" s="60"/>
-      <c r="P37" s="118"/>
-      <c r="Q37" s="44"/>
-      <c r="R37" s="45"/>
-      <c r="S37" s="60"/>
-      <c r="T37" s="44"/>
-      <c r="U37" s="118"/>
-      <c r="V37" s="45"/>
-      <c r="W37" s="60"/>
-      <c r="X37" s="44"/>
-      <c r="Y37" s="118"/>
-      <c r="Z37" s="45"/>
-      <c r="AA37" s="60"/>
-      <c r="AB37" s="44"/>
-      <c r="AC37" s="118"/>
-      <c r="AD37" s="45"/>
-      <c r="AE37" s="60"/>
-      <c r="AF37" s="44"/>
-      <c r="AG37" s="118"/>
-      <c r="AH37" s="45"/>
-      <c r="AI37" s="65"/>
-      <c r="AJ37" s="50"/>
-      <c r="AK37" s="50"/>
-      <c r="AL37" s="119"/>
-      <c r="AM37" s="52"/>
-      <c r="AN37" s="50"/>
-      <c r="AO37" s="50"/>
-      <c r="AP37" s="51"/>
-      <c r="AQ37" s="65"/>
-      <c r="AR37" s="50"/>
-      <c r="AS37" s="50"/>
-      <c r="AT37" s="51"/>
-      <c r="AU37" s="65"/>
-      <c r="AV37" s="50"/>
-      <c r="AW37" s="50"/>
-      <c r="AX37" s="51"/>
-      <c r="AY37" s="65"/>
-      <c r="AZ37" s="50"/>
-      <c r="BA37" s="50"/>
-      <c r="BB37" s="51"/>
-      <c r="BC37" s="65"/>
-      <c r="BD37" s="50"/>
-      <c r="BE37" s="50"/>
-      <c r="BF37" s="51"/>
-      <c r="BG37" s="14"/>
-      <c r="BH37" s="105"/>
+      <c r="I37" s="93"/>
+      <c r="J37" s="95"/>
+      <c r="K37" s="63"/>
+      <c r="L37" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="M37" s="48"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="58"/>
+      <c r="P37" s="115"/>
+      <c r="Q37" s="42"/>
+      <c r="R37" s="43"/>
+      <c r="S37" s="58"/>
+      <c r="T37" s="42"/>
+      <c r="U37" s="115"/>
+      <c r="V37" s="43"/>
+      <c r="W37" s="58"/>
+      <c r="X37" s="42"/>
+      <c r="Y37" s="115"/>
+      <c r="Z37" s="43"/>
+      <c r="AA37" s="58"/>
+      <c r="AB37" s="42"/>
+      <c r="AC37" s="115"/>
+      <c r="AD37" s="43"/>
+      <c r="AE37" s="58"/>
+      <c r="AF37" s="42"/>
+      <c r="AG37" s="115"/>
+      <c r="AH37" s="43"/>
+      <c r="AI37" s="63"/>
+      <c r="AJ37" s="48"/>
+      <c r="AK37" s="48"/>
+      <c r="AL37" s="116"/>
+      <c r="AM37" s="50"/>
+      <c r="AN37" s="48"/>
+      <c r="AO37" s="48"/>
+      <c r="AP37" s="49"/>
+      <c r="AQ37" s="63"/>
+      <c r="AR37" s="48"/>
+      <c r="AS37" s="48"/>
+      <c r="AT37" s="49"/>
+      <c r="AU37" s="63"/>
+      <c r="AV37" s="48"/>
+      <c r="AW37" s="48"/>
+      <c r="AX37" s="49"/>
+      <c r="AY37" s="63"/>
+      <c r="AZ37" s="48"/>
+      <c r="BA37" s="48"/>
+      <c r="BB37" s="49"/>
+      <c r="BC37" s="63"/>
+      <c r="BD37" s="48"/>
+      <c r="BE37" s="48"/>
+      <c r="BF37" s="49"/>
+      <c r="BG37" s="13"/>
+      <c r="BH37" s="102"/>
       <c r="BI37" s="1">
         <v>35</v>
       </c>
     </row>
     <row r="38" spans="9:61" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I38" s="95"/>
-      <c r="J38" s="98"/>
-      <c r="K38" s="84"/>
-      <c r="L38" s="71"/>
-      <c r="M38" s="120"/>
-      <c r="N38" s="77"/>
-      <c r="O38" s="65"/>
-      <c r="P38" s="50"/>
-      <c r="Q38" s="50"/>
-      <c r="R38" s="51"/>
-      <c r="S38" s="65"/>
-      <c r="T38" s="50"/>
-      <c r="U38" s="50"/>
-      <c r="V38" s="51"/>
-      <c r="W38" s="65"/>
-      <c r="X38" s="50"/>
-      <c r="Y38" s="50"/>
-      <c r="Z38" s="51"/>
-      <c r="AA38" s="65"/>
-      <c r="AB38" s="50"/>
-      <c r="AC38" s="50"/>
-      <c r="AD38" s="51"/>
-      <c r="AE38" s="65"/>
-      <c r="AF38" s="50"/>
-      <c r="AG38" s="50"/>
-      <c r="AH38" s="51"/>
-      <c r="AI38" s="84"/>
-      <c r="AJ38" s="71"/>
-      <c r="AK38" s="71"/>
-      <c r="AL38" s="121"/>
-      <c r="AM38" s="70"/>
-      <c r="AN38" s="71"/>
-      <c r="AO38" s="71"/>
-      <c r="AP38" s="77"/>
-      <c r="AQ38" s="84"/>
-      <c r="AR38" s="120"/>
-      <c r="AS38" s="71"/>
-      <c r="AT38" s="77"/>
-      <c r="AU38" s="84"/>
-      <c r="AV38" s="120"/>
-      <c r="AW38" s="71"/>
-      <c r="AX38" s="77"/>
-      <c r="AY38" s="84"/>
-      <c r="AZ38" s="120"/>
-      <c r="BA38" s="71"/>
-      <c r="BB38" s="77"/>
-      <c r="BC38" s="84"/>
-      <c r="BD38" s="120"/>
-      <c r="BE38" s="71"/>
-      <c r="BF38" s="77"/>
-      <c r="BG38" s="14"/>
-      <c r="BH38" s="105"/>
+      <c r="I38" s="93"/>
+      <c r="J38" s="95"/>
+      <c r="K38" s="82"/>
+      <c r="L38" s="69"/>
+      <c r="M38" s="117"/>
+      <c r="N38" s="75"/>
+      <c r="O38" s="63"/>
+      <c r="P38" s="48"/>
+      <c r="Q38" s="48"/>
+      <c r="R38" s="49"/>
+      <c r="S38" s="63"/>
+      <c r="T38" s="48"/>
+      <c r="U38" s="48"/>
+      <c r="V38" s="49"/>
+      <c r="W38" s="63"/>
+      <c r="X38" s="48"/>
+      <c r="Y38" s="48"/>
+      <c r="Z38" s="49"/>
+      <c r="AA38" s="63"/>
+      <c r="AB38" s="48"/>
+      <c r="AC38" s="48"/>
+      <c r="AD38" s="49"/>
+      <c r="AE38" s="63"/>
+      <c r="AF38" s="48"/>
+      <c r="AG38" s="48"/>
+      <c r="AH38" s="49"/>
+      <c r="AI38" s="82"/>
+      <c r="AJ38" s="69"/>
+      <c r="AK38" s="69"/>
+      <c r="AL38" s="118"/>
+      <c r="AM38" s="68"/>
+      <c r="AN38" s="69"/>
+      <c r="AO38" s="69"/>
+      <c r="AP38" s="75"/>
+      <c r="AQ38" s="82"/>
+      <c r="AR38" s="117"/>
+      <c r="AS38" s="69"/>
+      <c r="AT38" s="75"/>
+      <c r="AU38" s="82"/>
+      <c r="AV38" s="117"/>
+      <c r="AW38" s="69"/>
+      <c r="AX38" s="75"/>
+      <c r="AY38" s="82"/>
+      <c r="AZ38" s="117"/>
+      <c r="BA38" s="69"/>
+      <c r="BB38" s="75"/>
+      <c r="BC38" s="82"/>
+      <c r="BD38" s="117"/>
+      <c r="BE38" s="69"/>
+      <c r="BF38" s="75"/>
+      <c r="BG38" s="13"/>
+      <c r="BH38" s="102"/>
       <c r="BI38" s="1">
         <v>36</v>
       </c>
     </row>
     <row r="39" spans="9:61" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I39" s="95"/>
-      <c r="J39" s="54"/>
-      <c r="K39" s="90"/>
-      <c r="L39" s="90"/>
-      <c r="M39" s="90"/>
-      <c r="N39" s="64"/>
-      <c r="O39" s="65"/>
-      <c r="P39" s="50" t="s">
+      <c r="I39" s="93"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="88"/>
+      <c r="L39" s="88"/>
+      <c r="M39" s="88"/>
+      <c r="N39" s="62"/>
+      <c r="O39" s="63"/>
+      <c r="P39" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q39" s="48"/>
+      <c r="R39" s="49"/>
+      <c r="S39" s="63"/>
+      <c r="T39" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="U39" s="48"/>
+      <c r="V39" s="49"/>
+      <c r="W39" s="63"/>
+      <c r="X39" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="Q39" s="50"/>
-      <c r="R39" s="51"/>
-      <c r="S39" s="65"/>
-      <c r="T39" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="U39" s="50"/>
-      <c r="V39" s="51"/>
-      <c r="W39" s="65"/>
-      <c r="X39" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y39" s="50"/>
-      <c r="Z39" s="51"/>
-      <c r="AA39" s="65"/>
-      <c r="AB39" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC39" s="50"/>
-      <c r="AD39" s="51"/>
-      <c r="AE39" s="65"/>
-      <c r="AF39" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG39" s="50"/>
-      <c r="AH39" s="51"/>
-      <c r="AI39" s="98"/>
-      <c r="AJ39" s="15"/>
-      <c r="AK39" s="15"/>
-      <c r="AL39" s="14"/>
-      <c r="AM39" s="15"/>
-      <c r="AN39" s="15"/>
-      <c r="AO39" s="15"/>
-      <c r="AP39" s="15"/>
-      <c r="AQ39" s="15"/>
-      <c r="AR39" s="15"/>
-      <c r="AS39" s="15"/>
-      <c r="AT39" s="15"/>
-      <c r="AU39" s="15"/>
-      <c r="AV39" s="15"/>
-      <c r="AW39" s="15"/>
-      <c r="AX39" s="15"/>
-      <c r="AY39" s="15"/>
-      <c r="AZ39" s="15"/>
-      <c r="BA39" s="15"/>
-      <c r="BB39" s="15"/>
-      <c r="BC39" s="15"/>
-      <c r="BD39" s="15"/>
-      <c r="BE39" s="15"/>
-      <c r="BF39" s="15"/>
-      <c r="BG39" s="14"/>
-      <c r="BH39" s="105"/>
+      <c r="Y39" s="48"/>
+      <c r="Z39" s="49"/>
+      <c r="AA39" s="63"/>
+      <c r="AB39" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC39" s="48"/>
+      <c r="AD39" s="49"/>
+      <c r="AE39" s="63"/>
+      <c r="AF39" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG39" s="48"/>
+      <c r="AH39" s="49"/>
+      <c r="AI39" s="95"/>
+      <c r="AJ39" s="14"/>
+      <c r="AK39" s="14"/>
+      <c r="AL39" s="13"/>
+      <c r="AM39" s="14"/>
+      <c r="AN39" s="14"/>
+      <c r="AO39" s="14"/>
+      <c r="AP39" s="14"/>
+      <c r="AQ39" s="14"/>
+      <c r="AR39" s="14"/>
+      <c r="AS39" s="14"/>
+      <c r="AT39" s="14"/>
+      <c r="AU39" s="14"/>
+      <c r="AV39" s="14"/>
+      <c r="AW39" s="14"/>
+      <c r="AX39" s="14"/>
+      <c r="AY39" s="14"/>
+      <c r="AZ39" s="14"/>
+      <c r="BA39" s="14"/>
+      <c r="BB39" s="14"/>
+      <c r="BC39" s="14"/>
+      <c r="BD39" s="14"/>
+      <c r="BE39" s="14"/>
+      <c r="BF39" s="14"/>
+      <c r="BG39" s="13"/>
+      <c r="BH39" s="102"/>
       <c r="BI39" s="1">
         <v>37</v>
       </c>
     </row>
     <row r="40" spans="9:61" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I40" s="122"/>
-      <c r="J40" s="123"/>
-      <c r="K40" s="123"/>
-      <c r="L40" s="123"/>
-      <c r="M40" s="123"/>
-      <c r="N40" s="124"/>
-      <c r="O40" s="125"/>
-      <c r="P40" s="126"/>
-      <c r="Q40" s="126"/>
-      <c r="R40" s="127"/>
-      <c r="S40" s="125"/>
-      <c r="T40" s="126"/>
-      <c r="U40" s="126"/>
-      <c r="V40" s="127"/>
-      <c r="W40" s="125"/>
-      <c r="X40" s="126"/>
-      <c r="Y40" s="126"/>
-      <c r="Z40" s="127"/>
-      <c r="AA40" s="125"/>
-      <c r="AB40" s="126"/>
-      <c r="AC40" s="126"/>
-      <c r="AD40" s="127"/>
-      <c r="AE40" s="125"/>
-      <c r="AF40" s="126"/>
-      <c r="AG40" s="126"/>
-      <c r="AH40" s="127"/>
-      <c r="AI40" s="128"/>
-      <c r="AJ40" s="129"/>
-      <c r="AK40" s="129"/>
-      <c r="AL40" s="129"/>
-      <c r="AM40" s="129"/>
-      <c r="AN40" s="129"/>
-      <c r="AO40" s="129"/>
-      <c r="AP40" s="129"/>
-      <c r="AQ40" s="129"/>
-      <c r="AR40" s="129"/>
-      <c r="AS40" s="129"/>
-      <c r="AT40" s="129"/>
-      <c r="AU40" s="129"/>
-      <c r="AV40" s="129"/>
-      <c r="AW40" s="129"/>
-      <c r="AX40" s="129"/>
-      <c r="AY40" s="129"/>
-      <c r="AZ40" s="129"/>
-      <c r="BA40" s="129"/>
-      <c r="BB40" s="129"/>
-      <c r="BC40" s="129"/>
-      <c r="BD40" s="129"/>
-      <c r="BE40" s="129"/>
-      <c r="BF40" s="129"/>
-      <c r="BG40" s="129"/>
-      <c r="BH40" s="130"/>
+      <c r="I40" s="119"/>
+      <c r="J40" s="120"/>
+      <c r="K40" s="120"/>
+      <c r="L40" s="120"/>
+      <c r="M40" s="120"/>
+      <c r="N40" s="121"/>
+      <c r="O40" s="122"/>
+      <c r="P40" s="123"/>
+      <c r="Q40" s="123"/>
+      <c r="R40" s="124"/>
+      <c r="S40" s="122"/>
+      <c r="T40" s="123"/>
+      <c r="U40" s="123"/>
+      <c r="V40" s="124"/>
+      <c r="W40" s="122"/>
+      <c r="X40" s="123"/>
+      <c r="Y40" s="123"/>
+      <c r="Z40" s="124"/>
+      <c r="AA40" s="122"/>
+      <c r="AB40" s="123"/>
+      <c r="AC40" s="123"/>
+      <c r="AD40" s="124"/>
+      <c r="AE40" s="122"/>
+      <c r="AF40" s="123"/>
+      <c r="AG40" s="123"/>
+      <c r="AH40" s="124"/>
+      <c r="AI40" s="125"/>
+      <c r="AJ40" s="126"/>
+      <c r="AK40" s="126"/>
+      <c r="AL40" s="126"/>
+      <c r="AM40" s="126"/>
+      <c r="AN40" s="126"/>
+      <c r="AO40" s="126"/>
+      <c r="AP40" s="126"/>
+      <c r="AQ40" s="126"/>
+      <c r="AR40" s="126"/>
+      <c r="AS40" s="126"/>
+      <c r="AT40" s="126"/>
+      <c r="AU40" s="126"/>
+      <c r="AV40" s="126"/>
+      <c r="AW40" s="126"/>
+      <c r="AX40" s="126"/>
+      <c r="AY40" s="126"/>
+      <c r="AZ40" s="126"/>
+      <c r="BA40" s="126"/>
+      <c r="BB40" s="126"/>
+      <c r="BC40" s="126"/>
+      <c r="BD40" s="126"/>
+      <c r="BE40" s="126"/>
+      <c r="BF40" s="126"/>
+      <c r="BG40" s="126"/>
+      <c r="BH40" s="127"/>
       <c r="BI40" s="1">
         <v>38</v>
       </c>
     </row>
     <row r="41" spans="9:61" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="BX13:BY14"/>
+    <mergeCell ref="BX17:CA18"/>
+    <mergeCell ref="BX21:BY22"/>
+    <mergeCell ref="BT8:CC8"/>
+    <mergeCell ref="BX15:CB16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Assets/Level blueprint.xlsx
+++ b/Assets/Level blueprint.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco\Documents\GitHub\Horror_FPS\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB522E6-ABAA-44C5-95CA-E735877A311F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9606A4A3-98D9-4DC6-8636-833653EE5920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Level 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Nursery" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="120">
   <si>
     <t>Scale: 1sqr = 1mt</t>
   </si>
@@ -253,13 +254,145 @@
   </si>
   <si>
     <t>tv room</t>
+  </si>
+  <si>
+    <t>Nursery</t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>Comedor</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t>Aula de 2</t>
+  </si>
+  <si>
+    <t>Aula de 3</t>
+  </si>
+  <si>
+    <t>Aula de 4</t>
+  </si>
+  <si>
+    <t>Aula de 5</t>
+  </si>
+  <si>
+    <t>6.</t>
+  </si>
+  <si>
+    <t>Baño</t>
+  </si>
+  <si>
+    <t>8.</t>
+  </si>
+  <si>
+    <t>Dirección</t>
+  </si>
+  <si>
+    <t>9.</t>
+  </si>
+  <si>
+    <t>7.</t>
+  </si>
+  <si>
+    <t>Cambiador</t>
+  </si>
+  <si>
+    <t>Secretaría</t>
+  </si>
+  <si>
+    <t>10.</t>
+  </si>
+  <si>
+    <t>Enfermería</t>
+  </si>
+  <si>
+    <t>11.</t>
+  </si>
+  <si>
+    <t>12.</t>
+  </si>
+  <si>
+    <t>Depósito</t>
+  </si>
+  <si>
+    <t>13.</t>
+  </si>
+  <si>
+    <t>Sótano</t>
+  </si>
+  <si>
+    <t>14.</t>
+  </si>
+  <si>
+    <t>Biblioteca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15. </t>
+  </si>
+  <si>
+    <t>Sala de profesores</t>
+  </si>
+  <si>
+    <t>Patio/Parque</t>
+  </si>
+  <si>
+    <t>Profesores</t>
+  </si>
+  <si>
+    <t>Aula 2</t>
+  </si>
+  <si>
+    <t>Aula 3</t>
+  </si>
+  <si>
+    <t>Aula 4</t>
+  </si>
+  <si>
+    <t>Aula 5</t>
+  </si>
+  <si>
+    <t>16.</t>
+  </si>
+  <si>
+    <t>Cocina</t>
+  </si>
+  <si>
+    <t>Parque</t>
+  </si>
+  <si>
+    <t>Baño Masculino</t>
+  </si>
+  <si>
+    <t>Baño Femenino</t>
+  </si>
+  <si>
+    <t>Cambiador 2</t>
+  </si>
+  <si>
+    <t>Cambiador 3</t>
+  </si>
+  <si>
+    <t>Piso de colores</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,8 +407,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -300,8 +440,68 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="114">
+  <borders count="128">
     <border>
       <left/>
       <right/>
@@ -1786,11 +1986,197 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="medium">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="mediumDashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="276">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2191,9 +2577,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2239,27 +2622,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2267,6 +2632,375 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="118" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="124" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="118" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="125" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="126" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="121" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="120" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="115" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="119" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="117" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="116" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="117" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="116" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="116" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="127" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="116" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="122" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="97" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="123" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2554,10 +3288,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:CD41"/>
+  <dimension ref="G2:CD41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AG30" sqref="AG30"/>
+    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2565,7 +3299,7 @@
     <col min="1" max="16384" width="3.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:82" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="7:82" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I2" s="1">
         <v>1</v>
       </c>
@@ -2723,7 +3457,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="2:82" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="7:82" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="I3" s="2"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -2780,9 +3514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:82" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="150"/>
-      <c r="C4" s="150"/>
+    <row r="4" spans="7:82" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I4" s="9"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
@@ -2839,9 +3571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:82" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="150"/>
-      <c r="C5" s="150"/>
+    <row r="5" spans="7:82" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I5" s="9"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
@@ -2908,9 +3638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:82" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="150"/>
-      <c r="C6" s="150"/>
+    <row r="6" spans="7:82" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I6" s="9"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
@@ -2967,7 +3695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:82" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="7:82" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H7" s="19"/>
       <c r="I7" s="18"/>
       <c r="J7" s="10"/>
@@ -3025,7 +3753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:82" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="7:82" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G8" s="19"/>
       <c r="I8" s="18"/>
       <c r="J8" s="10"/>
@@ -3084,20 +3812,20 @@
       <c r="BI8" s="1">
         <v>6</v>
       </c>
-      <c r="BT8" s="152" t="s">
+      <c r="BT8" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="BU8" s="153"/>
-      <c r="BV8" s="153"/>
-      <c r="BW8" s="153"/>
-      <c r="BX8" s="153"/>
-      <c r="BY8" s="153"/>
-      <c r="BZ8" s="153"/>
-      <c r="CA8" s="153"/>
-      <c r="CB8" s="153"/>
-      <c r="CC8" s="154"/>
+      <c r="BU8" s="155"/>
+      <c r="BV8" s="155"/>
+      <c r="BW8" s="155"/>
+      <c r="BX8" s="155"/>
+      <c r="BY8" s="155"/>
+      <c r="BZ8" s="155"/>
+      <c r="CA8" s="155"/>
+      <c r="CB8" s="155"/>
+      <c r="CC8" s="156"/>
     </row>
-    <row r="9" spans="2:82" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="7:82" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I9" s="18"/>
       <c r="J9" s="27"/>
       <c r="K9" s="10"/>
@@ -3157,18 +3885,10 @@
       <c r="BI9" s="1">
         <v>7</v>
       </c>
-      <c r="BT9" s="137"/>
-      <c r="BU9" s="134"/>
-      <c r="BV9" s="134"/>
-      <c r="BW9" s="134"/>
-      <c r="BX9" s="134"/>
-      <c r="BY9" s="134"/>
-      <c r="BZ9" s="134"/>
-      <c r="CA9" s="134"/>
-      <c r="CB9" s="134"/>
-      <c r="CC9" s="138"/>
+      <c r="BT9" s="136"/>
+      <c r="CC9" s="137"/>
     </row>
-    <row r="10" spans="2:82" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="7:82" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I10" s="33"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -3224,20 +3944,14 @@
       <c r="BI10" s="1">
         <v>8</v>
       </c>
-      <c r="BT10" s="137"/>
-      <c r="BU10" s="134"/>
-      <c r="BV10" s="148"/>
-      <c r="BW10" s="134"/>
-      <c r="BX10" s="155" t="s">
+      <c r="BT10" s="136"/>
+      <c r="BV10" s="147"/>
+      <c r="BX10" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="BY10" s="134"/>
-      <c r="BZ10" s="134"/>
-      <c r="CA10" s="134"/>
-      <c r="CB10" s="134"/>
-      <c r="CC10" s="138"/>
+      <c r="CC10" s="137"/>
     </row>
-    <row r="11" spans="2:82" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="7:82" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I11" s="9"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
@@ -3293,18 +4007,11 @@
       <c r="BI11" s="1">
         <v>9</v>
       </c>
-      <c r="BT11" s="137"/>
-      <c r="BU11" s="134"/>
-      <c r="BV11" s="134"/>
-      <c r="BW11" s="134"/>
-      <c r="BX11" s="155"/>
-      <c r="BY11" s="134"/>
-      <c r="BZ11" s="134"/>
-      <c r="CA11" s="134"/>
-      <c r="CB11" s="134"/>
-      <c r="CC11" s="138"/>
+      <c r="BT11" s="136"/>
+      <c r="BX11" s="133"/>
+      <c r="CC11" s="137"/>
     </row>
-    <row r="12" spans="2:82" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="7:82" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I12" s="9"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
@@ -3370,20 +4077,14 @@
       <c r="BI12" s="1">
         <v>10</v>
       </c>
-      <c r="BT12" s="137"/>
-      <c r="BU12" s="134"/>
-      <c r="BV12" s="149"/>
-      <c r="BW12" s="134"/>
-      <c r="BX12" s="155" t="s">
+      <c r="BT12" s="136"/>
+      <c r="BV12" s="148"/>
+      <c r="BX12" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="BY12" s="134"/>
-      <c r="BZ12" s="134"/>
-      <c r="CA12" s="134"/>
-      <c r="CB12" s="134"/>
-      <c r="CC12" s="138"/>
+      <c r="CC12" s="137"/>
     </row>
-    <row r="13" spans="2:82" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="7:82" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I13" s="9"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
@@ -3439,21 +4140,18 @@
       <c r="BI13" s="1">
         <v>11</v>
       </c>
-      <c r="BT13" s="137"/>
-      <c r="BU13" s="134"/>
-      <c r="BV13" s="134"/>
-      <c r="BW13" s="134"/>
-      <c r="BX13" s="156" t="s">
+      <c r="BT13" s="136"/>
+      <c r="BX13" s="153" t="s">
         <v>64</v>
       </c>
-      <c r="BY13" s="156"/>
-      <c r="BZ13" s="155"/>
-      <c r="CA13" s="155"/>
-      <c r="CB13" s="155"/>
-      <c r="CC13" s="157"/>
+      <c r="BY13" s="153"/>
+      <c r="BZ13" s="133"/>
+      <c r="CA13" s="133"/>
+      <c r="CB13" s="133"/>
+      <c r="CC13" s="150"/>
       <c r="CD13" s="133"/>
     </row>
-    <row r="14" spans="2:82" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="7:82" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I14" s="39"/>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
@@ -3509,19 +4207,18 @@
       <c r="BI14" s="1">
         <v>12</v>
       </c>
-      <c r="BT14" s="137"/>
+      <c r="BT14" s="136"/>
       <c r="BU14" s="131"/>
       <c r="BV14" s="131"/>
-      <c r="BW14" s="134"/>
-      <c r="BX14" s="156"/>
-      <c r="BY14" s="156"/>
-      <c r="BZ14" s="155"/>
-      <c r="CA14" s="155"/>
-      <c r="CB14" s="155"/>
-      <c r="CC14" s="157"/>
+      <c r="BX14" s="153"/>
+      <c r="BY14" s="153"/>
+      <c r="BZ14" s="133"/>
+      <c r="CA14" s="133"/>
+      <c r="CB14" s="133"/>
+      <c r="CC14" s="150"/>
       <c r="CD14" s="133"/>
     </row>
-    <row r="15" spans="2:82" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="7:82" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I15" s="41"/>
       <c r="J15" s="42"/>
       <c r="K15" s="42"/>
@@ -3577,21 +4274,18 @@
       <c r="BI15" s="1">
         <v>13</v>
       </c>
-      <c r="BT15" s="137"/>
-      <c r="BU15" s="134"/>
-      <c r="BV15" s="134"/>
-      <c r="BW15" s="134"/>
-      <c r="BX15" s="156" t="s">
+      <c r="BT15" s="136"/>
+      <c r="BX15" s="153" t="s">
         <v>65</v>
       </c>
-      <c r="BY15" s="156"/>
-      <c r="BZ15" s="156"/>
-      <c r="CA15" s="156"/>
-      <c r="CB15" s="156"/>
-      <c r="CC15" s="158"/>
-      <c r="CD15" s="151"/>
+      <c r="BY15" s="153"/>
+      <c r="BZ15" s="153"/>
+      <c r="CA15" s="153"/>
+      <c r="CB15" s="153"/>
+      <c r="CC15" s="151"/>
+      <c r="CD15" s="149"/>
     </row>
-    <row r="16" spans="2:82" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="7:82" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I16" s="47"/>
       <c r="J16" s="48"/>
       <c r="K16" s="48"/>
@@ -3647,17 +4341,16 @@
       <c r="BI16" s="1">
         <v>14</v>
       </c>
-      <c r="BT16" s="137"/>
+      <c r="BT16" s="136"/>
       <c r="BU16" s="132"/>
       <c r="BV16" s="132"/>
-      <c r="BW16" s="134"/>
-      <c r="BX16" s="156"/>
-      <c r="BY16" s="156"/>
-      <c r="BZ16" s="156"/>
-      <c r="CA16" s="156"/>
-      <c r="CB16" s="156"/>
-      <c r="CC16" s="158"/>
-      <c r="CD16" s="151"/>
+      <c r="BX16" s="153"/>
+      <c r="BY16" s="153"/>
+      <c r="BZ16" s="153"/>
+      <c r="CA16" s="153"/>
+      <c r="CB16" s="153"/>
+      <c r="CC16" s="151"/>
+      <c r="CD16" s="149"/>
     </row>
     <row r="17" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I17" s="47"/>
@@ -3719,18 +4412,14 @@
       <c r="BI17" s="1">
         <v>15</v>
       </c>
-      <c r="BT17" s="137"/>
-      <c r="BU17" s="134"/>
-      <c r="BV17" s="134"/>
-      <c r="BW17" s="134"/>
-      <c r="BX17" s="156" t="s">
+      <c r="BT17" s="136"/>
+      <c r="BX17" s="153" t="s">
         <v>66</v>
       </c>
-      <c r="BY17" s="156"/>
-      <c r="BZ17" s="156"/>
-      <c r="CA17" s="156"/>
-      <c r="CB17" s="134"/>
-      <c r="CC17" s="138"/>
+      <c r="BY17" s="153"/>
+      <c r="BZ17" s="153"/>
+      <c r="CA17" s="153"/>
+      <c r="CC17" s="137"/>
     </row>
     <row r="18" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I18" s="47"/>
@@ -3792,16 +4481,14 @@
       <c r="BI18" s="1">
         <v>16</v>
       </c>
-      <c r="BT18" s="137"/>
-      <c r="BU18" s="135"/>
-      <c r="BV18" s="135"/>
-      <c r="BW18" s="134"/>
-      <c r="BX18" s="156"/>
-      <c r="BY18" s="156"/>
-      <c r="BZ18" s="156"/>
-      <c r="CA18" s="156"/>
-      <c r="CB18" s="134"/>
-      <c r="CC18" s="138"/>
+      <c r="BT18" s="136"/>
+      <c r="BU18" s="134"/>
+      <c r="BV18" s="134"/>
+      <c r="BX18" s="153"/>
+      <c r="BY18" s="153"/>
+      <c r="BZ18" s="153"/>
+      <c r="CA18" s="153"/>
+      <c r="CC18" s="137"/>
     </row>
     <row r="19" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I19" s="47"/>
@@ -3861,18 +4548,12 @@
       <c r="BI19" s="1">
         <v>17</v>
       </c>
-      <c r="BT19" s="137"/>
-      <c r="BU19" s="134"/>
-      <c r="BV19" s="136"/>
-      <c r="BW19" s="134"/>
-      <c r="BX19" s="155" t="s">
+      <c r="BT19" s="136"/>
+      <c r="BV19" s="135"/>
+      <c r="BX19" s="133" t="s">
         <v>67</v>
       </c>
-      <c r="BY19" s="134"/>
-      <c r="BZ19" s="134"/>
-      <c r="CA19" s="134"/>
-      <c r="CB19" s="134"/>
-      <c r="CC19" s="138"/>
+      <c r="CC19" s="137"/>
     </row>
     <row r="20" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I20" s="47"/>
@@ -3932,16 +4613,8 @@
       <c r="BI20" s="1">
         <v>18</v>
       </c>
-      <c r="BT20" s="137"/>
-      <c r="BU20" s="134"/>
-      <c r="BV20" s="134"/>
-      <c r="BW20" s="134"/>
-      <c r="BX20" s="134"/>
-      <c r="BY20" s="134"/>
-      <c r="BZ20" s="134"/>
-      <c r="CA20" s="134"/>
-      <c r="CB20" s="134"/>
-      <c r="CC20" s="138"/>
+      <c r="BT20" s="136"/>
+      <c r="CC20" s="137"/>
     </row>
     <row r="21" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I21" s="47"/>
@@ -4001,18 +4674,14 @@
       <c r="BI21" s="1">
         <v>19</v>
       </c>
-      <c r="BT21" s="137"/>
-      <c r="BU21" s="141"/>
-      <c r="BV21" s="142"/>
-      <c r="BW21" s="134"/>
-      <c r="BX21" s="156" t="s">
+      <c r="BT21" s="136"/>
+      <c r="BU21" s="140"/>
+      <c r="BV21" s="141"/>
+      <c r="BX21" s="153" t="s">
         <v>68</v>
       </c>
-      <c r="BY21" s="156"/>
-      <c r="BZ21" s="134"/>
-      <c r="CA21" s="134"/>
-      <c r="CB21" s="134"/>
-      <c r="CC21" s="138"/>
+      <c r="BY21" s="153"/>
+      <c r="CC21" s="137"/>
     </row>
     <row r="22" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I22" s="47"/>
@@ -4070,16 +4739,12 @@
       <c r="BI22" s="1">
         <v>20</v>
       </c>
-      <c r="BT22" s="137"/>
-      <c r="BU22" s="139"/>
-      <c r="BV22" s="140"/>
-      <c r="BW22" s="134"/>
-      <c r="BX22" s="156"/>
-      <c r="BY22" s="156"/>
-      <c r="BZ22" s="134"/>
-      <c r="CA22" s="134"/>
-      <c r="CB22" s="134"/>
-      <c r="CC22" s="138"/>
+      <c r="BT22" s="136"/>
+      <c r="BU22" s="138"/>
+      <c r="BV22" s="139"/>
+      <c r="BX22" s="153"/>
+      <c r="BY22" s="153"/>
+      <c r="CC22" s="137"/>
     </row>
     <row r="23" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I23" s="47"/>
@@ -4149,16 +4814,8 @@
       <c r="BI23" s="1">
         <v>21</v>
       </c>
-      <c r="BT23" s="137"/>
-      <c r="BU23" s="134"/>
-      <c r="BV23" s="134"/>
-      <c r="BW23" s="134"/>
-      <c r="BX23" s="134"/>
-      <c r="BY23" s="134"/>
-      <c r="BZ23" s="134"/>
-      <c r="CA23" s="134"/>
-      <c r="CB23" s="134"/>
-      <c r="CC23" s="138"/>
+      <c r="BT23" s="136"/>
+      <c r="CC23" s="137"/>
     </row>
     <row r="24" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I24" s="47"/>
@@ -4218,18 +4875,13 @@
       <c r="BI24" s="1">
         <v>22</v>
       </c>
-      <c r="BT24" s="137"/>
-      <c r="BU24" s="146"/>
-      <c r="BV24" s="147"/>
-      <c r="BW24" s="134"/>
-      <c r="BX24" s="155" t="s">
+      <c r="BT24" s="136"/>
+      <c r="BU24" s="145"/>
+      <c r="BV24" s="146"/>
+      <c r="BX24" s="133" t="s">
         <v>69</v>
       </c>
-      <c r="BY24" s="134"/>
-      <c r="BZ24" s="134"/>
-      <c r="CA24" s="134"/>
-      <c r="CB24" s="134"/>
-      <c r="CC24" s="138"/>
+      <c r="CC24" s="137"/>
     </row>
     <row r="25" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I25" s="47"/>
@@ -4287,16 +4939,16 @@
       <c r="BI25" s="1">
         <v>23</v>
       </c>
-      <c r="BT25" s="139"/>
-      <c r="BU25" s="159"/>
-      <c r="BV25" s="159"/>
-      <c r="BW25" s="159"/>
-      <c r="BX25" s="159"/>
-      <c r="BY25" s="159"/>
-      <c r="BZ25" s="159"/>
-      <c r="CA25" s="159"/>
-      <c r="CB25" s="159"/>
-      <c r="CC25" s="140"/>
+      <c r="BT25" s="138"/>
+      <c r="BU25" s="152"/>
+      <c r="BV25" s="152"/>
+      <c r="BW25" s="152"/>
+      <c r="BX25" s="152"/>
+      <c r="BY25" s="152"/>
+      <c r="BZ25" s="152"/>
+      <c r="CA25" s="152"/>
+      <c r="CB25" s="152"/>
+      <c r="CC25" s="139"/>
     </row>
     <row r="26" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I26" s="91"/>
@@ -4576,7 +5228,7 @@
       <c r="O30" s="69"/>
       <c r="P30" s="75"/>
       <c r="Q30" s="14"/>
-      <c r="R30" s="143" t="s">
+      <c r="R30" s="142" t="s">
         <v>60</v>
       </c>
       <c r="S30" s="75"/>
@@ -4639,7 +5291,7 @@
       <c r="O31" s="56"/>
       <c r="P31" s="103"/>
       <c r="Q31" s="14"/>
-      <c r="R31" s="144" t="s">
+      <c r="R31" s="143" t="s">
         <v>61</v>
       </c>
       <c r="S31" s="43"/>
@@ -4704,7 +5356,7 @@
       <c r="O32" s="14"/>
       <c r="P32" s="107"/>
       <c r="Q32" s="14"/>
-      <c r="R32" s="143"/>
+      <c r="R32" s="142"/>
       <c r="S32" s="99"/>
       <c r="T32" s="14"/>
       <c r="U32" s="80"/>
@@ -4765,7 +5417,7 @@
       <c r="O33" s="14"/>
       <c r="P33" s="107"/>
       <c r="Q33" s="14"/>
-      <c r="R33" s="144" t="s">
+      <c r="R33" s="143" t="s">
         <v>62</v>
       </c>
       <c r="S33" s="43"/>
@@ -4828,7 +5480,7 @@
       <c r="O34" s="14"/>
       <c r="P34" s="107"/>
       <c r="Q34" s="14"/>
-      <c r="R34" s="145"/>
+      <c r="R34" s="144"/>
       <c r="S34" s="75"/>
       <c r="T34" s="14"/>
       <c r="U34" s="80"/>
@@ -4887,7 +5539,7 @@
       <c r="O35" s="14"/>
       <c r="P35" s="110"/>
       <c r="Q35" s="14"/>
-      <c r="R35" s="144" t="s">
+      <c r="R35" s="143" t="s">
         <v>63</v>
       </c>
       <c r="S35" s="43"/>
@@ -4948,7 +5600,7 @@
       <c r="O36" s="14"/>
       <c r="P36" s="14"/>
       <c r="Q36" s="90"/>
-      <c r="R36" s="143"/>
+      <c r="R36" s="142"/>
       <c r="S36" s="99"/>
       <c r="T36" s="14"/>
       <c r="U36" s="14"/>
@@ -5255,4 +5907,1770 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B586CB-32E7-42A4-9067-BBE192B7452D}">
+  <dimension ref="B1:AY619"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="84" width="3.33203125" style="157" customWidth="1"/>
+    <col min="85" max="16384" width="11.5546875" style="157"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:51" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J1" s="159">
+        <v>1</v>
+      </c>
+      <c r="K1" s="159">
+        <v>2</v>
+      </c>
+      <c r="L1" s="159">
+        <v>3</v>
+      </c>
+      <c r="M1" s="159">
+        <v>4</v>
+      </c>
+      <c r="N1" s="159">
+        <v>5</v>
+      </c>
+      <c r="O1" s="159">
+        <v>6</v>
+      </c>
+      <c r="P1" s="159">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="159">
+        <v>8</v>
+      </c>
+      <c r="R1" s="159">
+        <v>9</v>
+      </c>
+      <c r="S1" s="159">
+        <v>10</v>
+      </c>
+      <c r="T1" s="159">
+        <v>11</v>
+      </c>
+      <c r="U1" s="159">
+        <v>12</v>
+      </c>
+      <c r="V1" s="159">
+        <v>13</v>
+      </c>
+      <c r="W1" s="159">
+        <v>14</v>
+      </c>
+      <c r="X1" s="159">
+        <v>15</v>
+      </c>
+      <c r="Y1" s="159">
+        <v>16</v>
+      </c>
+      <c r="Z1" s="159">
+        <v>17</v>
+      </c>
+      <c r="AA1" s="159">
+        <v>18</v>
+      </c>
+      <c r="AB1" s="159">
+        <v>19</v>
+      </c>
+      <c r="AC1" s="159">
+        <v>20</v>
+      </c>
+      <c r="AD1" s="159">
+        <v>21</v>
+      </c>
+      <c r="AE1" s="159">
+        <v>22</v>
+      </c>
+      <c r="AF1" s="159">
+        <v>23</v>
+      </c>
+      <c r="AG1" s="159">
+        <v>24</v>
+      </c>
+      <c r="AH1" s="159">
+        <v>25</v>
+      </c>
+      <c r="AI1" s="159">
+        <v>26</v>
+      </c>
+      <c r="AJ1" s="159">
+        <v>27</v>
+      </c>
+      <c r="AK1" s="159">
+        <v>28</v>
+      </c>
+      <c r="AL1" s="159">
+        <v>29</v>
+      </c>
+      <c r="AM1" s="159">
+        <v>30</v>
+      </c>
+      <c r="AN1" s="159">
+        <v>31</v>
+      </c>
+      <c r="AO1" s="159">
+        <v>32</v>
+      </c>
+      <c r="AP1" s="159">
+        <v>33</v>
+      </c>
+      <c r="AQ1" s="159">
+        <v>34</v>
+      </c>
+      <c r="AR1" s="159">
+        <v>35</v>
+      </c>
+      <c r="AS1" s="159">
+        <v>36</v>
+      </c>
+      <c r="AT1" s="159"/>
+      <c r="AU1" s="159"/>
+      <c r="AV1" s="159"/>
+      <c r="AW1" s="159"/>
+    </row>
+    <row r="2" spans="2:51" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H2" s="160"/>
+      <c r="J2" s="174"/>
+      <c r="K2" s="174"/>
+      <c r="L2" s="174"/>
+      <c r="M2" s="174"/>
+      <c r="N2" s="174"/>
+      <c r="O2" s="174"/>
+      <c r="P2" s="174"/>
+      <c r="Q2" s="174"/>
+      <c r="R2" s="174"/>
+      <c r="S2" s="174"/>
+      <c r="T2" s="174"/>
+      <c r="U2" s="174"/>
+      <c r="V2" s="174"/>
+      <c r="W2" s="174"/>
+      <c r="X2" s="174"/>
+      <c r="Y2" s="174"/>
+      <c r="Z2" s="174"/>
+      <c r="AA2" s="174"/>
+      <c r="AB2" s="174"/>
+      <c r="AC2" s="174"/>
+      <c r="AD2" s="174"/>
+      <c r="AE2" s="174"/>
+      <c r="AF2" s="174"/>
+      <c r="AG2" s="174"/>
+      <c r="AH2" s="174"/>
+      <c r="AI2" s="174"/>
+      <c r="AJ2" s="174"/>
+      <c r="AK2" s="174"/>
+      <c r="AL2" s="174"/>
+      <c r="AM2" s="174"/>
+      <c r="AN2" s="174"/>
+      <c r="AO2" s="174"/>
+      <c r="AP2" s="174"/>
+      <c r="AQ2" s="174"/>
+      <c r="AR2" s="174"/>
+      <c r="AS2" s="174"/>
+      <c r="AT2" s="174"/>
+      <c r="AU2" s="174"/>
+      <c r="AV2" s="174"/>
+      <c r="AW2" s="172"/>
+      <c r="AX2" s="160"/>
+    </row>
+    <row r="3" spans="2:51" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="157" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="160"/>
+      <c r="J3" s="170"/>
+      <c r="K3" s="170"/>
+      <c r="L3" s="170"/>
+      <c r="M3" s="170"/>
+      <c r="N3" s="170"/>
+      <c r="O3" s="170"/>
+      <c r="P3" s="170"/>
+      <c r="Q3" s="170"/>
+      <c r="R3" s="170"/>
+      <c r="S3" s="170"/>
+      <c r="T3" s="170"/>
+      <c r="U3" s="170"/>
+      <c r="V3" s="170"/>
+      <c r="W3" s="170"/>
+      <c r="X3" s="170"/>
+      <c r="Y3" s="170"/>
+      <c r="Z3" s="170"/>
+      <c r="AA3" s="170"/>
+      <c r="AB3" s="170"/>
+      <c r="AC3" s="170"/>
+      <c r="AD3" s="170"/>
+      <c r="AE3" s="170"/>
+      <c r="AF3" s="170"/>
+      <c r="AG3" s="170"/>
+      <c r="AH3" s="170"/>
+      <c r="AI3" s="170"/>
+      <c r="AJ3" s="170"/>
+      <c r="AK3" s="170"/>
+      <c r="AL3" s="170"/>
+      <c r="AM3" s="170"/>
+      <c r="AN3" s="170"/>
+      <c r="AO3" s="170"/>
+      <c r="AP3" s="170"/>
+      <c r="AQ3" s="170"/>
+      <c r="AR3" s="170"/>
+      <c r="AS3" s="170"/>
+      <c r="AT3" s="165"/>
+      <c r="AU3" s="165"/>
+      <c r="AV3" s="166"/>
+      <c r="AW3" s="173"/>
+      <c r="AX3" s="160"/>
+    </row>
+    <row r="4" spans="2:51" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H4" s="160"/>
+      <c r="J4" s="171"/>
+      <c r="K4" s="171"/>
+      <c r="L4" s="171"/>
+      <c r="M4" s="171"/>
+      <c r="N4" s="171"/>
+      <c r="O4" s="171"/>
+      <c r="P4" s="171"/>
+      <c r="Q4" s="171"/>
+      <c r="R4" s="171"/>
+      <c r="S4" s="171"/>
+      <c r="T4" s="171"/>
+      <c r="U4" s="171"/>
+      <c r="V4" s="171"/>
+      <c r="W4" s="171"/>
+      <c r="X4" s="171"/>
+      <c r="Y4" s="171"/>
+      <c r="Z4" s="171"/>
+      <c r="AA4" s="171"/>
+      <c r="AB4" s="171"/>
+      <c r="AC4" s="171"/>
+      <c r="AD4" s="171"/>
+      <c r="AE4" s="171"/>
+      <c r="AF4" s="171"/>
+      <c r="AG4" s="171"/>
+      <c r="AH4" s="171"/>
+      <c r="AI4" s="171"/>
+      <c r="AJ4" s="171"/>
+      <c r="AK4" s="171"/>
+      <c r="AL4" s="171"/>
+      <c r="AM4" s="171"/>
+      <c r="AN4" s="171"/>
+      <c r="AO4" s="171"/>
+      <c r="AP4" s="171"/>
+      <c r="AQ4" s="171"/>
+      <c r="AR4" s="171"/>
+      <c r="AS4" s="171"/>
+      <c r="AT4" s="171"/>
+      <c r="AU4" s="167"/>
+      <c r="AV4" s="168"/>
+      <c r="AW4" s="173"/>
+      <c r="AX4" s="160"/>
+    </row>
+    <row r="5" spans="2:51" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="163" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="162" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="160"/>
+      <c r="J5" s="174"/>
+      <c r="K5" s="174"/>
+      <c r="L5" s="174"/>
+      <c r="M5" s="174"/>
+      <c r="N5" s="174"/>
+      <c r="O5" s="174"/>
+      <c r="P5" s="174"/>
+      <c r="Q5" s="268"/>
+      <c r="R5" s="268"/>
+      <c r="S5" s="174"/>
+      <c r="T5" s="174"/>
+      <c r="U5" s="174"/>
+      <c r="V5" s="174"/>
+      <c r="W5" s="174"/>
+      <c r="X5" s="174"/>
+      <c r="Y5" s="174"/>
+      <c r="Z5" s="174"/>
+      <c r="AA5" s="174"/>
+      <c r="AB5" s="174"/>
+      <c r="AC5" s="174"/>
+      <c r="AD5" s="174"/>
+      <c r="AE5" s="174"/>
+      <c r="AF5" s="174"/>
+      <c r="AG5" s="174"/>
+      <c r="AH5" s="174"/>
+      <c r="AI5" s="174"/>
+      <c r="AJ5" s="174"/>
+      <c r="AK5" s="174"/>
+      <c r="AL5" s="174"/>
+      <c r="AM5" s="174"/>
+      <c r="AN5" s="174"/>
+      <c r="AO5" s="174"/>
+      <c r="AP5" s="174"/>
+      <c r="AQ5" s="174"/>
+      <c r="AR5" s="174"/>
+      <c r="AS5" s="174"/>
+      <c r="AT5" s="172"/>
+      <c r="AU5" s="169"/>
+      <c r="AV5" s="168"/>
+      <c r="AW5" s="173"/>
+      <c r="AX5" s="160"/>
+    </row>
+    <row r="6" spans="2:51" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="163" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="162" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="160"/>
+      <c r="J6" s="161"/>
+      <c r="K6" s="161"/>
+      <c r="L6" s="161"/>
+      <c r="M6" s="161"/>
+      <c r="N6" s="161"/>
+      <c r="O6" s="161"/>
+      <c r="P6" s="161"/>
+      <c r="Q6" s="269"/>
+      <c r="R6" s="264"/>
+      <c r="S6" s="161"/>
+      <c r="T6" s="161"/>
+      <c r="U6" s="164"/>
+      <c r="V6" s="213"/>
+      <c r="W6" s="214"/>
+      <c r="X6" s="214"/>
+      <c r="Y6" s="214"/>
+      <c r="Z6" s="215"/>
+      <c r="AA6" s="213"/>
+      <c r="AB6" s="214"/>
+      <c r="AC6" s="214"/>
+      <c r="AD6" s="214"/>
+      <c r="AE6" s="215"/>
+      <c r="AF6" s="234"/>
+      <c r="AG6" s="235"/>
+      <c r="AH6" s="235"/>
+      <c r="AI6" s="235"/>
+      <c r="AJ6" s="236"/>
+      <c r="AK6" s="270"/>
+      <c r="AL6" s="270"/>
+      <c r="AM6" s="270"/>
+      <c r="AN6" s="270"/>
+      <c r="AO6" s="270"/>
+      <c r="AP6" s="270"/>
+      <c r="AQ6" s="270"/>
+      <c r="AR6" s="270"/>
+      <c r="AS6" s="271"/>
+      <c r="AT6" s="173"/>
+      <c r="AU6" s="169"/>
+      <c r="AV6" s="168"/>
+      <c r="AW6" s="173"/>
+      <c r="AX6" s="160"/>
+      <c r="AY6" s="157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:51" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="163" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="162" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="160"/>
+      <c r="N7" s="159"/>
+      <c r="O7" s="159"/>
+      <c r="P7" s="159"/>
+      <c r="Q7" s="264"/>
+      <c r="R7" s="264"/>
+      <c r="U7" s="158"/>
+      <c r="V7" s="216"/>
+      <c r="W7" s="217"/>
+      <c r="X7" s="217" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y7" s="217"/>
+      <c r="Z7" s="218"/>
+      <c r="AA7" s="216"/>
+      <c r="AB7" s="217"/>
+      <c r="AC7" s="217" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD7" s="217"/>
+      <c r="AE7" s="218"/>
+      <c r="AF7" s="237"/>
+      <c r="AG7" s="238"/>
+      <c r="AH7" s="238" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI7" s="238"/>
+      <c r="AJ7" s="239"/>
+      <c r="AK7" s="264"/>
+      <c r="AL7" s="264"/>
+      <c r="AM7" s="264"/>
+      <c r="AN7" s="264"/>
+      <c r="AO7" s="264"/>
+      <c r="AP7" s="264"/>
+      <c r="AQ7" s="264"/>
+      <c r="AR7" s="264"/>
+      <c r="AS7" s="272"/>
+      <c r="AT7" s="173"/>
+      <c r="AU7" s="169"/>
+      <c r="AV7" s="168"/>
+      <c r="AW7" s="173"/>
+      <c r="AX7" s="160"/>
+      <c r="AY7" s="157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:51" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="163" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="162" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" s="160"/>
+      <c r="M8" s="158"/>
+      <c r="N8" s="175"/>
+      <c r="O8" s="176"/>
+      <c r="P8" s="177"/>
+      <c r="Q8" s="263"/>
+      <c r="R8" s="264"/>
+      <c r="S8" s="175"/>
+      <c r="T8" s="176"/>
+      <c r="U8" s="184"/>
+      <c r="V8" s="219"/>
+      <c r="W8" s="220"/>
+      <c r="X8" s="221"/>
+      <c r="Y8" s="220"/>
+      <c r="Z8" s="222"/>
+      <c r="AA8" s="219"/>
+      <c r="AB8" s="220"/>
+      <c r="AC8" s="221"/>
+      <c r="AD8" s="220"/>
+      <c r="AE8" s="222"/>
+      <c r="AF8" s="240"/>
+      <c r="AG8" s="241"/>
+      <c r="AH8" s="242"/>
+      <c r="AI8" s="241"/>
+      <c r="AJ8" s="243"/>
+      <c r="AK8" s="264"/>
+      <c r="AL8" s="264"/>
+      <c r="AM8" s="264"/>
+      <c r="AN8" s="264"/>
+      <c r="AO8" s="264"/>
+      <c r="AP8" s="264"/>
+      <c r="AQ8" s="264"/>
+      <c r="AR8" s="264"/>
+      <c r="AS8" s="272"/>
+      <c r="AT8" s="173"/>
+      <c r="AU8" s="169"/>
+      <c r="AV8" s="168"/>
+      <c r="AW8" s="173"/>
+      <c r="AX8" s="160"/>
+      <c r="AY8" s="157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:51" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="163" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="162" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" s="160"/>
+      <c r="M9" s="158"/>
+      <c r="N9" s="178"/>
+      <c r="O9" s="179" t="s">
+        <v>90</v>
+      </c>
+      <c r="P9" s="180"/>
+      <c r="Q9" s="263"/>
+      <c r="R9" s="264"/>
+      <c r="S9" s="180"/>
+      <c r="T9" s="179" t="s">
+        <v>94</v>
+      </c>
+      <c r="U9" s="185"/>
+      <c r="V9" s="202"/>
+      <c r="W9" s="203"/>
+      <c r="X9" s="204"/>
+      <c r="Y9" s="203"/>
+      <c r="Z9" s="275" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA9" s="275" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB9" s="203"/>
+      <c r="AC9" s="204"/>
+      <c r="AD9" s="203"/>
+      <c r="AE9" s="205"/>
+      <c r="AF9" s="223"/>
+      <c r="AG9" s="224"/>
+      <c r="AH9" s="225"/>
+      <c r="AI9" s="224"/>
+      <c r="AJ9" s="226"/>
+      <c r="AK9" s="264"/>
+      <c r="AL9" s="264"/>
+      <c r="AM9" s="264"/>
+      <c r="AN9" s="264"/>
+      <c r="AO9" s="264"/>
+      <c r="AP9" s="264"/>
+      <c r="AQ9" s="264"/>
+      <c r="AR9" s="264"/>
+      <c r="AS9" s="272"/>
+      <c r="AT9" s="173"/>
+      <c r="AU9" s="169"/>
+      <c r="AV9" s="168"/>
+      <c r="AW9" s="173"/>
+      <c r="AX9" s="160"/>
+      <c r="AY9" s="157">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:51" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="163" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="162" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" s="160"/>
+      <c r="M10" s="158"/>
+      <c r="N10" s="181"/>
+      <c r="O10" s="182"/>
+      <c r="P10" s="183"/>
+      <c r="Q10" s="263"/>
+      <c r="R10" s="264"/>
+      <c r="S10" s="181"/>
+      <c r="T10" s="182"/>
+      <c r="U10" s="183"/>
+      <c r="V10" s="206"/>
+      <c r="W10" s="163"/>
+      <c r="X10" s="163"/>
+      <c r="Y10" s="163"/>
+      <c r="Z10" s="207"/>
+      <c r="AA10" s="206"/>
+      <c r="AB10" s="163"/>
+      <c r="AC10" s="163"/>
+      <c r="AD10" s="163"/>
+      <c r="AE10" s="207"/>
+      <c r="AF10" s="227"/>
+      <c r="AG10" s="228"/>
+      <c r="AH10" s="228"/>
+      <c r="AI10" s="228"/>
+      <c r="AJ10" s="229"/>
+      <c r="AK10" s="264"/>
+      <c r="AL10" s="264"/>
+      <c r="AM10" s="264"/>
+      <c r="AN10" s="264"/>
+      <c r="AO10" s="264"/>
+      <c r="AP10" s="264"/>
+      <c r="AQ10" s="264"/>
+      <c r="AR10" s="264"/>
+      <c r="AS10" s="272"/>
+      <c r="AT10" s="173"/>
+      <c r="AU10" s="169"/>
+      <c r="AV10" s="168"/>
+      <c r="AW10" s="173"/>
+      <c r="AX10" s="160"/>
+      <c r="AY10" s="157">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="163" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="162" t="s">
+        <v>93</v>
+      </c>
+      <c r="N11" s="175"/>
+      <c r="O11" s="176"/>
+      <c r="P11" s="177"/>
+      <c r="Q11" s="264"/>
+      <c r="R11" s="264"/>
+      <c r="S11" s="175"/>
+      <c r="T11" s="176"/>
+      <c r="U11" s="177"/>
+      <c r="V11" s="206"/>
+      <c r="W11" s="163"/>
+      <c r="X11" s="163" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y11" s="163"/>
+      <c r="Z11" s="207"/>
+      <c r="AA11" s="206"/>
+      <c r="AB11" s="163"/>
+      <c r="AC11" s="163" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD11" s="163"/>
+      <c r="AE11" s="207"/>
+      <c r="AF11" s="227"/>
+      <c r="AG11" s="228"/>
+      <c r="AH11" s="228" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI11" s="228"/>
+      <c r="AJ11" s="229"/>
+      <c r="AK11" s="264"/>
+      <c r="AL11" s="264"/>
+      <c r="AM11" s="264"/>
+      <c r="AN11" s="264"/>
+      <c r="AO11" s="264"/>
+      <c r="AP11" s="264"/>
+      <c r="AQ11" s="264"/>
+      <c r="AR11" s="264"/>
+      <c r="AS11" s="272"/>
+      <c r="AT11" s="173"/>
+      <c r="AU11" s="169"/>
+      <c r="AV11" s="168"/>
+      <c r="AW11" s="173"/>
+      <c r="AX11" s="160"/>
+      <c r="AY11" s="157">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:51" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="163" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="162" t="s">
+        <v>90</v>
+      </c>
+      <c r="N12" s="178"/>
+      <c r="O12" s="179" t="s">
+        <v>96</v>
+      </c>
+      <c r="P12" s="180"/>
+      <c r="Q12" s="264"/>
+      <c r="R12" s="264"/>
+      <c r="S12" s="180"/>
+      <c r="T12" s="179" t="s">
+        <v>107</v>
+      </c>
+      <c r="U12" s="186"/>
+      <c r="V12" s="206"/>
+      <c r="W12" s="163"/>
+      <c r="X12" s="163"/>
+      <c r="Y12" s="163"/>
+      <c r="Z12" s="207"/>
+      <c r="AA12" s="206"/>
+      <c r="AB12" s="163"/>
+      <c r="AC12" s="163"/>
+      <c r="AD12" s="163"/>
+      <c r="AE12" s="207"/>
+      <c r="AF12" s="227"/>
+      <c r="AG12" s="228"/>
+      <c r="AH12" s="228"/>
+      <c r="AI12" s="228"/>
+      <c r="AJ12" s="229"/>
+      <c r="AK12" s="264"/>
+      <c r="AL12" s="264"/>
+      <c r="AM12" s="264"/>
+      <c r="AN12" s="264"/>
+      <c r="AO12" s="264"/>
+      <c r="AP12" s="264"/>
+      <c r="AQ12" s="264"/>
+      <c r="AR12" s="264"/>
+      <c r="AS12" s="272"/>
+      <c r="AT12" s="173"/>
+      <c r="AU12" s="169"/>
+      <c r="AV12" s="168"/>
+      <c r="AW12" s="173"/>
+      <c r="AX12" s="160"/>
+      <c r="AY12" s="157">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:51" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="163" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="162" t="s">
+        <v>94</v>
+      </c>
+      <c r="J13" s="159"/>
+      <c r="K13" s="159"/>
+      <c r="L13" s="159"/>
+      <c r="M13" s="159"/>
+      <c r="N13" s="181"/>
+      <c r="O13" s="182"/>
+      <c r="P13" s="183"/>
+      <c r="Q13" s="264"/>
+      <c r="R13" s="264"/>
+      <c r="S13" s="181"/>
+      <c r="T13" s="187"/>
+      <c r="U13" s="188" t="s">
+        <v>88</v>
+      </c>
+      <c r="V13" s="208"/>
+      <c r="W13" s="209"/>
+      <c r="X13" s="210"/>
+      <c r="Y13" s="209"/>
+      <c r="Z13" s="211"/>
+      <c r="AA13" s="208"/>
+      <c r="AB13" s="209"/>
+      <c r="AC13" s="210"/>
+      <c r="AD13" s="209"/>
+      <c r="AE13" s="211"/>
+      <c r="AF13" s="230"/>
+      <c r="AG13" s="231"/>
+      <c r="AH13" s="232"/>
+      <c r="AI13" s="231"/>
+      <c r="AJ13" s="233"/>
+      <c r="AK13" s="264"/>
+      <c r="AL13" s="264"/>
+      <c r="AM13" s="264"/>
+      <c r="AN13" s="264"/>
+      <c r="AO13" s="264" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP13" s="264"/>
+      <c r="AQ13" s="264"/>
+      <c r="AR13" s="264"/>
+      <c r="AS13" s="272"/>
+      <c r="AT13" s="173"/>
+      <c r="AU13" s="169"/>
+      <c r="AV13" s="168"/>
+      <c r="AW13" s="173"/>
+      <c r="AX13" s="160"/>
+      <c r="AY13" s="157">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="163" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="162" t="s">
+        <v>96</v>
+      </c>
+      <c r="I14" s="158"/>
+      <c r="J14" s="254"/>
+      <c r="K14" s="255"/>
+      <c r="L14" s="255"/>
+      <c r="M14" s="256"/>
+      <c r="N14" s="263"/>
+      <c r="O14" s="264"/>
+      <c r="P14" s="264"/>
+      <c r="Q14" s="264"/>
+      <c r="R14" s="264"/>
+      <c r="S14" s="264"/>
+      <c r="T14" s="264"/>
+      <c r="U14" s="264"/>
+      <c r="V14" s="264"/>
+      <c r="W14" s="264"/>
+      <c r="X14" s="265"/>
+      <c r="Y14" s="264"/>
+      <c r="Z14" s="264"/>
+      <c r="AA14" s="264"/>
+      <c r="AB14" s="264"/>
+      <c r="AC14" s="265"/>
+      <c r="AD14" s="264"/>
+      <c r="AE14" s="264"/>
+      <c r="AF14" s="264"/>
+      <c r="AG14" s="264"/>
+      <c r="AH14" s="265"/>
+      <c r="AI14" s="264"/>
+      <c r="AJ14" s="264"/>
+      <c r="AK14" s="264"/>
+      <c r="AL14" s="264"/>
+      <c r="AM14" s="264"/>
+      <c r="AN14" s="264"/>
+      <c r="AO14" s="264"/>
+      <c r="AP14" s="264"/>
+      <c r="AQ14" s="264"/>
+      <c r="AR14" s="264"/>
+      <c r="AS14" s="272"/>
+      <c r="AT14" s="173"/>
+      <c r="AU14" s="169"/>
+      <c r="AV14" s="168"/>
+      <c r="AW14" s="173"/>
+      <c r="AX14" s="160"/>
+      <c r="AY14" s="157">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="163" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="162" t="s">
+        <v>106</v>
+      </c>
+      <c r="I15" s="158"/>
+      <c r="J15" s="257"/>
+      <c r="K15" s="258" t="s">
+        <v>99</v>
+      </c>
+      <c r="L15" s="258"/>
+      <c r="M15" s="259"/>
+      <c r="N15" s="263"/>
+      <c r="O15" s="264"/>
+      <c r="P15" s="264"/>
+      <c r="Q15" s="264"/>
+      <c r="R15" s="264"/>
+      <c r="S15" s="264"/>
+      <c r="T15" s="264"/>
+      <c r="U15" s="264"/>
+      <c r="V15" s="264"/>
+      <c r="W15" s="264"/>
+      <c r="X15" s="264"/>
+      <c r="Y15" s="264"/>
+      <c r="Z15" s="264"/>
+      <c r="AA15" s="264"/>
+      <c r="AB15" s="264"/>
+      <c r="AC15" s="264"/>
+      <c r="AD15" s="264"/>
+      <c r="AE15" s="264"/>
+      <c r="AF15" s="264"/>
+      <c r="AG15" s="264"/>
+      <c r="AH15" s="264"/>
+      <c r="AI15" s="264"/>
+      <c r="AJ15" s="264"/>
+      <c r="AK15" s="264"/>
+      <c r="AL15" s="264"/>
+      <c r="AM15" s="264"/>
+      <c r="AN15" s="264"/>
+      <c r="AO15" s="264"/>
+      <c r="AP15" s="264"/>
+      <c r="AQ15" s="264"/>
+      <c r="AR15" s="264"/>
+      <c r="AS15" s="272"/>
+      <c r="AT15" s="173"/>
+      <c r="AU15" s="169"/>
+      <c r="AV15" s="168"/>
+      <c r="AW15" s="173"/>
+      <c r="AX15" s="160"/>
+      <c r="AY15" s="157">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:51" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="163" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="162" t="s">
+        <v>99</v>
+      </c>
+      <c r="I16" s="158"/>
+      <c r="J16" s="260"/>
+      <c r="K16" s="261"/>
+      <c r="L16" s="261"/>
+      <c r="M16" s="262"/>
+      <c r="N16" s="266"/>
+      <c r="O16" s="267"/>
+      <c r="P16" s="267"/>
+      <c r="Q16" s="267"/>
+      <c r="R16" s="264"/>
+      <c r="S16" s="264"/>
+      <c r="T16" s="264"/>
+      <c r="U16" s="264"/>
+      <c r="V16" s="267"/>
+      <c r="W16" s="267"/>
+      <c r="X16" s="267"/>
+      <c r="Y16" s="267"/>
+      <c r="Z16" s="267"/>
+      <c r="AA16" s="264"/>
+      <c r="AB16" s="264"/>
+      <c r="AC16" s="267"/>
+      <c r="AD16" s="264"/>
+      <c r="AE16" s="264"/>
+      <c r="AF16" s="264"/>
+      <c r="AG16" s="264"/>
+      <c r="AH16" s="267"/>
+      <c r="AI16" s="264"/>
+      <c r="AJ16" s="264"/>
+      <c r="AK16" s="264"/>
+      <c r="AL16" s="264"/>
+      <c r="AM16" s="264"/>
+      <c r="AN16" s="264"/>
+      <c r="AO16" s="264"/>
+      <c r="AP16" s="264"/>
+      <c r="AQ16" s="264"/>
+      <c r="AR16" s="264"/>
+      <c r="AS16" s="272"/>
+      <c r="AT16" s="173"/>
+      <c r="AU16" s="169"/>
+      <c r="AV16" s="168"/>
+      <c r="AW16" s="173"/>
+      <c r="AX16" s="160"/>
+      <c r="AY16" s="157">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="157" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="162" t="s">
+        <v>101</v>
+      </c>
+      <c r="J17" s="161"/>
+      <c r="K17" s="161"/>
+      <c r="L17" s="161"/>
+      <c r="M17" s="164"/>
+      <c r="N17" s="189"/>
+      <c r="O17" s="190"/>
+      <c r="P17" s="191"/>
+      <c r="Q17" s="192"/>
+      <c r="R17" s="189"/>
+      <c r="S17" s="190"/>
+      <c r="T17" s="191"/>
+      <c r="U17" s="193"/>
+      <c r="V17" s="202"/>
+      <c r="W17" s="203"/>
+      <c r="X17" s="212"/>
+      <c r="Y17" s="203"/>
+      <c r="Z17" s="205"/>
+      <c r="AA17" s="202"/>
+      <c r="AB17" s="203"/>
+      <c r="AC17" s="212"/>
+      <c r="AD17" s="203"/>
+      <c r="AE17" s="205"/>
+      <c r="AF17" s="244"/>
+      <c r="AG17" s="245"/>
+      <c r="AH17" s="246"/>
+      <c r="AI17" s="245"/>
+      <c r="AJ17" s="247"/>
+      <c r="AK17" s="264"/>
+      <c r="AL17" s="264"/>
+      <c r="AM17" s="264"/>
+      <c r="AN17" s="264"/>
+      <c r="AO17" s="264"/>
+      <c r="AP17" s="264"/>
+      <c r="AQ17" s="264"/>
+      <c r="AR17" s="264"/>
+      <c r="AS17" s="272"/>
+      <c r="AT17" s="173"/>
+      <c r="AU17" s="169"/>
+      <c r="AV17" s="168"/>
+      <c r="AW17" s="173"/>
+      <c r="AX17" s="160"/>
+      <c r="AY17" s="157">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="163" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="162" t="s">
+        <v>103</v>
+      </c>
+      <c r="M18" s="158"/>
+      <c r="N18" s="194"/>
+      <c r="O18" s="195" t="s">
+        <v>115</v>
+      </c>
+      <c r="P18" s="195"/>
+      <c r="Q18" s="196"/>
+      <c r="R18" s="194"/>
+      <c r="S18" s="195" t="s">
+        <v>116</v>
+      </c>
+      <c r="T18" s="195"/>
+      <c r="U18" s="197"/>
+      <c r="V18" s="206"/>
+      <c r="W18" s="163"/>
+      <c r="X18" s="163"/>
+      <c r="Y18" s="163"/>
+      <c r="Z18" s="207"/>
+      <c r="AA18" s="206"/>
+      <c r="AB18" s="163"/>
+      <c r="AC18" s="163"/>
+      <c r="AD18" s="163"/>
+      <c r="AE18" s="207"/>
+      <c r="AF18" s="248"/>
+      <c r="AG18" s="249"/>
+      <c r="AH18" s="249"/>
+      <c r="AI18" s="249"/>
+      <c r="AJ18" s="250"/>
+      <c r="AK18" s="264"/>
+      <c r="AL18" s="264"/>
+      <c r="AM18" s="264"/>
+      <c r="AN18" s="264"/>
+      <c r="AO18" s="264"/>
+      <c r="AP18" s="264"/>
+      <c r="AQ18" s="264"/>
+      <c r="AR18" s="264"/>
+      <c r="AS18" s="272"/>
+      <c r="AT18" s="173"/>
+      <c r="AU18" s="169"/>
+      <c r="AV18" s="168"/>
+      <c r="AW18" s="173"/>
+      <c r="AX18" s="160"/>
+      <c r="AY18" s="157">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:51" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="163" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="162" t="s">
+        <v>105</v>
+      </c>
+      <c r="M19" s="158"/>
+      <c r="N19" s="198"/>
+      <c r="O19" s="199"/>
+      <c r="P19" s="199"/>
+      <c r="Q19" s="200"/>
+      <c r="R19" s="198"/>
+      <c r="S19" s="199"/>
+      <c r="T19" s="199"/>
+      <c r="U19" s="201"/>
+      <c r="V19" s="206"/>
+      <c r="W19" s="163"/>
+      <c r="X19" s="163" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y19" s="163"/>
+      <c r="Z19" s="207"/>
+      <c r="AA19" s="206"/>
+      <c r="AB19" s="163"/>
+      <c r="AC19" s="163" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD19" s="163"/>
+      <c r="AE19" s="207"/>
+      <c r="AF19" s="248"/>
+      <c r="AG19" s="249"/>
+      <c r="AH19" s="249" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI19" s="249"/>
+      <c r="AJ19" s="250"/>
+      <c r="AK19" s="264"/>
+      <c r="AL19" s="264"/>
+      <c r="AM19" s="264"/>
+      <c r="AN19" s="264"/>
+      <c r="AO19" s="264"/>
+      <c r="AP19" s="264"/>
+      <c r="AQ19" s="264"/>
+      <c r="AR19" s="264"/>
+      <c r="AS19" s="272"/>
+      <c r="AT19" s="173"/>
+      <c r="AU19" s="169"/>
+      <c r="AV19" s="168"/>
+      <c r="AW19" s="173"/>
+      <c r="AX19" s="160"/>
+      <c r="AY19" s="157">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:51" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="163" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="162" t="s">
+        <v>113</v>
+      </c>
+      <c r="N20" s="161"/>
+      <c r="O20" s="161"/>
+      <c r="P20" s="161"/>
+      <c r="Q20" s="161"/>
+      <c r="U20" s="158"/>
+      <c r="V20" s="206"/>
+      <c r="W20" s="163"/>
+      <c r="X20" s="163"/>
+      <c r="Y20" s="163"/>
+      <c r="Z20" s="207"/>
+      <c r="AA20" s="206"/>
+      <c r="AB20" s="163"/>
+      <c r="AC20" s="163"/>
+      <c r="AD20" s="163"/>
+      <c r="AE20" s="207"/>
+      <c r="AF20" s="248"/>
+      <c r="AG20" s="249"/>
+      <c r="AH20" s="249"/>
+      <c r="AI20" s="249"/>
+      <c r="AJ20" s="250"/>
+      <c r="AK20" s="264"/>
+      <c r="AL20" s="264"/>
+      <c r="AM20" s="264"/>
+      <c r="AN20" s="264"/>
+      <c r="AO20" s="264"/>
+      <c r="AP20" s="264"/>
+      <c r="AQ20" s="264"/>
+      <c r="AR20" s="264"/>
+      <c r="AS20" s="272"/>
+      <c r="AT20" s="173"/>
+      <c r="AU20" s="169"/>
+      <c r="AV20" s="168"/>
+      <c r="AW20" s="173"/>
+      <c r="AX20" s="160"/>
+      <c r="AY20" s="157">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:51" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U21" s="158"/>
+      <c r="V21" s="208"/>
+      <c r="W21" s="209"/>
+      <c r="X21" s="209"/>
+      <c r="Y21" s="209"/>
+      <c r="Z21" s="275" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA21" s="275" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB21" s="209"/>
+      <c r="AC21" s="209"/>
+      <c r="AD21" s="209"/>
+      <c r="AE21" s="211"/>
+      <c r="AF21" s="251"/>
+      <c r="AG21" s="252"/>
+      <c r="AH21" s="252"/>
+      <c r="AI21" s="252"/>
+      <c r="AJ21" s="253"/>
+      <c r="AK21" s="273"/>
+      <c r="AL21" s="273"/>
+      <c r="AM21" s="273"/>
+      <c r="AN21" s="273"/>
+      <c r="AO21" s="273"/>
+      <c r="AP21" s="273"/>
+      <c r="AQ21" s="273"/>
+      <c r="AR21" s="273"/>
+      <c r="AS21" s="274"/>
+      <c r="AT21" s="173"/>
+      <c r="AU21" s="169"/>
+      <c r="AV21" s="168"/>
+      <c r="AW21" s="173"/>
+      <c r="AX21" s="160"/>
+      <c r="AY21" s="157">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="162" t="s">
+        <v>119</v>
+      </c>
+      <c r="V22" s="161"/>
+      <c r="W22" s="161"/>
+      <c r="X22" s="161"/>
+      <c r="Y22" s="161"/>
+      <c r="Z22" s="161"/>
+      <c r="AK22" s="161"/>
+      <c r="AL22" s="161"/>
+      <c r="AM22" s="161"/>
+      <c r="AN22" s="161"/>
+      <c r="AO22" s="161"/>
+      <c r="AP22" s="161"/>
+      <c r="AQ22" s="161"/>
+      <c r="AR22" s="161"/>
+      <c r="AS22" s="161"/>
+    </row>
+    <row r="23" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="301" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="302" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="303" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="304" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="305" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="306" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="307" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="308" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="309" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="310" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="311" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="312" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="313" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="314" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="315" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="316" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="317" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="318" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="319" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="320" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="321" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="322" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="323" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="324" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="325" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="326" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="327" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="328" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="329" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="330" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="331" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="332" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="333" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="334" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="335" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="336" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="337" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="338" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="339" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="340" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="341" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="342" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="343" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="344" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="345" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="346" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="347" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="348" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="351" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="352" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="353" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="354" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="355" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="356" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="357" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="358" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="359" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="360" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="361" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="362" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="363" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="364" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="365" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="366" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="367" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="368" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="369" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="370" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="371" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="372" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="373" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="374" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="375" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="376" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="377" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="378" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="379" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="380" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="381" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="382" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="384" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="385" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="386" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="387" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="388" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="389" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="390" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="391" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="392" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="393" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="394" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="395" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="396" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="397" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="398" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="399" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="400" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="401" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="402" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="403" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="404" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="405" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="406" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="407" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="408" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="409" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="410" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="411" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="412" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="413" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="414" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="415" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="416" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="417" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="418" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="419" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="420" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="421" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="422" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="423" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="424" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="425" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="426" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="427" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="428" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="429" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="430" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="431" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="432" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="433" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="434" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="435" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="436" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="437" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="438" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="439" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="440" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="441" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="442" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="443" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="444" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="445" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="446" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="447" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="448" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="449" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="450" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="451" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="452" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="453" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="454" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="455" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="456" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="457" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="458" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="459" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="460" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="461" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="462" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="463" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="464" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="465" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="466" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="467" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="468" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="470" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="471" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="472" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="473" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="474" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="475" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="476" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="477" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="478" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="479" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="480" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="481" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="482" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="483" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="485" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="486" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="487" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="488" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="489" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="490" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="491" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="492" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="493" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="494" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="495" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="496" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="497" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="498" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="499" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="500" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="501" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="502" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="503" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="504" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="506" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="507" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="508" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="509" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="510" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="511" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="512" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="513" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="514" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="515" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="516" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="517" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="518" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="519" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="520" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="521" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="522" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="523" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="524" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="525" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="526" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="527" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="528" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="529" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="530" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="531" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="532" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="533" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="534" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="535" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="536" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="537" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="538" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="539" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="540" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="541" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="542" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="543" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="544" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="545" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="546" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="547" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="548" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="549" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="550" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="551" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="552" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="553" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="554" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="555" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="556" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="557" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="558" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="559" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="560" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="561" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="562" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="563" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="564" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="565" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="566" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="567" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="568" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="569" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="570" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="571" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="572" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="573" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="574" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="575" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="576" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="577" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="578" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="579" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="580" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="581" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="582" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="583" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="584" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="585" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="586" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="587" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="588" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="589" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="590" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="591" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="592" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="593" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="594" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="595" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="596" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="597" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="598" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="599" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="600" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="601" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="602" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="603" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="604" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="605" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="606" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="607" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="608" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="609" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="610" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="611" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="612" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="613" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="614" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="615" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="616" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="617" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="618" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="619" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Assets/Level blueprint.xlsx
+++ b/Assets/Level blueprint.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco\Documents\GitHub\Horror_FPS\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9606A4A3-98D9-4DC6-8636-833653EE5920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD8E8B3-3BCF-4664-8492-F3ACE2C7C3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Level 1" sheetId="1" r:id="rId1"/>
     <sheet name="Nursery" sheetId="3" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -415,7 +416,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -500,6 +501,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="128">
     <border>
@@ -2176,7 +2183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="276">
+  <cellXfs count="277">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2634,6 +2641,363 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="118" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="124" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="118" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="125" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="126" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="121" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="120" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="115" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="119" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="117" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="116" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="117" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="116" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="116" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="127" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="116" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="122" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="97" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="123" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2646,363 +3010,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="118" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="124" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="118" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="125" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="126" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="121" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="120" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="115" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="119" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="117" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="116" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="117" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="116" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="116" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="127" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="116" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="122" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="97" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="123" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3812,18 +3820,18 @@
       <c r="BI8" s="1">
         <v>6</v>
       </c>
-      <c r="BT8" s="154" t="s">
+      <c r="BT8" s="273" t="s">
         <v>0</v>
       </c>
-      <c r="BU8" s="155"/>
-      <c r="BV8" s="155"/>
-      <c r="BW8" s="155"/>
-      <c r="BX8" s="155"/>
-      <c r="BY8" s="155"/>
-      <c r="BZ8" s="155"/>
-      <c r="CA8" s="155"/>
-      <c r="CB8" s="155"/>
-      <c r="CC8" s="156"/>
+      <c r="BU8" s="274"/>
+      <c r="BV8" s="274"/>
+      <c r="BW8" s="274"/>
+      <c r="BX8" s="274"/>
+      <c r="BY8" s="274"/>
+      <c r="BZ8" s="274"/>
+      <c r="CA8" s="274"/>
+      <c r="CB8" s="274"/>
+      <c r="CC8" s="275"/>
     </row>
     <row r="9" spans="7:82" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I9" s="18"/>
@@ -4141,10 +4149,10 @@
         <v>11</v>
       </c>
       <c r="BT13" s="136"/>
-      <c r="BX13" s="153" t="s">
+      <c r="BX13" s="272" t="s">
         <v>64</v>
       </c>
-      <c r="BY13" s="153"/>
+      <c r="BY13" s="272"/>
       <c r="BZ13" s="133"/>
       <c r="CA13" s="133"/>
       <c r="CB13" s="133"/>
@@ -4210,8 +4218,8 @@
       <c r="BT14" s="136"/>
       <c r="BU14" s="131"/>
       <c r="BV14" s="131"/>
-      <c r="BX14" s="153"/>
-      <c r="BY14" s="153"/>
+      <c r="BX14" s="272"/>
+      <c r="BY14" s="272"/>
       <c r="BZ14" s="133"/>
       <c r="CA14" s="133"/>
       <c r="CB14" s="133"/>
@@ -4275,13 +4283,13 @@
         <v>13</v>
       </c>
       <c r="BT15" s="136"/>
-      <c r="BX15" s="153" t="s">
+      <c r="BX15" s="272" t="s">
         <v>65</v>
       </c>
-      <c r="BY15" s="153"/>
-      <c r="BZ15" s="153"/>
-      <c r="CA15" s="153"/>
-      <c r="CB15" s="153"/>
+      <c r="BY15" s="272"/>
+      <c r="BZ15" s="272"/>
+      <c r="CA15" s="272"/>
+      <c r="CB15" s="272"/>
       <c r="CC15" s="151"/>
       <c r="CD15" s="149"/>
     </row>
@@ -4344,11 +4352,11 @@
       <c r="BT16" s="136"/>
       <c r="BU16" s="132"/>
       <c r="BV16" s="132"/>
-      <c r="BX16" s="153"/>
-      <c r="BY16" s="153"/>
-      <c r="BZ16" s="153"/>
-      <c r="CA16" s="153"/>
-      <c r="CB16" s="153"/>
+      <c r="BX16" s="272"/>
+      <c r="BY16" s="272"/>
+      <c r="BZ16" s="272"/>
+      <c r="CA16" s="272"/>
+      <c r="CB16" s="272"/>
       <c r="CC16" s="151"/>
       <c r="CD16" s="149"/>
     </row>
@@ -4413,12 +4421,12 @@
         <v>15</v>
       </c>
       <c r="BT17" s="136"/>
-      <c r="BX17" s="153" t="s">
+      <c r="BX17" s="272" t="s">
         <v>66</v>
       </c>
-      <c r="BY17" s="153"/>
-      <c r="BZ17" s="153"/>
-      <c r="CA17" s="153"/>
+      <c r="BY17" s="272"/>
+      <c r="BZ17" s="272"/>
+      <c r="CA17" s="272"/>
       <c r="CC17" s="137"/>
     </row>
     <row r="18" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4484,10 +4492,10 @@
       <c r="BT18" s="136"/>
       <c r="BU18" s="134"/>
       <c r="BV18" s="134"/>
-      <c r="BX18" s="153"/>
-      <c r="BY18" s="153"/>
-      <c r="BZ18" s="153"/>
-      <c r="CA18" s="153"/>
+      <c r="BX18" s="272"/>
+      <c r="BY18" s="272"/>
+      <c r="BZ18" s="272"/>
+      <c r="CA18" s="272"/>
       <c r="CC18" s="137"/>
     </row>
     <row r="19" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4677,10 +4685,10 @@
       <c r="BT21" s="136"/>
       <c r="BU21" s="140"/>
       <c r="BV21" s="141"/>
-      <c r="BX21" s="153" t="s">
+      <c r="BX21" s="272" t="s">
         <v>68</v>
       </c>
-      <c r="BY21" s="153"/>
+      <c r="BY21" s="272"/>
       <c r="CC21" s="137"/>
     </row>
     <row r="22" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4742,8 +4750,8 @@
       <c r="BT22" s="136"/>
       <c r="BU22" s="138"/>
       <c r="BV22" s="139"/>
-      <c r="BX22" s="153"/>
-      <c r="BY22" s="153"/>
+      <c r="BX22" s="272"/>
+      <c r="BY22" s="272"/>
       <c r="CC22" s="137"/>
     </row>
     <row r="23" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5913,1164 +5921,1164 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B586CB-32E7-42A4-9067-BBE192B7452D}">
   <dimension ref="B1:AY619"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="84" width="3.33203125" style="157" customWidth="1"/>
-    <col min="85" max="16384" width="11.5546875" style="157"/>
+    <col min="1" max="84" width="3.33203125" style="153" customWidth="1"/>
+    <col min="85" max="16384" width="11.5546875" style="153"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:51" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J1" s="159">
+      <c r="J1" s="155">
         <v>1</v>
       </c>
-      <c r="K1" s="159">
+      <c r="K1" s="155">
         <v>2</v>
       </c>
-      <c r="L1" s="159">
+      <c r="L1" s="155">
         <v>3</v>
       </c>
-      <c r="M1" s="159">
+      <c r="M1" s="155">
         <v>4</v>
       </c>
-      <c r="N1" s="159">
+      <c r="N1" s="155">
         <v>5</v>
       </c>
-      <c r="O1" s="159">
+      <c r="O1" s="155">
         <v>6</v>
       </c>
-      <c r="P1" s="159">
+      <c r="P1" s="155">
         <v>7</v>
       </c>
-      <c r="Q1" s="159">
+      <c r="Q1" s="155">
         <v>8</v>
       </c>
-      <c r="R1" s="159">
+      <c r="R1" s="155">
         <v>9</v>
       </c>
-      <c r="S1" s="159">
+      <c r="S1" s="155">
         <v>10</v>
       </c>
-      <c r="T1" s="159">
+      <c r="T1" s="155">
         <v>11</v>
       </c>
-      <c r="U1" s="159">
+      <c r="U1" s="155">
         <v>12</v>
       </c>
-      <c r="V1" s="159">
+      <c r="V1" s="155">
         <v>13</v>
       </c>
-      <c r="W1" s="159">
+      <c r="W1" s="155">
         <v>14</v>
       </c>
-      <c r="X1" s="159">
+      <c r="X1" s="155">
         <v>15</v>
       </c>
-      <c r="Y1" s="159">
+      <c r="Y1" s="155">
         <v>16</v>
       </c>
-      <c r="Z1" s="159">
+      <c r="Z1" s="155">
         <v>17</v>
       </c>
-      <c r="AA1" s="159">
+      <c r="AA1" s="155">
         <v>18</v>
       </c>
-      <c r="AB1" s="159">
+      <c r="AB1" s="155">
         <v>19</v>
       </c>
-      <c r="AC1" s="159">
+      <c r="AC1" s="155">
         <v>20</v>
       </c>
-      <c r="AD1" s="159">
+      <c r="AD1" s="155">
         <v>21</v>
       </c>
-      <c r="AE1" s="159">
+      <c r="AE1" s="155">
         <v>22</v>
       </c>
-      <c r="AF1" s="159">
+      <c r="AF1" s="155">
         <v>23</v>
       </c>
-      <c r="AG1" s="159">
+      <c r="AG1" s="155">
         <v>24</v>
       </c>
-      <c r="AH1" s="159">
+      <c r="AH1" s="155">
         <v>25</v>
       </c>
-      <c r="AI1" s="159">
+      <c r="AI1" s="155">
         <v>26</v>
       </c>
-      <c r="AJ1" s="159">
+      <c r="AJ1" s="155">
         <v>27</v>
       </c>
-      <c r="AK1" s="159">
+      <c r="AK1" s="155">
         <v>28</v>
       </c>
-      <c r="AL1" s="159">
+      <c r="AL1" s="155">
         <v>29</v>
       </c>
-      <c r="AM1" s="159">
+      <c r="AM1" s="155">
         <v>30</v>
       </c>
-      <c r="AN1" s="159">
+      <c r="AN1" s="155">
         <v>31</v>
       </c>
-      <c r="AO1" s="159">
+      <c r="AO1" s="155">
         <v>32</v>
       </c>
-      <c r="AP1" s="159">
+      <c r="AP1" s="155">
         <v>33</v>
       </c>
-      <c r="AQ1" s="159">
+      <c r="AQ1" s="155">
         <v>34</v>
       </c>
-      <c r="AR1" s="159">
+      <c r="AR1" s="155">
         <v>35</v>
       </c>
-      <c r="AS1" s="159">
+      <c r="AS1" s="155">
         <v>36</v>
       </c>
-      <c r="AT1" s="159"/>
-      <c r="AU1" s="159"/>
-      <c r="AV1" s="159"/>
-      <c r="AW1" s="159"/>
+      <c r="AT1" s="155"/>
+      <c r="AU1" s="155"/>
+      <c r="AV1" s="155"/>
+      <c r="AW1" s="155"/>
     </row>
     <row r="2" spans="2:51" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H2" s="160"/>
-      <c r="J2" s="174"/>
-      <c r="K2" s="174"/>
-      <c r="L2" s="174"/>
-      <c r="M2" s="174"/>
-      <c r="N2" s="174"/>
-      <c r="O2" s="174"/>
-      <c r="P2" s="174"/>
-      <c r="Q2" s="174"/>
-      <c r="R2" s="174"/>
-      <c r="S2" s="174"/>
-      <c r="T2" s="174"/>
-      <c r="U2" s="174"/>
-      <c r="V2" s="174"/>
-      <c r="W2" s="174"/>
-      <c r="X2" s="174"/>
-      <c r="Y2" s="174"/>
-      <c r="Z2" s="174"/>
-      <c r="AA2" s="174"/>
-      <c r="AB2" s="174"/>
-      <c r="AC2" s="174"/>
-      <c r="AD2" s="174"/>
-      <c r="AE2" s="174"/>
-      <c r="AF2" s="174"/>
-      <c r="AG2" s="174"/>
-      <c r="AH2" s="174"/>
-      <c r="AI2" s="174"/>
-      <c r="AJ2" s="174"/>
-      <c r="AK2" s="174"/>
-      <c r="AL2" s="174"/>
-      <c r="AM2" s="174"/>
-      <c r="AN2" s="174"/>
-      <c r="AO2" s="174"/>
-      <c r="AP2" s="174"/>
-      <c r="AQ2" s="174"/>
-      <c r="AR2" s="174"/>
-      <c r="AS2" s="174"/>
-      <c r="AT2" s="174"/>
-      <c r="AU2" s="174"/>
-      <c r="AV2" s="174"/>
-      <c r="AW2" s="172"/>
-      <c r="AX2" s="160"/>
+      <c r="H2" s="156"/>
+      <c r="J2" s="170"/>
+      <c r="K2" s="170"/>
+      <c r="L2" s="170"/>
+      <c r="M2" s="170"/>
+      <c r="N2" s="170"/>
+      <c r="O2" s="170"/>
+      <c r="P2" s="170"/>
+      <c r="Q2" s="170"/>
+      <c r="R2" s="170"/>
+      <c r="S2" s="170"/>
+      <c r="T2" s="170"/>
+      <c r="U2" s="170"/>
+      <c r="V2" s="170"/>
+      <c r="W2" s="170"/>
+      <c r="X2" s="170"/>
+      <c r="Y2" s="170"/>
+      <c r="Z2" s="170"/>
+      <c r="AA2" s="170"/>
+      <c r="AB2" s="170"/>
+      <c r="AC2" s="170"/>
+      <c r="AD2" s="170"/>
+      <c r="AE2" s="170"/>
+      <c r="AF2" s="170"/>
+      <c r="AG2" s="170"/>
+      <c r="AH2" s="170"/>
+      <c r="AI2" s="170"/>
+      <c r="AJ2" s="170"/>
+      <c r="AK2" s="170"/>
+      <c r="AL2" s="170"/>
+      <c r="AM2" s="170"/>
+      <c r="AN2" s="170"/>
+      <c r="AO2" s="170"/>
+      <c r="AP2" s="170"/>
+      <c r="AQ2" s="170"/>
+      <c r="AR2" s="170"/>
+      <c r="AS2" s="170"/>
+      <c r="AT2" s="170"/>
+      <c r="AU2" s="170"/>
+      <c r="AV2" s="170"/>
+      <c r="AW2" s="168"/>
+      <c r="AX2" s="156"/>
     </row>
     <row r="3" spans="2:51" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="157" t="s">
+      <c r="B3" s="153" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="160"/>
-      <c r="J3" s="170"/>
-      <c r="K3" s="170"/>
-      <c r="L3" s="170"/>
-      <c r="M3" s="170"/>
-      <c r="N3" s="170"/>
-      <c r="O3" s="170"/>
-      <c r="P3" s="170"/>
-      <c r="Q3" s="170"/>
-      <c r="R3" s="170"/>
-      <c r="S3" s="170"/>
-      <c r="T3" s="170"/>
-      <c r="U3" s="170"/>
-      <c r="V3" s="170"/>
-      <c r="W3" s="170"/>
-      <c r="X3" s="170"/>
-      <c r="Y3" s="170"/>
-      <c r="Z3" s="170"/>
-      <c r="AA3" s="170"/>
-      <c r="AB3" s="170"/>
-      <c r="AC3" s="170"/>
-      <c r="AD3" s="170"/>
-      <c r="AE3" s="170"/>
-      <c r="AF3" s="170"/>
-      <c r="AG3" s="170"/>
-      <c r="AH3" s="170"/>
-      <c r="AI3" s="170"/>
-      <c r="AJ3" s="170"/>
-      <c r="AK3" s="170"/>
-      <c r="AL3" s="170"/>
-      <c r="AM3" s="170"/>
-      <c r="AN3" s="170"/>
-      <c r="AO3" s="170"/>
-      <c r="AP3" s="170"/>
-      <c r="AQ3" s="170"/>
-      <c r="AR3" s="170"/>
-      <c r="AS3" s="170"/>
-      <c r="AT3" s="165"/>
-      <c r="AU3" s="165"/>
-      <c r="AV3" s="166"/>
-      <c r="AW3" s="173"/>
-      <c r="AX3" s="160"/>
+      <c r="H3" s="156"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="166"/>
+      <c r="M3" s="166"/>
+      <c r="N3" s="166"/>
+      <c r="O3" s="166"/>
+      <c r="P3" s="166"/>
+      <c r="Q3" s="166"/>
+      <c r="R3" s="166"/>
+      <c r="S3" s="166"/>
+      <c r="T3" s="166"/>
+      <c r="U3" s="166"/>
+      <c r="V3" s="166"/>
+      <c r="W3" s="166"/>
+      <c r="X3" s="166"/>
+      <c r="Y3" s="166"/>
+      <c r="Z3" s="166"/>
+      <c r="AA3" s="166"/>
+      <c r="AB3" s="166"/>
+      <c r="AC3" s="166"/>
+      <c r="AD3" s="166"/>
+      <c r="AE3" s="166"/>
+      <c r="AF3" s="166"/>
+      <c r="AG3" s="166"/>
+      <c r="AH3" s="166"/>
+      <c r="AI3" s="166"/>
+      <c r="AJ3" s="166"/>
+      <c r="AK3" s="166"/>
+      <c r="AL3" s="166"/>
+      <c r="AM3" s="166"/>
+      <c r="AN3" s="166"/>
+      <c r="AO3" s="166"/>
+      <c r="AP3" s="166"/>
+      <c r="AQ3" s="166"/>
+      <c r="AR3" s="166"/>
+      <c r="AS3" s="166"/>
+      <c r="AT3" s="161"/>
+      <c r="AU3" s="161"/>
+      <c r="AV3" s="162"/>
+      <c r="AW3" s="169"/>
+      <c r="AX3" s="156"/>
     </row>
     <row r="4" spans="2:51" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H4" s="160"/>
-      <c r="J4" s="171"/>
-      <c r="K4" s="171"/>
-      <c r="L4" s="171"/>
-      <c r="M4" s="171"/>
-      <c r="N4" s="171"/>
-      <c r="O4" s="171"/>
-      <c r="P4" s="171"/>
-      <c r="Q4" s="171"/>
-      <c r="R4" s="171"/>
-      <c r="S4" s="171"/>
-      <c r="T4" s="171"/>
-      <c r="U4" s="171"/>
-      <c r="V4" s="171"/>
-      <c r="W4" s="171"/>
-      <c r="X4" s="171"/>
-      <c r="Y4" s="171"/>
-      <c r="Z4" s="171"/>
-      <c r="AA4" s="171"/>
-      <c r="AB4" s="171"/>
-      <c r="AC4" s="171"/>
-      <c r="AD4" s="171"/>
-      <c r="AE4" s="171"/>
-      <c r="AF4" s="171"/>
-      <c r="AG4" s="171"/>
-      <c r="AH4" s="171"/>
-      <c r="AI4" s="171"/>
-      <c r="AJ4" s="171"/>
-      <c r="AK4" s="171"/>
-      <c r="AL4" s="171"/>
-      <c r="AM4" s="171"/>
-      <c r="AN4" s="171"/>
-      <c r="AO4" s="171"/>
-      <c r="AP4" s="171"/>
-      <c r="AQ4" s="171"/>
-      <c r="AR4" s="171"/>
-      <c r="AS4" s="171"/>
-      <c r="AT4" s="171"/>
-      <c r="AU4" s="167"/>
-      <c r="AV4" s="168"/>
-      <c r="AW4" s="173"/>
-      <c r="AX4" s="160"/>
+      <c r="H4" s="156"/>
+      <c r="J4" s="167"/>
+      <c r="K4" s="167"/>
+      <c r="L4" s="167"/>
+      <c r="M4" s="167"/>
+      <c r="N4" s="167"/>
+      <c r="O4" s="167"/>
+      <c r="P4" s="167"/>
+      <c r="Q4" s="167"/>
+      <c r="R4" s="167"/>
+      <c r="S4" s="167"/>
+      <c r="T4" s="167"/>
+      <c r="U4" s="167"/>
+      <c r="V4" s="167"/>
+      <c r="W4" s="167"/>
+      <c r="X4" s="167"/>
+      <c r="Y4" s="167"/>
+      <c r="Z4" s="167"/>
+      <c r="AA4" s="167"/>
+      <c r="AB4" s="167"/>
+      <c r="AC4" s="167"/>
+      <c r="AD4" s="167"/>
+      <c r="AE4" s="167"/>
+      <c r="AF4" s="167"/>
+      <c r="AG4" s="167"/>
+      <c r="AH4" s="167"/>
+      <c r="AI4" s="167"/>
+      <c r="AJ4" s="167"/>
+      <c r="AK4" s="167"/>
+      <c r="AL4" s="167"/>
+      <c r="AM4" s="167"/>
+      <c r="AN4" s="167"/>
+      <c r="AO4" s="167"/>
+      <c r="AP4" s="167"/>
+      <c r="AQ4" s="167"/>
+      <c r="AR4" s="167"/>
+      <c r="AS4" s="167"/>
+      <c r="AT4" s="167"/>
+      <c r="AU4" s="163"/>
+      <c r="AV4" s="164"/>
+      <c r="AW4" s="169"/>
+      <c r="AX4" s="156"/>
     </row>
     <row r="5" spans="2:51" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="163" t="s">
+      <c r="B5" s="159" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="162" t="s">
+      <c r="C5" s="158" t="s">
         <v>78</v>
       </c>
-      <c r="H5" s="160"/>
-      <c r="J5" s="174"/>
-      <c r="K5" s="174"/>
-      <c r="L5" s="174"/>
-      <c r="M5" s="174"/>
-      <c r="N5" s="174"/>
-      <c r="O5" s="174"/>
-      <c r="P5" s="174"/>
-      <c r="Q5" s="268"/>
-      <c r="R5" s="268"/>
-      <c r="S5" s="174"/>
-      <c r="T5" s="174"/>
-      <c r="U5" s="174"/>
-      <c r="V5" s="174"/>
-      <c r="W5" s="174"/>
-      <c r="X5" s="174"/>
-      <c r="Y5" s="174"/>
-      <c r="Z5" s="174"/>
-      <c r="AA5" s="174"/>
-      <c r="AB5" s="174"/>
-      <c r="AC5" s="174"/>
-      <c r="AD5" s="174"/>
-      <c r="AE5" s="174"/>
-      <c r="AF5" s="174"/>
-      <c r="AG5" s="174"/>
-      <c r="AH5" s="174"/>
-      <c r="AI5" s="174"/>
-      <c r="AJ5" s="174"/>
-      <c r="AK5" s="174"/>
-      <c r="AL5" s="174"/>
-      <c r="AM5" s="174"/>
-      <c r="AN5" s="174"/>
-      <c r="AO5" s="174"/>
-      <c r="AP5" s="174"/>
-      <c r="AQ5" s="174"/>
-      <c r="AR5" s="174"/>
-      <c r="AS5" s="174"/>
-      <c r="AT5" s="172"/>
-      <c r="AU5" s="169"/>
-      <c r="AV5" s="168"/>
-      <c r="AW5" s="173"/>
-      <c r="AX5" s="160"/>
+      <c r="H5" s="156"/>
+      <c r="J5" s="170"/>
+      <c r="K5" s="170"/>
+      <c r="L5" s="170"/>
+      <c r="M5" s="170"/>
+      <c r="N5" s="170"/>
+      <c r="O5" s="170"/>
+      <c r="P5" s="170"/>
+      <c r="Q5" s="264"/>
+      <c r="R5" s="264"/>
+      <c r="S5" s="170"/>
+      <c r="T5" s="170"/>
+      <c r="U5" s="170"/>
+      <c r="V5" s="170"/>
+      <c r="W5" s="170"/>
+      <c r="X5" s="170"/>
+      <c r="Y5" s="170"/>
+      <c r="Z5" s="170"/>
+      <c r="AA5" s="170"/>
+      <c r="AB5" s="170"/>
+      <c r="AC5" s="170"/>
+      <c r="AD5" s="170"/>
+      <c r="AE5" s="170"/>
+      <c r="AF5" s="170"/>
+      <c r="AG5" s="170"/>
+      <c r="AH5" s="170"/>
+      <c r="AI5" s="170"/>
+      <c r="AJ5" s="170"/>
+      <c r="AK5" s="170"/>
+      <c r="AL5" s="170"/>
+      <c r="AM5" s="170"/>
+      <c r="AN5" s="170"/>
+      <c r="AO5" s="170"/>
+      <c r="AP5" s="170"/>
+      <c r="AQ5" s="170"/>
+      <c r="AR5" s="170"/>
+      <c r="AS5" s="170"/>
+      <c r="AT5" s="168"/>
+      <c r="AU5" s="165"/>
+      <c r="AV5" s="164"/>
+      <c r="AW5" s="169"/>
+      <c r="AX5" s="156"/>
     </row>
     <row r="6" spans="2:51" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="163" t="s">
+      <c r="B6" s="159" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="162" t="s">
+      <c r="C6" s="158" t="s">
         <v>83</v>
       </c>
-      <c r="H6" s="160"/>
-      <c r="J6" s="161"/>
-      <c r="K6" s="161"/>
-      <c r="L6" s="161"/>
-      <c r="M6" s="161"/>
-      <c r="N6" s="161"/>
-      <c r="O6" s="161"/>
-      <c r="P6" s="161"/>
-      <c r="Q6" s="269"/>
-      <c r="R6" s="264"/>
-      <c r="S6" s="161"/>
-      <c r="T6" s="161"/>
-      <c r="U6" s="164"/>
-      <c r="V6" s="213"/>
-      <c r="W6" s="214"/>
-      <c r="X6" s="214"/>
-      <c r="Y6" s="214"/>
-      <c r="Z6" s="215"/>
-      <c r="AA6" s="213"/>
-      <c r="AB6" s="214"/>
-      <c r="AC6" s="214"/>
-      <c r="AD6" s="214"/>
-      <c r="AE6" s="215"/>
-      <c r="AF6" s="234"/>
-      <c r="AG6" s="235"/>
-      <c r="AH6" s="235"/>
-      <c r="AI6" s="235"/>
-      <c r="AJ6" s="236"/>
-      <c r="AK6" s="270"/>
-      <c r="AL6" s="270"/>
-      <c r="AM6" s="270"/>
-      <c r="AN6" s="270"/>
-      <c r="AO6" s="270"/>
-      <c r="AP6" s="270"/>
-      <c r="AQ6" s="270"/>
-      <c r="AR6" s="270"/>
-      <c r="AS6" s="271"/>
-      <c r="AT6" s="173"/>
-      <c r="AU6" s="169"/>
-      <c r="AV6" s="168"/>
-      <c r="AW6" s="173"/>
-      <c r="AX6" s="160"/>
-      <c r="AY6" s="157">
+      <c r="H6" s="156"/>
+      <c r="J6" s="157"/>
+      <c r="K6" s="157"/>
+      <c r="L6" s="157"/>
+      <c r="M6" s="157"/>
+      <c r="N6" s="157"/>
+      <c r="O6" s="157"/>
+      <c r="P6" s="157"/>
+      <c r="Q6" s="265"/>
+      <c r="R6" s="260"/>
+      <c r="S6" s="157"/>
+      <c r="T6" s="157"/>
+      <c r="U6" s="160"/>
+      <c r="V6" s="209"/>
+      <c r="W6" s="210"/>
+      <c r="X6" s="210"/>
+      <c r="Y6" s="210"/>
+      <c r="Z6" s="211"/>
+      <c r="AA6" s="209"/>
+      <c r="AB6" s="210"/>
+      <c r="AC6" s="210"/>
+      <c r="AD6" s="210"/>
+      <c r="AE6" s="211"/>
+      <c r="AF6" s="230"/>
+      <c r="AG6" s="231"/>
+      <c r="AH6" s="231"/>
+      <c r="AI6" s="231"/>
+      <c r="AJ6" s="232"/>
+      <c r="AK6" s="266"/>
+      <c r="AL6" s="266"/>
+      <c r="AM6" s="266"/>
+      <c r="AN6" s="266"/>
+      <c r="AO6" s="266"/>
+      <c r="AP6" s="266"/>
+      <c r="AQ6" s="266"/>
+      <c r="AR6" s="266"/>
+      <c r="AS6" s="267"/>
+      <c r="AT6" s="169"/>
+      <c r="AU6" s="165"/>
+      <c r="AV6" s="164"/>
+      <c r="AW6" s="169"/>
+      <c r="AX6" s="156"/>
+      <c r="AY6" s="153">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:51" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="163" t="s">
+      <c r="B7" s="159" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="162" t="s">
+      <c r="C7" s="158" t="s">
         <v>84</v>
       </c>
-      <c r="H7" s="160"/>
-      <c r="N7" s="159"/>
-      <c r="O7" s="159"/>
-      <c r="P7" s="159"/>
-      <c r="Q7" s="264"/>
-      <c r="R7" s="264"/>
-      <c r="U7" s="158"/>
-      <c r="V7" s="216"/>
-      <c r="W7" s="217"/>
-      <c r="X7" s="217" t="s">
+      <c r="H7" s="156"/>
+      <c r="N7" s="155"/>
+      <c r="O7" s="155"/>
+      <c r="P7" s="155"/>
+      <c r="Q7" s="260"/>
+      <c r="R7" s="260"/>
+      <c r="U7" s="154"/>
+      <c r="V7" s="212"/>
+      <c r="W7" s="213"/>
+      <c r="X7" s="213" t="s">
         <v>117</v>
       </c>
-      <c r="Y7" s="217"/>
-      <c r="Z7" s="218"/>
-      <c r="AA7" s="216"/>
-      <c r="AB7" s="217"/>
-      <c r="AC7" s="217" t="s">
+      <c r="Y7" s="213"/>
+      <c r="Z7" s="214"/>
+      <c r="AA7" s="212"/>
+      <c r="AB7" s="213"/>
+      <c r="AC7" s="213" t="s">
         <v>118</v>
       </c>
-      <c r="AD7" s="217"/>
-      <c r="AE7" s="218"/>
-      <c r="AF7" s="237"/>
-      <c r="AG7" s="238"/>
-      <c r="AH7" s="238" t="s">
+      <c r="AD7" s="213"/>
+      <c r="AE7" s="214"/>
+      <c r="AF7" s="233"/>
+      <c r="AG7" s="234"/>
+      <c r="AH7" s="234" t="s">
         <v>113</v>
       </c>
-      <c r="AI7" s="238"/>
-      <c r="AJ7" s="239"/>
-      <c r="AK7" s="264"/>
-      <c r="AL7" s="264"/>
-      <c r="AM7" s="264"/>
-      <c r="AN7" s="264"/>
-      <c r="AO7" s="264"/>
-      <c r="AP7" s="264"/>
-      <c r="AQ7" s="264"/>
-      <c r="AR7" s="264"/>
-      <c r="AS7" s="272"/>
-      <c r="AT7" s="173"/>
-      <c r="AU7" s="169"/>
-      <c r="AV7" s="168"/>
-      <c r="AW7" s="173"/>
-      <c r="AX7" s="160"/>
-      <c r="AY7" s="157">
+      <c r="AI7" s="234"/>
+      <c r="AJ7" s="235"/>
+      <c r="AK7" s="260"/>
+      <c r="AL7" s="260"/>
+      <c r="AM7" s="260"/>
+      <c r="AN7" s="260"/>
+      <c r="AO7" s="260"/>
+      <c r="AP7" s="260"/>
+      <c r="AQ7" s="260"/>
+      <c r="AR7" s="260"/>
+      <c r="AS7" s="268"/>
+      <c r="AT7" s="169"/>
+      <c r="AU7" s="165"/>
+      <c r="AV7" s="164"/>
+      <c r="AW7" s="169"/>
+      <c r="AX7" s="156"/>
+      <c r="AY7" s="153">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:51" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="163" t="s">
+      <c r="B8" s="159" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="162" t="s">
+      <c r="C8" s="158" t="s">
         <v>85</v>
       </c>
-      <c r="H8" s="160"/>
-      <c r="M8" s="158"/>
-      <c r="N8" s="175"/>
-      <c r="O8" s="176"/>
-      <c r="P8" s="177"/>
-      <c r="Q8" s="263"/>
-      <c r="R8" s="264"/>
-      <c r="S8" s="175"/>
-      <c r="T8" s="176"/>
-      <c r="U8" s="184"/>
-      <c r="V8" s="219"/>
-      <c r="W8" s="220"/>
-      <c r="X8" s="221"/>
-      <c r="Y8" s="220"/>
-      <c r="Z8" s="222"/>
-      <c r="AA8" s="219"/>
-      <c r="AB8" s="220"/>
-      <c r="AC8" s="221"/>
-      <c r="AD8" s="220"/>
-      <c r="AE8" s="222"/>
-      <c r="AF8" s="240"/>
-      <c r="AG8" s="241"/>
-      <c r="AH8" s="242"/>
-      <c r="AI8" s="241"/>
-      <c r="AJ8" s="243"/>
-      <c r="AK8" s="264"/>
-      <c r="AL8" s="264"/>
-      <c r="AM8" s="264"/>
-      <c r="AN8" s="264"/>
-      <c r="AO8" s="264"/>
-      <c r="AP8" s="264"/>
-      <c r="AQ8" s="264"/>
-      <c r="AR8" s="264"/>
-      <c r="AS8" s="272"/>
-      <c r="AT8" s="173"/>
-      <c r="AU8" s="169"/>
-      <c r="AV8" s="168"/>
-      <c r="AW8" s="173"/>
-      <c r="AX8" s="160"/>
-      <c r="AY8" s="157">
+      <c r="H8" s="156"/>
+      <c r="M8" s="154"/>
+      <c r="N8" s="171"/>
+      <c r="O8" s="172"/>
+      <c r="P8" s="173"/>
+      <c r="Q8" s="259"/>
+      <c r="R8" s="260"/>
+      <c r="S8" s="171"/>
+      <c r="T8" s="172"/>
+      <c r="U8" s="180"/>
+      <c r="V8" s="215"/>
+      <c r="W8" s="216"/>
+      <c r="X8" s="217"/>
+      <c r="Y8" s="216"/>
+      <c r="Z8" s="218"/>
+      <c r="AA8" s="215"/>
+      <c r="AB8" s="216"/>
+      <c r="AC8" s="217"/>
+      <c r="AD8" s="216"/>
+      <c r="AE8" s="218"/>
+      <c r="AF8" s="236"/>
+      <c r="AG8" s="237"/>
+      <c r="AH8" s="238"/>
+      <c r="AI8" s="237"/>
+      <c r="AJ8" s="239"/>
+      <c r="AK8" s="260"/>
+      <c r="AL8" s="260"/>
+      <c r="AM8" s="260"/>
+      <c r="AN8" s="260"/>
+      <c r="AO8" s="260"/>
+      <c r="AP8" s="260"/>
+      <c r="AQ8" s="260"/>
+      <c r="AR8" s="260"/>
+      <c r="AS8" s="268"/>
+      <c r="AT8" s="169"/>
+      <c r="AU8" s="165"/>
+      <c r="AV8" s="164"/>
+      <c r="AW8" s="169"/>
+      <c r="AX8" s="156"/>
+      <c r="AY8" s="153">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:51" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="163" t="s">
+      <c r="B9" s="159" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="162" t="s">
+      <c r="C9" s="158" t="s">
         <v>86</v>
       </c>
-      <c r="H9" s="160"/>
-      <c r="M9" s="158"/>
-      <c r="N9" s="178"/>
-      <c r="O9" s="179" t="s">
+      <c r="H9" s="156"/>
+      <c r="M9" s="154"/>
+      <c r="N9" s="174"/>
+      <c r="O9" s="175" t="s">
         <v>90</v>
       </c>
-      <c r="P9" s="180"/>
-      <c r="Q9" s="263"/>
-      <c r="R9" s="264"/>
-      <c r="S9" s="180"/>
-      <c r="T9" s="179" t="s">
+      <c r="P9" s="176"/>
+      <c r="Q9" s="259"/>
+      <c r="R9" s="260"/>
+      <c r="S9" s="176"/>
+      <c r="T9" s="175" t="s">
         <v>94</v>
       </c>
-      <c r="U9" s="185"/>
-      <c r="V9" s="202"/>
-      <c r="W9" s="203"/>
-      <c r="X9" s="204"/>
-      <c r="Y9" s="203"/>
-      <c r="Z9" s="275" t="s">
+      <c r="U9" s="181"/>
+      <c r="V9" s="198"/>
+      <c r="W9" s="199"/>
+      <c r="X9" s="200"/>
+      <c r="Y9" s="199"/>
+      <c r="Z9" s="271" t="s">
         <v>88</v>
       </c>
-      <c r="AA9" s="275" t="s">
+      <c r="AA9" s="271" t="s">
         <v>88</v>
       </c>
-      <c r="AB9" s="203"/>
-      <c r="AC9" s="204"/>
-      <c r="AD9" s="203"/>
-      <c r="AE9" s="205"/>
-      <c r="AF9" s="223"/>
-      <c r="AG9" s="224"/>
-      <c r="AH9" s="225"/>
-      <c r="AI9" s="224"/>
-      <c r="AJ9" s="226"/>
-      <c r="AK9" s="264"/>
-      <c r="AL9" s="264"/>
-      <c r="AM9" s="264"/>
-      <c r="AN9" s="264"/>
-      <c r="AO9" s="264"/>
-      <c r="AP9" s="264"/>
-      <c r="AQ9" s="264"/>
-      <c r="AR9" s="264"/>
-      <c r="AS9" s="272"/>
-      <c r="AT9" s="173"/>
-      <c r="AU9" s="169"/>
-      <c r="AV9" s="168"/>
-      <c r="AW9" s="173"/>
-      <c r="AX9" s="160"/>
-      <c r="AY9" s="157">
+      <c r="AB9" s="199"/>
+      <c r="AC9" s="200"/>
+      <c r="AD9" s="199"/>
+      <c r="AE9" s="201"/>
+      <c r="AF9" s="219"/>
+      <c r="AG9" s="220"/>
+      <c r="AH9" s="221"/>
+      <c r="AI9" s="220"/>
+      <c r="AJ9" s="222"/>
+      <c r="AK9" s="260"/>
+      <c r="AL9" s="260"/>
+      <c r="AM9" s="260"/>
+      <c r="AN9" s="260"/>
+      <c r="AO9" s="260"/>
+      <c r="AP9" s="260"/>
+      <c r="AQ9" s="260"/>
+      <c r="AR9" s="260"/>
+      <c r="AS9" s="268"/>
+      <c r="AT9" s="169"/>
+      <c r="AU9" s="165"/>
+      <c r="AV9" s="164"/>
+      <c r="AW9" s="169"/>
+      <c r="AX9" s="156"/>
+      <c r="AY9" s="153">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="2:51" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="163" t="s">
+      <c r="B10" s="159" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="162" t="s">
+      <c r="C10" s="158" t="s">
         <v>88</v>
       </c>
-      <c r="H10" s="160"/>
-      <c r="M10" s="158"/>
-      <c r="N10" s="181"/>
-      <c r="O10" s="182"/>
-      <c r="P10" s="183"/>
-      <c r="Q10" s="263"/>
-      <c r="R10" s="264"/>
-      <c r="S10" s="181"/>
-      <c r="T10" s="182"/>
-      <c r="U10" s="183"/>
-      <c r="V10" s="206"/>
-      <c r="W10" s="163"/>
-      <c r="X10" s="163"/>
-      <c r="Y10" s="163"/>
-      <c r="Z10" s="207"/>
-      <c r="AA10" s="206"/>
-      <c r="AB10" s="163"/>
-      <c r="AC10" s="163"/>
-      <c r="AD10" s="163"/>
-      <c r="AE10" s="207"/>
-      <c r="AF10" s="227"/>
-      <c r="AG10" s="228"/>
-      <c r="AH10" s="228"/>
-      <c r="AI10" s="228"/>
-      <c r="AJ10" s="229"/>
-      <c r="AK10" s="264"/>
-      <c r="AL10" s="264"/>
-      <c r="AM10" s="264"/>
-      <c r="AN10" s="264"/>
-      <c r="AO10" s="264"/>
-      <c r="AP10" s="264"/>
-      <c r="AQ10" s="264"/>
-      <c r="AR10" s="264"/>
-      <c r="AS10" s="272"/>
-      <c r="AT10" s="173"/>
-      <c r="AU10" s="169"/>
-      <c r="AV10" s="168"/>
-      <c r="AW10" s="173"/>
-      <c r="AX10" s="160"/>
-      <c r="AY10" s="157">
+      <c r="H10" s="156"/>
+      <c r="M10" s="154"/>
+      <c r="N10" s="177"/>
+      <c r="O10" s="178"/>
+      <c r="P10" s="179"/>
+      <c r="Q10" s="259"/>
+      <c r="R10" s="260"/>
+      <c r="S10" s="177"/>
+      <c r="T10" s="178"/>
+      <c r="U10" s="179"/>
+      <c r="V10" s="202"/>
+      <c r="W10" s="159"/>
+      <c r="X10" s="159"/>
+      <c r="Y10" s="159"/>
+      <c r="Z10" s="203"/>
+      <c r="AA10" s="202"/>
+      <c r="AB10" s="159"/>
+      <c r="AC10" s="159"/>
+      <c r="AD10" s="159"/>
+      <c r="AE10" s="203"/>
+      <c r="AF10" s="223"/>
+      <c r="AG10" s="224"/>
+      <c r="AH10" s="224"/>
+      <c r="AI10" s="224"/>
+      <c r="AJ10" s="225"/>
+      <c r="AK10" s="260"/>
+      <c r="AL10" s="260"/>
+      <c r="AM10" s="260"/>
+      <c r="AN10" s="260"/>
+      <c r="AO10" s="260"/>
+      <c r="AP10" s="260"/>
+      <c r="AQ10" s="260"/>
+      <c r="AR10" s="260"/>
+      <c r="AS10" s="268"/>
+      <c r="AT10" s="169"/>
+      <c r="AU10" s="165"/>
+      <c r="AV10" s="164"/>
+      <c r="AW10" s="169"/>
+      <c r="AX10" s="156"/>
+      <c r="AY10" s="153">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="163" t="s">
+      <c r="B11" s="159" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="162" t="s">
+      <c r="C11" s="158" t="s">
         <v>93</v>
       </c>
-      <c r="N11" s="175"/>
-      <c r="O11" s="176"/>
-      <c r="P11" s="177"/>
-      <c r="Q11" s="264"/>
-      <c r="R11" s="264"/>
-      <c r="S11" s="175"/>
-      <c r="T11" s="176"/>
-      <c r="U11" s="177"/>
-      <c r="V11" s="206"/>
-      <c r="W11" s="163"/>
-      <c r="X11" s="163" t="s">
+      <c r="N11" s="171"/>
+      <c r="O11" s="172"/>
+      <c r="P11" s="173"/>
+      <c r="Q11" s="260"/>
+      <c r="R11" s="260"/>
+      <c r="S11" s="171"/>
+      <c r="T11" s="172"/>
+      <c r="U11" s="173"/>
+      <c r="V11" s="202"/>
+      <c r="W11" s="159"/>
+      <c r="X11" s="159" t="s">
         <v>108</v>
       </c>
-      <c r="Y11" s="163"/>
-      <c r="Z11" s="207"/>
-      <c r="AA11" s="206"/>
-      <c r="AB11" s="163"/>
-      <c r="AC11" s="163" t="s">
+      <c r="Y11" s="159"/>
+      <c r="Z11" s="203"/>
+      <c r="AA11" s="202"/>
+      <c r="AB11" s="159"/>
+      <c r="AC11" s="159" t="s">
         <v>109</v>
       </c>
-      <c r="AD11" s="163"/>
-      <c r="AE11" s="207"/>
-      <c r="AF11" s="227"/>
-      <c r="AG11" s="228"/>
-      <c r="AH11" s="228" t="s">
+      <c r="AD11" s="159"/>
+      <c r="AE11" s="203"/>
+      <c r="AF11" s="223"/>
+      <c r="AG11" s="224"/>
+      <c r="AH11" s="224" t="s">
         <v>78</v>
       </c>
-      <c r="AI11" s="228"/>
-      <c r="AJ11" s="229"/>
-      <c r="AK11" s="264"/>
-      <c r="AL11" s="264"/>
-      <c r="AM11" s="264"/>
-      <c r="AN11" s="264"/>
-      <c r="AO11" s="264"/>
-      <c r="AP11" s="264"/>
-      <c r="AQ11" s="264"/>
-      <c r="AR11" s="264"/>
-      <c r="AS11" s="272"/>
-      <c r="AT11" s="173"/>
-      <c r="AU11" s="169"/>
-      <c r="AV11" s="168"/>
-      <c r="AW11" s="173"/>
-      <c r="AX11" s="160"/>
-      <c r="AY11" s="157">
+      <c r="AI11" s="224"/>
+      <c r="AJ11" s="225"/>
+      <c r="AK11" s="260"/>
+      <c r="AL11" s="260"/>
+      <c r="AM11" s="260"/>
+      <c r="AN11" s="260"/>
+      <c r="AO11" s="260"/>
+      <c r="AP11" s="260"/>
+      <c r="AQ11" s="260"/>
+      <c r="AR11" s="260"/>
+      <c r="AS11" s="268"/>
+      <c r="AT11" s="169"/>
+      <c r="AU11" s="165"/>
+      <c r="AV11" s="164"/>
+      <c r="AW11" s="169"/>
+      <c r="AX11" s="156"/>
+      <c r="AY11" s="153">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="2:51" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="163" t="s">
+      <c r="B12" s="159" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="162" t="s">
+      <c r="C12" s="158" t="s">
         <v>90</v>
       </c>
-      <c r="N12" s="178"/>
-      <c r="O12" s="179" t="s">
+      <c r="N12" s="174"/>
+      <c r="O12" s="175" t="s">
         <v>96</v>
       </c>
-      <c r="P12" s="180"/>
-      <c r="Q12" s="264"/>
-      <c r="R12" s="264"/>
-      <c r="S12" s="180"/>
-      <c r="T12" s="179" t="s">
+      <c r="P12" s="176"/>
+      <c r="Q12" s="260"/>
+      <c r="R12" s="260"/>
+      <c r="S12" s="176"/>
+      <c r="T12" s="175" t="s">
         <v>107</v>
       </c>
-      <c r="U12" s="186"/>
-      <c r="V12" s="206"/>
-      <c r="W12" s="163"/>
-      <c r="X12" s="163"/>
-      <c r="Y12" s="163"/>
-      <c r="Z12" s="207"/>
-      <c r="AA12" s="206"/>
-      <c r="AB12" s="163"/>
-      <c r="AC12" s="163"/>
-      <c r="AD12" s="163"/>
-      <c r="AE12" s="207"/>
-      <c r="AF12" s="227"/>
-      <c r="AG12" s="228"/>
-      <c r="AH12" s="228"/>
-      <c r="AI12" s="228"/>
-      <c r="AJ12" s="229"/>
-      <c r="AK12" s="264"/>
-      <c r="AL12" s="264"/>
-      <c r="AM12" s="264"/>
-      <c r="AN12" s="264"/>
-      <c r="AO12" s="264"/>
-      <c r="AP12" s="264"/>
-      <c r="AQ12" s="264"/>
-      <c r="AR12" s="264"/>
-      <c r="AS12" s="272"/>
-      <c r="AT12" s="173"/>
-      <c r="AU12" s="169"/>
-      <c r="AV12" s="168"/>
-      <c r="AW12" s="173"/>
-      <c r="AX12" s="160"/>
-      <c r="AY12" s="157">
+      <c r="U12" s="182"/>
+      <c r="V12" s="202"/>
+      <c r="W12" s="159"/>
+      <c r="X12" s="159"/>
+      <c r="Y12" s="159"/>
+      <c r="Z12" s="203"/>
+      <c r="AA12" s="202"/>
+      <c r="AB12" s="159"/>
+      <c r="AC12" s="159"/>
+      <c r="AD12" s="159"/>
+      <c r="AE12" s="203"/>
+      <c r="AF12" s="223"/>
+      <c r="AG12" s="224"/>
+      <c r="AH12" s="224"/>
+      <c r="AI12" s="224"/>
+      <c r="AJ12" s="225"/>
+      <c r="AK12" s="260"/>
+      <c r="AL12" s="260"/>
+      <c r="AM12" s="260"/>
+      <c r="AN12" s="260"/>
+      <c r="AO12" s="260"/>
+      <c r="AP12" s="260"/>
+      <c r="AQ12" s="260"/>
+      <c r="AR12" s="260"/>
+      <c r="AS12" s="268"/>
+      <c r="AT12" s="169"/>
+      <c r="AU12" s="165"/>
+      <c r="AV12" s="164"/>
+      <c r="AW12" s="169"/>
+      <c r="AX12" s="156"/>
+      <c r="AY12" s="153">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="2:51" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="163" t="s">
+      <c r="B13" s="159" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="162" t="s">
+      <c r="C13" s="158" t="s">
         <v>94</v>
       </c>
-      <c r="J13" s="159"/>
-      <c r="K13" s="159"/>
-      <c r="L13" s="159"/>
-      <c r="M13" s="159"/>
-      <c r="N13" s="181"/>
-      <c r="O13" s="182"/>
-      <c r="P13" s="183"/>
-      <c r="Q13" s="264"/>
-      <c r="R13" s="264"/>
-      <c r="S13" s="181"/>
-      <c r="T13" s="187"/>
-      <c r="U13" s="188" t="s">
+      <c r="J13" s="155"/>
+      <c r="K13" s="155"/>
+      <c r="L13" s="155"/>
+      <c r="M13" s="155"/>
+      <c r="N13" s="177"/>
+      <c r="O13" s="178"/>
+      <c r="P13" s="179"/>
+      <c r="Q13" s="260"/>
+      <c r="R13" s="260"/>
+      <c r="S13" s="177"/>
+      <c r="T13" s="183"/>
+      <c r="U13" s="184" t="s">
         <v>88</v>
       </c>
-      <c r="V13" s="208"/>
-      <c r="W13" s="209"/>
-      <c r="X13" s="210"/>
-      <c r="Y13" s="209"/>
-      <c r="Z13" s="211"/>
-      <c r="AA13" s="208"/>
-      <c r="AB13" s="209"/>
-      <c r="AC13" s="210"/>
-      <c r="AD13" s="209"/>
-      <c r="AE13" s="211"/>
-      <c r="AF13" s="230"/>
-      <c r="AG13" s="231"/>
-      <c r="AH13" s="232"/>
-      <c r="AI13" s="231"/>
-      <c r="AJ13" s="233"/>
-      <c r="AK13" s="264"/>
-      <c r="AL13" s="264"/>
-      <c r="AM13" s="264"/>
-      <c r="AN13" s="264"/>
-      <c r="AO13" s="264" t="s">
+      <c r="V13" s="204"/>
+      <c r="W13" s="205"/>
+      <c r="X13" s="206"/>
+      <c r="Y13" s="205"/>
+      <c r="Z13" s="207"/>
+      <c r="AA13" s="204"/>
+      <c r="AB13" s="205"/>
+      <c r="AC13" s="206"/>
+      <c r="AD13" s="205"/>
+      <c r="AE13" s="207"/>
+      <c r="AF13" s="226"/>
+      <c r="AG13" s="227"/>
+      <c r="AH13" s="228"/>
+      <c r="AI13" s="227"/>
+      <c r="AJ13" s="229"/>
+      <c r="AK13" s="260"/>
+      <c r="AL13" s="260"/>
+      <c r="AM13" s="260"/>
+      <c r="AN13" s="260"/>
+      <c r="AO13" s="260" t="s">
         <v>114</v>
       </c>
-      <c r="AP13" s="264"/>
-      <c r="AQ13" s="264"/>
-      <c r="AR13" s="264"/>
-      <c r="AS13" s="272"/>
-      <c r="AT13" s="173"/>
-      <c r="AU13" s="169"/>
-      <c r="AV13" s="168"/>
-      <c r="AW13" s="173"/>
-      <c r="AX13" s="160"/>
-      <c r="AY13" s="157">
+      <c r="AP13" s="260"/>
+      <c r="AQ13" s="260"/>
+      <c r="AR13" s="260"/>
+      <c r="AS13" s="268"/>
+      <c r="AT13" s="169"/>
+      <c r="AU13" s="165"/>
+      <c r="AV13" s="164"/>
+      <c r="AW13" s="169"/>
+      <c r="AX13" s="156"/>
+      <c r="AY13" s="153">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="163" t="s">
+      <c r="B14" s="159" t="s">
         <v>95</v>
       </c>
-      <c r="C14" s="162" t="s">
+      <c r="C14" s="158" t="s">
         <v>96</v>
       </c>
-      <c r="I14" s="158"/>
-      <c r="J14" s="254"/>
-      <c r="K14" s="255"/>
-      <c r="L14" s="255"/>
-      <c r="M14" s="256"/>
-      <c r="N14" s="263"/>
-      <c r="O14" s="264"/>
-      <c r="P14" s="264"/>
-      <c r="Q14" s="264"/>
-      <c r="R14" s="264"/>
-      <c r="S14" s="264"/>
-      <c r="T14" s="264"/>
-      <c r="U14" s="264"/>
-      <c r="V14" s="264"/>
-      <c r="W14" s="264"/>
-      <c r="X14" s="265"/>
-      <c r="Y14" s="264"/>
-      <c r="Z14" s="264"/>
-      <c r="AA14" s="264"/>
-      <c r="AB14" s="264"/>
-      <c r="AC14" s="265"/>
-      <c r="AD14" s="264"/>
-      <c r="AE14" s="264"/>
-      <c r="AF14" s="264"/>
-      <c r="AG14" s="264"/>
-      <c r="AH14" s="265"/>
-      <c r="AI14" s="264"/>
-      <c r="AJ14" s="264"/>
-      <c r="AK14" s="264"/>
-      <c r="AL14" s="264"/>
-      <c r="AM14" s="264"/>
-      <c r="AN14" s="264"/>
-      <c r="AO14" s="264"/>
-      <c r="AP14" s="264"/>
-      <c r="AQ14" s="264"/>
-      <c r="AR14" s="264"/>
-      <c r="AS14" s="272"/>
-      <c r="AT14" s="173"/>
-      <c r="AU14" s="169"/>
-      <c r="AV14" s="168"/>
-      <c r="AW14" s="173"/>
-      <c r="AX14" s="160"/>
-      <c r="AY14" s="157">
+      <c r="I14" s="154"/>
+      <c r="J14" s="250"/>
+      <c r="K14" s="251"/>
+      <c r="L14" s="251"/>
+      <c r="M14" s="252"/>
+      <c r="N14" s="259"/>
+      <c r="O14" s="260"/>
+      <c r="P14" s="260"/>
+      <c r="Q14" s="260"/>
+      <c r="R14" s="260"/>
+      <c r="S14" s="260"/>
+      <c r="T14" s="260"/>
+      <c r="U14" s="260"/>
+      <c r="V14" s="260"/>
+      <c r="W14" s="260"/>
+      <c r="X14" s="261"/>
+      <c r="Y14" s="260"/>
+      <c r="Z14" s="260"/>
+      <c r="AA14" s="260"/>
+      <c r="AB14" s="260"/>
+      <c r="AC14" s="261"/>
+      <c r="AD14" s="260"/>
+      <c r="AE14" s="260"/>
+      <c r="AF14" s="260"/>
+      <c r="AG14" s="260"/>
+      <c r="AH14" s="261"/>
+      <c r="AI14" s="260"/>
+      <c r="AJ14" s="260"/>
+      <c r="AK14" s="260"/>
+      <c r="AL14" s="260"/>
+      <c r="AM14" s="260"/>
+      <c r="AN14" s="260"/>
+      <c r="AO14" s="260"/>
+      <c r="AP14" s="260"/>
+      <c r="AQ14" s="260"/>
+      <c r="AR14" s="260"/>
+      <c r="AS14" s="268"/>
+      <c r="AT14" s="169"/>
+      <c r="AU14" s="165"/>
+      <c r="AV14" s="164"/>
+      <c r="AW14" s="169"/>
+      <c r="AX14" s="156"/>
+      <c r="AY14" s="153">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="163" t="s">
+      <c r="B15" s="159" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="162" t="s">
+      <c r="C15" s="158" t="s">
         <v>106</v>
       </c>
-      <c r="I15" s="158"/>
-      <c r="J15" s="257"/>
-      <c r="K15" s="258" t="s">
+      <c r="I15" s="154"/>
+      <c r="J15" s="253"/>
+      <c r="K15" s="254" t="s">
         <v>99</v>
       </c>
-      <c r="L15" s="258"/>
-      <c r="M15" s="259"/>
-      <c r="N15" s="263"/>
-      <c r="O15" s="264"/>
-      <c r="P15" s="264"/>
-      <c r="Q15" s="264"/>
-      <c r="R15" s="264"/>
-      <c r="S15" s="264"/>
-      <c r="T15" s="264"/>
-      <c r="U15" s="264"/>
-      <c r="V15" s="264"/>
-      <c r="W15" s="264"/>
-      <c r="X15" s="264"/>
-      <c r="Y15" s="264"/>
-      <c r="Z15" s="264"/>
-      <c r="AA15" s="264"/>
-      <c r="AB15" s="264"/>
-      <c r="AC15" s="264"/>
-      <c r="AD15" s="264"/>
-      <c r="AE15" s="264"/>
-      <c r="AF15" s="264"/>
-      <c r="AG15" s="264"/>
-      <c r="AH15" s="264"/>
-      <c r="AI15" s="264"/>
-      <c r="AJ15" s="264"/>
-      <c r="AK15" s="264"/>
-      <c r="AL15" s="264"/>
-      <c r="AM15" s="264"/>
-      <c r="AN15" s="264"/>
-      <c r="AO15" s="264"/>
-      <c r="AP15" s="264"/>
-      <c r="AQ15" s="264"/>
-      <c r="AR15" s="264"/>
-      <c r="AS15" s="272"/>
-      <c r="AT15" s="173"/>
-      <c r="AU15" s="169"/>
-      <c r="AV15" s="168"/>
-      <c r="AW15" s="173"/>
-      <c r="AX15" s="160"/>
-      <c r="AY15" s="157">
+      <c r="L15" s="254"/>
+      <c r="M15" s="255"/>
+      <c r="N15" s="259"/>
+      <c r="O15" s="260"/>
+      <c r="P15" s="260"/>
+      <c r="Q15" s="260"/>
+      <c r="R15" s="260"/>
+      <c r="S15" s="260"/>
+      <c r="T15" s="260"/>
+      <c r="U15" s="260"/>
+      <c r="V15" s="260"/>
+      <c r="W15" s="260"/>
+      <c r="X15" s="260"/>
+      <c r="Y15" s="260"/>
+      <c r="Z15" s="260"/>
+      <c r="AA15" s="260"/>
+      <c r="AB15" s="260"/>
+      <c r="AC15" s="260"/>
+      <c r="AD15" s="260"/>
+      <c r="AE15" s="260"/>
+      <c r="AF15" s="260"/>
+      <c r="AG15" s="260"/>
+      <c r="AH15" s="260"/>
+      <c r="AI15" s="260"/>
+      <c r="AJ15" s="260"/>
+      <c r="AK15" s="260"/>
+      <c r="AL15" s="260"/>
+      <c r="AM15" s="260"/>
+      <c r="AN15" s="260"/>
+      <c r="AO15" s="260"/>
+      <c r="AP15" s="260"/>
+      <c r="AQ15" s="260"/>
+      <c r="AR15" s="260"/>
+      <c r="AS15" s="268"/>
+      <c r="AT15" s="169"/>
+      <c r="AU15" s="165"/>
+      <c r="AV15" s="164"/>
+      <c r="AW15" s="169"/>
+      <c r="AX15" s="156"/>
+      <c r="AY15" s="153">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="2:51" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="163" t="s">
+      <c r="B16" s="159" t="s">
         <v>98</v>
       </c>
-      <c r="C16" s="162" t="s">
+      <c r="C16" s="158" t="s">
         <v>99</v>
       </c>
-      <c r="I16" s="158"/>
-      <c r="J16" s="260"/>
-      <c r="K16" s="261"/>
-      <c r="L16" s="261"/>
-      <c r="M16" s="262"/>
-      <c r="N16" s="266"/>
-      <c r="O16" s="267"/>
-      <c r="P16" s="267"/>
-      <c r="Q16" s="267"/>
-      <c r="R16" s="264"/>
-      <c r="S16" s="264"/>
-      <c r="T16" s="264"/>
-      <c r="U16" s="264"/>
-      <c r="V16" s="267"/>
-      <c r="W16" s="267"/>
-      <c r="X16" s="267"/>
-      <c r="Y16" s="267"/>
-      <c r="Z16" s="267"/>
-      <c r="AA16" s="264"/>
-      <c r="AB16" s="264"/>
-      <c r="AC16" s="267"/>
-      <c r="AD16" s="264"/>
-      <c r="AE16" s="264"/>
-      <c r="AF16" s="264"/>
-      <c r="AG16" s="264"/>
-      <c r="AH16" s="267"/>
-      <c r="AI16" s="264"/>
-      <c r="AJ16" s="264"/>
-      <c r="AK16" s="264"/>
-      <c r="AL16" s="264"/>
-      <c r="AM16" s="264"/>
-      <c r="AN16" s="264"/>
-      <c r="AO16" s="264"/>
-      <c r="AP16" s="264"/>
-      <c r="AQ16" s="264"/>
-      <c r="AR16" s="264"/>
-      <c r="AS16" s="272"/>
-      <c r="AT16" s="173"/>
-      <c r="AU16" s="169"/>
-      <c r="AV16" s="168"/>
-      <c r="AW16" s="173"/>
-      <c r="AX16" s="160"/>
-      <c r="AY16" s="157">
+      <c r="I16" s="154"/>
+      <c r="J16" s="256"/>
+      <c r="K16" s="257"/>
+      <c r="L16" s="257"/>
+      <c r="M16" s="258"/>
+      <c r="N16" s="262"/>
+      <c r="O16" s="263"/>
+      <c r="P16" s="263"/>
+      <c r="Q16" s="263"/>
+      <c r="R16" s="260"/>
+      <c r="S16" s="260"/>
+      <c r="T16" s="260"/>
+      <c r="U16" s="260"/>
+      <c r="V16" s="263"/>
+      <c r="W16" s="263"/>
+      <c r="X16" s="263"/>
+      <c r="Y16" s="263"/>
+      <c r="Z16" s="263"/>
+      <c r="AA16" s="260"/>
+      <c r="AB16" s="260"/>
+      <c r="AC16" s="263"/>
+      <c r="AD16" s="260"/>
+      <c r="AE16" s="260"/>
+      <c r="AF16" s="260"/>
+      <c r="AG16" s="260"/>
+      <c r="AH16" s="263"/>
+      <c r="AI16" s="260"/>
+      <c r="AJ16" s="260"/>
+      <c r="AK16" s="260"/>
+      <c r="AL16" s="260"/>
+      <c r="AM16" s="260"/>
+      <c r="AN16" s="260"/>
+      <c r="AO16" s="260"/>
+      <c r="AP16" s="260"/>
+      <c r="AQ16" s="260"/>
+      <c r="AR16" s="260"/>
+      <c r="AS16" s="268"/>
+      <c r="AT16" s="169"/>
+      <c r="AU16" s="165"/>
+      <c r="AV16" s="164"/>
+      <c r="AW16" s="169"/>
+      <c r="AX16" s="156"/>
+      <c r="AY16" s="153">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="157" t="s">
+      <c r="B17" s="153" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="162" t="s">
+      <c r="C17" s="158" t="s">
         <v>101</v>
       </c>
-      <c r="J17" s="161"/>
-      <c r="K17" s="161"/>
-      <c r="L17" s="161"/>
-      <c r="M17" s="164"/>
-      <c r="N17" s="189"/>
-      <c r="O17" s="190"/>
-      <c r="P17" s="191"/>
-      <c r="Q17" s="192"/>
-      <c r="R17" s="189"/>
-      <c r="S17" s="190"/>
-      <c r="T17" s="191"/>
-      <c r="U17" s="193"/>
-      <c r="V17" s="202"/>
-      <c r="W17" s="203"/>
-      <c r="X17" s="212"/>
-      <c r="Y17" s="203"/>
-      <c r="Z17" s="205"/>
-      <c r="AA17" s="202"/>
-      <c r="AB17" s="203"/>
-      <c r="AC17" s="212"/>
-      <c r="AD17" s="203"/>
-      <c r="AE17" s="205"/>
-      <c r="AF17" s="244"/>
-      <c r="AG17" s="245"/>
-      <c r="AH17" s="246"/>
-      <c r="AI17" s="245"/>
-      <c r="AJ17" s="247"/>
-      <c r="AK17" s="264"/>
-      <c r="AL17" s="264"/>
-      <c r="AM17" s="264"/>
-      <c r="AN17" s="264"/>
-      <c r="AO17" s="264"/>
-      <c r="AP17" s="264"/>
-      <c r="AQ17" s="264"/>
-      <c r="AR17" s="264"/>
-      <c r="AS17" s="272"/>
-      <c r="AT17" s="173"/>
-      <c r="AU17" s="169"/>
-      <c r="AV17" s="168"/>
-      <c r="AW17" s="173"/>
-      <c r="AX17" s="160"/>
-      <c r="AY17" s="157">
+      <c r="J17" s="157"/>
+      <c r="K17" s="157"/>
+      <c r="L17" s="157"/>
+      <c r="M17" s="160"/>
+      <c r="N17" s="185"/>
+      <c r="O17" s="186"/>
+      <c r="P17" s="187"/>
+      <c r="Q17" s="188"/>
+      <c r="R17" s="185"/>
+      <c r="S17" s="186"/>
+      <c r="T17" s="187"/>
+      <c r="U17" s="189"/>
+      <c r="V17" s="198"/>
+      <c r="W17" s="199"/>
+      <c r="X17" s="208"/>
+      <c r="Y17" s="199"/>
+      <c r="Z17" s="201"/>
+      <c r="AA17" s="198"/>
+      <c r="AB17" s="199"/>
+      <c r="AC17" s="208"/>
+      <c r="AD17" s="199"/>
+      <c r="AE17" s="201"/>
+      <c r="AF17" s="240"/>
+      <c r="AG17" s="241"/>
+      <c r="AH17" s="242"/>
+      <c r="AI17" s="241"/>
+      <c r="AJ17" s="243"/>
+      <c r="AK17" s="260"/>
+      <c r="AL17" s="260"/>
+      <c r="AM17" s="260"/>
+      <c r="AN17" s="260"/>
+      <c r="AO17" s="260"/>
+      <c r="AP17" s="260"/>
+      <c r="AQ17" s="260"/>
+      <c r="AR17" s="260"/>
+      <c r="AS17" s="268"/>
+      <c r="AT17" s="169"/>
+      <c r="AU17" s="165"/>
+      <c r="AV17" s="164"/>
+      <c r="AW17" s="169"/>
+      <c r="AX17" s="156"/>
+      <c r="AY17" s="153">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="163" t="s">
+      <c r="B18" s="159" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="162" t="s">
+      <c r="C18" s="158" t="s">
         <v>103</v>
       </c>
-      <c r="M18" s="158"/>
-      <c r="N18" s="194"/>
-      <c r="O18" s="195" t="s">
+      <c r="M18" s="154"/>
+      <c r="N18" s="190"/>
+      <c r="O18" s="191" t="s">
         <v>115</v>
       </c>
-      <c r="P18" s="195"/>
-      <c r="Q18" s="196"/>
-      <c r="R18" s="194"/>
-      <c r="S18" s="195" t="s">
+      <c r="P18" s="191"/>
+      <c r="Q18" s="192"/>
+      <c r="R18" s="190"/>
+      <c r="S18" s="191" t="s">
         <v>116</v>
       </c>
-      <c r="T18" s="195"/>
-      <c r="U18" s="197"/>
-      <c r="V18" s="206"/>
-      <c r="W18" s="163"/>
-      <c r="X18" s="163"/>
-      <c r="Y18" s="163"/>
-      <c r="Z18" s="207"/>
-      <c r="AA18" s="206"/>
-      <c r="AB18" s="163"/>
-      <c r="AC18" s="163"/>
-      <c r="AD18" s="163"/>
-      <c r="AE18" s="207"/>
-      <c r="AF18" s="248"/>
-      <c r="AG18" s="249"/>
-      <c r="AH18" s="249"/>
-      <c r="AI18" s="249"/>
-      <c r="AJ18" s="250"/>
-      <c r="AK18" s="264"/>
-      <c r="AL18" s="264"/>
-      <c r="AM18" s="264"/>
-      <c r="AN18" s="264"/>
-      <c r="AO18" s="264"/>
-      <c r="AP18" s="264"/>
-      <c r="AQ18" s="264"/>
-      <c r="AR18" s="264"/>
-      <c r="AS18" s="272"/>
-      <c r="AT18" s="173"/>
-      <c r="AU18" s="169"/>
-      <c r="AV18" s="168"/>
-      <c r="AW18" s="173"/>
-      <c r="AX18" s="160"/>
-      <c r="AY18" s="157">
+      <c r="T18" s="191"/>
+      <c r="U18" s="193"/>
+      <c r="V18" s="202"/>
+      <c r="W18" s="159"/>
+      <c r="X18" s="159"/>
+      <c r="Y18" s="159"/>
+      <c r="Z18" s="203"/>
+      <c r="AA18" s="202"/>
+      <c r="AB18" s="159"/>
+      <c r="AC18" s="159"/>
+      <c r="AD18" s="159"/>
+      <c r="AE18" s="203"/>
+      <c r="AF18" s="244"/>
+      <c r="AG18" s="245"/>
+      <c r="AH18" s="245"/>
+      <c r="AI18" s="245"/>
+      <c r="AJ18" s="246"/>
+      <c r="AK18" s="260"/>
+      <c r="AL18" s="260"/>
+      <c r="AM18" s="260"/>
+      <c r="AN18" s="260"/>
+      <c r="AO18" s="260"/>
+      <c r="AP18" s="260"/>
+      <c r="AQ18" s="260"/>
+      <c r="AR18" s="260"/>
+      <c r="AS18" s="268"/>
+      <c r="AT18" s="169"/>
+      <c r="AU18" s="165"/>
+      <c r="AV18" s="164"/>
+      <c r="AW18" s="169"/>
+      <c r="AX18" s="156"/>
+      <c r="AY18" s="153">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="2:51" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="163" t="s">
+      <c r="B19" s="159" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="162" t="s">
+      <c r="C19" s="158" t="s">
         <v>105</v>
       </c>
-      <c r="M19" s="158"/>
-      <c r="N19" s="198"/>
-      <c r="O19" s="199"/>
-      <c r="P19" s="199"/>
-      <c r="Q19" s="200"/>
-      <c r="R19" s="198"/>
-      <c r="S19" s="199"/>
-      <c r="T19" s="199"/>
-      <c r="U19" s="201"/>
-      <c r="V19" s="206"/>
-      <c r="W19" s="163"/>
-      <c r="X19" s="163" t="s">
+      <c r="M19" s="154"/>
+      <c r="N19" s="194"/>
+      <c r="O19" s="195"/>
+      <c r="P19" s="195"/>
+      <c r="Q19" s="196"/>
+      <c r="R19" s="194"/>
+      <c r="S19" s="195"/>
+      <c r="T19" s="195"/>
+      <c r="U19" s="197"/>
+      <c r="V19" s="202"/>
+      <c r="W19" s="159"/>
+      <c r="X19" s="159" t="s">
         <v>110</v>
       </c>
-      <c r="Y19" s="163"/>
-      <c r="Z19" s="207"/>
-      <c r="AA19" s="206"/>
-      <c r="AB19" s="163"/>
-      <c r="AC19" s="163" t="s">
+      <c r="Y19" s="159"/>
+      <c r="Z19" s="203"/>
+      <c r="AA19" s="202"/>
+      <c r="AB19" s="159"/>
+      <c r="AC19" s="159" t="s">
         <v>111</v>
       </c>
-      <c r="AD19" s="163"/>
-      <c r="AE19" s="207"/>
-      <c r="AF19" s="248"/>
-      <c r="AG19" s="249"/>
-      <c r="AH19" s="249" t="s">
+      <c r="AD19" s="159"/>
+      <c r="AE19" s="203"/>
+      <c r="AF19" s="244"/>
+      <c r="AG19" s="245"/>
+      <c r="AH19" s="245" t="s">
         <v>103</v>
       </c>
-      <c r="AI19" s="249"/>
-      <c r="AJ19" s="250"/>
-      <c r="AK19" s="264"/>
-      <c r="AL19" s="264"/>
-      <c r="AM19" s="264"/>
-      <c r="AN19" s="264"/>
-      <c r="AO19" s="264"/>
-      <c r="AP19" s="264"/>
-      <c r="AQ19" s="264"/>
-      <c r="AR19" s="264"/>
-      <c r="AS19" s="272"/>
-      <c r="AT19" s="173"/>
-      <c r="AU19" s="169"/>
-      <c r="AV19" s="168"/>
-      <c r="AW19" s="173"/>
-      <c r="AX19" s="160"/>
-      <c r="AY19" s="157">
+      <c r="AI19" s="245"/>
+      <c r="AJ19" s="246"/>
+      <c r="AK19" s="260"/>
+      <c r="AL19" s="260"/>
+      <c r="AM19" s="260"/>
+      <c r="AN19" s="260"/>
+      <c r="AO19" s="260"/>
+      <c r="AP19" s="260"/>
+      <c r="AQ19" s="260"/>
+      <c r="AR19" s="260"/>
+      <c r="AS19" s="268"/>
+      <c r="AT19" s="169"/>
+      <c r="AU19" s="165"/>
+      <c r="AV19" s="164"/>
+      <c r="AW19" s="169"/>
+      <c r="AX19" s="156"/>
+      <c r="AY19" s="153">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="2:51" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="163" t="s">
+      <c r="B20" s="159" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="162" t="s">
+      <c r="C20" s="158" t="s">
         <v>113</v>
       </c>
-      <c r="N20" s="161"/>
-      <c r="O20" s="161"/>
-      <c r="P20" s="161"/>
-      <c r="Q20" s="161"/>
-      <c r="U20" s="158"/>
-      <c r="V20" s="206"/>
-      <c r="W20" s="163"/>
-      <c r="X20" s="163"/>
-      <c r="Y20" s="163"/>
-      <c r="Z20" s="207"/>
-      <c r="AA20" s="206"/>
-      <c r="AB20" s="163"/>
-      <c r="AC20" s="163"/>
-      <c r="AD20" s="163"/>
-      <c r="AE20" s="207"/>
-      <c r="AF20" s="248"/>
-      <c r="AG20" s="249"/>
-      <c r="AH20" s="249"/>
-      <c r="AI20" s="249"/>
-      <c r="AJ20" s="250"/>
-      <c r="AK20" s="264"/>
-      <c r="AL20" s="264"/>
-      <c r="AM20" s="264"/>
-      <c r="AN20" s="264"/>
-      <c r="AO20" s="264"/>
-      <c r="AP20" s="264"/>
-      <c r="AQ20" s="264"/>
-      <c r="AR20" s="264"/>
-      <c r="AS20" s="272"/>
-      <c r="AT20" s="173"/>
-      <c r="AU20" s="169"/>
-      <c r="AV20" s="168"/>
-      <c r="AW20" s="173"/>
-      <c r="AX20" s="160"/>
-      <c r="AY20" s="157">
+      <c r="N20" s="157"/>
+      <c r="O20" s="157"/>
+      <c r="P20" s="157"/>
+      <c r="Q20" s="157"/>
+      <c r="U20" s="154"/>
+      <c r="V20" s="202"/>
+      <c r="W20" s="159"/>
+      <c r="X20" s="159"/>
+      <c r="Y20" s="159"/>
+      <c r="Z20" s="203"/>
+      <c r="AA20" s="202"/>
+      <c r="AB20" s="159"/>
+      <c r="AC20" s="159"/>
+      <c r="AD20" s="159"/>
+      <c r="AE20" s="203"/>
+      <c r="AF20" s="244"/>
+      <c r="AG20" s="245"/>
+      <c r="AH20" s="245"/>
+      <c r="AI20" s="245"/>
+      <c r="AJ20" s="246"/>
+      <c r="AK20" s="260"/>
+      <c r="AL20" s="260"/>
+      <c r="AM20" s="260"/>
+      <c r="AN20" s="260"/>
+      <c r="AO20" s="260"/>
+      <c r="AP20" s="260"/>
+      <c r="AQ20" s="260"/>
+      <c r="AR20" s="260"/>
+      <c r="AS20" s="268"/>
+      <c r="AT20" s="169"/>
+      <c r="AU20" s="165"/>
+      <c r="AV20" s="164"/>
+      <c r="AW20" s="169"/>
+      <c r="AX20" s="156"/>
+      <c r="AY20" s="153">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="2:51" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="U21" s="158"/>
-      <c r="V21" s="208"/>
-      <c r="W21" s="209"/>
-      <c r="X21" s="209"/>
-      <c r="Y21" s="209"/>
-      <c r="Z21" s="275" t="s">
+      <c r="U21" s="154"/>
+      <c r="V21" s="204"/>
+      <c r="W21" s="205"/>
+      <c r="X21" s="205"/>
+      <c r="Y21" s="205"/>
+      <c r="Z21" s="271" t="s">
         <v>88</v>
       </c>
-      <c r="AA21" s="275" t="s">
+      <c r="AA21" s="271" t="s">
         <v>88</v>
       </c>
-      <c r="AB21" s="209"/>
-      <c r="AC21" s="209"/>
-      <c r="AD21" s="209"/>
-      <c r="AE21" s="211"/>
-      <c r="AF21" s="251"/>
-      <c r="AG21" s="252"/>
-      <c r="AH21" s="252"/>
-      <c r="AI21" s="252"/>
-      <c r="AJ21" s="253"/>
-      <c r="AK21" s="273"/>
-      <c r="AL21" s="273"/>
-      <c r="AM21" s="273"/>
-      <c r="AN21" s="273"/>
-      <c r="AO21" s="273"/>
-      <c r="AP21" s="273"/>
-      <c r="AQ21" s="273"/>
-      <c r="AR21" s="273"/>
-      <c r="AS21" s="274"/>
-      <c r="AT21" s="173"/>
-      <c r="AU21" s="169"/>
-      <c r="AV21" s="168"/>
-      <c r="AW21" s="173"/>
-      <c r="AX21" s="160"/>
-      <c r="AY21" s="157">
+      <c r="AB21" s="205"/>
+      <c r="AC21" s="205"/>
+      <c r="AD21" s="205"/>
+      <c r="AE21" s="207"/>
+      <c r="AF21" s="247"/>
+      <c r="AG21" s="248"/>
+      <c r="AH21" s="248"/>
+      <c r="AI21" s="248"/>
+      <c r="AJ21" s="249"/>
+      <c r="AK21" s="269"/>
+      <c r="AL21" s="269"/>
+      <c r="AM21" s="269"/>
+      <c r="AN21" s="269"/>
+      <c r="AO21" s="269"/>
+      <c r="AP21" s="269"/>
+      <c r="AQ21" s="269"/>
+      <c r="AR21" s="269"/>
+      <c r="AS21" s="270"/>
+      <c r="AT21" s="169"/>
+      <c r="AU21" s="165"/>
+      <c r="AV21" s="164"/>
+      <c r="AW21" s="169"/>
+      <c r="AX21" s="156"/>
+      <c r="AY21" s="153">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="162" t="s">
+      <c r="B22" s="158" t="s">
         <v>119</v>
       </c>
-      <c r="V22" s="161"/>
-      <c r="W22" s="161"/>
-      <c r="X22" s="161"/>
-      <c r="Y22" s="161"/>
-      <c r="Z22" s="161"/>
-      <c r="AK22" s="161"/>
-      <c r="AL22" s="161"/>
-      <c r="AM22" s="161"/>
-      <c r="AN22" s="161"/>
-      <c r="AO22" s="161"/>
-      <c r="AP22" s="161"/>
-      <c r="AQ22" s="161"/>
-      <c r="AR22" s="161"/>
-      <c r="AS22" s="161"/>
+      <c r="V22" s="157"/>
+      <c r="W22" s="157"/>
+      <c r="X22" s="157"/>
+      <c r="Y22" s="157"/>
+      <c r="Z22" s="157"/>
+      <c r="AK22" s="157"/>
+      <c r="AL22" s="157"/>
+      <c r="AM22" s="157"/>
+      <c r="AN22" s="157"/>
+      <c r="AO22" s="157"/>
+      <c r="AP22" s="157"/>
+      <c r="AQ22" s="157"/>
+      <c r="AR22" s="157"/>
+      <c r="AS22" s="157"/>
     </row>
     <row r="23" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7673,4 +7681,1645 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF73098-1079-4A7D-A479-5F4BAEC9A602}">
+  <dimension ref="J1:BD183"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5:BD30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="78" width="3.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <v>5</v>
+      </c>
+      <c r="P4">
+        <v>6</v>
+      </c>
+      <c r="Q4">
+        <v>7</v>
+      </c>
+      <c r="R4">
+        <v>8</v>
+      </c>
+      <c r="S4">
+        <v>9</v>
+      </c>
+      <c r="T4">
+        <v>10</v>
+      </c>
+      <c r="U4">
+        <v>11</v>
+      </c>
+      <c r="V4">
+        <v>12</v>
+      </c>
+      <c r="W4">
+        <v>13</v>
+      </c>
+      <c r="X4">
+        <v>14</v>
+      </c>
+      <c r="Y4">
+        <v>15</v>
+      </c>
+      <c r="Z4">
+        <v>16</v>
+      </c>
+      <c r="AA4">
+        <v>17</v>
+      </c>
+      <c r="AB4">
+        <v>18</v>
+      </c>
+      <c r="AC4">
+        <v>19</v>
+      </c>
+      <c r="AD4">
+        <v>20</v>
+      </c>
+      <c r="AE4">
+        <v>21</v>
+      </c>
+      <c r="AF4">
+        <v>22</v>
+      </c>
+      <c r="AG4">
+        <v>23</v>
+      </c>
+      <c r="AH4">
+        <v>24</v>
+      </c>
+      <c r="AI4">
+        <v>25</v>
+      </c>
+      <c r="AJ4">
+        <v>26</v>
+      </c>
+      <c r="AK4">
+        <v>27</v>
+      </c>
+      <c r="AL4">
+        <v>28</v>
+      </c>
+      <c r="AM4">
+        <v>29</v>
+      </c>
+      <c r="AN4">
+        <v>30</v>
+      </c>
+      <c r="AO4">
+        <v>31</v>
+      </c>
+      <c r="AP4">
+        <v>32</v>
+      </c>
+      <c r="AQ4">
+        <v>33</v>
+      </c>
+      <c r="AR4">
+        <v>34</v>
+      </c>
+      <c r="AS4">
+        <v>35</v>
+      </c>
+      <c r="AT4">
+        <v>36</v>
+      </c>
+      <c r="AU4">
+        <v>37</v>
+      </c>
+      <c r="AV4">
+        <v>38</v>
+      </c>
+      <c r="AW4">
+        <v>39</v>
+      </c>
+      <c r="AX4">
+        <v>40</v>
+      </c>
+      <c r="AY4">
+        <v>41</v>
+      </c>
+      <c r="AZ4">
+        <v>42</v>
+      </c>
+      <c r="BA4">
+        <v>43</v>
+      </c>
+      <c r="BB4">
+        <v>44</v>
+      </c>
+      <c r="BC4">
+        <v>45</v>
+      </c>
+      <c r="BD4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="276"/>
+      <c r="L5" s="276"/>
+      <c r="M5" s="276"/>
+      <c r="N5" s="276"/>
+      <c r="O5" s="276"/>
+      <c r="P5" s="276"/>
+      <c r="Q5" s="276"/>
+      <c r="R5" s="276"/>
+      <c r="S5" s="276"/>
+      <c r="T5" s="276"/>
+      <c r="U5" s="276"/>
+      <c r="V5" s="276"/>
+      <c r="W5" s="276"/>
+      <c r="X5" s="276"/>
+      <c r="Y5" s="276"/>
+      <c r="Z5" s="276"/>
+      <c r="AA5" s="276"/>
+      <c r="AB5" s="276"/>
+      <c r="AC5" s="276"/>
+      <c r="AD5" s="276"/>
+      <c r="AE5" s="276"/>
+      <c r="AF5" s="276"/>
+      <c r="AG5" s="276"/>
+      <c r="AH5" s="276"/>
+      <c r="AI5" s="276"/>
+      <c r="AJ5" s="276"/>
+      <c r="AK5" s="276"/>
+      <c r="AL5" s="276"/>
+      <c r="AM5" s="276"/>
+      <c r="AN5" s="276"/>
+      <c r="AO5" s="276"/>
+      <c r="AP5" s="276"/>
+      <c r="AQ5" s="276"/>
+      <c r="AR5" s="276"/>
+      <c r="AS5" s="276"/>
+      <c r="AT5" s="276"/>
+      <c r="AU5" s="276"/>
+      <c r="AV5" s="276"/>
+      <c r="AW5" s="276"/>
+      <c r="AX5" s="276"/>
+      <c r="AY5" s="276"/>
+      <c r="AZ5" s="276"/>
+      <c r="BA5" s="276"/>
+      <c r="BB5" s="276"/>
+      <c r="BC5" s="276"/>
+      <c r="BD5" s="276"/>
+    </row>
+    <row r="6" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6" s="276"/>
+      <c r="L6" s="276"/>
+      <c r="M6" s="276"/>
+      <c r="N6" s="276"/>
+      <c r="O6" s="276"/>
+      <c r="P6" s="276"/>
+      <c r="Q6" s="276"/>
+      <c r="R6" s="276"/>
+      <c r="S6" s="276"/>
+      <c r="T6" s="276"/>
+      <c r="U6" s="276"/>
+      <c r="V6" s="276"/>
+      <c r="W6" s="276"/>
+      <c r="X6" s="276"/>
+      <c r="Y6" s="276"/>
+      <c r="Z6" s="276"/>
+      <c r="AA6" s="276"/>
+      <c r="AB6" s="276"/>
+      <c r="AC6" s="276"/>
+      <c r="AD6" s="276"/>
+      <c r="AE6" s="276"/>
+      <c r="AF6" s="276"/>
+      <c r="AG6" s="276"/>
+      <c r="AH6" s="276"/>
+      <c r="AI6" s="276"/>
+      <c r="AJ6" s="276"/>
+      <c r="AK6" s="276"/>
+      <c r="AL6" s="276"/>
+      <c r="AM6" s="276"/>
+      <c r="AN6" s="276"/>
+      <c r="AO6" s="276"/>
+      <c r="AP6" s="276"/>
+      <c r="AQ6" s="276"/>
+      <c r="AR6" s="276"/>
+      <c r="AS6" s="276"/>
+      <c r="AT6" s="276"/>
+      <c r="AU6" s="276"/>
+      <c r="AV6" s="276"/>
+      <c r="AW6" s="276"/>
+      <c r="AX6" s="276"/>
+      <c r="AY6" s="276"/>
+      <c r="AZ6" s="276"/>
+      <c r="BA6" s="276"/>
+      <c r="BB6" s="276"/>
+      <c r="BC6" s="276"/>
+      <c r="BD6" s="276"/>
+    </row>
+    <row r="7" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7" s="276"/>
+      <c r="L7" s="276"/>
+      <c r="M7" s="276"/>
+      <c r="N7" s="276"/>
+      <c r="O7" s="276"/>
+      <c r="P7" s="276"/>
+      <c r="Q7" s="276"/>
+      <c r="R7" s="276"/>
+      <c r="S7" s="276"/>
+      <c r="T7" s="276"/>
+      <c r="U7" s="276"/>
+      <c r="V7" s="276"/>
+      <c r="W7" s="276"/>
+      <c r="X7" s="276"/>
+      <c r="Y7" s="276"/>
+      <c r="Z7" s="276"/>
+      <c r="AA7" s="276"/>
+      <c r="AB7" s="276"/>
+      <c r="AC7" s="276"/>
+      <c r="AD7" s="276"/>
+      <c r="AE7" s="276"/>
+      <c r="AF7" s="276"/>
+      <c r="AG7" s="276"/>
+      <c r="AH7" s="276"/>
+      <c r="AI7" s="276"/>
+      <c r="AJ7" s="276"/>
+      <c r="AK7" s="276"/>
+      <c r="AL7" s="276"/>
+      <c r="AM7" s="276"/>
+      <c r="AN7" s="276"/>
+      <c r="AO7" s="276"/>
+      <c r="AP7" s="276"/>
+      <c r="AQ7" s="276"/>
+      <c r="AR7" s="276"/>
+      <c r="AS7" s="276"/>
+      <c r="AT7" s="276"/>
+      <c r="AU7" s="276"/>
+      <c r="AV7" s="276"/>
+      <c r="AW7" s="276"/>
+      <c r="AX7" s="276"/>
+      <c r="AY7" s="276"/>
+      <c r="AZ7" s="276"/>
+      <c r="BA7" s="276"/>
+      <c r="BB7" s="276"/>
+      <c r="BC7" s="276"/>
+      <c r="BD7" s="276"/>
+    </row>
+    <row r="8" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8" s="276"/>
+      <c r="L8" s="276"/>
+      <c r="M8" s="276"/>
+      <c r="N8" s="276"/>
+      <c r="O8" s="276"/>
+      <c r="P8" s="276"/>
+      <c r="Q8" s="276"/>
+      <c r="R8" s="276"/>
+      <c r="S8" s="276"/>
+      <c r="T8" s="276"/>
+      <c r="U8" s="276"/>
+      <c r="V8" s="276"/>
+      <c r="W8" s="276"/>
+      <c r="X8" s="276"/>
+      <c r="Y8" s="276"/>
+      <c r="Z8" s="276"/>
+      <c r="AA8" s="276"/>
+      <c r="AB8" s="276"/>
+      <c r="AC8" s="276"/>
+      <c r="AD8" s="276"/>
+      <c r="AE8" s="276"/>
+      <c r="AF8" s="276"/>
+      <c r="AG8" s="276"/>
+      <c r="AH8" s="276"/>
+      <c r="AI8" s="276"/>
+      <c r="AJ8" s="276"/>
+      <c r="AK8" s="276"/>
+      <c r="AL8" s="276"/>
+      <c r="AM8" s="276"/>
+      <c r="AN8" s="276"/>
+      <c r="AO8" s="276"/>
+      <c r="AP8" s="276"/>
+      <c r="AQ8" s="276"/>
+      <c r="AR8" s="276"/>
+      <c r="AS8" s="276"/>
+      <c r="AT8" s="276"/>
+      <c r="AU8" s="276"/>
+      <c r="AV8" s="276"/>
+      <c r="AW8" s="276"/>
+      <c r="AX8" s="276"/>
+      <c r="AY8" s="276"/>
+      <c r="AZ8" s="276"/>
+      <c r="BA8" s="276"/>
+      <c r="BB8" s="276"/>
+      <c r="BC8" s="276"/>
+      <c r="BD8" s="276"/>
+    </row>
+    <row r="9" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9" s="276"/>
+      <c r="L9" s="276"/>
+      <c r="M9" s="276"/>
+      <c r="N9" s="276"/>
+      <c r="O9" s="276"/>
+      <c r="P9" s="276"/>
+      <c r="Q9" s="276"/>
+      <c r="R9" s="276"/>
+      <c r="S9" s="276"/>
+      <c r="T9" s="276"/>
+      <c r="U9" s="276"/>
+      <c r="V9" s="276"/>
+      <c r="W9" s="276"/>
+      <c r="X9" s="276"/>
+      <c r="Y9" s="276"/>
+      <c r="Z9" s="276"/>
+      <c r="AA9" s="276"/>
+      <c r="AB9" s="276"/>
+      <c r="AC9" s="276"/>
+      <c r="AD9" s="276"/>
+      <c r="AE9" s="276"/>
+      <c r="AF9" s="276"/>
+      <c r="AG9" s="276"/>
+      <c r="AH9" s="276"/>
+      <c r="AI9" s="276"/>
+      <c r="AJ9" s="276"/>
+      <c r="AK9" s="276"/>
+      <c r="AL9" s="276"/>
+      <c r="AM9" s="276"/>
+      <c r="AN9" s="276"/>
+      <c r="AO9" s="276"/>
+      <c r="AP9" s="276"/>
+      <c r="AQ9" s="276"/>
+      <c r="AR9" s="276"/>
+      <c r="AS9" s="276"/>
+      <c r="AT9" s="276"/>
+      <c r="AU9" s="276"/>
+      <c r="AV9" s="276"/>
+      <c r="AW9" s="276"/>
+      <c r="AX9" s="276"/>
+      <c r="AY9" s="276"/>
+      <c r="AZ9" s="276"/>
+      <c r="BA9" s="276"/>
+      <c r="BB9" s="276"/>
+      <c r="BC9" s="276"/>
+      <c r="BD9" s="276"/>
+    </row>
+    <row r="10" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J10">
+        <v>6</v>
+      </c>
+      <c r="K10" s="276"/>
+      <c r="L10" s="276"/>
+      <c r="M10" s="276"/>
+      <c r="N10" s="276"/>
+      <c r="O10" s="276"/>
+      <c r="P10" s="276"/>
+      <c r="Q10" s="276"/>
+      <c r="R10" s="276"/>
+      <c r="S10" s="276"/>
+      <c r="T10" s="276"/>
+      <c r="U10" s="276"/>
+      <c r="V10" s="276"/>
+      <c r="W10" s="276"/>
+      <c r="X10" s="276"/>
+      <c r="Y10" s="276"/>
+      <c r="Z10" s="276"/>
+      <c r="AA10" s="276"/>
+      <c r="AB10" s="276"/>
+      <c r="AC10" s="276"/>
+      <c r="AD10" s="276"/>
+      <c r="AE10" s="276"/>
+      <c r="AF10" s="276"/>
+      <c r="AG10" s="276"/>
+      <c r="AH10" s="276"/>
+      <c r="AI10" s="276"/>
+      <c r="AJ10" s="276"/>
+      <c r="AK10" s="276"/>
+      <c r="AL10" s="276"/>
+      <c r="AM10" s="276"/>
+      <c r="AN10" s="276"/>
+      <c r="AO10" s="276"/>
+      <c r="AP10" s="276"/>
+      <c r="AQ10" s="276"/>
+      <c r="AR10" s="276"/>
+      <c r="AS10" s="276"/>
+      <c r="AT10" s="276"/>
+      <c r="AU10" s="276"/>
+      <c r="AV10" s="276"/>
+      <c r="AW10" s="276"/>
+      <c r="AX10" s="276"/>
+      <c r="AY10" s="276"/>
+      <c r="AZ10" s="276"/>
+      <c r="BA10" s="276"/>
+      <c r="BB10" s="276"/>
+      <c r="BC10" s="276"/>
+      <c r="BD10" s="276"/>
+    </row>
+    <row r="11" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J11">
+        <v>7</v>
+      </c>
+      <c r="K11" s="276"/>
+      <c r="L11" s="276"/>
+      <c r="M11" s="276"/>
+      <c r="N11" s="276"/>
+      <c r="O11" s="276"/>
+      <c r="P11" s="276"/>
+      <c r="Q11" s="276"/>
+      <c r="R11" s="276"/>
+      <c r="S11" s="276"/>
+      <c r="T11" s="276"/>
+      <c r="U11" s="276"/>
+      <c r="V11" s="276"/>
+      <c r="W11" s="276"/>
+      <c r="X11" s="276"/>
+      <c r="Y11" s="276"/>
+      <c r="Z11" s="276"/>
+      <c r="AA11" s="276"/>
+      <c r="AB11" s="276"/>
+      <c r="AC11" s="276"/>
+      <c r="AD11" s="276"/>
+      <c r="AE11" s="276"/>
+      <c r="AF11" s="276"/>
+      <c r="AG11" s="276"/>
+      <c r="AH11" s="276"/>
+      <c r="AI11" s="276"/>
+      <c r="AJ11" s="276"/>
+      <c r="AK11" s="276"/>
+      <c r="AL11" s="276"/>
+      <c r="AM11" s="276"/>
+      <c r="AN11" s="276"/>
+      <c r="AO11" s="276"/>
+      <c r="AP11" s="276"/>
+      <c r="AQ11" s="276"/>
+      <c r="AR11" s="276"/>
+      <c r="AS11" s="276"/>
+      <c r="AT11" s="276"/>
+      <c r="AU11" s="276"/>
+      <c r="AV11" s="276"/>
+      <c r="AW11" s="276"/>
+      <c r="AX11" s="276"/>
+      <c r="AY11" s="276"/>
+      <c r="AZ11" s="276"/>
+      <c r="BA11" s="276"/>
+      <c r="BB11" s="276"/>
+      <c r="BC11" s="276"/>
+      <c r="BD11" s="276"/>
+    </row>
+    <row r="12" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J12">
+        <v>8</v>
+      </c>
+      <c r="K12" s="276"/>
+      <c r="L12" s="276"/>
+      <c r="M12" s="276"/>
+      <c r="N12" s="276"/>
+      <c r="O12" s="276"/>
+      <c r="P12" s="276"/>
+      <c r="Q12" s="276"/>
+      <c r="R12" s="276"/>
+      <c r="S12" s="276"/>
+      <c r="T12" s="276"/>
+      <c r="U12" s="276"/>
+      <c r="V12" s="276"/>
+      <c r="W12" s="276"/>
+      <c r="X12" s="276"/>
+      <c r="Y12" s="276"/>
+      <c r="Z12" s="276"/>
+      <c r="AA12" s="276"/>
+      <c r="AB12" s="276"/>
+      <c r="AC12" s="276"/>
+      <c r="AD12" s="276"/>
+      <c r="AE12" s="276"/>
+      <c r="AF12" s="276"/>
+      <c r="AG12" s="276"/>
+      <c r="AH12" s="276"/>
+      <c r="AI12" s="276"/>
+      <c r="AJ12" s="276"/>
+      <c r="AK12" s="276"/>
+      <c r="AL12" s="276"/>
+      <c r="AM12" s="276"/>
+      <c r="AN12" s="276"/>
+      <c r="AO12" s="276"/>
+      <c r="AP12" s="276"/>
+      <c r="AQ12" s="276"/>
+      <c r="AR12" s="276"/>
+      <c r="AS12" s="276"/>
+      <c r="AT12" s="276"/>
+      <c r="AU12" s="276"/>
+      <c r="AV12" s="276"/>
+      <c r="AW12" s="276"/>
+      <c r="AX12" s="276"/>
+      <c r="AY12" s="276"/>
+      <c r="AZ12" s="276"/>
+      <c r="BA12" s="276"/>
+      <c r="BB12" s="276"/>
+      <c r="BC12" s="276"/>
+      <c r="BD12" s="276"/>
+    </row>
+    <row r="13" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J13">
+        <v>9</v>
+      </c>
+      <c r="K13" s="276"/>
+      <c r="L13" s="276"/>
+      <c r="M13" s="276"/>
+      <c r="N13" s="276"/>
+      <c r="O13" s="276"/>
+      <c r="P13" s="276"/>
+      <c r="Q13" s="276"/>
+      <c r="R13" s="276"/>
+      <c r="S13" s="276"/>
+      <c r="T13" s="276"/>
+      <c r="U13" s="276"/>
+      <c r="V13" s="276"/>
+      <c r="W13" s="276"/>
+      <c r="X13" s="276"/>
+      <c r="Y13" s="276"/>
+      <c r="Z13" s="276"/>
+      <c r="AA13" s="276"/>
+      <c r="AB13" s="276"/>
+      <c r="AC13" s="276"/>
+      <c r="AD13" s="276"/>
+      <c r="AE13" s="276"/>
+      <c r="AF13" s="276"/>
+      <c r="AG13" s="276"/>
+      <c r="AH13" s="276"/>
+      <c r="AI13" s="276"/>
+      <c r="AJ13" s="276"/>
+      <c r="AK13" s="276"/>
+      <c r="AL13" s="276"/>
+      <c r="AM13" s="276"/>
+      <c r="AN13" s="276"/>
+      <c r="AO13" s="276"/>
+      <c r="AP13" s="276"/>
+      <c r="AQ13" s="276"/>
+      <c r="AR13" s="276"/>
+      <c r="AS13" s="276"/>
+      <c r="AT13" s="276"/>
+      <c r="AU13" s="276"/>
+      <c r="AV13" s="276"/>
+      <c r="AW13" s="276"/>
+      <c r="AX13" s="276"/>
+      <c r="AY13" s="276"/>
+      <c r="AZ13" s="276"/>
+      <c r="BA13" s="276"/>
+      <c r="BB13" s="276"/>
+      <c r="BC13" s="276"/>
+      <c r="BD13" s="276"/>
+    </row>
+    <row r="14" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J14">
+        <v>10</v>
+      </c>
+      <c r="K14" s="276"/>
+      <c r="L14" s="276"/>
+      <c r="M14" s="276"/>
+      <c r="N14" s="276"/>
+      <c r="O14" s="276"/>
+      <c r="P14" s="276"/>
+      <c r="Q14" s="276"/>
+      <c r="R14" s="276"/>
+      <c r="S14" s="276"/>
+      <c r="T14" s="276"/>
+      <c r="U14" s="276"/>
+      <c r="V14" s="276"/>
+      <c r="W14" s="276"/>
+      <c r="X14" s="276"/>
+      <c r="Y14" s="276"/>
+      <c r="Z14" s="276"/>
+      <c r="AA14" s="276"/>
+      <c r="AB14" s="276"/>
+      <c r="AC14" s="276"/>
+      <c r="AD14" s="276"/>
+      <c r="AE14" s="276"/>
+      <c r="AF14" s="276"/>
+      <c r="AG14" s="276"/>
+      <c r="AH14" s="276"/>
+      <c r="AI14" s="276"/>
+      <c r="AJ14" s="276"/>
+      <c r="AK14" s="276"/>
+      <c r="AL14" s="276"/>
+      <c r="AM14" s="276"/>
+      <c r="AN14" s="276"/>
+      <c r="AO14" s="276"/>
+      <c r="AP14" s="276"/>
+      <c r="AQ14" s="276"/>
+      <c r="AR14" s="276"/>
+      <c r="AS14" s="276"/>
+      <c r="AT14" s="276"/>
+      <c r="AU14" s="276"/>
+      <c r="AV14" s="276"/>
+      <c r="AW14" s="276"/>
+      <c r="AX14" s="276"/>
+      <c r="AY14" s="276"/>
+      <c r="AZ14" s="276"/>
+      <c r="BA14" s="276"/>
+      <c r="BB14" s="276"/>
+      <c r="BC14" s="276"/>
+      <c r="BD14" s="276"/>
+    </row>
+    <row r="15" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J15">
+        <v>11</v>
+      </c>
+      <c r="K15" s="276"/>
+      <c r="L15" s="276"/>
+      <c r="M15" s="276"/>
+      <c r="N15" s="276"/>
+      <c r="O15" s="276"/>
+      <c r="P15" s="276"/>
+      <c r="Q15" s="276"/>
+      <c r="R15" s="276"/>
+      <c r="S15" s="276"/>
+      <c r="T15" s="276"/>
+      <c r="U15" s="276"/>
+      <c r="V15" s="276"/>
+      <c r="W15" s="276"/>
+      <c r="X15" s="276"/>
+      <c r="Y15" s="276"/>
+      <c r="Z15" s="276"/>
+      <c r="AA15" s="276"/>
+      <c r="AB15" s="276"/>
+      <c r="AC15" s="276"/>
+      <c r="AD15" s="276"/>
+      <c r="AE15" s="276"/>
+      <c r="AF15" s="276"/>
+      <c r="AG15" s="276"/>
+      <c r="AH15" s="276"/>
+      <c r="AI15" s="276"/>
+      <c r="AJ15" s="276"/>
+      <c r="AK15" s="276"/>
+      <c r="AL15" s="276"/>
+      <c r="AM15" s="276"/>
+      <c r="AN15" s="276"/>
+      <c r="AO15" s="276"/>
+      <c r="AP15" s="276"/>
+      <c r="AQ15" s="276"/>
+      <c r="AR15" s="276"/>
+      <c r="AS15" s="276"/>
+      <c r="AT15" s="276"/>
+      <c r="AU15" s="276"/>
+      <c r="AV15" s="276"/>
+      <c r="AW15" s="276"/>
+      <c r="AX15" s="276"/>
+      <c r="AY15" s="276"/>
+      <c r="AZ15" s="276"/>
+      <c r="BA15" s="276"/>
+      <c r="BB15" s="276"/>
+      <c r="BC15" s="276"/>
+      <c r="BD15" s="276"/>
+    </row>
+    <row r="16" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J16">
+        <v>12</v>
+      </c>
+      <c r="K16" s="276"/>
+      <c r="L16" s="276"/>
+      <c r="M16" s="276"/>
+      <c r="N16" s="276"/>
+      <c r="O16" s="276"/>
+      <c r="P16" s="276"/>
+      <c r="Q16" s="276"/>
+      <c r="R16" s="276"/>
+      <c r="S16" s="276"/>
+      <c r="T16" s="276"/>
+      <c r="U16" s="276"/>
+      <c r="V16" s="276"/>
+      <c r="W16" s="276"/>
+      <c r="X16" s="276"/>
+      <c r="Y16" s="276"/>
+      <c r="Z16" s="276"/>
+      <c r="AA16" s="276"/>
+      <c r="AB16" s="276"/>
+      <c r="AC16" s="276"/>
+      <c r="AD16" s="276"/>
+      <c r="AE16" s="276"/>
+      <c r="AF16" s="276"/>
+      <c r="AG16" s="276"/>
+      <c r="AH16" s="276"/>
+      <c r="AI16" s="276"/>
+      <c r="AJ16" s="276"/>
+      <c r="AK16" s="276"/>
+      <c r="AL16" s="276"/>
+      <c r="AM16" s="276"/>
+      <c r="AN16" s="276"/>
+      <c r="AO16" s="276"/>
+      <c r="AP16" s="276"/>
+      <c r="AQ16" s="276"/>
+      <c r="AR16" s="276"/>
+      <c r="AS16" s="276"/>
+      <c r="AT16" s="276"/>
+      <c r="AU16" s="276"/>
+      <c r="AV16" s="276"/>
+      <c r="AW16" s="276"/>
+      <c r="AX16" s="276"/>
+      <c r="AY16" s="276"/>
+      <c r="AZ16" s="276"/>
+      <c r="BA16" s="276"/>
+      <c r="BB16" s="276"/>
+      <c r="BC16" s="276"/>
+      <c r="BD16" s="276"/>
+    </row>
+    <row r="17" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J17">
+        <v>13</v>
+      </c>
+      <c r="K17" s="276"/>
+      <c r="L17" s="276"/>
+      <c r="M17" s="276"/>
+      <c r="N17" s="276"/>
+      <c r="O17" s="276"/>
+      <c r="P17" s="276"/>
+      <c r="Q17" s="276"/>
+      <c r="R17" s="276"/>
+      <c r="S17" s="276"/>
+      <c r="T17" s="276"/>
+      <c r="U17" s="276"/>
+      <c r="V17" s="276"/>
+      <c r="W17" s="276"/>
+      <c r="X17" s="276"/>
+      <c r="Y17" s="276"/>
+      <c r="Z17" s="276"/>
+      <c r="AA17" s="276"/>
+      <c r="AB17" s="276"/>
+      <c r="AC17" s="276"/>
+      <c r="AD17" s="276"/>
+      <c r="AE17" s="276"/>
+      <c r="AF17" s="276"/>
+      <c r="AG17" s="276"/>
+      <c r="AH17" s="276"/>
+      <c r="AI17" s="276"/>
+      <c r="AJ17" s="276"/>
+      <c r="AK17" s="276"/>
+      <c r="AL17" s="276"/>
+      <c r="AM17" s="276"/>
+      <c r="AN17" s="276"/>
+      <c r="AO17" s="276"/>
+      <c r="AP17" s="276"/>
+      <c r="AQ17" s="276"/>
+      <c r="AR17" s="276"/>
+      <c r="AS17" s="276"/>
+      <c r="AT17" s="276"/>
+      <c r="AU17" s="276"/>
+      <c r="AV17" s="276"/>
+      <c r="AW17" s="276"/>
+      <c r="AX17" s="276"/>
+      <c r="AY17" s="276"/>
+      <c r="AZ17" s="276"/>
+      <c r="BA17" s="276"/>
+      <c r="BB17" s="276"/>
+      <c r="BC17" s="276"/>
+      <c r="BD17" s="276"/>
+    </row>
+    <row r="18" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J18">
+        <v>14</v>
+      </c>
+      <c r="K18" s="276"/>
+      <c r="L18" s="276"/>
+      <c r="M18" s="276"/>
+      <c r="N18" s="276"/>
+      <c r="O18" s="276"/>
+      <c r="P18" s="276"/>
+      <c r="Q18" s="276"/>
+      <c r="R18" s="276"/>
+      <c r="S18" s="276"/>
+      <c r="T18" s="276"/>
+      <c r="U18" s="276"/>
+      <c r="V18" s="276"/>
+      <c r="W18" s="276"/>
+      <c r="X18" s="276"/>
+      <c r="Y18" s="276"/>
+      <c r="Z18" s="276"/>
+      <c r="AA18" s="276"/>
+      <c r="AB18" s="276"/>
+      <c r="AC18" s="276"/>
+      <c r="AD18" s="276"/>
+      <c r="AE18" s="276"/>
+      <c r="AF18" s="276"/>
+      <c r="AG18" s="276"/>
+      <c r="AH18" s="276"/>
+      <c r="AI18" s="276"/>
+      <c r="AJ18" s="276"/>
+      <c r="AK18" s="276"/>
+      <c r="AL18" s="276"/>
+      <c r="AM18" s="276"/>
+      <c r="AN18" s="276"/>
+      <c r="AO18" s="276"/>
+      <c r="AP18" s="276"/>
+      <c r="AQ18" s="276"/>
+      <c r="AR18" s="276"/>
+      <c r="AS18" s="276"/>
+      <c r="AT18" s="276"/>
+      <c r="AU18" s="276"/>
+      <c r="AV18" s="276"/>
+      <c r="AW18" s="276"/>
+      <c r="AX18" s="276"/>
+      <c r="AY18" s="276"/>
+      <c r="AZ18" s="276"/>
+      <c r="BA18" s="276"/>
+      <c r="BB18" s="276"/>
+      <c r="BC18" s="276"/>
+      <c r="BD18" s="276"/>
+    </row>
+    <row r="19" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J19">
+        <v>15</v>
+      </c>
+      <c r="K19" s="276"/>
+      <c r="L19" s="276"/>
+      <c r="M19" s="276"/>
+      <c r="N19" s="276"/>
+      <c r="O19" s="276"/>
+      <c r="P19" s="276"/>
+      <c r="Q19" s="276"/>
+      <c r="R19" s="276"/>
+      <c r="S19" s="276"/>
+      <c r="T19" s="276"/>
+      <c r="U19" s="276"/>
+      <c r="V19" s="276"/>
+      <c r="W19" s="276"/>
+      <c r="X19" s="276"/>
+      <c r="Y19" s="276"/>
+      <c r="Z19" s="276"/>
+      <c r="AA19" s="276"/>
+      <c r="AB19" s="276"/>
+      <c r="AC19" s="276"/>
+      <c r="AD19" s="276"/>
+      <c r="AE19" s="276"/>
+      <c r="AF19" s="276"/>
+      <c r="AG19" s="276"/>
+      <c r="AH19" s="276"/>
+      <c r="AI19" s="276"/>
+      <c r="AJ19" s="276"/>
+      <c r="AK19" s="276"/>
+      <c r="AL19" s="276"/>
+      <c r="AM19" s="276"/>
+      <c r="AN19" s="276"/>
+      <c r="AO19" s="276"/>
+      <c r="AP19" s="276"/>
+      <c r="AQ19" s="276"/>
+      <c r="AR19" s="276"/>
+      <c r="AS19" s="276"/>
+      <c r="AT19" s="276"/>
+      <c r="AU19" s="276"/>
+      <c r="AV19" s="276"/>
+      <c r="AW19" s="276"/>
+      <c r="AX19" s="276"/>
+      <c r="AY19" s="276"/>
+      <c r="AZ19" s="276"/>
+      <c r="BA19" s="276"/>
+      <c r="BB19" s="276"/>
+      <c r="BC19" s="276"/>
+      <c r="BD19" s="276"/>
+    </row>
+    <row r="20" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J20">
+        <v>16</v>
+      </c>
+      <c r="K20" s="276"/>
+      <c r="L20" s="276"/>
+      <c r="M20" s="276"/>
+      <c r="N20" s="276"/>
+      <c r="O20" s="276"/>
+      <c r="P20" s="276"/>
+      <c r="Q20" s="276"/>
+      <c r="R20" s="276"/>
+      <c r="S20" s="276"/>
+      <c r="T20" s="276"/>
+      <c r="U20" s="276"/>
+      <c r="V20" s="276"/>
+      <c r="W20" s="276"/>
+      <c r="X20" s="276"/>
+      <c r="Y20" s="276"/>
+      <c r="Z20" s="276"/>
+      <c r="AA20" s="276"/>
+      <c r="AB20" s="276"/>
+      <c r="AC20" s="276"/>
+      <c r="AD20" s="276"/>
+      <c r="AE20" s="276"/>
+      <c r="AF20" s="276"/>
+      <c r="AG20" s="276"/>
+      <c r="AH20" s="276"/>
+      <c r="AI20" s="276"/>
+      <c r="AJ20" s="276"/>
+      <c r="AK20" s="276"/>
+      <c r="AL20" s="276"/>
+      <c r="AM20" s="276"/>
+      <c r="AN20" s="276"/>
+      <c r="AO20" s="276"/>
+      <c r="AP20" s="276"/>
+      <c r="AQ20" s="276"/>
+      <c r="AR20" s="276"/>
+      <c r="AS20" s="276"/>
+      <c r="AT20" s="276"/>
+      <c r="AU20" s="276"/>
+      <c r="AV20" s="276"/>
+      <c r="AW20" s="276"/>
+      <c r="AX20" s="276"/>
+      <c r="AY20" s="276"/>
+      <c r="AZ20" s="276"/>
+      <c r="BA20" s="276"/>
+      <c r="BB20" s="276"/>
+      <c r="BC20" s="276"/>
+      <c r="BD20" s="276"/>
+    </row>
+    <row r="21" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J21">
+        <v>17</v>
+      </c>
+      <c r="K21" s="276"/>
+      <c r="L21" s="276"/>
+      <c r="M21" s="276"/>
+      <c r="N21" s="276"/>
+      <c r="O21" s="276"/>
+      <c r="P21" s="276"/>
+      <c r="Q21" s="276"/>
+      <c r="R21" s="276"/>
+      <c r="S21" s="276"/>
+      <c r="T21" s="276"/>
+      <c r="U21" s="276"/>
+      <c r="V21" s="276"/>
+      <c r="W21" s="276"/>
+      <c r="X21" s="276"/>
+      <c r="Y21" s="276"/>
+      <c r="Z21" s="276"/>
+      <c r="AA21" s="276"/>
+      <c r="AB21" s="276"/>
+      <c r="AC21" s="276"/>
+      <c r="AD21" s="276"/>
+      <c r="AE21" s="276"/>
+      <c r="AF21" s="276"/>
+      <c r="AG21" s="276"/>
+      <c r="AH21" s="276"/>
+      <c r="AI21" s="276"/>
+      <c r="AJ21" s="276"/>
+      <c r="AK21" s="276"/>
+      <c r="AL21" s="276"/>
+      <c r="AM21" s="276"/>
+      <c r="AN21" s="276"/>
+      <c r="AO21" s="276"/>
+      <c r="AP21" s="276"/>
+      <c r="AQ21" s="276"/>
+      <c r="AR21" s="276"/>
+      <c r="AS21" s="276"/>
+      <c r="AT21" s="276"/>
+      <c r="AU21" s="276"/>
+      <c r="AV21" s="276"/>
+      <c r="AW21" s="276"/>
+      <c r="AX21" s="276"/>
+      <c r="AY21" s="276"/>
+      <c r="AZ21" s="276"/>
+      <c r="BA21" s="276"/>
+      <c r="BB21" s="276"/>
+      <c r="BC21" s="276"/>
+      <c r="BD21" s="276"/>
+    </row>
+    <row r="22" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J22">
+        <v>18</v>
+      </c>
+      <c r="K22" s="276"/>
+      <c r="L22" s="276"/>
+      <c r="M22" s="276"/>
+      <c r="N22" s="276"/>
+      <c r="O22" s="276"/>
+      <c r="P22" s="276"/>
+      <c r="Q22" s="276"/>
+      <c r="R22" s="276"/>
+      <c r="S22" s="276"/>
+      <c r="T22" s="276"/>
+      <c r="U22" s="276"/>
+      <c r="V22" s="276"/>
+      <c r="W22" s="276"/>
+      <c r="X22" s="276"/>
+      <c r="Y22" s="276"/>
+      <c r="Z22" s="276"/>
+      <c r="AA22" s="276"/>
+      <c r="AB22" s="276"/>
+      <c r="AC22" s="276"/>
+      <c r="AD22" s="276"/>
+      <c r="AE22" s="276"/>
+      <c r="AF22" s="276"/>
+      <c r="AG22" s="276"/>
+      <c r="AH22" s="276"/>
+      <c r="AI22" s="276"/>
+      <c r="AJ22" s="276"/>
+      <c r="AK22" s="276"/>
+      <c r="AL22" s="276"/>
+      <c r="AM22" s="276"/>
+      <c r="AN22" s="276"/>
+      <c r="AO22" s="276"/>
+      <c r="AP22" s="276"/>
+      <c r="AQ22" s="276"/>
+      <c r="AR22" s="276"/>
+      <c r="AS22" s="276"/>
+      <c r="AT22" s="276"/>
+      <c r="AU22" s="276"/>
+      <c r="AV22" s="276"/>
+      <c r="AW22" s="276"/>
+      <c r="AX22" s="276"/>
+      <c r="AY22" s="276"/>
+      <c r="AZ22" s="276"/>
+      <c r="BA22" s="276"/>
+      <c r="BB22" s="276"/>
+      <c r="BC22" s="276"/>
+      <c r="BD22" s="276"/>
+    </row>
+    <row r="23" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J23">
+        <v>19</v>
+      </c>
+      <c r="K23" s="276"/>
+      <c r="L23" s="276"/>
+      <c r="M23" s="276"/>
+      <c r="N23" s="276"/>
+      <c r="O23" s="276"/>
+      <c r="P23" s="276"/>
+      <c r="Q23" s="276"/>
+      <c r="R23" s="276"/>
+      <c r="S23" s="276"/>
+      <c r="T23" s="276"/>
+      <c r="U23" s="276"/>
+      <c r="V23" s="276"/>
+      <c r="W23" s="276"/>
+      <c r="X23" s="276"/>
+      <c r="Y23" s="276"/>
+      <c r="Z23" s="276"/>
+      <c r="AA23" s="276"/>
+      <c r="AB23" s="276"/>
+      <c r="AC23" s="276"/>
+      <c r="AD23" s="276"/>
+      <c r="AE23" s="276"/>
+      <c r="AF23" s="276"/>
+      <c r="AG23" s="276"/>
+      <c r="AH23" s="276"/>
+      <c r="AI23" s="276"/>
+      <c r="AJ23" s="276"/>
+      <c r="AK23" s="276"/>
+      <c r="AL23" s="276"/>
+      <c r="AM23" s="276"/>
+      <c r="AN23" s="276"/>
+      <c r="AO23" s="276"/>
+      <c r="AP23" s="276"/>
+      <c r="AQ23" s="276"/>
+      <c r="AR23" s="276"/>
+      <c r="AS23" s="276"/>
+      <c r="AT23" s="276"/>
+      <c r="AU23" s="276"/>
+      <c r="AV23" s="276"/>
+      <c r="AW23" s="276"/>
+      <c r="AX23" s="276"/>
+      <c r="AY23" s="276"/>
+      <c r="AZ23" s="276"/>
+      <c r="BA23" s="276"/>
+      <c r="BB23" s="276"/>
+      <c r="BC23" s="276"/>
+      <c r="BD23" s="276"/>
+    </row>
+    <row r="24" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J24">
+        <v>20</v>
+      </c>
+      <c r="K24" s="276"/>
+      <c r="L24" s="276"/>
+      <c r="M24" s="276"/>
+      <c r="N24" s="276"/>
+      <c r="O24" s="276"/>
+      <c r="P24" s="276"/>
+      <c r="Q24" s="276"/>
+      <c r="R24" s="276"/>
+      <c r="S24" s="276"/>
+      <c r="T24" s="276"/>
+      <c r="U24" s="276"/>
+      <c r="V24" s="276"/>
+      <c r="W24" s="276"/>
+      <c r="X24" s="276"/>
+      <c r="Y24" s="276"/>
+      <c r="Z24" s="276"/>
+      <c r="AA24" s="276"/>
+      <c r="AB24" s="276"/>
+      <c r="AC24" s="276"/>
+      <c r="AD24" s="276"/>
+      <c r="AE24" s="276"/>
+      <c r="AF24" s="276"/>
+      <c r="AG24" s="276"/>
+      <c r="AH24" s="276"/>
+      <c r="AI24" s="276"/>
+      <c r="AJ24" s="276"/>
+      <c r="AK24" s="276"/>
+      <c r="AL24" s="276"/>
+      <c r="AM24" s="276"/>
+      <c r="AN24" s="276"/>
+      <c r="AO24" s="276"/>
+      <c r="AP24" s="276"/>
+      <c r="AQ24" s="276"/>
+      <c r="AR24" s="276"/>
+      <c r="AS24" s="276"/>
+      <c r="AT24" s="276"/>
+      <c r="AU24" s="276"/>
+      <c r="AV24" s="276"/>
+      <c r="AW24" s="276"/>
+      <c r="AX24" s="276"/>
+      <c r="AY24" s="276"/>
+      <c r="AZ24" s="276"/>
+      <c r="BA24" s="276"/>
+      <c r="BB24" s="276"/>
+      <c r="BC24" s="276"/>
+      <c r="BD24" s="276"/>
+    </row>
+    <row r="25" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J25">
+        <v>21</v>
+      </c>
+      <c r="K25" s="276"/>
+      <c r="L25" s="276"/>
+      <c r="M25" s="276"/>
+      <c r="N25" s="276"/>
+      <c r="O25" s="276"/>
+      <c r="P25" s="276"/>
+      <c r="Q25" s="276"/>
+      <c r="R25" s="276"/>
+      <c r="S25" s="276"/>
+      <c r="T25" s="276"/>
+      <c r="U25" s="276"/>
+      <c r="V25" s="276"/>
+      <c r="W25" s="276"/>
+      <c r="X25" s="276"/>
+      <c r="Y25" s="276"/>
+      <c r="Z25" s="276"/>
+      <c r="AA25" s="276"/>
+      <c r="AB25" s="276"/>
+      <c r="AC25" s="276"/>
+      <c r="AD25" s="276"/>
+      <c r="AE25" s="276"/>
+      <c r="AF25" s="276"/>
+      <c r="AG25" s="276"/>
+      <c r="AH25" s="276"/>
+      <c r="AI25" s="276"/>
+      <c r="AJ25" s="276"/>
+      <c r="AK25" s="276"/>
+      <c r="AL25" s="276"/>
+      <c r="AM25" s="276"/>
+      <c r="AN25" s="276"/>
+      <c r="AO25" s="276"/>
+      <c r="AP25" s="276"/>
+      <c r="AQ25" s="276"/>
+      <c r="AR25" s="276"/>
+      <c r="AS25" s="276"/>
+      <c r="AT25" s="276"/>
+      <c r="AU25" s="276"/>
+      <c r="AV25" s="276"/>
+      <c r="AW25" s="276"/>
+      <c r="AX25" s="276"/>
+      <c r="AY25" s="276"/>
+      <c r="AZ25" s="276"/>
+      <c r="BA25" s="276"/>
+      <c r="BB25" s="276"/>
+      <c r="BC25" s="276"/>
+      <c r="BD25" s="276"/>
+    </row>
+    <row r="26" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J26">
+        <v>22</v>
+      </c>
+      <c r="K26" s="276"/>
+      <c r="L26" s="276"/>
+      <c r="M26" s="276"/>
+      <c r="N26" s="276"/>
+      <c r="O26" s="276"/>
+      <c r="P26" s="276"/>
+      <c r="Q26" s="276"/>
+      <c r="R26" s="276"/>
+      <c r="S26" s="276"/>
+      <c r="T26" s="276"/>
+      <c r="U26" s="276"/>
+      <c r="V26" s="276"/>
+      <c r="W26" s="276"/>
+      <c r="X26" s="276"/>
+      <c r="Y26" s="276"/>
+      <c r="Z26" s="276"/>
+      <c r="AA26" s="276"/>
+      <c r="AB26" s="276"/>
+      <c r="AC26" s="276"/>
+      <c r="AD26" s="276"/>
+      <c r="AE26" s="276"/>
+      <c r="AF26" s="276"/>
+      <c r="AG26" s="276"/>
+      <c r="AH26" s="276"/>
+      <c r="AI26" s="276"/>
+      <c r="AJ26" s="276"/>
+      <c r="AK26" s="276"/>
+      <c r="AL26" s="276"/>
+      <c r="AM26" s="276"/>
+      <c r="AN26" s="276"/>
+      <c r="AO26" s="276"/>
+      <c r="AP26" s="276"/>
+      <c r="AQ26" s="276"/>
+      <c r="AR26" s="276"/>
+      <c r="AS26" s="276"/>
+      <c r="AT26" s="276"/>
+      <c r="AU26" s="276"/>
+      <c r="AV26" s="276"/>
+      <c r="AW26" s="276"/>
+      <c r="AX26" s="276"/>
+      <c r="AY26" s="276"/>
+      <c r="AZ26" s="276"/>
+      <c r="BA26" s="276"/>
+      <c r="BB26" s="276"/>
+      <c r="BC26" s="276"/>
+      <c r="BD26" s="276"/>
+    </row>
+    <row r="27" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J27">
+        <v>23</v>
+      </c>
+      <c r="K27" s="276"/>
+      <c r="L27" s="276"/>
+      <c r="M27" s="276"/>
+      <c r="N27" s="276"/>
+      <c r="O27" s="276"/>
+      <c r="P27" s="276"/>
+      <c r="Q27" s="276"/>
+      <c r="R27" s="276"/>
+      <c r="S27" s="276"/>
+      <c r="T27" s="276"/>
+      <c r="U27" s="276"/>
+      <c r="V27" s="276"/>
+      <c r="W27" s="276"/>
+      <c r="X27" s="276"/>
+      <c r="Y27" s="276"/>
+      <c r="Z27" s="276"/>
+      <c r="AA27" s="276"/>
+      <c r="AB27" s="276"/>
+      <c r="AC27" s="276"/>
+      <c r="AD27" s="276"/>
+      <c r="AE27" s="276"/>
+      <c r="AF27" s="276"/>
+      <c r="AG27" s="276"/>
+      <c r="AH27" s="276"/>
+      <c r="AI27" s="276"/>
+      <c r="AJ27" s="276"/>
+      <c r="AK27" s="276"/>
+      <c r="AL27" s="276"/>
+      <c r="AM27" s="276"/>
+      <c r="AN27" s="276"/>
+      <c r="AO27" s="276"/>
+      <c r="AP27" s="276"/>
+      <c r="AQ27" s="276"/>
+      <c r="AR27" s="276"/>
+      <c r="AS27" s="276"/>
+      <c r="AT27" s="276"/>
+      <c r="AU27" s="276"/>
+      <c r="AV27" s="276"/>
+      <c r="AW27" s="276"/>
+      <c r="AX27" s="276"/>
+      <c r="AY27" s="276"/>
+      <c r="AZ27" s="276"/>
+      <c r="BA27" s="276"/>
+      <c r="BB27" s="276"/>
+      <c r="BC27" s="276"/>
+      <c r="BD27" s="276"/>
+    </row>
+    <row r="28" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J28">
+        <v>24</v>
+      </c>
+      <c r="K28" s="276"/>
+      <c r="L28" s="276"/>
+      <c r="M28" s="276"/>
+      <c r="N28" s="276"/>
+      <c r="O28" s="276"/>
+      <c r="P28" s="276"/>
+      <c r="Q28" s="276"/>
+      <c r="R28" s="276"/>
+      <c r="S28" s="276"/>
+      <c r="T28" s="276"/>
+      <c r="U28" s="276"/>
+      <c r="V28" s="276"/>
+      <c r="W28" s="276"/>
+      <c r="X28" s="276"/>
+      <c r="Y28" s="276"/>
+      <c r="Z28" s="276"/>
+      <c r="AA28" s="276"/>
+      <c r="AB28" s="276"/>
+      <c r="AC28" s="276"/>
+      <c r="AD28" s="276"/>
+      <c r="AE28" s="276"/>
+      <c r="AF28" s="276"/>
+      <c r="AG28" s="276"/>
+      <c r="AH28" s="276"/>
+      <c r="AI28" s="276"/>
+      <c r="AJ28" s="276"/>
+      <c r="AK28" s="276"/>
+      <c r="AL28" s="276"/>
+      <c r="AM28" s="276"/>
+      <c r="AN28" s="276"/>
+      <c r="AO28" s="276"/>
+      <c r="AP28" s="276"/>
+      <c r="AQ28" s="276"/>
+      <c r="AR28" s="276"/>
+      <c r="AS28" s="276"/>
+      <c r="AT28" s="276"/>
+      <c r="AU28" s="276"/>
+      <c r="AV28" s="276"/>
+      <c r="AW28" s="276"/>
+      <c r="AX28" s="276"/>
+      <c r="AY28" s="276"/>
+      <c r="AZ28" s="276"/>
+      <c r="BA28" s="276"/>
+      <c r="BB28" s="276"/>
+      <c r="BC28" s="276"/>
+      <c r="BD28" s="276"/>
+    </row>
+    <row r="29" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J29">
+        <v>25</v>
+      </c>
+      <c r="K29" s="276"/>
+      <c r="L29" s="276"/>
+      <c r="M29" s="276"/>
+      <c r="N29" s="276"/>
+      <c r="O29" s="276"/>
+      <c r="P29" s="276"/>
+      <c r="Q29" s="276"/>
+      <c r="R29" s="276"/>
+      <c r="S29" s="276"/>
+      <c r="T29" s="276"/>
+      <c r="U29" s="276"/>
+      <c r="V29" s="276"/>
+      <c r="W29" s="276"/>
+      <c r="X29" s="276"/>
+      <c r="Y29" s="276"/>
+      <c r="Z29" s="276"/>
+      <c r="AA29" s="276"/>
+      <c r="AB29" s="276"/>
+      <c r="AC29" s="276"/>
+      <c r="AD29" s="276"/>
+      <c r="AE29" s="276"/>
+      <c r="AF29" s="276"/>
+      <c r="AG29" s="276"/>
+      <c r="AH29" s="276"/>
+      <c r="AI29" s="276"/>
+      <c r="AJ29" s="276"/>
+      <c r="AK29" s="276"/>
+      <c r="AL29" s="276"/>
+      <c r="AM29" s="276"/>
+      <c r="AN29" s="276"/>
+      <c r="AO29" s="276"/>
+      <c r="AP29" s="276"/>
+      <c r="AQ29" s="276"/>
+      <c r="AR29" s="276"/>
+      <c r="AS29" s="276"/>
+      <c r="AT29" s="276"/>
+      <c r="AU29" s="276"/>
+      <c r="AV29" s="276"/>
+      <c r="AW29" s="276"/>
+      <c r="AX29" s="276"/>
+      <c r="AY29" s="276"/>
+      <c r="AZ29" s="276"/>
+      <c r="BA29" s="276"/>
+      <c r="BB29" s="276"/>
+      <c r="BC29" s="276"/>
+      <c r="BD29" s="276"/>
+    </row>
+    <row r="30" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J30">
+        <v>26</v>
+      </c>
+      <c r="K30" s="276"/>
+      <c r="L30" s="276"/>
+      <c r="M30" s="276"/>
+      <c r="N30" s="276"/>
+      <c r="O30" s="276"/>
+      <c r="P30" s="276"/>
+      <c r="Q30" s="276"/>
+      <c r="R30" s="276"/>
+      <c r="S30" s="276"/>
+      <c r="T30" s="276"/>
+      <c r="U30" s="276"/>
+      <c r="V30" s="276"/>
+      <c r="W30" s="276"/>
+      <c r="X30" s="276"/>
+      <c r="Y30" s="276"/>
+      <c r="Z30" s="276"/>
+      <c r="AA30" s="276"/>
+      <c r="AB30" s="276"/>
+      <c r="AC30" s="276"/>
+      <c r="AD30" s="276"/>
+      <c r="AE30" s="276"/>
+      <c r="AF30" s="276"/>
+      <c r="AG30" s="276"/>
+      <c r="AH30" s="276"/>
+      <c r="AI30" s="276"/>
+      <c r="AJ30" s="276"/>
+      <c r="AK30" s="276"/>
+      <c r="AL30" s="276"/>
+      <c r="AM30" s="276"/>
+      <c r="AN30" s="276"/>
+      <c r="AO30" s="276"/>
+      <c r="AP30" s="276"/>
+      <c r="AQ30" s="276"/>
+      <c r="AR30" s="276"/>
+      <c r="AS30" s="276"/>
+      <c r="AT30" s="276"/>
+      <c r="AU30" s="276"/>
+      <c r="AV30" s="276"/>
+      <c r="AW30" s="276"/>
+      <c r="AX30" s="276"/>
+      <c r="AY30" s="276"/>
+      <c r="AZ30" s="276"/>
+      <c r="BA30" s="276"/>
+      <c r="BB30" s="276"/>
+      <c r="BC30" s="276"/>
+      <c r="BD30" s="276"/>
+    </row>
+    <row r="31" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Assets/Level blueprint.xlsx
+++ b/Assets/Level blueprint.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco\Documents\GitHub\Horror_FPS\Assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\Documents\GitHub\Horror_FPS\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD8E8B3-3BCF-4664-8492-F3ACE2C7C3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Level 1" sheetId="1" r:id="rId1"/>
     <sheet name="Nursery" sheetId="3" r:id="rId2"/>
-    <sheet name="Hoja1" sheetId="4" r:id="rId3"/>
+    <sheet name="Floor Texture" sheetId="4" r:id="rId3"/>
+    <sheet name="Items" sheetId="5" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Items!$L$17:$O$33</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="181">
   <si>
     <t>Scale: 1sqr = 1mt</t>
   </si>
@@ -387,13 +390,196 @@
   </si>
   <si>
     <t>Piso de colores</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Linterna</t>
+  </si>
+  <si>
+    <t>Reloj</t>
+  </si>
+  <si>
+    <t>Jeringa</t>
+  </si>
+  <si>
+    <t>Llave</t>
+  </si>
+  <si>
+    <t>Pila</t>
+  </si>
+  <si>
+    <t>Radiocasetera</t>
+  </si>
+  <si>
+    <t>Cartas</t>
+  </si>
+  <si>
+    <t>Cuadernos</t>
+  </si>
+  <si>
+    <t>Juguetes</t>
+  </si>
+  <si>
+    <t>Dibujos</t>
+  </si>
+  <si>
+    <t>Libros</t>
+  </si>
+  <si>
+    <t>Lampara</t>
+  </si>
+  <si>
+    <t>Cubo rubik (Averiguar)</t>
+  </si>
+  <si>
+    <t>Ventilador</t>
+  </si>
+  <si>
+    <t>Insumos escolares</t>
+  </si>
+  <si>
+    <t>Parte 1</t>
+  </si>
+  <si>
+    <t>Parte 2</t>
+  </si>
+  <si>
+    <t>Parte 3</t>
+  </si>
+  <si>
+    <t>Armazon</t>
+  </si>
+  <si>
+    <t>Foco</t>
+  </si>
+  <si>
+    <t>Peluche</t>
+  </si>
+  <si>
+    <t>Peluche electrico</t>
+  </si>
+  <si>
+    <t>Cuchillo</t>
+  </si>
+  <si>
+    <t>Arma suicidio</t>
+  </si>
+  <si>
+    <t>Boligrafo</t>
+  </si>
+  <si>
+    <t>Carta</t>
+  </si>
+  <si>
+    <t>Papel blanco</t>
+  </si>
+  <si>
+    <t>Sobre</t>
+  </si>
+  <si>
+    <t>Vela prendida</t>
+  </si>
+  <si>
+    <t>Vela</t>
+  </si>
+  <si>
+    <t>Fosforo</t>
+  </si>
+  <si>
+    <t>Llaves con colores y formas</t>
+  </si>
+  <si>
+    <t>Cuadrado</t>
+  </si>
+  <si>
+    <t>Redondo</t>
+  </si>
+  <si>
+    <t>Triangulo</t>
+  </si>
+  <si>
+    <t>Rombo</t>
+  </si>
+  <si>
+    <t>Rojo</t>
+  </si>
+  <si>
+    <t>Azul</t>
+  </si>
+  <si>
+    <t>Verde</t>
+  </si>
+  <si>
+    <t>Amarillo</t>
+  </si>
+  <si>
+    <t>Puerta 14</t>
+  </si>
+  <si>
+    <t>Puerta 10</t>
+  </si>
+  <si>
+    <t>Puerta 11</t>
+  </si>
+  <si>
+    <t>Puerta 12</t>
+  </si>
+  <si>
+    <t>Puerta 13</t>
+  </si>
+  <si>
+    <t>Puerta 15</t>
+  </si>
+  <si>
+    <t>Puerta 16</t>
+  </si>
+  <si>
+    <t>Puerta 01</t>
+  </si>
+  <si>
+    <t>Puerta 02</t>
+  </si>
+  <si>
+    <t>Puerta 03</t>
+  </si>
+  <si>
+    <t>Puerta 04</t>
+  </si>
+  <si>
+    <t>Puerta 05</t>
+  </si>
+  <si>
+    <t>Puerta 06</t>
+  </si>
+  <si>
+    <t>Puerta 07</t>
+  </si>
+  <si>
+    <t>Puerta 08</t>
+  </si>
+  <si>
+    <t>Puerta 09</t>
+  </si>
+  <si>
+    <t>Llave de luz</t>
+  </si>
+  <si>
+    <t>Television</t>
+  </si>
+  <si>
+    <t>Trapo ensangrentado</t>
+  </si>
+  <si>
+    <t>Lavar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,6 +596,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -508,7 +702,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="128">
+  <borders count="129">
     <border>
       <left/>
       <right/>
@@ -2179,11 +2373,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="277">
+  <cellXfs count="283">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2998,6 +3203,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3010,7 +3216,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="111" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="111" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="111" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="128" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3295,19 +3508,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G2:CD41"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.28515625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="3.33203125" style="1"/>
+    <col min="1" max="16384" width="3.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="7:82" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="7:82" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I2" s="1">
         <v>1</v>
       </c>
@@ -3465,7 +3678,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="7:82" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="7:82" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="I3" s="2"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -3522,7 +3735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="7:82" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="7:82" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I4" s="9"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
@@ -3579,7 +3792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="7:82" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="7:82" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I5" s="9"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
@@ -3646,7 +3859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="7:82" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="7:82" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I6" s="9"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
@@ -3703,7 +3916,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="7:82" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="7:82" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H7" s="19"/>
       <c r="I7" s="18"/>
       <c r="J7" s="10"/>
@@ -3761,7 +3974,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="7:82" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="7:82" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G8" s="19"/>
       <c r="I8" s="18"/>
       <c r="J8" s="10"/>
@@ -3820,20 +4033,20 @@
       <c r="BI8" s="1">
         <v>6</v>
       </c>
-      <c r="BT8" s="273" t="s">
+      <c r="BT8" s="274" t="s">
         <v>0</v>
       </c>
-      <c r="BU8" s="274"/>
-      <c r="BV8" s="274"/>
-      <c r="BW8" s="274"/>
-      <c r="BX8" s="274"/>
-      <c r="BY8" s="274"/>
-      <c r="BZ8" s="274"/>
-      <c r="CA8" s="274"/>
-      <c r="CB8" s="274"/>
-      <c r="CC8" s="275"/>
-    </row>
-    <row r="9" spans="7:82" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BU8" s="275"/>
+      <c r="BV8" s="275"/>
+      <c r="BW8" s="275"/>
+      <c r="BX8" s="275"/>
+      <c r="BY8" s="275"/>
+      <c r="BZ8" s="275"/>
+      <c r="CA8" s="275"/>
+      <c r="CB8" s="275"/>
+      <c r="CC8" s="276"/>
+    </row>
+    <row r="9" spans="7:82" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I9" s="18"/>
       <c r="J9" s="27"/>
       <c r="K9" s="10"/>
@@ -3896,7 +4109,7 @@
       <c r="BT9" s="136"/>
       <c r="CC9" s="137"/>
     </row>
-    <row r="10" spans="7:82" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="7:82" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I10" s="33"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -3959,7 +4172,7 @@
       </c>
       <c r="CC10" s="137"/>
     </row>
-    <row r="11" spans="7:82" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="7:82" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I11" s="9"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
@@ -4019,7 +4232,7 @@
       <c r="BX11" s="133"/>
       <c r="CC11" s="137"/>
     </row>
-    <row r="12" spans="7:82" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="7:82" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I12" s="9"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
@@ -4092,7 +4305,7 @@
       </c>
       <c r="CC12" s="137"/>
     </row>
-    <row r="13" spans="7:82" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="7:82" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I13" s="9"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
@@ -4149,17 +4362,17 @@
         <v>11</v>
       </c>
       <c r="BT13" s="136"/>
-      <c r="BX13" s="272" t="s">
+      <c r="BX13" s="273" t="s">
         <v>64</v>
       </c>
-      <c r="BY13" s="272"/>
+      <c r="BY13" s="273"/>
       <c r="BZ13" s="133"/>
       <c r="CA13" s="133"/>
       <c r="CB13" s="133"/>
       <c r="CC13" s="150"/>
       <c r="CD13" s="133"/>
     </row>
-    <row r="14" spans="7:82" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="7:82" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I14" s="39"/>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
@@ -4218,15 +4431,15 @@
       <c r="BT14" s="136"/>
       <c r="BU14" s="131"/>
       <c r="BV14" s="131"/>
-      <c r="BX14" s="272"/>
-      <c r="BY14" s="272"/>
+      <c r="BX14" s="273"/>
+      <c r="BY14" s="273"/>
       <c r="BZ14" s="133"/>
       <c r="CA14" s="133"/>
       <c r="CB14" s="133"/>
       <c r="CC14" s="150"/>
       <c r="CD14" s="133"/>
     </row>
-    <row r="15" spans="7:82" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="7:82" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I15" s="41"/>
       <c r="J15" s="42"/>
       <c r="K15" s="42"/>
@@ -4283,17 +4496,17 @@
         <v>13</v>
       </c>
       <c r="BT15" s="136"/>
-      <c r="BX15" s="272" t="s">
+      <c r="BX15" s="273" t="s">
         <v>65</v>
       </c>
-      <c r="BY15" s="272"/>
-      <c r="BZ15" s="272"/>
-      <c r="CA15" s="272"/>
-      <c r="CB15" s="272"/>
+      <c r="BY15" s="273"/>
+      <c r="BZ15" s="273"/>
+      <c r="CA15" s="273"/>
+      <c r="CB15" s="273"/>
       <c r="CC15" s="151"/>
       <c r="CD15" s="149"/>
     </row>
-    <row r="16" spans="7:82" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="7:82" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I16" s="47"/>
       <c r="J16" s="48"/>
       <c r="K16" s="48"/>
@@ -4352,15 +4565,15 @@
       <c r="BT16" s="136"/>
       <c r="BU16" s="132"/>
       <c r="BV16" s="132"/>
-      <c r="BX16" s="272"/>
-      <c r="BY16" s="272"/>
-      <c r="BZ16" s="272"/>
-      <c r="CA16" s="272"/>
-      <c r="CB16" s="272"/>
+      <c r="BX16" s="273"/>
+      <c r="BY16" s="273"/>
+      <c r="BZ16" s="273"/>
+      <c r="CA16" s="273"/>
+      <c r="CB16" s="273"/>
       <c r="CC16" s="151"/>
       <c r="CD16" s="149"/>
     </row>
-    <row r="17" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I17" s="47"/>
       <c r="J17" s="48"/>
       <c r="K17" s="48"/>
@@ -4421,15 +4634,15 @@
         <v>15</v>
       </c>
       <c r="BT17" s="136"/>
-      <c r="BX17" s="272" t="s">
+      <c r="BX17" s="273" t="s">
         <v>66</v>
       </c>
-      <c r="BY17" s="272"/>
-      <c r="BZ17" s="272"/>
-      <c r="CA17" s="272"/>
+      <c r="BY17" s="273"/>
+      <c r="BZ17" s="273"/>
+      <c r="CA17" s="273"/>
       <c r="CC17" s="137"/>
     </row>
-    <row r="18" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I18" s="47"/>
       <c r="J18" s="48"/>
       <c r="K18" s="48"/>
@@ -4492,13 +4705,13 @@
       <c r="BT18" s="136"/>
       <c r="BU18" s="134"/>
       <c r="BV18" s="134"/>
-      <c r="BX18" s="272"/>
-      <c r="BY18" s="272"/>
-      <c r="BZ18" s="272"/>
-      <c r="CA18" s="272"/>
+      <c r="BX18" s="273"/>
+      <c r="BY18" s="273"/>
+      <c r="BZ18" s="273"/>
+      <c r="CA18" s="273"/>
       <c r="CC18" s="137"/>
     </row>
-    <row r="19" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I19" s="47"/>
       <c r="J19" s="48"/>
       <c r="K19" s="48"/>
@@ -4563,7 +4776,7 @@
       </c>
       <c r="CC19" s="137"/>
     </row>
-    <row r="20" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I20" s="47"/>
       <c r="J20" s="48"/>
       <c r="K20" s="48"/>
@@ -4624,7 +4837,7 @@
       <c r="BT20" s="136"/>
       <c r="CC20" s="137"/>
     </row>
-    <row r="21" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I21" s="47"/>
       <c r="J21" s="48"/>
       <c r="K21" s="48"/>
@@ -4685,13 +4898,13 @@
       <c r="BT21" s="136"/>
       <c r="BU21" s="140"/>
       <c r="BV21" s="141"/>
-      <c r="BX21" s="272" t="s">
+      <c r="BX21" s="273" t="s">
         <v>68</v>
       </c>
-      <c r="BY21" s="272"/>
+      <c r="BY21" s="273"/>
       <c r="CC21" s="137"/>
     </row>
-    <row r="22" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I22" s="47"/>
       <c r="J22" s="48"/>
       <c r="K22" s="48"/>
@@ -4750,11 +4963,11 @@
       <c r="BT22" s="136"/>
       <c r="BU22" s="138"/>
       <c r="BV22" s="139"/>
-      <c r="BX22" s="272"/>
-      <c r="BY22" s="272"/>
+      <c r="BX22" s="273"/>
+      <c r="BY22" s="273"/>
       <c r="CC22" s="137"/>
     </row>
-    <row r="23" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I23" s="47"/>
       <c r="J23" s="48"/>
       <c r="K23" s="48"/>
@@ -4825,7 +5038,7 @@
       <c r="BT23" s="136"/>
       <c r="CC23" s="137"/>
     </row>
-    <row r="24" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I24" s="47"/>
       <c r="J24" s="48"/>
       <c r="K24" s="48"/>
@@ -4891,7 +5104,7 @@
       </c>
       <c r="CC24" s="137"/>
     </row>
-    <row r="25" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I25" s="47"/>
       <c r="J25" s="48"/>
       <c r="K25" s="48"/>
@@ -4958,7 +5171,7 @@
       <c r="CB25" s="152"/>
       <c r="CC25" s="139"/>
     </row>
-    <row r="26" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I26" s="91"/>
       <c r="J26" s="69"/>
       <c r="K26" s="69"/>
@@ -5015,7 +5228,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I27" s="93"/>
       <c r="J27" s="94"/>
       <c r="K27" s="58"/>
@@ -5078,7 +5291,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I28" s="93"/>
       <c r="J28" s="95"/>
       <c r="K28" s="63"/>
@@ -5161,7 +5374,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I29" s="93"/>
       <c r="J29" s="95"/>
       <c r="K29" s="63"/>
@@ -5226,7 +5439,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I30" s="93"/>
       <c r="J30" s="95"/>
       <c r="K30" s="82"/>
@@ -5289,7 +5502,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I31" s="93"/>
       <c r="J31" s="95"/>
       <c r="K31" s="14"/>
@@ -5354,7 +5567,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I32" s="93"/>
       <c r="J32" s="95"/>
       <c r="K32" s="58"/>
@@ -5413,7 +5626,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="9:61" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="9:61" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I33" s="93"/>
       <c r="J33" s="95"/>
       <c r="K33" s="63"/>
@@ -5476,7 +5689,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="9:61" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="9:61" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I34" s="93"/>
       <c r="J34" s="95"/>
       <c r="K34" s="71"/>
@@ -5537,7 +5750,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="9:61" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="9:61" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I35" s="93"/>
       <c r="J35" s="95"/>
       <c r="K35" s="82"/>
@@ -5596,7 +5809,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="9:61" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="9:61" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I36" s="93"/>
       <c r="J36" s="95"/>
       <c r="K36" s="58"/>
@@ -5663,7 +5876,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="9:61" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="9:61" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I37" s="93"/>
       <c r="J37" s="95"/>
       <c r="K37" s="63"/>
@@ -5722,7 +5935,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="9:61" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="9:61" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I38" s="93"/>
       <c r="J38" s="95"/>
       <c r="K38" s="82"/>
@@ -5779,7 +5992,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="9:61" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="9:61" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I39" s="93"/>
       <c r="J39" s="52"/>
       <c r="K39" s="88"/>
@@ -5846,7 +6059,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="9:61" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="9:61" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I40" s="119"/>
       <c r="J40" s="120"/>
       <c r="K40" s="120"/>
@@ -5903,7 +6116,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="9:61" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="9:61" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="BX13:BY14"/>
@@ -5918,20 +6131,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B586CB-32E7-42A4-9067-BBE192B7452D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AY619"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="84" width="3.33203125" style="153" customWidth="1"/>
-    <col min="85" max="16384" width="11.5546875" style="153"/>
+    <col min="1" max="84" width="3.28515625" style="153" customWidth="1"/>
+    <col min="85" max="16384" width="11.5703125" style="153"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:51" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:51" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J1" s="155">
         <v>1</v>
       </c>
@@ -6045,7 +6258,7 @@
       <c r="AV1" s="155"/>
       <c r="AW1" s="155"/>
     </row>
-    <row r="2" spans="2:51" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:51" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H2" s="156"/>
       <c r="J2" s="170"/>
       <c r="K2" s="170"/>
@@ -6089,7 +6302,7 @@
       <c r="AW2" s="168"/>
       <c r="AX2" s="156"/>
     </row>
-    <row r="3" spans="2:51" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:51" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="153" t="s">
         <v>76</v>
       </c>
@@ -6136,7 +6349,7 @@
       <c r="AW3" s="169"/>
       <c r="AX3" s="156"/>
     </row>
-    <row r="4" spans="2:51" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:51" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H4" s="156"/>
       <c r="J4" s="167"/>
       <c r="K4" s="167"/>
@@ -6180,7 +6393,7 @@
       <c r="AW4" s="169"/>
       <c r="AX4" s="156"/>
     </row>
-    <row r="5" spans="2:51" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:51" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="159" t="s">
         <v>77</v>
       </c>
@@ -6230,7 +6443,7 @@
       <c r="AW5" s="169"/>
       <c r="AX5" s="156"/>
     </row>
-    <row r="6" spans="2:51" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:51" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B6" s="159" t="s">
         <v>79</v>
       </c>
@@ -6283,7 +6496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:51" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:51" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="159" t="s">
         <v>80</v>
       </c>
@@ -6336,7 +6549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:51" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:51" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="159" t="s">
         <v>81</v>
       </c>
@@ -6386,7 +6599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:51" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:51" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="159" t="s">
         <v>82</v>
       </c>
@@ -6444,7 +6657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:51" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:51" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="159" t="s">
         <v>87</v>
       </c>
@@ -6494,7 +6707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="159" t="s">
         <v>92</v>
       </c>
@@ -6548,7 +6761,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:51" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:51" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="159" t="s">
         <v>89</v>
       </c>
@@ -6600,7 +6813,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:51" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:51" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="159" t="s">
         <v>91</v>
       </c>
@@ -6656,7 +6869,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="159" t="s">
         <v>95</v>
       </c>
@@ -6709,7 +6922,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="159" t="s">
         <v>97</v>
       </c>
@@ -6764,7 +6977,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:51" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:51" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="159" t="s">
         <v>98</v>
       </c>
@@ -6817,7 +7030,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="153" t="s">
         <v>100</v>
       </c>
@@ -6869,7 +7082,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="159" t="s">
         <v>102</v>
       </c>
@@ -6922,7 +7135,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:51" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:51" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="159" t="s">
         <v>104</v>
       </c>
@@ -6977,7 +7190,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:51" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:51" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="159" t="s">
         <v>112</v>
       </c>
@@ -7022,7 +7235,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:51" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:51" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U21" s="154"/>
       <c r="V21" s="204"/>
       <c r="W21" s="205"/>
@@ -7061,7 +7274,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="158" t="s">
         <v>119</v>
       </c>
@@ -7080,603 +7293,603 @@
       <c r="AR22" s="157"/>
       <c r="AS22" s="157"/>
     </row>
-    <row r="23" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="177" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="184" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="185" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="186" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="187" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="188" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="189" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="190" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="193" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="194" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="195" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="196" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="197" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="198" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="201" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="202" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="203" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="204" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="205" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="206" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="207" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="208" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="209" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="210" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="211" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="212" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="213" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="214" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="215" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="216" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="217" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="218" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="219" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="220" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="221" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="222" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="223" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="224" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="225" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="226" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="227" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="228" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="229" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="230" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="231" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="232" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="233" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="234" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="235" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="236" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="237" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="238" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="239" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="240" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="241" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="242" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="243" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="244" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="245" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="246" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="247" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="248" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="249" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="250" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="251" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="252" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="253" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="254" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="255" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="256" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="257" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="258" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="259" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="260" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="261" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="262" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="263" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="264" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="265" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="266" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="267" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="268" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="269" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="270" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="271" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="272" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="273" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="274" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="275" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="276" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="277" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="278" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="279" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="280" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="281" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="282" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="283" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="284" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="285" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="286" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="287" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="288" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="289" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="290" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="291" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="292" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="293" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="294" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="295" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="296" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="297" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="298" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="299" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="300" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="301" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="302" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="303" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="304" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="305" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="306" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="307" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="308" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="309" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="310" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="311" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="312" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="313" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="314" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="315" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="316" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="317" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="318" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="319" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="320" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="321" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="322" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="323" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="324" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="325" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="326" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="327" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="328" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="329" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="330" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="331" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="332" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="333" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="334" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="335" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="336" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="337" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="338" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="339" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="340" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="341" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="342" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="343" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="344" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="345" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="346" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="347" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="348" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="349" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="350" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="351" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="352" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="353" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="354" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="355" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="356" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="357" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="358" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="359" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="360" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="361" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="362" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="363" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="364" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="365" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="366" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="367" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="368" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="369" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="370" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="371" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="372" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="373" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="374" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="375" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="376" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="377" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="378" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="379" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="380" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="381" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="382" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="383" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="384" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="385" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="386" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="387" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="388" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="389" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="390" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="391" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="392" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="393" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="394" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="395" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="396" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="397" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="398" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="399" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="400" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="401" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="402" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="403" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="404" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="405" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="406" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="407" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="408" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="409" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="410" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="411" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="412" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="413" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="414" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="415" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="416" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="417" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="418" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="419" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="420" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="421" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="422" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="423" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="424" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="425" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="426" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="427" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="428" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="429" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="430" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="431" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="432" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="433" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="434" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="435" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="436" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="437" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="438" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="439" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="440" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="441" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="442" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="443" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="444" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="445" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="446" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="447" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="448" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="449" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="450" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="451" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="452" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="453" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="454" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="455" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="456" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="457" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="458" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="459" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="460" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="461" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="462" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="463" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="464" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="465" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="466" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="467" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="468" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="469" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="470" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="471" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="472" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="473" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="474" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="475" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="476" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="477" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="478" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="479" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="480" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="481" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="482" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="483" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="484" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="485" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="486" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="487" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="488" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="489" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="490" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="491" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="492" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="493" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="494" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="495" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="496" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="497" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="498" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="499" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="500" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="501" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="502" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="503" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="504" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="505" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="506" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="507" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="508" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="509" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="510" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="511" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="512" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="513" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="514" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="515" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="516" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="517" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="518" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="519" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="520" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="521" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="522" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="523" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="524" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="525" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="526" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="527" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="528" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="529" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="530" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="531" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="532" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="533" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="534" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="535" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="536" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="537" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="538" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="539" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="540" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="541" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="542" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="543" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="544" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="545" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="546" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="547" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="548" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="549" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="550" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="551" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="552" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="553" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="554" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="555" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="556" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="557" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="558" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="559" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="560" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="561" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="562" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="563" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="564" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="565" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="566" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="567" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="568" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="569" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="570" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="571" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="572" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="573" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="574" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="575" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="576" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="577" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="578" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="579" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="580" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="581" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="582" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="583" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="584" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="585" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="586" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="587" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="588" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="589" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="590" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="591" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="592" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="593" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="594" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="595" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="596" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="597" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="598" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="599" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="600" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="601" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="602" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="603" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="604" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="605" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="606" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="607" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="608" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="609" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="610" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="611" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="612" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="613" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="614" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="615" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="616" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="617" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="618" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="619" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:51" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7684,22 +7897,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF73098-1079-4A7D-A479-5F4BAEC9A602}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="J1:BD183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:BD30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="78" width="3.33203125" customWidth="1"/>
+    <col min="1" max="78" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K4">
         <v>1</v>
       </c>
@@ -7839,1487 +8052,2018 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J5">
         <v>1</v>
       </c>
-      <c r="K5" s="276"/>
-      <c r="L5" s="276"/>
-      <c r="M5" s="276"/>
-      <c r="N5" s="276"/>
-      <c r="O5" s="276"/>
-      <c r="P5" s="276"/>
-      <c r="Q5" s="276"/>
-      <c r="R5" s="276"/>
-      <c r="S5" s="276"/>
-      <c r="T5" s="276"/>
-      <c r="U5" s="276"/>
-      <c r="V5" s="276"/>
-      <c r="W5" s="276"/>
-      <c r="X5" s="276"/>
-      <c r="Y5" s="276"/>
-      <c r="Z5" s="276"/>
-      <c r="AA5" s="276"/>
-      <c r="AB5" s="276"/>
-      <c r="AC5" s="276"/>
-      <c r="AD5" s="276"/>
-      <c r="AE5" s="276"/>
-      <c r="AF5" s="276"/>
-      <c r="AG5" s="276"/>
-      <c r="AH5" s="276"/>
-      <c r="AI5" s="276"/>
-      <c r="AJ5" s="276"/>
-      <c r="AK5" s="276"/>
-      <c r="AL5" s="276"/>
-      <c r="AM5" s="276"/>
-      <c r="AN5" s="276"/>
-      <c r="AO5" s="276"/>
-      <c r="AP5" s="276"/>
-      <c r="AQ5" s="276"/>
-      <c r="AR5" s="276"/>
-      <c r="AS5" s="276"/>
-      <c r="AT5" s="276"/>
-      <c r="AU5" s="276"/>
-      <c r="AV5" s="276"/>
-      <c r="AW5" s="276"/>
-      <c r="AX5" s="276"/>
-      <c r="AY5" s="276"/>
-      <c r="AZ5" s="276"/>
-      <c r="BA5" s="276"/>
-      <c r="BB5" s="276"/>
-      <c r="BC5" s="276"/>
-      <c r="BD5" s="276"/>
-    </row>
-    <row r="6" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K5" s="277"/>
+      <c r="L5" s="272"/>
+      <c r="M5" s="277"/>
+      <c r="N5" s="272"/>
+      <c r="O5" s="277"/>
+      <c r="P5" s="272"/>
+      <c r="Q5" s="277"/>
+      <c r="R5" s="272"/>
+      <c r="S5" s="277"/>
+      <c r="T5" s="272"/>
+      <c r="U5" s="277"/>
+      <c r="V5" s="272"/>
+      <c r="W5" s="277"/>
+      <c r="X5" s="272"/>
+      <c r="Y5" s="277"/>
+      <c r="Z5" s="272"/>
+      <c r="AA5" s="277"/>
+      <c r="AB5" s="272"/>
+      <c r="AC5" s="277"/>
+      <c r="AD5" s="272"/>
+      <c r="AE5" s="277"/>
+      <c r="AF5" s="272"/>
+      <c r="AG5" s="277"/>
+      <c r="AH5" s="272"/>
+      <c r="AI5" s="277"/>
+      <c r="AJ5" s="272"/>
+      <c r="AK5" s="277"/>
+      <c r="AL5" s="272"/>
+      <c r="AM5" s="277"/>
+      <c r="AN5" s="272"/>
+      <c r="AO5" s="277"/>
+      <c r="AP5" s="272"/>
+      <c r="AQ5" s="277"/>
+      <c r="AR5" s="272"/>
+      <c r="AS5" s="277"/>
+      <c r="AT5" s="272"/>
+      <c r="AU5" s="277"/>
+      <c r="AV5" s="272"/>
+      <c r="AW5" s="277"/>
+      <c r="AX5" s="272"/>
+      <c r="AY5" s="277"/>
+      <c r="AZ5" s="272"/>
+      <c r="BA5" s="277"/>
+      <c r="BB5" s="272"/>
+      <c r="BC5" s="277"/>
+      <c r="BD5" s="272"/>
+    </row>
+    <row r="6" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J6">
         <v>2</v>
       </c>
-      <c r="K6" s="276"/>
-      <c r="L6" s="276"/>
-      <c r="M6" s="276"/>
-      <c r="N6" s="276"/>
-      <c r="O6" s="276"/>
-      <c r="P6" s="276"/>
-      <c r="Q6" s="276"/>
-      <c r="R6" s="276"/>
-      <c r="S6" s="276"/>
-      <c r="T6" s="276"/>
-      <c r="U6" s="276"/>
-      <c r="V6" s="276"/>
-      <c r="W6" s="276"/>
-      <c r="X6" s="276"/>
-      <c r="Y6" s="276"/>
-      <c r="Z6" s="276"/>
-      <c r="AA6" s="276"/>
-      <c r="AB6" s="276"/>
-      <c r="AC6" s="276"/>
-      <c r="AD6" s="276"/>
-      <c r="AE6" s="276"/>
-      <c r="AF6" s="276"/>
-      <c r="AG6" s="276"/>
-      <c r="AH6" s="276"/>
-      <c r="AI6" s="276"/>
-      <c r="AJ6" s="276"/>
-      <c r="AK6" s="276"/>
-      <c r="AL6" s="276"/>
-      <c r="AM6" s="276"/>
-      <c r="AN6" s="276"/>
-      <c r="AO6" s="276"/>
-      <c r="AP6" s="276"/>
-      <c r="AQ6" s="276"/>
-      <c r="AR6" s="276"/>
-      <c r="AS6" s="276"/>
-      <c r="AT6" s="276"/>
-      <c r="AU6" s="276"/>
-      <c r="AV6" s="276"/>
-      <c r="AW6" s="276"/>
-      <c r="AX6" s="276"/>
-      <c r="AY6" s="276"/>
-      <c r="AZ6" s="276"/>
-      <c r="BA6" s="276"/>
-      <c r="BB6" s="276"/>
-      <c r="BC6" s="276"/>
-      <c r="BD6" s="276"/>
-    </row>
-    <row r="7" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K6" s="272"/>
+      <c r="L6" s="277"/>
+      <c r="M6" s="272"/>
+      <c r="N6" s="277"/>
+      <c r="O6" s="272"/>
+      <c r="P6" s="277"/>
+      <c r="Q6" s="272"/>
+      <c r="R6" s="277"/>
+      <c r="S6" s="272"/>
+      <c r="T6" s="277"/>
+      <c r="U6" s="272"/>
+      <c r="V6" s="277"/>
+      <c r="W6" s="272"/>
+      <c r="X6" s="277"/>
+      <c r="Y6" s="272"/>
+      <c r="Z6" s="277"/>
+      <c r="AA6" s="272"/>
+      <c r="AB6" s="277"/>
+      <c r="AC6" s="272"/>
+      <c r="AD6" s="277"/>
+      <c r="AE6" s="272"/>
+      <c r="AF6" s="277"/>
+      <c r="AG6" s="272"/>
+      <c r="AH6" s="277"/>
+      <c r="AI6" s="272"/>
+      <c r="AJ6" s="277"/>
+      <c r="AK6" s="272"/>
+      <c r="AL6" s="277"/>
+      <c r="AM6" s="272"/>
+      <c r="AN6" s="277"/>
+      <c r="AO6" s="272"/>
+      <c r="AP6" s="277"/>
+      <c r="AQ6" s="272"/>
+      <c r="AR6" s="277"/>
+      <c r="AS6" s="272"/>
+      <c r="AT6" s="277"/>
+      <c r="AU6" s="272"/>
+      <c r="AV6" s="277"/>
+      <c r="AW6" s="272"/>
+      <c r="AX6" s="277"/>
+      <c r="AY6" s="272"/>
+      <c r="AZ6" s="277"/>
+      <c r="BA6" s="272"/>
+      <c r="BB6" s="277"/>
+      <c r="BC6" s="272"/>
+      <c r="BD6" s="277"/>
+    </row>
+    <row r="7" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J7">
         <v>3</v>
       </c>
-      <c r="K7" s="276"/>
-      <c r="L7" s="276"/>
-      <c r="M7" s="276"/>
-      <c r="N7" s="276"/>
-      <c r="O7" s="276"/>
-      <c r="P7" s="276"/>
-      <c r="Q7" s="276"/>
-      <c r="R7" s="276"/>
-      <c r="S7" s="276"/>
-      <c r="T7" s="276"/>
-      <c r="U7" s="276"/>
-      <c r="V7" s="276"/>
-      <c r="W7" s="276"/>
-      <c r="X7" s="276"/>
-      <c r="Y7" s="276"/>
-      <c r="Z7" s="276"/>
-      <c r="AA7" s="276"/>
-      <c r="AB7" s="276"/>
-      <c r="AC7" s="276"/>
-      <c r="AD7" s="276"/>
-      <c r="AE7" s="276"/>
-      <c r="AF7" s="276"/>
-      <c r="AG7" s="276"/>
-      <c r="AH7" s="276"/>
-      <c r="AI7" s="276"/>
-      <c r="AJ7" s="276"/>
-      <c r="AK7" s="276"/>
-      <c r="AL7" s="276"/>
-      <c r="AM7" s="276"/>
-      <c r="AN7" s="276"/>
-      <c r="AO7" s="276"/>
-      <c r="AP7" s="276"/>
-      <c r="AQ7" s="276"/>
-      <c r="AR7" s="276"/>
-      <c r="AS7" s="276"/>
-      <c r="AT7" s="276"/>
-      <c r="AU7" s="276"/>
-      <c r="AV7" s="276"/>
-      <c r="AW7" s="276"/>
-      <c r="AX7" s="276"/>
-      <c r="AY7" s="276"/>
-      <c r="AZ7" s="276"/>
-      <c r="BA7" s="276"/>
-      <c r="BB7" s="276"/>
-      <c r="BC7" s="276"/>
-      <c r="BD7" s="276"/>
-    </row>
-    <row r="8" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K7" s="277"/>
+      <c r="L7" s="272"/>
+      <c r="M7" s="277"/>
+      <c r="N7" s="272"/>
+      <c r="O7" s="277"/>
+      <c r="P7" s="272"/>
+      <c r="Q7" s="277"/>
+      <c r="R7" s="272"/>
+      <c r="S7" s="277"/>
+      <c r="T7" s="272"/>
+      <c r="U7" s="277"/>
+      <c r="V7" s="272"/>
+      <c r="W7" s="277"/>
+      <c r="X7" s="272"/>
+      <c r="Y7" s="277"/>
+      <c r="Z7" s="272"/>
+      <c r="AA7" s="277"/>
+      <c r="AB7" s="272"/>
+      <c r="AC7" s="277"/>
+      <c r="AD7" s="272"/>
+      <c r="AE7" s="277"/>
+      <c r="AF7" s="272"/>
+      <c r="AG7" s="277"/>
+      <c r="AH7" s="272"/>
+      <c r="AI7" s="277"/>
+      <c r="AJ7" s="272"/>
+      <c r="AK7" s="277"/>
+      <c r="AL7" s="272"/>
+      <c r="AM7" s="277"/>
+      <c r="AN7" s="272"/>
+      <c r="AO7" s="277"/>
+      <c r="AP7" s="272"/>
+      <c r="AQ7" s="277"/>
+      <c r="AR7" s="272"/>
+      <c r="AS7" s="277"/>
+      <c r="AT7" s="272"/>
+      <c r="AU7" s="277"/>
+      <c r="AV7" s="272"/>
+      <c r="AW7" s="277"/>
+      <c r="AX7" s="272"/>
+      <c r="AY7" s="277"/>
+      <c r="AZ7" s="272"/>
+      <c r="BA7" s="277"/>
+      <c r="BB7" s="272"/>
+      <c r="BC7" s="277"/>
+      <c r="BD7" s="272"/>
+    </row>
+    <row r="8" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J8">
         <v>4</v>
       </c>
-      <c r="K8" s="276"/>
-      <c r="L8" s="276"/>
-      <c r="M8" s="276"/>
-      <c r="N8" s="276"/>
-      <c r="O8" s="276"/>
-      <c r="P8" s="276"/>
-      <c r="Q8" s="276"/>
-      <c r="R8" s="276"/>
-      <c r="S8" s="276"/>
-      <c r="T8" s="276"/>
-      <c r="U8" s="276"/>
-      <c r="V8" s="276"/>
-      <c r="W8" s="276"/>
-      <c r="X8" s="276"/>
-      <c r="Y8" s="276"/>
-      <c r="Z8" s="276"/>
-      <c r="AA8" s="276"/>
-      <c r="AB8" s="276"/>
-      <c r="AC8" s="276"/>
-      <c r="AD8" s="276"/>
-      <c r="AE8" s="276"/>
-      <c r="AF8" s="276"/>
-      <c r="AG8" s="276"/>
-      <c r="AH8" s="276"/>
-      <c r="AI8" s="276"/>
-      <c r="AJ8" s="276"/>
-      <c r="AK8" s="276"/>
-      <c r="AL8" s="276"/>
-      <c r="AM8" s="276"/>
-      <c r="AN8" s="276"/>
-      <c r="AO8" s="276"/>
-      <c r="AP8" s="276"/>
-      <c r="AQ8" s="276"/>
-      <c r="AR8" s="276"/>
-      <c r="AS8" s="276"/>
-      <c r="AT8" s="276"/>
-      <c r="AU8" s="276"/>
-      <c r="AV8" s="276"/>
-      <c r="AW8" s="276"/>
-      <c r="AX8" s="276"/>
-      <c r="AY8" s="276"/>
-      <c r="AZ8" s="276"/>
-      <c r="BA8" s="276"/>
-      <c r="BB8" s="276"/>
-      <c r="BC8" s="276"/>
-      <c r="BD8" s="276"/>
-    </row>
-    <row r="9" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K8" s="272"/>
+      <c r="L8" s="277"/>
+      <c r="M8" s="272"/>
+      <c r="N8" s="277"/>
+      <c r="O8" s="272"/>
+      <c r="P8" s="277"/>
+      <c r="Q8" s="272"/>
+      <c r="R8" s="277"/>
+      <c r="S8" s="272"/>
+      <c r="T8" s="277"/>
+      <c r="U8" s="272"/>
+      <c r="V8" s="277"/>
+      <c r="W8" s="272"/>
+      <c r="X8" s="277"/>
+      <c r="Y8" s="272"/>
+      <c r="Z8" s="277"/>
+      <c r="AA8" s="272"/>
+      <c r="AB8" s="277"/>
+      <c r="AC8" s="272"/>
+      <c r="AD8" s="277"/>
+      <c r="AE8" s="272"/>
+      <c r="AF8" s="277"/>
+      <c r="AG8" s="272"/>
+      <c r="AH8" s="277"/>
+      <c r="AI8" s="272"/>
+      <c r="AJ8" s="277"/>
+      <c r="AK8" s="272"/>
+      <c r="AL8" s="277"/>
+      <c r="AM8" s="272"/>
+      <c r="AN8" s="277"/>
+      <c r="AO8" s="272"/>
+      <c r="AP8" s="277"/>
+      <c r="AQ8" s="272"/>
+      <c r="AR8" s="277"/>
+      <c r="AS8" s="272"/>
+      <c r="AT8" s="277"/>
+      <c r="AU8" s="272"/>
+      <c r="AV8" s="277"/>
+      <c r="AW8" s="272"/>
+      <c r="AX8" s="277"/>
+      <c r="AY8" s="272"/>
+      <c r="AZ8" s="277"/>
+      <c r="BA8" s="272"/>
+      <c r="BB8" s="277"/>
+      <c r="BC8" s="272"/>
+      <c r="BD8" s="277"/>
+    </row>
+    <row r="9" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J9">
         <v>5</v>
       </c>
-      <c r="K9" s="276"/>
-      <c r="L9" s="276"/>
-      <c r="M9" s="276"/>
-      <c r="N9" s="276"/>
-      <c r="O9" s="276"/>
-      <c r="P9" s="276"/>
-      <c r="Q9" s="276"/>
-      <c r="R9" s="276"/>
-      <c r="S9" s="276"/>
-      <c r="T9" s="276"/>
-      <c r="U9" s="276"/>
-      <c r="V9" s="276"/>
-      <c r="W9" s="276"/>
-      <c r="X9" s="276"/>
-      <c r="Y9" s="276"/>
-      <c r="Z9" s="276"/>
-      <c r="AA9" s="276"/>
-      <c r="AB9" s="276"/>
-      <c r="AC9" s="276"/>
-      <c r="AD9" s="276"/>
-      <c r="AE9" s="276"/>
-      <c r="AF9" s="276"/>
-      <c r="AG9" s="276"/>
-      <c r="AH9" s="276"/>
-      <c r="AI9" s="276"/>
-      <c r="AJ9" s="276"/>
-      <c r="AK9" s="276"/>
-      <c r="AL9" s="276"/>
-      <c r="AM9" s="276"/>
-      <c r="AN9" s="276"/>
-      <c r="AO9" s="276"/>
-      <c r="AP9" s="276"/>
-      <c r="AQ9" s="276"/>
-      <c r="AR9" s="276"/>
-      <c r="AS9" s="276"/>
-      <c r="AT9" s="276"/>
-      <c r="AU9" s="276"/>
-      <c r="AV9" s="276"/>
-      <c r="AW9" s="276"/>
-      <c r="AX9" s="276"/>
-      <c r="AY9" s="276"/>
-      <c r="AZ9" s="276"/>
-      <c r="BA9" s="276"/>
-      <c r="BB9" s="276"/>
-      <c r="BC9" s="276"/>
-      <c r="BD9" s="276"/>
-    </row>
-    <row r="10" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K9" s="277"/>
+      <c r="L9" s="272"/>
+      <c r="M9" s="277"/>
+      <c r="N9" s="272"/>
+      <c r="O9" s="277"/>
+      <c r="P9" s="272"/>
+      <c r="Q9" s="277"/>
+      <c r="R9" s="272"/>
+      <c r="S9" s="277"/>
+      <c r="T9" s="272"/>
+      <c r="U9" s="277"/>
+      <c r="V9" s="272"/>
+      <c r="W9" s="277"/>
+      <c r="X9" s="272"/>
+      <c r="Y9" s="277"/>
+      <c r="Z9" s="272"/>
+      <c r="AA9" s="277"/>
+      <c r="AB9" s="272"/>
+      <c r="AC9" s="277"/>
+      <c r="AD9" s="272"/>
+      <c r="AE9" s="277"/>
+      <c r="AF9" s="272"/>
+      <c r="AG9" s="277"/>
+      <c r="AH9" s="272"/>
+      <c r="AI9" s="277"/>
+      <c r="AJ9" s="272"/>
+      <c r="AK9" s="277"/>
+      <c r="AL9" s="272"/>
+      <c r="AM9" s="277"/>
+      <c r="AN9" s="272"/>
+      <c r="AO9" s="277"/>
+      <c r="AP9" s="272"/>
+      <c r="AQ9" s="277"/>
+      <c r="AR9" s="272"/>
+      <c r="AS9" s="277"/>
+      <c r="AT9" s="272"/>
+      <c r="AU9" s="277"/>
+      <c r="AV9" s="272"/>
+      <c r="AW9" s="277"/>
+      <c r="AX9" s="272"/>
+      <c r="AY9" s="277"/>
+      <c r="AZ9" s="272"/>
+      <c r="BA9" s="277"/>
+      <c r="BB9" s="272"/>
+      <c r="BC9" s="277"/>
+      <c r="BD9" s="272"/>
+    </row>
+    <row r="10" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J10">
         <v>6</v>
       </c>
-      <c r="K10" s="276"/>
-      <c r="L10" s="276"/>
-      <c r="M10" s="276"/>
-      <c r="N10" s="276"/>
-      <c r="O10" s="276"/>
-      <c r="P10" s="276"/>
-      <c r="Q10" s="276"/>
-      <c r="R10" s="276"/>
-      <c r="S10" s="276"/>
-      <c r="T10" s="276"/>
-      <c r="U10" s="276"/>
-      <c r="V10" s="276"/>
-      <c r="W10" s="276"/>
-      <c r="X10" s="276"/>
-      <c r="Y10" s="276"/>
-      <c r="Z10" s="276"/>
-      <c r="AA10" s="276"/>
-      <c r="AB10" s="276"/>
-      <c r="AC10" s="276"/>
-      <c r="AD10" s="276"/>
-      <c r="AE10" s="276"/>
-      <c r="AF10" s="276"/>
-      <c r="AG10" s="276"/>
-      <c r="AH10" s="276"/>
-      <c r="AI10" s="276"/>
-      <c r="AJ10" s="276"/>
-      <c r="AK10" s="276"/>
-      <c r="AL10" s="276"/>
-      <c r="AM10" s="276"/>
-      <c r="AN10" s="276"/>
-      <c r="AO10" s="276"/>
-      <c r="AP10" s="276"/>
-      <c r="AQ10" s="276"/>
-      <c r="AR10" s="276"/>
-      <c r="AS10" s="276"/>
-      <c r="AT10" s="276"/>
-      <c r="AU10" s="276"/>
-      <c r="AV10" s="276"/>
-      <c r="AW10" s="276"/>
-      <c r="AX10" s="276"/>
-      <c r="AY10" s="276"/>
-      <c r="AZ10" s="276"/>
-      <c r="BA10" s="276"/>
-      <c r="BB10" s="276"/>
-      <c r="BC10" s="276"/>
-      <c r="BD10" s="276"/>
-    </row>
-    <row r="11" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K10" s="272"/>
+      <c r="L10" s="277"/>
+      <c r="M10" s="272"/>
+      <c r="N10" s="277"/>
+      <c r="O10" s="272"/>
+      <c r="P10" s="277"/>
+      <c r="Q10" s="272"/>
+      <c r="R10" s="277"/>
+      <c r="S10" s="272"/>
+      <c r="T10" s="277"/>
+      <c r="U10" s="272"/>
+      <c r="V10" s="277"/>
+      <c r="W10" s="272"/>
+      <c r="X10" s="277"/>
+      <c r="Y10" s="272"/>
+      <c r="Z10" s="277"/>
+      <c r="AA10" s="272"/>
+      <c r="AB10" s="277"/>
+      <c r="AC10" s="272"/>
+      <c r="AD10" s="277"/>
+      <c r="AE10" s="272"/>
+      <c r="AF10" s="277"/>
+      <c r="AG10" s="272"/>
+      <c r="AH10" s="277"/>
+      <c r="AI10" s="272"/>
+      <c r="AJ10" s="277"/>
+      <c r="AK10" s="272"/>
+      <c r="AL10" s="277"/>
+      <c r="AM10" s="272"/>
+      <c r="AN10" s="277"/>
+      <c r="AO10" s="272"/>
+      <c r="AP10" s="277"/>
+      <c r="AQ10" s="272"/>
+      <c r="AR10" s="277"/>
+      <c r="AS10" s="272"/>
+      <c r="AT10" s="277"/>
+      <c r="AU10" s="272"/>
+      <c r="AV10" s="277"/>
+      <c r="AW10" s="272"/>
+      <c r="AX10" s="277"/>
+      <c r="AY10" s="272"/>
+      <c r="AZ10" s="277"/>
+      <c r="BA10" s="272"/>
+      <c r="BB10" s="277"/>
+      <c r="BC10" s="272"/>
+      <c r="BD10" s="277"/>
+    </row>
+    <row r="11" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J11">
         <v>7</v>
       </c>
-      <c r="K11" s="276"/>
-      <c r="L11" s="276"/>
-      <c r="M11" s="276"/>
-      <c r="N11" s="276"/>
-      <c r="O11" s="276"/>
-      <c r="P11" s="276"/>
-      <c r="Q11" s="276"/>
-      <c r="R11" s="276"/>
-      <c r="S11" s="276"/>
-      <c r="T11" s="276"/>
-      <c r="U11" s="276"/>
-      <c r="V11" s="276"/>
-      <c r="W11" s="276"/>
-      <c r="X11" s="276"/>
-      <c r="Y11" s="276"/>
-      <c r="Z11" s="276"/>
-      <c r="AA11" s="276"/>
-      <c r="AB11" s="276"/>
-      <c r="AC11" s="276"/>
-      <c r="AD11" s="276"/>
-      <c r="AE11" s="276"/>
-      <c r="AF11" s="276"/>
-      <c r="AG11" s="276"/>
-      <c r="AH11" s="276"/>
-      <c r="AI11" s="276"/>
-      <c r="AJ11" s="276"/>
-      <c r="AK11" s="276"/>
-      <c r="AL11" s="276"/>
-      <c r="AM11" s="276"/>
-      <c r="AN11" s="276"/>
-      <c r="AO11" s="276"/>
-      <c r="AP11" s="276"/>
-      <c r="AQ11" s="276"/>
-      <c r="AR11" s="276"/>
-      <c r="AS11" s="276"/>
-      <c r="AT11" s="276"/>
-      <c r="AU11" s="276"/>
-      <c r="AV11" s="276"/>
-      <c r="AW11" s="276"/>
-      <c r="AX11" s="276"/>
-      <c r="AY11" s="276"/>
-      <c r="AZ11" s="276"/>
-      <c r="BA11" s="276"/>
-      <c r="BB11" s="276"/>
-      <c r="BC11" s="276"/>
-      <c r="BD11" s="276"/>
-    </row>
-    <row r="12" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K11" s="277"/>
+      <c r="L11" s="272"/>
+      <c r="M11" s="277"/>
+      <c r="N11" s="272"/>
+      <c r="O11" s="277"/>
+      <c r="P11" s="272"/>
+      <c r="Q11" s="277"/>
+      <c r="R11" s="272"/>
+      <c r="S11" s="277"/>
+      <c r="T11" s="272"/>
+      <c r="U11" s="277"/>
+      <c r="V11" s="272"/>
+      <c r="W11" s="277"/>
+      <c r="X11" s="272"/>
+      <c r="Y11" s="277"/>
+      <c r="Z11" s="272"/>
+      <c r="AA11" s="277"/>
+      <c r="AB11" s="272"/>
+      <c r="AC11" s="277"/>
+      <c r="AD11" s="272"/>
+      <c r="AE11" s="277"/>
+      <c r="AF11" s="272"/>
+      <c r="AG11" s="277"/>
+      <c r="AH11" s="272"/>
+      <c r="AI11" s="277"/>
+      <c r="AJ11" s="272"/>
+      <c r="AK11" s="277"/>
+      <c r="AL11" s="272"/>
+      <c r="AM11" s="277"/>
+      <c r="AN11" s="272"/>
+      <c r="AO11" s="277"/>
+      <c r="AP11" s="272"/>
+      <c r="AQ11" s="277"/>
+      <c r="AR11" s="272"/>
+      <c r="AS11" s="277"/>
+      <c r="AT11" s="272"/>
+      <c r="AU11" s="277"/>
+      <c r="AV11" s="272"/>
+      <c r="AW11" s="277"/>
+      <c r="AX11" s="272"/>
+      <c r="AY11" s="277"/>
+      <c r="AZ11" s="272"/>
+      <c r="BA11" s="277"/>
+      <c r="BB11" s="272"/>
+      <c r="BC11" s="277"/>
+      <c r="BD11" s="272"/>
+    </row>
+    <row r="12" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J12">
         <v>8</v>
       </c>
-      <c r="K12" s="276"/>
-      <c r="L12" s="276"/>
-      <c r="M12" s="276"/>
-      <c r="N12" s="276"/>
-      <c r="O12" s="276"/>
-      <c r="P12" s="276"/>
-      <c r="Q12" s="276"/>
-      <c r="R12" s="276"/>
-      <c r="S12" s="276"/>
-      <c r="T12" s="276"/>
-      <c r="U12" s="276"/>
-      <c r="V12" s="276"/>
-      <c r="W12" s="276"/>
-      <c r="X12" s="276"/>
-      <c r="Y12" s="276"/>
-      <c r="Z12" s="276"/>
-      <c r="AA12" s="276"/>
-      <c r="AB12" s="276"/>
-      <c r="AC12" s="276"/>
-      <c r="AD12" s="276"/>
-      <c r="AE12" s="276"/>
-      <c r="AF12" s="276"/>
-      <c r="AG12" s="276"/>
-      <c r="AH12" s="276"/>
-      <c r="AI12" s="276"/>
-      <c r="AJ12" s="276"/>
-      <c r="AK12" s="276"/>
-      <c r="AL12" s="276"/>
-      <c r="AM12" s="276"/>
-      <c r="AN12" s="276"/>
-      <c r="AO12" s="276"/>
-      <c r="AP12" s="276"/>
-      <c r="AQ12" s="276"/>
-      <c r="AR12" s="276"/>
-      <c r="AS12" s="276"/>
-      <c r="AT12" s="276"/>
-      <c r="AU12" s="276"/>
-      <c r="AV12" s="276"/>
-      <c r="AW12" s="276"/>
-      <c r="AX12" s="276"/>
-      <c r="AY12" s="276"/>
-      <c r="AZ12" s="276"/>
-      <c r="BA12" s="276"/>
-      <c r="BB12" s="276"/>
-      <c r="BC12" s="276"/>
-      <c r="BD12" s="276"/>
-    </row>
-    <row r="13" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K12" s="272"/>
+      <c r="L12" s="277"/>
+      <c r="M12" s="272"/>
+      <c r="N12" s="277"/>
+      <c r="O12" s="272"/>
+      <c r="P12" s="277"/>
+      <c r="Q12" s="272"/>
+      <c r="R12" s="277"/>
+      <c r="S12" s="272"/>
+      <c r="T12" s="277"/>
+      <c r="U12" s="272"/>
+      <c r="V12" s="277"/>
+      <c r="W12" s="272"/>
+      <c r="X12" s="277"/>
+      <c r="Y12" s="272"/>
+      <c r="Z12" s="277"/>
+      <c r="AA12" s="272"/>
+      <c r="AB12" s="277"/>
+      <c r="AC12" s="272"/>
+      <c r="AD12" s="277"/>
+      <c r="AE12" s="272"/>
+      <c r="AF12" s="277"/>
+      <c r="AG12" s="272"/>
+      <c r="AH12" s="277"/>
+      <c r="AI12" s="272"/>
+      <c r="AJ12" s="277"/>
+      <c r="AK12" s="272"/>
+      <c r="AL12" s="277"/>
+      <c r="AM12" s="272"/>
+      <c r="AN12" s="277"/>
+      <c r="AO12" s="272"/>
+      <c r="AP12" s="277"/>
+      <c r="AQ12" s="272"/>
+      <c r="AR12" s="277"/>
+      <c r="AS12" s="272"/>
+      <c r="AT12" s="277"/>
+      <c r="AU12" s="272"/>
+      <c r="AV12" s="277"/>
+      <c r="AW12" s="272"/>
+      <c r="AX12" s="277"/>
+      <c r="AY12" s="272"/>
+      <c r="AZ12" s="277"/>
+      <c r="BA12" s="272"/>
+      <c r="BB12" s="277"/>
+      <c r="BC12" s="272"/>
+      <c r="BD12" s="277"/>
+    </row>
+    <row r="13" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J13">
         <v>9</v>
       </c>
-      <c r="K13" s="276"/>
-      <c r="L13" s="276"/>
-      <c r="M13" s="276"/>
-      <c r="N13" s="276"/>
-      <c r="O13" s="276"/>
-      <c r="P13" s="276"/>
-      <c r="Q13" s="276"/>
-      <c r="R13" s="276"/>
-      <c r="S13" s="276"/>
-      <c r="T13" s="276"/>
-      <c r="U13" s="276"/>
-      <c r="V13" s="276"/>
-      <c r="W13" s="276"/>
-      <c r="X13" s="276"/>
-      <c r="Y13" s="276"/>
-      <c r="Z13" s="276"/>
-      <c r="AA13" s="276"/>
-      <c r="AB13" s="276"/>
-      <c r="AC13" s="276"/>
-      <c r="AD13" s="276"/>
-      <c r="AE13" s="276"/>
-      <c r="AF13" s="276"/>
-      <c r="AG13" s="276"/>
-      <c r="AH13" s="276"/>
-      <c r="AI13" s="276"/>
-      <c r="AJ13" s="276"/>
-      <c r="AK13" s="276"/>
-      <c r="AL13" s="276"/>
-      <c r="AM13" s="276"/>
-      <c r="AN13" s="276"/>
-      <c r="AO13" s="276"/>
-      <c r="AP13" s="276"/>
-      <c r="AQ13" s="276"/>
-      <c r="AR13" s="276"/>
-      <c r="AS13" s="276"/>
-      <c r="AT13" s="276"/>
-      <c r="AU13" s="276"/>
-      <c r="AV13" s="276"/>
-      <c r="AW13" s="276"/>
-      <c r="AX13" s="276"/>
-      <c r="AY13" s="276"/>
-      <c r="AZ13" s="276"/>
-      <c r="BA13" s="276"/>
-      <c r="BB13" s="276"/>
-      <c r="BC13" s="276"/>
-      <c r="BD13" s="276"/>
-    </row>
-    <row r="14" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K13" s="277"/>
+      <c r="L13" s="272"/>
+      <c r="M13" s="277"/>
+      <c r="N13" s="272"/>
+      <c r="O13" s="277"/>
+      <c r="P13" s="272"/>
+      <c r="Q13" s="277"/>
+      <c r="R13" s="272"/>
+      <c r="S13" s="277"/>
+      <c r="T13" s="272"/>
+      <c r="U13" s="277"/>
+      <c r="V13" s="272"/>
+      <c r="W13" s="277"/>
+      <c r="X13" s="272"/>
+      <c r="Y13" s="277"/>
+      <c r="Z13" s="272"/>
+      <c r="AA13" s="277"/>
+      <c r="AB13" s="272"/>
+      <c r="AC13" s="277"/>
+      <c r="AD13" s="272"/>
+      <c r="AE13" s="277"/>
+      <c r="AF13" s="272"/>
+      <c r="AG13" s="277"/>
+      <c r="AH13" s="272"/>
+      <c r="AI13" s="277"/>
+      <c r="AJ13" s="272"/>
+      <c r="AK13" s="277"/>
+      <c r="AL13" s="272"/>
+      <c r="AM13" s="277"/>
+      <c r="AN13" s="272"/>
+      <c r="AO13" s="277"/>
+      <c r="AP13" s="272"/>
+      <c r="AQ13" s="277"/>
+      <c r="AR13" s="272"/>
+      <c r="AS13" s="277"/>
+      <c r="AT13" s="272"/>
+      <c r="AU13" s="277"/>
+      <c r="AV13" s="272"/>
+      <c r="AW13" s="277"/>
+      <c r="AX13" s="272"/>
+      <c r="AY13" s="277"/>
+      <c r="AZ13" s="272"/>
+      <c r="BA13" s="277"/>
+      <c r="BB13" s="272"/>
+      <c r="BC13" s="277"/>
+      <c r="BD13" s="272"/>
+    </row>
+    <row r="14" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J14">
         <v>10</v>
       </c>
-      <c r="K14" s="276"/>
-      <c r="L14" s="276"/>
-      <c r="M14" s="276"/>
-      <c r="N14" s="276"/>
-      <c r="O14" s="276"/>
-      <c r="P14" s="276"/>
-      <c r="Q14" s="276"/>
-      <c r="R14" s="276"/>
-      <c r="S14" s="276"/>
-      <c r="T14" s="276"/>
-      <c r="U14" s="276"/>
-      <c r="V14" s="276"/>
-      <c r="W14" s="276"/>
-      <c r="X14" s="276"/>
-      <c r="Y14" s="276"/>
-      <c r="Z14" s="276"/>
-      <c r="AA14" s="276"/>
-      <c r="AB14" s="276"/>
-      <c r="AC14" s="276"/>
-      <c r="AD14" s="276"/>
-      <c r="AE14" s="276"/>
-      <c r="AF14" s="276"/>
-      <c r="AG14" s="276"/>
-      <c r="AH14" s="276"/>
-      <c r="AI14" s="276"/>
-      <c r="AJ14" s="276"/>
-      <c r="AK14" s="276"/>
-      <c r="AL14" s="276"/>
-      <c r="AM14" s="276"/>
-      <c r="AN14" s="276"/>
-      <c r="AO14" s="276"/>
-      <c r="AP14" s="276"/>
-      <c r="AQ14" s="276"/>
-      <c r="AR14" s="276"/>
-      <c r="AS14" s="276"/>
-      <c r="AT14" s="276"/>
-      <c r="AU14" s="276"/>
-      <c r="AV14" s="276"/>
-      <c r="AW14" s="276"/>
-      <c r="AX14" s="276"/>
-      <c r="AY14" s="276"/>
-      <c r="AZ14" s="276"/>
-      <c r="BA14" s="276"/>
-      <c r="BB14" s="276"/>
-      <c r="BC14" s="276"/>
-      <c r="BD14" s="276"/>
-    </row>
-    <row r="15" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K14" s="272"/>
+      <c r="L14" s="277"/>
+      <c r="M14" s="272"/>
+      <c r="N14" s="277"/>
+      <c r="O14" s="272"/>
+      <c r="P14" s="277"/>
+      <c r="Q14" s="272"/>
+      <c r="R14" s="277"/>
+      <c r="S14" s="272"/>
+      <c r="T14" s="277"/>
+      <c r="U14" s="272"/>
+      <c r="V14" s="277"/>
+      <c r="W14" s="272"/>
+      <c r="X14" s="277"/>
+      <c r="Y14" s="272"/>
+      <c r="Z14" s="277"/>
+      <c r="AA14" s="272"/>
+      <c r="AB14" s="277"/>
+      <c r="AC14" s="272"/>
+      <c r="AD14" s="277"/>
+      <c r="AE14" s="272"/>
+      <c r="AF14" s="277"/>
+      <c r="AG14" s="272"/>
+      <c r="AH14" s="277"/>
+      <c r="AI14" s="272"/>
+      <c r="AJ14" s="277"/>
+      <c r="AK14" s="272"/>
+      <c r="AL14" s="277"/>
+      <c r="AM14" s="272"/>
+      <c r="AN14" s="277"/>
+      <c r="AO14" s="272"/>
+      <c r="AP14" s="277"/>
+      <c r="AQ14" s="272"/>
+      <c r="AR14" s="277"/>
+      <c r="AS14" s="272"/>
+      <c r="AT14" s="277"/>
+      <c r="AU14" s="272"/>
+      <c r="AV14" s="277"/>
+      <c r="AW14" s="272"/>
+      <c r="AX14" s="277"/>
+      <c r="AY14" s="272"/>
+      <c r="AZ14" s="277"/>
+      <c r="BA14" s="272"/>
+      <c r="BB14" s="277"/>
+      <c r="BC14" s="272"/>
+      <c r="BD14" s="277"/>
+    </row>
+    <row r="15" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J15">
         <v>11</v>
       </c>
-      <c r="K15" s="276"/>
-      <c r="L15" s="276"/>
-      <c r="M15" s="276"/>
-      <c r="N15" s="276"/>
-      <c r="O15" s="276"/>
-      <c r="P15" s="276"/>
-      <c r="Q15" s="276"/>
-      <c r="R15" s="276"/>
-      <c r="S15" s="276"/>
-      <c r="T15" s="276"/>
-      <c r="U15" s="276"/>
-      <c r="V15" s="276"/>
-      <c r="W15" s="276"/>
-      <c r="X15" s="276"/>
-      <c r="Y15" s="276"/>
-      <c r="Z15" s="276"/>
-      <c r="AA15" s="276"/>
-      <c r="AB15" s="276"/>
-      <c r="AC15" s="276"/>
-      <c r="AD15" s="276"/>
-      <c r="AE15" s="276"/>
-      <c r="AF15" s="276"/>
-      <c r="AG15" s="276"/>
-      <c r="AH15" s="276"/>
-      <c r="AI15" s="276"/>
-      <c r="AJ15" s="276"/>
-      <c r="AK15" s="276"/>
-      <c r="AL15" s="276"/>
-      <c r="AM15" s="276"/>
-      <c r="AN15" s="276"/>
-      <c r="AO15" s="276"/>
-      <c r="AP15" s="276"/>
-      <c r="AQ15" s="276"/>
-      <c r="AR15" s="276"/>
-      <c r="AS15" s="276"/>
-      <c r="AT15" s="276"/>
-      <c r="AU15" s="276"/>
-      <c r="AV15" s="276"/>
-      <c r="AW15" s="276"/>
-      <c r="AX15" s="276"/>
-      <c r="AY15" s="276"/>
-      <c r="AZ15" s="276"/>
-      <c r="BA15" s="276"/>
-      <c r="BB15" s="276"/>
-      <c r="BC15" s="276"/>
-      <c r="BD15" s="276"/>
-    </row>
-    <row r="16" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K15" s="277"/>
+      <c r="L15" s="272"/>
+      <c r="M15" s="277"/>
+      <c r="N15" s="272"/>
+      <c r="O15" s="277"/>
+      <c r="P15" s="272"/>
+      <c r="Q15" s="277"/>
+      <c r="R15" s="272"/>
+      <c r="S15" s="277"/>
+      <c r="T15" s="272"/>
+      <c r="U15" s="277"/>
+      <c r="V15" s="272"/>
+      <c r="W15" s="277"/>
+      <c r="X15" s="272"/>
+      <c r="Y15" s="277"/>
+      <c r="Z15" s="272"/>
+      <c r="AA15" s="277"/>
+      <c r="AB15" s="272"/>
+      <c r="AC15" s="277"/>
+      <c r="AD15" s="272"/>
+      <c r="AE15" s="277"/>
+      <c r="AF15" s="272"/>
+      <c r="AG15" s="277"/>
+      <c r="AH15" s="272"/>
+      <c r="AI15" s="277"/>
+      <c r="AJ15" s="272"/>
+      <c r="AK15" s="277"/>
+      <c r="AL15" s="272"/>
+      <c r="AM15" s="277"/>
+      <c r="AN15" s="272"/>
+      <c r="AO15" s="277"/>
+      <c r="AP15" s="272"/>
+      <c r="AQ15" s="277"/>
+      <c r="AR15" s="272"/>
+      <c r="AS15" s="277"/>
+      <c r="AT15" s="272"/>
+      <c r="AU15" s="277"/>
+      <c r="AV15" s="272"/>
+      <c r="AW15" s="277"/>
+      <c r="AX15" s="272"/>
+      <c r="AY15" s="277"/>
+      <c r="AZ15" s="272"/>
+      <c r="BA15" s="277"/>
+      <c r="BB15" s="272"/>
+      <c r="BC15" s="277"/>
+      <c r="BD15" s="272"/>
+    </row>
+    <row r="16" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J16">
         <v>12</v>
       </c>
-      <c r="K16" s="276"/>
-      <c r="L16" s="276"/>
-      <c r="M16" s="276"/>
-      <c r="N16" s="276"/>
-      <c r="O16" s="276"/>
-      <c r="P16" s="276"/>
-      <c r="Q16" s="276"/>
-      <c r="R16" s="276"/>
-      <c r="S16" s="276"/>
-      <c r="T16" s="276"/>
-      <c r="U16" s="276"/>
-      <c r="V16" s="276"/>
-      <c r="W16" s="276"/>
-      <c r="X16" s="276"/>
-      <c r="Y16" s="276"/>
-      <c r="Z16" s="276"/>
-      <c r="AA16" s="276"/>
-      <c r="AB16" s="276"/>
-      <c r="AC16" s="276"/>
-      <c r="AD16" s="276"/>
-      <c r="AE16" s="276"/>
-      <c r="AF16" s="276"/>
-      <c r="AG16" s="276"/>
-      <c r="AH16" s="276"/>
-      <c r="AI16" s="276"/>
-      <c r="AJ16" s="276"/>
-      <c r="AK16" s="276"/>
-      <c r="AL16" s="276"/>
-      <c r="AM16" s="276"/>
-      <c r="AN16" s="276"/>
-      <c r="AO16" s="276"/>
-      <c r="AP16" s="276"/>
-      <c r="AQ16" s="276"/>
-      <c r="AR16" s="276"/>
-      <c r="AS16" s="276"/>
-      <c r="AT16" s="276"/>
-      <c r="AU16" s="276"/>
-      <c r="AV16" s="276"/>
-      <c r="AW16" s="276"/>
-      <c r="AX16" s="276"/>
-      <c r="AY16" s="276"/>
-      <c r="AZ16" s="276"/>
-      <c r="BA16" s="276"/>
-      <c r="BB16" s="276"/>
-      <c r="BC16" s="276"/>
-      <c r="BD16" s="276"/>
-    </row>
-    <row r="17" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K16" s="272"/>
+      <c r="L16" s="277"/>
+      <c r="M16" s="272"/>
+      <c r="N16" s="277"/>
+      <c r="O16" s="272"/>
+      <c r="P16" s="277"/>
+      <c r="Q16" s="272"/>
+      <c r="R16" s="277"/>
+      <c r="S16" s="272"/>
+      <c r="T16" s="277"/>
+      <c r="U16" s="272"/>
+      <c r="V16" s="277"/>
+      <c r="W16" s="272"/>
+      <c r="X16" s="277"/>
+      <c r="Y16" s="272"/>
+      <c r="Z16" s="277"/>
+      <c r="AA16" s="272"/>
+      <c r="AB16" s="277"/>
+      <c r="AC16" s="272"/>
+      <c r="AD16" s="277"/>
+      <c r="AE16" s="272"/>
+      <c r="AF16" s="277"/>
+      <c r="AG16" s="272"/>
+      <c r="AH16" s="277"/>
+      <c r="AI16" s="272"/>
+      <c r="AJ16" s="277"/>
+      <c r="AK16" s="272"/>
+      <c r="AL16" s="277"/>
+      <c r="AM16" s="272"/>
+      <c r="AN16" s="277"/>
+      <c r="AO16" s="272"/>
+      <c r="AP16" s="277"/>
+      <c r="AQ16" s="272"/>
+      <c r="AR16" s="277"/>
+      <c r="AS16" s="272"/>
+      <c r="AT16" s="277"/>
+      <c r="AU16" s="272"/>
+      <c r="AV16" s="277"/>
+      <c r="AW16" s="272"/>
+      <c r="AX16" s="277"/>
+      <c r="AY16" s="272"/>
+      <c r="AZ16" s="277"/>
+      <c r="BA16" s="272"/>
+      <c r="BB16" s="277"/>
+      <c r="BC16" s="272"/>
+      <c r="BD16" s="277"/>
+    </row>
+    <row r="17" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J17">
         <v>13</v>
       </c>
-      <c r="K17" s="276"/>
-      <c r="L17" s="276"/>
-      <c r="M17" s="276"/>
-      <c r="N17" s="276"/>
-      <c r="O17" s="276"/>
-      <c r="P17" s="276"/>
-      <c r="Q17" s="276"/>
-      <c r="R17" s="276"/>
-      <c r="S17" s="276"/>
-      <c r="T17" s="276"/>
-      <c r="U17" s="276"/>
-      <c r="V17" s="276"/>
-      <c r="W17" s="276"/>
-      <c r="X17" s="276"/>
-      <c r="Y17" s="276"/>
-      <c r="Z17" s="276"/>
-      <c r="AA17" s="276"/>
-      <c r="AB17" s="276"/>
-      <c r="AC17" s="276"/>
-      <c r="AD17" s="276"/>
-      <c r="AE17" s="276"/>
-      <c r="AF17" s="276"/>
-      <c r="AG17" s="276"/>
-      <c r="AH17" s="276"/>
-      <c r="AI17" s="276"/>
-      <c r="AJ17" s="276"/>
-      <c r="AK17" s="276"/>
-      <c r="AL17" s="276"/>
-      <c r="AM17" s="276"/>
-      <c r="AN17" s="276"/>
-      <c r="AO17" s="276"/>
-      <c r="AP17" s="276"/>
-      <c r="AQ17" s="276"/>
-      <c r="AR17" s="276"/>
-      <c r="AS17" s="276"/>
-      <c r="AT17" s="276"/>
-      <c r="AU17" s="276"/>
-      <c r="AV17" s="276"/>
-      <c r="AW17" s="276"/>
-      <c r="AX17" s="276"/>
-      <c r="AY17" s="276"/>
-      <c r="AZ17" s="276"/>
-      <c r="BA17" s="276"/>
-      <c r="BB17" s="276"/>
-      <c r="BC17" s="276"/>
-      <c r="BD17" s="276"/>
-    </row>
-    <row r="18" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K17" s="277"/>
+      <c r="L17" s="272"/>
+      <c r="M17" s="277"/>
+      <c r="N17" s="272"/>
+      <c r="O17" s="277"/>
+      <c r="P17" s="272"/>
+      <c r="Q17" s="277"/>
+      <c r="R17" s="272"/>
+      <c r="S17" s="277"/>
+      <c r="T17" s="272"/>
+      <c r="U17" s="277"/>
+      <c r="V17" s="272"/>
+      <c r="W17" s="277"/>
+      <c r="X17" s="272"/>
+      <c r="Y17" s="277"/>
+      <c r="Z17" s="272"/>
+      <c r="AA17" s="277"/>
+      <c r="AB17" s="272"/>
+      <c r="AC17" s="277"/>
+      <c r="AD17" s="272"/>
+      <c r="AE17" s="277"/>
+      <c r="AF17" s="272"/>
+      <c r="AG17" s="277"/>
+      <c r="AH17" s="272"/>
+      <c r="AI17" s="277"/>
+      <c r="AJ17" s="272"/>
+      <c r="AK17" s="277"/>
+      <c r="AL17" s="272"/>
+      <c r="AM17" s="277"/>
+      <c r="AN17" s="272"/>
+      <c r="AO17" s="277"/>
+      <c r="AP17" s="272"/>
+      <c r="AQ17" s="277"/>
+      <c r="AR17" s="272"/>
+      <c r="AS17" s="277"/>
+      <c r="AT17" s="272"/>
+      <c r="AU17" s="277"/>
+      <c r="AV17" s="272"/>
+      <c r="AW17" s="277"/>
+      <c r="AX17" s="272"/>
+      <c r="AY17" s="277"/>
+      <c r="AZ17" s="272"/>
+      <c r="BA17" s="277"/>
+      <c r="BB17" s="272"/>
+      <c r="BC17" s="277"/>
+      <c r="BD17" s="272"/>
+    </row>
+    <row r="18" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J18">
         <v>14</v>
       </c>
-      <c r="K18" s="276"/>
-      <c r="L18" s="276"/>
-      <c r="M18" s="276"/>
-      <c r="N18" s="276"/>
-      <c r="O18" s="276"/>
-      <c r="P18" s="276"/>
-      <c r="Q18" s="276"/>
-      <c r="R18" s="276"/>
-      <c r="S18" s="276"/>
-      <c r="T18" s="276"/>
-      <c r="U18" s="276"/>
-      <c r="V18" s="276"/>
-      <c r="W18" s="276"/>
-      <c r="X18" s="276"/>
-      <c r="Y18" s="276"/>
-      <c r="Z18" s="276"/>
-      <c r="AA18" s="276"/>
-      <c r="AB18" s="276"/>
-      <c r="AC18" s="276"/>
-      <c r="AD18" s="276"/>
-      <c r="AE18" s="276"/>
-      <c r="AF18" s="276"/>
-      <c r="AG18" s="276"/>
-      <c r="AH18" s="276"/>
-      <c r="AI18" s="276"/>
-      <c r="AJ18" s="276"/>
-      <c r="AK18" s="276"/>
-      <c r="AL18" s="276"/>
-      <c r="AM18" s="276"/>
-      <c r="AN18" s="276"/>
-      <c r="AO18" s="276"/>
-      <c r="AP18" s="276"/>
-      <c r="AQ18" s="276"/>
-      <c r="AR18" s="276"/>
-      <c r="AS18" s="276"/>
-      <c r="AT18" s="276"/>
-      <c r="AU18" s="276"/>
-      <c r="AV18" s="276"/>
-      <c r="AW18" s="276"/>
-      <c r="AX18" s="276"/>
-      <c r="AY18" s="276"/>
-      <c r="AZ18" s="276"/>
-      <c r="BA18" s="276"/>
-      <c r="BB18" s="276"/>
-      <c r="BC18" s="276"/>
-      <c r="BD18" s="276"/>
-    </row>
-    <row r="19" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K18" s="272"/>
+      <c r="L18" s="277"/>
+      <c r="M18" s="272"/>
+      <c r="N18" s="277"/>
+      <c r="O18" s="272"/>
+      <c r="P18" s="277"/>
+      <c r="Q18" s="272"/>
+      <c r="R18" s="277"/>
+      <c r="S18" s="272"/>
+      <c r="T18" s="277"/>
+      <c r="U18" s="272"/>
+      <c r="V18" s="277"/>
+      <c r="W18" s="272"/>
+      <c r="X18" s="277"/>
+      <c r="Y18" s="272"/>
+      <c r="Z18" s="277"/>
+      <c r="AA18" s="272"/>
+      <c r="AB18" s="277"/>
+      <c r="AC18" s="272"/>
+      <c r="AD18" s="277"/>
+      <c r="AE18" s="272"/>
+      <c r="AF18" s="277"/>
+      <c r="AG18" s="272"/>
+      <c r="AH18" s="277"/>
+      <c r="AI18" s="272"/>
+      <c r="AJ18" s="277"/>
+      <c r="AK18" s="272"/>
+      <c r="AL18" s="277"/>
+      <c r="AM18" s="272"/>
+      <c r="AN18" s="277"/>
+      <c r="AO18" s="272"/>
+      <c r="AP18" s="277"/>
+      <c r="AQ18" s="272"/>
+      <c r="AR18" s="277"/>
+      <c r="AS18" s="272"/>
+      <c r="AT18" s="277"/>
+      <c r="AU18" s="272"/>
+      <c r="AV18" s="277"/>
+      <c r="AW18" s="272"/>
+      <c r="AX18" s="277"/>
+      <c r="AY18" s="272"/>
+      <c r="AZ18" s="277"/>
+      <c r="BA18" s="272"/>
+      <c r="BB18" s="277"/>
+      <c r="BC18" s="272"/>
+      <c r="BD18" s="277"/>
+    </row>
+    <row r="19" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J19">
         <v>15</v>
       </c>
-      <c r="K19" s="276"/>
-      <c r="L19" s="276"/>
-      <c r="M19" s="276"/>
-      <c r="N19" s="276"/>
-      <c r="O19" s="276"/>
-      <c r="P19" s="276"/>
-      <c r="Q19" s="276"/>
-      <c r="R19" s="276"/>
-      <c r="S19" s="276"/>
-      <c r="T19" s="276"/>
-      <c r="U19" s="276"/>
-      <c r="V19" s="276"/>
-      <c r="W19" s="276"/>
-      <c r="X19" s="276"/>
-      <c r="Y19" s="276"/>
-      <c r="Z19" s="276"/>
-      <c r="AA19" s="276"/>
-      <c r="AB19" s="276"/>
-      <c r="AC19" s="276"/>
-      <c r="AD19" s="276"/>
-      <c r="AE19" s="276"/>
-      <c r="AF19" s="276"/>
-      <c r="AG19" s="276"/>
-      <c r="AH19" s="276"/>
-      <c r="AI19" s="276"/>
-      <c r="AJ19" s="276"/>
-      <c r="AK19" s="276"/>
-      <c r="AL19" s="276"/>
-      <c r="AM19" s="276"/>
-      <c r="AN19" s="276"/>
-      <c r="AO19" s="276"/>
-      <c r="AP19" s="276"/>
-      <c r="AQ19" s="276"/>
-      <c r="AR19" s="276"/>
-      <c r="AS19" s="276"/>
-      <c r="AT19" s="276"/>
-      <c r="AU19" s="276"/>
-      <c r="AV19" s="276"/>
-      <c r="AW19" s="276"/>
-      <c r="AX19" s="276"/>
-      <c r="AY19" s="276"/>
-      <c r="AZ19" s="276"/>
-      <c r="BA19" s="276"/>
-      <c r="BB19" s="276"/>
-      <c r="BC19" s="276"/>
-      <c r="BD19" s="276"/>
-    </row>
-    <row r="20" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K19" s="277"/>
+      <c r="L19" s="272"/>
+      <c r="M19" s="277"/>
+      <c r="N19" s="272"/>
+      <c r="O19" s="277"/>
+      <c r="P19" s="272"/>
+      <c r="Q19" s="277"/>
+      <c r="R19" s="272"/>
+      <c r="S19" s="277"/>
+      <c r="T19" s="272"/>
+      <c r="U19" s="277"/>
+      <c r="V19" s="272"/>
+      <c r="W19" s="277"/>
+      <c r="X19" s="272"/>
+      <c r="Y19" s="277"/>
+      <c r="Z19" s="272"/>
+      <c r="AA19" s="277"/>
+      <c r="AB19" s="272"/>
+      <c r="AC19" s="277"/>
+      <c r="AD19" s="272"/>
+      <c r="AE19" s="277"/>
+      <c r="AF19" s="272"/>
+      <c r="AG19" s="277"/>
+      <c r="AH19" s="272"/>
+      <c r="AI19" s="277"/>
+      <c r="AJ19" s="272"/>
+      <c r="AK19" s="277"/>
+      <c r="AL19" s="272"/>
+      <c r="AM19" s="277"/>
+      <c r="AN19" s="272"/>
+      <c r="AO19" s="277"/>
+      <c r="AP19" s="272"/>
+      <c r="AQ19" s="277"/>
+      <c r="AR19" s="272"/>
+      <c r="AS19" s="277"/>
+      <c r="AT19" s="272"/>
+      <c r="AU19" s="277"/>
+      <c r="AV19" s="272"/>
+      <c r="AW19" s="277"/>
+      <c r="AX19" s="272"/>
+      <c r="AY19" s="277"/>
+      <c r="AZ19" s="272"/>
+      <c r="BA19" s="277"/>
+      <c r="BB19" s="272"/>
+      <c r="BC19" s="277"/>
+      <c r="BD19" s="272"/>
+    </row>
+    <row r="20" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J20">
         <v>16</v>
       </c>
-      <c r="K20" s="276"/>
-      <c r="L20" s="276"/>
-      <c r="M20" s="276"/>
-      <c r="N20" s="276"/>
-      <c r="O20" s="276"/>
-      <c r="P20" s="276"/>
-      <c r="Q20" s="276"/>
-      <c r="R20" s="276"/>
-      <c r="S20" s="276"/>
-      <c r="T20" s="276"/>
-      <c r="U20" s="276"/>
-      <c r="V20" s="276"/>
-      <c r="W20" s="276"/>
-      <c r="X20" s="276"/>
-      <c r="Y20" s="276"/>
-      <c r="Z20" s="276"/>
-      <c r="AA20" s="276"/>
-      <c r="AB20" s="276"/>
-      <c r="AC20" s="276"/>
-      <c r="AD20" s="276"/>
-      <c r="AE20" s="276"/>
-      <c r="AF20" s="276"/>
-      <c r="AG20" s="276"/>
-      <c r="AH20" s="276"/>
-      <c r="AI20" s="276"/>
-      <c r="AJ20" s="276"/>
-      <c r="AK20" s="276"/>
-      <c r="AL20" s="276"/>
-      <c r="AM20" s="276"/>
-      <c r="AN20" s="276"/>
-      <c r="AO20" s="276"/>
-      <c r="AP20" s="276"/>
-      <c r="AQ20" s="276"/>
-      <c r="AR20" s="276"/>
-      <c r="AS20" s="276"/>
-      <c r="AT20" s="276"/>
-      <c r="AU20" s="276"/>
-      <c r="AV20" s="276"/>
-      <c r="AW20" s="276"/>
-      <c r="AX20" s="276"/>
-      <c r="AY20" s="276"/>
-      <c r="AZ20" s="276"/>
-      <c r="BA20" s="276"/>
-      <c r="BB20" s="276"/>
-      <c r="BC20" s="276"/>
-      <c r="BD20" s="276"/>
-    </row>
-    <row r="21" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K20" s="272"/>
+      <c r="L20" s="277"/>
+      <c r="M20" s="272"/>
+      <c r="N20" s="277"/>
+      <c r="O20" s="272"/>
+      <c r="P20" s="277"/>
+      <c r="Q20" s="272"/>
+      <c r="R20" s="277"/>
+      <c r="S20" s="272"/>
+      <c r="T20" s="277"/>
+      <c r="U20" s="272"/>
+      <c r="V20" s="277"/>
+      <c r="W20" s="272"/>
+      <c r="X20" s="277"/>
+      <c r="Y20" s="272"/>
+      <c r="Z20" s="277"/>
+      <c r="AA20" s="272"/>
+      <c r="AB20" s="277"/>
+      <c r="AC20" s="272"/>
+      <c r="AD20" s="277"/>
+      <c r="AE20" s="272"/>
+      <c r="AF20" s="277"/>
+      <c r="AG20" s="272"/>
+      <c r="AH20" s="277"/>
+      <c r="AI20" s="272"/>
+      <c r="AJ20" s="277"/>
+      <c r="AK20" s="272"/>
+      <c r="AL20" s="277"/>
+      <c r="AM20" s="272"/>
+      <c r="AN20" s="277"/>
+      <c r="AO20" s="272"/>
+      <c r="AP20" s="277"/>
+      <c r="AQ20" s="272"/>
+      <c r="AR20" s="277"/>
+      <c r="AS20" s="272"/>
+      <c r="AT20" s="277"/>
+      <c r="AU20" s="272"/>
+      <c r="AV20" s="277"/>
+      <c r="AW20" s="272"/>
+      <c r="AX20" s="277"/>
+      <c r="AY20" s="272"/>
+      <c r="AZ20" s="277"/>
+      <c r="BA20" s="272"/>
+      <c r="BB20" s="277"/>
+      <c r="BC20" s="272"/>
+      <c r="BD20" s="277"/>
+    </row>
+    <row r="21" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J21">
         <v>17</v>
       </c>
-      <c r="K21" s="276"/>
-      <c r="L21" s="276"/>
-      <c r="M21" s="276"/>
-      <c r="N21" s="276"/>
-      <c r="O21" s="276"/>
-      <c r="P21" s="276"/>
-      <c r="Q21" s="276"/>
-      <c r="R21" s="276"/>
-      <c r="S21" s="276"/>
-      <c r="T21" s="276"/>
-      <c r="U21" s="276"/>
-      <c r="V21" s="276"/>
-      <c r="W21" s="276"/>
-      <c r="X21" s="276"/>
-      <c r="Y21" s="276"/>
-      <c r="Z21" s="276"/>
-      <c r="AA21" s="276"/>
-      <c r="AB21" s="276"/>
-      <c r="AC21" s="276"/>
-      <c r="AD21" s="276"/>
-      <c r="AE21" s="276"/>
-      <c r="AF21" s="276"/>
-      <c r="AG21" s="276"/>
-      <c r="AH21" s="276"/>
-      <c r="AI21" s="276"/>
-      <c r="AJ21" s="276"/>
-      <c r="AK21" s="276"/>
-      <c r="AL21" s="276"/>
-      <c r="AM21" s="276"/>
-      <c r="AN21" s="276"/>
-      <c r="AO21" s="276"/>
-      <c r="AP21" s="276"/>
-      <c r="AQ21" s="276"/>
-      <c r="AR21" s="276"/>
-      <c r="AS21" s="276"/>
-      <c r="AT21" s="276"/>
-      <c r="AU21" s="276"/>
-      <c r="AV21" s="276"/>
-      <c r="AW21" s="276"/>
-      <c r="AX21" s="276"/>
-      <c r="AY21" s="276"/>
-      <c r="AZ21" s="276"/>
-      <c r="BA21" s="276"/>
-      <c r="BB21" s="276"/>
-      <c r="BC21" s="276"/>
-      <c r="BD21" s="276"/>
-    </row>
-    <row r="22" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K21" s="277"/>
+      <c r="L21" s="272"/>
+      <c r="M21" s="277"/>
+      <c r="N21" s="272"/>
+      <c r="O21" s="277"/>
+      <c r="P21" s="272"/>
+      <c r="Q21" s="277"/>
+      <c r="R21" s="272"/>
+      <c r="S21" s="277"/>
+      <c r="T21" s="272"/>
+      <c r="U21" s="277"/>
+      <c r="V21" s="272"/>
+      <c r="W21" s="277"/>
+      <c r="X21" s="272"/>
+      <c r="Y21" s="277"/>
+      <c r="Z21" s="272"/>
+      <c r="AA21" s="277"/>
+      <c r="AB21" s="272"/>
+      <c r="AC21" s="277"/>
+      <c r="AD21" s="272"/>
+      <c r="AE21" s="277"/>
+      <c r="AF21" s="272"/>
+      <c r="AG21" s="277"/>
+      <c r="AH21" s="272"/>
+      <c r="AI21" s="277"/>
+      <c r="AJ21" s="272"/>
+      <c r="AK21" s="277"/>
+      <c r="AL21" s="272"/>
+      <c r="AM21" s="277"/>
+      <c r="AN21" s="272"/>
+      <c r="AO21" s="277"/>
+      <c r="AP21" s="272"/>
+      <c r="AQ21" s="277"/>
+      <c r="AR21" s="272"/>
+      <c r="AS21" s="277"/>
+      <c r="AT21" s="272"/>
+      <c r="AU21" s="277"/>
+      <c r="AV21" s="272"/>
+      <c r="AW21" s="277"/>
+      <c r="AX21" s="272"/>
+      <c r="AY21" s="277"/>
+      <c r="AZ21" s="272"/>
+      <c r="BA21" s="277"/>
+      <c r="BB21" s="272"/>
+      <c r="BC21" s="277"/>
+      <c r="BD21" s="272"/>
+    </row>
+    <row r="22" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J22">
         <v>18</v>
       </c>
-      <c r="K22" s="276"/>
-      <c r="L22" s="276"/>
-      <c r="M22" s="276"/>
-      <c r="N22" s="276"/>
-      <c r="O22" s="276"/>
-      <c r="P22" s="276"/>
-      <c r="Q22" s="276"/>
-      <c r="R22" s="276"/>
-      <c r="S22" s="276"/>
-      <c r="T22" s="276"/>
-      <c r="U22" s="276"/>
-      <c r="V22" s="276"/>
-      <c r="W22" s="276"/>
-      <c r="X22" s="276"/>
-      <c r="Y22" s="276"/>
-      <c r="Z22" s="276"/>
-      <c r="AA22" s="276"/>
-      <c r="AB22" s="276"/>
-      <c r="AC22" s="276"/>
-      <c r="AD22" s="276"/>
-      <c r="AE22" s="276"/>
-      <c r="AF22" s="276"/>
-      <c r="AG22" s="276"/>
-      <c r="AH22" s="276"/>
-      <c r="AI22" s="276"/>
-      <c r="AJ22" s="276"/>
-      <c r="AK22" s="276"/>
-      <c r="AL22" s="276"/>
-      <c r="AM22" s="276"/>
-      <c r="AN22" s="276"/>
-      <c r="AO22" s="276"/>
-      <c r="AP22" s="276"/>
-      <c r="AQ22" s="276"/>
-      <c r="AR22" s="276"/>
-      <c r="AS22" s="276"/>
-      <c r="AT22" s="276"/>
-      <c r="AU22" s="276"/>
-      <c r="AV22" s="276"/>
-      <c r="AW22" s="276"/>
-      <c r="AX22" s="276"/>
-      <c r="AY22" s="276"/>
-      <c r="AZ22" s="276"/>
-      <c r="BA22" s="276"/>
-      <c r="BB22" s="276"/>
-      <c r="BC22" s="276"/>
-      <c r="BD22" s="276"/>
-    </row>
-    <row r="23" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K22" s="272"/>
+      <c r="L22" s="277"/>
+      <c r="M22" s="272"/>
+      <c r="N22" s="277"/>
+      <c r="O22" s="272"/>
+      <c r="P22" s="277"/>
+      <c r="Q22" s="272"/>
+      <c r="R22" s="277"/>
+      <c r="S22" s="272"/>
+      <c r="T22" s="277"/>
+      <c r="U22" s="272"/>
+      <c r="V22" s="277"/>
+      <c r="W22" s="272"/>
+      <c r="X22" s="277"/>
+      <c r="Y22" s="272"/>
+      <c r="Z22" s="277"/>
+      <c r="AA22" s="272"/>
+      <c r="AB22" s="277"/>
+      <c r="AC22" s="272"/>
+      <c r="AD22" s="277"/>
+      <c r="AE22" s="272"/>
+      <c r="AF22" s="277"/>
+      <c r="AG22" s="272"/>
+      <c r="AH22" s="277"/>
+      <c r="AI22" s="272"/>
+      <c r="AJ22" s="277"/>
+      <c r="AK22" s="272"/>
+      <c r="AL22" s="277"/>
+      <c r="AM22" s="272"/>
+      <c r="AN22" s="277"/>
+      <c r="AO22" s="272"/>
+      <c r="AP22" s="277"/>
+      <c r="AQ22" s="272"/>
+      <c r="AR22" s="277"/>
+      <c r="AS22" s="272"/>
+      <c r="AT22" s="277"/>
+      <c r="AU22" s="272"/>
+      <c r="AV22" s="277"/>
+      <c r="AW22" s="272"/>
+      <c r="AX22" s="277"/>
+      <c r="AY22" s="272"/>
+      <c r="AZ22" s="277"/>
+      <c r="BA22" s="272"/>
+      <c r="BB22" s="277"/>
+      <c r="BC22" s="272"/>
+      <c r="BD22" s="277"/>
+    </row>
+    <row r="23" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J23">
         <v>19</v>
       </c>
-      <c r="K23" s="276"/>
-      <c r="L23" s="276"/>
-      <c r="M23" s="276"/>
-      <c r="N23" s="276"/>
-      <c r="O23" s="276"/>
-      <c r="P23" s="276"/>
-      <c r="Q23" s="276"/>
-      <c r="R23" s="276"/>
-      <c r="S23" s="276"/>
-      <c r="T23" s="276"/>
-      <c r="U23" s="276"/>
-      <c r="V23" s="276"/>
-      <c r="W23" s="276"/>
-      <c r="X23" s="276"/>
-      <c r="Y23" s="276"/>
-      <c r="Z23" s="276"/>
-      <c r="AA23" s="276"/>
-      <c r="AB23" s="276"/>
-      <c r="AC23" s="276"/>
-      <c r="AD23" s="276"/>
-      <c r="AE23" s="276"/>
-      <c r="AF23" s="276"/>
-      <c r="AG23" s="276"/>
-      <c r="AH23" s="276"/>
-      <c r="AI23" s="276"/>
-      <c r="AJ23" s="276"/>
-      <c r="AK23" s="276"/>
-      <c r="AL23" s="276"/>
-      <c r="AM23" s="276"/>
-      <c r="AN23" s="276"/>
-      <c r="AO23" s="276"/>
-      <c r="AP23" s="276"/>
-      <c r="AQ23" s="276"/>
-      <c r="AR23" s="276"/>
-      <c r="AS23" s="276"/>
-      <c r="AT23" s="276"/>
-      <c r="AU23" s="276"/>
-      <c r="AV23" s="276"/>
-      <c r="AW23" s="276"/>
-      <c r="AX23" s="276"/>
-      <c r="AY23" s="276"/>
-      <c r="AZ23" s="276"/>
-      <c r="BA23" s="276"/>
-      <c r="BB23" s="276"/>
-      <c r="BC23" s="276"/>
-      <c r="BD23" s="276"/>
-    </row>
-    <row r="24" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K23" s="277"/>
+      <c r="L23" s="272"/>
+      <c r="M23" s="277"/>
+      <c r="N23" s="272"/>
+      <c r="O23" s="277"/>
+      <c r="P23" s="272"/>
+      <c r="Q23" s="277"/>
+      <c r="R23" s="272"/>
+      <c r="S23" s="277"/>
+      <c r="T23" s="272"/>
+      <c r="U23" s="277"/>
+      <c r="V23" s="272"/>
+      <c r="W23" s="277"/>
+      <c r="X23" s="272"/>
+      <c r="Y23" s="277"/>
+      <c r="Z23" s="272"/>
+      <c r="AA23" s="277"/>
+      <c r="AB23" s="272"/>
+      <c r="AC23" s="277"/>
+      <c r="AD23" s="272"/>
+      <c r="AE23" s="277"/>
+      <c r="AF23" s="272"/>
+      <c r="AG23" s="277"/>
+      <c r="AH23" s="272"/>
+      <c r="AI23" s="277"/>
+      <c r="AJ23" s="272"/>
+      <c r="AK23" s="277"/>
+      <c r="AL23" s="272"/>
+      <c r="AM23" s="277"/>
+      <c r="AN23" s="272"/>
+      <c r="AO23" s="277"/>
+      <c r="AP23" s="272"/>
+      <c r="AQ23" s="277"/>
+      <c r="AR23" s="272"/>
+      <c r="AS23" s="277"/>
+      <c r="AT23" s="272"/>
+      <c r="AU23" s="277"/>
+      <c r="AV23" s="272"/>
+      <c r="AW23" s="277"/>
+      <c r="AX23" s="272"/>
+      <c r="AY23" s="277"/>
+      <c r="AZ23" s="272"/>
+      <c r="BA23" s="277"/>
+      <c r="BB23" s="272"/>
+      <c r="BC23" s="277"/>
+      <c r="BD23" s="272"/>
+    </row>
+    <row r="24" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J24">
         <v>20</v>
       </c>
-      <c r="K24" s="276"/>
-      <c r="L24" s="276"/>
-      <c r="M24" s="276"/>
-      <c r="N24" s="276"/>
-      <c r="O24" s="276"/>
-      <c r="P24" s="276"/>
-      <c r="Q24" s="276"/>
-      <c r="R24" s="276"/>
-      <c r="S24" s="276"/>
-      <c r="T24" s="276"/>
-      <c r="U24" s="276"/>
-      <c r="V24" s="276"/>
-      <c r="W24" s="276"/>
-      <c r="X24" s="276"/>
-      <c r="Y24" s="276"/>
-      <c r="Z24" s="276"/>
-      <c r="AA24" s="276"/>
-      <c r="AB24" s="276"/>
-      <c r="AC24" s="276"/>
-      <c r="AD24" s="276"/>
-      <c r="AE24" s="276"/>
-      <c r="AF24" s="276"/>
-      <c r="AG24" s="276"/>
-      <c r="AH24" s="276"/>
-      <c r="AI24" s="276"/>
-      <c r="AJ24" s="276"/>
-      <c r="AK24" s="276"/>
-      <c r="AL24" s="276"/>
-      <c r="AM24" s="276"/>
-      <c r="AN24" s="276"/>
-      <c r="AO24" s="276"/>
-      <c r="AP24" s="276"/>
-      <c r="AQ24" s="276"/>
-      <c r="AR24" s="276"/>
-      <c r="AS24" s="276"/>
-      <c r="AT24" s="276"/>
-      <c r="AU24" s="276"/>
-      <c r="AV24" s="276"/>
-      <c r="AW24" s="276"/>
-      <c r="AX24" s="276"/>
-      <c r="AY24" s="276"/>
-      <c r="AZ24" s="276"/>
-      <c r="BA24" s="276"/>
-      <c r="BB24" s="276"/>
-      <c r="BC24" s="276"/>
-      <c r="BD24" s="276"/>
-    </row>
-    <row r="25" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K24" s="272"/>
+      <c r="L24" s="277"/>
+      <c r="M24" s="272"/>
+      <c r="N24" s="277"/>
+      <c r="O24" s="272"/>
+      <c r="P24" s="277"/>
+      <c r="Q24" s="272"/>
+      <c r="R24" s="277"/>
+      <c r="S24" s="272"/>
+      <c r="T24" s="277"/>
+      <c r="U24" s="272"/>
+      <c r="V24" s="277"/>
+      <c r="W24" s="272"/>
+      <c r="X24" s="277"/>
+      <c r="Y24" s="272"/>
+      <c r="Z24" s="277"/>
+      <c r="AA24" s="272"/>
+      <c r="AB24" s="277"/>
+      <c r="AC24" s="272"/>
+      <c r="AD24" s="277"/>
+      <c r="AE24" s="272"/>
+      <c r="AF24" s="277"/>
+      <c r="AG24" s="272"/>
+      <c r="AH24" s="277"/>
+      <c r="AI24" s="272"/>
+      <c r="AJ24" s="277"/>
+      <c r="AK24" s="272"/>
+      <c r="AL24" s="277"/>
+      <c r="AM24" s="272"/>
+      <c r="AN24" s="277"/>
+      <c r="AO24" s="272"/>
+      <c r="AP24" s="277"/>
+      <c r="AQ24" s="272"/>
+      <c r="AR24" s="277"/>
+      <c r="AS24" s="272"/>
+      <c r="AT24" s="277"/>
+      <c r="AU24" s="272"/>
+      <c r="AV24" s="277"/>
+      <c r="AW24" s="272"/>
+      <c r="AX24" s="277"/>
+      <c r="AY24" s="272"/>
+      <c r="AZ24" s="277"/>
+      <c r="BA24" s="272"/>
+      <c r="BB24" s="277"/>
+      <c r="BC24" s="272"/>
+      <c r="BD24" s="277"/>
+    </row>
+    <row r="25" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J25">
         <v>21</v>
       </c>
-      <c r="K25" s="276"/>
-      <c r="L25" s="276"/>
-      <c r="M25" s="276"/>
-      <c r="N25" s="276"/>
-      <c r="O25" s="276"/>
-      <c r="P25" s="276"/>
-      <c r="Q25" s="276"/>
-      <c r="R25" s="276"/>
-      <c r="S25" s="276"/>
-      <c r="T25" s="276"/>
-      <c r="U25" s="276"/>
-      <c r="V25" s="276"/>
-      <c r="W25" s="276"/>
-      <c r="X25" s="276"/>
-      <c r="Y25" s="276"/>
-      <c r="Z25" s="276"/>
-      <c r="AA25" s="276"/>
-      <c r="AB25" s="276"/>
-      <c r="AC25" s="276"/>
-      <c r="AD25" s="276"/>
-      <c r="AE25" s="276"/>
-      <c r="AF25" s="276"/>
-      <c r="AG25" s="276"/>
-      <c r="AH25" s="276"/>
-      <c r="AI25" s="276"/>
-      <c r="AJ25" s="276"/>
-      <c r="AK25" s="276"/>
-      <c r="AL25" s="276"/>
-      <c r="AM25" s="276"/>
-      <c r="AN25" s="276"/>
-      <c r="AO25" s="276"/>
-      <c r="AP25" s="276"/>
-      <c r="AQ25" s="276"/>
-      <c r="AR25" s="276"/>
-      <c r="AS25" s="276"/>
-      <c r="AT25" s="276"/>
-      <c r="AU25" s="276"/>
-      <c r="AV25" s="276"/>
-      <c r="AW25" s="276"/>
-      <c r="AX25" s="276"/>
-      <c r="AY25" s="276"/>
-      <c r="AZ25" s="276"/>
-      <c r="BA25" s="276"/>
-      <c r="BB25" s="276"/>
-      <c r="BC25" s="276"/>
-      <c r="BD25" s="276"/>
-    </row>
-    <row r="26" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K25" s="277"/>
+      <c r="L25" s="272"/>
+      <c r="M25" s="277"/>
+      <c r="N25" s="272"/>
+      <c r="O25" s="277"/>
+      <c r="P25" s="272"/>
+      <c r="Q25" s="277"/>
+      <c r="R25" s="272"/>
+      <c r="S25" s="277"/>
+      <c r="T25" s="272"/>
+      <c r="U25" s="277"/>
+      <c r="V25" s="272"/>
+      <c r="W25" s="277"/>
+      <c r="X25" s="272"/>
+      <c r="Y25" s="277"/>
+      <c r="Z25" s="272"/>
+      <c r="AA25" s="277"/>
+      <c r="AB25" s="272"/>
+      <c r="AC25" s="277"/>
+      <c r="AD25" s="272"/>
+      <c r="AE25" s="277"/>
+      <c r="AF25" s="272"/>
+      <c r="AG25" s="277"/>
+      <c r="AH25" s="272"/>
+      <c r="AI25" s="277"/>
+      <c r="AJ25" s="272"/>
+      <c r="AK25" s="277"/>
+      <c r="AL25" s="272"/>
+      <c r="AM25" s="277"/>
+      <c r="AN25" s="272"/>
+      <c r="AO25" s="277"/>
+      <c r="AP25" s="272"/>
+      <c r="AQ25" s="277"/>
+      <c r="AR25" s="272"/>
+      <c r="AS25" s="277"/>
+      <c r="AT25" s="272"/>
+      <c r="AU25" s="277"/>
+      <c r="AV25" s="272"/>
+      <c r="AW25" s="277"/>
+      <c r="AX25" s="272"/>
+      <c r="AY25" s="277"/>
+      <c r="AZ25" s="272"/>
+      <c r="BA25" s="277"/>
+      <c r="BB25" s="272"/>
+      <c r="BC25" s="277"/>
+      <c r="BD25" s="272"/>
+    </row>
+    <row r="26" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J26">
         <v>22</v>
       </c>
-      <c r="K26" s="276"/>
-      <c r="L26" s="276"/>
-      <c r="M26" s="276"/>
-      <c r="N26" s="276"/>
-      <c r="O26" s="276"/>
-      <c r="P26" s="276"/>
-      <c r="Q26" s="276"/>
-      <c r="R26" s="276"/>
-      <c r="S26" s="276"/>
-      <c r="T26" s="276"/>
-      <c r="U26" s="276"/>
-      <c r="V26" s="276"/>
-      <c r="W26" s="276"/>
-      <c r="X26" s="276"/>
-      <c r="Y26" s="276"/>
-      <c r="Z26" s="276"/>
-      <c r="AA26" s="276"/>
-      <c r="AB26" s="276"/>
-      <c r="AC26" s="276"/>
-      <c r="AD26" s="276"/>
-      <c r="AE26" s="276"/>
-      <c r="AF26" s="276"/>
-      <c r="AG26" s="276"/>
-      <c r="AH26" s="276"/>
-      <c r="AI26" s="276"/>
-      <c r="AJ26" s="276"/>
-      <c r="AK26" s="276"/>
-      <c r="AL26" s="276"/>
-      <c r="AM26" s="276"/>
-      <c r="AN26" s="276"/>
-      <c r="AO26" s="276"/>
-      <c r="AP26" s="276"/>
-      <c r="AQ26" s="276"/>
-      <c r="AR26" s="276"/>
-      <c r="AS26" s="276"/>
-      <c r="AT26" s="276"/>
-      <c r="AU26" s="276"/>
-      <c r="AV26" s="276"/>
-      <c r="AW26" s="276"/>
-      <c r="AX26" s="276"/>
-      <c r="AY26" s="276"/>
-      <c r="AZ26" s="276"/>
-      <c r="BA26" s="276"/>
-      <c r="BB26" s="276"/>
-      <c r="BC26" s="276"/>
-      <c r="BD26" s="276"/>
-    </row>
-    <row r="27" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K26" s="272"/>
+      <c r="L26" s="277"/>
+      <c r="M26" s="272"/>
+      <c r="N26" s="277"/>
+      <c r="O26" s="272"/>
+      <c r="P26" s="277"/>
+      <c r="Q26" s="272"/>
+      <c r="R26" s="277"/>
+      <c r="S26" s="272"/>
+      <c r="T26" s="277"/>
+      <c r="U26" s="272"/>
+      <c r="V26" s="277"/>
+      <c r="W26" s="272"/>
+      <c r="X26" s="277"/>
+      <c r="Y26" s="272"/>
+      <c r="Z26" s="277"/>
+      <c r="AA26" s="272"/>
+      <c r="AB26" s="277"/>
+      <c r="AC26" s="272"/>
+      <c r="AD26" s="277"/>
+      <c r="AE26" s="272"/>
+      <c r="AF26" s="277"/>
+      <c r="AG26" s="272"/>
+      <c r="AH26" s="277"/>
+      <c r="AI26" s="272"/>
+      <c r="AJ26" s="277"/>
+      <c r="AK26" s="272"/>
+      <c r="AL26" s="277"/>
+      <c r="AM26" s="272"/>
+      <c r="AN26" s="277"/>
+      <c r="AO26" s="272"/>
+      <c r="AP26" s="277"/>
+      <c r="AQ26" s="272"/>
+      <c r="AR26" s="277"/>
+      <c r="AS26" s="272"/>
+      <c r="AT26" s="277"/>
+      <c r="AU26" s="272"/>
+      <c r="AV26" s="277"/>
+      <c r="AW26" s="272"/>
+      <c r="AX26" s="277"/>
+      <c r="AY26" s="272"/>
+      <c r="AZ26" s="277"/>
+      <c r="BA26" s="272"/>
+      <c r="BB26" s="277"/>
+      <c r="BC26" s="272"/>
+      <c r="BD26" s="277"/>
+    </row>
+    <row r="27" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J27">
         <v>23</v>
       </c>
-      <c r="K27" s="276"/>
-      <c r="L27" s="276"/>
-      <c r="M27" s="276"/>
-      <c r="N27" s="276"/>
-      <c r="O27" s="276"/>
-      <c r="P27" s="276"/>
-      <c r="Q27" s="276"/>
-      <c r="R27" s="276"/>
-      <c r="S27" s="276"/>
-      <c r="T27" s="276"/>
-      <c r="U27" s="276"/>
-      <c r="V27" s="276"/>
-      <c r="W27" s="276"/>
-      <c r="X27" s="276"/>
-      <c r="Y27" s="276"/>
-      <c r="Z27" s="276"/>
-      <c r="AA27" s="276"/>
-      <c r="AB27" s="276"/>
-      <c r="AC27" s="276"/>
-      <c r="AD27" s="276"/>
-      <c r="AE27" s="276"/>
-      <c r="AF27" s="276"/>
-      <c r="AG27" s="276"/>
-      <c r="AH27" s="276"/>
-      <c r="AI27" s="276"/>
-      <c r="AJ27" s="276"/>
-      <c r="AK27" s="276"/>
-      <c r="AL27" s="276"/>
-      <c r="AM27" s="276"/>
-      <c r="AN27" s="276"/>
-      <c r="AO27" s="276"/>
-      <c r="AP27" s="276"/>
-      <c r="AQ27" s="276"/>
-      <c r="AR27" s="276"/>
-      <c r="AS27" s="276"/>
-      <c r="AT27" s="276"/>
-      <c r="AU27" s="276"/>
-      <c r="AV27" s="276"/>
-      <c r="AW27" s="276"/>
-      <c r="AX27" s="276"/>
-      <c r="AY27" s="276"/>
-      <c r="AZ27" s="276"/>
-      <c r="BA27" s="276"/>
-      <c r="BB27" s="276"/>
-      <c r="BC27" s="276"/>
-      <c r="BD27" s="276"/>
-    </row>
-    <row r="28" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K27" s="277"/>
+      <c r="L27" s="272"/>
+      <c r="M27" s="277"/>
+      <c r="N27" s="272"/>
+      <c r="O27" s="277"/>
+      <c r="P27" s="272"/>
+      <c r="Q27" s="277"/>
+      <c r="R27" s="272"/>
+      <c r="S27" s="277"/>
+      <c r="T27" s="272"/>
+      <c r="U27" s="277"/>
+      <c r="V27" s="272"/>
+      <c r="W27" s="277"/>
+      <c r="X27" s="272"/>
+      <c r="Y27" s="277"/>
+      <c r="Z27" s="272"/>
+      <c r="AA27" s="277"/>
+      <c r="AB27" s="272"/>
+      <c r="AC27" s="277"/>
+      <c r="AD27" s="272"/>
+      <c r="AE27" s="277"/>
+      <c r="AF27" s="272"/>
+      <c r="AG27" s="277"/>
+      <c r="AH27" s="272"/>
+      <c r="AI27" s="277"/>
+      <c r="AJ27" s="272"/>
+      <c r="AK27" s="277"/>
+      <c r="AL27" s="272"/>
+      <c r="AM27" s="277"/>
+      <c r="AN27" s="272"/>
+      <c r="AO27" s="277"/>
+      <c r="AP27" s="272"/>
+      <c r="AQ27" s="277"/>
+      <c r="AR27" s="272"/>
+      <c r="AS27" s="277"/>
+      <c r="AT27" s="272"/>
+      <c r="AU27" s="277"/>
+      <c r="AV27" s="272"/>
+      <c r="AW27" s="277"/>
+      <c r="AX27" s="272"/>
+      <c r="AY27" s="277"/>
+      <c r="AZ27" s="272"/>
+      <c r="BA27" s="277"/>
+      <c r="BB27" s="272"/>
+      <c r="BC27" s="277"/>
+      <c r="BD27" s="272"/>
+    </row>
+    <row r="28" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J28">
         <v>24</v>
       </c>
-      <c r="K28" s="276"/>
-      <c r="L28" s="276"/>
-      <c r="M28" s="276"/>
-      <c r="N28" s="276"/>
-      <c r="O28" s="276"/>
-      <c r="P28" s="276"/>
-      <c r="Q28" s="276"/>
-      <c r="R28" s="276"/>
-      <c r="S28" s="276"/>
-      <c r="T28" s="276"/>
-      <c r="U28" s="276"/>
-      <c r="V28" s="276"/>
-      <c r="W28" s="276"/>
-      <c r="X28" s="276"/>
-      <c r="Y28" s="276"/>
-      <c r="Z28" s="276"/>
-      <c r="AA28" s="276"/>
-      <c r="AB28" s="276"/>
-      <c r="AC28" s="276"/>
-      <c r="AD28" s="276"/>
-      <c r="AE28" s="276"/>
-      <c r="AF28" s="276"/>
-      <c r="AG28" s="276"/>
-      <c r="AH28" s="276"/>
-      <c r="AI28" s="276"/>
-      <c r="AJ28" s="276"/>
-      <c r="AK28" s="276"/>
-      <c r="AL28" s="276"/>
-      <c r="AM28" s="276"/>
-      <c r="AN28" s="276"/>
-      <c r="AO28" s="276"/>
-      <c r="AP28" s="276"/>
-      <c r="AQ28" s="276"/>
-      <c r="AR28" s="276"/>
-      <c r="AS28" s="276"/>
-      <c r="AT28" s="276"/>
-      <c r="AU28" s="276"/>
-      <c r="AV28" s="276"/>
-      <c r="AW28" s="276"/>
-      <c r="AX28" s="276"/>
-      <c r="AY28" s="276"/>
-      <c r="AZ28" s="276"/>
-      <c r="BA28" s="276"/>
-      <c r="BB28" s="276"/>
-      <c r="BC28" s="276"/>
-      <c r="BD28" s="276"/>
-    </row>
-    <row r="29" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K28" s="272"/>
+      <c r="L28" s="277"/>
+      <c r="M28" s="272"/>
+      <c r="N28" s="277"/>
+      <c r="O28" s="272"/>
+      <c r="P28" s="277"/>
+      <c r="Q28" s="272"/>
+      <c r="R28" s="277"/>
+      <c r="S28" s="272"/>
+      <c r="T28" s="277"/>
+      <c r="U28" s="272"/>
+      <c r="V28" s="277"/>
+      <c r="W28" s="272"/>
+      <c r="X28" s="277"/>
+      <c r="Y28" s="272"/>
+      <c r="Z28" s="277"/>
+      <c r="AA28" s="272"/>
+      <c r="AB28" s="277"/>
+      <c r="AC28" s="272"/>
+      <c r="AD28" s="277"/>
+      <c r="AE28" s="272"/>
+      <c r="AF28" s="277"/>
+      <c r="AG28" s="272"/>
+      <c r="AH28" s="277"/>
+      <c r="AI28" s="272"/>
+      <c r="AJ28" s="277"/>
+      <c r="AK28" s="272"/>
+      <c r="AL28" s="277"/>
+      <c r="AM28" s="272"/>
+      <c r="AN28" s="277"/>
+      <c r="AO28" s="272"/>
+      <c r="AP28" s="277"/>
+      <c r="AQ28" s="272"/>
+      <c r="AR28" s="277"/>
+      <c r="AS28" s="272"/>
+      <c r="AT28" s="277"/>
+      <c r="AU28" s="272"/>
+      <c r="AV28" s="277"/>
+      <c r="AW28" s="272"/>
+      <c r="AX28" s="277"/>
+      <c r="AY28" s="272"/>
+      <c r="AZ28" s="277"/>
+      <c r="BA28" s="272"/>
+      <c r="BB28" s="277"/>
+      <c r="BC28" s="272"/>
+      <c r="BD28" s="277"/>
+    </row>
+    <row r="29" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J29">
         <v>25</v>
       </c>
-      <c r="K29" s="276"/>
-      <c r="L29" s="276"/>
-      <c r="M29" s="276"/>
-      <c r="N29" s="276"/>
-      <c r="O29" s="276"/>
-      <c r="P29" s="276"/>
-      <c r="Q29" s="276"/>
-      <c r="R29" s="276"/>
-      <c r="S29" s="276"/>
-      <c r="T29" s="276"/>
-      <c r="U29" s="276"/>
-      <c r="V29" s="276"/>
-      <c r="W29" s="276"/>
-      <c r="X29" s="276"/>
-      <c r="Y29" s="276"/>
-      <c r="Z29" s="276"/>
-      <c r="AA29" s="276"/>
-      <c r="AB29" s="276"/>
-      <c r="AC29" s="276"/>
-      <c r="AD29" s="276"/>
-      <c r="AE29" s="276"/>
-      <c r="AF29" s="276"/>
-      <c r="AG29" s="276"/>
-      <c r="AH29" s="276"/>
-      <c r="AI29" s="276"/>
-      <c r="AJ29" s="276"/>
-      <c r="AK29" s="276"/>
-      <c r="AL29" s="276"/>
-      <c r="AM29" s="276"/>
-      <c r="AN29" s="276"/>
-      <c r="AO29" s="276"/>
-      <c r="AP29" s="276"/>
-      <c r="AQ29" s="276"/>
-      <c r="AR29" s="276"/>
-      <c r="AS29" s="276"/>
-      <c r="AT29" s="276"/>
-      <c r="AU29" s="276"/>
-      <c r="AV29" s="276"/>
-      <c r="AW29" s="276"/>
-      <c r="AX29" s="276"/>
-      <c r="AY29" s="276"/>
-      <c r="AZ29" s="276"/>
-      <c r="BA29" s="276"/>
-      <c r="BB29" s="276"/>
-      <c r="BC29" s="276"/>
-      <c r="BD29" s="276"/>
-    </row>
-    <row r="30" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K29" s="277"/>
+      <c r="L29" s="272"/>
+      <c r="M29" s="277"/>
+      <c r="N29" s="272"/>
+      <c r="O29" s="277"/>
+      <c r="P29" s="272"/>
+      <c r="Q29" s="277"/>
+      <c r="R29" s="272"/>
+      <c r="S29" s="277"/>
+      <c r="T29" s="272"/>
+      <c r="U29" s="277"/>
+      <c r="V29" s="272"/>
+      <c r="W29" s="277"/>
+      <c r="X29" s="272"/>
+      <c r="Y29" s="277"/>
+      <c r="Z29" s="272"/>
+      <c r="AA29" s="277"/>
+      <c r="AB29" s="272"/>
+      <c r="AC29" s="277"/>
+      <c r="AD29" s="272"/>
+      <c r="AE29" s="277"/>
+      <c r="AF29" s="272"/>
+      <c r="AG29" s="277"/>
+      <c r="AH29" s="272"/>
+      <c r="AI29" s="277"/>
+      <c r="AJ29" s="272"/>
+      <c r="AK29" s="277"/>
+      <c r="AL29" s="272"/>
+      <c r="AM29" s="277"/>
+      <c r="AN29" s="272"/>
+      <c r="AO29" s="277"/>
+      <c r="AP29" s="272"/>
+      <c r="AQ29" s="277"/>
+      <c r="AR29" s="272"/>
+      <c r="AS29" s="277"/>
+      <c r="AT29" s="272"/>
+      <c r="AU29" s="277"/>
+      <c r="AV29" s="272"/>
+      <c r="AW29" s="277"/>
+      <c r="AX29" s="272"/>
+      <c r="AY29" s="277"/>
+      <c r="AZ29" s="272"/>
+      <c r="BA29" s="277"/>
+      <c r="BB29" s="272"/>
+      <c r="BC29" s="277"/>
+      <c r="BD29" s="272"/>
+    </row>
+    <row r="30" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J30">
         <v>26</v>
       </c>
-      <c r="K30" s="276"/>
-      <c r="L30" s="276"/>
-      <c r="M30" s="276"/>
-      <c r="N30" s="276"/>
-      <c r="O30" s="276"/>
-      <c r="P30" s="276"/>
-      <c r="Q30" s="276"/>
-      <c r="R30" s="276"/>
-      <c r="S30" s="276"/>
-      <c r="T30" s="276"/>
-      <c r="U30" s="276"/>
-      <c r="V30" s="276"/>
-      <c r="W30" s="276"/>
-      <c r="X30" s="276"/>
-      <c r="Y30" s="276"/>
-      <c r="Z30" s="276"/>
-      <c r="AA30" s="276"/>
-      <c r="AB30" s="276"/>
-      <c r="AC30" s="276"/>
-      <c r="AD30" s="276"/>
-      <c r="AE30" s="276"/>
-      <c r="AF30" s="276"/>
-      <c r="AG30" s="276"/>
-      <c r="AH30" s="276"/>
-      <c r="AI30" s="276"/>
-      <c r="AJ30" s="276"/>
-      <c r="AK30" s="276"/>
-      <c r="AL30" s="276"/>
-      <c r="AM30" s="276"/>
-      <c r="AN30" s="276"/>
-      <c r="AO30" s="276"/>
-      <c r="AP30" s="276"/>
-      <c r="AQ30" s="276"/>
-      <c r="AR30" s="276"/>
-      <c r="AS30" s="276"/>
-      <c r="AT30" s="276"/>
-      <c r="AU30" s="276"/>
-      <c r="AV30" s="276"/>
-      <c r="AW30" s="276"/>
-      <c r="AX30" s="276"/>
-      <c r="AY30" s="276"/>
-      <c r="AZ30" s="276"/>
-      <c r="BA30" s="276"/>
-      <c r="BB30" s="276"/>
-      <c r="BC30" s="276"/>
-      <c r="BD30" s="276"/>
-    </row>
-    <row r="31" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="177" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="K30" s="272"/>
+      <c r="L30" s="277"/>
+      <c r="M30" s="272"/>
+      <c r="N30" s="277"/>
+      <c r="O30" s="272"/>
+      <c r="P30" s="277"/>
+      <c r="Q30" s="272"/>
+      <c r="R30" s="277"/>
+      <c r="S30" s="272"/>
+      <c r="T30" s="277"/>
+      <c r="U30" s="272"/>
+      <c r="V30" s="277"/>
+      <c r="W30" s="272"/>
+      <c r="X30" s="277"/>
+      <c r="Y30" s="272"/>
+      <c r="Z30" s="277"/>
+      <c r="AA30" s="272"/>
+      <c r="AB30" s="277"/>
+      <c r="AC30" s="272"/>
+      <c r="AD30" s="277"/>
+      <c r="AE30" s="272"/>
+      <c r="AF30" s="277"/>
+      <c r="AG30" s="272"/>
+      <c r="AH30" s="277"/>
+      <c r="AI30" s="272"/>
+      <c r="AJ30" s="277"/>
+      <c r="AK30" s="272"/>
+      <c r="AL30" s="277"/>
+      <c r="AM30" s="272"/>
+      <c r="AN30" s="277"/>
+      <c r="AO30" s="272"/>
+      <c r="AP30" s="277"/>
+      <c r="AQ30" s="272"/>
+      <c r="AR30" s="277"/>
+      <c r="AS30" s="272"/>
+      <c r="AT30" s="277"/>
+      <c r="AU30" s="272"/>
+      <c r="AV30" s="277"/>
+      <c r="AW30" s="272"/>
+      <c r="AX30" s="277"/>
+      <c r="AY30" s="272"/>
+      <c r="AZ30" s="277"/>
+      <c r="BA30" s="272"/>
+      <c r="BB30" s="277"/>
+      <c r="BC30" s="272"/>
+      <c r="BD30" s="277"/>
+    </row>
+    <row r="31" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="278"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E9" s="279" t="s">
+        <v>120</v>
+      </c>
+      <c r="F9" s="279" t="s">
+        <v>136</v>
+      </c>
+      <c r="G9" s="279" t="s">
+        <v>137</v>
+      </c>
+      <c r="H9" s="279" t="s">
+        <v>138</v>
+      </c>
+      <c r="M9" s="279"/>
+      <c r="N9" s="279" t="s">
+        <v>152</v>
+      </c>
+      <c r="O9" s="279"/>
+      <c r="P9" s="279"/>
+      <c r="Q9" s="279"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E10" s="280" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" s="279" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" s="279" t="s">
+        <v>125</v>
+      </c>
+      <c r="H10" s="279"/>
+      <c r="M10" s="279"/>
+      <c r="N10" s="279" t="s">
+        <v>153</v>
+      </c>
+      <c r="O10" s="279" t="s">
+        <v>154</v>
+      </c>
+      <c r="P10" s="279" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q10" s="279" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E11" s="280" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" s="279"/>
+      <c r="G11" s="279"/>
+      <c r="H11" s="279"/>
+      <c r="M11" s="279" t="s">
+        <v>157</v>
+      </c>
+      <c r="N11" s="280">
+        <v>1</v>
+      </c>
+      <c r="O11" s="280">
+        <v>5</v>
+      </c>
+      <c r="P11" s="280">
+        <v>9</v>
+      </c>
+      <c r="Q11" s="280">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E12" s="280" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="279"/>
+      <c r="G12" s="279"/>
+      <c r="H12" s="279"/>
+      <c r="M12" s="279" t="s">
+        <v>158</v>
+      </c>
+      <c r="N12" s="280">
+        <v>2</v>
+      </c>
+      <c r="O12" s="280">
+        <v>6</v>
+      </c>
+      <c r="P12" s="280">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="280">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E13" s="280" t="s">
+        <v>124</v>
+      </c>
+      <c r="F13" s="279"/>
+      <c r="G13" s="279"/>
+      <c r="H13" s="279"/>
+      <c r="M13" s="279" t="s">
+        <v>159</v>
+      </c>
+      <c r="N13" s="280">
+        <v>3</v>
+      </c>
+      <c r="O13" s="280">
+        <v>7</v>
+      </c>
+      <c r="P13" s="280">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="280">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E14" s="280" t="s">
+        <v>125</v>
+      </c>
+      <c r="F14" s="279"/>
+      <c r="G14" s="279"/>
+      <c r="H14" s="279"/>
+      <c r="M14" s="279" t="s">
+        <v>160</v>
+      </c>
+      <c r="N14" s="280">
+        <v>4</v>
+      </c>
+      <c r="O14" s="280">
+        <v>8</v>
+      </c>
+      <c r="P14" s="280">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="280">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E15" s="279"/>
+      <c r="F15" s="279"/>
+      <c r="G15" s="279"/>
+      <c r="H15" s="279"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E16" s="280" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" s="279"/>
+      <c r="G16" s="279"/>
+      <c r="H16" s="279"/>
+    </row>
+    <row r="17" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E17" s="280" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" s="279"/>
+      <c r="G17" s="279"/>
+      <c r="H17" s="279"/>
+      <c r="L17" s="279"/>
+      <c r="M17" s="279"/>
+      <c r="N17" s="279"/>
+      <c r="O17" s="279"/>
+    </row>
+    <row r="18" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E18" s="280" t="s">
+        <v>128</v>
+      </c>
+      <c r="F18" s="279"/>
+      <c r="G18" s="279"/>
+      <c r="H18" s="279"/>
+      <c r="L18" s="279" t="s">
+        <v>168</v>
+      </c>
+      <c r="M18" s="280">
+        <v>2</v>
+      </c>
+      <c r="N18" s="281" t="s">
+        <v>153</v>
+      </c>
+      <c r="O18" s="281" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E19" s="280" t="s">
+        <v>129</v>
+      </c>
+      <c r="F19" s="279"/>
+      <c r="G19" s="279"/>
+      <c r="H19" s="279"/>
+      <c r="L19" s="279" t="s">
+        <v>169</v>
+      </c>
+      <c r="M19" s="280">
+        <v>13</v>
+      </c>
+      <c r="N19" s="281" t="s">
+        <v>156</v>
+      </c>
+      <c r="O19" s="281" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E20" s="280" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" s="279"/>
+      <c r="G20" s="279"/>
+      <c r="H20" s="279"/>
+      <c r="L20" s="279" t="s">
+        <v>170</v>
+      </c>
+      <c r="M20" s="280">
+        <v>10</v>
+      </c>
+      <c r="N20" s="281" t="s">
+        <v>155</v>
+      </c>
+      <c r="O20" s="281" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E21" s="280" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" s="279"/>
+      <c r="G21" s="279"/>
+      <c r="H21" s="279"/>
+      <c r="L21" s="279" t="s">
+        <v>171</v>
+      </c>
+      <c r="M21" s="280">
+        <v>11</v>
+      </c>
+      <c r="N21" s="281" t="s">
+        <v>155</v>
+      </c>
+      <c r="O21" s="281" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E22" s="280" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" s="279" t="s">
+        <v>139</v>
+      </c>
+      <c r="G22" s="279" t="s">
+        <v>140</v>
+      </c>
+      <c r="H22" s="279"/>
+      <c r="L22" s="279" t="s">
+        <v>172</v>
+      </c>
+      <c r="M22" s="280">
+        <v>3</v>
+      </c>
+      <c r="N22" s="281" t="s">
+        <v>153</v>
+      </c>
+      <c r="O22" s="281" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E23" s="280" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="279"/>
+      <c r="G23" s="279"/>
+      <c r="H23" s="279"/>
+      <c r="L23" s="279" t="s">
+        <v>173</v>
+      </c>
+      <c r="M23" s="280">
+        <v>12</v>
+      </c>
+      <c r="N23" s="281" t="s">
+        <v>155</v>
+      </c>
+      <c r="O23" s="281" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E24" s="280" t="s">
+        <v>134</v>
+      </c>
+      <c r="F24" s="279"/>
+      <c r="G24" s="279"/>
+      <c r="H24" s="279"/>
+      <c r="L24" s="279" t="s">
+        <v>174</v>
+      </c>
+      <c r="M24" s="280">
+        <v>6</v>
+      </c>
+      <c r="N24" s="281" t="s">
+        <v>154</v>
+      </c>
+      <c r="O24" s="281" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E25" s="280" t="s">
+        <v>135</v>
+      </c>
+      <c r="F25" s="279"/>
+      <c r="G25" s="279"/>
+      <c r="H25" s="279"/>
+      <c r="L25" s="279" t="s">
+        <v>175</v>
+      </c>
+      <c r="M25" s="280">
+        <v>9</v>
+      </c>
+      <c r="N25" s="281" t="s">
+        <v>155</v>
+      </c>
+      <c r="O25" s="281" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E26" s="280" t="s">
+        <v>142</v>
+      </c>
+      <c r="F26" s="279" t="s">
+        <v>141</v>
+      </c>
+      <c r="G26" s="279" t="s">
+        <v>125</v>
+      </c>
+      <c r="H26" s="279"/>
+      <c r="L26" s="279" t="s">
+        <v>176</v>
+      </c>
+      <c r="M26" s="280">
+        <v>15</v>
+      </c>
+      <c r="N26" s="281" t="s">
+        <v>156</v>
+      </c>
+      <c r="O26" s="281" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E27" s="280" t="s">
+        <v>143</v>
+      </c>
+      <c r="F27" s="279"/>
+      <c r="G27" s="279"/>
+      <c r="H27" s="279"/>
+      <c r="L27" s="279" t="s">
+        <v>162</v>
+      </c>
+      <c r="M27" s="280">
+        <v>16</v>
+      </c>
+      <c r="N27" s="281" t="s">
+        <v>156</v>
+      </c>
+      <c r="O27" s="281" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E28" s="280" t="s">
+        <v>144</v>
+      </c>
+      <c r="F28" s="279"/>
+      <c r="G28" s="279"/>
+      <c r="H28" s="279"/>
+      <c r="L28" s="279" t="s">
+        <v>163</v>
+      </c>
+      <c r="M28" s="280">
+        <v>7</v>
+      </c>
+      <c r="N28" s="281" t="s">
+        <v>154</v>
+      </c>
+      <c r="O28" s="281" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E29" s="280" t="s">
+        <v>146</v>
+      </c>
+      <c r="F29" s="279" t="s">
+        <v>145</v>
+      </c>
+      <c r="G29" s="279" t="s">
+        <v>147</v>
+      </c>
+      <c r="H29" s="279" t="s">
+        <v>148</v>
+      </c>
+      <c r="L29" s="279" t="s">
+        <v>164</v>
+      </c>
+      <c r="M29" s="280">
+        <v>4</v>
+      </c>
+      <c r="N29" s="281" t="s">
+        <v>153</v>
+      </c>
+      <c r="O29" s="281" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E30" s="280" t="s">
+        <v>149</v>
+      </c>
+      <c r="F30" s="279" t="s">
+        <v>150</v>
+      </c>
+      <c r="G30" s="279" t="s">
+        <v>151</v>
+      </c>
+      <c r="H30" s="279"/>
+      <c r="L30" s="279" t="s">
+        <v>165</v>
+      </c>
+      <c r="M30" s="280">
+        <v>8</v>
+      </c>
+      <c r="N30" s="281" t="s">
+        <v>154</v>
+      </c>
+      <c r="O30" s="281" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E31" s="282" t="s">
+        <v>177</v>
+      </c>
+      <c r="L31" s="279" t="s">
+        <v>161</v>
+      </c>
+      <c r="M31" s="280">
+        <v>5</v>
+      </c>
+      <c r="N31" s="281" t="s">
+        <v>154</v>
+      </c>
+      <c r="O31" s="281" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="32" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E32" s="282" t="s">
+        <v>178</v>
+      </c>
+      <c r="L32" s="279" t="s">
+        <v>166</v>
+      </c>
+      <c r="M32" s="280">
+        <v>1</v>
+      </c>
+      <c r="N32" s="281" t="s">
+        <v>153</v>
+      </c>
+      <c r="O32" s="281" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E33" s="282" t="s">
+        <v>179</v>
+      </c>
+      <c r="F33" t="s">
+        <v>180</v>
+      </c>
+      <c r="L33" s="279" t="s">
+        <v>167</v>
+      </c>
+      <c r="M33" s="280">
+        <v>14</v>
+      </c>
+      <c r="N33" s="281" t="s">
+        <v>156</v>
+      </c>
+      <c r="O33" s="281" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="L17:O33">
+    <sortState ref="L18:O33">
+      <sortCondition ref="L17:L33"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Assets/Level blueprint.xlsx
+++ b/Assets/Level blueprint.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\Documents\GitHub\Horror_FPS\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD8905E-D952-49E3-80FB-45F987F6F5EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Level 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Nursery" sheetId="3" r:id="rId2"/>
-    <sheet name="Floor Texture" sheetId="4" r:id="rId3"/>
-    <sheet name="Items" sheetId="5" r:id="rId4"/>
+    <sheet name="Floor Texture" sheetId="4" r:id="rId2"/>
+    <sheet name="Items" sheetId="5" r:id="rId3"/>
+    <sheet name="Nursery" sheetId="3" r:id="rId4"/>
+    <sheet name="Nursery_big" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Items!$L$17:$O$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Items!$L$17:$O$33</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="195">
   <si>
     <t>Scale: 1sqr = 1mt</t>
   </si>
@@ -573,12 +575,54 @@
   </si>
   <si>
     <t>Lavar</t>
+  </si>
+  <si>
+    <t>Kitchen</t>
+  </si>
+  <si>
+    <t>2 year room</t>
+  </si>
+  <si>
+    <t>3 year room</t>
+  </si>
+  <si>
+    <t>4 year room</t>
+  </si>
+  <si>
+    <t>5 year room</t>
+  </si>
+  <si>
+    <t>Dining room</t>
+  </si>
+  <si>
+    <t>Library</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>Director's office</t>
+  </si>
+  <si>
+    <t>Secretary's office</t>
+  </si>
+  <si>
+    <t>Infirmary</t>
+  </si>
+  <si>
+    <t>Teachers' room</t>
+  </si>
+  <si>
+    <t>Men's bathroom</t>
+  </si>
+  <si>
+    <t>Women's bathroom</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -610,7 +654,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -701,8 +745,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="129">
+  <borders count="130">
     <border>
       <left/>
       <right/>
@@ -2384,11 +2446,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="283">
+  <cellXfs count="345">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3204,18 +3277,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="111" xfId="0" applyBorder="1"/>
@@ -3224,6 +3285,204 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="128" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="117" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="129" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="116" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="116" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="117" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3508,7 +3767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="G2:CD41"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
@@ -4033,18 +4292,18 @@
       <c r="BI8" s="1">
         <v>6</v>
       </c>
-      <c r="BT8" s="274" t="s">
+      <c r="BT8" s="280" t="s">
         <v>0</v>
       </c>
-      <c r="BU8" s="275"/>
-      <c r="BV8" s="275"/>
-      <c r="BW8" s="275"/>
-      <c r="BX8" s="275"/>
-      <c r="BY8" s="275"/>
-      <c r="BZ8" s="275"/>
-      <c r="CA8" s="275"/>
-      <c r="CB8" s="275"/>
-      <c r="CC8" s="276"/>
+      <c r="BU8" s="281"/>
+      <c r="BV8" s="281"/>
+      <c r="BW8" s="281"/>
+      <c r="BX8" s="281"/>
+      <c r="BY8" s="281"/>
+      <c r="BZ8" s="281"/>
+      <c r="CA8" s="281"/>
+      <c r="CB8" s="281"/>
+      <c r="CC8" s="282"/>
     </row>
     <row r="9" spans="7:82" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I9" s="18"/>
@@ -4362,10 +4621,10 @@
         <v>11</v>
       </c>
       <c r="BT13" s="136"/>
-      <c r="BX13" s="273" t="s">
+      <c r="BX13" s="279" t="s">
         <v>64</v>
       </c>
-      <c r="BY13" s="273"/>
+      <c r="BY13" s="279"/>
       <c r="BZ13" s="133"/>
       <c r="CA13" s="133"/>
       <c r="CB13" s="133"/>
@@ -4431,8 +4690,8 @@
       <c r="BT14" s="136"/>
       <c r="BU14" s="131"/>
       <c r="BV14" s="131"/>
-      <c r="BX14" s="273"/>
-      <c r="BY14" s="273"/>
+      <c r="BX14" s="279"/>
+      <c r="BY14" s="279"/>
       <c r="BZ14" s="133"/>
       <c r="CA14" s="133"/>
       <c r="CB14" s="133"/>
@@ -4496,13 +4755,13 @@
         <v>13</v>
       </c>
       <c r="BT15" s="136"/>
-      <c r="BX15" s="273" t="s">
+      <c r="BX15" s="279" t="s">
         <v>65</v>
       </c>
-      <c r="BY15" s="273"/>
-      <c r="BZ15" s="273"/>
-      <c r="CA15" s="273"/>
-      <c r="CB15" s="273"/>
+      <c r="BY15" s="279"/>
+      <c r="BZ15" s="279"/>
+      <c r="CA15" s="279"/>
+      <c r="CB15" s="279"/>
       <c r="CC15" s="151"/>
       <c r="CD15" s="149"/>
     </row>
@@ -4565,11 +4824,11 @@
       <c r="BT16" s="136"/>
       <c r="BU16" s="132"/>
       <c r="BV16" s="132"/>
-      <c r="BX16" s="273"/>
-      <c r="BY16" s="273"/>
-      <c r="BZ16" s="273"/>
-      <c r="CA16" s="273"/>
-      <c r="CB16" s="273"/>
+      <c r="BX16" s="279"/>
+      <c r="BY16" s="279"/>
+      <c r="BZ16" s="279"/>
+      <c r="CA16" s="279"/>
+      <c r="CB16" s="279"/>
       <c r="CC16" s="151"/>
       <c r="CD16" s="149"/>
     </row>
@@ -4634,12 +4893,12 @@
         <v>15</v>
       </c>
       <c r="BT17" s="136"/>
-      <c r="BX17" s="273" t="s">
+      <c r="BX17" s="279" t="s">
         <v>66</v>
       </c>
-      <c r="BY17" s="273"/>
-      <c r="BZ17" s="273"/>
-      <c r="CA17" s="273"/>
+      <c r="BY17" s="279"/>
+      <c r="BZ17" s="279"/>
+      <c r="CA17" s="279"/>
       <c r="CC17" s="137"/>
     </row>
     <row r="18" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4705,10 +4964,10 @@
       <c r="BT18" s="136"/>
       <c r="BU18" s="134"/>
       <c r="BV18" s="134"/>
-      <c r="BX18" s="273"/>
-      <c r="BY18" s="273"/>
-      <c r="BZ18" s="273"/>
-      <c r="CA18" s="273"/>
+      <c r="BX18" s="279"/>
+      <c r="BY18" s="279"/>
+      <c r="BZ18" s="279"/>
+      <c r="CA18" s="279"/>
       <c r="CC18" s="137"/>
     </row>
     <row r="19" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4898,10 +5157,10 @@
       <c r="BT21" s="136"/>
       <c r="BU21" s="140"/>
       <c r="BV21" s="141"/>
-      <c r="BX21" s="273" t="s">
+      <c r="BX21" s="279" t="s">
         <v>68</v>
       </c>
-      <c r="BY21" s="273"/>
+      <c r="BY21" s="279"/>
       <c r="CC21" s="137"/>
     </row>
     <row r="22" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4963,8 +5222,8 @@
       <c r="BT22" s="136"/>
       <c r="BU22" s="138"/>
       <c r="BV22" s="139"/>
-      <c r="BX22" s="273"/>
-      <c r="BY22" s="273"/>
+      <c r="BX22" s="279"/>
+      <c r="BY22" s="279"/>
       <c r="CC22" s="137"/>
     </row>
     <row r="23" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6131,11 +6390,2183 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="J1:BD183"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="78" width="3.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <v>5</v>
+      </c>
+      <c r="P4">
+        <v>6</v>
+      </c>
+      <c r="Q4">
+        <v>7</v>
+      </c>
+      <c r="R4">
+        <v>8</v>
+      </c>
+      <c r="S4">
+        <v>9</v>
+      </c>
+      <c r="T4">
+        <v>10</v>
+      </c>
+      <c r="U4">
+        <v>11</v>
+      </c>
+      <c r="V4">
+        <v>12</v>
+      </c>
+      <c r="W4">
+        <v>13</v>
+      </c>
+      <c r="X4">
+        <v>14</v>
+      </c>
+      <c r="Y4">
+        <v>15</v>
+      </c>
+      <c r="Z4">
+        <v>16</v>
+      </c>
+      <c r="AA4">
+        <v>17</v>
+      </c>
+      <c r="AB4">
+        <v>18</v>
+      </c>
+      <c r="AC4">
+        <v>19</v>
+      </c>
+      <c r="AD4">
+        <v>20</v>
+      </c>
+      <c r="AE4">
+        <v>21</v>
+      </c>
+      <c r="AF4">
+        <v>22</v>
+      </c>
+      <c r="AG4">
+        <v>23</v>
+      </c>
+      <c r="AH4">
+        <v>24</v>
+      </c>
+      <c r="AI4">
+        <v>25</v>
+      </c>
+      <c r="AJ4">
+        <v>26</v>
+      </c>
+      <c r="AK4">
+        <v>27</v>
+      </c>
+      <c r="AL4">
+        <v>28</v>
+      </c>
+      <c r="AM4">
+        <v>29</v>
+      </c>
+      <c r="AN4">
+        <v>30</v>
+      </c>
+      <c r="AO4">
+        <v>31</v>
+      </c>
+      <c r="AP4">
+        <v>32</v>
+      </c>
+      <c r="AQ4">
+        <v>33</v>
+      </c>
+      <c r="AR4">
+        <v>34</v>
+      </c>
+      <c r="AS4">
+        <v>35</v>
+      </c>
+      <c r="AT4">
+        <v>36</v>
+      </c>
+      <c r="AU4">
+        <v>37</v>
+      </c>
+      <c r="AV4">
+        <v>38</v>
+      </c>
+      <c r="AW4">
+        <v>39</v>
+      </c>
+      <c r="AX4">
+        <v>40</v>
+      </c>
+      <c r="AY4">
+        <v>41</v>
+      </c>
+      <c r="AZ4">
+        <v>42</v>
+      </c>
+      <c r="BA4">
+        <v>43</v>
+      </c>
+      <c r="BB4">
+        <v>44</v>
+      </c>
+      <c r="BC4">
+        <v>45</v>
+      </c>
+      <c r="BD4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="273"/>
+      <c r="L5" s="272"/>
+      <c r="M5" s="273"/>
+      <c r="N5" s="272"/>
+      <c r="O5" s="273"/>
+      <c r="P5" s="272"/>
+      <c r="Q5" s="273"/>
+      <c r="R5" s="272"/>
+      <c r="S5" s="273"/>
+      <c r="T5" s="272"/>
+      <c r="U5" s="273"/>
+      <c r="V5" s="272"/>
+      <c r="W5" s="273"/>
+      <c r="X5" s="272"/>
+      <c r="Y5" s="273"/>
+      <c r="Z5" s="272"/>
+      <c r="AA5" s="273"/>
+      <c r="AB5" s="272"/>
+      <c r="AC5" s="273"/>
+      <c r="AD5" s="272"/>
+      <c r="AE5" s="273"/>
+      <c r="AF5" s="272"/>
+      <c r="AG5" s="273"/>
+      <c r="AH5" s="272"/>
+      <c r="AI5" s="273"/>
+      <c r="AJ5" s="272"/>
+      <c r="AK5" s="273"/>
+      <c r="AL5" s="272"/>
+      <c r="AM5" s="273"/>
+      <c r="AN5" s="272"/>
+      <c r="AO5" s="273"/>
+      <c r="AP5" s="272"/>
+      <c r="AQ5" s="273"/>
+      <c r="AR5" s="272"/>
+      <c r="AS5" s="273"/>
+      <c r="AT5" s="272"/>
+      <c r="AU5" s="273"/>
+      <c r="AV5" s="272"/>
+      <c r="AW5" s="273"/>
+      <c r="AX5" s="272"/>
+      <c r="AY5" s="273"/>
+      <c r="AZ5" s="272"/>
+      <c r="BA5" s="273"/>
+      <c r="BB5" s="272"/>
+      <c r="BC5" s="273"/>
+      <c r="BD5" s="272"/>
+    </row>
+    <row r="6" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6" s="272"/>
+      <c r="L6" s="273"/>
+      <c r="M6" s="272"/>
+      <c r="N6" s="273"/>
+      <c r="O6" s="272"/>
+      <c r="P6" s="273"/>
+      <c r="Q6" s="272"/>
+      <c r="R6" s="273"/>
+      <c r="S6" s="272"/>
+      <c r="T6" s="273"/>
+      <c r="U6" s="272"/>
+      <c r="V6" s="273"/>
+      <c r="W6" s="272"/>
+      <c r="X6" s="273"/>
+      <c r="Y6" s="272"/>
+      <c r="Z6" s="273"/>
+      <c r="AA6" s="272"/>
+      <c r="AB6" s="273"/>
+      <c r="AC6" s="272"/>
+      <c r="AD6" s="273"/>
+      <c r="AE6" s="272"/>
+      <c r="AF6" s="273"/>
+      <c r="AG6" s="272"/>
+      <c r="AH6" s="273"/>
+      <c r="AI6" s="272"/>
+      <c r="AJ6" s="273"/>
+      <c r="AK6" s="272"/>
+      <c r="AL6" s="273"/>
+      <c r="AM6" s="272"/>
+      <c r="AN6" s="273"/>
+      <c r="AO6" s="272"/>
+      <c r="AP6" s="273"/>
+      <c r="AQ6" s="272"/>
+      <c r="AR6" s="273"/>
+      <c r="AS6" s="272"/>
+      <c r="AT6" s="273"/>
+      <c r="AU6" s="272"/>
+      <c r="AV6" s="273"/>
+      <c r="AW6" s="272"/>
+      <c r="AX6" s="273"/>
+      <c r="AY6" s="272"/>
+      <c r="AZ6" s="273"/>
+      <c r="BA6" s="272"/>
+      <c r="BB6" s="273"/>
+      <c r="BC6" s="272"/>
+      <c r="BD6" s="273"/>
+    </row>
+    <row r="7" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7" s="273"/>
+      <c r="L7" s="272"/>
+      <c r="M7" s="273"/>
+      <c r="N7" s="272"/>
+      <c r="O7" s="273"/>
+      <c r="P7" s="272"/>
+      <c r="Q7" s="273"/>
+      <c r="R7" s="272"/>
+      <c r="S7" s="273"/>
+      <c r="T7" s="272"/>
+      <c r="U7" s="273"/>
+      <c r="V7" s="272"/>
+      <c r="W7" s="273"/>
+      <c r="X7" s="272"/>
+      <c r="Y7" s="273"/>
+      <c r="Z7" s="272"/>
+      <c r="AA7" s="273"/>
+      <c r="AB7" s="272"/>
+      <c r="AC7" s="273"/>
+      <c r="AD7" s="272"/>
+      <c r="AE7" s="273"/>
+      <c r="AF7" s="272"/>
+      <c r="AG7" s="273"/>
+      <c r="AH7" s="272"/>
+      <c r="AI7" s="273"/>
+      <c r="AJ7" s="272"/>
+      <c r="AK7" s="273"/>
+      <c r="AL7" s="272"/>
+      <c r="AM7" s="273"/>
+      <c r="AN7" s="272"/>
+      <c r="AO7" s="273"/>
+      <c r="AP7" s="272"/>
+      <c r="AQ7" s="273"/>
+      <c r="AR7" s="272"/>
+      <c r="AS7" s="273"/>
+      <c r="AT7" s="272"/>
+      <c r="AU7" s="273"/>
+      <c r="AV7" s="272"/>
+      <c r="AW7" s="273"/>
+      <c r="AX7" s="272"/>
+      <c r="AY7" s="273"/>
+      <c r="AZ7" s="272"/>
+      <c r="BA7" s="273"/>
+      <c r="BB7" s="272"/>
+      <c r="BC7" s="273"/>
+      <c r="BD7" s="272"/>
+    </row>
+    <row r="8" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8" s="272"/>
+      <c r="L8" s="273"/>
+      <c r="M8" s="272"/>
+      <c r="N8" s="273"/>
+      <c r="O8" s="272"/>
+      <c r="P8" s="273"/>
+      <c r="Q8" s="272"/>
+      <c r="R8" s="273"/>
+      <c r="S8" s="272"/>
+      <c r="T8" s="273"/>
+      <c r="U8" s="272"/>
+      <c r="V8" s="273"/>
+      <c r="W8" s="272"/>
+      <c r="X8" s="273"/>
+      <c r="Y8" s="272"/>
+      <c r="Z8" s="273"/>
+      <c r="AA8" s="272"/>
+      <c r="AB8" s="273"/>
+      <c r="AC8" s="272"/>
+      <c r="AD8" s="273"/>
+      <c r="AE8" s="272"/>
+      <c r="AF8" s="273"/>
+      <c r="AG8" s="272"/>
+      <c r="AH8" s="273"/>
+      <c r="AI8" s="272"/>
+      <c r="AJ8" s="273"/>
+      <c r="AK8" s="272"/>
+      <c r="AL8" s="273"/>
+      <c r="AM8" s="272"/>
+      <c r="AN8" s="273"/>
+      <c r="AO8" s="272"/>
+      <c r="AP8" s="273"/>
+      <c r="AQ8" s="272"/>
+      <c r="AR8" s="273"/>
+      <c r="AS8" s="272"/>
+      <c r="AT8" s="273"/>
+      <c r="AU8" s="272"/>
+      <c r="AV8" s="273"/>
+      <c r="AW8" s="272"/>
+      <c r="AX8" s="273"/>
+      <c r="AY8" s="272"/>
+      <c r="AZ8" s="273"/>
+      <c r="BA8" s="272"/>
+      <c r="BB8" s="273"/>
+      <c r="BC8" s="272"/>
+      <c r="BD8" s="273"/>
+    </row>
+    <row r="9" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9" s="273"/>
+      <c r="L9" s="272"/>
+      <c r="M9" s="273"/>
+      <c r="N9" s="272"/>
+      <c r="O9" s="273"/>
+      <c r="P9" s="272"/>
+      <c r="Q9" s="273"/>
+      <c r="R9" s="272"/>
+      <c r="S9" s="273"/>
+      <c r="T9" s="272"/>
+      <c r="U9" s="273"/>
+      <c r="V9" s="272"/>
+      <c r="W9" s="273"/>
+      <c r="X9" s="272"/>
+      <c r="Y9" s="273"/>
+      <c r="Z9" s="272"/>
+      <c r="AA9" s="273"/>
+      <c r="AB9" s="272"/>
+      <c r="AC9" s="273"/>
+      <c r="AD9" s="272"/>
+      <c r="AE9" s="273"/>
+      <c r="AF9" s="272"/>
+      <c r="AG9" s="273"/>
+      <c r="AH9" s="272"/>
+      <c r="AI9" s="273"/>
+      <c r="AJ9" s="272"/>
+      <c r="AK9" s="273"/>
+      <c r="AL9" s="272"/>
+      <c r="AM9" s="273"/>
+      <c r="AN9" s="272"/>
+      <c r="AO9" s="273"/>
+      <c r="AP9" s="272"/>
+      <c r="AQ9" s="273"/>
+      <c r="AR9" s="272"/>
+      <c r="AS9" s="273"/>
+      <c r="AT9" s="272"/>
+      <c r="AU9" s="273"/>
+      <c r="AV9" s="272"/>
+      <c r="AW9" s="273"/>
+      <c r="AX9" s="272"/>
+      <c r="AY9" s="273"/>
+      <c r="AZ9" s="272"/>
+      <c r="BA9" s="273"/>
+      <c r="BB9" s="272"/>
+      <c r="BC9" s="273"/>
+      <c r="BD9" s="272"/>
+    </row>
+    <row r="10" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>6</v>
+      </c>
+      <c r="K10" s="272"/>
+      <c r="L10" s="273"/>
+      <c r="M10" s="272"/>
+      <c r="N10" s="273"/>
+      <c r="O10" s="272"/>
+      <c r="P10" s="273"/>
+      <c r="Q10" s="272"/>
+      <c r="R10" s="273"/>
+      <c r="S10" s="272"/>
+      <c r="T10" s="273"/>
+      <c r="U10" s="272"/>
+      <c r="V10" s="273"/>
+      <c r="W10" s="272"/>
+      <c r="X10" s="273"/>
+      <c r="Y10" s="272"/>
+      <c r="Z10" s="273"/>
+      <c r="AA10" s="272"/>
+      <c r="AB10" s="273"/>
+      <c r="AC10" s="272"/>
+      <c r="AD10" s="273"/>
+      <c r="AE10" s="272"/>
+      <c r="AF10" s="273"/>
+      <c r="AG10" s="272"/>
+      <c r="AH10" s="273"/>
+      <c r="AI10" s="272"/>
+      <c r="AJ10" s="273"/>
+      <c r="AK10" s="272"/>
+      <c r="AL10" s="273"/>
+      <c r="AM10" s="272"/>
+      <c r="AN10" s="273"/>
+      <c r="AO10" s="272"/>
+      <c r="AP10" s="273"/>
+      <c r="AQ10" s="272"/>
+      <c r="AR10" s="273"/>
+      <c r="AS10" s="272"/>
+      <c r="AT10" s="273"/>
+      <c r="AU10" s="272"/>
+      <c r="AV10" s="273"/>
+      <c r="AW10" s="272"/>
+      <c r="AX10" s="273"/>
+      <c r="AY10" s="272"/>
+      <c r="AZ10" s="273"/>
+      <c r="BA10" s="272"/>
+      <c r="BB10" s="273"/>
+      <c r="BC10" s="272"/>
+      <c r="BD10" s="273"/>
+    </row>
+    <row r="11" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>7</v>
+      </c>
+      <c r="K11" s="273"/>
+      <c r="L11" s="272"/>
+      <c r="M11" s="273"/>
+      <c r="N11" s="272"/>
+      <c r="O11" s="273"/>
+      <c r="P11" s="272"/>
+      <c r="Q11" s="273"/>
+      <c r="R11" s="272"/>
+      <c r="S11" s="273"/>
+      <c r="T11" s="272"/>
+      <c r="U11" s="273"/>
+      <c r="V11" s="272"/>
+      <c r="W11" s="273"/>
+      <c r="X11" s="272"/>
+      <c r="Y11" s="273"/>
+      <c r="Z11" s="272"/>
+      <c r="AA11" s="273"/>
+      <c r="AB11" s="272"/>
+      <c r="AC11" s="273"/>
+      <c r="AD11" s="272"/>
+      <c r="AE11" s="273"/>
+      <c r="AF11" s="272"/>
+      <c r="AG11" s="273"/>
+      <c r="AH11" s="272"/>
+      <c r="AI11" s="273"/>
+      <c r="AJ11" s="272"/>
+      <c r="AK11" s="273"/>
+      <c r="AL11" s="272"/>
+      <c r="AM11" s="273"/>
+      <c r="AN11" s="272"/>
+      <c r="AO11" s="273"/>
+      <c r="AP11" s="272"/>
+      <c r="AQ11" s="273"/>
+      <c r="AR11" s="272"/>
+      <c r="AS11" s="273"/>
+      <c r="AT11" s="272"/>
+      <c r="AU11" s="273"/>
+      <c r="AV11" s="272"/>
+      <c r="AW11" s="273"/>
+      <c r="AX11" s="272"/>
+      <c r="AY11" s="273"/>
+      <c r="AZ11" s="272"/>
+      <c r="BA11" s="273"/>
+      <c r="BB11" s="272"/>
+      <c r="BC11" s="273"/>
+      <c r="BD11" s="272"/>
+    </row>
+    <row r="12" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>8</v>
+      </c>
+      <c r="K12" s="272"/>
+      <c r="L12" s="273"/>
+      <c r="M12" s="272"/>
+      <c r="N12" s="273"/>
+      <c r="O12" s="272"/>
+      <c r="P12" s="273"/>
+      <c r="Q12" s="272"/>
+      <c r="R12" s="273"/>
+      <c r="S12" s="272"/>
+      <c r="T12" s="273"/>
+      <c r="U12" s="272"/>
+      <c r="V12" s="273"/>
+      <c r="W12" s="272"/>
+      <c r="X12" s="273"/>
+      <c r="Y12" s="272"/>
+      <c r="Z12" s="273"/>
+      <c r="AA12" s="272"/>
+      <c r="AB12" s="273"/>
+      <c r="AC12" s="272"/>
+      <c r="AD12" s="273"/>
+      <c r="AE12" s="272"/>
+      <c r="AF12" s="273"/>
+      <c r="AG12" s="272"/>
+      <c r="AH12" s="273"/>
+      <c r="AI12" s="272"/>
+      <c r="AJ12" s="273"/>
+      <c r="AK12" s="272"/>
+      <c r="AL12" s="273"/>
+      <c r="AM12" s="272"/>
+      <c r="AN12" s="273"/>
+      <c r="AO12" s="272"/>
+      <c r="AP12" s="273"/>
+      <c r="AQ12" s="272"/>
+      <c r="AR12" s="273"/>
+      <c r="AS12" s="272"/>
+      <c r="AT12" s="273"/>
+      <c r="AU12" s="272"/>
+      <c r="AV12" s="273"/>
+      <c r="AW12" s="272"/>
+      <c r="AX12" s="273"/>
+      <c r="AY12" s="272"/>
+      <c r="AZ12" s="273"/>
+      <c r="BA12" s="272"/>
+      <c r="BB12" s="273"/>
+      <c r="BC12" s="272"/>
+      <c r="BD12" s="273"/>
+    </row>
+    <row r="13" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <v>9</v>
+      </c>
+      <c r="K13" s="273"/>
+      <c r="L13" s="272"/>
+      <c r="M13" s="273"/>
+      <c r="N13" s="272"/>
+      <c r="O13" s="273"/>
+      <c r="P13" s="272"/>
+      <c r="Q13" s="273"/>
+      <c r="R13" s="272"/>
+      <c r="S13" s="273"/>
+      <c r="T13" s="272"/>
+      <c r="U13" s="273"/>
+      <c r="V13" s="272"/>
+      <c r="W13" s="273"/>
+      <c r="X13" s="272"/>
+      <c r="Y13" s="273"/>
+      <c r="Z13" s="272"/>
+      <c r="AA13" s="273"/>
+      <c r="AB13" s="272"/>
+      <c r="AC13" s="273"/>
+      <c r="AD13" s="272"/>
+      <c r="AE13" s="273"/>
+      <c r="AF13" s="272"/>
+      <c r="AG13" s="273"/>
+      <c r="AH13" s="272"/>
+      <c r="AI13" s="273"/>
+      <c r="AJ13" s="272"/>
+      <c r="AK13" s="273"/>
+      <c r="AL13" s="272"/>
+      <c r="AM13" s="273"/>
+      <c r="AN13" s="272"/>
+      <c r="AO13" s="273"/>
+      <c r="AP13" s="272"/>
+      <c r="AQ13" s="273"/>
+      <c r="AR13" s="272"/>
+      <c r="AS13" s="273"/>
+      <c r="AT13" s="272"/>
+      <c r="AU13" s="273"/>
+      <c r="AV13" s="272"/>
+      <c r="AW13" s="273"/>
+      <c r="AX13" s="272"/>
+      <c r="AY13" s="273"/>
+      <c r="AZ13" s="272"/>
+      <c r="BA13" s="273"/>
+      <c r="BB13" s="272"/>
+      <c r="BC13" s="273"/>
+      <c r="BD13" s="272"/>
+    </row>
+    <row r="14" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <v>10</v>
+      </c>
+      <c r="K14" s="272"/>
+      <c r="L14" s="273"/>
+      <c r="M14" s="272"/>
+      <c r="N14" s="273"/>
+      <c r="O14" s="272"/>
+      <c r="P14" s="273"/>
+      <c r="Q14" s="272"/>
+      <c r="R14" s="273"/>
+      <c r="S14" s="272"/>
+      <c r="T14" s="273"/>
+      <c r="U14" s="272"/>
+      <c r="V14" s="273"/>
+      <c r="W14" s="272"/>
+      <c r="X14" s="273"/>
+      <c r="Y14" s="272"/>
+      <c r="Z14" s="273"/>
+      <c r="AA14" s="272"/>
+      <c r="AB14" s="273"/>
+      <c r="AC14" s="272"/>
+      <c r="AD14" s="273"/>
+      <c r="AE14" s="272"/>
+      <c r="AF14" s="273"/>
+      <c r="AG14" s="272"/>
+      <c r="AH14" s="273"/>
+      <c r="AI14" s="272"/>
+      <c r="AJ14" s="273"/>
+      <c r="AK14" s="272"/>
+      <c r="AL14" s="273"/>
+      <c r="AM14" s="272"/>
+      <c r="AN14" s="273"/>
+      <c r="AO14" s="272"/>
+      <c r="AP14" s="273"/>
+      <c r="AQ14" s="272"/>
+      <c r="AR14" s="273"/>
+      <c r="AS14" s="272"/>
+      <c r="AT14" s="273"/>
+      <c r="AU14" s="272"/>
+      <c r="AV14" s="273"/>
+      <c r="AW14" s="272"/>
+      <c r="AX14" s="273"/>
+      <c r="AY14" s="272"/>
+      <c r="AZ14" s="273"/>
+      <c r="BA14" s="272"/>
+      <c r="BB14" s="273"/>
+      <c r="BC14" s="272"/>
+      <c r="BD14" s="273"/>
+    </row>
+    <row r="15" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>11</v>
+      </c>
+      <c r="K15" s="273"/>
+      <c r="L15" s="272"/>
+      <c r="M15" s="273"/>
+      <c r="N15" s="272"/>
+      <c r="O15" s="273"/>
+      <c r="P15" s="272"/>
+      <c r="Q15" s="273"/>
+      <c r="R15" s="272"/>
+      <c r="S15" s="273"/>
+      <c r="T15" s="272"/>
+      <c r="U15" s="273"/>
+      <c r="V15" s="272"/>
+      <c r="W15" s="273"/>
+      <c r="X15" s="272"/>
+      <c r="Y15" s="273"/>
+      <c r="Z15" s="272"/>
+      <c r="AA15" s="273"/>
+      <c r="AB15" s="272"/>
+      <c r="AC15" s="273"/>
+      <c r="AD15" s="272"/>
+      <c r="AE15" s="273"/>
+      <c r="AF15" s="272"/>
+      <c r="AG15" s="273"/>
+      <c r="AH15" s="272"/>
+      <c r="AI15" s="273"/>
+      <c r="AJ15" s="272"/>
+      <c r="AK15" s="273"/>
+      <c r="AL15" s="272"/>
+      <c r="AM15" s="273"/>
+      <c r="AN15" s="272"/>
+      <c r="AO15" s="273"/>
+      <c r="AP15" s="272"/>
+      <c r="AQ15" s="273"/>
+      <c r="AR15" s="272"/>
+      <c r="AS15" s="273"/>
+      <c r="AT15" s="272"/>
+      <c r="AU15" s="273"/>
+      <c r="AV15" s="272"/>
+      <c r="AW15" s="273"/>
+      <c r="AX15" s="272"/>
+      <c r="AY15" s="273"/>
+      <c r="AZ15" s="272"/>
+      <c r="BA15" s="273"/>
+      <c r="BB15" s="272"/>
+      <c r="BC15" s="273"/>
+      <c r="BD15" s="272"/>
+    </row>
+    <row r="16" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>12</v>
+      </c>
+      <c r="K16" s="272"/>
+      <c r="L16" s="273"/>
+      <c r="M16" s="272"/>
+      <c r="N16" s="273"/>
+      <c r="O16" s="272"/>
+      <c r="P16" s="273"/>
+      <c r="Q16" s="272"/>
+      <c r="R16" s="273"/>
+      <c r="S16" s="272"/>
+      <c r="T16" s="273"/>
+      <c r="U16" s="272"/>
+      <c r="V16" s="273"/>
+      <c r="W16" s="272"/>
+      <c r="X16" s="273"/>
+      <c r="Y16" s="272"/>
+      <c r="Z16" s="273"/>
+      <c r="AA16" s="272"/>
+      <c r="AB16" s="273"/>
+      <c r="AC16" s="272"/>
+      <c r="AD16" s="273"/>
+      <c r="AE16" s="272"/>
+      <c r="AF16" s="273"/>
+      <c r="AG16" s="272"/>
+      <c r="AH16" s="273"/>
+      <c r="AI16" s="272"/>
+      <c r="AJ16" s="273"/>
+      <c r="AK16" s="272"/>
+      <c r="AL16" s="273"/>
+      <c r="AM16" s="272"/>
+      <c r="AN16" s="273"/>
+      <c r="AO16" s="272"/>
+      <c r="AP16" s="273"/>
+      <c r="AQ16" s="272"/>
+      <c r="AR16" s="273"/>
+      <c r="AS16" s="272"/>
+      <c r="AT16" s="273"/>
+      <c r="AU16" s="272"/>
+      <c r="AV16" s="273"/>
+      <c r="AW16" s="272"/>
+      <c r="AX16" s="273"/>
+      <c r="AY16" s="272"/>
+      <c r="AZ16" s="273"/>
+      <c r="BA16" s="272"/>
+      <c r="BB16" s="273"/>
+      <c r="BC16" s="272"/>
+      <c r="BD16" s="273"/>
+    </row>
+    <row r="17" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>13</v>
+      </c>
+      <c r="K17" s="273"/>
+      <c r="L17" s="272"/>
+      <c r="M17" s="273"/>
+      <c r="N17" s="272"/>
+      <c r="O17" s="273"/>
+      <c r="P17" s="272"/>
+      <c r="Q17" s="273"/>
+      <c r="R17" s="272"/>
+      <c r="S17" s="273"/>
+      <c r="T17" s="272"/>
+      <c r="U17" s="273"/>
+      <c r="V17" s="272"/>
+      <c r="W17" s="273"/>
+      <c r="X17" s="272"/>
+      <c r="Y17" s="273"/>
+      <c r="Z17" s="272"/>
+      <c r="AA17" s="273"/>
+      <c r="AB17" s="272"/>
+      <c r="AC17" s="273"/>
+      <c r="AD17" s="272"/>
+      <c r="AE17" s="273"/>
+      <c r="AF17" s="272"/>
+      <c r="AG17" s="273"/>
+      <c r="AH17" s="272"/>
+      <c r="AI17" s="273"/>
+      <c r="AJ17" s="272"/>
+      <c r="AK17" s="273"/>
+      <c r="AL17" s="272"/>
+      <c r="AM17" s="273"/>
+      <c r="AN17" s="272"/>
+      <c r="AO17" s="273"/>
+      <c r="AP17" s="272"/>
+      <c r="AQ17" s="273"/>
+      <c r="AR17" s="272"/>
+      <c r="AS17" s="273"/>
+      <c r="AT17" s="272"/>
+      <c r="AU17" s="273"/>
+      <c r="AV17" s="272"/>
+      <c r="AW17" s="273"/>
+      <c r="AX17" s="272"/>
+      <c r="AY17" s="273"/>
+      <c r="AZ17" s="272"/>
+      <c r="BA17" s="273"/>
+      <c r="BB17" s="272"/>
+      <c r="BC17" s="273"/>
+      <c r="BD17" s="272"/>
+    </row>
+    <row r="18" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>14</v>
+      </c>
+      <c r="K18" s="272"/>
+      <c r="L18" s="273"/>
+      <c r="M18" s="272"/>
+      <c r="N18" s="273"/>
+      <c r="O18" s="272"/>
+      <c r="P18" s="273"/>
+      <c r="Q18" s="272"/>
+      <c r="R18" s="273"/>
+      <c r="S18" s="272"/>
+      <c r="T18" s="273"/>
+      <c r="U18" s="272"/>
+      <c r="V18" s="273"/>
+      <c r="W18" s="272"/>
+      <c r="X18" s="273"/>
+      <c r="Y18" s="272"/>
+      <c r="Z18" s="273"/>
+      <c r="AA18" s="272"/>
+      <c r="AB18" s="273"/>
+      <c r="AC18" s="272"/>
+      <c r="AD18" s="273"/>
+      <c r="AE18" s="272"/>
+      <c r="AF18" s="273"/>
+      <c r="AG18" s="272"/>
+      <c r="AH18" s="273"/>
+      <c r="AI18" s="272"/>
+      <c r="AJ18" s="273"/>
+      <c r="AK18" s="272"/>
+      <c r="AL18" s="273"/>
+      <c r="AM18" s="272"/>
+      <c r="AN18" s="273"/>
+      <c r="AO18" s="272"/>
+      <c r="AP18" s="273"/>
+      <c r="AQ18" s="272"/>
+      <c r="AR18" s="273"/>
+      <c r="AS18" s="272"/>
+      <c r="AT18" s="273"/>
+      <c r="AU18" s="272"/>
+      <c r="AV18" s="273"/>
+      <c r="AW18" s="272"/>
+      <c r="AX18" s="273"/>
+      <c r="AY18" s="272"/>
+      <c r="AZ18" s="273"/>
+      <c r="BA18" s="272"/>
+      <c r="BB18" s="273"/>
+      <c r="BC18" s="272"/>
+      <c r="BD18" s="273"/>
+    </row>
+    <row r="19" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>15</v>
+      </c>
+      <c r="K19" s="273"/>
+      <c r="L19" s="272"/>
+      <c r="M19" s="273"/>
+      <c r="N19" s="272"/>
+      <c r="O19" s="273"/>
+      <c r="P19" s="272"/>
+      <c r="Q19" s="273"/>
+      <c r="R19" s="272"/>
+      <c r="S19" s="273"/>
+      <c r="T19" s="272"/>
+      <c r="U19" s="273"/>
+      <c r="V19" s="272"/>
+      <c r="W19" s="273"/>
+      <c r="X19" s="272"/>
+      <c r="Y19" s="273"/>
+      <c r="Z19" s="272"/>
+      <c r="AA19" s="273"/>
+      <c r="AB19" s="272"/>
+      <c r="AC19" s="273"/>
+      <c r="AD19" s="272"/>
+      <c r="AE19" s="273"/>
+      <c r="AF19" s="272"/>
+      <c r="AG19" s="273"/>
+      <c r="AH19" s="272"/>
+      <c r="AI19" s="273"/>
+      <c r="AJ19" s="272"/>
+      <c r="AK19" s="273"/>
+      <c r="AL19" s="272"/>
+      <c r="AM19" s="273"/>
+      <c r="AN19" s="272"/>
+      <c r="AO19" s="273"/>
+      <c r="AP19" s="272"/>
+      <c r="AQ19" s="273"/>
+      <c r="AR19" s="272"/>
+      <c r="AS19" s="273"/>
+      <c r="AT19" s="272"/>
+      <c r="AU19" s="273"/>
+      <c r="AV19" s="272"/>
+      <c r="AW19" s="273"/>
+      <c r="AX19" s="272"/>
+      <c r="AY19" s="273"/>
+      <c r="AZ19" s="272"/>
+      <c r="BA19" s="273"/>
+      <c r="BB19" s="272"/>
+      <c r="BC19" s="273"/>
+      <c r="BD19" s="272"/>
+    </row>
+    <row r="20" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <v>16</v>
+      </c>
+      <c r="K20" s="272"/>
+      <c r="L20" s="273"/>
+      <c r="M20" s="272"/>
+      <c r="N20" s="273"/>
+      <c r="O20" s="272"/>
+      <c r="P20" s="273"/>
+      <c r="Q20" s="272"/>
+      <c r="R20" s="273"/>
+      <c r="S20" s="272"/>
+      <c r="T20" s="273"/>
+      <c r="U20" s="272"/>
+      <c r="V20" s="273"/>
+      <c r="W20" s="272"/>
+      <c r="X20" s="273"/>
+      <c r="Y20" s="272"/>
+      <c r="Z20" s="273"/>
+      <c r="AA20" s="272"/>
+      <c r="AB20" s="273"/>
+      <c r="AC20" s="272"/>
+      <c r="AD20" s="273"/>
+      <c r="AE20" s="272"/>
+      <c r="AF20" s="273"/>
+      <c r="AG20" s="272"/>
+      <c r="AH20" s="273"/>
+      <c r="AI20" s="272"/>
+      <c r="AJ20" s="273"/>
+      <c r="AK20" s="272"/>
+      <c r="AL20" s="273"/>
+      <c r="AM20" s="272"/>
+      <c r="AN20" s="273"/>
+      <c r="AO20" s="272"/>
+      <c r="AP20" s="273"/>
+      <c r="AQ20" s="272"/>
+      <c r="AR20" s="273"/>
+      <c r="AS20" s="272"/>
+      <c r="AT20" s="273"/>
+      <c r="AU20" s="272"/>
+      <c r="AV20" s="273"/>
+      <c r="AW20" s="272"/>
+      <c r="AX20" s="273"/>
+      <c r="AY20" s="272"/>
+      <c r="AZ20" s="273"/>
+      <c r="BA20" s="272"/>
+      <c r="BB20" s="273"/>
+      <c r="BC20" s="272"/>
+      <c r="BD20" s="273"/>
+    </row>
+    <row r="21" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <v>17</v>
+      </c>
+      <c r="K21" s="273"/>
+      <c r="L21" s="272"/>
+      <c r="M21" s="273"/>
+      <c r="N21" s="272"/>
+      <c r="O21" s="273"/>
+      <c r="P21" s="272"/>
+      <c r="Q21" s="273"/>
+      <c r="R21" s="272"/>
+      <c r="S21" s="273"/>
+      <c r="T21" s="272"/>
+      <c r="U21" s="273"/>
+      <c r="V21" s="272"/>
+      <c r="W21" s="273"/>
+      <c r="X21" s="272"/>
+      <c r="Y21" s="273"/>
+      <c r="Z21" s="272"/>
+      <c r="AA21" s="273"/>
+      <c r="AB21" s="272"/>
+      <c r="AC21" s="273"/>
+      <c r="AD21" s="272"/>
+      <c r="AE21" s="273"/>
+      <c r="AF21" s="272"/>
+      <c r="AG21" s="273"/>
+      <c r="AH21" s="272"/>
+      <c r="AI21" s="273"/>
+      <c r="AJ21" s="272"/>
+      <c r="AK21" s="273"/>
+      <c r="AL21" s="272"/>
+      <c r="AM21" s="273"/>
+      <c r="AN21" s="272"/>
+      <c r="AO21" s="273"/>
+      <c r="AP21" s="272"/>
+      <c r="AQ21" s="273"/>
+      <c r="AR21" s="272"/>
+      <c r="AS21" s="273"/>
+      <c r="AT21" s="272"/>
+      <c r="AU21" s="273"/>
+      <c r="AV21" s="272"/>
+      <c r="AW21" s="273"/>
+      <c r="AX21" s="272"/>
+      <c r="AY21" s="273"/>
+      <c r="AZ21" s="272"/>
+      <c r="BA21" s="273"/>
+      <c r="BB21" s="272"/>
+      <c r="BC21" s="273"/>
+      <c r="BD21" s="272"/>
+    </row>
+    <row r="22" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <v>18</v>
+      </c>
+      <c r="K22" s="272"/>
+      <c r="L22" s="273"/>
+      <c r="M22" s="272"/>
+      <c r="N22" s="273"/>
+      <c r="O22" s="272"/>
+      <c r="P22" s="273"/>
+      <c r="Q22" s="272"/>
+      <c r="R22" s="273"/>
+      <c r="S22" s="272"/>
+      <c r="T22" s="273"/>
+      <c r="U22" s="272"/>
+      <c r="V22" s="273"/>
+      <c r="W22" s="272"/>
+      <c r="X22" s="273"/>
+      <c r="Y22" s="272"/>
+      <c r="Z22" s="273"/>
+      <c r="AA22" s="272"/>
+      <c r="AB22" s="273"/>
+      <c r="AC22" s="272"/>
+      <c r="AD22" s="273"/>
+      <c r="AE22" s="272"/>
+      <c r="AF22" s="273"/>
+      <c r="AG22" s="272"/>
+      <c r="AH22" s="273"/>
+      <c r="AI22" s="272"/>
+      <c r="AJ22" s="273"/>
+      <c r="AK22" s="272"/>
+      <c r="AL22" s="273"/>
+      <c r="AM22" s="272"/>
+      <c r="AN22" s="273"/>
+      <c r="AO22" s="272"/>
+      <c r="AP22" s="273"/>
+      <c r="AQ22" s="272"/>
+      <c r="AR22" s="273"/>
+      <c r="AS22" s="272"/>
+      <c r="AT22" s="273"/>
+      <c r="AU22" s="272"/>
+      <c r="AV22" s="273"/>
+      <c r="AW22" s="272"/>
+      <c r="AX22" s="273"/>
+      <c r="AY22" s="272"/>
+      <c r="AZ22" s="273"/>
+      <c r="BA22" s="272"/>
+      <c r="BB22" s="273"/>
+      <c r="BC22" s="272"/>
+      <c r="BD22" s="273"/>
+    </row>
+    <row r="23" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <v>19</v>
+      </c>
+      <c r="K23" s="273"/>
+      <c r="L23" s="272"/>
+      <c r="M23" s="273"/>
+      <c r="N23" s="272"/>
+      <c r="O23" s="273"/>
+      <c r="P23" s="272"/>
+      <c r="Q23" s="273"/>
+      <c r="R23" s="272"/>
+      <c r="S23" s="273"/>
+      <c r="T23" s="272"/>
+      <c r="U23" s="273"/>
+      <c r="V23" s="272"/>
+      <c r="W23" s="273"/>
+      <c r="X23" s="272"/>
+      <c r="Y23" s="273"/>
+      <c r="Z23" s="272"/>
+      <c r="AA23" s="273"/>
+      <c r="AB23" s="272"/>
+      <c r="AC23" s="273"/>
+      <c r="AD23" s="272"/>
+      <c r="AE23" s="273"/>
+      <c r="AF23" s="272"/>
+      <c r="AG23" s="273"/>
+      <c r="AH23" s="272"/>
+      <c r="AI23" s="273"/>
+      <c r="AJ23" s="272"/>
+      <c r="AK23" s="273"/>
+      <c r="AL23" s="272"/>
+      <c r="AM23" s="273"/>
+      <c r="AN23" s="272"/>
+      <c r="AO23" s="273"/>
+      <c r="AP23" s="272"/>
+      <c r="AQ23" s="273"/>
+      <c r="AR23" s="272"/>
+      <c r="AS23" s="273"/>
+      <c r="AT23" s="272"/>
+      <c r="AU23" s="273"/>
+      <c r="AV23" s="272"/>
+      <c r="AW23" s="273"/>
+      <c r="AX23" s="272"/>
+      <c r="AY23" s="273"/>
+      <c r="AZ23" s="272"/>
+      <c r="BA23" s="273"/>
+      <c r="BB23" s="272"/>
+      <c r="BC23" s="273"/>
+      <c r="BD23" s="272"/>
+    </row>
+    <row r="24" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <v>20</v>
+      </c>
+      <c r="K24" s="272"/>
+      <c r="L24" s="273"/>
+      <c r="M24" s="272"/>
+      <c r="N24" s="273"/>
+      <c r="O24" s="272"/>
+      <c r="P24" s="273"/>
+      <c r="Q24" s="272"/>
+      <c r="R24" s="273"/>
+      <c r="S24" s="272"/>
+      <c r="T24" s="273"/>
+      <c r="U24" s="272"/>
+      <c r="V24" s="273"/>
+      <c r="W24" s="272"/>
+      <c r="X24" s="273"/>
+      <c r="Y24" s="272"/>
+      <c r="Z24" s="273"/>
+      <c r="AA24" s="272"/>
+      <c r="AB24" s="273"/>
+      <c r="AC24" s="272"/>
+      <c r="AD24" s="273"/>
+      <c r="AE24" s="272"/>
+      <c r="AF24" s="273"/>
+      <c r="AG24" s="272"/>
+      <c r="AH24" s="273"/>
+      <c r="AI24" s="272"/>
+      <c r="AJ24" s="273"/>
+      <c r="AK24" s="272"/>
+      <c r="AL24" s="273"/>
+      <c r="AM24" s="272"/>
+      <c r="AN24" s="273"/>
+      <c r="AO24" s="272"/>
+      <c r="AP24" s="273"/>
+      <c r="AQ24" s="272"/>
+      <c r="AR24" s="273"/>
+      <c r="AS24" s="272"/>
+      <c r="AT24" s="273"/>
+      <c r="AU24" s="272"/>
+      <c r="AV24" s="273"/>
+      <c r="AW24" s="272"/>
+      <c r="AX24" s="273"/>
+      <c r="AY24" s="272"/>
+      <c r="AZ24" s="273"/>
+      <c r="BA24" s="272"/>
+      <c r="BB24" s="273"/>
+      <c r="BC24" s="272"/>
+      <c r="BD24" s="273"/>
+    </row>
+    <row r="25" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <v>21</v>
+      </c>
+      <c r="K25" s="273"/>
+      <c r="L25" s="272"/>
+      <c r="M25" s="273"/>
+      <c r="N25" s="272"/>
+      <c r="O25" s="273"/>
+      <c r="P25" s="272"/>
+      <c r="Q25" s="273"/>
+      <c r="R25" s="272"/>
+      <c r="S25" s="273"/>
+      <c r="T25" s="272"/>
+      <c r="U25" s="273"/>
+      <c r="V25" s="272"/>
+      <c r="W25" s="273"/>
+      <c r="X25" s="272"/>
+      <c r="Y25" s="273"/>
+      <c r="Z25" s="272"/>
+      <c r="AA25" s="273"/>
+      <c r="AB25" s="272"/>
+      <c r="AC25" s="273"/>
+      <c r="AD25" s="272"/>
+      <c r="AE25" s="273"/>
+      <c r="AF25" s="272"/>
+      <c r="AG25" s="273"/>
+      <c r="AH25" s="272"/>
+      <c r="AI25" s="273"/>
+      <c r="AJ25" s="272"/>
+      <c r="AK25" s="273"/>
+      <c r="AL25" s="272"/>
+      <c r="AM25" s="273"/>
+      <c r="AN25" s="272"/>
+      <c r="AO25" s="273"/>
+      <c r="AP25" s="272"/>
+      <c r="AQ25" s="273"/>
+      <c r="AR25" s="272"/>
+      <c r="AS25" s="273"/>
+      <c r="AT25" s="272"/>
+      <c r="AU25" s="273"/>
+      <c r="AV25" s="272"/>
+      <c r="AW25" s="273"/>
+      <c r="AX25" s="272"/>
+      <c r="AY25" s="273"/>
+      <c r="AZ25" s="272"/>
+      <c r="BA25" s="273"/>
+      <c r="BB25" s="272"/>
+      <c r="BC25" s="273"/>
+      <c r="BD25" s="272"/>
+    </row>
+    <row r="26" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <v>22</v>
+      </c>
+      <c r="K26" s="272"/>
+      <c r="L26" s="273"/>
+      <c r="M26" s="272"/>
+      <c r="N26" s="273"/>
+      <c r="O26" s="272"/>
+      <c r="P26" s="273"/>
+      <c r="Q26" s="272"/>
+      <c r="R26" s="273"/>
+      <c r="S26" s="272"/>
+      <c r="T26" s="273"/>
+      <c r="U26" s="272"/>
+      <c r="V26" s="273"/>
+      <c r="W26" s="272"/>
+      <c r="X26" s="273"/>
+      <c r="Y26" s="272"/>
+      <c r="Z26" s="273"/>
+      <c r="AA26" s="272"/>
+      <c r="AB26" s="273"/>
+      <c r="AC26" s="272"/>
+      <c r="AD26" s="273"/>
+      <c r="AE26" s="272"/>
+      <c r="AF26" s="273"/>
+      <c r="AG26" s="272"/>
+      <c r="AH26" s="273"/>
+      <c r="AI26" s="272"/>
+      <c r="AJ26" s="273"/>
+      <c r="AK26" s="272"/>
+      <c r="AL26" s="273"/>
+      <c r="AM26" s="272"/>
+      <c r="AN26" s="273"/>
+      <c r="AO26" s="272"/>
+      <c r="AP26" s="273"/>
+      <c r="AQ26" s="272"/>
+      <c r="AR26" s="273"/>
+      <c r="AS26" s="272"/>
+      <c r="AT26" s="273"/>
+      <c r="AU26" s="272"/>
+      <c r="AV26" s="273"/>
+      <c r="AW26" s="272"/>
+      <c r="AX26" s="273"/>
+      <c r="AY26" s="272"/>
+      <c r="AZ26" s="273"/>
+      <c r="BA26" s="272"/>
+      <c r="BB26" s="273"/>
+      <c r="BC26" s="272"/>
+      <c r="BD26" s="273"/>
+    </row>
+    <row r="27" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <v>23</v>
+      </c>
+      <c r="K27" s="273"/>
+      <c r="L27" s="272"/>
+      <c r="M27" s="273"/>
+      <c r="N27" s="272"/>
+      <c r="O27" s="273"/>
+      <c r="P27" s="272"/>
+      <c r="Q27" s="273"/>
+      <c r="R27" s="272"/>
+      <c r="S27" s="273"/>
+      <c r="T27" s="272"/>
+      <c r="U27" s="273"/>
+      <c r="V27" s="272"/>
+      <c r="W27" s="273"/>
+      <c r="X27" s="272"/>
+      <c r="Y27" s="273"/>
+      <c r="Z27" s="272"/>
+      <c r="AA27" s="273"/>
+      <c r="AB27" s="272"/>
+      <c r="AC27" s="273"/>
+      <c r="AD27" s="272"/>
+      <c r="AE27" s="273"/>
+      <c r="AF27" s="272"/>
+      <c r="AG27" s="273"/>
+      <c r="AH27" s="272"/>
+      <c r="AI27" s="273"/>
+      <c r="AJ27" s="272"/>
+      <c r="AK27" s="273"/>
+      <c r="AL27" s="272"/>
+      <c r="AM27" s="273"/>
+      <c r="AN27" s="272"/>
+      <c r="AO27" s="273"/>
+      <c r="AP27" s="272"/>
+      <c r="AQ27" s="273"/>
+      <c r="AR27" s="272"/>
+      <c r="AS27" s="273"/>
+      <c r="AT27" s="272"/>
+      <c r="AU27" s="273"/>
+      <c r="AV27" s="272"/>
+      <c r="AW27" s="273"/>
+      <c r="AX27" s="272"/>
+      <c r="AY27" s="273"/>
+      <c r="AZ27" s="272"/>
+      <c r="BA27" s="273"/>
+      <c r="BB27" s="272"/>
+      <c r="BC27" s="273"/>
+      <c r="BD27" s="272"/>
+    </row>
+    <row r="28" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <v>24</v>
+      </c>
+      <c r="K28" s="272"/>
+      <c r="L28" s="273"/>
+      <c r="M28" s="272"/>
+      <c r="N28" s="273"/>
+      <c r="O28" s="272"/>
+      <c r="P28" s="273"/>
+      <c r="Q28" s="272"/>
+      <c r="R28" s="273"/>
+      <c r="S28" s="272"/>
+      <c r="T28" s="273"/>
+      <c r="U28" s="272"/>
+      <c r="V28" s="273"/>
+      <c r="W28" s="272"/>
+      <c r="X28" s="273"/>
+      <c r="Y28" s="272"/>
+      <c r="Z28" s="273"/>
+      <c r="AA28" s="272"/>
+      <c r="AB28" s="273"/>
+      <c r="AC28" s="272"/>
+      <c r="AD28" s="273"/>
+      <c r="AE28" s="272"/>
+      <c r="AF28" s="273"/>
+      <c r="AG28" s="272"/>
+      <c r="AH28" s="273"/>
+      <c r="AI28" s="272"/>
+      <c r="AJ28" s="273"/>
+      <c r="AK28" s="272"/>
+      <c r="AL28" s="273"/>
+      <c r="AM28" s="272"/>
+      <c r="AN28" s="273"/>
+      <c r="AO28" s="272"/>
+      <c r="AP28" s="273"/>
+      <c r="AQ28" s="272"/>
+      <c r="AR28" s="273"/>
+      <c r="AS28" s="272"/>
+      <c r="AT28" s="273"/>
+      <c r="AU28" s="272"/>
+      <c r="AV28" s="273"/>
+      <c r="AW28" s="272"/>
+      <c r="AX28" s="273"/>
+      <c r="AY28" s="272"/>
+      <c r="AZ28" s="273"/>
+      <c r="BA28" s="272"/>
+      <c r="BB28" s="273"/>
+      <c r="BC28" s="272"/>
+      <c r="BD28" s="273"/>
+    </row>
+    <row r="29" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <v>25</v>
+      </c>
+      <c r="K29" s="273"/>
+      <c r="L29" s="272"/>
+      <c r="M29" s="273"/>
+      <c r="N29" s="272"/>
+      <c r="O29" s="273"/>
+      <c r="P29" s="272"/>
+      <c r="Q29" s="273"/>
+      <c r="R29" s="272"/>
+      <c r="S29" s="273"/>
+      <c r="T29" s="272"/>
+      <c r="U29" s="273"/>
+      <c r="V29" s="272"/>
+      <c r="W29" s="273"/>
+      <c r="X29" s="272"/>
+      <c r="Y29" s="273"/>
+      <c r="Z29" s="272"/>
+      <c r="AA29" s="273"/>
+      <c r="AB29" s="272"/>
+      <c r="AC29" s="273"/>
+      <c r="AD29" s="272"/>
+      <c r="AE29" s="273"/>
+      <c r="AF29" s="272"/>
+      <c r="AG29" s="273"/>
+      <c r="AH29" s="272"/>
+      <c r="AI29" s="273"/>
+      <c r="AJ29" s="272"/>
+      <c r="AK29" s="273"/>
+      <c r="AL29" s="272"/>
+      <c r="AM29" s="273"/>
+      <c r="AN29" s="272"/>
+      <c r="AO29" s="273"/>
+      <c r="AP29" s="272"/>
+      <c r="AQ29" s="273"/>
+      <c r="AR29" s="272"/>
+      <c r="AS29" s="273"/>
+      <c r="AT29" s="272"/>
+      <c r="AU29" s="273"/>
+      <c r="AV29" s="272"/>
+      <c r="AW29" s="273"/>
+      <c r="AX29" s="272"/>
+      <c r="AY29" s="273"/>
+      <c r="AZ29" s="272"/>
+      <c r="BA29" s="273"/>
+      <c r="BB29" s="272"/>
+      <c r="BC29" s="273"/>
+      <c r="BD29" s="272"/>
+    </row>
+    <row r="30" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <v>26</v>
+      </c>
+      <c r="K30" s="272"/>
+      <c r="L30" s="273"/>
+      <c r="M30" s="272"/>
+      <c r="N30" s="273"/>
+      <c r="O30" s="272"/>
+      <c r="P30" s="273"/>
+      <c r="Q30" s="272"/>
+      <c r="R30" s="273"/>
+      <c r="S30" s="272"/>
+      <c r="T30" s="273"/>
+      <c r="U30" s="272"/>
+      <c r="V30" s="273"/>
+      <c r="W30" s="272"/>
+      <c r="X30" s="273"/>
+      <c r="Y30" s="272"/>
+      <c r="Z30" s="273"/>
+      <c r="AA30" s="272"/>
+      <c r="AB30" s="273"/>
+      <c r="AC30" s="272"/>
+      <c r="AD30" s="273"/>
+      <c r="AE30" s="272"/>
+      <c r="AF30" s="273"/>
+      <c r="AG30" s="272"/>
+      <c r="AH30" s="273"/>
+      <c r="AI30" s="272"/>
+      <c r="AJ30" s="273"/>
+      <c r="AK30" s="272"/>
+      <c r="AL30" s="273"/>
+      <c r="AM30" s="272"/>
+      <c r="AN30" s="273"/>
+      <c r="AO30" s="272"/>
+      <c r="AP30" s="273"/>
+      <c r="AQ30" s="272"/>
+      <c r="AR30" s="273"/>
+      <c r="AS30" s="272"/>
+      <c r="AT30" s="273"/>
+      <c r="AU30" s="272"/>
+      <c r="AV30" s="273"/>
+      <c r="AW30" s="272"/>
+      <c r="AX30" s="273"/>
+      <c r="AY30" s="272"/>
+      <c r="AZ30" s="273"/>
+      <c r="BA30" s="272"/>
+      <c r="BB30" s="273"/>
+      <c r="BC30" s="272"/>
+      <c r="BD30" s="273"/>
+    </row>
+    <row r="31" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:Q35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="274"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E9" s="275" t="s">
+        <v>120</v>
+      </c>
+      <c r="F9" s="275" t="s">
+        <v>136</v>
+      </c>
+      <c r="G9" s="275" t="s">
+        <v>137</v>
+      </c>
+      <c r="H9" s="275" t="s">
+        <v>138</v>
+      </c>
+      <c r="M9" s="275"/>
+      <c r="N9" s="275" t="s">
+        <v>152</v>
+      </c>
+      <c r="O9" s="275"/>
+      <c r="P9" s="275"/>
+      <c r="Q9" s="275"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E10" s="276" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" s="275" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" s="275" t="s">
+        <v>125</v>
+      </c>
+      <c r="H10" s="275"/>
+      <c r="M10" s="275"/>
+      <c r="N10" s="275" t="s">
+        <v>153</v>
+      </c>
+      <c r="O10" s="275" t="s">
+        <v>154</v>
+      </c>
+      <c r="P10" s="275" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q10" s="275" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E11" s="276" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" s="275"/>
+      <c r="G11" s="275"/>
+      <c r="H11" s="275"/>
+      <c r="M11" s="275" t="s">
+        <v>157</v>
+      </c>
+      <c r="N11" s="276">
+        <v>1</v>
+      </c>
+      <c r="O11" s="276">
+        <v>5</v>
+      </c>
+      <c r="P11" s="276">
+        <v>9</v>
+      </c>
+      <c r="Q11" s="276">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E12" s="276" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="275"/>
+      <c r="G12" s="275"/>
+      <c r="H12" s="275"/>
+      <c r="M12" s="275" t="s">
+        <v>158</v>
+      </c>
+      <c r="N12" s="276">
+        <v>2</v>
+      </c>
+      <c r="O12" s="276">
+        <v>6</v>
+      </c>
+      <c r="P12" s="276">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="276">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E13" s="276" t="s">
+        <v>124</v>
+      </c>
+      <c r="F13" s="275"/>
+      <c r="G13" s="275"/>
+      <c r="H13" s="275"/>
+      <c r="M13" s="275" t="s">
+        <v>159</v>
+      </c>
+      <c r="N13" s="276">
+        <v>3</v>
+      </c>
+      <c r="O13" s="276">
+        <v>7</v>
+      </c>
+      <c r="P13" s="276">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="276">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E14" s="276" t="s">
+        <v>125</v>
+      </c>
+      <c r="F14" s="275"/>
+      <c r="G14" s="275"/>
+      <c r="H14" s="275"/>
+      <c r="M14" s="275" t="s">
+        <v>160</v>
+      </c>
+      <c r="N14" s="276">
+        <v>4</v>
+      </c>
+      <c r="O14" s="276">
+        <v>8</v>
+      </c>
+      <c r="P14" s="276">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="276">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E15" s="275"/>
+      <c r="F15" s="275"/>
+      <c r="G15" s="275"/>
+      <c r="H15" s="275"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E16" s="276" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" s="275"/>
+      <c r="G16" s="275"/>
+      <c r="H16" s="275"/>
+    </row>
+    <row r="17" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E17" s="276" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" s="275"/>
+      <c r="G17" s="275"/>
+      <c r="H17" s="275"/>
+      <c r="L17" s="275"/>
+      <c r="M17" s="275"/>
+      <c r="N17" s="275"/>
+      <c r="O17" s="275"/>
+    </row>
+    <row r="18" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E18" s="276" t="s">
+        <v>128</v>
+      </c>
+      <c r="F18" s="275"/>
+      <c r="G18" s="275"/>
+      <c r="H18" s="275"/>
+      <c r="L18" s="275" t="s">
+        <v>168</v>
+      </c>
+      <c r="M18" s="276">
+        <v>2</v>
+      </c>
+      <c r="N18" s="277" t="s">
+        <v>153</v>
+      </c>
+      <c r="O18" s="277" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E19" s="276" t="s">
+        <v>129</v>
+      </c>
+      <c r="F19" s="275"/>
+      <c r="G19" s="275"/>
+      <c r="H19" s="275"/>
+      <c r="L19" s="275" t="s">
+        <v>169</v>
+      </c>
+      <c r="M19" s="276">
+        <v>13</v>
+      </c>
+      <c r="N19" s="277" t="s">
+        <v>156</v>
+      </c>
+      <c r="O19" s="277" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E20" s="276" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" s="275"/>
+      <c r="G20" s="275"/>
+      <c r="H20" s="275"/>
+      <c r="L20" s="275" t="s">
+        <v>170</v>
+      </c>
+      <c r="M20" s="276">
+        <v>10</v>
+      </c>
+      <c r="N20" s="277" t="s">
+        <v>155</v>
+      </c>
+      <c r="O20" s="277" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E21" s="276" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" s="275"/>
+      <c r="G21" s="275"/>
+      <c r="H21" s="275"/>
+      <c r="L21" s="275" t="s">
+        <v>171</v>
+      </c>
+      <c r="M21" s="276">
+        <v>11</v>
+      </c>
+      <c r="N21" s="277" t="s">
+        <v>155</v>
+      </c>
+      <c r="O21" s="277" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E22" s="276" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" s="275" t="s">
+        <v>139</v>
+      </c>
+      <c r="G22" s="275" t="s">
+        <v>140</v>
+      </c>
+      <c r="H22" s="275"/>
+      <c r="L22" s="275" t="s">
+        <v>172</v>
+      </c>
+      <c r="M22" s="276">
+        <v>3</v>
+      </c>
+      <c r="N22" s="277" t="s">
+        <v>153</v>
+      </c>
+      <c r="O22" s="277" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E23" s="276" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="275"/>
+      <c r="G23" s="275"/>
+      <c r="H23" s="275"/>
+      <c r="L23" s="275" t="s">
+        <v>173</v>
+      </c>
+      <c r="M23" s="276">
+        <v>12</v>
+      </c>
+      <c r="N23" s="277" t="s">
+        <v>155</v>
+      </c>
+      <c r="O23" s="277" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E24" s="276" t="s">
+        <v>134</v>
+      </c>
+      <c r="F24" s="275"/>
+      <c r="G24" s="275"/>
+      <c r="H24" s="275"/>
+      <c r="L24" s="275" t="s">
+        <v>174</v>
+      </c>
+      <c r="M24" s="276">
+        <v>6</v>
+      </c>
+      <c r="N24" s="277" t="s">
+        <v>154</v>
+      </c>
+      <c r="O24" s="277" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E25" s="276" t="s">
+        <v>135</v>
+      </c>
+      <c r="F25" s="275"/>
+      <c r="G25" s="275"/>
+      <c r="H25" s="275"/>
+      <c r="L25" s="275" t="s">
+        <v>175</v>
+      </c>
+      <c r="M25" s="276">
+        <v>9</v>
+      </c>
+      <c r="N25" s="277" t="s">
+        <v>155</v>
+      </c>
+      <c r="O25" s="277" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E26" s="276" t="s">
+        <v>142</v>
+      </c>
+      <c r="F26" s="275" t="s">
+        <v>141</v>
+      </c>
+      <c r="G26" s="275" t="s">
+        <v>125</v>
+      </c>
+      <c r="H26" s="275"/>
+      <c r="L26" s="275" t="s">
+        <v>176</v>
+      </c>
+      <c r="M26" s="276">
+        <v>15</v>
+      </c>
+      <c r="N26" s="277" t="s">
+        <v>156</v>
+      </c>
+      <c r="O26" s="277" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E27" s="276" t="s">
+        <v>143</v>
+      </c>
+      <c r="F27" s="275"/>
+      <c r="G27" s="275"/>
+      <c r="H27" s="275"/>
+      <c r="L27" s="275" t="s">
+        <v>162</v>
+      </c>
+      <c r="M27" s="276">
+        <v>16</v>
+      </c>
+      <c r="N27" s="277" t="s">
+        <v>156</v>
+      </c>
+      <c r="O27" s="277" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E28" s="276" t="s">
+        <v>144</v>
+      </c>
+      <c r="F28" s="275"/>
+      <c r="G28" s="275"/>
+      <c r="H28" s="275"/>
+      <c r="L28" s="275" t="s">
+        <v>163</v>
+      </c>
+      <c r="M28" s="276">
+        <v>7</v>
+      </c>
+      <c r="N28" s="277" t="s">
+        <v>154</v>
+      </c>
+      <c r="O28" s="277" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E29" s="276" t="s">
+        <v>146</v>
+      </c>
+      <c r="F29" s="275" t="s">
+        <v>145</v>
+      </c>
+      <c r="G29" s="275" t="s">
+        <v>147</v>
+      </c>
+      <c r="H29" s="275" t="s">
+        <v>148</v>
+      </c>
+      <c r="L29" s="275" t="s">
+        <v>164</v>
+      </c>
+      <c r="M29" s="276">
+        <v>4</v>
+      </c>
+      <c r="N29" s="277" t="s">
+        <v>153</v>
+      </c>
+      <c r="O29" s="277" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E30" s="276" t="s">
+        <v>149</v>
+      </c>
+      <c r="F30" s="275" t="s">
+        <v>150</v>
+      </c>
+      <c r="G30" s="275" t="s">
+        <v>151</v>
+      </c>
+      <c r="H30" s="275"/>
+      <c r="L30" s="275" t="s">
+        <v>165</v>
+      </c>
+      <c r="M30" s="276">
+        <v>8</v>
+      </c>
+      <c r="N30" s="277" t="s">
+        <v>154</v>
+      </c>
+      <c r="O30" s="277" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E31" s="278" t="s">
+        <v>177</v>
+      </c>
+      <c r="L31" s="275" t="s">
+        <v>161</v>
+      </c>
+      <c r="M31" s="276">
+        <v>5</v>
+      </c>
+      <c r="N31" s="277" t="s">
+        <v>154</v>
+      </c>
+      <c r="O31" s="277" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="32" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E32" s="278" t="s">
+        <v>178</v>
+      </c>
+      <c r="L32" s="275" t="s">
+        <v>166</v>
+      </c>
+      <c r="M32" s="276">
+        <v>1</v>
+      </c>
+      <c r="N32" s="277" t="s">
+        <v>153</v>
+      </c>
+      <c r="O32" s="277" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E33" s="278" t="s">
+        <v>179</v>
+      </c>
+      <c r="F33" t="s">
+        <v>180</v>
+      </c>
+      <c r="L33" s="275" t="s">
+        <v>167</v>
+      </c>
+      <c r="M33" s="276">
+        <v>14</v>
+      </c>
+      <c r="N33" s="277" t="s">
+        <v>156</v>
+      </c>
+      <c r="O33" s="277" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="L17:O33" xr:uid="{00000000-0009-0000-0000-000003000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L18:O33">
+      <sortCondition ref="L17:L33"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:AY619"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7896,2174 +10327,2790 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="J1:BD183"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA9E5FAB-1047-4072-92C4-3E2647FF44F0}">
+  <dimension ref="I1:CJ689"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" topLeftCell="I4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7:CI31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="78" width="3.28515625" customWidth="1"/>
+    <col min="1" max="91" width="4.28515625" style="153" customWidth="1"/>
+    <col min="92" max="16384" width="11.42578125" style="153"/>
   </cols>
   <sheetData>
-    <row r="1" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K4">
+    <row r="1" spans="10:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="10:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="10:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="10:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="10:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="10:88" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O6" s="153">
         <v>1</v>
       </c>
-      <c r="L4">
+      <c r="P6" s="153">
         <v>2</v>
       </c>
-      <c r="M4">
+      <c r="Q6" s="153">
         <v>3</v>
       </c>
-      <c r="N4">
+      <c r="R6" s="153">
         <v>4</v>
       </c>
-      <c r="O4">
+      <c r="S6" s="153">
         <v>5</v>
       </c>
-      <c r="P4">
+      <c r="T6" s="153">
         <v>6</v>
       </c>
-      <c r="Q4">
+      <c r="U6" s="153">
         <v>7</v>
       </c>
-      <c r="R4">
+      <c r="V6" s="153">
         <v>8</v>
       </c>
-      <c r="S4">
+      <c r="W6" s="153">
         <v>9</v>
       </c>
-      <c r="T4">
+      <c r="X6" s="153">
         <v>10</v>
       </c>
-      <c r="U4">
+      <c r="Y6" s="153">
         <v>11</v>
       </c>
-      <c r="V4">
+      <c r="Z6" s="153">
         <v>12</v>
       </c>
-      <c r="W4">
+      <c r="AA6" s="153">
         <v>13</v>
       </c>
-      <c r="X4">
+      <c r="AB6" s="153">
         <v>14</v>
       </c>
-      <c r="Y4">
+      <c r="AC6" s="153">
         <v>15</v>
       </c>
-      <c r="Z4">
+      <c r="AD6" s="153">
         <v>16</v>
       </c>
-      <c r="AA4">
+      <c r="AE6" s="153">
         <v>17</v>
       </c>
-      <c r="AB4">
+      <c r="AF6" s="153">
         <v>18</v>
       </c>
-      <c r="AC4">
+      <c r="AG6" s="153">
         <v>19</v>
       </c>
-      <c r="AD4">
+      <c r="AH6" s="153">
         <v>20</v>
       </c>
-      <c r="AE4">
+      <c r="AI6" s="153">
         <v>21</v>
       </c>
-      <c r="AF4">
+      <c r="AJ6" s="153">
         <v>22</v>
       </c>
-      <c r="AG4">
+      <c r="AK6" s="153">
         <v>23</v>
       </c>
-      <c r="AH4">
+      <c r="AL6" s="153">
         <v>24</v>
       </c>
-      <c r="AI4">
+      <c r="AM6" s="153">
         <v>25</v>
       </c>
-      <c r="AJ4">
+      <c r="AN6" s="153">
         <v>26</v>
       </c>
-      <c r="AK4">
+      <c r="AO6" s="153">
         <v>27</v>
       </c>
-      <c r="AL4">
+      <c r="AP6" s="153">
         <v>28</v>
       </c>
-      <c r="AM4">
+      <c r="AQ6" s="153">
         <v>29</v>
       </c>
-      <c r="AN4">
+      <c r="AR6" s="153">
         <v>30</v>
       </c>
-      <c r="AO4">
+      <c r="AS6" s="153">
         <v>31</v>
       </c>
-      <c r="AP4">
+      <c r="AT6" s="153">
         <v>32</v>
       </c>
-      <c r="AQ4">
+      <c r="AU6" s="153">
         <v>33</v>
       </c>
-      <c r="AR4">
+      <c r="AV6" s="153">
         <v>34</v>
       </c>
-      <c r="AS4">
+      <c r="AW6" s="153">
         <v>35</v>
       </c>
-      <c r="AT4">
+      <c r="AX6" s="153">
         <v>36</v>
       </c>
-      <c r="AU4">
+      <c r="AY6" s="153">
         <v>37</v>
       </c>
-      <c r="AV4">
+      <c r="AZ6" s="153">
         <v>38</v>
       </c>
-      <c r="AW4">
+      <c r="BA6" s="153">
         <v>39</v>
       </c>
-      <c r="AX4">
+      <c r="BB6" s="153">
         <v>40</v>
       </c>
-      <c r="AY4">
+      <c r="BC6" s="153">
         <v>41</v>
       </c>
-      <c r="AZ4">
+      <c r="BD6" s="153">
         <v>42</v>
       </c>
-      <c r="BA4">
+      <c r="BE6" s="153">
         <v>43</v>
       </c>
-      <c r="BB4">
+      <c r="BF6" s="153">
         <v>44</v>
       </c>
-      <c r="BC4">
+      <c r="BG6" s="153">
         <v>45</v>
       </c>
-      <c r="BD4">
+      <c r="BH6" s="153">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J5">
+      <c r="BI6" s="153">
+        <v>47</v>
+      </c>
+      <c r="BJ6" s="153">
+        <v>48</v>
+      </c>
+      <c r="BK6" s="153">
+        <v>49</v>
+      </c>
+      <c r="BL6" s="153">
+        <v>50</v>
+      </c>
+      <c r="BM6" s="153">
+        <v>51</v>
+      </c>
+      <c r="BN6" s="153">
+        <v>52</v>
+      </c>
+      <c r="BO6" s="153">
+        <v>53</v>
+      </c>
+      <c r="BP6" s="153">
+        <v>54</v>
+      </c>
+      <c r="BQ6" s="153">
+        <v>55</v>
+      </c>
+      <c r="BR6" s="153">
+        <v>56</v>
+      </c>
+      <c r="BS6" s="153">
+        <v>57</v>
+      </c>
+      <c r="BT6" s="153">
+        <v>58</v>
+      </c>
+      <c r="BU6" s="153">
+        <v>59</v>
+      </c>
+      <c r="BV6" s="153">
+        <v>60</v>
+      </c>
+      <c r="BW6" s="153">
+        <v>61</v>
+      </c>
+      <c r="BX6" s="153">
+        <v>62</v>
+      </c>
+      <c r="BY6" s="153">
+        <v>63</v>
+      </c>
+      <c r="BZ6" s="153">
+        <v>64</v>
+      </c>
+      <c r="CA6" s="153">
+        <v>65</v>
+      </c>
+      <c r="CB6" s="153">
+        <v>66</v>
+      </c>
+      <c r="CC6" s="153">
+        <v>67</v>
+      </c>
+      <c r="CD6" s="153">
+        <v>68</v>
+      </c>
+      <c r="CE6" s="153">
+        <v>69</v>
+      </c>
+      <c r="CF6" s="153">
+        <v>70</v>
+      </c>
+      <c r="CG6" s="153">
+        <v>71</v>
+      </c>
+      <c r="CH6" s="153">
+        <v>72</v>
+      </c>
+      <c r="CI6" s="153">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="10:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S7" s="154"/>
+      <c r="T7" s="171"/>
+      <c r="U7" s="172"/>
+      <c r="V7" s="172"/>
+      <c r="W7" s="172"/>
+      <c r="X7" s="173"/>
+      <c r="Y7" s="283"/>
+      <c r="Z7" s="284"/>
+      <c r="AA7" s="285"/>
+      <c r="AB7" s="171"/>
+      <c r="AC7" s="172"/>
+      <c r="AD7" s="172"/>
+      <c r="AE7" s="172"/>
+      <c r="AF7" s="173"/>
+      <c r="AG7" s="286"/>
+      <c r="AH7" s="287"/>
+      <c r="AI7" s="287"/>
+      <c r="AJ7" s="287"/>
+      <c r="AK7" s="287"/>
+      <c r="AL7" s="287"/>
+      <c r="AM7" s="287"/>
+      <c r="AN7" s="287"/>
+      <c r="AO7" s="287"/>
+      <c r="AP7" s="288"/>
+      <c r="AQ7" s="286"/>
+      <c r="AR7" s="287"/>
+      <c r="AS7" s="287"/>
+      <c r="AT7" s="287"/>
+      <c r="AU7" s="287"/>
+      <c r="AV7" s="287"/>
+      <c r="AW7" s="287"/>
+      <c r="AX7" s="287"/>
+      <c r="AY7" s="287"/>
+      <c r="AZ7" s="288"/>
+      <c r="BA7" s="289"/>
+      <c r="BB7" s="290"/>
+      <c r="BC7" s="290"/>
+      <c r="BD7" s="290"/>
+      <c r="BE7" s="291"/>
+      <c r="BF7" s="292"/>
+      <c r="BG7" s="293"/>
+      <c r="BH7" s="293"/>
+      <c r="BI7" s="293"/>
+      <c r="BJ7" s="294"/>
+      <c r="BK7" s="283"/>
+      <c r="BL7" s="284"/>
+      <c r="BM7" s="284"/>
+      <c r="BN7" s="284"/>
+      <c r="BO7" s="284"/>
+      <c r="BP7" s="284"/>
+      <c r="BQ7" s="284"/>
+      <c r="BR7" s="284"/>
+      <c r="BS7" s="284"/>
+      <c r="BT7" s="284"/>
+      <c r="BU7" s="284"/>
+      <c r="BV7" s="284"/>
+      <c r="BW7" s="284"/>
+      <c r="BX7" s="284"/>
+      <c r="BY7" s="284"/>
+      <c r="BZ7" s="284"/>
+      <c r="CA7" s="284"/>
+      <c r="CB7" s="284"/>
+      <c r="CC7" s="284"/>
+      <c r="CD7" s="284"/>
+      <c r="CE7" s="284"/>
+      <c r="CF7" s="284"/>
+      <c r="CG7" s="284"/>
+      <c r="CH7" s="284"/>
+      <c r="CI7" s="285"/>
+      <c r="CJ7" s="153">
         <v>1</v>
       </c>
-      <c r="K5" s="277"/>
-      <c r="L5" s="272"/>
-      <c r="M5" s="277"/>
-      <c r="N5" s="272"/>
-      <c r="O5" s="277"/>
-      <c r="P5" s="272"/>
-      <c r="Q5" s="277"/>
-      <c r="R5" s="272"/>
-      <c r="S5" s="277"/>
-      <c r="T5" s="272"/>
-      <c r="U5" s="277"/>
-      <c r="V5" s="272"/>
-      <c r="W5" s="277"/>
-      <c r="X5" s="272"/>
-      <c r="Y5" s="277"/>
-      <c r="Z5" s="272"/>
-      <c r="AA5" s="277"/>
-      <c r="AB5" s="272"/>
-      <c r="AC5" s="277"/>
-      <c r="AD5" s="272"/>
-      <c r="AE5" s="277"/>
-      <c r="AF5" s="272"/>
-      <c r="AG5" s="277"/>
-      <c r="AH5" s="272"/>
-      <c r="AI5" s="277"/>
-      <c r="AJ5" s="272"/>
-      <c r="AK5" s="277"/>
-      <c r="AL5" s="272"/>
-      <c r="AM5" s="277"/>
-      <c r="AN5" s="272"/>
-      <c r="AO5" s="277"/>
-      <c r="AP5" s="272"/>
-      <c r="AQ5" s="277"/>
-      <c r="AR5" s="272"/>
-      <c r="AS5" s="277"/>
-      <c r="AT5" s="272"/>
-      <c r="AU5" s="277"/>
-      <c r="AV5" s="272"/>
-      <c r="AW5" s="277"/>
-      <c r="AX5" s="272"/>
-      <c r="AY5" s="277"/>
-      <c r="AZ5" s="272"/>
-      <c r="BA5" s="277"/>
-      <c r="BB5" s="272"/>
-      <c r="BC5" s="277"/>
-      <c r="BD5" s="272"/>
-    </row>
-    <row r="6" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J6">
+    </row>
+    <row r="8" spans="10:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S8" s="154"/>
+      <c r="T8" s="174"/>
+      <c r="U8" s="175"/>
+      <c r="V8" s="175"/>
+      <c r="W8" s="175"/>
+      <c r="X8" s="181"/>
+      <c r="Y8" s="295"/>
+      <c r="Z8" s="296"/>
+      <c r="AA8" s="297"/>
+      <c r="AB8" s="174"/>
+      <c r="AC8" s="175"/>
+      <c r="AD8" s="175"/>
+      <c r="AE8" s="175"/>
+      <c r="AF8" s="181"/>
+      <c r="AG8" s="298"/>
+      <c r="AH8" s="299"/>
+      <c r="AI8" s="299"/>
+      <c r="AJ8" s="299"/>
+      <c r="AK8" s="299"/>
+      <c r="AL8" s="299"/>
+      <c r="AM8" s="299"/>
+      <c r="AN8" s="299"/>
+      <c r="AO8" s="299"/>
+      <c r="AP8" s="300"/>
+      <c r="AQ8" s="298"/>
+      <c r="AR8" s="299"/>
+      <c r="AS8" s="299"/>
+      <c r="AT8" s="299"/>
+      <c r="AU8" s="299"/>
+      <c r="AV8" s="299"/>
+      <c r="AW8" s="299"/>
+      <c r="AX8" s="299"/>
+      <c r="AY8" s="299"/>
+      <c r="AZ8" s="300"/>
+      <c r="BA8" s="301"/>
+      <c r="BB8" s="302"/>
+      <c r="BC8" s="302"/>
+      <c r="BD8" s="302"/>
+      <c r="BE8" s="303"/>
+      <c r="BF8" s="304"/>
+      <c r="BG8" s="305"/>
+      <c r="BH8" s="305"/>
+      <c r="BI8" s="305"/>
+      <c r="BJ8" s="306"/>
+      <c r="BK8" s="307"/>
+      <c r="BL8" s="296"/>
+      <c r="BM8" s="296"/>
+      <c r="BN8" s="296"/>
+      <c r="BO8" s="296"/>
+      <c r="BP8" s="296"/>
+      <c r="BQ8" s="296"/>
+      <c r="BR8" s="296"/>
+      <c r="BS8" s="296"/>
+      <c r="BT8" s="296"/>
+      <c r="BU8" s="296"/>
+      <c r="BV8" s="296"/>
+      <c r="BW8" s="296"/>
+      <c r="BX8" s="296"/>
+      <c r="BY8" s="296"/>
+      <c r="BZ8" s="296"/>
+      <c r="CA8" s="296"/>
+      <c r="CB8" s="296"/>
+      <c r="CC8" s="296"/>
+      <c r="CD8" s="296"/>
+      <c r="CE8" s="296"/>
+      <c r="CF8" s="296"/>
+      <c r="CG8" s="296"/>
+      <c r="CH8" s="296"/>
+      <c r="CI8" s="308"/>
+      <c r="CJ8" s="153">
         <v>2</v>
       </c>
-      <c r="K6" s="272"/>
-      <c r="L6" s="277"/>
-      <c r="M6" s="272"/>
-      <c r="N6" s="277"/>
-      <c r="O6" s="272"/>
-      <c r="P6" s="277"/>
-      <c r="Q6" s="272"/>
-      <c r="R6" s="277"/>
-      <c r="S6" s="272"/>
-      <c r="T6" s="277"/>
-      <c r="U6" s="272"/>
-      <c r="V6" s="277"/>
-      <c r="W6" s="272"/>
-      <c r="X6" s="277"/>
-      <c r="Y6" s="272"/>
-      <c r="Z6" s="277"/>
-      <c r="AA6" s="272"/>
-      <c r="AB6" s="277"/>
-      <c r="AC6" s="272"/>
-      <c r="AD6" s="277"/>
-      <c r="AE6" s="272"/>
-      <c r="AF6" s="277"/>
-      <c r="AG6" s="272"/>
-      <c r="AH6" s="277"/>
-      <c r="AI6" s="272"/>
-      <c r="AJ6" s="277"/>
-      <c r="AK6" s="272"/>
-      <c r="AL6" s="277"/>
-      <c r="AM6" s="272"/>
-      <c r="AN6" s="277"/>
-      <c r="AO6" s="272"/>
-      <c r="AP6" s="277"/>
-      <c r="AQ6" s="272"/>
-      <c r="AR6" s="277"/>
-      <c r="AS6" s="272"/>
-      <c r="AT6" s="277"/>
-      <c r="AU6" s="272"/>
-      <c r="AV6" s="277"/>
-      <c r="AW6" s="272"/>
-      <c r="AX6" s="277"/>
-      <c r="AY6" s="272"/>
-      <c r="AZ6" s="277"/>
-      <c r="BA6" s="272"/>
-      <c r="BB6" s="277"/>
-      <c r="BC6" s="272"/>
-      <c r="BD6" s="277"/>
-    </row>
-    <row r="7" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J7">
+    </row>
+    <row r="9" spans="10:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S9" s="154"/>
+      <c r="T9" s="174"/>
+      <c r="U9" s="175"/>
+      <c r="V9" s="175" t="s">
+        <v>189</v>
+      </c>
+      <c r="W9" s="175"/>
+      <c r="X9" s="176"/>
+      <c r="Y9" s="295"/>
+      <c r="Z9" s="296"/>
+      <c r="AA9" s="297"/>
+      <c r="AB9" s="176"/>
+      <c r="AC9" s="175"/>
+      <c r="AD9" s="175" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE9" s="175"/>
+      <c r="AF9" s="181"/>
+      <c r="AG9" s="298"/>
+      <c r="AH9" s="299"/>
+      <c r="AI9" s="299"/>
+      <c r="AJ9" s="299"/>
+      <c r="AK9" s="299"/>
+      <c r="AL9" s="299"/>
+      <c r="AM9" s="299"/>
+      <c r="AN9" s="299"/>
+      <c r="AO9" s="299"/>
+      <c r="AP9" s="300"/>
+      <c r="AQ9" s="298"/>
+      <c r="AR9" s="299"/>
+      <c r="AS9" s="299"/>
+      <c r="AT9" s="299"/>
+      <c r="AU9" s="299"/>
+      <c r="AV9" s="299"/>
+      <c r="AW9" s="299"/>
+      <c r="AX9" s="299"/>
+      <c r="AY9" s="299"/>
+      <c r="AZ9" s="300"/>
+      <c r="BA9" s="301"/>
+      <c r="BB9" s="302"/>
+      <c r="BC9" s="302" t="s">
+        <v>181</v>
+      </c>
+      <c r="BD9" s="302"/>
+      <c r="BE9" s="309"/>
+      <c r="BF9" s="304"/>
+      <c r="BG9" s="305"/>
+      <c r="BH9" s="305"/>
+      <c r="BI9" s="305"/>
+      <c r="BJ9" s="306"/>
+      <c r="BK9" s="307"/>
+      <c r="BL9" s="296"/>
+      <c r="BM9" s="296"/>
+      <c r="BN9" s="296"/>
+      <c r="BO9" s="296"/>
+      <c r="BP9" s="296"/>
+      <c r="BQ9" s="296"/>
+      <c r="BR9" s="296"/>
+      <c r="BS9" s="296"/>
+      <c r="BT9" s="296"/>
+      <c r="BU9" s="296"/>
+      <c r="BV9" s="296"/>
+      <c r="BW9" s="296"/>
+      <c r="BX9" s="296"/>
+      <c r="BY9" s="296"/>
+      <c r="BZ9" s="296"/>
+      <c r="CA9" s="296"/>
+      <c r="CB9" s="296"/>
+      <c r="CC9" s="296"/>
+      <c r="CD9" s="296"/>
+      <c r="CE9" s="296"/>
+      <c r="CF9" s="296"/>
+      <c r="CG9" s="296"/>
+      <c r="CH9" s="296"/>
+      <c r="CI9" s="308"/>
+      <c r="CJ9" s="153">
         <v>3</v>
       </c>
-      <c r="K7" s="277"/>
-      <c r="L7" s="272"/>
-      <c r="M7" s="277"/>
-      <c r="N7" s="272"/>
-      <c r="O7" s="277"/>
-      <c r="P7" s="272"/>
-      <c r="Q7" s="277"/>
-      <c r="R7" s="272"/>
-      <c r="S7" s="277"/>
-      <c r="T7" s="272"/>
-      <c r="U7" s="277"/>
-      <c r="V7" s="272"/>
-      <c r="W7" s="277"/>
-      <c r="X7" s="272"/>
-      <c r="Y7" s="277"/>
-      <c r="Z7" s="272"/>
-      <c r="AA7" s="277"/>
-      <c r="AB7" s="272"/>
-      <c r="AC7" s="277"/>
-      <c r="AD7" s="272"/>
-      <c r="AE7" s="277"/>
-      <c r="AF7" s="272"/>
-      <c r="AG7" s="277"/>
-      <c r="AH7" s="272"/>
-      <c r="AI7" s="277"/>
-      <c r="AJ7" s="272"/>
-      <c r="AK7" s="277"/>
-      <c r="AL7" s="272"/>
-      <c r="AM7" s="277"/>
-      <c r="AN7" s="272"/>
-      <c r="AO7" s="277"/>
-      <c r="AP7" s="272"/>
-      <c r="AQ7" s="277"/>
-      <c r="AR7" s="272"/>
-      <c r="AS7" s="277"/>
-      <c r="AT7" s="272"/>
-      <c r="AU7" s="277"/>
-      <c r="AV7" s="272"/>
-      <c r="AW7" s="277"/>
-      <c r="AX7" s="272"/>
-      <c r="AY7" s="277"/>
-      <c r="AZ7" s="272"/>
-      <c r="BA7" s="277"/>
-      <c r="BB7" s="272"/>
-      <c r="BC7" s="277"/>
-      <c r="BD7" s="272"/>
-    </row>
-    <row r="8" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J8">
+    </row>
+    <row r="10" spans="10:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S10" s="154"/>
+      <c r="T10" s="174"/>
+      <c r="U10" s="175"/>
+      <c r="V10" s="175"/>
+      <c r="W10" s="175"/>
+      <c r="X10" s="181"/>
+      <c r="Y10" s="295"/>
+      <c r="Z10" s="296"/>
+      <c r="AA10" s="297"/>
+      <c r="AB10" s="174"/>
+      <c r="AC10" s="175"/>
+      <c r="AD10" s="175"/>
+      <c r="AE10" s="175"/>
+      <c r="AF10" s="181"/>
+      <c r="AG10" s="298"/>
+      <c r="AH10" s="299"/>
+      <c r="AI10" s="299"/>
+      <c r="AJ10" s="299"/>
+      <c r="AK10" s="299"/>
+      <c r="AL10" s="299"/>
+      <c r="AM10" s="299"/>
+      <c r="AN10" s="299"/>
+      <c r="AO10" s="299"/>
+      <c r="AP10" s="300"/>
+      <c r="AQ10" s="298"/>
+      <c r="AR10" s="299"/>
+      <c r="AS10" s="299"/>
+      <c r="AT10" s="299"/>
+      <c r="AU10" s="299"/>
+      <c r="AV10" s="299"/>
+      <c r="AW10" s="299"/>
+      <c r="AX10" s="299"/>
+      <c r="AY10" s="299"/>
+      <c r="AZ10" s="300"/>
+      <c r="BA10" s="301"/>
+      <c r="BB10" s="302"/>
+      <c r="BC10" s="302"/>
+      <c r="BD10" s="302"/>
+      <c r="BE10" s="303"/>
+      <c r="BF10" s="304"/>
+      <c r="BG10" s="305"/>
+      <c r="BH10" s="305"/>
+      <c r="BI10" s="305"/>
+      <c r="BJ10" s="306"/>
+      <c r="BK10" s="307"/>
+      <c r="BL10" s="296"/>
+      <c r="BM10" s="296"/>
+      <c r="BN10" s="296"/>
+      <c r="BO10" s="296"/>
+      <c r="BP10" s="296"/>
+      <c r="BQ10" s="296"/>
+      <c r="BR10" s="296"/>
+      <c r="BS10" s="296"/>
+      <c r="BT10" s="296"/>
+      <c r="BU10" s="296"/>
+      <c r="BV10" s="296"/>
+      <c r="BW10" s="296"/>
+      <c r="BX10" s="296"/>
+      <c r="BY10" s="296"/>
+      <c r="BZ10" s="296"/>
+      <c r="CA10" s="296"/>
+      <c r="CB10" s="296"/>
+      <c r="CC10" s="296"/>
+      <c r="CD10" s="296"/>
+      <c r="CE10" s="296"/>
+      <c r="CF10" s="296"/>
+      <c r="CG10" s="296"/>
+      <c r="CH10" s="296"/>
+      <c r="CI10" s="308"/>
+      <c r="CJ10" s="153">
         <v>4</v>
       </c>
-      <c r="K8" s="272"/>
-      <c r="L8" s="277"/>
-      <c r="M8" s="272"/>
-      <c r="N8" s="277"/>
-      <c r="O8" s="272"/>
-      <c r="P8" s="277"/>
-      <c r="Q8" s="272"/>
-      <c r="R8" s="277"/>
-      <c r="S8" s="272"/>
-      <c r="T8" s="277"/>
-      <c r="U8" s="272"/>
-      <c r="V8" s="277"/>
-      <c r="W8" s="272"/>
-      <c r="X8" s="277"/>
-      <c r="Y8" s="272"/>
-      <c r="Z8" s="277"/>
-      <c r="AA8" s="272"/>
-      <c r="AB8" s="277"/>
-      <c r="AC8" s="272"/>
-      <c r="AD8" s="277"/>
-      <c r="AE8" s="272"/>
-      <c r="AF8" s="277"/>
-      <c r="AG8" s="272"/>
-      <c r="AH8" s="277"/>
-      <c r="AI8" s="272"/>
-      <c r="AJ8" s="277"/>
-      <c r="AK8" s="272"/>
-      <c r="AL8" s="277"/>
-      <c r="AM8" s="272"/>
-      <c r="AN8" s="277"/>
-      <c r="AO8" s="272"/>
-      <c r="AP8" s="277"/>
-      <c r="AQ8" s="272"/>
-      <c r="AR8" s="277"/>
-      <c r="AS8" s="272"/>
-      <c r="AT8" s="277"/>
-      <c r="AU8" s="272"/>
-      <c r="AV8" s="277"/>
-      <c r="AW8" s="272"/>
-      <c r="AX8" s="277"/>
-      <c r="AY8" s="272"/>
-      <c r="AZ8" s="277"/>
-      <c r="BA8" s="272"/>
-      <c r="BB8" s="277"/>
-      <c r="BC8" s="272"/>
-      <c r="BD8" s="277"/>
-    </row>
-    <row r="9" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J9">
+    </row>
+    <row r="11" spans="10:88" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S11" s="154"/>
+      <c r="T11" s="177"/>
+      <c r="U11" s="178"/>
+      <c r="V11" s="178"/>
+      <c r="W11" s="178"/>
+      <c r="X11" s="179"/>
+      <c r="Y11" s="295"/>
+      <c r="Z11" s="296"/>
+      <c r="AA11" s="297"/>
+      <c r="AB11" s="177"/>
+      <c r="AC11" s="178"/>
+      <c r="AD11" s="178"/>
+      <c r="AE11" s="178"/>
+      <c r="AF11" s="179"/>
+      <c r="AG11" s="298"/>
+      <c r="AH11" s="299"/>
+      <c r="AI11" s="299"/>
+      <c r="AJ11" s="299"/>
+      <c r="AK11" s="299" t="s">
+        <v>182</v>
+      </c>
+      <c r="AL11" s="299"/>
+      <c r="AM11" s="299"/>
+      <c r="AN11" s="299"/>
+      <c r="AO11" s="299"/>
+      <c r="AP11" s="300"/>
+      <c r="AQ11" s="298"/>
+      <c r="AR11" s="299"/>
+      <c r="AS11" s="299"/>
+      <c r="AT11" s="299"/>
+      <c r="AU11" s="299" t="s">
+        <v>183</v>
+      </c>
+      <c r="AV11" s="299"/>
+      <c r="AW11" s="299"/>
+      <c r="AX11" s="299"/>
+      <c r="AY11" s="299"/>
+      <c r="AZ11" s="300"/>
+      <c r="BA11" s="310"/>
+      <c r="BB11" s="311"/>
+      <c r="BC11" s="311"/>
+      <c r="BD11" s="311"/>
+      <c r="BE11" s="312"/>
+      <c r="BF11" s="304"/>
+      <c r="BG11" s="305"/>
+      <c r="BH11" s="305"/>
+      <c r="BI11" s="305"/>
+      <c r="BJ11" s="306"/>
+      <c r="BK11" s="307"/>
+      <c r="BL11" s="296"/>
+      <c r="BM11" s="296"/>
+      <c r="BN11" s="296"/>
+      <c r="BO11" s="296"/>
+      <c r="BP11" s="296"/>
+      <c r="BQ11" s="296"/>
+      <c r="BR11" s="296"/>
+      <c r="BS11" s="296"/>
+      <c r="BT11" s="296"/>
+      <c r="BU11" s="296"/>
+      <c r="BV11" s="296"/>
+      <c r="BW11" s="296"/>
+      <c r="BX11" s="296"/>
+      <c r="BY11" s="296"/>
+      <c r="BZ11" s="296"/>
+      <c r="CA11" s="296"/>
+      <c r="CB11" s="296"/>
+      <c r="CC11" s="296"/>
+      <c r="CD11" s="296"/>
+      <c r="CE11" s="296"/>
+      <c r="CF11" s="296"/>
+      <c r="CG11" s="296"/>
+      <c r="CH11" s="296"/>
+      <c r="CI11" s="308"/>
+      <c r="CJ11" s="153">
         <v>5</v>
       </c>
-      <c r="K9" s="277"/>
-      <c r="L9" s="272"/>
-      <c r="M9" s="277"/>
-      <c r="N9" s="272"/>
-      <c r="O9" s="277"/>
-      <c r="P9" s="272"/>
-      <c r="Q9" s="277"/>
-      <c r="R9" s="272"/>
-      <c r="S9" s="277"/>
-      <c r="T9" s="272"/>
-      <c r="U9" s="277"/>
-      <c r="V9" s="272"/>
-      <c r="W9" s="277"/>
-      <c r="X9" s="272"/>
-      <c r="Y9" s="277"/>
-      <c r="Z9" s="272"/>
-      <c r="AA9" s="277"/>
-      <c r="AB9" s="272"/>
-      <c r="AC9" s="277"/>
-      <c r="AD9" s="272"/>
-      <c r="AE9" s="277"/>
-      <c r="AF9" s="272"/>
-      <c r="AG9" s="277"/>
-      <c r="AH9" s="272"/>
-      <c r="AI9" s="277"/>
-      <c r="AJ9" s="272"/>
-      <c r="AK9" s="277"/>
-      <c r="AL9" s="272"/>
-      <c r="AM9" s="277"/>
-      <c r="AN9" s="272"/>
-      <c r="AO9" s="277"/>
-      <c r="AP9" s="272"/>
-      <c r="AQ9" s="277"/>
-      <c r="AR9" s="272"/>
-      <c r="AS9" s="277"/>
-      <c r="AT9" s="272"/>
-      <c r="AU9" s="277"/>
-      <c r="AV9" s="272"/>
-      <c r="AW9" s="277"/>
-      <c r="AX9" s="272"/>
-      <c r="AY9" s="277"/>
-      <c r="AZ9" s="272"/>
-      <c r="BA9" s="277"/>
-      <c r="BB9" s="272"/>
-      <c r="BC9" s="277"/>
-      <c r="BD9" s="272"/>
-    </row>
-    <row r="10" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J10">
+    </row>
+    <row r="12" spans="10:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S12" s="154"/>
+      <c r="T12" s="171"/>
+      <c r="U12" s="172"/>
+      <c r="V12" s="172"/>
+      <c r="W12" s="172"/>
+      <c r="X12" s="173"/>
+      <c r="Y12" s="295"/>
+      <c r="Z12" s="296"/>
+      <c r="AA12" s="297"/>
+      <c r="AB12" s="171"/>
+      <c r="AC12" s="172"/>
+      <c r="AD12" s="172"/>
+      <c r="AE12" s="172"/>
+      <c r="AF12" s="173"/>
+      <c r="AG12" s="298"/>
+      <c r="AH12" s="299"/>
+      <c r="AI12" s="299"/>
+      <c r="AJ12" s="299"/>
+      <c r="AK12" s="299"/>
+      <c r="AL12" s="299"/>
+      <c r="AM12" s="299"/>
+      <c r="AN12" s="299"/>
+      <c r="AO12" s="299"/>
+      <c r="AP12" s="300"/>
+      <c r="AQ12" s="298"/>
+      <c r="AR12" s="299"/>
+      <c r="AS12" s="299"/>
+      <c r="AT12" s="299"/>
+      <c r="AU12" s="299"/>
+      <c r="AV12" s="299"/>
+      <c r="AW12" s="299"/>
+      <c r="AX12" s="299"/>
+      <c r="AY12" s="299"/>
+      <c r="AZ12" s="300"/>
+      <c r="BA12" s="313"/>
+      <c r="BB12" s="314"/>
+      <c r="BC12" s="314"/>
+      <c r="BD12" s="314"/>
+      <c r="BE12" s="314"/>
+      <c r="BF12" s="305"/>
+      <c r="BG12" s="305"/>
+      <c r="BH12" s="305"/>
+      <c r="BI12" s="305"/>
+      <c r="BJ12" s="306"/>
+      <c r="BK12" s="307"/>
+      <c r="BL12" s="296"/>
+      <c r="BM12" s="296"/>
+      <c r="BN12" s="296"/>
+      <c r="BO12" s="296"/>
+      <c r="BP12" s="296"/>
+      <c r="BQ12" s="296"/>
+      <c r="BR12" s="296"/>
+      <c r="BS12" s="296"/>
+      <c r="BT12" s="296"/>
+      <c r="BU12" s="296"/>
+      <c r="BV12" s="296"/>
+      <c r="BW12" s="296"/>
+      <c r="BX12" s="296"/>
+      <c r="BY12" s="296"/>
+      <c r="BZ12" s="296"/>
+      <c r="CA12" s="296"/>
+      <c r="CB12" s="296"/>
+      <c r="CC12" s="296"/>
+      <c r="CD12" s="296"/>
+      <c r="CE12" s="296"/>
+      <c r="CF12" s="296"/>
+      <c r="CG12" s="296"/>
+      <c r="CH12" s="296"/>
+      <c r="CI12" s="308"/>
+      <c r="CJ12" s="153">
         <v>6</v>
       </c>
-      <c r="K10" s="272"/>
-      <c r="L10" s="277"/>
-      <c r="M10" s="272"/>
-      <c r="N10" s="277"/>
-      <c r="O10" s="272"/>
-      <c r="P10" s="277"/>
-      <c r="Q10" s="272"/>
-      <c r="R10" s="277"/>
-      <c r="S10" s="272"/>
-      <c r="T10" s="277"/>
-      <c r="U10" s="272"/>
-      <c r="V10" s="277"/>
-      <c r="W10" s="272"/>
-      <c r="X10" s="277"/>
-      <c r="Y10" s="272"/>
-      <c r="Z10" s="277"/>
-      <c r="AA10" s="272"/>
-      <c r="AB10" s="277"/>
-      <c r="AC10" s="272"/>
-      <c r="AD10" s="277"/>
-      <c r="AE10" s="272"/>
-      <c r="AF10" s="277"/>
-      <c r="AG10" s="272"/>
-      <c r="AH10" s="277"/>
-      <c r="AI10" s="272"/>
-      <c r="AJ10" s="277"/>
-      <c r="AK10" s="272"/>
-      <c r="AL10" s="277"/>
-      <c r="AM10" s="272"/>
-      <c r="AN10" s="277"/>
-      <c r="AO10" s="272"/>
-      <c r="AP10" s="277"/>
-      <c r="AQ10" s="272"/>
-      <c r="AR10" s="277"/>
-      <c r="AS10" s="272"/>
-      <c r="AT10" s="277"/>
-      <c r="AU10" s="272"/>
-      <c r="AV10" s="277"/>
-      <c r="AW10" s="272"/>
-      <c r="AX10" s="277"/>
-      <c r="AY10" s="272"/>
-      <c r="AZ10" s="277"/>
-      <c r="BA10" s="272"/>
-      <c r="BB10" s="277"/>
-      <c r="BC10" s="272"/>
-      <c r="BD10" s="277"/>
-    </row>
-    <row r="11" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J11">
+    </row>
+    <row r="13" spans="10:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S13" s="154"/>
+      <c r="T13" s="174"/>
+      <c r="U13" s="175"/>
+      <c r="V13" s="175"/>
+      <c r="W13" s="175"/>
+      <c r="X13" s="181"/>
+      <c r="Y13" s="295"/>
+      <c r="Z13" s="296"/>
+      <c r="AA13" s="297"/>
+      <c r="AB13" s="174"/>
+      <c r="AC13" s="175"/>
+      <c r="AD13" s="175"/>
+      <c r="AE13" s="175"/>
+      <c r="AF13" s="181"/>
+      <c r="AG13" s="298"/>
+      <c r="AH13" s="299"/>
+      <c r="AI13" s="299"/>
+      <c r="AJ13" s="299"/>
+      <c r="AK13" s="299"/>
+      <c r="AL13" s="299"/>
+      <c r="AM13" s="299"/>
+      <c r="AN13" s="299"/>
+      <c r="AO13" s="299"/>
+      <c r="AP13" s="300"/>
+      <c r="AQ13" s="298"/>
+      <c r="AR13" s="299"/>
+      <c r="AS13" s="299"/>
+      <c r="AT13" s="299"/>
+      <c r="AU13" s="299"/>
+      <c r="AV13" s="299"/>
+      <c r="AW13" s="299"/>
+      <c r="AX13" s="299"/>
+      <c r="AY13" s="299"/>
+      <c r="AZ13" s="300"/>
+      <c r="BA13" s="315"/>
+      <c r="BB13" s="305"/>
+      <c r="BC13" s="305"/>
+      <c r="BD13" s="305"/>
+      <c r="BE13" s="305" t="s">
+        <v>186</v>
+      </c>
+      <c r="BF13" s="305"/>
+      <c r="BG13" s="305"/>
+      <c r="BH13" s="305"/>
+      <c r="BI13" s="305"/>
+      <c r="BJ13" s="306"/>
+      <c r="BK13" s="307"/>
+      <c r="BL13" s="296"/>
+      <c r="BM13" s="296"/>
+      <c r="BN13" s="296"/>
+      <c r="BO13" s="296"/>
+      <c r="BP13" s="296"/>
+      <c r="BQ13" s="296"/>
+      <c r="BR13" s="296"/>
+      <c r="BS13" s="296"/>
+      <c r="BT13" s="296"/>
+      <c r="BU13" s="296"/>
+      <c r="BV13" s="296"/>
+      <c r="BW13" s="296"/>
+      <c r="BX13" s="296"/>
+      <c r="BY13" s="296"/>
+      <c r="BZ13" s="296"/>
+      <c r="CA13" s="296"/>
+      <c r="CB13" s="296"/>
+      <c r="CC13" s="296"/>
+      <c r="CD13" s="296"/>
+      <c r="CE13" s="296"/>
+      <c r="CF13" s="296"/>
+      <c r="CG13" s="296"/>
+      <c r="CH13" s="296"/>
+      <c r="CI13" s="308"/>
+      <c r="CJ13" s="153">
         <v>7</v>
       </c>
-      <c r="K11" s="277"/>
-      <c r="L11" s="272"/>
-      <c r="M11" s="277"/>
-      <c r="N11" s="272"/>
-      <c r="O11" s="277"/>
-      <c r="P11" s="272"/>
-      <c r="Q11" s="277"/>
-      <c r="R11" s="272"/>
-      <c r="S11" s="277"/>
-      <c r="T11" s="272"/>
-      <c r="U11" s="277"/>
-      <c r="V11" s="272"/>
-      <c r="W11" s="277"/>
-      <c r="X11" s="272"/>
-      <c r="Y11" s="277"/>
-      <c r="Z11" s="272"/>
-      <c r="AA11" s="277"/>
-      <c r="AB11" s="272"/>
-      <c r="AC11" s="277"/>
-      <c r="AD11" s="272"/>
-      <c r="AE11" s="277"/>
-      <c r="AF11" s="272"/>
-      <c r="AG11" s="277"/>
-      <c r="AH11" s="272"/>
-      <c r="AI11" s="277"/>
-      <c r="AJ11" s="272"/>
-      <c r="AK11" s="277"/>
-      <c r="AL11" s="272"/>
-      <c r="AM11" s="277"/>
-      <c r="AN11" s="272"/>
-      <c r="AO11" s="277"/>
-      <c r="AP11" s="272"/>
-      <c r="AQ11" s="277"/>
-      <c r="AR11" s="272"/>
-      <c r="AS11" s="277"/>
-      <c r="AT11" s="272"/>
-      <c r="AU11" s="277"/>
-      <c r="AV11" s="272"/>
-      <c r="AW11" s="277"/>
-      <c r="AX11" s="272"/>
-      <c r="AY11" s="277"/>
-      <c r="AZ11" s="272"/>
-      <c r="BA11" s="277"/>
-      <c r="BB11" s="272"/>
-      <c r="BC11" s="277"/>
-      <c r="BD11" s="272"/>
-    </row>
-    <row r="12" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J12">
+    </row>
+    <row r="14" spans="10:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S14" s="154"/>
+      <c r="T14" s="174"/>
+      <c r="U14" s="175"/>
+      <c r="V14" s="175" t="s">
+        <v>191</v>
+      </c>
+      <c r="W14" s="175"/>
+      <c r="X14" s="176"/>
+      <c r="Y14" s="295"/>
+      <c r="Z14" s="296"/>
+      <c r="AA14" s="297"/>
+      <c r="AB14" s="176"/>
+      <c r="AC14" s="175"/>
+      <c r="AD14" s="175" t="s">
+        <v>192</v>
+      </c>
+      <c r="AE14" s="175"/>
+      <c r="AF14" s="181"/>
+      <c r="AG14" s="298"/>
+      <c r="AH14" s="299"/>
+      <c r="AI14" s="299"/>
+      <c r="AJ14" s="299"/>
+      <c r="AK14" s="299"/>
+      <c r="AL14" s="299"/>
+      <c r="AM14" s="299"/>
+      <c r="AN14" s="299"/>
+      <c r="AO14" s="299"/>
+      <c r="AP14" s="300"/>
+      <c r="AQ14" s="298"/>
+      <c r="AR14" s="299"/>
+      <c r="AS14" s="299"/>
+      <c r="AT14" s="299"/>
+      <c r="AU14" s="299"/>
+      <c r="AV14" s="299"/>
+      <c r="AW14" s="299"/>
+      <c r="AX14" s="299"/>
+      <c r="AY14" s="299"/>
+      <c r="AZ14" s="300"/>
+      <c r="BA14" s="315"/>
+      <c r="BB14" s="305"/>
+      <c r="BC14" s="305"/>
+      <c r="BD14" s="305"/>
+      <c r="BE14" s="305"/>
+      <c r="BF14" s="305"/>
+      <c r="BG14" s="305"/>
+      <c r="BH14" s="305"/>
+      <c r="BI14" s="305"/>
+      <c r="BJ14" s="306"/>
+      <c r="BK14" s="307"/>
+      <c r="BL14" s="296"/>
+      <c r="BM14" s="296"/>
+      <c r="BN14" s="296"/>
+      <c r="BO14" s="296"/>
+      <c r="BP14" s="296"/>
+      <c r="BQ14" s="296"/>
+      <c r="BR14" s="296"/>
+      <c r="BS14" s="296"/>
+      <c r="BT14" s="296"/>
+      <c r="BU14" s="296"/>
+      <c r="BV14" s="296"/>
+      <c r="BW14" s="296"/>
+      <c r="BX14" s="296"/>
+      <c r="BY14" s="296"/>
+      <c r="BZ14" s="296"/>
+      <c r="CA14" s="296"/>
+      <c r="CB14" s="296"/>
+      <c r="CC14" s="296"/>
+      <c r="CD14" s="296"/>
+      <c r="CE14" s="296"/>
+      <c r="CF14" s="296"/>
+      <c r="CG14" s="296"/>
+      <c r="CH14" s="296"/>
+      <c r="CI14" s="308"/>
+      <c r="CJ14" s="153">
         <v>8</v>
       </c>
-      <c r="K12" s="272"/>
-      <c r="L12" s="277"/>
-      <c r="M12" s="272"/>
-      <c r="N12" s="277"/>
-      <c r="O12" s="272"/>
-      <c r="P12" s="277"/>
-      <c r="Q12" s="272"/>
-      <c r="R12" s="277"/>
-      <c r="S12" s="272"/>
-      <c r="T12" s="277"/>
-      <c r="U12" s="272"/>
-      <c r="V12" s="277"/>
-      <c r="W12" s="272"/>
-      <c r="X12" s="277"/>
-      <c r="Y12" s="272"/>
-      <c r="Z12" s="277"/>
-      <c r="AA12" s="272"/>
-      <c r="AB12" s="277"/>
-      <c r="AC12" s="272"/>
-      <c r="AD12" s="277"/>
-      <c r="AE12" s="272"/>
-      <c r="AF12" s="277"/>
-      <c r="AG12" s="272"/>
-      <c r="AH12" s="277"/>
-      <c r="AI12" s="272"/>
-      <c r="AJ12" s="277"/>
-      <c r="AK12" s="272"/>
-      <c r="AL12" s="277"/>
-      <c r="AM12" s="272"/>
-      <c r="AN12" s="277"/>
-      <c r="AO12" s="272"/>
-      <c r="AP12" s="277"/>
-      <c r="AQ12" s="272"/>
-      <c r="AR12" s="277"/>
-      <c r="AS12" s="272"/>
-      <c r="AT12" s="277"/>
-      <c r="AU12" s="272"/>
-      <c r="AV12" s="277"/>
-      <c r="AW12" s="272"/>
-      <c r="AX12" s="277"/>
-      <c r="AY12" s="272"/>
-      <c r="AZ12" s="277"/>
-      <c r="BA12" s="272"/>
-      <c r="BB12" s="277"/>
-      <c r="BC12" s="272"/>
-      <c r="BD12" s="277"/>
-    </row>
-    <row r="13" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J13">
+    </row>
+    <row r="15" spans="10:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S15" s="154"/>
+      <c r="T15" s="174"/>
+      <c r="U15" s="175"/>
+      <c r="V15" s="175"/>
+      <c r="W15" s="175"/>
+      <c r="X15" s="181"/>
+      <c r="Y15" s="295"/>
+      <c r="Z15" s="296"/>
+      <c r="AA15" s="297"/>
+      <c r="AB15" s="174"/>
+      <c r="AC15" s="175"/>
+      <c r="AD15" s="175"/>
+      <c r="AE15" s="175"/>
+      <c r="AF15" s="181"/>
+      <c r="AG15" s="298"/>
+      <c r="AH15" s="299"/>
+      <c r="AI15" s="299"/>
+      <c r="AJ15" s="299"/>
+      <c r="AK15" s="299"/>
+      <c r="AL15" s="299"/>
+      <c r="AM15" s="299"/>
+      <c r="AN15" s="299"/>
+      <c r="AO15" s="299"/>
+      <c r="AP15" s="300"/>
+      <c r="AQ15" s="298"/>
+      <c r="AR15" s="299"/>
+      <c r="AS15" s="299"/>
+      <c r="AT15" s="299"/>
+      <c r="AU15" s="299"/>
+      <c r="AV15" s="299"/>
+      <c r="AW15" s="299"/>
+      <c r="AX15" s="299"/>
+      <c r="AY15" s="299"/>
+      <c r="AZ15" s="300"/>
+      <c r="BA15" s="315"/>
+      <c r="BB15" s="305"/>
+      <c r="BC15" s="305"/>
+      <c r="BD15" s="305"/>
+      <c r="BE15" s="305"/>
+      <c r="BF15" s="305"/>
+      <c r="BG15" s="305"/>
+      <c r="BH15" s="305"/>
+      <c r="BI15" s="305"/>
+      <c r="BJ15" s="306"/>
+      <c r="BK15" s="307"/>
+      <c r="BL15" s="296"/>
+      <c r="BM15" s="296"/>
+      <c r="BN15" s="296"/>
+      <c r="BO15" s="296"/>
+      <c r="BP15" s="296"/>
+      <c r="BQ15" s="296"/>
+      <c r="BR15" s="296"/>
+      <c r="BS15" s="296"/>
+      <c r="BT15" s="296"/>
+      <c r="BU15" s="296"/>
+      <c r="BV15" s="296"/>
+      <c r="BW15" s="296"/>
+      <c r="BX15" s="296"/>
+      <c r="BY15" s="296"/>
+      <c r="BZ15" s="296"/>
+      <c r="CA15" s="296"/>
+      <c r="CB15" s="296"/>
+      <c r="CC15" s="296"/>
+      <c r="CD15" s="296"/>
+      <c r="CE15" s="296"/>
+      <c r="CF15" s="296"/>
+      <c r="CG15" s="296"/>
+      <c r="CH15" s="296"/>
+      <c r="CI15" s="308"/>
+      <c r="CJ15" s="153">
         <v>9</v>
       </c>
-      <c r="K13" s="277"/>
-      <c r="L13" s="272"/>
-      <c r="M13" s="277"/>
-      <c r="N13" s="272"/>
-      <c r="O13" s="277"/>
-      <c r="P13" s="272"/>
-      <c r="Q13" s="277"/>
-      <c r="R13" s="272"/>
-      <c r="S13" s="277"/>
-      <c r="T13" s="272"/>
-      <c r="U13" s="277"/>
-      <c r="V13" s="272"/>
-      <c r="W13" s="277"/>
-      <c r="X13" s="272"/>
-      <c r="Y13" s="277"/>
-      <c r="Z13" s="272"/>
-      <c r="AA13" s="277"/>
-      <c r="AB13" s="272"/>
-      <c r="AC13" s="277"/>
-      <c r="AD13" s="272"/>
-      <c r="AE13" s="277"/>
-      <c r="AF13" s="272"/>
-      <c r="AG13" s="277"/>
-      <c r="AH13" s="272"/>
-      <c r="AI13" s="277"/>
-      <c r="AJ13" s="272"/>
-      <c r="AK13" s="277"/>
-      <c r="AL13" s="272"/>
-      <c r="AM13" s="277"/>
-      <c r="AN13" s="272"/>
-      <c r="AO13" s="277"/>
-      <c r="AP13" s="272"/>
-      <c r="AQ13" s="277"/>
-      <c r="AR13" s="272"/>
-      <c r="AS13" s="277"/>
-      <c r="AT13" s="272"/>
-      <c r="AU13" s="277"/>
-      <c r="AV13" s="272"/>
-      <c r="AW13" s="277"/>
-      <c r="AX13" s="272"/>
-      <c r="AY13" s="277"/>
-      <c r="AZ13" s="272"/>
-      <c r="BA13" s="277"/>
-      <c r="BB13" s="272"/>
-      <c r="BC13" s="277"/>
-      <c r="BD13" s="272"/>
-    </row>
-    <row r="14" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J14">
+    </row>
+    <row r="16" spans="10:88" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J16" s="155"/>
+      <c r="K16" s="155"/>
+      <c r="L16" s="155"/>
+      <c r="M16" s="155"/>
+      <c r="N16" s="155"/>
+      <c r="O16" s="155"/>
+      <c r="P16" s="155"/>
+      <c r="Q16" s="155"/>
+      <c r="R16" s="155"/>
+      <c r="S16" s="316"/>
+      <c r="T16" s="177"/>
+      <c r="U16" s="178"/>
+      <c r="V16" s="178"/>
+      <c r="W16" s="178"/>
+      <c r="X16" s="179"/>
+      <c r="Y16" s="295"/>
+      <c r="Z16" s="296"/>
+      <c r="AA16" s="297"/>
+      <c r="AB16" s="177"/>
+      <c r="AC16" s="178"/>
+      <c r="AD16" s="178"/>
+      <c r="AE16" s="178"/>
+      <c r="AF16" s="179"/>
+      <c r="AG16" s="317"/>
+      <c r="AH16" s="318"/>
+      <c r="AI16" s="319"/>
+      <c r="AJ16" s="318"/>
+      <c r="AK16" s="318"/>
+      <c r="AL16" s="318"/>
+      <c r="AM16" s="318"/>
+      <c r="AN16" s="318"/>
+      <c r="AO16" s="318"/>
+      <c r="AP16" s="320"/>
+      <c r="AQ16" s="317"/>
+      <c r="AR16" s="318"/>
+      <c r="AS16" s="319"/>
+      <c r="AT16" s="318"/>
+      <c r="AU16" s="318"/>
+      <c r="AV16" s="318"/>
+      <c r="AW16" s="318"/>
+      <c r="AX16" s="318"/>
+      <c r="AY16" s="318"/>
+      <c r="AZ16" s="320"/>
+      <c r="BA16" s="321"/>
+      <c r="BB16" s="322"/>
+      <c r="BC16" s="323"/>
+      <c r="BD16" s="322"/>
+      <c r="BE16" s="322"/>
+      <c r="BF16" s="322"/>
+      <c r="BG16" s="322"/>
+      <c r="BH16" s="322"/>
+      <c r="BI16" s="322"/>
+      <c r="BJ16" s="324"/>
+      <c r="BK16" s="307"/>
+      <c r="BL16" s="296"/>
+      <c r="BM16" s="296"/>
+      <c r="BN16" s="296"/>
+      <c r="BO16" s="296"/>
+      <c r="BP16" s="296"/>
+      <c r="BQ16" s="296"/>
+      <c r="BR16" s="296"/>
+      <c r="BS16" s="296"/>
+      <c r="BT16" s="296"/>
+      <c r="BU16" s="296"/>
+      <c r="BV16" s="296"/>
+      <c r="BW16" s="296"/>
+      <c r="BX16" s="296"/>
+      <c r="BY16" s="296"/>
+      <c r="BZ16" s="296"/>
+      <c r="CA16" s="296"/>
+      <c r="CB16" s="296"/>
+      <c r="CC16" s="296"/>
+      <c r="CD16" s="296"/>
+      <c r="CE16" s="296"/>
+      <c r="CF16" s="296"/>
+      <c r="CG16" s="296"/>
+      <c r="CH16" s="296"/>
+      <c r="CI16" s="308"/>
+      <c r="CJ16" s="153">
         <v>10</v>
       </c>
-      <c r="K14" s="272"/>
-      <c r="L14" s="277"/>
-      <c r="M14" s="272"/>
-      <c r="N14" s="277"/>
-      <c r="O14" s="272"/>
-      <c r="P14" s="277"/>
-      <c r="Q14" s="272"/>
-      <c r="R14" s="277"/>
-      <c r="S14" s="272"/>
-      <c r="T14" s="277"/>
-      <c r="U14" s="272"/>
-      <c r="V14" s="277"/>
-      <c r="W14" s="272"/>
-      <c r="X14" s="277"/>
-      <c r="Y14" s="272"/>
-      <c r="Z14" s="277"/>
-      <c r="AA14" s="272"/>
-      <c r="AB14" s="277"/>
-      <c r="AC14" s="272"/>
-      <c r="AD14" s="277"/>
-      <c r="AE14" s="272"/>
-      <c r="AF14" s="277"/>
-      <c r="AG14" s="272"/>
-      <c r="AH14" s="277"/>
-      <c r="AI14" s="272"/>
-      <c r="AJ14" s="277"/>
-      <c r="AK14" s="272"/>
-      <c r="AL14" s="277"/>
-      <c r="AM14" s="272"/>
-      <c r="AN14" s="277"/>
-      <c r="AO14" s="272"/>
-      <c r="AP14" s="277"/>
-      <c r="AQ14" s="272"/>
-      <c r="AR14" s="277"/>
-      <c r="AS14" s="272"/>
-      <c r="AT14" s="277"/>
-      <c r="AU14" s="272"/>
-      <c r="AV14" s="277"/>
-      <c r="AW14" s="272"/>
-      <c r="AX14" s="277"/>
-      <c r="AY14" s="272"/>
-      <c r="AZ14" s="277"/>
-      <c r="BA14" s="272"/>
-      <c r="BB14" s="277"/>
-      <c r="BC14" s="272"/>
-      <c r="BD14" s="277"/>
-    </row>
-    <row r="15" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J15">
+    </row>
+    <row r="17" spans="9:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="154"/>
+      <c r="O17" s="325"/>
+      <c r="P17" s="326"/>
+      <c r="Q17" s="326"/>
+      <c r="R17" s="326"/>
+      <c r="S17" s="326"/>
+      <c r="T17" s="326"/>
+      <c r="U17" s="326"/>
+      <c r="V17" s="326"/>
+      <c r="W17" s="326"/>
+      <c r="X17" s="327"/>
+      <c r="Y17" s="296"/>
+      <c r="Z17" s="296"/>
+      <c r="AA17" s="296"/>
+      <c r="AB17" s="328"/>
+      <c r="AC17" s="328"/>
+      <c r="AD17" s="328"/>
+      <c r="AE17" s="328"/>
+      <c r="AF17" s="328"/>
+      <c r="AG17" s="328"/>
+      <c r="AH17" s="328"/>
+      <c r="AI17" s="328"/>
+      <c r="AJ17" s="328"/>
+      <c r="AK17" s="328"/>
+      <c r="AL17" s="328"/>
+      <c r="AM17" s="328"/>
+      <c r="AN17" s="328"/>
+      <c r="AO17" s="328"/>
+      <c r="AP17" s="328"/>
+      <c r="AQ17" s="296"/>
+      <c r="AR17" s="296"/>
+      <c r="AS17" s="328"/>
+      <c r="AT17" s="296"/>
+      <c r="AU17" s="296"/>
+      <c r="AV17" s="296"/>
+      <c r="AW17" s="296"/>
+      <c r="AX17" s="296"/>
+      <c r="AY17" s="296"/>
+      <c r="AZ17" s="296"/>
+      <c r="BA17" s="296"/>
+      <c r="BB17" s="296"/>
+      <c r="BC17" s="328"/>
+      <c r="BD17" s="296"/>
+      <c r="BE17" s="296"/>
+      <c r="BF17" s="296"/>
+      <c r="BG17" s="296"/>
+      <c r="BH17" s="296"/>
+      <c r="BI17" s="296"/>
+      <c r="BJ17" s="284"/>
+      <c r="BK17" s="295"/>
+      <c r="BL17" s="296"/>
+      <c r="BM17" s="296"/>
+      <c r="BN17" s="296"/>
+      <c r="BO17" s="296"/>
+      <c r="BP17" s="296"/>
+      <c r="BQ17" s="296"/>
+      <c r="BR17" s="296"/>
+      <c r="BS17" s="296"/>
+      <c r="BT17" s="296"/>
+      <c r="BU17" s="296"/>
+      <c r="BV17" s="296"/>
+      <c r="BW17" s="296"/>
+      <c r="BX17" s="296"/>
+      <c r="BY17" s="296"/>
+      <c r="BZ17" s="296"/>
+      <c r="CA17" s="296"/>
+      <c r="CB17" s="296"/>
+      <c r="CC17" s="296"/>
+      <c r="CD17" s="296"/>
+      <c r="CE17" s="296"/>
+      <c r="CF17" s="296"/>
+      <c r="CG17" s="296"/>
+      <c r="CH17" s="296"/>
+      <c r="CI17" s="308"/>
+      <c r="CJ17" s="153">
         <v>11</v>
       </c>
-      <c r="K15" s="277"/>
-      <c r="L15" s="272"/>
-      <c r="M15" s="277"/>
-      <c r="N15" s="272"/>
-      <c r="O15" s="277"/>
-      <c r="P15" s="272"/>
-      <c r="Q15" s="277"/>
-      <c r="R15" s="272"/>
-      <c r="S15" s="277"/>
-      <c r="T15" s="272"/>
-      <c r="U15" s="277"/>
-      <c r="V15" s="272"/>
-      <c r="W15" s="277"/>
-      <c r="X15" s="272"/>
-      <c r="Y15" s="277"/>
-      <c r="Z15" s="272"/>
-      <c r="AA15" s="277"/>
-      <c r="AB15" s="272"/>
-      <c r="AC15" s="277"/>
-      <c r="AD15" s="272"/>
-      <c r="AE15" s="277"/>
-      <c r="AF15" s="272"/>
-      <c r="AG15" s="277"/>
-      <c r="AH15" s="272"/>
-      <c r="AI15" s="277"/>
-      <c r="AJ15" s="272"/>
-      <c r="AK15" s="277"/>
-      <c r="AL15" s="272"/>
-      <c r="AM15" s="277"/>
-      <c r="AN15" s="272"/>
-      <c r="AO15" s="277"/>
-      <c r="AP15" s="272"/>
-      <c r="AQ15" s="277"/>
-      <c r="AR15" s="272"/>
-      <c r="AS15" s="277"/>
-      <c r="AT15" s="272"/>
-      <c r="AU15" s="277"/>
-      <c r="AV15" s="272"/>
-      <c r="AW15" s="277"/>
-      <c r="AX15" s="272"/>
-      <c r="AY15" s="277"/>
-      <c r="AZ15" s="272"/>
-      <c r="BA15" s="277"/>
-      <c r="BB15" s="272"/>
-      <c r="BC15" s="277"/>
-      <c r="BD15" s="272"/>
-    </row>
-    <row r="16" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J16">
+    </row>
+    <row r="18" spans="9:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I18" s="154"/>
+      <c r="O18" s="329"/>
+      <c r="P18" s="330"/>
+      <c r="Q18" s="330"/>
+      <c r="R18" s="330"/>
+      <c r="S18" s="330"/>
+      <c r="T18" s="330"/>
+      <c r="U18" s="330"/>
+      <c r="V18" s="330"/>
+      <c r="W18" s="330"/>
+      <c r="X18" s="331"/>
+      <c r="Y18" s="296"/>
+      <c r="Z18" s="296"/>
+      <c r="AA18" s="296"/>
+      <c r="AB18" s="296"/>
+      <c r="AC18" s="296"/>
+      <c r="AD18" s="296"/>
+      <c r="AE18" s="296"/>
+      <c r="AF18" s="296"/>
+      <c r="AG18" s="296"/>
+      <c r="AH18" s="296"/>
+      <c r="AI18" s="296"/>
+      <c r="AJ18" s="296"/>
+      <c r="AK18" s="296"/>
+      <c r="AL18" s="296"/>
+      <c r="AM18" s="296"/>
+      <c r="AN18" s="296"/>
+      <c r="AO18" s="296"/>
+      <c r="AP18" s="296"/>
+      <c r="AQ18" s="296"/>
+      <c r="AR18" s="296"/>
+      <c r="AS18" s="296"/>
+      <c r="AT18" s="296"/>
+      <c r="AU18" s="296"/>
+      <c r="AV18" s="296"/>
+      <c r="AW18" s="296"/>
+      <c r="AX18" s="296"/>
+      <c r="AY18" s="296"/>
+      <c r="AZ18" s="296"/>
+      <c r="BA18" s="296"/>
+      <c r="BB18" s="296"/>
+      <c r="BC18" s="296"/>
+      <c r="BD18" s="296"/>
+      <c r="BE18" s="296"/>
+      <c r="BF18" s="296"/>
+      <c r="BG18" s="296"/>
+      <c r="BH18" s="296"/>
+      <c r="BI18" s="296"/>
+      <c r="BJ18" s="296"/>
+      <c r="BK18" s="295"/>
+      <c r="BL18" s="296"/>
+      <c r="BM18" s="296"/>
+      <c r="BN18" s="296"/>
+      <c r="BO18" s="296"/>
+      <c r="BP18" s="296"/>
+      <c r="BQ18" s="296"/>
+      <c r="BR18" s="296"/>
+      <c r="BS18" s="296"/>
+      <c r="BT18" s="296"/>
+      <c r="BU18" s="296"/>
+      <c r="BV18" s="296"/>
+      <c r="BW18" s="296"/>
+      <c r="BX18" s="296"/>
+      <c r="BY18" s="296"/>
+      <c r="BZ18" s="296"/>
+      <c r="CA18" s="296"/>
+      <c r="CB18" s="296"/>
+      <c r="CC18" s="296"/>
+      <c r="CD18" s="296"/>
+      <c r="CE18" s="296"/>
+      <c r="CF18" s="296"/>
+      <c r="CG18" s="296"/>
+      <c r="CH18" s="296"/>
+      <c r="CI18" s="308"/>
+      <c r="CJ18" s="153">
         <v>12</v>
       </c>
-      <c r="K16" s="272"/>
-      <c r="L16" s="277"/>
-      <c r="M16" s="272"/>
-      <c r="N16" s="277"/>
-      <c r="O16" s="272"/>
-      <c r="P16" s="277"/>
-      <c r="Q16" s="272"/>
-      <c r="R16" s="277"/>
-      <c r="S16" s="272"/>
-      <c r="T16" s="277"/>
-      <c r="U16" s="272"/>
-      <c r="V16" s="277"/>
-      <c r="W16" s="272"/>
-      <c r="X16" s="277"/>
-      <c r="Y16" s="272"/>
-      <c r="Z16" s="277"/>
-      <c r="AA16" s="272"/>
-      <c r="AB16" s="277"/>
-      <c r="AC16" s="272"/>
-      <c r="AD16" s="277"/>
-      <c r="AE16" s="272"/>
-      <c r="AF16" s="277"/>
-      <c r="AG16" s="272"/>
-      <c r="AH16" s="277"/>
-      <c r="AI16" s="272"/>
-      <c r="AJ16" s="277"/>
-      <c r="AK16" s="272"/>
-      <c r="AL16" s="277"/>
-      <c r="AM16" s="272"/>
-      <c r="AN16" s="277"/>
-      <c r="AO16" s="272"/>
-      <c r="AP16" s="277"/>
-      <c r="AQ16" s="272"/>
-      <c r="AR16" s="277"/>
-      <c r="AS16" s="272"/>
-      <c r="AT16" s="277"/>
-      <c r="AU16" s="272"/>
-      <c r="AV16" s="277"/>
-      <c r="AW16" s="272"/>
-      <c r="AX16" s="277"/>
-      <c r="AY16" s="272"/>
-      <c r="AZ16" s="277"/>
-      <c r="BA16" s="272"/>
-      <c r="BB16" s="277"/>
-      <c r="BC16" s="272"/>
-      <c r="BD16" s="277"/>
-    </row>
-    <row r="17" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J17">
+    </row>
+    <row r="19" spans="9:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I19" s="154"/>
+      <c r="O19" s="329"/>
+      <c r="P19" s="330"/>
+      <c r="Q19" s="330"/>
+      <c r="R19" s="330"/>
+      <c r="S19" s="330" t="s">
+        <v>188</v>
+      </c>
+      <c r="T19" s="330"/>
+      <c r="U19" s="330"/>
+      <c r="V19" s="330"/>
+      <c r="W19" s="330"/>
+      <c r="X19" s="332"/>
+      <c r="Y19" s="296"/>
+      <c r="Z19" s="296"/>
+      <c r="AA19" s="296"/>
+      <c r="AB19" s="296"/>
+      <c r="AC19" s="296"/>
+      <c r="AD19" s="296"/>
+      <c r="AE19" s="296"/>
+      <c r="AF19" s="296"/>
+      <c r="AG19" s="296"/>
+      <c r="AH19" s="296"/>
+      <c r="AI19" s="296"/>
+      <c r="AJ19" s="296"/>
+      <c r="AK19" s="296"/>
+      <c r="AL19" s="296"/>
+      <c r="AM19" s="296"/>
+      <c r="AN19" s="296"/>
+      <c r="AO19" s="296"/>
+      <c r="AP19" s="296"/>
+      <c r="AQ19" s="296"/>
+      <c r="AR19" s="296"/>
+      <c r="AS19" s="296"/>
+      <c r="AT19" s="296"/>
+      <c r="AU19" s="296"/>
+      <c r="AV19" s="296"/>
+      <c r="AW19" s="296"/>
+      <c r="AX19" s="296"/>
+      <c r="AY19" s="296"/>
+      <c r="AZ19" s="296"/>
+      <c r="BA19" s="296"/>
+      <c r="BB19" s="296"/>
+      <c r="BC19" s="296"/>
+      <c r="BD19" s="296"/>
+      <c r="BE19" s="296"/>
+      <c r="BF19" s="296"/>
+      <c r="BG19" s="296"/>
+      <c r="BH19" s="296"/>
+      <c r="BI19" s="296"/>
+      <c r="BJ19" s="296"/>
+      <c r="BK19" s="295"/>
+      <c r="BL19" s="296"/>
+      <c r="BM19" s="296"/>
+      <c r="BN19" s="296"/>
+      <c r="BO19" s="296"/>
+      <c r="BP19" s="296"/>
+      <c r="BQ19" s="296"/>
+      <c r="BR19" s="296"/>
+      <c r="BS19" s="296"/>
+      <c r="BT19" s="296"/>
+      <c r="BU19" s="296"/>
+      <c r="BV19" s="296"/>
+      <c r="BW19" s="296"/>
+      <c r="BX19" s="296"/>
+      <c r="BY19" s="296"/>
+      <c r="BZ19" s="296"/>
+      <c r="CA19" s="296"/>
+      <c r="CB19" s="296"/>
+      <c r="CC19" s="296"/>
+      <c r="CD19" s="296"/>
+      <c r="CE19" s="296"/>
+      <c r="CF19" s="296"/>
+      <c r="CG19" s="296"/>
+      <c r="CH19" s="296"/>
+      <c r="CI19" s="308"/>
+      <c r="CJ19" s="153">
         <v>13</v>
       </c>
-      <c r="K17" s="277"/>
-      <c r="L17" s="272"/>
-      <c r="M17" s="277"/>
-      <c r="N17" s="272"/>
-      <c r="O17" s="277"/>
-      <c r="P17" s="272"/>
-      <c r="Q17" s="277"/>
-      <c r="R17" s="272"/>
-      <c r="S17" s="277"/>
-      <c r="T17" s="272"/>
-      <c r="U17" s="277"/>
-      <c r="V17" s="272"/>
-      <c r="W17" s="277"/>
-      <c r="X17" s="272"/>
-      <c r="Y17" s="277"/>
-      <c r="Z17" s="272"/>
-      <c r="AA17" s="277"/>
-      <c r="AB17" s="272"/>
-      <c r="AC17" s="277"/>
-      <c r="AD17" s="272"/>
-      <c r="AE17" s="277"/>
-      <c r="AF17" s="272"/>
-      <c r="AG17" s="277"/>
-      <c r="AH17" s="272"/>
-      <c r="AI17" s="277"/>
-      <c r="AJ17" s="272"/>
-      <c r="AK17" s="277"/>
-      <c r="AL17" s="272"/>
-      <c r="AM17" s="277"/>
-      <c r="AN17" s="272"/>
-      <c r="AO17" s="277"/>
-      <c r="AP17" s="272"/>
-      <c r="AQ17" s="277"/>
-      <c r="AR17" s="272"/>
-      <c r="AS17" s="277"/>
-      <c r="AT17" s="272"/>
-      <c r="AU17" s="277"/>
-      <c r="AV17" s="272"/>
-      <c r="AW17" s="277"/>
-      <c r="AX17" s="272"/>
-      <c r="AY17" s="277"/>
-      <c r="AZ17" s="272"/>
-      <c r="BA17" s="277"/>
-      <c r="BB17" s="272"/>
-      <c r="BC17" s="277"/>
-      <c r="BD17" s="272"/>
-    </row>
-    <row r="18" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J18">
+    </row>
+    <row r="20" spans="9:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I20" s="154"/>
+      <c r="O20" s="329"/>
+      <c r="P20" s="330"/>
+      <c r="Q20" s="330"/>
+      <c r="R20" s="330"/>
+      <c r="S20" s="330"/>
+      <c r="T20" s="330"/>
+      <c r="U20" s="330"/>
+      <c r="V20" s="330"/>
+      <c r="W20" s="330"/>
+      <c r="X20" s="331"/>
+      <c r="Y20" s="296"/>
+      <c r="Z20" s="296"/>
+      <c r="AA20" s="296"/>
+      <c r="AB20" s="296"/>
+      <c r="AC20" s="296"/>
+      <c r="AD20" s="296"/>
+      <c r="AE20" s="296"/>
+      <c r="AF20" s="296"/>
+      <c r="AG20" s="296"/>
+      <c r="AH20" s="296"/>
+      <c r="AI20" s="296"/>
+      <c r="AJ20" s="296"/>
+      <c r="AK20" s="296"/>
+      <c r="AL20" s="296"/>
+      <c r="AM20" s="296"/>
+      <c r="AN20" s="296"/>
+      <c r="AO20" s="296"/>
+      <c r="AP20" s="296"/>
+      <c r="AQ20" s="296"/>
+      <c r="AR20" s="296"/>
+      <c r="AS20" s="296"/>
+      <c r="AT20" s="296"/>
+      <c r="AU20" s="296"/>
+      <c r="AV20" s="296"/>
+      <c r="AW20" s="296"/>
+      <c r="AX20" s="296"/>
+      <c r="AY20" s="296"/>
+      <c r="AZ20" s="296"/>
+      <c r="BA20" s="296"/>
+      <c r="BB20" s="296"/>
+      <c r="BC20" s="296"/>
+      <c r="BD20" s="296"/>
+      <c r="BE20" s="296"/>
+      <c r="BF20" s="296"/>
+      <c r="BG20" s="296"/>
+      <c r="BH20" s="296"/>
+      <c r="BI20" s="296"/>
+      <c r="BJ20" s="296"/>
+      <c r="BK20" s="295"/>
+      <c r="BL20" s="296"/>
+      <c r="BM20" s="296"/>
+      <c r="BN20" s="296"/>
+      <c r="BO20" s="296"/>
+      <c r="BP20" s="296"/>
+      <c r="BQ20" s="296"/>
+      <c r="BR20" s="296"/>
+      <c r="BS20" s="296"/>
+      <c r="BT20" s="296"/>
+      <c r="BU20" s="296"/>
+      <c r="BV20" s="296"/>
+      <c r="BW20" s="296"/>
+      <c r="BX20" s="296"/>
+      <c r="BY20" s="296"/>
+      <c r="BZ20" s="296"/>
+      <c r="CA20" s="296"/>
+      <c r="CB20" s="296"/>
+      <c r="CC20" s="296"/>
+      <c r="CD20" s="296"/>
+      <c r="CE20" s="296"/>
+      <c r="CF20" s="296"/>
+      <c r="CG20" s="296"/>
+      <c r="CH20" s="296"/>
+      <c r="CI20" s="308"/>
+      <c r="CJ20" s="153">
         <v>14</v>
       </c>
-      <c r="K18" s="272"/>
-      <c r="L18" s="277"/>
-      <c r="M18" s="272"/>
-      <c r="N18" s="277"/>
-      <c r="O18" s="272"/>
-      <c r="P18" s="277"/>
-      <c r="Q18" s="272"/>
-      <c r="R18" s="277"/>
-      <c r="S18" s="272"/>
-      <c r="T18" s="277"/>
-      <c r="U18" s="272"/>
-      <c r="V18" s="277"/>
-      <c r="W18" s="272"/>
-      <c r="X18" s="277"/>
-      <c r="Y18" s="272"/>
-      <c r="Z18" s="277"/>
-      <c r="AA18" s="272"/>
-      <c r="AB18" s="277"/>
-      <c r="AC18" s="272"/>
-      <c r="AD18" s="277"/>
-      <c r="AE18" s="272"/>
-      <c r="AF18" s="277"/>
-      <c r="AG18" s="272"/>
-      <c r="AH18" s="277"/>
-      <c r="AI18" s="272"/>
-      <c r="AJ18" s="277"/>
-      <c r="AK18" s="272"/>
-      <c r="AL18" s="277"/>
-      <c r="AM18" s="272"/>
-      <c r="AN18" s="277"/>
-      <c r="AO18" s="272"/>
-      <c r="AP18" s="277"/>
-      <c r="AQ18" s="272"/>
-      <c r="AR18" s="277"/>
-      <c r="AS18" s="272"/>
-      <c r="AT18" s="277"/>
-      <c r="AU18" s="272"/>
-      <c r="AV18" s="277"/>
-      <c r="AW18" s="272"/>
-      <c r="AX18" s="277"/>
-      <c r="AY18" s="272"/>
-      <c r="AZ18" s="277"/>
-      <c r="BA18" s="272"/>
-      <c r="BB18" s="277"/>
-      <c r="BC18" s="272"/>
-      <c r="BD18" s="277"/>
-    </row>
-    <row r="19" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J19">
+    </row>
+    <row r="21" spans="9:88" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I21" s="154"/>
+      <c r="O21" s="333"/>
+      <c r="P21" s="334"/>
+      <c r="Q21" s="334"/>
+      <c r="R21" s="334"/>
+      <c r="S21" s="334"/>
+      <c r="T21" s="334"/>
+      <c r="U21" s="334"/>
+      <c r="V21" s="334"/>
+      <c r="W21" s="344"/>
+      <c r="X21" s="335"/>
+      <c r="Y21" s="336"/>
+      <c r="Z21" s="336"/>
+      <c r="AA21" s="296"/>
+      <c r="AB21" s="336"/>
+      <c r="AC21" s="296"/>
+      <c r="AD21" s="296"/>
+      <c r="AE21" s="296"/>
+      <c r="AF21" s="296"/>
+      <c r="AG21" s="296"/>
+      <c r="AH21" s="296"/>
+      <c r="AI21" s="336"/>
+      <c r="AJ21" s="296"/>
+      <c r="AK21" s="296"/>
+      <c r="AL21" s="296"/>
+      <c r="AM21" s="296"/>
+      <c r="AN21" s="296"/>
+      <c r="AO21" s="296"/>
+      <c r="AP21" s="296"/>
+      <c r="AQ21" s="296"/>
+      <c r="AR21" s="296"/>
+      <c r="AS21" s="336"/>
+      <c r="AT21" s="296"/>
+      <c r="AU21" s="296"/>
+      <c r="AV21" s="296"/>
+      <c r="AW21" s="296"/>
+      <c r="AX21" s="296"/>
+      <c r="AY21" s="296"/>
+      <c r="AZ21" s="296"/>
+      <c r="BA21" s="296"/>
+      <c r="BB21" s="296"/>
+      <c r="BC21" s="336"/>
+      <c r="BD21" s="296"/>
+      <c r="BE21" s="296"/>
+      <c r="BF21" s="296"/>
+      <c r="BG21" s="296"/>
+      <c r="BH21" s="296"/>
+      <c r="BI21" s="296"/>
+      <c r="BJ21" s="337"/>
+      <c r="BK21" s="295"/>
+      <c r="BL21" s="296"/>
+      <c r="BM21" s="296"/>
+      <c r="BN21" s="296"/>
+      <c r="BO21" s="296"/>
+      <c r="BP21" s="296"/>
+      <c r="BQ21" s="296"/>
+      <c r="BR21" s="296"/>
+      <c r="BS21" s="296"/>
+      <c r="BT21" s="296"/>
+      <c r="BU21" s="296"/>
+      <c r="BV21" s="296"/>
+      <c r="BW21" s="296"/>
+      <c r="BX21" s="296"/>
+      <c r="BY21" s="296"/>
+      <c r="BZ21" s="296"/>
+      <c r="CA21" s="296"/>
+      <c r="CB21" s="296"/>
+      <c r="CC21" s="296"/>
+      <c r="CD21" s="296"/>
+      <c r="CE21" s="296"/>
+      <c r="CF21" s="296"/>
+      <c r="CG21" s="296"/>
+      <c r="CH21" s="296"/>
+      <c r="CI21" s="308"/>
+      <c r="CJ21" s="153">
         <v>15</v>
       </c>
-      <c r="K19" s="277"/>
-      <c r="L19" s="272"/>
-      <c r="M19" s="277"/>
-      <c r="N19" s="272"/>
-      <c r="O19" s="277"/>
-      <c r="P19" s="272"/>
-      <c r="Q19" s="277"/>
-      <c r="R19" s="272"/>
-      <c r="S19" s="277"/>
-      <c r="T19" s="272"/>
-      <c r="U19" s="277"/>
-      <c r="V19" s="272"/>
-      <c r="W19" s="277"/>
-      <c r="X19" s="272"/>
-      <c r="Y19" s="277"/>
-      <c r="Z19" s="272"/>
-      <c r="AA19" s="277"/>
-      <c r="AB19" s="272"/>
-      <c r="AC19" s="277"/>
-      <c r="AD19" s="272"/>
-      <c r="AE19" s="277"/>
-      <c r="AF19" s="272"/>
-      <c r="AG19" s="277"/>
-      <c r="AH19" s="272"/>
-      <c r="AI19" s="277"/>
-      <c r="AJ19" s="272"/>
-      <c r="AK19" s="277"/>
-      <c r="AL19" s="272"/>
-      <c r="AM19" s="277"/>
-      <c r="AN19" s="272"/>
-      <c r="AO19" s="277"/>
-      <c r="AP19" s="272"/>
-      <c r="AQ19" s="277"/>
-      <c r="AR19" s="272"/>
-      <c r="AS19" s="277"/>
-      <c r="AT19" s="272"/>
-      <c r="AU19" s="277"/>
-      <c r="AV19" s="272"/>
-      <c r="AW19" s="277"/>
-      <c r="AX19" s="272"/>
-      <c r="AY19" s="277"/>
-      <c r="AZ19" s="272"/>
-      <c r="BA19" s="277"/>
-      <c r="BB19" s="272"/>
-      <c r="BC19" s="277"/>
-      <c r="BD19" s="272"/>
-    </row>
-    <row r="20" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J20">
+    </row>
+    <row r="22" spans="9:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J22" s="157"/>
+      <c r="K22" s="157"/>
+      <c r="L22" s="157"/>
+      <c r="M22" s="157"/>
+      <c r="N22" s="157"/>
+      <c r="O22" s="157"/>
+      <c r="P22" s="157"/>
+      <c r="Q22" s="157"/>
+      <c r="R22" s="157"/>
+      <c r="S22" s="185"/>
+      <c r="T22" s="187"/>
+      <c r="U22" s="187"/>
+      <c r="V22" s="187"/>
+      <c r="W22" s="187"/>
+      <c r="X22" s="188"/>
+      <c r="Y22" s="296"/>
+      <c r="Z22" s="296"/>
+      <c r="AA22" s="185"/>
+      <c r="AB22" s="187"/>
+      <c r="AC22" s="187"/>
+      <c r="AD22" s="187"/>
+      <c r="AE22" s="187"/>
+      <c r="AF22" s="187"/>
+      <c r="AG22" s="286"/>
+      <c r="AH22" s="287"/>
+      <c r="AI22" s="319"/>
+      <c r="AJ22" s="287"/>
+      <c r="AK22" s="287"/>
+      <c r="AL22" s="287"/>
+      <c r="AM22" s="287"/>
+      <c r="AN22" s="287"/>
+      <c r="AO22" s="287"/>
+      <c r="AP22" s="288"/>
+      <c r="AQ22" s="286"/>
+      <c r="AR22" s="287"/>
+      <c r="AS22" s="319"/>
+      <c r="AT22" s="287"/>
+      <c r="AU22" s="287"/>
+      <c r="AV22" s="287"/>
+      <c r="AW22" s="287"/>
+      <c r="AX22" s="287"/>
+      <c r="AY22" s="287"/>
+      <c r="AZ22" s="288"/>
+      <c r="BA22" s="240"/>
+      <c r="BB22" s="241"/>
+      <c r="BC22" s="242"/>
+      <c r="BD22" s="241"/>
+      <c r="BE22" s="241"/>
+      <c r="BF22" s="241"/>
+      <c r="BG22" s="241"/>
+      <c r="BH22" s="241"/>
+      <c r="BI22" s="241"/>
+      <c r="BJ22" s="339"/>
+      <c r="BK22" s="307"/>
+      <c r="BL22" s="296"/>
+      <c r="BM22" s="296"/>
+      <c r="BN22" s="296"/>
+      <c r="BO22" s="296"/>
+      <c r="BP22" s="296"/>
+      <c r="BQ22" s="296"/>
+      <c r="BR22" s="296"/>
+      <c r="BS22" s="296"/>
+      <c r="BT22" s="296"/>
+      <c r="BU22" s="296"/>
+      <c r="BV22" s="296"/>
+      <c r="BW22" s="296"/>
+      <c r="BX22" s="296"/>
+      <c r="BY22" s="296"/>
+      <c r="BZ22" s="296"/>
+      <c r="CA22" s="296"/>
+      <c r="CB22" s="296"/>
+      <c r="CC22" s="296"/>
+      <c r="CD22" s="296"/>
+      <c r="CE22" s="296"/>
+      <c r="CF22" s="296"/>
+      <c r="CG22" s="296"/>
+      <c r="CH22" s="296"/>
+      <c r="CI22" s="308"/>
+      <c r="CJ22" s="153">
         <v>16</v>
       </c>
-      <c r="K20" s="272"/>
-      <c r="L20" s="277"/>
-      <c r="M20" s="272"/>
-      <c r="N20" s="277"/>
-      <c r="O20" s="272"/>
-      <c r="P20" s="277"/>
-      <c r="Q20" s="272"/>
-      <c r="R20" s="277"/>
-      <c r="S20" s="272"/>
-      <c r="T20" s="277"/>
-      <c r="U20" s="272"/>
-      <c r="V20" s="277"/>
-      <c r="W20" s="272"/>
-      <c r="X20" s="277"/>
-      <c r="Y20" s="272"/>
-      <c r="Z20" s="277"/>
-      <c r="AA20" s="272"/>
-      <c r="AB20" s="277"/>
-      <c r="AC20" s="272"/>
-      <c r="AD20" s="277"/>
-      <c r="AE20" s="272"/>
-      <c r="AF20" s="277"/>
-      <c r="AG20" s="272"/>
-      <c r="AH20" s="277"/>
-      <c r="AI20" s="272"/>
-      <c r="AJ20" s="277"/>
-      <c r="AK20" s="272"/>
-      <c r="AL20" s="277"/>
-      <c r="AM20" s="272"/>
-      <c r="AN20" s="277"/>
-      <c r="AO20" s="272"/>
-      <c r="AP20" s="277"/>
-      <c r="AQ20" s="272"/>
-      <c r="AR20" s="277"/>
-      <c r="AS20" s="272"/>
-      <c r="AT20" s="277"/>
-      <c r="AU20" s="272"/>
-      <c r="AV20" s="277"/>
-      <c r="AW20" s="272"/>
-      <c r="AX20" s="277"/>
-      <c r="AY20" s="272"/>
-      <c r="AZ20" s="277"/>
-      <c r="BA20" s="272"/>
-      <c r="BB20" s="277"/>
-      <c r="BC20" s="272"/>
-      <c r="BD20" s="277"/>
-    </row>
-    <row r="21" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J21">
+    </row>
+    <row r="23" spans="9:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S23" s="190"/>
+      <c r="T23" s="191"/>
+      <c r="U23" s="191"/>
+      <c r="V23" s="191"/>
+      <c r="W23" s="191"/>
+      <c r="X23" s="192"/>
+      <c r="Y23" s="296"/>
+      <c r="Z23" s="296"/>
+      <c r="AA23" s="190"/>
+      <c r="AB23" s="191"/>
+      <c r="AC23" s="191"/>
+      <c r="AD23" s="191"/>
+      <c r="AE23" s="191"/>
+      <c r="AF23" s="191"/>
+      <c r="AG23" s="298"/>
+      <c r="AH23" s="299"/>
+      <c r="AI23" s="299"/>
+      <c r="AJ23" s="299"/>
+      <c r="AK23" s="299"/>
+      <c r="AL23" s="299"/>
+      <c r="AM23" s="299"/>
+      <c r="AN23" s="299"/>
+      <c r="AO23" s="299"/>
+      <c r="AP23" s="300"/>
+      <c r="AQ23" s="298"/>
+      <c r="AR23" s="299"/>
+      <c r="AS23" s="299"/>
+      <c r="AT23" s="299"/>
+      <c r="AU23" s="299"/>
+      <c r="AV23" s="299"/>
+      <c r="AW23" s="299"/>
+      <c r="AX23" s="299"/>
+      <c r="AY23" s="299"/>
+      <c r="AZ23" s="300"/>
+      <c r="BA23" s="244"/>
+      <c r="BB23" s="245"/>
+      <c r="BC23" s="245"/>
+      <c r="BD23" s="245"/>
+      <c r="BE23" s="245"/>
+      <c r="BF23" s="245"/>
+      <c r="BG23" s="245"/>
+      <c r="BH23" s="245"/>
+      <c r="BI23" s="245"/>
+      <c r="BJ23" s="340"/>
+      <c r="BK23" s="307"/>
+      <c r="BL23" s="296"/>
+      <c r="BM23" s="296"/>
+      <c r="BN23" s="296"/>
+      <c r="BO23" s="296"/>
+      <c r="BP23" s="296"/>
+      <c r="BQ23" s="296"/>
+      <c r="BR23" s="296"/>
+      <c r="BS23" s="296"/>
+      <c r="BT23" s="296"/>
+      <c r="BU23" s="296"/>
+      <c r="BV23" s="296"/>
+      <c r="BW23" s="296"/>
+      <c r="BX23" s="296"/>
+      <c r="BY23" s="296"/>
+      <c r="BZ23" s="296"/>
+      <c r="CA23" s="296"/>
+      <c r="CB23" s="296"/>
+      <c r="CC23" s="296"/>
+      <c r="CD23" s="296"/>
+      <c r="CE23" s="296"/>
+      <c r="CF23" s="296"/>
+      <c r="CG23" s="296"/>
+      <c r="CH23" s="296"/>
+      <c r="CI23" s="308"/>
+      <c r="CJ23" s="153">
         <v>17</v>
       </c>
-      <c r="K21" s="277"/>
-      <c r="L21" s="272"/>
-      <c r="M21" s="277"/>
-      <c r="N21" s="272"/>
-      <c r="O21" s="277"/>
-      <c r="P21" s="272"/>
-      <c r="Q21" s="277"/>
-      <c r="R21" s="272"/>
-      <c r="S21" s="277"/>
-      <c r="T21" s="272"/>
-      <c r="U21" s="277"/>
-      <c r="V21" s="272"/>
-      <c r="W21" s="277"/>
-      <c r="X21" s="272"/>
-      <c r="Y21" s="277"/>
-      <c r="Z21" s="272"/>
-      <c r="AA21" s="277"/>
-      <c r="AB21" s="272"/>
-      <c r="AC21" s="277"/>
-      <c r="AD21" s="272"/>
-      <c r="AE21" s="277"/>
-      <c r="AF21" s="272"/>
-      <c r="AG21" s="277"/>
-      <c r="AH21" s="272"/>
-      <c r="AI21" s="277"/>
-      <c r="AJ21" s="272"/>
-      <c r="AK21" s="277"/>
-      <c r="AL21" s="272"/>
-      <c r="AM21" s="277"/>
-      <c r="AN21" s="272"/>
-      <c r="AO21" s="277"/>
-      <c r="AP21" s="272"/>
-      <c r="AQ21" s="277"/>
-      <c r="AR21" s="272"/>
-      <c r="AS21" s="277"/>
-      <c r="AT21" s="272"/>
-      <c r="AU21" s="277"/>
-      <c r="AV21" s="272"/>
-      <c r="AW21" s="277"/>
-      <c r="AX21" s="272"/>
-      <c r="AY21" s="277"/>
-      <c r="AZ21" s="272"/>
-      <c r="BA21" s="277"/>
-      <c r="BB21" s="272"/>
-      <c r="BC21" s="277"/>
-      <c r="BD21" s="272"/>
-    </row>
-    <row r="22" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J22">
+    </row>
+    <row r="24" spans="9:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S24" s="190"/>
+      <c r="T24" s="191"/>
+      <c r="U24" s="191" t="s">
+        <v>193</v>
+      </c>
+      <c r="V24" s="191"/>
+      <c r="W24" s="191"/>
+      <c r="X24" s="338"/>
+      <c r="Y24" s="295"/>
+      <c r="Z24" s="297"/>
+      <c r="AA24" s="338"/>
+      <c r="AB24" s="191"/>
+      <c r="AC24" s="191" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD24" s="191"/>
+      <c r="AE24" s="191"/>
+      <c r="AF24" s="191"/>
+      <c r="AG24" s="298"/>
+      <c r="AH24" s="299"/>
+      <c r="AI24" s="299"/>
+      <c r="AJ24" s="299"/>
+      <c r="AK24" s="299"/>
+      <c r="AL24" s="299"/>
+      <c r="AM24" s="299"/>
+      <c r="AN24" s="299"/>
+      <c r="AO24" s="299"/>
+      <c r="AP24" s="300"/>
+      <c r="AQ24" s="298"/>
+      <c r="AR24" s="299"/>
+      <c r="AS24" s="299"/>
+      <c r="AT24" s="299"/>
+      <c r="AU24" s="299"/>
+      <c r="AV24" s="299"/>
+      <c r="AW24" s="299"/>
+      <c r="AX24" s="299"/>
+      <c r="AY24" s="299"/>
+      <c r="AZ24" s="300"/>
+      <c r="BA24" s="244"/>
+      <c r="BB24" s="245"/>
+      <c r="BC24" s="245"/>
+      <c r="BD24" s="245"/>
+      <c r="BE24" s="245"/>
+      <c r="BF24" s="245"/>
+      <c r="BG24" s="245"/>
+      <c r="BH24" s="245"/>
+      <c r="BI24" s="245"/>
+      <c r="BJ24" s="340"/>
+      <c r="BK24" s="307"/>
+      <c r="BL24" s="296"/>
+      <c r="BM24" s="296"/>
+      <c r="BN24" s="296"/>
+      <c r="BO24" s="296"/>
+      <c r="BP24" s="296"/>
+      <c r="BQ24" s="296"/>
+      <c r="BR24" s="296"/>
+      <c r="BS24" s="296"/>
+      <c r="BT24" s="296"/>
+      <c r="BU24" s="296"/>
+      <c r="BV24" s="296"/>
+      <c r="BW24" s="296"/>
+      <c r="BX24" s="296"/>
+      <c r="BY24" s="296"/>
+      <c r="BZ24" s="296"/>
+      <c r="CA24" s="296"/>
+      <c r="CB24" s="296"/>
+      <c r="CC24" s="296"/>
+      <c r="CD24" s="296"/>
+      <c r="CE24" s="296"/>
+      <c r="CF24" s="296"/>
+      <c r="CG24" s="296"/>
+      <c r="CH24" s="296"/>
+      <c r="CI24" s="308"/>
+      <c r="CJ24" s="153">
         <v>18</v>
       </c>
-      <c r="K22" s="272"/>
-      <c r="L22" s="277"/>
-      <c r="M22" s="272"/>
-      <c r="N22" s="277"/>
-      <c r="O22" s="272"/>
-      <c r="P22" s="277"/>
-      <c r="Q22" s="272"/>
-      <c r="R22" s="277"/>
-      <c r="S22" s="272"/>
-      <c r="T22" s="277"/>
-      <c r="U22" s="272"/>
-      <c r="V22" s="277"/>
-      <c r="W22" s="272"/>
-      <c r="X22" s="277"/>
-      <c r="Y22" s="272"/>
-      <c r="Z22" s="277"/>
-      <c r="AA22" s="272"/>
-      <c r="AB22" s="277"/>
-      <c r="AC22" s="272"/>
-      <c r="AD22" s="277"/>
-      <c r="AE22" s="272"/>
-      <c r="AF22" s="277"/>
-      <c r="AG22" s="272"/>
-      <c r="AH22" s="277"/>
-      <c r="AI22" s="272"/>
-      <c r="AJ22" s="277"/>
-      <c r="AK22" s="272"/>
-      <c r="AL22" s="277"/>
-      <c r="AM22" s="272"/>
-      <c r="AN22" s="277"/>
-      <c r="AO22" s="272"/>
-      <c r="AP22" s="277"/>
-      <c r="AQ22" s="272"/>
-      <c r="AR22" s="277"/>
-      <c r="AS22" s="272"/>
-      <c r="AT22" s="277"/>
-      <c r="AU22" s="272"/>
-      <c r="AV22" s="277"/>
-      <c r="AW22" s="272"/>
-      <c r="AX22" s="277"/>
-      <c r="AY22" s="272"/>
-      <c r="AZ22" s="277"/>
-      <c r="BA22" s="272"/>
-      <c r="BB22" s="277"/>
-      <c r="BC22" s="272"/>
-      <c r="BD22" s="277"/>
-    </row>
-    <row r="23" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J23">
+    </row>
+    <row r="25" spans="9:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S25" s="190"/>
+      <c r="T25" s="191"/>
+      <c r="U25" s="191"/>
+      <c r="V25" s="191"/>
+      <c r="W25" s="191"/>
+      <c r="X25" s="192"/>
+      <c r="Y25" s="296"/>
+      <c r="Z25" s="296"/>
+      <c r="AA25" s="190"/>
+      <c r="AB25" s="191"/>
+      <c r="AC25" s="191"/>
+      <c r="AD25" s="191"/>
+      <c r="AE25" s="191"/>
+      <c r="AF25" s="191"/>
+      <c r="AG25" s="298"/>
+      <c r="AH25" s="299"/>
+      <c r="AI25" s="299"/>
+      <c r="AJ25" s="299"/>
+      <c r="AK25" s="299"/>
+      <c r="AL25" s="299"/>
+      <c r="AM25" s="299"/>
+      <c r="AN25" s="299"/>
+      <c r="AO25" s="299"/>
+      <c r="AP25" s="300"/>
+      <c r="AQ25" s="298"/>
+      <c r="AR25" s="299"/>
+      <c r="AS25" s="299"/>
+      <c r="AT25" s="299"/>
+      <c r="AU25" s="299"/>
+      <c r="AV25" s="299"/>
+      <c r="AW25" s="299"/>
+      <c r="AX25" s="299"/>
+      <c r="AY25" s="299"/>
+      <c r="AZ25" s="300"/>
+      <c r="BA25" s="244"/>
+      <c r="BB25" s="245"/>
+      <c r="BC25" s="245"/>
+      <c r="BD25" s="245"/>
+      <c r="BE25" s="245"/>
+      <c r="BF25" s="245"/>
+      <c r="BG25" s="245"/>
+      <c r="BH25" s="245"/>
+      <c r="BI25" s="245"/>
+      <c r="BJ25" s="340"/>
+      <c r="BK25" s="307"/>
+      <c r="BL25" s="296"/>
+      <c r="BM25" s="296"/>
+      <c r="BN25" s="296"/>
+      <c r="BO25" s="296"/>
+      <c r="BP25" s="296"/>
+      <c r="BQ25" s="296"/>
+      <c r="BR25" s="296"/>
+      <c r="BS25" s="296"/>
+      <c r="BT25" s="296"/>
+      <c r="BU25" s="296"/>
+      <c r="BV25" s="296"/>
+      <c r="BW25" s="296"/>
+      <c r="BX25" s="296"/>
+      <c r="BY25" s="296"/>
+      <c r="BZ25" s="296"/>
+      <c r="CA25" s="296"/>
+      <c r="CB25" s="296"/>
+      <c r="CC25" s="296"/>
+      <c r="CD25" s="296"/>
+      <c r="CE25" s="296"/>
+      <c r="CF25" s="296"/>
+      <c r="CG25" s="296"/>
+      <c r="CH25" s="296"/>
+      <c r="CI25" s="308"/>
+      <c r="CJ25" s="153">
         <v>19</v>
       </c>
-      <c r="K23" s="277"/>
-      <c r="L23" s="272"/>
-      <c r="M23" s="277"/>
-      <c r="N23" s="272"/>
-      <c r="O23" s="277"/>
-      <c r="P23" s="272"/>
-      <c r="Q23" s="277"/>
-      <c r="R23" s="272"/>
-      <c r="S23" s="277"/>
-      <c r="T23" s="272"/>
-      <c r="U23" s="277"/>
-      <c r="V23" s="272"/>
-      <c r="W23" s="277"/>
-      <c r="X23" s="272"/>
-      <c r="Y23" s="277"/>
-      <c r="Z23" s="272"/>
-      <c r="AA23" s="277"/>
-      <c r="AB23" s="272"/>
-      <c r="AC23" s="277"/>
-      <c r="AD23" s="272"/>
-      <c r="AE23" s="277"/>
-      <c r="AF23" s="272"/>
-      <c r="AG23" s="277"/>
-      <c r="AH23" s="272"/>
-      <c r="AI23" s="277"/>
-      <c r="AJ23" s="272"/>
-      <c r="AK23" s="277"/>
-      <c r="AL23" s="272"/>
-      <c r="AM23" s="277"/>
-      <c r="AN23" s="272"/>
-      <c r="AO23" s="277"/>
-      <c r="AP23" s="272"/>
-      <c r="AQ23" s="277"/>
-      <c r="AR23" s="272"/>
-      <c r="AS23" s="277"/>
-      <c r="AT23" s="272"/>
-      <c r="AU23" s="277"/>
-      <c r="AV23" s="272"/>
-      <c r="AW23" s="277"/>
-      <c r="AX23" s="272"/>
-      <c r="AY23" s="277"/>
-      <c r="AZ23" s="272"/>
-      <c r="BA23" s="277"/>
-      <c r="BB23" s="272"/>
-      <c r="BC23" s="277"/>
-      <c r="BD23" s="272"/>
-    </row>
-    <row r="24" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J24">
+    </row>
+    <row r="26" spans="9:88" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S26" s="194"/>
+      <c r="T26" s="195"/>
+      <c r="U26" s="195"/>
+      <c r="V26" s="195"/>
+      <c r="W26" s="195"/>
+      <c r="X26" s="196"/>
+      <c r="Y26" s="342"/>
+      <c r="Z26" s="343"/>
+      <c r="AA26" s="194"/>
+      <c r="AB26" s="195"/>
+      <c r="AC26" s="195"/>
+      <c r="AD26" s="195"/>
+      <c r="AE26" s="195"/>
+      <c r="AF26" s="195"/>
+      <c r="AG26" s="298"/>
+      <c r="AH26" s="299"/>
+      <c r="AI26" s="299"/>
+      <c r="AJ26" s="299"/>
+      <c r="AK26" s="299" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL26" s="299"/>
+      <c r="AM26" s="299"/>
+      <c r="AN26" s="299"/>
+      <c r="AO26" s="299"/>
+      <c r="AP26" s="300"/>
+      <c r="AQ26" s="298"/>
+      <c r="AR26" s="299"/>
+      <c r="AS26" s="299"/>
+      <c r="AT26" s="299"/>
+      <c r="AU26" s="299" t="s">
+        <v>185</v>
+      </c>
+      <c r="AV26" s="299"/>
+      <c r="AW26" s="299"/>
+      <c r="AX26" s="299"/>
+      <c r="AY26" s="299"/>
+      <c r="AZ26" s="300"/>
+      <c r="BA26" s="244"/>
+      <c r="BB26" s="245"/>
+      <c r="BC26" s="245"/>
+      <c r="BD26" s="245"/>
+      <c r="BE26" s="245"/>
+      <c r="BF26" s="245"/>
+      <c r="BG26" s="245"/>
+      <c r="BH26" s="245"/>
+      <c r="BI26" s="245"/>
+      <c r="BJ26" s="340"/>
+      <c r="BK26" s="307"/>
+      <c r="BL26" s="296"/>
+      <c r="BM26" s="296"/>
+      <c r="BN26" s="296"/>
+      <c r="BO26" s="296"/>
+      <c r="BP26" s="296"/>
+      <c r="BQ26" s="296"/>
+      <c r="BR26" s="296"/>
+      <c r="BS26" s="296"/>
+      <c r="BT26" s="296"/>
+      <c r="BU26" s="296"/>
+      <c r="BV26" s="296"/>
+      <c r="BW26" s="296"/>
+      <c r="BX26" s="296"/>
+      <c r="BY26" s="296"/>
+      <c r="BZ26" s="296"/>
+      <c r="CA26" s="296"/>
+      <c r="CB26" s="296"/>
+      <c r="CC26" s="296"/>
+      <c r="CD26" s="296"/>
+      <c r="CE26" s="296"/>
+      <c r="CF26" s="296"/>
+      <c r="CG26" s="296"/>
+      <c r="CH26" s="296"/>
+      <c r="CI26" s="308"/>
+      <c r="CJ26" s="153">
         <v>20</v>
       </c>
-      <c r="K24" s="272"/>
-      <c r="L24" s="277"/>
-      <c r="M24" s="272"/>
-      <c r="N24" s="277"/>
-      <c r="O24" s="272"/>
-      <c r="P24" s="277"/>
-      <c r="Q24" s="272"/>
-      <c r="R24" s="277"/>
-      <c r="S24" s="272"/>
-      <c r="T24" s="277"/>
-      <c r="U24" s="272"/>
-      <c r="V24" s="277"/>
-      <c r="W24" s="272"/>
-      <c r="X24" s="277"/>
-      <c r="Y24" s="272"/>
-      <c r="Z24" s="277"/>
-      <c r="AA24" s="272"/>
-      <c r="AB24" s="277"/>
-      <c r="AC24" s="272"/>
-      <c r="AD24" s="277"/>
-      <c r="AE24" s="272"/>
-      <c r="AF24" s="277"/>
-      <c r="AG24" s="272"/>
-      <c r="AH24" s="277"/>
-      <c r="AI24" s="272"/>
-      <c r="AJ24" s="277"/>
-      <c r="AK24" s="272"/>
-      <c r="AL24" s="277"/>
-      <c r="AM24" s="272"/>
-      <c r="AN24" s="277"/>
-      <c r="AO24" s="272"/>
-      <c r="AP24" s="277"/>
-      <c r="AQ24" s="272"/>
-      <c r="AR24" s="277"/>
-      <c r="AS24" s="272"/>
-      <c r="AT24" s="277"/>
-      <c r="AU24" s="272"/>
-      <c r="AV24" s="277"/>
-      <c r="AW24" s="272"/>
-      <c r="AX24" s="277"/>
-      <c r="AY24" s="272"/>
-      <c r="AZ24" s="277"/>
-      <c r="BA24" s="272"/>
-      <c r="BB24" s="277"/>
-      <c r="BC24" s="272"/>
-      <c r="BD24" s="277"/>
-    </row>
-    <row r="25" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J25">
+    </row>
+    <row r="27" spans="9:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T27" s="157"/>
+      <c r="U27" s="157"/>
+      <c r="V27" s="157"/>
+      <c r="W27" s="157"/>
+      <c r="X27" s="157"/>
+      <c r="Y27" s="157"/>
+      <c r="Z27" s="157"/>
+      <c r="AG27" s="298"/>
+      <c r="AH27" s="299"/>
+      <c r="AI27" s="299"/>
+      <c r="AJ27" s="299"/>
+      <c r="AK27" s="299"/>
+      <c r="AL27" s="299"/>
+      <c r="AM27" s="299"/>
+      <c r="AN27" s="299"/>
+      <c r="AO27" s="299"/>
+      <c r="AP27" s="300"/>
+      <c r="AQ27" s="298"/>
+      <c r="AR27" s="299"/>
+      <c r="AS27" s="299"/>
+      <c r="AT27" s="299"/>
+      <c r="AU27" s="299"/>
+      <c r="AV27" s="299"/>
+      <c r="AW27" s="299"/>
+      <c r="AX27" s="299"/>
+      <c r="AY27" s="299"/>
+      <c r="AZ27" s="300"/>
+      <c r="BA27" s="244"/>
+      <c r="BB27" s="245"/>
+      <c r="BC27" s="245"/>
+      <c r="BD27" s="245"/>
+      <c r="BE27" s="245" t="s">
+        <v>187</v>
+      </c>
+      <c r="BF27" s="245"/>
+      <c r="BG27" s="245"/>
+      <c r="BH27" s="245"/>
+      <c r="BI27" s="245"/>
+      <c r="BJ27" s="340"/>
+      <c r="BK27" s="307"/>
+      <c r="BL27" s="296"/>
+      <c r="BM27" s="296"/>
+      <c r="BN27" s="296"/>
+      <c r="BO27" s="296"/>
+      <c r="BP27" s="296"/>
+      <c r="BQ27" s="296"/>
+      <c r="BR27" s="296"/>
+      <c r="BS27" s="296"/>
+      <c r="BT27" s="296"/>
+      <c r="BU27" s="296"/>
+      <c r="BV27" s="296"/>
+      <c r="BW27" s="296"/>
+      <c r="BX27" s="296"/>
+      <c r="BY27" s="296"/>
+      <c r="BZ27" s="296"/>
+      <c r="CA27" s="296"/>
+      <c r="CB27" s="296"/>
+      <c r="CC27" s="296"/>
+      <c r="CD27" s="296"/>
+      <c r="CE27" s="296"/>
+      <c r="CF27" s="296"/>
+      <c r="CG27" s="296"/>
+      <c r="CH27" s="296"/>
+      <c r="CI27" s="308"/>
+      <c r="CJ27" s="153">
         <v>21</v>
       </c>
-      <c r="K25" s="277"/>
-      <c r="L25" s="272"/>
-      <c r="M25" s="277"/>
-      <c r="N25" s="272"/>
-      <c r="O25" s="277"/>
-      <c r="P25" s="272"/>
-      <c r="Q25" s="277"/>
-      <c r="R25" s="272"/>
-      <c r="S25" s="277"/>
-      <c r="T25" s="272"/>
-      <c r="U25" s="277"/>
-      <c r="V25" s="272"/>
-      <c r="W25" s="277"/>
-      <c r="X25" s="272"/>
-      <c r="Y25" s="277"/>
-      <c r="Z25" s="272"/>
-      <c r="AA25" s="277"/>
-      <c r="AB25" s="272"/>
-      <c r="AC25" s="277"/>
-      <c r="AD25" s="272"/>
-      <c r="AE25" s="277"/>
-      <c r="AF25" s="272"/>
-      <c r="AG25" s="277"/>
-      <c r="AH25" s="272"/>
-      <c r="AI25" s="277"/>
-      <c r="AJ25" s="272"/>
-      <c r="AK25" s="277"/>
-      <c r="AL25" s="272"/>
-      <c r="AM25" s="277"/>
-      <c r="AN25" s="272"/>
-      <c r="AO25" s="277"/>
-      <c r="AP25" s="272"/>
-      <c r="AQ25" s="277"/>
-      <c r="AR25" s="272"/>
-      <c r="AS25" s="277"/>
-      <c r="AT25" s="272"/>
-      <c r="AU25" s="277"/>
-      <c r="AV25" s="272"/>
-      <c r="AW25" s="277"/>
-      <c r="AX25" s="272"/>
-      <c r="AY25" s="277"/>
-      <c r="AZ25" s="272"/>
-      <c r="BA25" s="277"/>
-      <c r="BB25" s="272"/>
-      <c r="BC25" s="277"/>
-      <c r="BD25" s="272"/>
-    </row>
-    <row r="26" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J26">
+    </row>
+    <row r="28" spans="9:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG28" s="298"/>
+      <c r="AH28" s="299"/>
+      <c r="AI28" s="299"/>
+      <c r="AJ28" s="299"/>
+      <c r="AK28" s="299"/>
+      <c r="AL28" s="299"/>
+      <c r="AM28" s="299"/>
+      <c r="AN28" s="299"/>
+      <c r="AO28" s="299"/>
+      <c r="AP28" s="300"/>
+      <c r="AQ28" s="298"/>
+      <c r="AR28" s="299"/>
+      <c r="AS28" s="299"/>
+      <c r="AT28" s="299"/>
+      <c r="AU28" s="299"/>
+      <c r="AV28" s="299"/>
+      <c r="AW28" s="299"/>
+      <c r="AX28" s="299"/>
+      <c r="AY28" s="299"/>
+      <c r="AZ28" s="300"/>
+      <c r="BA28" s="244"/>
+      <c r="BB28" s="245"/>
+      <c r="BC28" s="245"/>
+      <c r="BD28" s="245"/>
+      <c r="BE28" s="245"/>
+      <c r="BF28" s="245"/>
+      <c r="BG28" s="245"/>
+      <c r="BH28" s="245"/>
+      <c r="BI28" s="245"/>
+      <c r="BJ28" s="340"/>
+      <c r="BK28" s="307"/>
+      <c r="BL28" s="296"/>
+      <c r="BM28" s="296"/>
+      <c r="BN28" s="296"/>
+      <c r="BO28" s="296"/>
+      <c r="BP28" s="296"/>
+      <c r="BQ28" s="296"/>
+      <c r="BR28" s="296"/>
+      <c r="BS28" s="296"/>
+      <c r="BT28" s="296"/>
+      <c r="BU28" s="296"/>
+      <c r="BV28" s="296"/>
+      <c r="BW28" s="296"/>
+      <c r="BX28" s="296"/>
+      <c r="BY28" s="296"/>
+      <c r="BZ28" s="296"/>
+      <c r="CA28" s="296"/>
+      <c r="CB28" s="296"/>
+      <c r="CC28" s="296"/>
+      <c r="CD28" s="296"/>
+      <c r="CE28" s="296"/>
+      <c r="CF28" s="296"/>
+      <c r="CG28" s="296"/>
+      <c r="CH28" s="296"/>
+      <c r="CI28" s="308"/>
+      <c r="CJ28" s="153">
         <v>22</v>
       </c>
-      <c r="K26" s="272"/>
-      <c r="L26" s="277"/>
-      <c r="M26" s="272"/>
-      <c r="N26" s="277"/>
-      <c r="O26" s="272"/>
-      <c r="P26" s="277"/>
-      <c r="Q26" s="272"/>
-      <c r="R26" s="277"/>
-      <c r="S26" s="272"/>
-      <c r="T26" s="277"/>
-      <c r="U26" s="272"/>
-      <c r="V26" s="277"/>
-      <c r="W26" s="272"/>
-      <c r="X26" s="277"/>
-      <c r="Y26" s="272"/>
-      <c r="Z26" s="277"/>
-      <c r="AA26" s="272"/>
-      <c r="AB26" s="277"/>
-      <c r="AC26" s="272"/>
-      <c r="AD26" s="277"/>
-      <c r="AE26" s="272"/>
-      <c r="AF26" s="277"/>
-      <c r="AG26" s="272"/>
-      <c r="AH26" s="277"/>
-      <c r="AI26" s="272"/>
-      <c r="AJ26" s="277"/>
-      <c r="AK26" s="272"/>
-      <c r="AL26" s="277"/>
-      <c r="AM26" s="272"/>
-      <c r="AN26" s="277"/>
-      <c r="AO26" s="272"/>
-      <c r="AP26" s="277"/>
-      <c r="AQ26" s="272"/>
-      <c r="AR26" s="277"/>
-      <c r="AS26" s="272"/>
-      <c r="AT26" s="277"/>
-      <c r="AU26" s="272"/>
-      <c r="AV26" s="277"/>
-      <c r="AW26" s="272"/>
-      <c r="AX26" s="277"/>
-      <c r="AY26" s="272"/>
-      <c r="AZ26" s="277"/>
-      <c r="BA26" s="272"/>
-      <c r="BB26" s="277"/>
-      <c r="BC26" s="272"/>
-      <c r="BD26" s="277"/>
-    </row>
-    <row r="27" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J27">
+    </row>
+    <row r="29" spans="9:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG29" s="298"/>
+      <c r="AH29" s="299"/>
+      <c r="AI29" s="299"/>
+      <c r="AJ29" s="299"/>
+      <c r="AK29" s="299"/>
+      <c r="AL29" s="299"/>
+      <c r="AM29" s="299"/>
+      <c r="AN29" s="299"/>
+      <c r="AO29" s="299"/>
+      <c r="AP29" s="300"/>
+      <c r="AQ29" s="298"/>
+      <c r="AR29" s="299"/>
+      <c r="AS29" s="299"/>
+      <c r="AT29" s="299"/>
+      <c r="AU29" s="299"/>
+      <c r="AV29" s="299"/>
+      <c r="AW29" s="299"/>
+      <c r="AX29" s="299"/>
+      <c r="AY29" s="299"/>
+      <c r="AZ29" s="300"/>
+      <c r="BA29" s="244"/>
+      <c r="BB29" s="245"/>
+      <c r="BC29" s="245"/>
+      <c r="BD29" s="245"/>
+      <c r="BE29" s="245"/>
+      <c r="BF29" s="245"/>
+      <c r="BG29" s="245"/>
+      <c r="BH29" s="245"/>
+      <c r="BI29" s="245"/>
+      <c r="BJ29" s="340"/>
+      <c r="BK29" s="307"/>
+      <c r="BL29" s="296"/>
+      <c r="BM29" s="296"/>
+      <c r="BN29" s="296"/>
+      <c r="BO29" s="296"/>
+      <c r="BP29" s="296"/>
+      <c r="BQ29" s="296"/>
+      <c r="BR29" s="296"/>
+      <c r="BS29" s="296"/>
+      <c r="BT29" s="296"/>
+      <c r="BU29" s="296"/>
+      <c r="BV29" s="296"/>
+      <c r="BW29" s="296"/>
+      <c r="BX29" s="296"/>
+      <c r="BY29" s="296"/>
+      <c r="BZ29" s="296"/>
+      <c r="CA29" s="296"/>
+      <c r="CB29" s="296"/>
+      <c r="CC29" s="296"/>
+      <c r="CD29" s="296"/>
+      <c r="CE29" s="296"/>
+      <c r="CF29" s="296"/>
+      <c r="CG29" s="296"/>
+      <c r="CH29" s="296"/>
+      <c r="CI29" s="308"/>
+      <c r="CJ29" s="153">
         <v>23</v>
       </c>
-      <c r="K27" s="277"/>
-      <c r="L27" s="272"/>
-      <c r="M27" s="277"/>
-      <c r="N27" s="272"/>
-      <c r="O27" s="277"/>
-      <c r="P27" s="272"/>
-      <c r="Q27" s="277"/>
-      <c r="R27" s="272"/>
-      <c r="S27" s="277"/>
-      <c r="T27" s="272"/>
-      <c r="U27" s="277"/>
-      <c r="V27" s="272"/>
-      <c r="W27" s="277"/>
-      <c r="X27" s="272"/>
-      <c r="Y27" s="277"/>
-      <c r="Z27" s="272"/>
-      <c r="AA27" s="277"/>
-      <c r="AB27" s="272"/>
-      <c r="AC27" s="277"/>
-      <c r="AD27" s="272"/>
-      <c r="AE27" s="277"/>
-      <c r="AF27" s="272"/>
-      <c r="AG27" s="277"/>
-      <c r="AH27" s="272"/>
-      <c r="AI27" s="277"/>
-      <c r="AJ27" s="272"/>
-      <c r="AK27" s="277"/>
-      <c r="AL27" s="272"/>
-      <c r="AM27" s="277"/>
-      <c r="AN27" s="272"/>
-      <c r="AO27" s="277"/>
-      <c r="AP27" s="272"/>
-      <c r="AQ27" s="277"/>
-      <c r="AR27" s="272"/>
-      <c r="AS27" s="277"/>
-      <c r="AT27" s="272"/>
-      <c r="AU27" s="277"/>
-      <c r="AV27" s="272"/>
-      <c r="AW27" s="277"/>
-      <c r="AX27" s="272"/>
-      <c r="AY27" s="277"/>
-      <c r="AZ27" s="272"/>
-      <c r="BA27" s="277"/>
-      <c r="BB27" s="272"/>
-      <c r="BC27" s="277"/>
-      <c r="BD27" s="272"/>
-    </row>
-    <row r="28" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J28">
+    </row>
+    <row r="30" spans="9:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG30" s="298"/>
+      <c r="AH30" s="299"/>
+      <c r="AI30" s="299"/>
+      <c r="AJ30" s="299"/>
+      <c r="AK30" s="299"/>
+      <c r="AL30" s="299"/>
+      <c r="AM30" s="299"/>
+      <c r="AN30" s="299"/>
+      <c r="AO30" s="299"/>
+      <c r="AP30" s="300"/>
+      <c r="AQ30" s="298"/>
+      <c r="AR30" s="299"/>
+      <c r="AS30" s="299"/>
+      <c r="AT30" s="299"/>
+      <c r="AU30" s="299"/>
+      <c r="AV30" s="299"/>
+      <c r="AW30" s="299"/>
+      <c r="AX30" s="299"/>
+      <c r="AY30" s="299"/>
+      <c r="AZ30" s="300"/>
+      <c r="BA30" s="244"/>
+      <c r="BB30" s="245"/>
+      <c r="BC30" s="245"/>
+      <c r="BD30" s="245"/>
+      <c r="BE30" s="245"/>
+      <c r="BF30" s="245"/>
+      <c r="BG30" s="245"/>
+      <c r="BH30" s="245"/>
+      <c r="BI30" s="245"/>
+      <c r="BJ30" s="340"/>
+      <c r="BK30" s="307"/>
+      <c r="BL30" s="296"/>
+      <c r="BM30" s="296"/>
+      <c r="BN30" s="296"/>
+      <c r="BO30" s="296"/>
+      <c r="BP30" s="296"/>
+      <c r="BQ30" s="296"/>
+      <c r="BR30" s="296"/>
+      <c r="BS30" s="296"/>
+      <c r="BT30" s="296"/>
+      <c r="BU30" s="296"/>
+      <c r="BV30" s="296"/>
+      <c r="BW30" s="296"/>
+      <c r="BX30" s="296"/>
+      <c r="BY30" s="296"/>
+      <c r="BZ30" s="296"/>
+      <c r="CA30" s="296"/>
+      <c r="CB30" s="296"/>
+      <c r="CC30" s="296"/>
+      <c r="CD30" s="296"/>
+      <c r="CE30" s="296"/>
+      <c r="CF30" s="296"/>
+      <c r="CG30" s="296"/>
+      <c r="CH30" s="296"/>
+      <c r="CI30" s="308"/>
+      <c r="CJ30" s="153">
         <v>24</v>
       </c>
-      <c r="K28" s="272"/>
-      <c r="L28" s="277"/>
-      <c r="M28" s="272"/>
-      <c r="N28" s="277"/>
-      <c r="O28" s="272"/>
-      <c r="P28" s="277"/>
-      <c r="Q28" s="272"/>
-      <c r="R28" s="277"/>
-      <c r="S28" s="272"/>
-      <c r="T28" s="277"/>
-      <c r="U28" s="272"/>
-      <c r="V28" s="277"/>
-      <c r="W28" s="272"/>
-      <c r="X28" s="277"/>
-      <c r="Y28" s="272"/>
-      <c r="Z28" s="277"/>
-      <c r="AA28" s="272"/>
-      <c r="AB28" s="277"/>
-      <c r="AC28" s="272"/>
-      <c r="AD28" s="277"/>
-      <c r="AE28" s="272"/>
-      <c r="AF28" s="277"/>
-      <c r="AG28" s="272"/>
-      <c r="AH28" s="277"/>
-      <c r="AI28" s="272"/>
-      <c r="AJ28" s="277"/>
-      <c r="AK28" s="272"/>
-      <c r="AL28" s="277"/>
-      <c r="AM28" s="272"/>
-      <c r="AN28" s="277"/>
-      <c r="AO28" s="272"/>
-      <c r="AP28" s="277"/>
-      <c r="AQ28" s="272"/>
-      <c r="AR28" s="277"/>
-      <c r="AS28" s="272"/>
-      <c r="AT28" s="277"/>
-      <c r="AU28" s="272"/>
-      <c r="AV28" s="277"/>
-      <c r="AW28" s="272"/>
-      <c r="AX28" s="277"/>
-      <c r="AY28" s="272"/>
-      <c r="AZ28" s="277"/>
-      <c r="BA28" s="272"/>
-      <c r="BB28" s="277"/>
-      <c r="BC28" s="272"/>
-      <c r="BD28" s="277"/>
-    </row>
-    <row r="29" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J29">
+    </row>
+    <row r="31" spans="9:88" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG31" s="317"/>
+      <c r="AH31" s="318"/>
+      <c r="AI31" s="318"/>
+      <c r="AJ31" s="318"/>
+      <c r="AK31" s="318"/>
+      <c r="AL31" s="318"/>
+      <c r="AM31" s="318"/>
+      <c r="AN31" s="318"/>
+      <c r="AO31" s="318"/>
+      <c r="AP31" s="320"/>
+      <c r="AQ31" s="317"/>
+      <c r="AR31" s="318"/>
+      <c r="AS31" s="318"/>
+      <c r="AT31" s="318"/>
+      <c r="AU31" s="318"/>
+      <c r="AV31" s="318"/>
+      <c r="AW31" s="318"/>
+      <c r="AX31" s="318"/>
+      <c r="AY31" s="318"/>
+      <c r="AZ31" s="320"/>
+      <c r="BA31" s="247"/>
+      <c r="BB31" s="248"/>
+      <c r="BC31" s="248"/>
+      <c r="BD31" s="248"/>
+      <c r="BE31" s="248"/>
+      <c r="BF31" s="248"/>
+      <c r="BG31" s="248"/>
+      <c r="BH31" s="248"/>
+      <c r="BI31" s="248"/>
+      <c r="BJ31" s="341"/>
+      <c r="BK31" s="342"/>
+      <c r="BL31" s="337"/>
+      <c r="BM31" s="337"/>
+      <c r="BN31" s="337"/>
+      <c r="BO31" s="337"/>
+      <c r="BP31" s="337"/>
+      <c r="BQ31" s="337"/>
+      <c r="BR31" s="337"/>
+      <c r="BS31" s="337"/>
+      <c r="BT31" s="337"/>
+      <c r="BU31" s="337"/>
+      <c r="BV31" s="337"/>
+      <c r="BW31" s="337"/>
+      <c r="BX31" s="337"/>
+      <c r="BY31" s="337"/>
+      <c r="BZ31" s="337"/>
+      <c r="CA31" s="337"/>
+      <c r="CB31" s="337"/>
+      <c r="CC31" s="337"/>
+      <c r="CD31" s="337"/>
+      <c r="CE31" s="337"/>
+      <c r="CF31" s="337"/>
+      <c r="CG31" s="337"/>
+      <c r="CH31" s="337"/>
+      <c r="CI31" s="343"/>
+      <c r="CJ31" s="153">
         <v>25</v>
       </c>
-      <c r="K29" s="277"/>
-      <c r="L29" s="272"/>
-      <c r="M29" s="277"/>
-      <c r="N29" s="272"/>
-      <c r="O29" s="277"/>
-      <c r="P29" s="272"/>
-      <c r="Q29" s="277"/>
-      <c r="R29" s="272"/>
-      <c r="S29" s="277"/>
-      <c r="T29" s="272"/>
-      <c r="U29" s="277"/>
-      <c r="V29" s="272"/>
-      <c r="W29" s="277"/>
-      <c r="X29" s="272"/>
-      <c r="Y29" s="277"/>
-      <c r="Z29" s="272"/>
-      <c r="AA29" s="277"/>
-      <c r="AB29" s="272"/>
-      <c r="AC29" s="277"/>
-      <c r="AD29" s="272"/>
-      <c r="AE29" s="277"/>
-      <c r="AF29" s="272"/>
-      <c r="AG29" s="277"/>
-      <c r="AH29" s="272"/>
-      <c r="AI29" s="277"/>
-      <c r="AJ29" s="272"/>
-      <c r="AK29" s="277"/>
-      <c r="AL29" s="272"/>
-      <c r="AM29" s="277"/>
-      <c r="AN29" s="272"/>
-      <c r="AO29" s="277"/>
-      <c r="AP29" s="272"/>
-      <c r="AQ29" s="277"/>
-      <c r="AR29" s="272"/>
-      <c r="AS29" s="277"/>
-      <c r="AT29" s="272"/>
-      <c r="AU29" s="277"/>
-      <c r="AV29" s="272"/>
-      <c r="AW29" s="277"/>
-      <c r="AX29" s="272"/>
-      <c r="AY29" s="277"/>
-      <c r="AZ29" s="272"/>
-      <c r="BA29" s="277"/>
-      <c r="BB29" s="272"/>
-      <c r="BC29" s="277"/>
-      <c r="BD29" s="272"/>
-    </row>
-    <row r="30" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J30">
-        <v>26</v>
-      </c>
-      <c r="K30" s="272"/>
-      <c r="L30" s="277"/>
-      <c r="M30" s="272"/>
-      <c r="N30" s="277"/>
-      <c r="O30" s="272"/>
-      <c r="P30" s="277"/>
-      <c r="Q30" s="272"/>
-      <c r="R30" s="277"/>
-      <c r="S30" s="272"/>
-      <c r="T30" s="277"/>
-      <c r="U30" s="272"/>
-      <c r="V30" s="277"/>
-      <c r="W30" s="272"/>
-      <c r="X30" s="277"/>
-      <c r="Y30" s="272"/>
-      <c r="Z30" s="277"/>
-      <c r="AA30" s="272"/>
-      <c r="AB30" s="277"/>
-      <c r="AC30" s="272"/>
-      <c r="AD30" s="277"/>
-      <c r="AE30" s="272"/>
-      <c r="AF30" s="277"/>
-      <c r="AG30" s="272"/>
-      <c r="AH30" s="277"/>
-      <c r="AI30" s="272"/>
-      <c r="AJ30" s="277"/>
-      <c r="AK30" s="272"/>
-      <c r="AL30" s="277"/>
-      <c r="AM30" s="272"/>
-      <c r="AN30" s="277"/>
-      <c r="AO30" s="272"/>
-      <c r="AP30" s="277"/>
-      <c r="AQ30" s="272"/>
-      <c r="AR30" s="277"/>
-      <c r="AS30" s="272"/>
-      <c r="AT30" s="277"/>
-      <c r="AU30" s="272"/>
-      <c r="AV30" s="277"/>
-      <c r="AW30" s="272"/>
-      <c r="AX30" s="277"/>
-      <c r="AY30" s="272"/>
-      <c r="AZ30" s="277"/>
-      <c r="BA30" s="272"/>
-      <c r="BB30" s="277"/>
-      <c r="BC30" s="272"/>
-      <c r="BD30" s="277"/>
-    </row>
-    <row r="31" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="32" spans="9:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK32" s="157"/>
+      <c r="BL32" s="157"/>
+      <c r="BM32" s="157"/>
+      <c r="BN32" s="157"/>
+      <c r="BO32" s="157"/>
+      <c r="BP32" s="157"/>
+      <c r="BQ32" s="157"/>
+      <c r="BR32" s="157"/>
+      <c r="BS32" s="157"/>
+      <c r="BT32" s="157"/>
+      <c r="BU32" s="157"/>
+      <c r="BV32" s="157"/>
+      <c r="BW32" s="157"/>
+      <c r="BX32" s="157"/>
+      <c r="BY32" s="157"/>
+      <c r="BZ32" s="157"/>
+      <c r="CA32" s="157"/>
+      <c r="CB32" s="157"/>
+      <c r="CC32" s="157"/>
+      <c r="CD32" s="157"/>
+      <c r="CE32" s="157"/>
+      <c r="CF32" s="157"/>
+      <c r="CG32" s="157"/>
+      <c r="CH32" s="157"/>
+      <c r="CI32" s="157"/>
+    </row>
+    <row r="33" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q35"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="278"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E9" s="279" t="s">
-        <v>120</v>
-      </c>
-      <c r="F9" s="279" t="s">
-        <v>136</v>
-      </c>
-      <c r="G9" s="279" t="s">
-        <v>137</v>
-      </c>
-      <c r="H9" s="279" t="s">
-        <v>138</v>
-      </c>
-      <c r="M9" s="279"/>
-      <c r="N9" s="279" t="s">
-        <v>152</v>
-      </c>
-      <c r="O9" s="279"/>
-      <c r="P9" s="279"/>
-      <c r="Q9" s="279"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E10" s="280" t="s">
-        <v>121</v>
-      </c>
-      <c r="F10" s="279" t="s">
-        <v>121</v>
-      </c>
-      <c r="G10" s="279" t="s">
-        <v>125</v>
-      </c>
-      <c r="H10" s="279"/>
-      <c r="M10" s="279"/>
-      <c r="N10" s="279" t="s">
-        <v>153</v>
-      </c>
-      <c r="O10" s="279" t="s">
-        <v>154</v>
-      </c>
-      <c r="P10" s="279" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q10" s="279" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E11" s="280" t="s">
-        <v>122</v>
-      </c>
-      <c r="F11" s="279"/>
-      <c r="G11" s="279"/>
-      <c r="H11" s="279"/>
-      <c r="M11" s="279" t="s">
-        <v>157</v>
-      </c>
-      <c r="N11" s="280">
-        <v>1</v>
-      </c>
-      <c r="O11" s="280">
-        <v>5</v>
-      </c>
-      <c r="P11" s="280">
-        <v>9</v>
-      </c>
-      <c r="Q11" s="280">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E12" s="280" t="s">
-        <v>123</v>
-      </c>
-      <c r="F12" s="279"/>
-      <c r="G12" s="279"/>
-      <c r="H12" s="279"/>
-      <c r="M12" s="279" t="s">
-        <v>158</v>
-      </c>
-      <c r="N12" s="280">
-        <v>2</v>
-      </c>
-      <c r="O12" s="280">
-        <v>6</v>
-      </c>
-      <c r="P12" s="280">
-        <v>10</v>
-      </c>
-      <c r="Q12" s="280">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E13" s="280" t="s">
-        <v>124</v>
-      </c>
-      <c r="F13" s="279"/>
-      <c r="G13" s="279"/>
-      <c r="H13" s="279"/>
-      <c r="M13" s="279" t="s">
-        <v>159</v>
-      </c>
-      <c r="N13" s="280">
-        <v>3</v>
-      </c>
-      <c r="O13" s="280">
-        <v>7</v>
-      </c>
-      <c r="P13" s="280">
-        <v>11</v>
-      </c>
-      <c r="Q13" s="280">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E14" s="280" t="s">
-        <v>125</v>
-      </c>
-      <c r="F14" s="279"/>
-      <c r="G14" s="279"/>
-      <c r="H14" s="279"/>
-      <c r="M14" s="279" t="s">
-        <v>160</v>
-      </c>
-      <c r="N14" s="280">
-        <v>4</v>
-      </c>
-      <c r="O14" s="280">
-        <v>8</v>
-      </c>
-      <c r="P14" s="280">
-        <v>12</v>
-      </c>
-      <c r="Q14" s="280">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E15" s="279"/>
-      <c r="F15" s="279"/>
-      <c r="G15" s="279"/>
-      <c r="H15" s="279"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E16" s="280" t="s">
-        <v>126</v>
-      </c>
-      <c r="F16" s="279"/>
-      <c r="G16" s="279"/>
-      <c r="H16" s="279"/>
-    </row>
-    <row r="17" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E17" s="280" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17" s="279"/>
-      <c r="G17" s="279"/>
-      <c r="H17" s="279"/>
-      <c r="L17" s="279"/>
-      <c r="M17" s="279"/>
-      <c r="N17" s="279"/>
-      <c r="O17" s="279"/>
-    </row>
-    <row r="18" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E18" s="280" t="s">
-        <v>128</v>
-      </c>
-      <c r="F18" s="279"/>
-      <c r="G18" s="279"/>
-      <c r="H18" s="279"/>
-      <c r="L18" s="279" t="s">
-        <v>168</v>
-      </c>
-      <c r="M18" s="280">
-        <v>2</v>
-      </c>
-      <c r="N18" s="281" t="s">
-        <v>153</v>
-      </c>
-      <c r="O18" s="281" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="19" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E19" s="280" t="s">
-        <v>129</v>
-      </c>
-      <c r="F19" s="279"/>
-      <c r="G19" s="279"/>
-      <c r="H19" s="279"/>
-      <c r="L19" s="279" t="s">
-        <v>169</v>
-      </c>
-      <c r="M19" s="280">
-        <v>13</v>
-      </c>
-      <c r="N19" s="281" t="s">
-        <v>156</v>
-      </c>
-      <c r="O19" s="281" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="20" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E20" s="280" t="s">
-        <v>130</v>
-      </c>
-      <c r="F20" s="279"/>
-      <c r="G20" s="279"/>
-      <c r="H20" s="279"/>
-      <c r="L20" s="279" t="s">
-        <v>170</v>
-      </c>
-      <c r="M20" s="280">
-        <v>10</v>
-      </c>
-      <c r="N20" s="281" t="s">
-        <v>155</v>
-      </c>
-      <c r="O20" s="281" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="21" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E21" s="280" t="s">
-        <v>131</v>
-      </c>
-      <c r="F21" s="279"/>
-      <c r="G21" s="279"/>
-      <c r="H21" s="279"/>
-      <c r="L21" s="279" t="s">
-        <v>171</v>
-      </c>
-      <c r="M21" s="280">
-        <v>11</v>
-      </c>
-      <c r="N21" s="281" t="s">
-        <v>155</v>
-      </c>
-      <c r="O21" s="281" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="22" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E22" s="280" t="s">
-        <v>132</v>
-      </c>
-      <c r="F22" s="279" t="s">
-        <v>139</v>
-      </c>
-      <c r="G22" s="279" t="s">
-        <v>140</v>
-      </c>
-      <c r="H22" s="279"/>
-      <c r="L22" s="279" t="s">
-        <v>172</v>
-      </c>
-      <c r="M22" s="280">
-        <v>3</v>
-      </c>
-      <c r="N22" s="281" t="s">
-        <v>153</v>
-      </c>
-      <c r="O22" s="281" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="23" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E23" s="280" t="s">
-        <v>133</v>
-      </c>
-      <c r="F23" s="279"/>
-      <c r="G23" s="279"/>
-      <c r="H23" s="279"/>
-      <c r="L23" s="279" t="s">
-        <v>173</v>
-      </c>
-      <c r="M23" s="280">
-        <v>12</v>
-      </c>
-      <c r="N23" s="281" t="s">
-        <v>155</v>
-      </c>
-      <c r="O23" s="281" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="24" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E24" s="280" t="s">
-        <v>134</v>
-      </c>
-      <c r="F24" s="279"/>
-      <c r="G24" s="279"/>
-      <c r="H24" s="279"/>
-      <c r="L24" s="279" t="s">
-        <v>174</v>
-      </c>
-      <c r="M24" s="280">
-        <v>6</v>
-      </c>
-      <c r="N24" s="281" t="s">
-        <v>154</v>
-      </c>
-      <c r="O24" s="281" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="25" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E25" s="280" t="s">
-        <v>135</v>
-      </c>
-      <c r="F25" s="279"/>
-      <c r="G25" s="279"/>
-      <c r="H25" s="279"/>
-      <c r="L25" s="279" t="s">
-        <v>175</v>
-      </c>
-      <c r="M25" s="280">
-        <v>9</v>
-      </c>
-      <c r="N25" s="281" t="s">
-        <v>155</v>
-      </c>
-      <c r="O25" s="281" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="26" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E26" s="280" t="s">
-        <v>142</v>
-      </c>
-      <c r="F26" s="279" t="s">
-        <v>141</v>
-      </c>
-      <c r="G26" s="279" t="s">
-        <v>125</v>
-      </c>
-      <c r="H26" s="279"/>
-      <c r="L26" s="279" t="s">
-        <v>176</v>
-      </c>
-      <c r="M26" s="280">
-        <v>15</v>
-      </c>
-      <c r="N26" s="281" t="s">
-        <v>156</v>
-      </c>
-      <c r="O26" s="281" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="27" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E27" s="280" t="s">
-        <v>143</v>
-      </c>
-      <c r="F27" s="279"/>
-      <c r="G27" s="279"/>
-      <c r="H27" s="279"/>
-      <c r="L27" s="279" t="s">
-        <v>162</v>
-      </c>
-      <c r="M27" s="280">
-        <v>16</v>
-      </c>
-      <c r="N27" s="281" t="s">
-        <v>156</v>
-      </c>
-      <c r="O27" s="281" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="28" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E28" s="280" t="s">
-        <v>144</v>
-      </c>
-      <c r="F28" s="279"/>
-      <c r="G28" s="279"/>
-      <c r="H28" s="279"/>
-      <c r="L28" s="279" t="s">
-        <v>163</v>
-      </c>
-      <c r="M28" s="280">
-        <v>7</v>
-      </c>
-      <c r="N28" s="281" t="s">
-        <v>154</v>
-      </c>
-      <c r="O28" s="281" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="29" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E29" s="280" t="s">
-        <v>146</v>
-      </c>
-      <c r="F29" s="279" t="s">
-        <v>145</v>
-      </c>
-      <c r="G29" s="279" t="s">
-        <v>147</v>
-      </c>
-      <c r="H29" s="279" t="s">
-        <v>148</v>
-      </c>
-      <c r="L29" s="279" t="s">
-        <v>164</v>
-      </c>
-      <c r="M29" s="280">
-        <v>4</v>
-      </c>
-      <c r="N29" s="281" t="s">
-        <v>153</v>
-      </c>
-      <c r="O29" s="281" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="30" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E30" s="280" t="s">
-        <v>149</v>
-      </c>
-      <c r="F30" s="279" t="s">
-        <v>150</v>
-      </c>
-      <c r="G30" s="279" t="s">
-        <v>151</v>
-      </c>
-      <c r="H30" s="279"/>
-      <c r="L30" s="279" t="s">
-        <v>165</v>
-      </c>
-      <c r="M30" s="280">
-        <v>8</v>
-      </c>
-      <c r="N30" s="281" t="s">
-        <v>154</v>
-      </c>
-      <c r="O30" s="281" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="31" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E31" s="282" t="s">
-        <v>177</v>
-      </c>
-      <c r="L31" s="279" t="s">
-        <v>161</v>
-      </c>
-      <c r="M31" s="280">
-        <v>5</v>
-      </c>
-      <c r="N31" s="281" t="s">
-        <v>154</v>
-      </c>
-      <c r="O31" s="281" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="32" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E32" s="282" t="s">
-        <v>178</v>
-      </c>
-      <c r="L32" s="279" t="s">
-        <v>166</v>
-      </c>
-      <c r="M32" s="280">
-        <v>1</v>
-      </c>
-      <c r="N32" s="281" t="s">
-        <v>153</v>
-      </c>
-      <c r="O32" s="281" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="33" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E33" s="282" t="s">
-        <v>179</v>
-      </c>
-      <c r="F33" t="s">
-        <v>180</v>
-      </c>
-      <c r="L33" s="279" t="s">
-        <v>167</v>
-      </c>
-      <c r="M33" s="280">
-        <v>14</v>
-      </c>
-      <c r="N33" s="281" t="s">
-        <v>156</v>
-      </c>
-      <c r="O33" s="281" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="35" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E35" t="s">
-        <v>152</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="L17:O33">
-    <sortState ref="L18:O33">
-      <sortCondition ref="L17:L33"/>
-    </sortState>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Assets/Level blueprint.xlsx
+++ b/Assets/Level blueprint.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\Documents\GitHub\Horror_FPS\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD8905E-D952-49E3-80FB-45F987F6F5EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B16B29-D694-40F2-93D5-EC34AF549B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Level 1" sheetId="1" r:id="rId1"/>
@@ -654,7 +654,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -763,8 +763,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="130">
+  <borders count="131">
     <border>
       <left/>
       <right/>
@@ -2457,11 +2481,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="345">
+  <cellXfs count="348">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3276,8 +3315,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="111" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="111" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3285,6 +3322,204 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="128" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="117" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="129" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="116" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="116" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="117" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="130" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="130" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="130" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="130" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3297,190 +3532,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="117" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="129" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="116" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="116" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="117" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="130" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3491,6 +3543,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000CC"/>
+      <color rgb="FF000099"/>
+      <color rgb="FF3399FF"/>
+      <color rgb="FF66CCFF"/>
+      <color rgb="FF6286EC"/>
       <color rgb="FF99FF99"/>
     </mruColors>
   </colors>
@@ -4292,18 +4349,18 @@
       <c r="BI8" s="1">
         <v>6</v>
       </c>
-      <c r="BT8" s="280" t="s">
+      <c r="BT8" s="344" t="s">
         <v>0</v>
       </c>
-      <c r="BU8" s="281"/>
-      <c r="BV8" s="281"/>
-      <c r="BW8" s="281"/>
-      <c r="BX8" s="281"/>
-      <c r="BY8" s="281"/>
-      <c r="BZ8" s="281"/>
-      <c r="CA8" s="281"/>
-      <c r="CB8" s="281"/>
-      <c r="CC8" s="282"/>
+      <c r="BU8" s="345"/>
+      <c r="BV8" s="345"/>
+      <c r="BW8" s="345"/>
+      <c r="BX8" s="345"/>
+      <c r="BY8" s="345"/>
+      <c r="BZ8" s="345"/>
+      <c r="CA8" s="345"/>
+      <c r="CB8" s="345"/>
+      <c r="CC8" s="346"/>
     </row>
     <row r="9" spans="7:82" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I9" s="18"/>
@@ -4621,10 +4678,10 @@
         <v>11</v>
       </c>
       <c r="BT13" s="136"/>
-      <c r="BX13" s="279" t="s">
+      <c r="BX13" s="343" t="s">
         <v>64</v>
       </c>
-      <c r="BY13" s="279"/>
+      <c r="BY13" s="343"/>
       <c r="BZ13" s="133"/>
       <c r="CA13" s="133"/>
       <c r="CB13" s="133"/>
@@ -4690,8 +4747,8 @@
       <c r="BT14" s="136"/>
       <c r="BU14" s="131"/>
       <c r="BV14" s="131"/>
-      <c r="BX14" s="279"/>
-      <c r="BY14" s="279"/>
+      <c r="BX14" s="343"/>
+      <c r="BY14" s="343"/>
       <c r="BZ14" s="133"/>
       <c r="CA14" s="133"/>
       <c r="CB14" s="133"/>
@@ -4755,13 +4812,13 @@
         <v>13</v>
       </c>
       <c r="BT15" s="136"/>
-      <c r="BX15" s="279" t="s">
+      <c r="BX15" s="343" t="s">
         <v>65</v>
       </c>
-      <c r="BY15" s="279"/>
-      <c r="BZ15" s="279"/>
-      <c r="CA15" s="279"/>
-      <c r="CB15" s="279"/>
+      <c r="BY15" s="343"/>
+      <c r="BZ15" s="343"/>
+      <c r="CA15" s="343"/>
+      <c r="CB15" s="343"/>
       <c r="CC15" s="151"/>
       <c r="CD15" s="149"/>
     </row>
@@ -4824,11 +4881,11 @@
       <c r="BT16" s="136"/>
       <c r="BU16" s="132"/>
       <c r="BV16" s="132"/>
-      <c r="BX16" s="279"/>
-      <c r="BY16" s="279"/>
-      <c r="BZ16" s="279"/>
-      <c r="CA16" s="279"/>
-      <c r="CB16" s="279"/>
+      <c r="BX16" s="343"/>
+      <c r="BY16" s="343"/>
+      <c r="BZ16" s="343"/>
+      <c r="CA16" s="343"/>
+      <c r="CB16" s="343"/>
       <c r="CC16" s="151"/>
       <c r="CD16" s="149"/>
     </row>
@@ -4893,12 +4950,12 @@
         <v>15</v>
       </c>
       <c r="BT17" s="136"/>
-      <c r="BX17" s="279" t="s">
+      <c r="BX17" s="343" t="s">
         <v>66</v>
       </c>
-      <c r="BY17" s="279"/>
-      <c r="BZ17" s="279"/>
-      <c r="CA17" s="279"/>
+      <c r="BY17" s="343"/>
+      <c r="BZ17" s="343"/>
+      <c r="CA17" s="343"/>
       <c r="CC17" s="137"/>
     </row>
     <row r="18" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4964,10 +5021,10 @@
       <c r="BT18" s="136"/>
       <c r="BU18" s="134"/>
       <c r="BV18" s="134"/>
-      <c r="BX18" s="279"/>
-      <c r="BY18" s="279"/>
-      <c r="BZ18" s="279"/>
-      <c r="CA18" s="279"/>
+      <c r="BX18" s="343"/>
+      <c r="BY18" s="343"/>
+      <c r="BZ18" s="343"/>
+      <c r="CA18" s="343"/>
       <c r="CC18" s="137"/>
     </row>
     <row r="19" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5157,10 +5214,10 @@
       <c r="BT21" s="136"/>
       <c r="BU21" s="140"/>
       <c r="BV21" s="141"/>
-      <c r="BX21" s="279" t="s">
+      <c r="BX21" s="343" t="s">
         <v>68</v>
       </c>
-      <c r="BY21" s="279"/>
+      <c r="BY21" s="343"/>
       <c r="CC21" s="137"/>
     </row>
     <row r="22" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5222,8 +5279,8 @@
       <c r="BT22" s="136"/>
       <c r="BU22" s="138"/>
       <c r="BV22" s="139"/>
-      <c r="BX22" s="279"/>
-      <c r="BY22" s="279"/>
+      <c r="BX22" s="343"/>
+      <c r="BY22" s="343"/>
       <c r="CC22" s="137"/>
     </row>
     <row r="23" spans="9:81" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6391,1639 +6448,2808 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="J1:BD183"/>
+  <dimension ref="I1:CJ689"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AE3" sqref="AE3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="78" width="3.28515625" customWidth="1"/>
+    <col min="1" max="91" width="4.28515625" style="153" customWidth="1"/>
+    <col min="92" max="16384" width="11.42578125" style="153"/>
   </cols>
   <sheetData>
-    <row r="1" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K4">
+    <row r="1" spans="10:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="10:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="10:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="10:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="10:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="10:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O6" s="153">
         <v>1</v>
       </c>
-      <c r="L4">
+      <c r="P6" s="153">
         <v>2</v>
       </c>
-      <c r="M4">
+      <c r="Q6" s="153">
         <v>3</v>
       </c>
-      <c r="N4">
+      <c r="R6" s="153">
         <v>4</v>
       </c>
-      <c r="O4">
+      <c r="S6" s="153">
         <v>5</v>
       </c>
-      <c r="P4">
+      <c r="T6" s="155">
         <v>6</v>
       </c>
-      <c r="Q4">
+      <c r="U6" s="155">
         <v>7</v>
       </c>
-      <c r="R4">
+      <c r="V6" s="155">
         <v>8</v>
       </c>
-      <c r="S4">
+      <c r="W6" s="155">
         <v>9</v>
       </c>
-      <c r="T4">
+      <c r="X6" s="155">
         <v>10</v>
       </c>
-      <c r="U4">
+      <c r="Y6" s="155">
         <v>11</v>
       </c>
-      <c r="V4">
+      <c r="Z6" s="155">
         <v>12</v>
       </c>
-      <c r="W4">
+      <c r="AA6" s="155">
         <v>13</v>
       </c>
-      <c r="X4">
+      <c r="AB6" s="155">
         <v>14</v>
       </c>
-      <c r="Y4">
+      <c r="AC6" s="155">
         <v>15</v>
       </c>
-      <c r="Z4">
+      <c r="AD6" s="155">
         <v>16</v>
       </c>
-      <c r="AA4">
+      <c r="AE6" s="155">
         <v>17</v>
       </c>
-      <c r="AB4">
+      <c r="AF6" s="155">
         <v>18</v>
       </c>
-      <c r="AC4">
+      <c r="AG6" s="155">
         <v>19</v>
       </c>
-      <c r="AD4">
+      <c r="AH6" s="155">
         <v>20</v>
       </c>
-      <c r="AE4">
+      <c r="AI6" s="155">
         <v>21</v>
       </c>
-      <c r="AF4">
+      <c r="AJ6" s="155">
         <v>22</v>
       </c>
-      <c r="AG4">
+      <c r="AK6" s="155">
         <v>23</v>
       </c>
-      <c r="AH4">
+      <c r="AL6" s="155">
         <v>24</v>
       </c>
-      <c r="AI4">
+      <c r="AM6" s="155">
         <v>25</v>
       </c>
-      <c r="AJ4">
+      <c r="AN6" s="155">
         <v>26</v>
       </c>
-      <c r="AK4">
+      <c r="AO6" s="155">
         <v>27</v>
       </c>
-      <c r="AL4">
+      <c r="AP6" s="155">
         <v>28</v>
       </c>
-      <c r="AM4">
+      <c r="AQ6" s="155">
         <v>29</v>
       </c>
-      <c r="AN4">
+      <c r="AR6" s="155">
         <v>30</v>
       </c>
-      <c r="AO4">
+      <c r="AS6" s="155">
         <v>31</v>
       </c>
-      <c r="AP4">
+      <c r="AT6" s="155">
         <v>32</v>
       </c>
-      <c r="AQ4">
+      <c r="AU6" s="155">
         <v>33</v>
       </c>
-      <c r="AR4">
+      <c r="AV6" s="155">
         <v>34</v>
       </c>
-      <c r="AS4">
+      <c r="AW6" s="155">
         <v>35</v>
       </c>
-      <c r="AT4">
+      <c r="AX6" s="155">
         <v>36</v>
       </c>
-      <c r="AU4">
+      <c r="AY6" s="155">
         <v>37</v>
       </c>
-      <c r="AV4">
+      <c r="AZ6" s="155">
         <v>38</v>
       </c>
-      <c r="AW4">
+      <c r="BA6" s="155">
         <v>39</v>
       </c>
-      <c r="AX4">
+      <c r="BB6" s="155">
         <v>40</v>
       </c>
-      <c r="AY4">
+      <c r="BC6" s="155">
         <v>41</v>
       </c>
-      <c r="AZ4">
+      <c r="BD6" s="155">
         <v>42</v>
       </c>
-      <c r="BA4">
+      <c r="BE6" s="155">
         <v>43</v>
       </c>
-      <c r="BB4">
+      <c r="BF6" s="155">
         <v>44</v>
       </c>
-      <c r="BC4">
+      <c r="BG6" s="155">
         <v>45</v>
       </c>
-      <c r="BD4">
+      <c r="BH6" s="155">
         <v>46</v>
       </c>
+      <c r="BI6" s="155">
+        <v>47</v>
+      </c>
+      <c r="BJ6" s="155">
+        <v>48</v>
+      </c>
+      <c r="BK6" s="155">
+        <v>49</v>
+      </c>
+      <c r="BL6" s="155">
+        <v>50</v>
+      </c>
+      <c r="BM6" s="155">
+        <v>51</v>
+      </c>
+      <c r="BN6" s="155">
+        <v>52</v>
+      </c>
+      <c r="BO6" s="155">
+        <v>53</v>
+      </c>
+      <c r="BP6" s="155">
+        <v>54</v>
+      </c>
+      <c r="BQ6" s="155">
+        <v>55</v>
+      </c>
+      <c r="BR6" s="155">
+        <v>56</v>
+      </c>
+      <c r="BS6" s="155">
+        <v>57</v>
+      </c>
+      <c r="BT6" s="155">
+        <v>58</v>
+      </c>
+      <c r="BU6" s="155">
+        <v>59</v>
+      </c>
+      <c r="BV6" s="155">
+        <v>60</v>
+      </c>
+      <c r="BW6" s="155">
+        <v>61</v>
+      </c>
+      <c r="BX6" s="155">
+        <v>62</v>
+      </c>
+      <c r="BY6" s="155">
+        <v>63</v>
+      </c>
+      <c r="BZ6" s="155">
+        <v>64</v>
+      </c>
+      <c r="CA6" s="155">
+        <v>65</v>
+      </c>
+      <c r="CB6" s="155">
+        <v>66</v>
+      </c>
+      <c r="CC6" s="155">
+        <v>67</v>
+      </c>
+      <c r="CD6" s="155">
+        <v>68</v>
+      </c>
+      <c r="CE6" s="155">
+        <v>69</v>
+      </c>
+      <c r="CF6" s="155">
+        <v>70</v>
+      </c>
+      <c r="CG6" s="155">
+        <v>71</v>
+      </c>
+      <c r="CH6" s="155">
+        <v>72</v>
+      </c>
+      <c r="CI6" s="155">
+        <v>73</v>
+      </c>
     </row>
-    <row r="5" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J5">
+    <row r="7" spans="10:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S7" s="154"/>
+      <c r="T7" s="339"/>
+      <c r="U7" s="339"/>
+      <c r="V7" s="339"/>
+      <c r="W7" s="339"/>
+      <c r="X7" s="339"/>
+      <c r="Y7" s="339"/>
+      <c r="Z7" s="339"/>
+      <c r="AA7" s="339"/>
+      <c r="AB7" s="339"/>
+      <c r="AC7" s="339"/>
+      <c r="AD7" s="339"/>
+      <c r="AE7" s="339"/>
+      <c r="AF7" s="339"/>
+      <c r="AG7" s="339"/>
+      <c r="AH7" s="339"/>
+      <c r="AI7" s="339"/>
+      <c r="AJ7" s="339"/>
+      <c r="AK7" s="339"/>
+      <c r="AL7" s="339"/>
+      <c r="AM7" s="339"/>
+      <c r="AN7" s="339"/>
+      <c r="AO7" s="339"/>
+      <c r="AP7" s="339"/>
+      <c r="AQ7" s="339"/>
+      <c r="AR7" s="339"/>
+      <c r="AS7" s="339"/>
+      <c r="AT7" s="339"/>
+      <c r="AU7" s="339"/>
+      <c r="AV7" s="339"/>
+      <c r="AW7" s="339"/>
+      <c r="AX7" s="339"/>
+      <c r="AY7" s="339"/>
+      <c r="AZ7" s="339"/>
+      <c r="BA7" s="339"/>
+      <c r="BB7" s="339"/>
+      <c r="BC7" s="339"/>
+      <c r="BD7" s="339"/>
+      <c r="BE7" s="339"/>
+      <c r="BF7" s="339"/>
+      <c r="BG7" s="339"/>
+      <c r="BH7" s="339"/>
+      <c r="BI7" s="339"/>
+      <c r="BJ7" s="339"/>
+      <c r="BK7" s="339"/>
+      <c r="BL7" s="339"/>
+      <c r="BM7" s="339"/>
+      <c r="BN7" s="339"/>
+      <c r="BO7" s="339"/>
+      <c r="BP7" s="339"/>
+      <c r="BQ7" s="339"/>
+      <c r="BR7" s="339"/>
+      <c r="BS7" s="339"/>
+      <c r="BT7" s="339"/>
+      <c r="BU7" s="339"/>
+      <c r="BV7" s="339"/>
+      <c r="BW7" s="339"/>
+      <c r="BX7" s="339"/>
+      <c r="BY7" s="339"/>
+      <c r="BZ7" s="339"/>
+      <c r="CA7" s="339"/>
+      <c r="CB7" s="339"/>
+      <c r="CC7" s="339"/>
+      <c r="CD7" s="339"/>
+      <c r="CE7" s="339"/>
+      <c r="CF7" s="339"/>
+      <c r="CG7" s="339"/>
+      <c r="CH7" s="339"/>
+      <c r="CI7" s="339"/>
+      <c r="CJ7" s="156">
         <v>1</v>
       </c>
-      <c r="K5" s="273"/>
-      <c r="L5" s="272"/>
-      <c r="M5" s="273"/>
-      <c r="N5" s="272"/>
-      <c r="O5" s="273"/>
-      <c r="P5" s="272"/>
-      <c r="Q5" s="273"/>
-      <c r="R5" s="272"/>
-      <c r="S5" s="273"/>
-      <c r="T5" s="272"/>
-      <c r="U5" s="273"/>
-      <c r="V5" s="272"/>
-      <c r="W5" s="273"/>
-      <c r="X5" s="272"/>
-      <c r="Y5" s="273"/>
-      <c r="Z5" s="272"/>
-      <c r="AA5" s="273"/>
-      <c r="AB5" s="272"/>
-      <c r="AC5" s="273"/>
-      <c r="AD5" s="272"/>
-      <c r="AE5" s="273"/>
-      <c r="AF5" s="272"/>
-      <c r="AG5" s="273"/>
-      <c r="AH5" s="272"/>
-      <c r="AI5" s="273"/>
-      <c r="AJ5" s="272"/>
-      <c r="AK5" s="273"/>
-      <c r="AL5" s="272"/>
-      <c r="AM5" s="273"/>
-      <c r="AN5" s="272"/>
-      <c r="AO5" s="273"/>
-      <c r="AP5" s="272"/>
-      <c r="AQ5" s="273"/>
-      <c r="AR5" s="272"/>
-      <c r="AS5" s="273"/>
-      <c r="AT5" s="272"/>
-      <c r="AU5" s="273"/>
-      <c r="AV5" s="272"/>
-      <c r="AW5" s="273"/>
-      <c r="AX5" s="272"/>
-      <c r="AY5" s="273"/>
-      <c r="AZ5" s="272"/>
-      <c r="BA5" s="273"/>
-      <c r="BB5" s="272"/>
-      <c r="BC5" s="273"/>
-      <c r="BD5" s="272"/>
     </row>
-    <row r="6" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J6">
+    <row r="8" spans="10:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S8" s="154"/>
+      <c r="T8" s="339"/>
+      <c r="U8" s="340"/>
+      <c r="V8" s="340"/>
+      <c r="W8" s="340"/>
+      <c r="X8" s="339"/>
+      <c r="Y8" s="340"/>
+      <c r="Z8" s="339"/>
+      <c r="AA8" s="340"/>
+      <c r="AB8" s="339"/>
+      <c r="AC8" s="340"/>
+      <c r="AD8" s="340"/>
+      <c r="AE8" s="340"/>
+      <c r="AF8" s="339"/>
+      <c r="AG8" s="339"/>
+      <c r="AH8" s="340"/>
+      <c r="AI8" s="340"/>
+      <c r="AJ8" s="340"/>
+      <c r="AK8" s="340"/>
+      <c r="AL8" s="340"/>
+      <c r="AM8" s="340"/>
+      <c r="AN8" s="340"/>
+      <c r="AO8" s="340"/>
+      <c r="AP8" s="339"/>
+      <c r="AQ8" s="339"/>
+      <c r="AR8" s="340"/>
+      <c r="AS8" s="340"/>
+      <c r="AT8" s="340"/>
+      <c r="AU8" s="340"/>
+      <c r="AV8" s="340"/>
+      <c r="AW8" s="340"/>
+      <c r="AX8" s="340"/>
+      <c r="AY8" s="340"/>
+      <c r="AZ8" s="339"/>
+      <c r="BA8" s="339"/>
+      <c r="BB8" s="340"/>
+      <c r="BC8" s="340"/>
+      <c r="BD8" s="340"/>
+      <c r="BE8" s="339"/>
+      <c r="BF8" s="339"/>
+      <c r="BG8" s="340"/>
+      <c r="BH8" s="340"/>
+      <c r="BI8" s="340"/>
+      <c r="BJ8" s="339"/>
+      <c r="BK8" s="339"/>
+      <c r="BL8" s="341"/>
+      <c r="BM8" s="341"/>
+      <c r="BN8" s="341"/>
+      <c r="BO8" s="341"/>
+      <c r="BP8" s="341"/>
+      <c r="BQ8" s="341"/>
+      <c r="BR8" s="341"/>
+      <c r="BS8" s="341"/>
+      <c r="BT8" s="341"/>
+      <c r="BU8" s="341"/>
+      <c r="BV8" s="341"/>
+      <c r="BW8" s="341"/>
+      <c r="BX8" s="341"/>
+      <c r="BY8" s="341"/>
+      <c r="BZ8" s="341"/>
+      <c r="CA8" s="341"/>
+      <c r="CB8" s="341"/>
+      <c r="CC8" s="341"/>
+      <c r="CD8" s="341"/>
+      <c r="CE8" s="341"/>
+      <c r="CF8" s="341"/>
+      <c r="CG8" s="341"/>
+      <c r="CH8" s="341"/>
+      <c r="CI8" s="339"/>
+      <c r="CJ8" s="156">
         <v>2</v>
       </c>
-      <c r="K6" s="272"/>
-      <c r="L6" s="273"/>
-      <c r="M6" s="272"/>
-      <c r="N6" s="273"/>
-      <c r="O6" s="272"/>
-      <c r="P6" s="273"/>
-      <c r="Q6" s="272"/>
-      <c r="R6" s="273"/>
-      <c r="S6" s="272"/>
-      <c r="T6" s="273"/>
-      <c r="U6" s="272"/>
-      <c r="V6" s="273"/>
-      <c r="W6" s="272"/>
-      <c r="X6" s="273"/>
-      <c r="Y6" s="272"/>
-      <c r="Z6" s="273"/>
-      <c r="AA6" s="272"/>
-      <c r="AB6" s="273"/>
-      <c r="AC6" s="272"/>
-      <c r="AD6" s="273"/>
-      <c r="AE6" s="272"/>
-      <c r="AF6" s="273"/>
-      <c r="AG6" s="272"/>
-      <c r="AH6" s="273"/>
-      <c r="AI6" s="272"/>
-      <c r="AJ6" s="273"/>
-      <c r="AK6" s="272"/>
-      <c r="AL6" s="273"/>
-      <c r="AM6" s="272"/>
-      <c r="AN6" s="273"/>
-      <c r="AO6" s="272"/>
-      <c r="AP6" s="273"/>
-      <c r="AQ6" s="272"/>
-      <c r="AR6" s="273"/>
-      <c r="AS6" s="272"/>
-      <c r="AT6" s="273"/>
-      <c r="AU6" s="272"/>
-      <c r="AV6" s="273"/>
-      <c r="AW6" s="272"/>
-      <c r="AX6" s="273"/>
-      <c r="AY6" s="272"/>
-      <c r="AZ6" s="273"/>
-      <c r="BA6" s="272"/>
-      <c r="BB6" s="273"/>
-      <c r="BC6" s="272"/>
-      <c r="BD6" s="273"/>
     </row>
-    <row r="7" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J7">
+    <row r="9" spans="10:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S9" s="154"/>
+      <c r="T9" s="339"/>
+      <c r="U9" s="340"/>
+      <c r="V9" s="340"/>
+      <c r="W9" s="340"/>
+      <c r="X9" s="339"/>
+      <c r="Y9" s="340"/>
+      <c r="Z9" s="339"/>
+      <c r="AA9" s="340"/>
+      <c r="AB9" s="339"/>
+      <c r="AC9" s="340"/>
+      <c r="AD9" s="340"/>
+      <c r="AE9" s="340"/>
+      <c r="AF9" s="339"/>
+      <c r="AG9" s="339"/>
+      <c r="AH9" s="340"/>
+      <c r="AI9" s="340"/>
+      <c r="AJ9" s="340"/>
+      <c r="AK9" s="340"/>
+      <c r="AL9" s="340"/>
+      <c r="AM9" s="340"/>
+      <c r="AN9" s="340"/>
+      <c r="AO9" s="340"/>
+      <c r="AP9" s="339"/>
+      <c r="AQ9" s="339"/>
+      <c r="AR9" s="340"/>
+      <c r="AS9" s="340"/>
+      <c r="AT9" s="340"/>
+      <c r="AU9" s="340"/>
+      <c r="AV9" s="340"/>
+      <c r="AW9" s="340"/>
+      <c r="AX9" s="340"/>
+      <c r="AY9" s="340"/>
+      <c r="AZ9" s="339"/>
+      <c r="BA9" s="339"/>
+      <c r="BB9" s="340"/>
+      <c r="BC9" s="340"/>
+      <c r="BD9" s="340"/>
+      <c r="BE9" s="339"/>
+      <c r="BF9" s="339"/>
+      <c r="BG9" s="340"/>
+      <c r="BH9" s="340"/>
+      <c r="BI9" s="340"/>
+      <c r="BJ9" s="339"/>
+      <c r="BK9" s="339"/>
+      <c r="BL9" s="341"/>
+      <c r="BM9" s="341"/>
+      <c r="BN9" s="341"/>
+      <c r="BO9" s="341"/>
+      <c r="BP9" s="341"/>
+      <c r="BQ9" s="341"/>
+      <c r="BR9" s="341"/>
+      <c r="BS9" s="341"/>
+      <c r="BT9" s="341"/>
+      <c r="BU9" s="341"/>
+      <c r="BV9" s="341"/>
+      <c r="BW9" s="341"/>
+      <c r="BX9" s="341"/>
+      <c r="BY9" s="341"/>
+      <c r="BZ9" s="341"/>
+      <c r="CA9" s="341"/>
+      <c r="CB9" s="341"/>
+      <c r="CC9" s="341"/>
+      <c r="CD9" s="341"/>
+      <c r="CE9" s="341"/>
+      <c r="CF9" s="341"/>
+      <c r="CG9" s="341"/>
+      <c r="CH9" s="341"/>
+      <c r="CI9" s="339"/>
+      <c r="CJ9" s="156">
         <v>3</v>
       </c>
-      <c r="K7" s="273"/>
-      <c r="L7" s="272"/>
-      <c r="M7" s="273"/>
-      <c r="N7" s="272"/>
-      <c r="O7" s="273"/>
-      <c r="P7" s="272"/>
-      <c r="Q7" s="273"/>
-      <c r="R7" s="272"/>
-      <c r="S7" s="273"/>
-      <c r="T7" s="272"/>
-      <c r="U7" s="273"/>
-      <c r="V7" s="272"/>
-      <c r="W7" s="273"/>
-      <c r="X7" s="272"/>
-      <c r="Y7" s="273"/>
-      <c r="Z7" s="272"/>
-      <c r="AA7" s="273"/>
-      <c r="AB7" s="272"/>
-      <c r="AC7" s="273"/>
-      <c r="AD7" s="272"/>
-      <c r="AE7" s="273"/>
-      <c r="AF7" s="272"/>
-      <c r="AG7" s="273"/>
-      <c r="AH7" s="272"/>
-      <c r="AI7" s="273"/>
-      <c r="AJ7" s="272"/>
-      <c r="AK7" s="273"/>
-      <c r="AL7" s="272"/>
-      <c r="AM7" s="273"/>
-      <c r="AN7" s="272"/>
-      <c r="AO7" s="273"/>
-      <c r="AP7" s="272"/>
-      <c r="AQ7" s="273"/>
-      <c r="AR7" s="272"/>
-      <c r="AS7" s="273"/>
-      <c r="AT7" s="272"/>
-      <c r="AU7" s="273"/>
-      <c r="AV7" s="272"/>
-      <c r="AW7" s="273"/>
-      <c r="AX7" s="272"/>
-      <c r="AY7" s="273"/>
-      <c r="AZ7" s="272"/>
-      <c r="BA7" s="273"/>
-      <c r="BB7" s="272"/>
-      <c r="BC7" s="273"/>
-      <c r="BD7" s="272"/>
     </row>
-    <row r="8" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J8">
+    <row r="10" spans="10:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S10" s="154"/>
+      <c r="T10" s="339"/>
+      <c r="U10" s="340"/>
+      <c r="V10" s="340"/>
+      <c r="W10" s="340"/>
+      <c r="X10" s="339"/>
+      <c r="Y10" s="340"/>
+      <c r="Z10" s="339"/>
+      <c r="AA10" s="340"/>
+      <c r="AB10" s="339"/>
+      <c r="AC10" s="340"/>
+      <c r="AD10" s="340"/>
+      <c r="AE10" s="340"/>
+      <c r="AF10" s="339"/>
+      <c r="AG10" s="339"/>
+      <c r="AH10" s="340"/>
+      <c r="AI10" s="340"/>
+      <c r="AJ10" s="340"/>
+      <c r="AK10" s="340"/>
+      <c r="AL10" s="340"/>
+      <c r="AM10" s="340"/>
+      <c r="AN10" s="340"/>
+      <c r="AO10" s="340"/>
+      <c r="AP10" s="339"/>
+      <c r="AQ10" s="339"/>
+      <c r="AR10" s="340"/>
+      <c r="AS10" s="340"/>
+      <c r="AT10" s="340"/>
+      <c r="AU10" s="340"/>
+      <c r="AV10" s="340"/>
+      <c r="AW10" s="340"/>
+      <c r="AX10" s="340"/>
+      <c r="AY10" s="340"/>
+      <c r="AZ10" s="339"/>
+      <c r="BA10" s="339"/>
+      <c r="BB10" s="340"/>
+      <c r="BC10" s="340"/>
+      <c r="BD10" s="340"/>
+      <c r="BE10" s="339"/>
+      <c r="BF10" s="339"/>
+      <c r="BG10" s="340"/>
+      <c r="BH10" s="340"/>
+      <c r="BI10" s="340"/>
+      <c r="BJ10" s="339"/>
+      <c r="BK10" s="339"/>
+      <c r="BL10" s="341"/>
+      <c r="BM10" s="341"/>
+      <c r="BN10" s="341"/>
+      <c r="BO10" s="341"/>
+      <c r="BP10" s="341"/>
+      <c r="BQ10" s="341"/>
+      <c r="BR10" s="341"/>
+      <c r="BS10" s="341"/>
+      <c r="BT10" s="341"/>
+      <c r="BU10" s="341"/>
+      <c r="BV10" s="341"/>
+      <c r="BW10" s="341"/>
+      <c r="BX10" s="341"/>
+      <c r="BY10" s="341"/>
+      <c r="BZ10" s="341"/>
+      <c r="CA10" s="341"/>
+      <c r="CB10" s="341"/>
+      <c r="CC10" s="341"/>
+      <c r="CD10" s="341"/>
+      <c r="CE10" s="341"/>
+      <c r="CF10" s="341"/>
+      <c r="CG10" s="341"/>
+      <c r="CH10" s="341"/>
+      <c r="CI10" s="339"/>
+      <c r="CJ10" s="156">
         <v>4</v>
       </c>
-      <c r="K8" s="272"/>
-      <c r="L8" s="273"/>
-      <c r="M8" s="272"/>
-      <c r="N8" s="273"/>
-      <c r="O8" s="272"/>
-      <c r="P8" s="273"/>
-      <c r="Q8" s="272"/>
-      <c r="R8" s="273"/>
-      <c r="S8" s="272"/>
-      <c r="T8" s="273"/>
-      <c r="U8" s="272"/>
-      <c r="V8" s="273"/>
-      <c r="W8" s="272"/>
-      <c r="X8" s="273"/>
-      <c r="Y8" s="272"/>
-      <c r="Z8" s="273"/>
-      <c r="AA8" s="272"/>
-      <c r="AB8" s="273"/>
-      <c r="AC8" s="272"/>
-      <c r="AD8" s="273"/>
-      <c r="AE8" s="272"/>
-      <c r="AF8" s="273"/>
-      <c r="AG8" s="272"/>
-      <c r="AH8" s="273"/>
-      <c r="AI8" s="272"/>
-      <c r="AJ8" s="273"/>
-      <c r="AK8" s="272"/>
-      <c r="AL8" s="273"/>
-      <c r="AM8" s="272"/>
-      <c r="AN8" s="273"/>
-      <c r="AO8" s="272"/>
-      <c r="AP8" s="273"/>
-      <c r="AQ8" s="272"/>
-      <c r="AR8" s="273"/>
-      <c r="AS8" s="272"/>
-      <c r="AT8" s="273"/>
-      <c r="AU8" s="272"/>
-      <c r="AV8" s="273"/>
-      <c r="AW8" s="272"/>
-      <c r="AX8" s="273"/>
-      <c r="AY8" s="272"/>
-      <c r="AZ8" s="273"/>
-      <c r="BA8" s="272"/>
-      <c r="BB8" s="273"/>
-      <c r="BC8" s="272"/>
-      <c r="BD8" s="273"/>
     </row>
-    <row r="9" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J9">
+    <row r="11" spans="10:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S11" s="154"/>
+      <c r="T11" s="339"/>
+      <c r="U11" s="339"/>
+      <c r="V11" s="339"/>
+      <c r="W11" s="339"/>
+      <c r="X11" s="339"/>
+      <c r="Y11" s="340"/>
+      <c r="Z11" s="340"/>
+      <c r="AA11" s="340"/>
+      <c r="AB11" s="339"/>
+      <c r="AC11" s="339"/>
+      <c r="AD11" s="339"/>
+      <c r="AE11" s="339"/>
+      <c r="AF11" s="339"/>
+      <c r="AG11" s="339"/>
+      <c r="AH11" s="340"/>
+      <c r="AI11" s="340"/>
+      <c r="AJ11" s="340"/>
+      <c r="AK11" s="340"/>
+      <c r="AL11" s="340"/>
+      <c r="AM11" s="340"/>
+      <c r="AN11" s="340"/>
+      <c r="AO11" s="340"/>
+      <c r="AP11" s="339"/>
+      <c r="AQ11" s="339"/>
+      <c r="AR11" s="340"/>
+      <c r="AS11" s="340"/>
+      <c r="AT11" s="340"/>
+      <c r="AU11" s="340"/>
+      <c r="AV11" s="340"/>
+      <c r="AW11" s="340"/>
+      <c r="AX11" s="340"/>
+      <c r="AY11" s="340"/>
+      <c r="AZ11" s="339"/>
+      <c r="BA11" s="339"/>
+      <c r="BB11" s="339"/>
+      <c r="BC11" s="339"/>
+      <c r="BD11" s="339"/>
+      <c r="BE11" s="339"/>
+      <c r="BF11" s="339"/>
+      <c r="BG11" s="340"/>
+      <c r="BH11" s="340"/>
+      <c r="BI11" s="340"/>
+      <c r="BJ11" s="339"/>
+      <c r="BK11" s="339"/>
+      <c r="BL11" s="341"/>
+      <c r="BM11" s="341"/>
+      <c r="BN11" s="341"/>
+      <c r="BO11" s="341"/>
+      <c r="BP11" s="341"/>
+      <c r="BQ11" s="341"/>
+      <c r="BR11" s="341"/>
+      <c r="BS11" s="341"/>
+      <c r="BT11" s="341"/>
+      <c r="BU11" s="341"/>
+      <c r="BV11" s="341"/>
+      <c r="BW11" s="341"/>
+      <c r="BX11" s="341"/>
+      <c r="BY11" s="341"/>
+      <c r="BZ11" s="341"/>
+      <c r="CA11" s="341"/>
+      <c r="CB11" s="341"/>
+      <c r="CC11" s="341"/>
+      <c r="CD11" s="341"/>
+      <c r="CE11" s="341"/>
+      <c r="CF11" s="341"/>
+      <c r="CG11" s="341"/>
+      <c r="CH11" s="341"/>
+      <c r="CI11" s="339"/>
+      <c r="CJ11" s="156">
         <v>5</v>
       </c>
-      <c r="K9" s="273"/>
-      <c r="L9" s="272"/>
-      <c r="M9" s="273"/>
-      <c r="N9" s="272"/>
-      <c r="O9" s="273"/>
-      <c r="P9" s="272"/>
-      <c r="Q9" s="273"/>
-      <c r="R9" s="272"/>
-      <c r="S9" s="273"/>
-      <c r="T9" s="272"/>
-      <c r="U9" s="273"/>
-      <c r="V9" s="272"/>
-      <c r="W9" s="273"/>
-      <c r="X9" s="272"/>
-      <c r="Y9" s="273"/>
-      <c r="Z9" s="272"/>
-      <c r="AA9" s="273"/>
-      <c r="AB9" s="272"/>
-      <c r="AC9" s="273"/>
-      <c r="AD9" s="272"/>
-      <c r="AE9" s="273"/>
-      <c r="AF9" s="272"/>
-      <c r="AG9" s="273"/>
-      <c r="AH9" s="272"/>
-      <c r="AI9" s="273"/>
-      <c r="AJ9" s="272"/>
-      <c r="AK9" s="273"/>
-      <c r="AL9" s="272"/>
-      <c r="AM9" s="273"/>
-      <c r="AN9" s="272"/>
-      <c r="AO9" s="273"/>
-      <c r="AP9" s="272"/>
-      <c r="AQ9" s="273"/>
-      <c r="AR9" s="272"/>
-      <c r="AS9" s="273"/>
-      <c r="AT9" s="272"/>
-      <c r="AU9" s="273"/>
-      <c r="AV9" s="272"/>
-      <c r="AW9" s="273"/>
-      <c r="AX9" s="272"/>
-      <c r="AY9" s="273"/>
-      <c r="AZ9" s="272"/>
-      <c r="BA9" s="273"/>
-      <c r="BB9" s="272"/>
-      <c r="BC9" s="273"/>
-      <c r="BD9" s="272"/>
     </row>
-    <row r="10" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J10">
+    <row r="12" spans="10:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S12" s="154"/>
+      <c r="T12" s="339"/>
+      <c r="U12" s="339"/>
+      <c r="V12" s="339"/>
+      <c r="W12" s="339"/>
+      <c r="X12" s="339"/>
+      <c r="Y12" s="340"/>
+      <c r="Z12" s="340"/>
+      <c r="AA12" s="340"/>
+      <c r="AB12" s="339"/>
+      <c r="AC12" s="339"/>
+      <c r="AD12" s="339"/>
+      <c r="AE12" s="339"/>
+      <c r="AF12" s="339"/>
+      <c r="AG12" s="339"/>
+      <c r="AH12" s="340"/>
+      <c r="AI12" s="340"/>
+      <c r="AJ12" s="340"/>
+      <c r="AK12" s="340"/>
+      <c r="AL12" s="340"/>
+      <c r="AM12" s="340"/>
+      <c r="AN12" s="340"/>
+      <c r="AO12" s="340"/>
+      <c r="AP12" s="339"/>
+      <c r="AQ12" s="339"/>
+      <c r="AR12" s="340"/>
+      <c r="AS12" s="340"/>
+      <c r="AT12" s="340"/>
+      <c r="AU12" s="340"/>
+      <c r="AV12" s="340"/>
+      <c r="AW12" s="340"/>
+      <c r="AX12" s="340"/>
+      <c r="AY12" s="340"/>
+      <c r="AZ12" s="339"/>
+      <c r="BA12" s="339"/>
+      <c r="BB12" s="339"/>
+      <c r="BC12" s="339"/>
+      <c r="BD12" s="339"/>
+      <c r="BE12" s="339"/>
+      <c r="BF12" s="339"/>
+      <c r="BG12" s="340"/>
+      <c r="BH12" s="340"/>
+      <c r="BI12" s="340"/>
+      <c r="BJ12" s="339"/>
+      <c r="BK12" s="339"/>
+      <c r="BL12" s="341"/>
+      <c r="BM12" s="341"/>
+      <c r="BN12" s="341"/>
+      <c r="BO12" s="341"/>
+      <c r="BP12" s="341"/>
+      <c r="BQ12" s="341"/>
+      <c r="BR12" s="341"/>
+      <c r="BS12" s="341"/>
+      <c r="BT12" s="341"/>
+      <c r="BU12" s="341"/>
+      <c r="BV12" s="341"/>
+      <c r="BW12" s="341"/>
+      <c r="BX12" s="341"/>
+      <c r="BY12" s="341"/>
+      <c r="BZ12" s="341"/>
+      <c r="CA12" s="341"/>
+      <c r="CB12" s="341"/>
+      <c r="CC12" s="341"/>
+      <c r="CD12" s="341"/>
+      <c r="CE12" s="341"/>
+      <c r="CF12" s="341"/>
+      <c r="CG12" s="341"/>
+      <c r="CH12" s="341"/>
+      <c r="CI12" s="339"/>
+      <c r="CJ12" s="156">
         <v>6</v>
       </c>
-      <c r="K10" s="272"/>
-      <c r="L10" s="273"/>
-      <c r="M10" s="272"/>
-      <c r="N10" s="273"/>
-      <c r="O10" s="272"/>
-      <c r="P10" s="273"/>
-      <c r="Q10" s="272"/>
-      <c r="R10" s="273"/>
-      <c r="S10" s="272"/>
-      <c r="T10" s="273"/>
-      <c r="U10" s="272"/>
-      <c r="V10" s="273"/>
-      <c r="W10" s="272"/>
-      <c r="X10" s="273"/>
-      <c r="Y10" s="272"/>
-      <c r="Z10" s="273"/>
-      <c r="AA10" s="272"/>
-      <c r="AB10" s="273"/>
-      <c r="AC10" s="272"/>
-      <c r="AD10" s="273"/>
-      <c r="AE10" s="272"/>
-      <c r="AF10" s="273"/>
-      <c r="AG10" s="272"/>
-      <c r="AH10" s="273"/>
-      <c r="AI10" s="272"/>
-      <c r="AJ10" s="273"/>
-      <c r="AK10" s="272"/>
-      <c r="AL10" s="273"/>
-      <c r="AM10" s="272"/>
-      <c r="AN10" s="273"/>
-      <c r="AO10" s="272"/>
-      <c r="AP10" s="273"/>
-      <c r="AQ10" s="272"/>
-      <c r="AR10" s="273"/>
-      <c r="AS10" s="272"/>
-      <c r="AT10" s="273"/>
-      <c r="AU10" s="272"/>
-      <c r="AV10" s="273"/>
-      <c r="AW10" s="272"/>
-      <c r="AX10" s="273"/>
-      <c r="AY10" s="272"/>
-      <c r="AZ10" s="273"/>
-      <c r="BA10" s="272"/>
-      <c r="BB10" s="273"/>
-      <c r="BC10" s="272"/>
-      <c r="BD10" s="273"/>
     </row>
-    <row r="11" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J11">
+    <row r="13" spans="10:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S13" s="154"/>
+      <c r="T13" s="339"/>
+      <c r="U13" s="340"/>
+      <c r="V13" s="340"/>
+      <c r="W13" s="340"/>
+      <c r="X13" s="339"/>
+      <c r="Y13" s="340"/>
+      <c r="Z13" s="339"/>
+      <c r="AA13" s="340"/>
+      <c r="AB13" s="339"/>
+      <c r="AC13" s="340"/>
+      <c r="AD13" s="340"/>
+      <c r="AE13" s="340"/>
+      <c r="AF13" s="339"/>
+      <c r="AG13" s="339"/>
+      <c r="AH13" s="340"/>
+      <c r="AI13" s="340"/>
+      <c r="AJ13" s="340"/>
+      <c r="AK13" s="340"/>
+      <c r="AL13" s="340"/>
+      <c r="AM13" s="340"/>
+      <c r="AN13" s="340"/>
+      <c r="AO13" s="340"/>
+      <c r="AP13" s="339"/>
+      <c r="AQ13" s="339"/>
+      <c r="AR13" s="340"/>
+      <c r="AS13" s="340"/>
+      <c r="AT13" s="340"/>
+      <c r="AU13" s="340"/>
+      <c r="AV13" s="340"/>
+      <c r="AW13" s="340"/>
+      <c r="AX13" s="340"/>
+      <c r="AY13" s="340"/>
+      <c r="AZ13" s="339"/>
+      <c r="BA13" s="340"/>
+      <c r="BB13" s="340"/>
+      <c r="BC13" s="340"/>
+      <c r="BD13" s="340"/>
+      <c r="BE13" s="340"/>
+      <c r="BF13" s="340"/>
+      <c r="BG13" s="340"/>
+      <c r="BH13" s="340"/>
+      <c r="BI13" s="340"/>
+      <c r="BJ13" s="339"/>
+      <c r="BK13" s="339"/>
+      <c r="BL13" s="341"/>
+      <c r="BM13" s="341"/>
+      <c r="BN13" s="341"/>
+      <c r="BO13" s="341"/>
+      <c r="BP13" s="341"/>
+      <c r="BQ13" s="341"/>
+      <c r="BR13" s="341"/>
+      <c r="BS13" s="341"/>
+      <c r="BT13" s="341"/>
+      <c r="BU13" s="341"/>
+      <c r="BV13" s="341"/>
+      <c r="BW13" s="341"/>
+      <c r="BX13" s="341"/>
+      <c r="BY13" s="341"/>
+      <c r="BZ13" s="341"/>
+      <c r="CA13" s="341"/>
+      <c r="CB13" s="341"/>
+      <c r="CC13" s="341"/>
+      <c r="CD13" s="341"/>
+      <c r="CE13" s="341"/>
+      <c r="CF13" s="341"/>
+      <c r="CG13" s="341"/>
+      <c r="CH13" s="341"/>
+      <c r="CI13" s="339"/>
+      <c r="CJ13" s="156">
         <v>7</v>
       </c>
-      <c r="K11" s="273"/>
-      <c r="L11" s="272"/>
-      <c r="M11" s="273"/>
-      <c r="N11" s="272"/>
-      <c r="O11" s="273"/>
-      <c r="P11" s="272"/>
-      <c r="Q11" s="273"/>
-      <c r="R11" s="272"/>
-      <c r="S11" s="273"/>
-      <c r="T11" s="272"/>
-      <c r="U11" s="273"/>
-      <c r="V11" s="272"/>
-      <c r="W11" s="273"/>
-      <c r="X11" s="272"/>
-      <c r="Y11" s="273"/>
-      <c r="Z11" s="272"/>
-      <c r="AA11" s="273"/>
-      <c r="AB11" s="272"/>
-      <c r="AC11" s="273"/>
-      <c r="AD11" s="272"/>
-      <c r="AE11" s="273"/>
-      <c r="AF11" s="272"/>
-      <c r="AG11" s="273"/>
-      <c r="AH11" s="272"/>
-      <c r="AI11" s="273"/>
-      <c r="AJ11" s="272"/>
-      <c r="AK11" s="273"/>
-      <c r="AL11" s="272"/>
-      <c r="AM11" s="273"/>
-      <c r="AN11" s="272"/>
-      <c r="AO11" s="273"/>
-      <c r="AP11" s="272"/>
-      <c r="AQ11" s="273"/>
-      <c r="AR11" s="272"/>
-      <c r="AS11" s="273"/>
-      <c r="AT11" s="272"/>
-      <c r="AU11" s="273"/>
-      <c r="AV11" s="272"/>
-      <c r="AW11" s="273"/>
-      <c r="AX11" s="272"/>
-      <c r="AY11" s="273"/>
-      <c r="AZ11" s="272"/>
-      <c r="BA11" s="273"/>
-      <c r="BB11" s="272"/>
-      <c r="BC11" s="273"/>
-      <c r="BD11" s="272"/>
     </row>
-    <row r="12" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J12">
+    <row r="14" spans="10:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S14" s="154"/>
+      <c r="T14" s="339"/>
+      <c r="U14" s="340"/>
+      <c r="V14" s="340"/>
+      <c r="W14" s="340"/>
+      <c r="X14" s="339"/>
+      <c r="Y14" s="340"/>
+      <c r="Z14" s="339"/>
+      <c r="AA14" s="340"/>
+      <c r="AB14" s="339"/>
+      <c r="AC14" s="340"/>
+      <c r="AD14" s="340"/>
+      <c r="AE14" s="340"/>
+      <c r="AF14" s="339"/>
+      <c r="AG14" s="339"/>
+      <c r="AH14" s="340"/>
+      <c r="AI14" s="340"/>
+      <c r="AJ14" s="340"/>
+      <c r="AK14" s="340"/>
+      <c r="AL14" s="340"/>
+      <c r="AM14" s="340"/>
+      <c r="AN14" s="340"/>
+      <c r="AO14" s="340"/>
+      <c r="AP14" s="339"/>
+      <c r="AQ14" s="339"/>
+      <c r="AR14" s="340"/>
+      <c r="AS14" s="340"/>
+      <c r="AT14" s="340"/>
+      <c r="AU14" s="340"/>
+      <c r="AV14" s="340"/>
+      <c r="AW14" s="340"/>
+      <c r="AX14" s="340"/>
+      <c r="AY14" s="340"/>
+      <c r="AZ14" s="339"/>
+      <c r="BA14" s="340"/>
+      <c r="BB14" s="340"/>
+      <c r="BC14" s="340"/>
+      <c r="BD14" s="340"/>
+      <c r="BE14" s="340"/>
+      <c r="BF14" s="340"/>
+      <c r="BG14" s="340"/>
+      <c r="BH14" s="340"/>
+      <c r="BI14" s="340"/>
+      <c r="BJ14" s="339"/>
+      <c r="BK14" s="339"/>
+      <c r="BL14" s="341"/>
+      <c r="BM14" s="341"/>
+      <c r="BN14" s="341"/>
+      <c r="BO14" s="341"/>
+      <c r="BP14" s="341"/>
+      <c r="BQ14" s="341"/>
+      <c r="BR14" s="341"/>
+      <c r="BS14" s="341"/>
+      <c r="BT14" s="341"/>
+      <c r="BU14" s="341"/>
+      <c r="BV14" s="341"/>
+      <c r="BW14" s="341"/>
+      <c r="BX14" s="341"/>
+      <c r="BY14" s="341"/>
+      <c r="BZ14" s="341"/>
+      <c r="CA14" s="341"/>
+      <c r="CB14" s="341"/>
+      <c r="CC14" s="341"/>
+      <c r="CD14" s="341"/>
+      <c r="CE14" s="341"/>
+      <c r="CF14" s="341"/>
+      <c r="CG14" s="341"/>
+      <c r="CH14" s="341"/>
+      <c r="CI14" s="339"/>
+      <c r="CJ14" s="156">
         <v>8</v>
       </c>
-      <c r="K12" s="272"/>
-      <c r="L12" s="273"/>
-      <c r="M12" s="272"/>
-      <c r="N12" s="273"/>
-      <c r="O12" s="272"/>
-      <c r="P12" s="273"/>
-      <c r="Q12" s="272"/>
-      <c r="R12" s="273"/>
-      <c r="S12" s="272"/>
-      <c r="T12" s="273"/>
-      <c r="U12" s="272"/>
-      <c r="V12" s="273"/>
-      <c r="W12" s="272"/>
-      <c r="X12" s="273"/>
-      <c r="Y12" s="272"/>
-      <c r="Z12" s="273"/>
-      <c r="AA12" s="272"/>
-      <c r="AB12" s="273"/>
-      <c r="AC12" s="272"/>
-      <c r="AD12" s="273"/>
-      <c r="AE12" s="272"/>
-      <c r="AF12" s="273"/>
-      <c r="AG12" s="272"/>
-      <c r="AH12" s="273"/>
-      <c r="AI12" s="272"/>
-      <c r="AJ12" s="273"/>
-      <c r="AK12" s="272"/>
-      <c r="AL12" s="273"/>
-      <c r="AM12" s="272"/>
-      <c r="AN12" s="273"/>
-      <c r="AO12" s="272"/>
-      <c r="AP12" s="273"/>
-      <c r="AQ12" s="272"/>
-      <c r="AR12" s="273"/>
-      <c r="AS12" s="272"/>
-      <c r="AT12" s="273"/>
-      <c r="AU12" s="272"/>
-      <c r="AV12" s="273"/>
-      <c r="AW12" s="272"/>
-      <c r="AX12" s="273"/>
-      <c r="AY12" s="272"/>
-      <c r="AZ12" s="273"/>
-      <c r="BA12" s="272"/>
-      <c r="BB12" s="273"/>
-      <c r="BC12" s="272"/>
-      <c r="BD12" s="273"/>
     </row>
-    <row r="13" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J13">
+    <row r="15" spans="10:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S15" s="154"/>
+      <c r="T15" s="339"/>
+      <c r="U15" s="340"/>
+      <c r="V15" s="340"/>
+      <c r="W15" s="340"/>
+      <c r="X15" s="339"/>
+      <c r="Y15" s="340"/>
+      <c r="Z15" s="339"/>
+      <c r="AA15" s="340"/>
+      <c r="AB15" s="339"/>
+      <c r="AC15" s="340"/>
+      <c r="AD15" s="340"/>
+      <c r="AE15" s="340"/>
+      <c r="AF15" s="339"/>
+      <c r="AG15" s="339"/>
+      <c r="AH15" s="340"/>
+      <c r="AI15" s="340"/>
+      <c r="AJ15" s="340"/>
+      <c r="AK15" s="340"/>
+      <c r="AL15" s="340"/>
+      <c r="AM15" s="340"/>
+      <c r="AN15" s="340"/>
+      <c r="AO15" s="340"/>
+      <c r="AP15" s="339"/>
+      <c r="AQ15" s="339"/>
+      <c r="AR15" s="340"/>
+      <c r="AS15" s="340"/>
+      <c r="AT15" s="340"/>
+      <c r="AU15" s="340"/>
+      <c r="AV15" s="340"/>
+      <c r="AW15" s="340"/>
+      <c r="AX15" s="340"/>
+      <c r="AY15" s="340"/>
+      <c r="AZ15" s="339"/>
+      <c r="BA15" s="340"/>
+      <c r="BB15" s="340"/>
+      <c r="BC15" s="340"/>
+      <c r="BD15" s="340"/>
+      <c r="BE15" s="340"/>
+      <c r="BF15" s="340"/>
+      <c r="BG15" s="340"/>
+      <c r="BH15" s="340"/>
+      <c r="BI15" s="340"/>
+      <c r="BJ15" s="339"/>
+      <c r="BK15" s="339"/>
+      <c r="BL15" s="341"/>
+      <c r="BM15" s="341"/>
+      <c r="BN15" s="341"/>
+      <c r="BO15" s="341"/>
+      <c r="BP15" s="341"/>
+      <c r="BQ15" s="341"/>
+      <c r="BR15" s="341"/>
+      <c r="BS15" s="341"/>
+      <c r="BT15" s="341"/>
+      <c r="BU15" s="341"/>
+      <c r="BV15" s="341"/>
+      <c r="BW15" s="341"/>
+      <c r="BX15" s="341"/>
+      <c r="BY15" s="341"/>
+      <c r="BZ15" s="341"/>
+      <c r="CA15" s="341"/>
+      <c r="CB15" s="341"/>
+      <c r="CC15" s="341"/>
+      <c r="CD15" s="341"/>
+      <c r="CE15" s="341"/>
+      <c r="CF15" s="341"/>
+      <c r="CG15" s="341"/>
+      <c r="CH15" s="341"/>
+      <c r="CI15" s="339"/>
+      <c r="CJ15" s="156">
         <v>9</v>
       </c>
-      <c r="K13" s="273"/>
-      <c r="L13" s="272"/>
-      <c r="M13" s="273"/>
-      <c r="N13" s="272"/>
-      <c r="O13" s="273"/>
-      <c r="P13" s="272"/>
-      <c r="Q13" s="273"/>
-      <c r="R13" s="272"/>
-      <c r="S13" s="273"/>
-      <c r="T13" s="272"/>
-      <c r="U13" s="273"/>
-      <c r="V13" s="272"/>
-      <c r="W13" s="273"/>
-      <c r="X13" s="272"/>
-      <c r="Y13" s="273"/>
-      <c r="Z13" s="272"/>
-      <c r="AA13" s="273"/>
-      <c r="AB13" s="272"/>
-      <c r="AC13" s="273"/>
-      <c r="AD13" s="272"/>
-      <c r="AE13" s="273"/>
-      <c r="AF13" s="272"/>
-      <c r="AG13" s="273"/>
-      <c r="AH13" s="272"/>
-      <c r="AI13" s="273"/>
-      <c r="AJ13" s="272"/>
-      <c r="AK13" s="273"/>
-      <c r="AL13" s="272"/>
-      <c r="AM13" s="273"/>
-      <c r="AN13" s="272"/>
-      <c r="AO13" s="273"/>
-      <c r="AP13" s="272"/>
-      <c r="AQ13" s="273"/>
-      <c r="AR13" s="272"/>
-      <c r="AS13" s="273"/>
-      <c r="AT13" s="272"/>
-      <c r="AU13" s="273"/>
-      <c r="AV13" s="272"/>
-      <c r="AW13" s="273"/>
-      <c r="AX13" s="272"/>
-      <c r="AY13" s="273"/>
-      <c r="AZ13" s="272"/>
-      <c r="BA13" s="273"/>
-      <c r="BB13" s="272"/>
-      <c r="BC13" s="273"/>
-      <c r="BD13" s="272"/>
     </row>
-    <row r="14" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J14">
+    <row r="16" spans="10:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J16" s="155"/>
+      <c r="K16" s="155"/>
+      <c r="L16" s="155"/>
+      <c r="M16" s="155"/>
+      <c r="N16" s="155"/>
+      <c r="O16" s="155"/>
+      <c r="P16" s="155"/>
+      <c r="Q16" s="155"/>
+      <c r="R16" s="155"/>
+      <c r="S16" s="310"/>
+      <c r="T16" s="339"/>
+      <c r="U16" s="339"/>
+      <c r="V16" s="339"/>
+      <c r="W16" s="339"/>
+      <c r="X16" s="339"/>
+      <c r="Y16" s="340"/>
+      <c r="Z16" s="340"/>
+      <c r="AA16" s="340"/>
+      <c r="AB16" s="339"/>
+      <c r="AC16" s="339"/>
+      <c r="AD16" s="339"/>
+      <c r="AE16" s="339"/>
+      <c r="AF16" s="339"/>
+      <c r="AG16" s="339"/>
+      <c r="AH16" s="339"/>
+      <c r="AI16" s="339"/>
+      <c r="AJ16" s="339"/>
+      <c r="AK16" s="339"/>
+      <c r="AL16" s="339"/>
+      <c r="AM16" s="339"/>
+      <c r="AN16" s="339"/>
+      <c r="AO16" s="339"/>
+      <c r="AP16" s="339"/>
+      <c r="AQ16" s="339"/>
+      <c r="AR16" s="339"/>
+      <c r="AS16" s="339"/>
+      <c r="AT16" s="339"/>
+      <c r="AU16" s="339"/>
+      <c r="AV16" s="339"/>
+      <c r="AW16" s="339"/>
+      <c r="AX16" s="339"/>
+      <c r="AY16" s="339"/>
+      <c r="AZ16" s="339"/>
+      <c r="BA16" s="339"/>
+      <c r="BB16" s="339"/>
+      <c r="BC16" s="339"/>
+      <c r="BD16" s="339"/>
+      <c r="BE16" s="339"/>
+      <c r="BF16" s="339"/>
+      <c r="BG16" s="339"/>
+      <c r="BH16" s="339"/>
+      <c r="BI16" s="339"/>
+      <c r="BJ16" s="339"/>
+      <c r="BK16" s="339"/>
+      <c r="BL16" s="341"/>
+      <c r="BM16" s="341"/>
+      <c r="BN16" s="341"/>
+      <c r="BO16" s="341"/>
+      <c r="BP16" s="341"/>
+      <c r="BQ16" s="341"/>
+      <c r="BR16" s="341"/>
+      <c r="BS16" s="341"/>
+      <c r="BT16" s="341"/>
+      <c r="BU16" s="341"/>
+      <c r="BV16" s="341"/>
+      <c r="BW16" s="341"/>
+      <c r="BX16" s="341"/>
+      <c r="BY16" s="341"/>
+      <c r="BZ16" s="341"/>
+      <c r="CA16" s="341"/>
+      <c r="CB16" s="341"/>
+      <c r="CC16" s="341"/>
+      <c r="CD16" s="341"/>
+      <c r="CE16" s="341"/>
+      <c r="CF16" s="341"/>
+      <c r="CG16" s="341"/>
+      <c r="CH16" s="341"/>
+      <c r="CI16" s="339"/>
+      <c r="CJ16" s="156">
         <v>10</v>
       </c>
-      <c r="K14" s="272"/>
-      <c r="L14" s="273"/>
-      <c r="M14" s="272"/>
-      <c r="N14" s="273"/>
-      <c r="O14" s="272"/>
-      <c r="P14" s="273"/>
-      <c r="Q14" s="272"/>
-      <c r="R14" s="273"/>
-      <c r="S14" s="272"/>
-      <c r="T14" s="273"/>
-      <c r="U14" s="272"/>
-      <c r="V14" s="273"/>
-      <c r="W14" s="272"/>
-      <c r="X14" s="273"/>
-      <c r="Y14" s="272"/>
-      <c r="Z14" s="273"/>
-      <c r="AA14" s="272"/>
-      <c r="AB14" s="273"/>
-      <c r="AC14" s="272"/>
-      <c r="AD14" s="273"/>
-      <c r="AE14" s="272"/>
-      <c r="AF14" s="273"/>
-      <c r="AG14" s="272"/>
-      <c r="AH14" s="273"/>
-      <c r="AI14" s="272"/>
-      <c r="AJ14" s="273"/>
-      <c r="AK14" s="272"/>
-      <c r="AL14" s="273"/>
-      <c r="AM14" s="272"/>
-      <c r="AN14" s="273"/>
-      <c r="AO14" s="272"/>
-      <c r="AP14" s="273"/>
-      <c r="AQ14" s="272"/>
-      <c r="AR14" s="273"/>
-      <c r="AS14" s="272"/>
-      <c r="AT14" s="273"/>
-      <c r="AU14" s="272"/>
-      <c r="AV14" s="273"/>
-      <c r="AW14" s="272"/>
-      <c r="AX14" s="273"/>
-      <c r="AY14" s="272"/>
-      <c r="AZ14" s="273"/>
-      <c r="BA14" s="272"/>
-      <c r="BB14" s="273"/>
-      <c r="BC14" s="272"/>
-      <c r="BD14" s="273"/>
     </row>
-    <row r="15" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J15">
+    <row r="17" spans="9:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="154"/>
+      <c r="N17" s="154"/>
+      <c r="O17" s="342"/>
+      <c r="P17" s="342"/>
+      <c r="Q17" s="342"/>
+      <c r="R17" s="342"/>
+      <c r="S17" s="342"/>
+      <c r="T17" s="342"/>
+      <c r="U17" s="342"/>
+      <c r="V17" s="342"/>
+      <c r="W17" s="342"/>
+      <c r="X17" s="342"/>
+      <c r="Y17" s="340"/>
+      <c r="Z17" s="340"/>
+      <c r="AA17" s="340"/>
+      <c r="AB17" s="340"/>
+      <c r="AC17" s="340"/>
+      <c r="AD17" s="340"/>
+      <c r="AE17" s="340"/>
+      <c r="AF17" s="340"/>
+      <c r="AG17" s="340"/>
+      <c r="AH17" s="340"/>
+      <c r="AI17" s="340"/>
+      <c r="AJ17" s="340"/>
+      <c r="AK17" s="340"/>
+      <c r="AL17" s="340"/>
+      <c r="AM17" s="340"/>
+      <c r="AN17" s="340"/>
+      <c r="AO17" s="340"/>
+      <c r="AP17" s="340"/>
+      <c r="AQ17" s="340"/>
+      <c r="AR17" s="340"/>
+      <c r="AS17" s="340"/>
+      <c r="AT17" s="340"/>
+      <c r="AU17" s="340"/>
+      <c r="AV17" s="340"/>
+      <c r="AW17" s="340"/>
+      <c r="AX17" s="340"/>
+      <c r="AY17" s="340"/>
+      <c r="AZ17" s="340"/>
+      <c r="BA17" s="340"/>
+      <c r="BB17" s="340"/>
+      <c r="BC17" s="340"/>
+      <c r="BD17" s="340"/>
+      <c r="BE17" s="340"/>
+      <c r="BF17" s="340"/>
+      <c r="BG17" s="340"/>
+      <c r="BH17" s="340"/>
+      <c r="BI17" s="339"/>
+      <c r="BJ17" s="339"/>
+      <c r="BK17" s="339"/>
+      <c r="BL17" s="341"/>
+      <c r="BM17" s="341"/>
+      <c r="BN17" s="341"/>
+      <c r="BO17" s="341"/>
+      <c r="BP17" s="341"/>
+      <c r="BQ17" s="341"/>
+      <c r="BR17" s="341"/>
+      <c r="BS17" s="341"/>
+      <c r="BT17" s="341"/>
+      <c r="BU17" s="341"/>
+      <c r="BV17" s="341"/>
+      <c r="BW17" s="341"/>
+      <c r="BX17" s="341"/>
+      <c r="BY17" s="341"/>
+      <c r="BZ17" s="341"/>
+      <c r="CA17" s="341"/>
+      <c r="CB17" s="341"/>
+      <c r="CC17" s="341"/>
+      <c r="CD17" s="341"/>
+      <c r="CE17" s="341"/>
+      <c r="CF17" s="341"/>
+      <c r="CG17" s="341"/>
+      <c r="CH17" s="341"/>
+      <c r="CI17" s="339"/>
+      <c r="CJ17" s="156">
         <v>11</v>
       </c>
-      <c r="K15" s="273"/>
-      <c r="L15" s="272"/>
-      <c r="M15" s="273"/>
-      <c r="N15" s="272"/>
-      <c r="O15" s="273"/>
-      <c r="P15" s="272"/>
-      <c r="Q15" s="273"/>
-      <c r="R15" s="272"/>
-      <c r="S15" s="273"/>
-      <c r="T15" s="272"/>
-      <c r="U15" s="273"/>
-      <c r="V15" s="272"/>
-      <c r="W15" s="273"/>
-      <c r="X15" s="272"/>
-      <c r="Y15" s="273"/>
-      <c r="Z15" s="272"/>
-      <c r="AA15" s="273"/>
-      <c r="AB15" s="272"/>
-      <c r="AC15" s="273"/>
-      <c r="AD15" s="272"/>
-      <c r="AE15" s="273"/>
-      <c r="AF15" s="272"/>
-      <c r="AG15" s="273"/>
-      <c r="AH15" s="272"/>
-      <c r="AI15" s="273"/>
-      <c r="AJ15" s="272"/>
-      <c r="AK15" s="273"/>
-      <c r="AL15" s="272"/>
-      <c r="AM15" s="273"/>
-      <c r="AN15" s="272"/>
-      <c r="AO15" s="273"/>
-      <c r="AP15" s="272"/>
-      <c r="AQ15" s="273"/>
-      <c r="AR15" s="272"/>
-      <c r="AS15" s="273"/>
-      <c r="AT15" s="272"/>
-      <c r="AU15" s="273"/>
-      <c r="AV15" s="272"/>
-      <c r="AW15" s="273"/>
-      <c r="AX15" s="272"/>
-      <c r="AY15" s="273"/>
-      <c r="AZ15" s="272"/>
-      <c r="BA15" s="273"/>
-      <c r="BB15" s="272"/>
-      <c r="BC15" s="273"/>
-      <c r="BD15" s="272"/>
     </row>
-    <row r="16" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J16">
+    <row r="18" spans="9:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I18" s="154"/>
+      <c r="N18" s="154"/>
+      <c r="O18" s="342"/>
+      <c r="P18" s="342"/>
+      <c r="Q18" s="342"/>
+      <c r="R18" s="342"/>
+      <c r="S18" s="342"/>
+      <c r="T18" s="342"/>
+      <c r="U18" s="342"/>
+      <c r="V18" s="342"/>
+      <c r="W18" s="342"/>
+      <c r="X18" s="342"/>
+      <c r="Y18" s="340"/>
+      <c r="Z18" s="339"/>
+      <c r="AA18" s="340"/>
+      <c r="AB18" s="340"/>
+      <c r="AC18" s="340"/>
+      <c r="AD18" s="340"/>
+      <c r="AE18" s="339"/>
+      <c r="AF18" s="339"/>
+      <c r="AG18" s="339"/>
+      <c r="AH18" s="340"/>
+      <c r="AI18" s="340"/>
+      <c r="AJ18" s="339"/>
+      <c r="AK18" s="339"/>
+      <c r="AL18" s="339"/>
+      <c r="AM18" s="340"/>
+      <c r="AN18" s="340"/>
+      <c r="AO18" s="339"/>
+      <c r="AP18" s="339"/>
+      <c r="AQ18" s="339"/>
+      <c r="AR18" s="340"/>
+      <c r="AS18" s="340"/>
+      <c r="AT18" s="339"/>
+      <c r="AU18" s="339"/>
+      <c r="AV18" s="339"/>
+      <c r="AW18" s="340"/>
+      <c r="AX18" s="340"/>
+      <c r="AY18" s="339"/>
+      <c r="AZ18" s="339"/>
+      <c r="BA18" s="339"/>
+      <c r="BB18" s="340"/>
+      <c r="BC18" s="340"/>
+      <c r="BD18" s="339"/>
+      <c r="BE18" s="339"/>
+      <c r="BF18" s="339"/>
+      <c r="BG18" s="340"/>
+      <c r="BH18" s="340"/>
+      <c r="BI18" s="339"/>
+      <c r="BJ18" s="339"/>
+      <c r="BK18" s="341"/>
+      <c r="BL18" s="341"/>
+      <c r="BM18" s="341"/>
+      <c r="BN18" s="341"/>
+      <c r="BO18" s="341"/>
+      <c r="BP18" s="341"/>
+      <c r="BQ18" s="341"/>
+      <c r="BR18" s="341"/>
+      <c r="BS18" s="341"/>
+      <c r="BT18" s="341"/>
+      <c r="BU18" s="341"/>
+      <c r="BV18" s="341"/>
+      <c r="BW18" s="341"/>
+      <c r="BX18" s="341"/>
+      <c r="BY18" s="341"/>
+      <c r="BZ18" s="341"/>
+      <c r="CA18" s="341"/>
+      <c r="CB18" s="341"/>
+      <c r="CC18" s="341"/>
+      <c r="CD18" s="341"/>
+      <c r="CE18" s="341"/>
+      <c r="CF18" s="341"/>
+      <c r="CG18" s="341"/>
+      <c r="CH18" s="341"/>
+      <c r="CI18" s="339"/>
+      <c r="CJ18" s="156">
         <v>12</v>
       </c>
-      <c r="K16" s="272"/>
-      <c r="L16" s="273"/>
-      <c r="M16" s="272"/>
-      <c r="N16" s="273"/>
-      <c r="O16" s="272"/>
-      <c r="P16" s="273"/>
-      <c r="Q16" s="272"/>
-      <c r="R16" s="273"/>
-      <c r="S16" s="272"/>
-      <c r="T16" s="273"/>
-      <c r="U16" s="272"/>
-      <c r="V16" s="273"/>
-      <c r="W16" s="272"/>
-      <c r="X16" s="273"/>
-      <c r="Y16" s="272"/>
-      <c r="Z16" s="273"/>
-      <c r="AA16" s="272"/>
-      <c r="AB16" s="273"/>
-      <c r="AC16" s="272"/>
-      <c r="AD16" s="273"/>
-      <c r="AE16" s="272"/>
-      <c r="AF16" s="273"/>
-      <c r="AG16" s="272"/>
-      <c r="AH16" s="273"/>
-      <c r="AI16" s="272"/>
-      <c r="AJ16" s="273"/>
-      <c r="AK16" s="272"/>
-      <c r="AL16" s="273"/>
-      <c r="AM16" s="272"/>
-      <c r="AN16" s="273"/>
-      <c r="AO16" s="272"/>
-      <c r="AP16" s="273"/>
-      <c r="AQ16" s="272"/>
-      <c r="AR16" s="273"/>
-      <c r="AS16" s="272"/>
-      <c r="AT16" s="273"/>
-      <c r="AU16" s="272"/>
-      <c r="AV16" s="273"/>
-      <c r="AW16" s="272"/>
-      <c r="AX16" s="273"/>
-      <c r="AY16" s="272"/>
-      <c r="AZ16" s="273"/>
-      <c r="BA16" s="272"/>
-      <c r="BB16" s="273"/>
-      <c r="BC16" s="272"/>
-      <c r="BD16" s="273"/>
     </row>
-    <row r="17" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J17">
+    <row r="19" spans="9:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I19" s="154"/>
+      <c r="N19" s="154"/>
+      <c r="O19" s="342"/>
+      <c r="P19" s="342"/>
+      <c r="Q19" s="342"/>
+      <c r="R19" s="342"/>
+      <c r="S19" s="342"/>
+      <c r="T19" s="342"/>
+      <c r="U19" s="342"/>
+      <c r="V19" s="342"/>
+      <c r="W19" s="342"/>
+      <c r="X19" s="342"/>
+      <c r="Y19" s="340"/>
+      <c r="Z19" s="339"/>
+      <c r="AA19" s="339"/>
+      <c r="AB19" s="339"/>
+      <c r="AC19" s="340"/>
+      <c r="AD19" s="340"/>
+      <c r="AE19" s="339"/>
+      <c r="AF19" s="347"/>
+      <c r="AG19" s="339"/>
+      <c r="AH19" s="340"/>
+      <c r="AI19" s="340"/>
+      <c r="AJ19" s="339"/>
+      <c r="AK19" s="347"/>
+      <c r="AL19" s="339"/>
+      <c r="AM19" s="340"/>
+      <c r="AN19" s="340"/>
+      <c r="AO19" s="339"/>
+      <c r="AP19" s="347"/>
+      <c r="AQ19" s="339"/>
+      <c r="AR19" s="340"/>
+      <c r="AS19" s="340"/>
+      <c r="AT19" s="339"/>
+      <c r="AU19" s="347"/>
+      <c r="AV19" s="339"/>
+      <c r="AW19" s="340"/>
+      <c r="AX19" s="340"/>
+      <c r="AY19" s="339"/>
+      <c r="AZ19" s="347"/>
+      <c r="BA19" s="339"/>
+      <c r="BB19" s="340"/>
+      <c r="BC19" s="340"/>
+      <c r="BD19" s="339"/>
+      <c r="BE19" s="347"/>
+      <c r="BF19" s="339"/>
+      <c r="BG19" s="340"/>
+      <c r="BH19" s="340"/>
+      <c r="BI19" s="339"/>
+      <c r="BJ19" s="339"/>
+      <c r="BK19" s="341"/>
+      <c r="BL19" s="341"/>
+      <c r="BM19" s="341"/>
+      <c r="BN19" s="341"/>
+      <c r="BO19" s="341"/>
+      <c r="BP19" s="341"/>
+      <c r="BQ19" s="341"/>
+      <c r="BR19" s="341"/>
+      <c r="BS19" s="341"/>
+      <c r="BT19" s="341"/>
+      <c r="BU19" s="341"/>
+      <c r="BV19" s="341"/>
+      <c r="BW19" s="341"/>
+      <c r="BX19" s="341"/>
+      <c r="BY19" s="341"/>
+      <c r="BZ19" s="341"/>
+      <c r="CA19" s="341"/>
+      <c r="CB19" s="341"/>
+      <c r="CC19" s="341"/>
+      <c r="CD19" s="341"/>
+      <c r="CE19" s="341"/>
+      <c r="CF19" s="341"/>
+      <c r="CG19" s="341"/>
+      <c r="CH19" s="341"/>
+      <c r="CI19" s="339"/>
+      <c r="CJ19" s="156">
         <v>13</v>
       </c>
-      <c r="K17" s="273"/>
-      <c r="L17" s="272"/>
-      <c r="M17" s="273"/>
-      <c r="N17" s="272"/>
-      <c r="O17" s="273"/>
-      <c r="P17" s="272"/>
-      <c r="Q17" s="273"/>
-      <c r="R17" s="272"/>
-      <c r="S17" s="273"/>
-      <c r="T17" s="272"/>
-      <c r="U17" s="273"/>
-      <c r="V17" s="272"/>
-      <c r="W17" s="273"/>
-      <c r="X17" s="272"/>
-      <c r="Y17" s="273"/>
-      <c r="Z17" s="272"/>
-      <c r="AA17" s="273"/>
-      <c r="AB17" s="272"/>
-      <c r="AC17" s="273"/>
-      <c r="AD17" s="272"/>
-      <c r="AE17" s="273"/>
-      <c r="AF17" s="272"/>
-      <c r="AG17" s="273"/>
-      <c r="AH17" s="272"/>
-      <c r="AI17" s="273"/>
-      <c r="AJ17" s="272"/>
-      <c r="AK17" s="273"/>
-      <c r="AL17" s="272"/>
-      <c r="AM17" s="273"/>
-      <c r="AN17" s="272"/>
-      <c r="AO17" s="273"/>
-      <c r="AP17" s="272"/>
-      <c r="AQ17" s="273"/>
-      <c r="AR17" s="272"/>
-      <c r="AS17" s="273"/>
-      <c r="AT17" s="272"/>
-      <c r="AU17" s="273"/>
-      <c r="AV17" s="272"/>
-      <c r="AW17" s="273"/>
-      <c r="AX17" s="272"/>
-      <c r="AY17" s="273"/>
-      <c r="AZ17" s="272"/>
-      <c r="BA17" s="273"/>
-      <c r="BB17" s="272"/>
-      <c r="BC17" s="273"/>
-      <c r="BD17" s="272"/>
     </row>
-    <row r="18" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J18">
+    <row r="20" spans="9:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I20" s="154"/>
+      <c r="N20" s="154"/>
+      <c r="O20" s="342"/>
+      <c r="P20" s="342"/>
+      <c r="Q20" s="342"/>
+      <c r="R20" s="342"/>
+      <c r="S20" s="342"/>
+      <c r="T20" s="342"/>
+      <c r="U20" s="342"/>
+      <c r="V20" s="342"/>
+      <c r="W20" s="342"/>
+      <c r="X20" s="342"/>
+      <c r="Y20" s="340"/>
+      <c r="Z20" s="339"/>
+      <c r="AA20" s="340"/>
+      <c r="AB20" s="340"/>
+      <c r="AC20" s="340"/>
+      <c r="AD20" s="340"/>
+      <c r="AE20" s="339"/>
+      <c r="AF20" s="339"/>
+      <c r="AG20" s="339"/>
+      <c r="AH20" s="340"/>
+      <c r="AI20" s="340"/>
+      <c r="AJ20" s="339"/>
+      <c r="AK20" s="339"/>
+      <c r="AL20" s="339"/>
+      <c r="AM20" s="340"/>
+      <c r="AN20" s="340"/>
+      <c r="AO20" s="339"/>
+      <c r="AP20" s="339"/>
+      <c r="AQ20" s="339"/>
+      <c r="AR20" s="340"/>
+      <c r="AS20" s="340"/>
+      <c r="AT20" s="339"/>
+      <c r="AU20" s="339"/>
+      <c r="AV20" s="339"/>
+      <c r="AW20" s="340"/>
+      <c r="AX20" s="340"/>
+      <c r="AY20" s="339"/>
+      <c r="AZ20" s="339"/>
+      <c r="BA20" s="339"/>
+      <c r="BB20" s="340"/>
+      <c r="BC20" s="340"/>
+      <c r="BD20" s="339"/>
+      <c r="BE20" s="339"/>
+      <c r="BF20" s="339"/>
+      <c r="BG20" s="340"/>
+      <c r="BH20" s="340"/>
+      <c r="BI20" s="339"/>
+      <c r="BJ20" s="339"/>
+      <c r="BK20" s="341"/>
+      <c r="BL20" s="341"/>
+      <c r="BM20" s="341"/>
+      <c r="BN20" s="341"/>
+      <c r="BO20" s="341"/>
+      <c r="BP20" s="341"/>
+      <c r="BQ20" s="341"/>
+      <c r="BR20" s="341"/>
+      <c r="BS20" s="341"/>
+      <c r="BT20" s="341"/>
+      <c r="BU20" s="341"/>
+      <c r="BV20" s="341"/>
+      <c r="BW20" s="341"/>
+      <c r="BX20" s="341"/>
+      <c r="BY20" s="341"/>
+      <c r="BZ20" s="341"/>
+      <c r="CA20" s="341"/>
+      <c r="CB20" s="341"/>
+      <c r="CC20" s="341"/>
+      <c r="CD20" s="341"/>
+      <c r="CE20" s="341"/>
+      <c r="CF20" s="341"/>
+      <c r="CG20" s="341"/>
+      <c r="CH20" s="341"/>
+      <c r="CI20" s="339"/>
+      <c r="CJ20" s="156">
         <v>14</v>
       </c>
-      <c r="K18" s="272"/>
-      <c r="L18" s="273"/>
-      <c r="M18" s="272"/>
-      <c r="N18" s="273"/>
-      <c r="O18" s="272"/>
-      <c r="P18" s="273"/>
-      <c r="Q18" s="272"/>
-      <c r="R18" s="273"/>
-      <c r="S18" s="272"/>
-      <c r="T18" s="273"/>
-      <c r="U18" s="272"/>
-      <c r="V18" s="273"/>
-      <c r="W18" s="272"/>
-      <c r="X18" s="273"/>
-      <c r="Y18" s="272"/>
-      <c r="Z18" s="273"/>
-      <c r="AA18" s="272"/>
-      <c r="AB18" s="273"/>
-      <c r="AC18" s="272"/>
-      <c r="AD18" s="273"/>
-      <c r="AE18" s="272"/>
-      <c r="AF18" s="273"/>
-      <c r="AG18" s="272"/>
-      <c r="AH18" s="273"/>
-      <c r="AI18" s="272"/>
-      <c r="AJ18" s="273"/>
-      <c r="AK18" s="272"/>
-      <c r="AL18" s="273"/>
-      <c r="AM18" s="272"/>
-      <c r="AN18" s="273"/>
-      <c r="AO18" s="272"/>
-      <c r="AP18" s="273"/>
-      <c r="AQ18" s="272"/>
-      <c r="AR18" s="273"/>
-      <c r="AS18" s="272"/>
-      <c r="AT18" s="273"/>
-      <c r="AU18" s="272"/>
-      <c r="AV18" s="273"/>
-      <c r="AW18" s="272"/>
-      <c r="AX18" s="273"/>
-      <c r="AY18" s="272"/>
-      <c r="AZ18" s="273"/>
-      <c r="BA18" s="272"/>
-      <c r="BB18" s="273"/>
-      <c r="BC18" s="272"/>
-      <c r="BD18" s="273"/>
     </row>
-    <row r="19" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J19">
+    <row r="21" spans="9:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I21" s="154"/>
+      <c r="N21" s="154"/>
+      <c r="O21" s="342"/>
+      <c r="P21" s="342"/>
+      <c r="Q21" s="342"/>
+      <c r="R21" s="342"/>
+      <c r="S21" s="342"/>
+      <c r="T21" s="342"/>
+      <c r="U21" s="342"/>
+      <c r="V21" s="342"/>
+      <c r="W21" s="342"/>
+      <c r="X21" s="342"/>
+      <c r="Y21" s="340"/>
+      <c r="Z21" s="340"/>
+      <c r="AA21" s="340"/>
+      <c r="AB21" s="340"/>
+      <c r="AC21" s="340"/>
+      <c r="AD21" s="340"/>
+      <c r="AE21" s="340"/>
+      <c r="AF21" s="340"/>
+      <c r="AG21" s="340"/>
+      <c r="AH21" s="340"/>
+      <c r="AI21" s="340"/>
+      <c r="AJ21" s="340"/>
+      <c r="AK21" s="340"/>
+      <c r="AL21" s="340"/>
+      <c r="AM21" s="340"/>
+      <c r="AN21" s="340"/>
+      <c r="AO21" s="340"/>
+      <c r="AP21" s="340"/>
+      <c r="AQ21" s="340"/>
+      <c r="AR21" s="340"/>
+      <c r="AS21" s="340"/>
+      <c r="AT21" s="340"/>
+      <c r="AU21" s="340"/>
+      <c r="AV21" s="340"/>
+      <c r="AW21" s="340"/>
+      <c r="AX21" s="340"/>
+      <c r="AY21" s="340"/>
+      <c r="AZ21" s="340"/>
+      <c r="BA21" s="340"/>
+      <c r="BB21" s="340"/>
+      <c r="BC21" s="340"/>
+      <c r="BD21" s="340"/>
+      <c r="BE21" s="340"/>
+      <c r="BF21" s="340"/>
+      <c r="BG21" s="340"/>
+      <c r="BH21" s="340"/>
+      <c r="BI21" s="339"/>
+      <c r="BJ21" s="339"/>
+      <c r="BK21" s="339"/>
+      <c r="BL21" s="341"/>
+      <c r="BM21" s="341"/>
+      <c r="BN21" s="341"/>
+      <c r="BO21" s="341"/>
+      <c r="BP21" s="341"/>
+      <c r="BQ21" s="341"/>
+      <c r="BR21" s="341"/>
+      <c r="BS21" s="341"/>
+      <c r="BT21" s="341"/>
+      <c r="BU21" s="341"/>
+      <c r="BV21" s="341"/>
+      <c r="BW21" s="341"/>
+      <c r="BX21" s="341"/>
+      <c r="BY21" s="341"/>
+      <c r="BZ21" s="341"/>
+      <c r="CA21" s="341"/>
+      <c r="CB21" s="341"/>
+      <c r="CC21" s="341"/>
+      <c r="CD21" s="341"/>
+      <c r="CE21" s="341"/>
+      <c r="CF21" s="341"/>
+      <c r="CG21" s="341"/>
+      <c r="CH21" s="341"/>
+      <c r="CI21" s="339"/>
+      <c r="CJ21" s="156">
         <v>15</v>
       </c>
-      <c r="K19" s="273"/>
-      <c r="L19" s="272"/>
-      <c r="M19" s="273"/>
-      <c r="N19" s="272"/>
-      <c r="O19" s="273"/>
-      <c r="P19" s="272"/>
-      <c r="Q19" s="273"/>
-      <c r="R19" s="272"/>
-      <c r="S19" s="273"/>
-      <c r="T19" s="272"/>
-      <c r="U19" s="273"/>
-      <c r="V19" s="272"/>
-      <c r="W19" s="273"/>
-      <c r="X19" s="272"/>
-      <c r="Y19" s="273"/>
-      <c r="Z19" s="272"/>
-      <c r="AA19" s="273"/>
-      <c r="AB19" s="272"/>
-      <c r="AC19" s="273"/>
-      <c r="AD19" s="272"/>
-      <c r="AE19" s="273"/>
-      <c r="AF19" s="272"/>
-      <c r="AG19" s="273"/>
-      <c r="AH19" s="272"/>
-      <c r="AI19" s="273"/>
-      <c r="AJ19" s="272"/>
-      <c r="AK19" s="273"/>
-      <c r="AL19" s="272"/>
-      <c r="AM19" s="273"/>
-      <c r="AN19" s="272"/>
-      <c r="AO19" s="273"/>
-      <c r="AP19" s="272"/>
-      <c r="AQ19" s="273"/>
-      <c r="AR19" s="272"/>
-      <c r="AS19" s="273"/>
-      <c r="AT19" s="272"/>
-      <c r="AU19" s="273"/>
-      <c r="AV19" s="272"/>
-      <c r="AW19" s="273"/>
-      <c r="AX19" s="272"/>
-      <c r="AY19" s="273"/>
-      <c r="AZ19" s="272"/>
-      <c r="BA19" s="273"/>
-      <c r="BB19" s="272"/>
-      <c r="BC19" s="273"/>
-      <c r="BD19" s="272"/>
     </row>
-    <row r="20" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J20">
+    <row r="22" spans="9:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J22" s="157"/>
+      <c r="K22" s="157"/>
+      <c r="L22" s="157"/>
+      <c r="M22" s="157"/>
+      <c r="N22" s="157"/>
+      <c r="O22" s="157"/>
+      <c r="P22" s="157"/>
+      <c r="Q22" s="157"/>
+      <c r="R22" s="160"/>
+      <c r="S22" s="339"/>
+      <c r="T22" s="339"/>
+      <c r="U22" s="339"/>
+      <c r="V22" s="339"/>
+      <c r="W22" s="339"/>
+      <c r="X22" s="339"/>
+      <c r="Y22" s="340"/>
+      <c r="Z22" s="340"/>
+      <c r="AA22" s="339"/>
+      <c r="AB22" s="339"/>
+      <c r="AC22" s="339"/>
+      <c r="AD22" s="339"/>
+      <c r="AE22" s="339"/>
+      <c r="AF22" s="339"/>
+      <c r="AG22" s="339"/>
+      <c r="AH22" s="339"/>
+      <c r="AI22" s="339"/>
+      <c r="AJ22" s="339"/>
+      <c r="AK22" s="339"/>
+      <c r="AL22" s="339"/>
+      <c r="AM22" s="339"/>
+      <c r="AN22" s="339"/>
+      <c r="AO22" s="339"/>
+      <c r="AP22" s="339"/>
+      <c r="AQ22" s="339"/>
+      <c r="AR22" s="339"/>
+      <c r="AS22" s="339"/>
+      <c r="AT22" s="339"/>
+      <c r="AU22" s="339"/>
+      <c r="AV22" s="339"/>
+      <c r="AW22" s="339"/>
+      <c r="AX22" s="339"/>
+      <c r="AY22" s="339"/>
+      <c r="AZ22" s="339"/>
+      <c r="BA22" s="339"/>
+      <c r="BB22" s="339"/>
+      <c r="BC22" s="339"/>
+      <c r="BD22" s="339"/>
+      <c r="BE22" s="339"/>
+      <c r="BF22" s="339"/>
+      <c r="BG22" s="339"/>
+      <c r="BH22" s="339"/>
+      <c r="BI22" s="339"/>
+      <c r="BJ22" s="339"/>
+      <c r="BK22" s="339"/>
+      <c r="BL22" s="341"/>
+      <c r="BM22" s="341"/>
+      <c r="BN22" s="341"/>
+      <c r="BO22" s="341"/>
+      <c r="BP22" s="341"/>
+      <c r="BQ22" s="341"/>
+      <c r="BR22" s="341"/>
+      <c r="BS22" s="341"/>
+      <c r="BT22" s="341"/>
+      <c r="BU22" s="341"/>
+      <c r="BV22" s="341"/>
+      <c r="BW22" s="341"/>
+      <c r="BX22" s="341"/>
+      <c r="BY22" s="341"/>
+      <c r="BZ22" s="341"/>
+      <c r="CA22" s="341"/>
+      <c r="CB22" s="341"/>
+      <c r="CC22" s="341"/>
+      <c r="CD22" s="341"/>
+      <c r="CE22" s="341"/>
+      <c r="CF22" s="341"/>
+      <c r="CG22" s="341"/>
+      <c r="CH22" s="341"/>
+      <c r="CI22" s="339"/>
+      <c r="CJ22" s="156">
         <v>16</v>
       </c>
-      <c r="K20" s="272"/>
-      <c r="L20" s="273"/>
-      <c r="M20" s="272"/>
-      <c r="N20" s="273"/>
-      <c r="O20" s="272"/>
-      <c r="P20" s="273"/>
-      <c r="Q20" s="272"/>
-      <c r="R20" s="273"/>
-      <c r="S20" s="272"/>
-      <c r="T20" s="273"/>
-      <c r="U20" s="272"/>
-      <c r="V20" s="273"/>
-      <c r="W20" s="272"/>
-      <c r="X20" s="273"/>
-      <c r="Y20" s="272"/>
-      <c r="Z20" s="273"/>
-      <c r="AA20" s="272"/>
-      <c r="AB20" s="273"/>
-      <c r="AC20" s="272"/>
-      <c r="AD20" s="273"/>
-      <c r="AE20" s="272"/>
-      <c r="AF20" s="273"/>
-      <c r="AG20" s="272"/>
-      <c r="AH20" s="273"/>
-      <c r="AI20" s="272"/>
-      <c r="AJ20" s="273"/>
-      <c r="AK20" s="272"/>
-      <c r="AL20" s="273"/>
-      <c r="AM20" s="272"/>
-      <c r="AN20" s="273"/>
-      <c r="AO20" s="272"/>
-      <c r="AP20" s="273"/>
-      <c r="AQ20" s="272"/>
-      <c r="AR20" s="273"/>
-      <c r="AS20" s="272"/>
-      <c r="AT20" s="273"/>
-      <c r="AU20" s="272"/>
-      <c r="AV20" s="273"/>
-      <c r="AW20" s="272"/>
-      <c r="AX20" s="273"/>
-      <c r="AY20" s="272"/>
-      <c r="AZ20" s="273"/>
-      <c r="BA20" s="272"/>
-      <c r="BB20" s="273"/>
-      <c r="BC20" s="272"/>
-      <c r="BD20" s="273"/>
     </row>
-    <row r="21" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J21">
+    <row r="23" spans="9:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R23" s="154"/>
+      <c r="S23" s="339"/>
+      <c r="T23" s="340"/>
+      <c r="U23" s="340"/>
+      <c r="V23" s="340"/>
+      <c r="W23" s="340"/>
+      <c r="X23" s="339"/>
+      <c r="Y23" s="340"/>
+      <c r="Z23" s="340"/>
+      <c r="AA23" s="339"/>
+      <c r="AB23" s="340"/>
+      <c r="AC23" s="340"/>
+      <c r="AD23" s="340"/>
+      <c r="AE23" s="340"/>
+      <c r="AF23" s="339"/>
+      <c r="AG23" s="339"/>
+      <c r="AH23" s="340"/>
+      <c r="AI23" s="340"/>
+      <c r="AJ23" s="340"/>
+      <c r="AK23" s="340"/>
+      <c r="AL23" s="340"/>
+      <c r="AM23" s="340"/>
+      <c r="AN23" s="340"/>
+      <c r="AO23" s="340"/>
+      <c r="AP23" s="339"/>
+      <c r="AQ23" s="339"/>
+      <c r="AR23" s="340"/>
+      <c r="AS23" s="340"/>
+      <c r="AT23" s="340"/>
+      <c r="AU23" s="340"/>
+      <c r="AV23" s="340"/>
+      <c r="AW23" s="340"/>
+      <c r="AX23" s="340"/>
+      <c r="AY23" s="340"/>
+      <c r="AZ23" s="339"/>
+      <c r="BA23" s="339"/>
+      <c r="BB23" s="340"/>
+      <c r="BC23" s="340"/>
+      <c r="BD23" s="340"/>
+      <c r="BE23" s="340"/>
+      <c r="BF23" s="340"/>
+      <c r="BG23" s="340"/>
+      <c r="BH23" s="340"/>
+      <c r="BI23" s="340"/>
+      <c r="BJ23" s="339"/>
+      <c r="BK23" s="339"/>
+      <c r="BL23" s="341"/>
+      <c r="BM23" s="341"/>
+      <c r="BN23" s="341"/>
+      <c r="BO23" s="341"/>
+      <c r="BP23" s="341"/>
+      <c r="BQ23" s="341"/>
+      <c r="BR23" s="341"/>
+      <c r="BS23" s="341"/>
+      <c r="BT23" s="341"/>
+      <c r="BU23" s="341"/>
+      <c r="BV23" s="341"/>
+      <c r="BW23" s="341"/>
+      <c r="BX23" s="341"/>
+      <c r="BY23" s="341"/>
+      <c r="BZ23" s="341"/>
+      <c r="CA23" s="341"/>
+      <c r="CB23" s="341"/>
+      <c r="CC23" s="341"/>
+      <c r="CD23" s="341"/>
+      <c r="CE23" s="341"/>
+      <c r="CF23" s="341"/>
+      <c r="CG23" s="341"/>
+      <c r="CH23" s="341"/>
+      <c r="CI23" s="339"/>
+      <c r="CJ23" s="156">
         <v>17</v>
       </c>
-      <c r="K21" s="273"/>
-      <c r="L21" s="272"/>
-      <c r="M21" s="273"/>
-      <c r="N21" s="272"/>
-      <c r="O21" s="273"/>
-      <c r="P21" s="272"/>
-      <c r="Q21" s="273"/>
-      <c r="R21" s="272"/>
-      <c r="S21" s="273"/>
-      <c r="T21" s="272"/>
-      <c r="U21" s="273"/>
-      <c r="V21" s="272"/>
-      <c r="W21" s="273"/>
-      <c r="X21" s="272"/>
-      <c r="Y21" s="273"/>
-      <c r="Z21" s="272"/>
-      <c r="AA21" s="273"/>
-      <c r="AB21" s="272"/>
-      <c r="AC21" s="273"/>
-      <c r="AD21" s="272"/>
-      <c r="AE21" s="273"/>
-      <c r="AF21" s="272"/>
-      <c r="AG21" s="273"/>
-      <c r="AH21" s="272"/>
-      <c r="AI21" s="273"/>
-      <c r="AJ21" s="272"/>
-      <c r="AK21" s="273"/>
-      <c r="AL21" s="272"/>
-      <c r="AM21" s="273"/>
-      <c r="AN21" s="272"/>
-      <c r="AO21" s="273"/>
-      <c r="AP21" s="272"/>
-      <c r="AQ21" s="273"/>
-      <c r="AR21" s="272"/>
-      <c r="AS21" s="273"/>
-      <c r="AT21" s="272"/>
-      <c r="AU21" s="273"/>
-      <c r="AV21" s="272"/>
-      <c r="AW21" s="273"/>
-      <c r="AX21" s="272"/>
-      <c r="AY21" s="273"/>
-      <c r="AZ21" s="272"/>
-      <c r="BA21" s="273"/>
-      <c r="BB21" s="272"/>
-      <c r="BC21" s="273"/>
-      <c r="BD21" s="272"/>
     </row>
-    <row r="22" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J22">
+    <row r="24" spans="9:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R24" s="154"/>
+      <c r="S24" s="339"/>
+      <c r="T24" s="340"/>
+      <c r="U24" s="340"/>
+      <c r="V24" s="340"/>
+      <c r="W24" s="340"/>
+      <c r="X24" s="339"/>
+      <c r="Y24" s="340"/>
+      <c r="Z24" s="340"/>
+      <c r="AA24" s="339"/>
+      <c r="AB24" s="340"/>
+      <c r="AC24" s="340"/>
+      <c r="AD24" s="340"/>
+      <c r="AE24" s="340"/>
+      <c r="AF24" s="339"/>
+      <c r="AG24" s="339"/>
+      <c r="AH24" s="340"/>
+      <c r="AI24" s="340"/>
+      <c r="AJ24" s="340"/>
+      <c r="AK24" s="340"/>
+      <c r="AL24" s="340"/>
+      <c r="AM24" s="340"/>
+      <c r="AN24" s="340"/>
+      <c r="AO24" s="340"/>
+      <c r="AP24" s="339"/>
+      <c r="AQ24" s="339"/>
+      <c r="AR24" s="340"/>
+      <c r="AS24" s="340"/>
+      <c r="AT24" s="340"/>
+      <c r="AU24" s="340"/>
+      <c r="AV24" s="340"/>
+      <c r="AW24" s="340"/>
+      <c r="AX24" s="340"/>
+      <c r="AY24" s="340"/>
+      <c r="AZ24" s="339"/>
+      <c r="BA24" s="339"/>
+      <c r="BB24" s="340"/>
+      <c r="BC24" s="340"/>
+      <c r="BD24" s="340"/>
+      <c r="BE24" s="340"/>
+      <c r="BF24" s="340"/>
+      <c r="BG24" s="340"/>
+      <c r="BH24" s="340"/>
+      <c r="BI24" s="340"/>
+      <c r="BJ24" s="339"/>
+      <c r="BK24" s="339"/>
+      <c r="BL24" s="341"/>
+      <c r="BM24" s="341"/>
+      <c r="BN24" s="341"/>
+      <c r="BO24" s="341"/>
+      <c r="BP24" s="341"/>
+      <c r="BQ24" s="341"/>
+      <c r="BR24" s="341"/>
+      <c r="BS24" s="341"/>
+      <c r="BT24" s="341"/>
+      <c r="BU24" s="341"/>
+      <c r="BV24" s="341"/>
+      <c r="BW24" s="341"/>
+      <c r="BX24" s="341"/>
+      <c r="BY24" s="341"/>
+      <c r="BZ24" s="341"/>
+      <c r="CA24" s="341"/>
+      <c r="CB24" s="341"/>
+      <c r="CC24" s="341"/>
+      <c r="CD24" s="341"/>
+      <c r="CE24" s="341"/>
+      <c r="CF24" s="341"/>
+      <c r="CG24" s="341"/>
+      <c r="CH24" s="341"/>
+      <c r="CI24" s="339"/>
+      <c r="CJ24" s="156">
         <v>18</v>
       </c>
-      <c r="K22" s="272"/>
-      <c r="L22" s="273"/>
-      <c r="M22" s="272"/>
-      <c r="N22" s="273"/>
-      <c r="O22" s="272"/>
-      <c r="P22" s="273"/>
-      <c r="Q22" s="272"/>
-      <c r="R22" s="273"/>
-      <c r="S22" s="272"/>
-      <c r="T22" s="273"/>
-      <c r="U22" s="272"/>
-      <c r="V22" s="273"/>
-      <c r="W22" s="272"/>
-      <c r="X22" s="273"/>
-      <c r="Y22" s="272"/>
-      <c r="Z22" s="273"/>
-      <c r="AA22" s="272"/>
-      <c r="AB22" s="273"/>
-      <c r="AC22" s="272"/>
-      <c r="AD22" s="273"/>
-      <c r="AE22" s="272"/>
-      <c r="AF22" s="273"/>
-      <c r="AG22" s="272"/>
-      <c r="AH22" s="273"/>
-      <c r="AI22" s="272"/>
-      <c r="AJ22" s="273"/>
-      <c r="AK22" s="272"/>
-      <c r="AL22" s="273"/>
-      <c r="AM22" s="272"/>
-      <c r="AN22" s="273"/>
-      <c r="AO22" s="272"/>
-      <c r="AP22" s="273"/>
-      <c r="AQ22" s="272"/>
-      <c r="AR22" s="273"/>
-      <c r="AS22" s="272"/>
-      <c r="AT22" s="273"/>
-      <c r="AU22" s="272"/>
-      <c r="AV22" s="273"/>
-      <c r="AW22" s="272"/>
-      <c r="AX22" s="273"/>
-      <c r="AY22" s="272"/>
-      <c r="AZ22" s="273"/>
-      <c r="BA22" s="272"/>
-      <c r="BB22" s="273"/>
-      <c r="BC22" s="272"/>
-      <c r="BD22" s="273"/>
     </row>
-    <row r="23" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J23">
+    <row r="25" spans="9:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R25" s="154"/>
+      <c r="S25" s="339"/>
+      <c r="T25" s="340"/>
+      <c r="U25" s="340"/>
+      <c r="V25" s="340"/>
+      <c r="W25" s="340"/>
+      <c r="X25" s="339"/>
+      <c r="Y25" s="340"/>
+      <c r="Z25" s="340"/>
+      <c r="AA25" s="339"/>
+      <c r="AB25" s="340"/>
+      <c r="AC25" s="340"/>
+      <c r="AD25" s="340"/>
+      <c r="AE25" s="340"/>
+      <c r="AF25" s="339"/>
+      <c r="AG25" s="339"/>
+      <c r="AH25" s="340"/>
+      <c r="AI25" s="340"/>
+      <c r="AJ25" s="340"/>
+      <c r="AK25" s="340"/>
+      <c r="AL25" s="340"/>
+      <c r="AM25" s="340"/>
+      <c r="AN25" s="340"/>
+      <c r="AO25" s="340"/>
+      <c r="AP25" s="339"/>
+      <c r="AQ25" s="339"/>
+      <c r="AR25" s="340"/>
+      <c r="AS25" s="340"/>
+      <c r="AT25" s="340"/>
+      <c r="AU25" s="340"/>
+      <c r="AV25" s="340"/>
+      <c r="AW25" s="340"/>
+      <c r="AX25" s="340"/>
+      <c r="AY25" s="340"/>
+      <c r="AZ25" s="339"/>
+      <c r="BA25" s="339"/>
+      <c r="BB25" s="340"/>
+      <c r="BC25" s="340"/>
+      <c r="BD25" s="340"/>
+      <c r="BE25" s="340"/>
+      <c r="BF25" s="340"/>
+      <c r="BG25" s="340"/>
+      <c r="BH25" s="340"/>
+      <c r="BI25" s="340"/>
+      <c r="BJ25" s="339"/>
+      <c r="BK25" s="339"/>
+      <c r="BL25" s="341"/>
+      <c r="BM25" s="341"/>
+      <c r="BN25" s="341"/>
+      <c r="BO25" s="341"/>
+      <c r="BP25" s="341"/>
+      <c r="BQ25" s="341"/>
+      <c r="BR25" s="341"/>
+      <c r="BS25" s="341"/>
+      <c r="BT25" s="341"/>
+      <c r="BU25" s="341"/>
+      <c r="BV25" s="341"/>
+      <c r="BW25" s="341"/>
+      <c r="BX25" s="341"/>
+      <c r="BY25" s="341"/>
+      <c r="BZ25" s="341"/>
+      <c r="CA25" s="341"/>
+      <c r="CB25" s="341"/>
+      <c r="CC25" s="341"/>
+      <c r="CD25" s="341"/>
+      <c r="CE25" s="341"/>
+      <c r="CF25" s="341"/>
+      <c r="CG25" s="341"/>
+      <c r="CH25" s="341"/>
+      <c r="CI25" s="339"/>
+      <c r="CJ25" s="156">
         <v>19</v>
       </c>
-      <c r="K23" s="273"/>
-      <c r="L23" s="272"/>
-      <c r="M23" s="273"/>
-      <c r="N23" s="272"/>
-      <c r="O23" s="273"/>
-      <c r="P23" s="272"/>
-      <c r="Q23" s="273"/>
-      <c r="R23" s="272"/>
-      <c r="S23" s="273"/>
-      <c r="T23" s="272"/>
-      <c r="U23" s="273"/>
-      <c r="V23" s="272"/>
-      <c r="W23" s="273"/>
-      <c r="X23" s="272"/>
-      <c r="Y23" s="273"/>
-      <c r="Z23" s="272"/>
-      <c r="AA23" s="273"/>
-      <c r="AB23" s="272"/>
-      <c r="AC23" s="273"/>
-      <c r="AD23" s="272"/>
-      <c r="AE23" s="273"/>
-      <c r="AF23" s="272"/>
-      <c r="AG23" s="273"/>
-      <c r="AH23" s="272"/>
-      <c r="AI23" s="273"/>
-      <c r="AJ23" s="272"/>
-      <c r="AK23" s="273"/>
-      <c r="AL23" s="272"/>
-      <c r="AM23" s="273"/>
-      <c r="AN23" s="272"/>
-      <c r="AO23" s="273"/>
-      <c r="AP23" s="272"/>
-      <c r="AQ23" s="273"/>
-      <c r="AR23" s="272"/>
-      <c r="AS23" s="273"/>
-      <c r="AT23" s="272"/>
-      <c r="AU23" s="273"/>
-      <c r="AV23" s="272"/>
-      <c r="AW23" s="273"/>
-      <c r="AX23" s="272"/>
-      <c r="AY23" s="273"/>
-      <c r="AZ23" s="272"/>
-      <c r="BA23" s="273"/>
-      <c r="BB23" s="272"/>
-      <c r="BC23" s="273"/>
-      <c r="BD23" s="272"/>
     </row>
-    <row r="24" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J24">
+    <row r="26" spans="9:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R26" s="154"/>
+      <c r="S26" s="339"/>
+      <c r="T26" s="339"/>
+      <c r="U26" s="339"/>
+      <c r="V26" s="339"/>
+      <c r="W26" s="339"/>
+      <c r="X26" s="339"/>
+      <c r="Y26" s="339"/>
+      <c r="Z26" s="339"/>
+      <c r="AA26" s="339"/>
+      <c r="AB26" s="339"/>
+      <c r="AC26" s="339"/>
+      <c r="AD26" s="339"/>
+      <c r="AE26" s="339"/>
+      <c r="AF26" s="339"/>
+      <c r="AG26" s="339"/>
+      <c r="AH26" s="340"/>
+      <c r="AI26" s="340"/>
+      <c r="AJ26" s="340"/>
+      <c r="AK26" s="340"/>
+      <c r="AL26" s="340"/>
+      <c r="AM26" s="340"/>
+      <c r="AN26" s="340"/>
+      <c r="AO26" s="340"/>
+      <c r="AP26" s="339"/>
+      <c r="AQ26" s="339"/>
+      <c r="AR26" s="340"/>
+      <c r="AS26" s="340"/>
+      <c r="AT26" s="340"/>
+      <c r="AU26" s="340"/>
+      <c r="AV26" s="340"/>
+      <c r="AW26" s="340"/>
+      <c r="AX26" s="340"/>
+      <c r="AY26" s="340"/>
+      <c r="AZ26" s="339"/>
+      <c r="BA26" s="339"/>
+      <c r="BB26" s="340"/>
+      <c r="BC26" s="340"/>
+      <c r="BD26" s="340"/>
+      <c r="BE26" s="340"/>
+      <c r="BF26" s="340"/>
+      <c r="BG26" s="340"/>
+      <c r="BH26" s="340"/>
+      <c r="BI26" s="340"/>
+      <c r="BJ26" s="339"/>
+      <c r="BK26" s="339"/>
+      <c r="BL26" s="341"/>
+      <c r="BM26" s="341"/>
+      <c r="BN26" s="341"/>
+      <c r="BO26" s="341"/>
+      <c r="BP26" s="341"/>
+      <c r="BQ26" s="341"/>
+      <c r="BR26" s="341"/>
+      <c r="BS26" s="341"/>
+      <c r="BT26" s="341"/>
+      <c r="BU26" s="341"/>
+      <c r="BV26" s="341"/>
+      <c r="BW26" s="341"/>
+      <c r="BX26" s="341"/>
+      <c r="BY26" s="341"/>
+      <c r="BZ26" s="341"/>
+      <c r="CA26" s="341"/>
+      <c r="CB26" s="341"/>
+      <c r="CC26" s="341"/>
+      <c r="CD26" s="341"/>
+      <c r="CE26" s="341"/>
+      <c r="CF26" s="341"/>
+      <c r="CG26" s="341"/>
+      <c r="CH26" s="341"/>
+      <c r="CI26" s="339"/>
+      <c r="CJ26" s="156">
         <v>20</v>
       </c>
-      <c r="K24" s="272"/>
-      <c r="L24" s="273"/>
-      <c r="M24" s="272"/>
-      <c r="N24" s="273"/>
-      <c r="O24" s="272"/>
-      <c r="P24" s="273"/>
-      <c r="Q24" s="272"/>
-      <c r="R24" s="273"/>
-      <c r="S24" s="272"/>
-      <c r="T24" s="273"/>
-      <c r="U24" s="272"/>
-      <c r="V24" s="273"/>
-      <c r="W24" s="272"/>
-      <c r="X24" s="273"/>
-      <c r="Y24" s="272"/>
-      <c r="Z24" s="273"/>
-      <c r="AA24" s="272"/>
-      <c r="AB24" s="273"/>
-      <c r="AC24" s="272"/>
-      <c r="AD24" s="273"/>
-      <c r="AE24" s="272"/>
-      <c r="AF24" s="273"/>
-      <c r="AG24" s="272"/>
-      <c r="AH24" s="273"/>
-      <c r="AI24" s="272"/>
-      <c r="AJ24" s="273"/>
-      <c r="AK24" s="272"/>
-      <c r="AL24" s="273"/>
-      <c r="AM24" s="272"/>
-      <c r="AN24" s="273"/>
-      <c r="AO24" s="272"/>
-      <c r="AP24" s="273"/>
-      <c r="AQ24" s="272"/>
-      <c r="AR24" s="273"/>
-      <c r="AS24" s="272"/>
-      <c r="AT24" s="273"/>
-      <c r="AU24" s="272"/>
-      <c r="AV24" s="273"/>
-      <c r="AW24" s="272"/>
-      <c r="AX24" s="273"/>
-      <c r="AY24" s="272"/>
-      <c r="AZ24" s="273"/>
-      <c r="BA24" s="272"/>
-      <c r="BB24" s="273"/>
-      <c r="BC24" s="272"/>
-      <c r="BD24" s="273"/>
     </row>
-    <row r="25" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J25">
+    <row r="27" spans="9:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S27" s="157"/>
+      <c r="T27" s="157"/>
+      <c r="U27" s="157"/>
+      <c r="V27" s="157"/>
+      <c r="W27" s="157"/>
+      <c r="X27" s="157"/>
+      <c r="Y27" s="157"/>
+      <c r="Z27" s="157"/>
+      <c r="AA27" s="157"/>
+      <c r="AB27" s="157"/>
+      <c r="AC27" s="157"/>
+      <c r="AD27" s="157"/>
+      <c r="AE27" s="157"/>
+      <c r="AF27" s="160"/>
+      <c r="AG27" s="339"/>
+      <c r="AH27" s="340"/>
+      <c r="AI27" s="340"/>
+      <c r="AJ27" s="340"/>
+      <c r="AK27" s="340"/>
+      <c r="AL27" s="340"/>
+      <c r="AM27" s="340"/>
+      <c r="AN27" s="340"/>
+      <c r="AO27" s="340"/>
+      <c r="AP27" s="339"/>
+      <c r="AQ27" s="339"/>
+      <c r="AR27" s="340"/>
+      <c r="AS27" s="340"/>
+      <c r="AT27" s="340"/>
+      <c r="AU27" s="340"/>
+      <c r="AV27" s="340"/>
+      <c r="AW27" s="340"/>
+      <c r="AX27" s="340"/>
+      <c r="AY27" s="340"/>
+      <c r="AZ27" s="339"/>
+      <c r="BA27" s="339"/>
+      <c r="BB27" s="340"/>
+      <c r="BC27" s="340"/>
+      <c r="BD27" s="340"/>
+      <c r="BE27" s="340"/>
+      <c r="BF27" s="340"/>
+      <c r="BG27" s="340"/>
+      <c r="BH27" s="340"/>
+      <c r="BI27" s="340"/>
+      <c r="BJ27" s="339"/>
+      <c r="BK27" s="339"/>
+      <c r="BL27" s="341"/>
+      <c r="BM27" s="341"/>
+      <c r="BN27" s="341"/>
+      <c r="BO27" s="341"/>
+      <c r="BP27" s="341"/>
+      <c r="BQ27" s="341"/>
+      <c r="BR27" s="341"/>
+      <c r="BS27" s="341"/>
+      <c r="BT27" s="341"/>
+      <c r="BU27" s="341"/>
+      <c r="BV27" s="341"/>
+      <c r="BW27" s="341"/>
+      <c r="BX27" s="341"/>
+      <c r="BY27" s="341"/>
+      <c r="BZ27" s="341"/>
+      <c r="CA27" s="341"/>
+      <c r="CB27" s="341"/>
+      <c r="CC27" s="341"/>
+      <c r="CD27" s="341"/>
+      <c r="CE27" s="341"/>
+      <c r="CF27" s="341"/>
+      <c r="CG27" s="341"/>
+      <c r="CH27" s="341"/>
+      <c r="CI27" s="339"/>
+      <c r="CJ27" s="156">
         <v>21</v>
       </c>
-      <c r="K25" s="273"/>
-      <c r="L25" s="272"/>
-      <c r="M25" s="273"/>
-      <c r="N25" s="272"/>
-      <c r="O25" s="273"/>
-      <c r="P25" s="272"/>
-      <c r="Q25" s="273"/>
-      <c r="R25" s="272"/>
-      <c r="S25" s="273"/>
-      <c r="T25" s="272"/>
-      <c r="U25" s="273"/>
-      <c r="V25" s="272"/>
-      <c r="W25" s="273"/>
-      <c r="X25" s="272"/>
-      <c r="Y25" s="273"/>
-      <c r="Z25" s="272"/>
-      <c r="AA25" s="273"/>
-      <c r="AB25" s="272"/>
-      <c r="AC25" s="273"/>
-      <c r="AD25" s="272"/>
-      <c r="AE25" s="273"/>
-      <c r="AF25" s="272"/>
-      <c r="AG25" s="273"/>
-      <c r="AH25" s="272"/>
-      <c r="AI25" s="273"/>
-      <c r="AJ25" s="272"/>
-      <c r="AK25" s="273"/>
-      <c r="AL25" s="272"/>
-      <c r="AM25" s="273"/>
-      <c r="AN25" s="272"/>
-      <c r="AO25" s="273"/>
-      <c r="AP25" s="272"/>
-      <c r="AQ25" s="273"/>
-      <c r="AR25" s="272"/>
-      <c r="AS25" s="273"/>
-      <c r="AT25" s="272"/>
-      <c r="AU25" s="273"/>
-      <c r="AV25" s="272"/>
-      <c r="AW25" s="273"/>
-      <c r="AX25" s="272"/>
-      <c r="AY25" s="273"/>
-      <c r="AZ25" s="272"/>
-      <c r="BA25" s="273"/>
-      <c r="BB25" s="272"/>
-      <c r="BC25" s="273"/>
-      <c r="BD25" s="272"/>
     </row>
-    <row r="26" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J26">
+    <row r="28" spans="9:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF28" s="154"/>
+      <c r="AG28" s="339"/>
+      <c r="AH28" s="340"/>
+      <c r="AI28" s="340"/>
+      <c r="AJ28" s="340"/>
+      <c r="AK28" s="340"/>
+      <c r="AL28" s="340"/>
+      <c r="AM28" s="340"/>
+      <c r="AN28" s="340"/>
+      <c r="AO28" s="340"/>
+      <c r="AP28" s="339"/>
+      <c r="AQ28" s="339"/>
+      <c r="AR28" s="340"/>
+      <c r="AS28" s="340"/>
+      <c r="AT28" s="340"/>
+      <c r="AU28" s="340"/>
+      <c r="AV28" s="340"/>
+      <c r="AW28" s="340"/>
+      <c r="AX28" s="340"/>
+      <c r="AY28" s="340"/>
+      <c r="AZ28" s="339"/>
+      <c r="BA28" s="339"/>
+      <c r="BB28" s="340"/>
+      <c r="BC28" s="340"/>
+      <c r="BD28" s="340"/>
+      <c r="BE28" s="340"/>
+      <c r="BF28" s="340"/>
+      <c r="BG28" s="340"/>
+      <c r="BH28" s="340"/>
+      <c r="BI28" s="340"/>
+      <c r="BJ28" s="339"/>
+      <c r="BK28" s="339"/>
+      <c r="BL28" s="341"/>
+      <c r="BM28" s="341"/>
+      <c r="BN28" s="341"/>
+      <c r="BO28" s="341"/>
+      <c r="BP28" s="341"/>
+      <c r="BQ28" s="341"/>
+      <c r="BR28" s="341"/>
+      <c r="BS28" s="341"/>
+      <c r="BT28" s="341"/>
+      <c r="BU28" s="341"/>
+      <c r="BV28" s="341"/>
+      <c r="BW28" s="341"/>
+      <c r="BX28" s="341"/>
+      <c r="BY28" s="341"/>
+      <c r="BZ28" s="341"/>
+      <c r="CA28" s="341"/>
+      <c r="CB28" s="341"/>
+      <c r="CC28" s="341"/>
+      <c r="CD28" s="341"/>
+      <c r="CE28" s="341"/>
+      <c r="CF28" s="341"/>
+      <c r="CG28" s="341"/>
+      <c r="CH28" s="341"/>
+      <c r="CI28" s="339"/>
+      <c r="CJ28" s="156">
         <v>22</v>
       </c>
-      <c r="K26" s="272"/>
-      <c r="L26" s="273"/>
-      <c r="M26" s="272"/>
-      <c r="N26" s="273"/>
-      <c r="O26" s="272"/>
-      <c r="P26" s="273"/>
-      <c r="Q26" s="272"/>
-      <c r="R26" s="273"/>
-      <c r="S26" s="272"/>
-      <c r="T26" s="273"/>
-      <c r="U26" s="272"/>
-      <c r="V26" s="273"/>
-      <c r="W26" s="272"/>
-      <c r="X26" s="273"/>
-      <c r="Y26" s="272"/>
-      <c r="Z26" s="273"/>
-      <c r="AA26" s="272"/>
-      <c r="AB26" s="273"/>
-      <c r="AC26" s="272"/>
-      <c r="AD26" s="273"/>
-      <c r="AE26" s="272"/>
-      <c r="AF26" s="273"/>
-      <c r="AG26" s="272"/>
-      <c r="AH26" s="273"/>
-      <c r="AI26" s="272"/>
-      <c r="AJ26" s="273"/>
-      <c r="AK26" s="272"/>
-      <c r="AL26" s="273"/>
-      <c r="AM26" s="272"/>
-      <c r="AN26" s="273"/>
-      <c r="AO26" s="272"/>
-      <c r="AP26" s="273"/>
-      <c r="AQ26" s="272"/>
-      <c r="AR26" s="273"/>
-      <c r="AS26" s="272"/>
-      <c r="AT26" s="273"/>
-      <c r="AU26" s="272"/>
-      <c r="AV26" s="273"/>
-      <c r="AW26" s="272"/>
-      <c r="AX26" s="273"/>
-      <c r="AY26" s="272"/>
-      <c r="AZ26" s="273"/>
-      <c r="BA26" s="272"/>
-      <c r="BB26" s="273"/>
-      <c r="BC26" s="272"/>
-      <c r="BD26" s="273"/>
     </row>
-    <row r="27" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J27">
+    <row r="29" spans="9:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF29" s="154"/>
+      <c r="AG29" s="339"/>
+      <c r="AH29" s="340"/>
+      <c r="AI29" s="340"/>
+      <c r="AJ29" s="340"/>
+      <c r="AK29" s="340"/>
+      <c r="AL29" s="340"/>
+      <c r="AM29" s="340"/>
+      <c r="AN29" s="340"/>
+      <c r="AO29" s="340"/>
+      <c r="AP29" s="339"/>
+      <c r="AQ29" s="339"/>
+      <c r="AR29" s="340"/>
+      <c r="AS29" s="340"/>
+      <c r="AT29" s="340"/>
+      <c r="AU29" s="340"/>
+      <c r="AV29" s="340"/>
+      <c r="AW29" s="340"/>
+      <c r="AX29" s="340"/>
+      <c r="AY29" s="340"/>
+      <c r="AZ29" s="339"/>
+      <c r="BA29" s="339"/>
+      <c r="BB29" s="340"/>
+      <c r="BC29" s="340"/>
+      <c r="BD29" s="340"/>
+      <c r="BE29" s="340"/>
+      <c r="BF29" s="340"/>
+      <c r="BG29" s="340"/>
+      <c r="BH29" s="340"/>
+      <c r="BI29" s="340"/>
+      <c r="BJ29" s="339"/>
+      <c r="BK29" s="339"/>
+      <c r="BL29" s="341"/>
+      <c r="BM29" s="341"/>
+      <c r="BN29" s="341"/>
+      <c r="BO29" s="341"/>
+      <c r="BP29" s="341"/>
+      <c r="BQ29" s="341"/>
+      <c r="BR29" s="341"/>
+      <c r="BS29" s="341"/>
+      <c r="BT29" s="341"/>
+      <c r="BU29" s="341"/>
+      <c r="BV29" s="341"/>
+      <c r="BW29" s="341"/>
+      <c r="BX29" s="341"/>
+      <c r="BY29" s="341"/>
+      <c r="BZ29" s="341"/>
+      <c r="CA29" s="341"/>
+      <c r="CB29" s="341"/>
+      <c r="CC29" s="341"/>
+      <c r="CD29" s="341"/>
+      <c r="CE29" s="341"/>
+      <c r="CF29" s="341"/>
+      <c r="CG29" s="341"/>
+      <c r="CH29" s="341"/>
+      <c r="CI29" s="339"/>
+      <c r="CJ29" s="156">
         <v>23</v>
       </c>
-      <c r="K27" s="273"/>
-      <c r="L27" s="272"/>
-      <c r="M27" s="273"/>
-      <c r="N27" s="272"/>
-      <c r="O27" s="273"/>
-      <c r="P27" s="272"/>
-      <c r="Q27" s="273"/>
-      <c r="R27" s="272"/>
-      <c r="S27" s="273"/>
-      <c r="T27" s="272"/>
-      <c r="U27" s="273"/>
-      <c r="V27" s="272"/>
-      <c r="W27" s="273"/>
-      <c r="X27" s="272"/>
-      <c r="Y27" s="273"/>
-      <c r="Z27" s="272"/>
-      <c r="AA27" s="273"/>
-      <c r="AB27" s="272"/>
-      <c r="AC27" s="273"/>
-      <c r="AD27" s="272"/>
-      <c r="AE27" s="273"/>
-      <c r="AF27" s="272"/>
-      <c r="AG27" s="273"/>
-      <c r="AH27" s="272"/>
-      <c r="AI27" s="273"/>
-      <c r="AJ27" s="272"/>
-      <c r="AK27" s="273"/>
-      <c r="AL27" s="272"/>
-      <c r="AM27" s="273"/>
-      <c r="AN27" s="272"/>
-      <c r="AO27" s="273"/>
-      <c r="AP27" s="272"/>
-      <c r="AQ27" s="273"/>
-      <c r="AR27" s="272"/>
-      <c r="AS27" s="273"/>
-      <c r="AT27" s="272"/>
-      <c r="AU27" s="273"/>
-      <c r="AV27" s="272"/>
-      <c r="AW27" s="273"/>
-      <c r="AX27" s="272"/>
-      <c r="AY27" s="273"/>
-      <c r="AZ27" s="272"/>
-      <c r="BA27" s="273"/>
-      <c r="BB27" s="272"/>
-      <c r="BC27" s="273"/>
-      <c r="BD27" s="272"/>
     </row>
-    <row r="28" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J28">
+    <row r="30" spans="9:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF30" s="154"/>
+      <c r="AG30" s="339"/>
+      <c r="AH30" s="340"/>
+      <c r="AI30" s="340"/>
+      <c r="AJ30" s="340"/>
+      <c r="AK30" s="340"/>
+      <c r="AL30" s="340"/>
+      <c r="AM30" s="340"/>
+      <c r="AN30" s="340"/>
+      <c r="AO30" s="340"/>
+      <c r="AP30" s="339"/>
+      <c r="AQ30" s="339"/>
+      <c r="AR30" s="340"/>
+      <c r="AS30" s="340"/>
+      <c r="AT30" s="340"/>
+      <c r="AU30" s="340"/>
+      <c r="AV30" s="340"/>
+      <c r="AW30" s="340"/>
+      <c r="AX30" s="340"/>
+      <c r="AY30" s="340"/>
+      <c r="AZ30" s="339"/>
+      <c r="BA30" s="339"/>
+      <c r="BB30" s="340"/>
+      <c r="BC30" s="340"/>
+      <c r="BD30" s="340"/>
+      <c r="BE30" s="340"/>
+      <c r="BF30" s="340"/>
+      <c r="BG30" s="340"/>
+      <c r="BH30" s="340"/>
+      <c r="BI30" s="340"/>
+      <c r="BJ30" s="339"/>
+      <c r="BK30" s="339"/>
+      <c r="BL30" s="341"/>
+      <c r="BM30" s="341"/>
+      <c r="BN30" s="341"/>
+      <c r="BO30" s="341"/>
+      <c r="BP30" s="341"/>
+      <c r="BQ30" s="341"/>
+      <c r="BR30" s="341"/>
+      <c r="BS30" s="341"/>
+      <c r="BT30" s="341"/>
+      <c r="BU30" s="341"/>
+      <c r="BV30" s="341"/>
+      <c r="BW30" s="341"/>
+      <c r="BX30" s="341"/>
+      <c r="BY30" s="341"/>
+      <c r="BZ30" s="341"/>
+      <c r="CA30" s="341"/>
+      <c r="CB30" s="341"/>
+      <c r="CC30" s="341"/>
+      <c r="CD30" s="341"/>
+      <c r="CE30" s="341"/>
+      <c r="CF30" s="341"/>
+      <c r="CG30" s="341"/>
+      <c r="CH30" s="341"/>
+      <c r="CI30" s="339"/>
+      <c r="CJ30" s="156">
         <v>24</v>
       </c>
-      <c r="K28" s="272"/>
-      <c r="L28" s="273"/>
-      <c r="M28" s="272"/>
-      <c r="N28" s="273"/>
-      <c r="O28" s="272"/>
-      <c r="P28" s="273"/>
-      <c r="Q28" s="272"/>
-      <c r="R28" s="273"/>
-      <c r="S28" s="272"/>
-      <c r="T28" s="273"/>
-      <c r="U28" s="272"/>
-      <c r="V28" s="273"/>
-      <c r="W28" s="272"/>
-      <c r="X28" s="273"/>
-      <c r="Y28" s="272"/>
-      <c r="Z28" s="273"/>
-      <c r="AA28" s="272"/>
-      <c r="AB28" s="273"/>
-      <c r="AC28" s="272"/>
-      <c r="AD28" s="273"/>
-      <c r="AE28" s="272"/>
-      <c r="AF28" s="273"/>
-      <c r="AG28" s="272"/>
-      <c r="AH28" s="273"/>
-      <c r="AI28" s="272"/>
-      <c r="AJ28" s="273"/>
-      <c r="AK28" s="272"/>
-      <c r="AL28" s="273"/>
-      <c r="AM28" s="272"/>
-      <c r="AN28" s="273"/>
-      <c r="AO28" s="272"/>
-      <c r="AP28" s="273"/>
-      <c r="AQ28" s="272"/>
-      <c r="AR28" s="273"/>
-      <c r="AS28" s="272"/>
-      <c r="AT28" s="273"/>
-      <c r="AU28" s="272"/>
-      <c r="AV28" s="273"/>
-      <c r="AW28" s="272"/>
-      <c r="AX28" s="273"/>
-      <c r="AY28" s="272"/>
-      <c r="AZ28" s="273"/>
-      <c r="BA28" s="272"/>
-      <c r="BB28" s="273"/>
-      <c r="BC28" s="272"/>
-      <c r="BD28" s="273"/>
     </row>
-    <row r="29" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J29">
+    <row r="31" spans="9:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF31" s="154"/>
+      <c r="AG31" s="339"/>
+      <c r="AH31" s="339"/>
+      <c r="AI31" s="339"/>
+      <c r="AJ31" s="339"/>
+      <c r="AK31" s="339"/>
+      <c r="AL31" s="339"/>
+      <c r="AM31" s="339"/>
+      <c r="AN31" s="339"/>
+      <c r="AO31" s="339"/>
+      <c r="AP31" s="339"/>
+      <c r="AQ31" s="339"/>
+      <c r="AR31" s="339"/>
+      <c r="AS31" s="339"/>
+      <c r="AT31" s="339"/>
+      <c r="AU31" s="339"/>
+      <c r="AV31" s="339"/>
+      <c r="AW31" s="339"/>
+      <c r="AX31" s="339"/>
+      <c r="AY31" s="339"/>
+      <c r="AZ31" s="339"/>
+      <c r="BA31" s="339"/>
+      <c r="BB31" s="339"/>
+      <c r="BC31" s="339"/>
+      <c r="BD31" s="339"/>
+      <c r="BE31" s="339"/>
+      <c r="BF31" s="339"/>
+      <c r="BG31" s="339"/>
+      <c r="BH31" s="339"/>
+      <c r="BI31" s="339"/>
+      <c r="BJ31" s="339"/>
+      <c r="BK31" s="339"/>
+      <c r="BL31" s="339"/>
+      <c r="BM31" s="339"/>
+      <c r="BN31" s="339"/>
+      <c r="BO31" s="339"/>
+      <c r="BP31" s="339"/>
+      <c r="BQ31" s="339"/>
+      <c r="BR31" s="339"/>
+      <c r="BS31" s="339"/>
+      <c r="BT31" s="339"/>
+      <c r="BU31" s="339"/>
+      <c r="BV31" s="339"/>
+      <c r="BW31" s="339"/>
+      <c r="BX31" s="339"/>
+      <c r="BY31" s="339"/>
+      <c r="BZ31" s="339"/>
+      <c r="CA31" s="339"/>
+      <c r="CB31" s="339"/>
+      <c r="CC31" s="339"/>
+      <c r="CD31" s="339"/>
+      <c r="CE31" s="339"/>
+      <c r="CF31" s="339"/>
+      <c r="CG31" s="339"/>
+      <c r="CH31" s="339"/>
+      <c r="CI31" s="339"/>
+      <c r="CJ31" s="156">
         <v>25</v>
       </c>
-      <c r="K29" s="273"/>
-      <c r="L29" s="272"/>
-      <c r="M29" s="273"/>
-      <c r="N29" s="272"/>
-      <c r="O29" s="273"/>
-      <c r="P29" s="272"/>
-      <c r="Q29" s="273"/>
-      <c r="R29" s="272"/>
-      <c r="S29" s="273"/>
-      <c r="T29" s="272"/>
-      <c r="U29" s="273"/>
-      <c r="V29" s="272"/>
-      <c r="W29" s="273"/>
-      <c r="X29" s="272"/>
-      <c r="Y29" s="273"/>
-      <c r="Z29" s="272"/>
-      <c r="AA29" s="273"/>
-      <c r="AB29" s="272"/>
-      <c r="AC29" s="273"/>
-      <c r="AD29" s="272"/>
-      <c r="AE29" s="273"/>
-      <c r="AF29" s="272"/>
-      <c r="AG29" s="273"/>
-      <c r="AH29" s="272"/>
-      <c r="AI29" s="273"/>
-      <c r="AJ29" s="272"/>
-      <c r="AK29" s="273"/>
-      <c r="AL29" s="272"/>
-      <c r="AM29" s="273"/>
-      <c r="AN29" s="272"/>
-      <c r="AO29" s="273"/>
-      <c r="AP29" s="272"/>
-      <c r="AQ29" s="273"/>
-      <c r="AR29" s="272"/>
-      <c r="AS29" s="273"/>
-      <c r="AT29" s="272"/>
-      <c r="AU29" s="273"/>
-      <c r="AV29" s="272"/>
-      <c r="AW29" s="273"/>
-      <c r="AX29" s="272"/>
-      <c r="AY29" s="273"/>
-      <c r="AZ29" s="272"/>
-      <c r="BA29" s="273"/>
-      <c r="BB29" s="272"/>
-      <c r="BC29" s="273"/>
-      <c r="BD29" s="272"/>
     </row>
-    <row r="30" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J30">
-        <v>26</v>
-      </c>
-      <c r="K30" s="272"/>
-      <c r="L30" s="273"/>
-      <c r="M30" s="272"/>
-      <c r="N30" s="273"/>
-      <c r="O30" s="272"/>
-      <c r="P30" s="273"/>
-      <c r="Q30" s="272"/>
-      <c r="R30" s="273"/>
-      <c r="S30" s="272"/>
-      <c r="T30" s="273"/>
-      <c r="U30" s="272"/>
-      <c r="V30" s="273"/>
-      <c r="W30" s="272"/>
-      <c r="X30" s="273"/>
-      <c r="Y30" s="272"/>
-      <c r="Z30" s="273"/>
-      <c r="AA30" s="272"/>
-      <c r="AB30" s="273"/>
-      <c r="AC30" s="272"/>
-      <c r="AD30" s="273"/>
-      <c r="AE30" s="272"/>
-      <c r="AF30" s="273"/>
-      <c r="AG30" s="272"/>
-      <c r="AH30" s="273"/>
-      <c r="AI30" s="272"/>
-      <c r="AJ30" s="273"/>
-      <c r="AK30" s="272"/>
-      <c r="AL30" s="273"/>
-      <c r="AM30" s="272"/>
-      <c r="AN30" s="273"/>
-      <c r="AO30" s="272"/>
-      <c r="AP30" s="273"/>
-      <c r="AQ30" s="272"/>
-      <c r="AR30" s="273"/>
-      <c r="AS30" s="272"/>
-      <c r="AT30" s="273"/>
-      <c r="AU30" s="272"/>
-      <c r="AV30" s="273"/>
-      <c r="AW30" s="272"/>
-      <c r="AX30" s="273"/>
-      <c r="AY30" s="272"/>
-      <c r="AZ30" s="273"/>
-      <c r="BA30" s="272"/>
-      <c r="BB30" s="273"/>
-      <c r="BC30" s="272"/>
-      <c r="BD30" s="273"/>
+    <row r="32" spans="9:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG32" s="157"/>
+      <c r="AH32" s="157"/>
+      <c r="AI32" s="157"/>
+      <c r="AJ32" s="157"/>
+      <c r="AK32" s="157"/>
+      <c r="AL32" s="157"/>
+      <c r="AM32" s="157"/>
+      <c r="AN32" s="157"/>
+      <c r="AO32" s="157"/>
+      <c r="AP32" s="157"/>
+      <c r="AQ32" s="157"/>
+      <c r="AR32" s="157"/>
+      <c r="AS32" s="157"/>
+      <c r="AT32" s="157"/>
+      <c r="AU32" s="157"/>
+      <c r="AV32" s="157"/>
+      <c r="AW32" s="157"/>
+      <c r="AX32" s="157"/>
+      <c r="AY32" s="157"/>
+      <c r="AZ32" s="157"/>
+      <c r="BA32" s="157"/>
+      <c r="BB32" s="157"/>
+      <c r="BC32" s="157"/>
+      <c r="BD32" s="157"/>
+      <c r="BE32" s="157"/>
+      <c r="BF32" s="157"/>
+      <c r="BG32" s="157"/>
+      <c r="BH32" s="157"/>
+      <c r="BI32" s="157"/>
+      <c r="BJ32" s="157"/>
+      <c r="BK32" s="157"/>
+      <c r="BL32" s="157"/>
+      <c r="BM32" s="157"/>
+      <c r="BN32" s="157"/>
+      <c r="BO32" s="157"/>
+      <c r="BP32" s="157"/>
+      <c r="BQ32" s="157"/>
+      <c r="BR32" s="157"/>
+      <c r="BS32" s="157"/>
+      <c r="BT32" s="157"/>
+      <c r="BU32" s="157"/>
+      <c r="BV32" s="157"/>
+      <c r="BW32" s="157"/>
+      <c r="BX32" s="157"/>
+      <c r="BY32" s="157"/>
+      <c r="BZ32" s="157"/>
+      <c r="CA32" s="157"/>
+      <c r="CB32" s="157"/>
+      <c r="CC32" s="157"/>
+      <c r="CD32" s="157"/>
+      <c r="CE32" s="157"/>
+      <c r="CF32" s="157"/>
+      <c r="CG32" s="157"/>
+      <c r="CH32" s="157"/>
+      <c r="CI32" s="157"/>
     </row>
-    <row r="31" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="10:56" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" s="153" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8047,501 +9273,501 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="274"/>
+      <c r="A1" s="272"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E9" s="275" t="s">
+      <c r="E9" s="273" t="s">
         <v>120</v>
       </c>
-      <c r="F9" s="275" t="s">
+      <c r="F9" s="273" t="s">
         <v>136</v>
       </c>
-      <c r="G9" s="275" t="s">
+      <c r="G9" s="273" t="s">
         <v>137</v>
       </c>
-      <c r="H9" s="275" t="s">
+      <c r="H9" s="273" t="s">
         <v>138</v>
       </c>
-      <c r="M9" s="275"/>
-      <c r="N9" s="275" t="s">
+      <c r="M9" s="273"/>
+      <c r="N9" s="273" t="s">
         <v>152</v>
       </c>
-      <c r="O9" s="275"/>
-      <c r="P9" s="275"/>
-      <c r="Q9" s="275"/>
+      <c r="O9" s="273"/>
+      <c r="P9" s="273"/>
+      <c r="Q9" s="273"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E10" s="276" t="s">
+      <c r="E10" s="274" t="s">
         <v>121</v>
       </c>
-      <c r="F10" s="275" t="s">
+      <c r="F10" s="273" t="s">
         <v>121</v>
       </c>
-      <c r="G10" s="275" t="s">
+      <c r="G10" s="273" t="s">
         <v>125</v>
       </c>
-      <c r="H10" s="275"/>
-      <c r="M10" s="275"/>
-      <c r="N10" s="275" t="s">
+      <c r="H10" s="273"/>
+      <c r="M10" s="273"/>
+      <c r="N10" s="273" t="s">
         <v>153</v>
       </c>
-      <c r="O10" s="275" t="s">
+      <c r="O10" s="273" t="s">
         <v>154</v>
       </c>
-      <c r="P10" s="275" t="s">
+      <c r="P10" s="273" t="s">
         <v>155</v>
       </c>
-      <c r="Q10" s="275" t="s">
+      <c r="Q10" s="273" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E11" s="276" t="s">
+      <c r="E11" s="274" t="s">
         <v>122</v>
       </c>
-      <c r="F11" s="275"/>
-      <c r="G11" s="275"/>
-      <c r="H11" s="275"/>
-      <c r="M11" s="275" t="s">
+      <c r="F11" s="273"/>
+      <c r="G11" s="273"/>
+      <c r="H11" s="273"/>
+      <c r="M11" s="273" t="s">
         <v>157</v>
       </c>
-      <c r="N11" s="276">
+      <c r="N11" s="274">
         <v>1</v>
       </c>
-      <c r="O11" s="276">
+      <c r="O11" s="274">
         <v>5</v>
       </c>
-      <c r="P11" s="276">
+      <c r="P11" s="274">
         <v>9</v>
       </c>
-      <c r="Q11" s="276">
+      <c r="Q11" s="274">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E12" s="276" t="s">
+      <c r="E12" s="274" t="s">
         <v>123</v>
       </c>
-      <c r="F12" s="275"/>
-      <c r="G12" s="275"/>
-      <c r="H12" s="275"/>
-      <c r="M12" s="275" t="s">
+      <c r="F12" s="273"/>
+      <c r="G12" s="273"/>
+      <c r="H12" s="273"/>
+      <c r="M12" s="273" t="s">
         <v>158</v>
       </c>
-      <c r="N12" s="276">
+      <c r="N12" s="274">
         <v>2</v>
       </c>
-      <c r="O12" s="276">
+      <c r="O12" s="274">
         <v>6</v>
       </c>
-      <c r="P12" s="276">
+      <c r="P12" s="274">
         <v>10</v>
       </c>
-      <c r="Q12" s="276">
+      <c r="Q12" s="274">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E13" s="276" t="s">
+      <c r="E13" s="274" t="s">
         <v>124</v>
       </c>
-      <c r="F13" s="275"/>
-      <c r="G13" s="275"/>
-      <c r="H13" s="275"/>
-      <c r="M13" s="275" t="s">
+      <c r="F13" s="273"/>
+      <c r="G13" s="273"/>
+      <c r="H13" s="273"/>
+      <c r="M13" s="273" t="s">
         <v>159</v>
       </c>
-      <c r="N13" s="276">
+      <c r="N13" s="274">
         <v>3</v>
       </c>
-      <c r="O13" s="276">
+      <c r="O13" s="274">
         <v>7</v>
       </c>
-      <c r="P13" s="276">
+      <c r="P13" s="274">
         <v>11</v>
       </c>
-      <c r="Q13" s="276">
+      <c r="Q13" s="274">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E14" s="276" t="s">
+      <c r="E14" s="274" t="s">
         <v>125</v>
       </c>
-      <c r="F14" s="275"/>
-      <c r="G14" s="275"/>
-      <c r="H14" s="275"/>
-      <c r="M14" s="275" t="s">
+      <c r="F14" s="273"/>
+      <c r="G14" s="273"/>
+      <c r="H14" s="273"/>
+      <c r="M14" s="273" t="s">
         <v>160</v>
       </c>
-      <c r="N14" s="276">
+      <c r="N14" s="274">
         <v>4</v>
       </c>
-      <c r="O14" s="276">
+      <c r="O14" s="274">
         <v>8</v>
       </c>
-      <c r="P14" s="276">
+      <c r="P14" s="274">
         <v>12</v>
       </c>
-      <c r="Q14" s="276">
+      <c r="Q14" s="274">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E15" s="275"/>
-      <c r="F15" s="275"/>
-      <c r="G15" s="275"/>
-      <c r="H15" s="275"/>
+      <c r="E15" s="273"/>
+      <c r="F15" s="273"/>
+      <c r="G15" s="273"/>
+      <c r="H15" s="273"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E16" s="276" t="s">
+      <c r="E16" s="274" t="s">
         <v>126</v>
       </c>
-      <c r="F16" s="275"/>
-      <c r="G16" s="275"/>
-      <c r="H16" s="275"/>
+      <c r="F16" s="273"/>
+      <c r="G16" s="273"/>
+      <c r="H16" s="273"/>
     </row>
     <row r="17" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E17" s="276" t="s">
+      <c r="E17" s="274" t="s">
         <v>127</v>
       </c>
-      <c r="F17" s="275"/>
-      <c r="G17" s="275"/>
-      <c r="H17" s="275"/>
-      <c r="L17" s="275"/>
-      <c r="M17" s="275"/>
-      <c r="N17" s="275"/>
-      <c r="O17" s="275"/>
+      <c r="F17" s="273"/>
+      <c r="G17" s="273"/>
+      <c r="H17" s="273"/>
+      <c r="L17" s="273"/>
+      <c r="M17" s="273"/>
+      <c r="N17" s="273"/>
+      <c r="O17" s="273"/>
     </row>
     <row r="18" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E18" s="276" t="s">
+      <c r="E18" s="274" t="s">
         <v>128</v>
       </c>
-      <c r="F18" s="275"/>
-      <c r="G18" s="275"/>
-      <c r="H18" s="275"/>
-      <c r="L18" s="275" t="s">
+      <c r="F18" s="273"/>
+      <c r="G18" s="273"/>
+      <c r="H18" s="273"/>
+      <c r="L18" s="273" t="s">
         <v>168</v>
       </c>
-      <c r="M18" s="276">
+      <c r="M18" s="274">
         <v>2</v>
       </c>
-      <c r="N18" s="277" t="s">
+      <c r="N18" s="275" t="s">
         <v>153</v>
       </c>
-      <c r="O18" s="277" t="s">
+      <c r="O18" s="275" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="19" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E19" s="276" t="s">
+      <c r="E19" s="274" t="s">
         <v>129</v>
       </c>
-      <c r="F19" s="275"/>
-      <c r="G19" s="275"/>
-      <c r="H19" s="275"/>
-      <c r="L19" s="275" t="s">
+      <c r="F19" s="273"/>
+      <c r="G19" s="273"/>
+      <c r="H19" s="273"/>
+      <c r="L19" s="273" t="s">
         <v>169</v>
       </c>
-      <c r="M19" s="276">
+      <c r="M19" s="274">
         <v>13</v>
       </c>
-      <c r="N19" s="277" t="s">
+      <c r="N19" s="275" t="s">
         <v>156</v>
       </c>
-      <c r="O19" s="277" t="s">
+      <c r="O19" s="275" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="20" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E20" s="276" t="s">
+      <c r="E20" s="274" t="s">
         <v>130</v>
       </c>
-      <c r="F20" s="275"/>
-      <c r="G20" s="275"/>
-      <c r="H20" s="275"/>
-      <c r="L20" s="275" t="s">
+      <c r="F20" s="273"/>
+      <c r="G20" s="273"/>
+      <c r="H20" s="273"/>
+      <c r="L20" s="273" t="s">
         <v>170</v>
       </c>
-      <c r="M20" s="276">
+      <c r="M20" s="274">
         <v>10</v>
       </c>
-      <c r="N20" s="277" t="s">
+      <c r="N20" s="275" t="s">
         <v>155</v>
       </c>
-      <c r="O20" s="277" t="s">
+      <c r="O20" s="275" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="21" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E21" s="276" t="s">
+      <c r="E21" s="274" t="s">
         <v>131</v>
       </c>
-      <c r="F21" s="275"/>
-      <c r="G21" s="275"/>
-      <c r="H21" s="275"/>
-      <c r="L21" s="275" t="s">
+      <c r="F21" s="273"/>
+      <c r="G21" s="273"/>
+      <c r="H21" s="273"/>
+      <c r="L21" s="273" t="s">
         <v>171</v>
       </c>
-      <c r="M21" s="276">
+      <c r="M21" s="274">
         <v>11</v>
       </c>
-      <c r="N21" s="277" t="s">
+      <c r="N21" s="275" t="s">
         <v>155</v>
       </c>
-      <c r="O21" s="277" t="s">
+      <c r="O21" s="275" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="22" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E22" s="276" t="s">
+      <c r="E22" s="274" t="s">
         <v>132</v>
       </c>
-      <c r="F22" s="275" t="s">
+      <c r="F22" s="273" t="s">
         <v>139</v>
       </c>
-      <c r="G22" s="275" t="s">
+      <c r="G22" s="273" t="s">
         <v>140</v>
       </c>
-      <c r="H22" s="275"/>
-      <c r="L22" s="275" t="s">
+      <c r="H22" s="273"/>
+      <c r="L22" s="273" t="s">
         <v>172</v>
       </c>
-      <c r="M22" s="276">
+      <c r="M22" s="274">
         <v>3</v>
       </c>
-      <c r="N22" s="277" t="s">
+      <c r="N22" s="275" t="s">
         <v>153</v>
       </c>
-      <c r="O22" s="277" t="s">
+      <c r="O22" s="275" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="23" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E23" s="276" t="s">
+      <c r="E23" s="274" t="s">
         <v>133</v>
       </c>
-      <c r="F23" s="275"/>
-      <c r="G23" s="275"/>
-      <c r="H23" s="275"/>
-      <c r="L23" s="275" t="s">
+      <c r="F23" s="273"/>
+      <c r="G23" s="273"/>
+      <c r="H23" s="273"/>
+      <c r="L23" s="273" t="s">
         <v>173</v>
       </c>
-      <c r="M23" s="276">
+      <c r="M23" s="274">
         <v>12</v>
       </c>
-      <c r="N23" s="277" t="s">
+      <c r="N23" s="275" t="s">
         <v>155</v>
       </c>
-      <c r="O23" s="277" t="s">
+      <c r="O23" s="275" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="24" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E24" s="276" t="s">
+      <c r="E24" s="274" t="s">
         <v>134</v>
       </c>
-      <c r="F24" s="275"/>
-      <c r="G24" s="275"/>
-      <c r="H24" s="275"/>
-      <c r="L24" s="275" t="s">
+      <c r="F24" s="273"/>
+      <c r="G24" s="273"/>
+      <c r="H24" s="273"/>
+      <c r="L24" s="273" t="s">
         <v>174</v>
       </c>
-      <c r="M24" s="276">
+      <c r="M24" s="274">
         <v>6</v>
       </c>
-      <c r="N24" s="277" t="s">
+      <c r="N24" s="275" t="s">
         <v>154</v>
       </c>
-      <c r="O24" s="277" t="s">
+      <c r="O24" s="275" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="25" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E25" s="276" t="s">
+      <c r="E25" s="274" t="s">
         <v>135</v>
       </c>
-      <c r="F25" s="275"/>
-      <c r="G25" s="275"/>
-      <c r="H25" s="275"/>
-      <c r="L25" s="275" t="s">
+      <c r="F25" s="273"/>
+      <c r="G25" s="273"/>
+      <c r="H25" s="273"/>
+      <c r="L25" s="273" t="s">
         <v>175</v>
       </c>
-      <c r="M25" s="276">
+      <c r="M25" s="274">
         <v>9</v>
       </c>
-      <c r="N25" s="277" t="s">
+      <c r="N25" s="275" t="s">
         <v>155</v>
       </c>
-      <c r="O25" s="277" t="s">
+      <c r="O25" s="275" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="26" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E26" s="276" t="s">
+      <c r="E26" s="274" t="s">
         <v>142</v>
       </c>
-      <c r="F26" s="275" t="s">
+      <c r="F26" s="273" t="s">
         <v>141</v>
       </c>
-      <c r="G26" s="275" t="s">
+      <c r="G26" s="273" t="s">
         <v>125</v>
       </c>
-      <c r="H26" s="275"/>
-      <c r="L26" s="275" t="s">
+      <c r="H26" s="273"/>
+      <c r="L26" s="273" t="s">
         <v>176</v>
       </c>
-      <c r="M26" s="276">
+      <c r="M26" s="274">
         <v>15</v>
       </c>
-      <c r="N26" s="277" t="s">
+      <c r="N26" s="275" t="s">
         <v>156</v>
       </c>
-      <c r="O26" s="277" t="s">
+      <c r="O26" s="275" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="27" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E27" s="276" t="s">
+      <c r="E27" s="274" t="s">
         <v>143</v>
       </c>
-      <c r="F27" s="275"/>
-      <c r="G27" s="275"/>
-      <c r="H27" s="275"/>
-      <c r="L27" s="275" t="s">
+      <c r="F27" s="273"/>
+      <c r="G27" s="273"/>
+      <c r="H27" s="273"/>
+      <c r="L27" s="273" t="s">
         <v>162</v>
       </c>
-      <c r="M27" s="276">
+      <c r="M27" s="274">
         <v>16</v>
       </c>
-      <c r="N27" s="277" t="s">
+      <c r="N27" s="275" t="s">
         <v>156</v>
       </c>
-      <c r="O27" s="277" t="s">
+      <c r="O27" s="275" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="28" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E28" s="276" t="s">
+      <c r="E28" s="274" t="s">
         <v>144</v>
       </c>
-      <c r="F28" s="275"/>
-      <c r="G28" s="275"/>
-      <c r="H28" s="275"/>
-      <c r="L28" s="275" t="s">
+      <c r="F28" s="273"/>
+      <c r="G28" s="273"/>
+      <c r="H28" s="273"/>
+      <c r="L28" s="273" t="s">
         <v>163</v>
       </c>
-      <c r="M28" s="276">
+      <c r="M28" s="274">
         <v>7</v>
       </c>
-      <c r="N28" s="277" t="s">
+      <c r="N28" s="275" t="s">
         <v>154</v>
       </c>
-      <c r="O28" s="277" t="s">
+      <c r="O28" s="275" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="29" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E29" s="276" t="s">
+      <c r="E29" s="274" t="s">
         <v>146</v>
       </c>
-      <c r="F29" s="275" t="s">
+      <c r="F29" s="273" t="s">
         <v>145</v>
       </c>
-      <c r="G29" s="275" t="s">
+      <c r="G29" s="273" t="s">
         <v>147</v>
       </c>
-      <c r="H29" s="275" t="s">
+      <c r="H29" s="273" t="s">
         <v>148</v>
       </c>
-      <c r="L29" s="275" t="s">
+      <c r="L29" s="273" t="s">
         <v>164</v>
       </c>
-      <c r="M29" s="276">
+      <c r="M29" s="274">
         <v>4</v>
       </c>
-      <c r="N29" s="277" t="s">
+      <c r="N29" s="275" t="s">
         <v>153</v>
       </c>
-      <c r="O29" s="277" t="s">
+      <c r="O29" s="275" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="30" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E30" s="276" t="s">
+      <c r="E30" s="274" t="s">
         <v>149</v>
       </c>
-      <c r="F30" s="275" t="s">
+      <c r="F30" s="273" t="s">
         <v>150</v>
       </c>
-      <c r="G30" s="275" t="s">
+      <c r="G30" s="273" t="s">
         <v>151</v>
       </c>
-      <c r="H30" s="275"/>
-      <c r="L30" s="275" t="s">
+      <c r="H30" s="273"/>
+      <c r="L30" s="273" t="s">
         <v>165</v>
       </c>
-      <c r="M30" s="276">
+      <c r="M30" s="274">
         <v>8</v>
       </c>
-      <c r="N30" s="277" t="s">
+      <c r="N30" s="275" t="s">
         <v>154</v>
       </c>
-      <c r="O30" s="277" t="s">
+      <c r="O30" s="275" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="31" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E31" s="278" t="s">
+      <c r="E31" s="276" t="s">
         <v>177</v>
       </c>
-      <c r="L31" s="275" t="s">
+      <c r="L31" s="273" t="s">
         <v>161</v>
       </c>
-      <c r="M31" s="276">
+      <c r="M31" s="274">
         <v>5</v>
       </c>
-      <c r="N31" s="277" t="s">
+      <c r="N31" s="275" t="s">
         <v>154</v>
       </c>
-      <c r="O31" s="277" t="s">
+      <c r="O31" s="275" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="32" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E32" s="278" t="s">
+      <c r="E32" s="276" t="s">
         <v>178</v>
       </c>
-      <c r="L32" s="275" t="s">
+      <c r="L32" s="273" t="s">
         <v>166</v>
       </c>
-      <c r="M32" s="276">
+      <c r="M32" s="274">
         <v>1</v>
       </c>
-      <c r="N32" s="277" t="s">
+      <c r="N32" s="275" t="s">
         <v>153</v>
       </c>
-      <c r="O32" s="277" t="s">
+      <c r="O32" s="275" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="33" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E33" s="278" t="s">
+      <c r="E33" s="276" t="s">
         <v>179</v>
       </c>
       <c r="F33" t="s">
         <v>180</v>
       </c>
-      <c r="L33" s="275" t="s">
+      <c r="L33" s="273" t="s">
         <v>167</v>
       </c>
-      <c r="M33" s="276">
+      <c r="M33" s="274">
         <v>14</v>
       </c>
-      <c r="N33" s="277" t="s">
+      <c r="N33" s="275" t="s">
         <v>156</v>
       </c>
-      <c r="O33" s="277" t="s">
+      <c r="O33" s="275" t="s">
         <v>158</v>
       </c>
     </row>
@@ -10331,8 +11557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA9E5FAB-1047-4072-92C4-3E2647FF44F0}">
   <dimension ref="I1:CJ689"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7:CI31"/>
+    <sheetView topLeftCell="I4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10574,69 +11800,69 @@
       <c r="V7" s="172"/>
       <c r="W7" s="172"/>
       <c r="X7" s="173"/>
-      <c r="Y7" s="283"/>
-      <c r="Z7" s="284"/>
-      <c r="AA7" s="285"/>
+      <c r="Y7" s="277"/>
+      <c r="Z7" s="278"/>
+      <c r="AA7" s="279"/>
       <c r="AB7" s="171"/>
       <c r="AC7" s="172"/>
       <c r="AD7" s="172"/>
       <c r="AE7" s="172"/>
       <c r="AF7" s="173"/>
-      <c r="AG7" s="286"/>
-      <c r="AH7" s="287"/>
-      <c r="AI7" s="287"/>
-      <c r="AJ7" s="287"/>
-      <c r="AK7" s="287"/>
-      <c r="AL7" s="287"/>
-      <c r="AM7" s="287"/>
-      <c r="AN7" s="287"/>
-      <c r="AO7" s="287"/>
-      <c r="AP7" s="288"/>
-      <c r="AQ7" s="286"/>
-      <c r="AR7" s="287"/>
-      <c r="AS7" s="287"/>
-      <c r="AT7" s="287"/>
-      <c r="AU7" s="287"/>
-      <c r="AV7" s="287"/>
-      <c r="AW7" s="287"/>
-      <c r="AX7" s="287"/>
-      <c r="AY7" s="287"/>
-      <c r="AZ7" s="288"/>
-      <c r="BA7" s="289"/>
-      <c r="BB7" s="290"/>
-      <c r="BC7" s="290"/>
-      <c r="BD7" s="290"/>
-      <c r="BE7" s="291"/>
-      <c r="BF7" s="292"/>
-      <c r="BG7" s="293"/>
-      <c r="BH7" s="293"/>
-      <c r="BI7" s="293"/>
-      <c r="BJ7" s="294"/>
-      <c r="BK7" s="283"/>
-      <c r="BL7" s="284"/>
-      <c r="BM7" s="284"/>
-      <c r="BN7" s="284"/>
-      <c r="BO7" s="284"/>
-      <c r="BP7" s="284"/>
-      <c r="BQ7" s="284"/>
-      <c r="BR7" s="284"/>
-      <c r="BS7" s="284"/>
-      <c r="BT7" s="284"/>
-      <c r="BU7" s="284"/>
-      <c r="BV7" s="284"/>
-      <c r="BW7" s="284"/>
-      <c r="BX7" s="284"/>
-      <c r="BY7" s="284"/>
-      <c r="BZ7" s="284"/>
-      <c r="CA7" s="284"/>
-      <c r="CB7" s="284"/>
-      <c r="CC7" s="284"/>
-      <c r="CD7" s="284"/>
-      <c r="CE7" s="284"/>
-      <c r="CF7" s="284"/>
-      <c r="CG7" s="284"/>
-      <c r="CH7" s="284"/>
-      <c r="CI7" s="285"/>
+      <c r="AG7" s="280"/>
+      <c r="AH7" s="281"/>
+      <c r="AI7" s="281"/>
+      <c r="AJ7" s="281"/>
+      <c r="AK7" s="281"/>
+      <c r="AL7" s="281"/>
+      <c r="AM7" s="281"/>
+      <c r="AN7" s="281"/>
+      <c r="AO7" s="281"/>
+      <c r="AP7" s="282"/>
+      <c r="AQ7" s="280"/>
+      <c r="AR7" s="281"/>
+      <c r="AS7" s="281"/>
+      <c r="AT7" s="281"/>
+      <c r="AU7" s="281"/>
+      <c r="AV7" s="281"/>
+      <c r="AW7" s="281"/>
+      <c r="AX7" s="281"/>
+      <c r="AY7" s="281"/>
+      <c r="AZ7" s="282"/>
+      <c r="BA7" s="283"/>
+      <c r="BB7" s="284"/>
+      <c r="BC7" s="284"/>
+      <c r="BD7" s="284"/>
+      <c r="BE7" s="285"/>
+      <c r="BF7" s="286"/>
+      <c r="BG7" s="287"/>
+      <c r="BH7" s="287"/>
+      <c r="BI7" s="287"/>
+      <c r="BJ7" s="288"/>
+      <c r="BK7" s="277"/>
+      <c r="BL7" s="278"/>
+      <c r="BM7" s="278"/>
+      <c r="BN7" s="278"/>
+      <c r="BO7" s="278"/>
+      <c r="BP7" s="278"/>
+      <c r="BQ7" s="278"/>
+      <c r="BR7" s="278"/>
+      <c r="BS7" s="278"/>
+      <c r="BT7" s="278"/>
+      <c r="BU7" s="278"/>
+      <c r="BV7" s="278"/>
+      <c r="BW7" s="278"/>
+      <c r="BX7" s="278"/>
+      <c r="BY7" s="278"/>
+      <c r="BZ7" s="278"/>
+      <c r="CA7" s="278"/>
+      <c r="CB7" s="278"/>
+      <c r="CC7" s="278"/>
+      <c r="CD7" s="278"/>
+      <c r="CE7" s="278"/>
+      <c r="CF7" s="278"/>
+      <c r="CG7" s="278"/>
+      <c r="CH7" s="278"/>
+      <c r="CI7" s="279"/>
       <c r="CJ7" s="153">
         <v>1</v>
       </c>
@@ -10648,69 +11874,69 @@
       <c r="V8" s="175"/>
       <c r="W8" s="175"/>
       <c r="X8" s="181"/>
-      <c r="Y8" s="295"/>
-      <c r="Z8" s="296"/>
-      <c r="AA8" s="297"/>
+      <c r="Y8" s="289"/>
+      <c r="Z8" s="290"/>
+      <c r="AA8" s="291"/>
       <c r="AB8" s="174"/>
       <c r="AC8" s="175"/>
       <c r="AD8" s="175"/>
       <c r="AE8" s="175"/>
       <c r="AF8" s="181"/>
-      <c r="AG8" s="298"/>
-      <c r="AH8" s="299"/>
-      <c r="AI8" s="299"/>
-      <c r="AJ8" s="299"/>
-      <c r="AK8" s="299"/>
-      <c r="AL8" s="299"/>
-      <c r="AM8" s="299"/>
-      <c r="AN8" s="299"/>
-      <c r="AO8" s="299"/>
-      <c r="AP8" s="300"/>
-      <c r="AQ8" s="298"/>
-      <c r="AR8" s="299"/>
-      <c r="AS8" s="299"/>
-      <c r="AT8" s="299"/>
-      <c r="AU8" s="299"/>
-      <c r="AV8" s="299"/>
-      <c r="AW8" s="299"/>
-      <c r="AX8" s="299"/>
-      <c r="AY8" s="299"/>
-      <c r="AZ8" s="300"/>
-      <c r="BA8" s="301"/>
-      <c r="BB8" s="302"/>
-      <c r="BC8" s="302"/>
-      <c r="BD8" s="302"/>
-      <c r="BE8" s="303"/>
-      <c r="BF8" s="304"/>
-      <c r="BG8" s="305"/>
-      <c r="BH8" s="305"/>
-      <c r="BI8" s="305"/>
-      <c r="BJ8" s="306"/>
-      <c r="BK8" s="307"/>
-      <c r="BL8" s="296"/>
-      <c r="BM8" s="296"/>
-      <c r="BN8" s="296"/>
-      <c r="BO8" s="296"/>
-      <c r="BP8" s="296"/>
-      <c r="BQ8" s="296"/>
-      <c r="BR8" s="296"/>
-      <c r="BS8" s="296"/>
-      <c r="BT8" s="296"/>
-      <c r="BU8" s="296"/>
-      <c r="BV8" s="296"/>
-      <c r="BW8" s="296"/>
-      <c r="BX8" s="296"/>
-      <c r="BY8" s="296"/>
-      <c r="BZ8" s="296"/>
-      <c r="CA8" s="296"/>
-      <c r="CB8" s="296"/>
-      <c r="CC8" s="296"/>
-      <c r="CD8" s="296"/>
-      <c r="CE8" s="296"/>
-      <c r="CF8" s="296"/>
-      <c r="CG8" s="296"/>
-      <c r="CH8" s="296"/>
-      <c r="CI8" s="308"/>
+      <c r="AG8" s="292"/>
+      <c r="AH8" s="293"/>
+      <c r="AI8" s="293"/>
+      <c r="AJ8" s="293"/>
+      <c r="AK8" s="293"/>
+      <c r="AL8" s="293"/>
+      <c r="AM8" s="293"/>
+      <c r="AN8" s="293"/>
+      <c r="AO8" s="293"/>
+      <c r="AP8" s="294"/>
+      <c r="AQ8" s="292"/>
+      <c r="AR8" s="293"/>
+      <c r="AS8" s="293"/>
+      <c r="AT8" s="293"/>
+      <c r="AU8" s="293"/>
+      <c r="AV8" s="293"/>
+      <c r="AW8" s="293"/>
+      <c r="AX8" s="293"/>
+      <c r="AY8" s="293"/>
+      <c r="AZ8" s="294"/>
+      <c r="BA8" s="295"/>
+      <c r="BB8" s="296"/>
+      <c r="BC8" s="296"/>
+      <c r="BD8" s="296"/>
+      <c r="BE8" s="297"/>
+      <c r="BF8" s="298"/>
+      <c r="BG8" s="299"/>
+      <c r="BH8" s="299"/>
+      <c r="BI8" s="299"/>
+      <c r="BJ8" s="300"/>
+      <c r="BK8" s="301"/>
+      <c r="BL8" s="290"/>
+      <c r="BM8" s="290"/>
+      <c r="BN8" s="290"/>
+      <c r="BO8" s="290"/>
+      <c r="BP8" s="290"/>
+      <c r="BQ8" s="290"/>
+      <c r="BR8" s="290"/>
+      <c r="BS8" s="290"/>
+      <c r="BT8" s="290"/>
+      <c r="BU8" s="290"/>
+      <c r="BV8" s="290"/>
+      <c r="BW8" s="290"/>
+      <c r="BX8" s="290"/>
+      <c r="BY8" s="290"/>
+      <c r="BZ8" s="290"/>
+      <c r="CA8" s="290"/>
+      <c r="CB8" s="290"/>
+      <c r="CC8" s="290"/>
+      <c r="CD8" s="290"/>
+      <c r="CE8" s="290"/>
+      <c r="CF8" s="290"/>
+      <c r="CG8" s="290"/>
+      <c r="CH8" s="290"/>
+      <c r="CI8" s="302"/>
       <c r="CJ8" s="153">
         <v>2</v>
       </c>
@@ -10724,9 +11950,9 @@
       </c>
       <c r="W9" s="175"/>
       <c r="X9" s="176"/>
-      <c r="Y9" s="295"/>
-      <c r="Z9" s="296"/>
-      <c r="AA9" s="297"/>
+      <c r="Y9" s="289"/>
+      <c r="Z9" s="290"/>
+      <c r="AA9" s="291"/>
       <c r="AB9" s="176"/>
       <c r="AC9" s="175"/>
       <c r="AD9" s="175" t="s">
@@ -10734,63 +11960,63 @@
       </c>
       <c r="AE9" s="175"/>
       <c r="AF9" s="181"/>
-      <c r="AG9" s="298"/>
-      <c r="AH9" s="299"/>
-      <c r="AI9" s="299"/>
-      <c r="AJ9" s="299"/>
-      <c r="AK9" s="299"/>
-      <c r="AL9" s="299"/>
-      <c r="AM9" s="299"/>
-      <c r="AN9" s="299"/>
-      <c r="AO9" s="299"/>
-      <c r="AP9" s="300"/>
-      <c r="AQ9" s="298"/>
-      <c r="AR9" s="299"/>
-      <c r="AS9" s="299"/>
-      <c r="AT9" s="299"/>
-      <c r="AU9" s="299"/>
-      <c r="AV9" s="299"/>
-      <c r="AW9" s="299"/>
-      <c r="AX9" s="299"/>
-      <c r="AY9" s="299"/>
-      <c r="AZ9" s="300"/>
-      <c r="BA9" s="301"/>
-      <c r="BB9" s="302"/>
-      <c r="BC9" s="302" t="s">
+      <c r="AG9" s="292"/>
+      <c r="AH9" s="293"/>
+      <c r="AI9" s="293"/>
+      <c r="AJ9" s="293"/>
+      <c r="AK9" s="293"/>
+      <c r="AL9" s="293"/>
+      <c r="AM9" s="293"/>
+      <c r="AN9" s="293"/>
+      <c r="AO9" s="293"/>
+      <c r="AP9" s="294"/>
+      <c r="AQ9" s="292"/>
+      <c r="AR9" s="293"/>
+      <c r="AS9" s="293"/>
+      <c r="AT9" s="293"/>
+      <c r="AU9" s="293"/>
+      <c r="AV9" s="293"/>
+      <c r="AW9" s="293"/>
+      <c r="AX9" s="293"/>
+      <c r="AY9" s="293"/>
+      <c r="AZ9" s="294"/>
+      <c r="BA9" s="295"/>
+      <c r="BB9" s="296"/>
+      <c r="BC9" s="296" t="s">
         <v>181</v>
       </c>
-      <c r="BD9" s="302"/>
-      <c r="BE9" s="309"/>
-      <c r="BF9" s="304"/>
-      <c r="BG9" s="305"/>
-      <c r="BH9" s="305"/>
-      <c r="BI9" s="305"/>
-      <c r="BJ9" s="306"/>
-      <c r="BK9" s="307"/>
-      <c r="BL9" s="296"/>
-      <c r="BM9" s="296"/>
-      <c r="BN9" s="296"/>
-      <c r="BO9" s="296"/>
-      <c r="BP9" s="296"/>
-      <c r="BQ9" s="296"/>
-      <c r="BR9" s="296"/>
-      <c r="BS9" s="296"/>
-      <c r="BT9" s="296"/>
-      <c r="BU9" s="296"/>
-      <c r="BV9" s="296"/>
-      <c r="BW9" s="296"/>
-      <c r="BX9" s="296"/>
-      <c r="BY9" s="296"/>
-      <c r="BZ9" s="296"/>
-      <c r="CA9" s="296"/>
-      <c r="CB9" s="296"/>
-      <c r="CC9" s="296"/>
-      <c r="CD9" s="296"/>
-      <c r="CE9" s="296"/>
-      <c r="CF9" s="296"/>
-      <c r="CG9" s="296"/>
-      <c r="CH9" s="296"/>
-      <c r="CI9" s="308"/>
+      <c r="BD9" s="296"/>
+      <c r="BE9" s="303"/>
+      <c r="BF9" s="298"/>
+      <c r="BG9" s="299"/>
+      <c r="BH9" s="299"/>
+      <c r="BI9" s="299"/>
+      <c r="BJ9" s="300"/>
+      <c r="BK9" s="301"/>
+      <c r="BL9" s="290"/>
+      <c r="BM9" s="290"/>
+      <c r="BN9" s="290"/>
+      <c r="BO9" s="290"/>
+      <c r="BP9" s="290"/>
+      <c r="BQ9" s="290"/>
+      <c r="BR9" s="290"/>
+      <c r="BS9" s="290"/>
+      <c r="BT9" s="290"/>
+      <c r="BU9" s="290"/>
+      <c r="BV9" s="290"/>
+      <c r="BW9" s="290"/>
+      <c r="BX9" s="290"/>
+      <c r="BY9" s="290"/>
+      <c r="BZ9" s="290"/>
+      <c r="CA9" s="290"/>
+      <c r="CB9" s="290"/>
+      <c r="CC9" s="290"/>
+      <c r="CD9" s="290"/>
+      <c r="CE9" s="290"/>
+      <c r="CF9" s="290"/>
+      <c r="CG9" s="290"/>
+      <c r="CH9" s="290"/>
+      <c r="CI9" s="302"/>
       <c r="CJ9" s="153">
         <v>3</v>
       </c>
@@ -10802,69 +12028,69 @@
       <c r="V10" s="175"/>
       <c r="W10" s="175"/>
       <c r="X10" s="181"/>
-      <c r="Y10" s="295"/>
-      <c r="Z10" s="296"/>
-      <c r="AA10" s="297"/>
+      <c r="Y10" s="289"/>
+      <c r="Z10" s="290"/>
+      <c r="AA10" s="291"/>
       <c r="AB10" s="174"/>
       <c r="AC10" s="175"/>
       <c r="AD10" s="175"/>
       <c r="AE10" s="175"/>
       <c r="AF10" s="181"/>
-      <c r="AG10" s="298"/>
-      <c r="AH10" s="299"/>
-      <c r="AI10" s="299"/>
-      <c r="AJ10" s="299"/>
-      <c r="AK10" s="299"/>
-      <c r="AL10" s="299"/>
-      <c r="AM10" s="299"/>
-      <c r="AN10" s="299"/>
-      <c r="AO10" s="299"/>
-      <c r="AP10" s="300"/>
-      <c r="AQ10" s="298"/>
-      <c r="AR10" s="299"/>
-      <c r="AS10" s="299"/>
-      <c r="AT10" s="299"/>
-      <c r="AU10" s="299"/>
-      <c r="AV10" s="299"/>
-      <c r="AW10" s="299"/>
-      <c r="AX10" s="299"/>
-      <c r="AY10" s="299"/>
-      <c r="AZ10" s="300"/>
-      <c r="BA10" s="301"/>
-      <c r="BB10" s="302"/>
-      <c r="BC10" s="302"/>
-      <c r="BD10" s="302"/>
-      <c r="BE10" s="303"/>
-      <c r="BF10" s="304"/>
-      <c r="BG10" s="305"/>
-      <c r="BH10" s="305"/>
-      <c r="BI10" s="305"/>
-      <c r="BJ10" s="306"/>
-      <c r="BK10" s="307"/>
-      <c r="BL10" s="296"/>
-      <c r="BM10" s="296"/>
-      <c r="BN10" s="296"/>
-      <c r="BO10" s="296"/>
-      <c r="BP10" s="296"/>
-      <c r="BQ10" s="296"/>
-      <c r="BR10" s="296"/>
-      <c r="BS10" s="296"/>
-      <c r="BT10" s="296"/>
-      <c r="BU10" s="296"/>
-      <c r="BV10" s="296"/>
-      <c r="BW10" s="296"/>
-      <c r="BX10" s="296"/>
-      <c r="BY10" s="296"/>
-      <c r="BZ10" s="296"/>
-      <c r="CA10" s="296"/>
-      <c r="CB10" s="296"/>
-      <c r="CC10" s="296"/>
-      <c r="CD10" s="296"/>
-      <c r="CE10" s="296"/>
-      <c r="CF10" s="296"/>
-      <c r="CG10" s="296"/>
-      <c r="CH10" s="296"/>
-      <c r="CI10" s="308"/>
+      <c r="AG10" s="292"/>
+      <c r="AH10" s="293"/>
+      <c r="AI10" s="293"/>
+      <c r="AJ10" s="293"/>
+      <c r="AK10" s="293"/>
+      <c r="AL10" s="293"/>
+      <c r="AM10" s="293"/>
+      <c r="AN10" s="293"/>
+      <c r="AO10" s="293"/>
+      <c r="AP10" s="294"/>
+      <c r="AQ10" s="292"/>
+      <c r="AR10" s="293"/>
+      <c r="AS10" s="293"/>
+      <c r="AT10" s="293"/>
+      <c r="AU10" s="293"/>
+      <c r="AV10" s="293"/>
+      <c r="AW10" s="293"/>
+      <c r="AX10" s="293"/>
+      <c r="AY10" s="293"/>
+      <c r="AZ10" s="294"/>
+      <c r="BA10" s="295"/>
+      <c r="BB10" s="296"/>
+      <c r="BC10" s="296"/>
+      <c r="BD10" s="296"/>
+      <c r="BE10" s="297"/>
+      <c r="BF10" s="298"/>
+      <c r="BG10" s="299"/>
+      <c r="BH10" s="299"/>
+      <c r="BI10" s="299"/>
+      <c r="BJ10" s="300"/>
+      <c r="BK10" s="301"/>
+      <c r="BL10" s="290"/>
+      <c r="BM10" s="290"/>
+      <c r="BN10" s="290"/>
+      <c r="BO10" s="290"/>
+      <c r="BP10" s="290"/>
+      <c r="BQ10" s="290"/>
+      <c r="BR10" s="290"/>
+      <c r="BS10" s="290"/>
+      <c r="BT10" s="290"/>
+      <c r="BU10" s="290"/>
+      <c r="BV10" s="290"/>
+      <c r="BW10" s="290"/>
+      <c r="BX10" s="290"/>
+      <c r="BY10" s="290"/>
+      <c r="BZ10" s="290"/>
+      <c r="CA10" s="290"/>
+      <c r="CB10" s="290"/>
+      <c r="CC10" s="290"/>
+      <c r="CD10" s="290"/>
+      <c r="CE10" s="290"/>
+      <c r="CF10" s="290"/>
+      <c r="CG10" s="290"/>
+      <c r="CH10" s="290"/>
+      <c r="CI10" s="302"/>
       <c r="CJ10" s="153">
         <v>4</v>
       </c>
@@ -10876,73 +12102,73 @@
       <c r="V11" s="178"/>
       <c r="W11" s="178"/>
       <c r="X11" s="179"/>
-      <c r="Y11" s="295"/>
-      <c r="Z11" s="296"/>
-      <c r="AA11" s="297"/>
+      <c r="Y11" s="289"/>
+      <c r="Z11" s="290"/>
+      <c r="AA11" s="291"/>
       <c r="AB11" s="177"/>
       <c r="AC11" s="178"/>
       <c r="AD11" s="178"/>
       <c r="AE11" s="178"/>
       <c r="AF11" s="179"/>
-      <c r="AG11" s="298"/>
-      <c r="AH11" s="299"/>
-      <c r="AI11" s="299"/>
-      <c r="AJ11" s="299"/>
-      <c r="AK11" s="299" t="s">
+      <c r="AG11" s="292"/>
+      <c r="AH11" s="293"/>
+      <c r="AI11" s="293"/>
+      <c r="AJ11" s="293"/>
+      <c r="AK11" s="293" t="s">
         <v>182</v>
       </c>
-      <c r="AL11" s="299"/>
-      <c r="AM11" s="299"/>
-      <c r="AN11" s="299"/>
-      <c r="AO11" s="299"/>
-      <c r="AP11" s="300"/>
-      <c r="AQ11" s="298"/>
-      <c r="AR11" s="299"/>
-      <c r="AS11" s="299"/>
-      <c r="AT11" s="299"/>
-      <c r="AU11" s="299" t="s">
+      <c r="AL11" s="293"/>
+      <c r="AM11" s="293"/>
+      <c r="AN11" s="293"/>
+      <c r="AO11" s="293"/>
+      <c r="AP11" s="294"/>
+      <c r="AQ11" s="292"/>
+      <c r="AR11" s="293"/>
+      <c r="AS11" s="293"/>
+      <c r="AT11" s="293"/>
+      <c r="AU11" s="293" t="s">
         <v>183</v>
       </c>
-      <c r="AV11" s="299"/>
-      <c r="AW11" s="299"/>
-      <c r="AX11" s="299"/>
-      <c r="AY11" s="299"/>
-      <c r="AZ11" s="300"/>
-      <c r="BA11" s="310"/>
-      <c r="BB11" s="311"/>
-      <c r="BC11" s="311"/>
-      <c r="BD11" s="311"/>
-      <c r="BE11" s="312"/>
-      <c r="BF11" s="304"/>
-      <c r="BG11" s="305"/>
-      <c r="BH11" s="305"/>
-      <c r="BI11" s="305"/>
-      <c r="BJ11" s="306"/>
-      <c r="BK11" s="307"/>
-      <c r="BL11" s="296"/>
-      <c r="BM11" s="296"/>
-      <c r="BN11" s="296"/>
-      <c r="BO11" s="296"/>
-      <c r="BP11" s="296"/>
-      <c r="BQ11" s="296"/>
-      <c r="BR11" s="296"/>
-      <c r="BS11" s="296"/>
-      <c r="BT11" s="296"/>
-      <c r="BU11" s="296"/>
-      <c r="BV11" s="296"/>
-      <c r="BW11" s="296"/>
-      <c r="BX11" s="296"/>
-      <c r="BY11" s="296"/>
-      <c r="BZ11" s="296"/>
-      <c r="CA11" s="296"/>
-      <c r="CB11" s="296"/>
-      <c r="CC11" s="296"/>
-      <c r="CD11" s="296"/>
-      <c r="CE11" s="296"/>
-      <c r="CF11" s="296"/>
-      <c r="CG11" s="296"/>
-      <c r="CH11" s="296"/>
-      <c r="CI11" s="308"/>
+      <c r="AV11" s="293"/>
+      <c r="AW11" s="293"/>
+      <c r="AX11" s="293"/>
+      <c r="AY11" s="293"/>
+      <c r="AZ11" s="294"/>
+      <c r="BA11" s="304"/>
+      <c r="BB11" s="305"/>
+      <c r="BC11" s="305"/>
+      <c r="BD11" s="305"/>
+      <c r="BE11" s="306"/>
+      <c r="BF11" s="298"/>
+      <c r="BG11" s="299"/>
+      <c r="BH11" s="299"/>
+      <c r="BI11" s="299"/>
+      <c r="BJ11" s="300"/>
+      <c r="BK11" s="301"/>
+      <c r="BL11" s="290"/>
+      <c r="BM11" s="290"/>
+      <c r="BN11" s="290"/>
+      <c r="BO11" s="290"/>
+      <c r="BP11" s="290"/>
+      <c r="BQ11" s="290"/>
+      <c r="BR11" s="290"/>
+      <c r="BS11" s="290"/>
+      <c r="BT11" s="290"/>
+      <c r="BU11" s="290"/>
+      <c r="BV11" s="290"/>
+      <c r="BW11" s="290"/>
+      <c r="BX11" s="290"/>
+      <c r="BY11" s="290"/>
+      <c r="BZ11" s="290"/>
+      <c r="CA11" s="290"/>
+      <c r="CB11" s="290"/>
+      <c r="CC11" s="290"/>
+      <c r="CD11" s="290"/>
+      <c r="CE11" s="290"/>
+      <c r="CF11" s="290"/>
+      <c r="CG11" s="290"/>
+      <c r="CH11" s="290"/>
+      <c r="CI11" s="302"/>
       <c r="CJ11" s="153">
         <v>5</v>
       </c>
@@ -10954,69 +12180,69 @@
       <c r="V12" s="172"/>
       <c r="W12" s="172"/>
       <c r="X12" s="173"/>
-      <c r="Y12" s="295"/>
-      <c r="Z12" s="296"/>
-      <c r="AA12" s="297"/>
+      <c r="Y12" s="289"/>
+      <c r="Z12" s="290"/>
+      <c r="AA12" s="291"/>
       <c r="AB12" s="171"/>
       <c r="AC12" s="172"/>
       <c r="AD12" s="172"/>
       <c r="AE12" s="172"/>
       <c r="AF12" s="173"/>
-      <c r="AG12" s="298"/>
-      <c r="AH12" s="299"/>
-      <c r="AI12" s="299"/>
-      <c r="AJ12" s="299"/>
-      <c r="AK12" s="299"/>
-      <c r="AL12" s="299"/>
-      <c r="AM12" s="299"/>
-      <c r="AN12" s="299"/>
-      <c r="AO12" s="299"/>
-      <c r="AP12" s="300"/>
-      <c r="AQ12" s="298"/>
-      <c r="AR12" s="299"/>
-      <c r="AS12" s="299"/>
-      <c r="AT12" s="299"/>
-      <c r="AU12" s="299"/>
-      <c r="AV12" s="299"/>
-      <c r="AW12" s="299"/>
-      <c r="AX12" s="299"/>
-      <c r="AY12" s="299"/>
-      <c r="AZ12" s="300"/>
-      <c r="BA12" s="313"/>
-      <c r="BB12" s="314"/>
-      <c r="BC12" s="314"/>
-      <c r="BD12" s="314"/>
-      <c r="BE12" s="314"/>
-      <c r="BF12" s="305"/>
-      <c r="BG12" s="305"/>
-      <c r="BH12" s="305"/>
-      <c r="BI12" s="305"/>
-      <c r="BJ12" s="306"/>
-      <c r="BK12" s="307"/>
-      <c r="BL12" s="296"/>
-      <c r="BM12" s="296"/>
-      <c r="BN12" s="296"/>
-      <c r="BO12" s="296"/>
-      <c r="BP12" s="296"/>
-      <c r="BQ12" s="296"/>
-      <c r="BR12" s="296"/>
-      <c r="BS12" s="296"/>
-      <c r="BT12" s="296"/>
-      <c r="BU12" s="296"/>
-      <c r="BV12" s="296"/>
-      <c r="BW12" s="296"/>
-      <c r="BX12" s="296"/>
-      <c r="BY12" s="296"/>
-      <c r="BZ12" s="296"/>
-      <c r="CA12" s="296"/>
-      <c r="CB12" s="296"/>
-      <c r="CC12" s="296"/>
-      <c r="CD12" s="296"/>
-      <c r="CE12" s="296"/>
-      <c r="CF12" s="296"/>
-      <c r="CG12" s="296"/>
-      <c r="CH12" s="296"/>
-      <c r="CI12" s="308"/>
+      <c r="AG12" s="292"/>
+      <c r="AH12" s="293"/>
+      <c r="AI12" s="293"/>
+      <c r="AJ12" s="293"/>
+      <c r="AK12" s="293"/>
+      <c r="AL12" s="293"/>
+      <c r="AM12" s="293"/>
+      <c r="AN12" s="293"/>
+      <c r="AO12" s="293"/>
+      <c r="AP12" s="294"/>
+      <c r="AQ12" s="292"/>
+      <c r="AR12" s="293"/>
+      <c r="AS12" s="293"/>
+      <c r="AT12" s="293"/>
+      <c r="AU12" s="293"/>
+      <c r="AV12" s="293"/>
+      <c r="AW12" s="293"/>
+      <c r="AX12" s="293"/>
+      <c r="AY12" s="293"/>
+      <c r="AZ12" s="294"/>
+      <c r="BA12" s="307"/>
+      <c r="BB12" s="308"/>
+      <c r="BC12" s="308"/>
+      <c r="BD12" s="308"/>
+      <c r="BE12" s="308"/>
+      <c r="BF12" s="299"/>
+      <c r="BG12" s="299"/>
+      <c r="BH12" s="299"/>
+      <c r="BI12" s="299"/>
+      <c r="BJ12" s="300"/>
+      <c r="BK12" s="301"/>
+      <c r="BL12" s="290"/>
+      <c r="BM12" s="290"/>
+      <c r="BN12" s="290"/>
+      <c r="BO12" s="290"/>
+      <c r="BP12" s="290"/>
+      <c r="BQ12" s="290"/>
+      <c r="BR12" s="290"/>
+      <c r="BS12" s="290"/>
+      <c r="BT12" s="290"/>
+      <c r="BU12" s="290"/>
+      <c r="BV12" s="290"/>
+      <c r="BW12" s="290"/>
+      <c r="BX12" s="290"/>
+      <c r="BY12" s="290"/>
+      <c r="BZ12" s="290"/>
+      <c r="CA12" s="290"/>
+      <c r="CB12" s="290"/>
+      <c r="CC12" s="290"/>
+      <c r="CD12" s="290"/>
+      <c r="CE12" s="290"/>
+      <c r="CF12" s="290"/>
+      <c r="CG12" s="290"/>
+      <c r="CH12" s="290"/>
+      <c r="CI12" s="302"/>
       <c r="CJ12" s="153">
         <v>6</v>
       </c>
@@ -11028,71 +12254,71 @@
       <c r="V13" s="175"/>
       <c r="W13" s="175"/>
       <c r="X13" s="181"/>
-      <c r="Y13" s="295"/>
-      <c r="Z13" s="296"/>
-      <c r="AA13" s="297"/>
+      <c r="Y13" s="289"/>
+      <c r="Z13" s="290"/>
+      <c r="AA13" s="291"/>
       <c r="AB13" s="174"/>
       <c r="AC13" s="175"/>
       <c r="AD13" s="175"/>
       <c r="AE13" s="175"/>
       <c r="AF13" s="181"/>
-      <c r="AG13" s="298"/>
-      <c r="AH13" s="299"/>
-      <c r="AI13" s="299"/>
-      <c r="AJ13" s="299"/>
-      <c r="AK13" s="299"/>
-      <c r="AL13" s="299"/>
-      <c r="AM13" s="299"/>
-      <c r="AN13" s="299"/>
-      <c r="AO13" s="299"/>
-      <c r="AP13" s="300"/>
-      <c r="AQ13" s="298"/>
-      <c r="AR13" s="299"/>
-      <c r="AS13" s="299"/>
-      <c r="AT13" s="299"/>
-      <c r="AU13" s="299"/>
-      <c r="AV13" s="299"/>
-      <c r="AW13" s="299"/>
-      <c r="AX13" s="299"/>
-      <c r="AY13" s="299"/>
-      <c r="AZ13" s="300"/>
-      <c r="BA13" s="315"/>
-      <c r="BB13" s="305"/>
-      <c r="BC13" s="305"/>
-      <c r="BD13" s="305"/>
-      <c r="BE13" s="305" t="s">
+      <c r="AG13" s="292"/>
+      <c r="AH13" s="293"/>
+      <c r="AI13" s="293"/>
+      <c r="AJ13" s="293"/>
+      <c r="AK13" s="293"/>
+      <c r="AL13" s="293"/>
+      <c r="AM13" s="293"/>
+      <c r="AN13" s="293"/>
+      <c r="AO13" s="293"/>
+      <c r="AP13" s="294"/>
+      <c r="AQ13" s="292"/>
+      <c r="AR13" s="293"/>
+      <c r="AS13" s="293"/>
+      <c r="AT13" s="293"/>
+      <c r="AU13" s="293"/>
+      <c r="AV13" s="293"/>
+      <c r="AW13" s="293"/>
+      <c r="AX13" s="293"/>
+      <c r="AY13" s="293"/>
+      <c r="AZ13" s="294"/>
+      <c r="BA13" s="309"/>
+      <c r="BB13" s="299"/>
+      <c r="BC13" s="299"/>
+      <c r="BD13" s="299"/>
+      <c r="BE13" s="299" t="s">
         <v>186</v>
       </c>
-      <c r="BF13" s="305"/>
-      <c r="BG13" s="305"/>
-      <c r="BH13" s="305"/>
-      <c r="BI13" s="305"/>
-      <c r="BJ13" s="306"/>
-      <c r="BK13" s="307"/>
-      <c r="BL13" s="296"/>
-      <c r="BM13" s="296"/>
-      <c r="BN13" s="296"/>
-      <c r="BO13" s="296"/>
-      <c r="BP13" s="296"/>
-      <c r="BQ13" s="296"/>
-      <c r="BR13" s="296"/>
-      <c r="BS13" s="296"/>
-      <c r="BT13" s="296"/>
-      <c r="BU13" s="296"/>
-      <c r="BV13" s="296"/>
-      <c r="BW13" s="296"/>
-      <c r="BX13" s="296"/>
-      <c r="BY13" s="296"/>
-      <c r="BZ13" s="296"/>
-      <c r="CA13" s="296"/>
-      <c r="CB13" s="296"/>
-      <c r="CC13" s="296"/>
-      <c r="CD13" s="296"/>
-      <c r="CE13" s="296"/>
-      <c r="CF13" s="296"/>
-      <c r="CG13" s="296"/>
-      <c r="CH13" s="296"/>
-      <c r="CI13" s="308"/>
+      <c r="BF13" s="299"/>
+      <c r="BG13" s="299"/>
+      <c r="BH13" s="299"/>
+      <c r="BI13" s="299"/>
+      <c r="BJ13" s="300"/>
+      <c r="BK13" s="301"/>
+      <c r="BL13" s="290"/>
+      <c r="BM13" s="290"/>
+      <c r="BN13" s="290"/>
+      <c r="BO13" s="290"/>
+      <c r="BP13" s="290"/>
+      <c r="BQ13" s="290"/>
+      <c r="BR13" s="290"/>
+      <c r="BS13" s="290"/>
+      <c r="BT13" s="290"/>
+      <c r="BU13" s="290"/>
+      <c r="BV13" s="290"/>
+      <c r="BW13" s="290"/>
+      <c r="BX13" s="290"/>
+      <c r="BY13" s="290"/>
+      <c r="BZ13" s="290"/>
+      <c r="CA13" s="290"/>
+      <c r="CB13" s="290"/>
+      <c r="CC13" s="290"/>
+      <c r="CD13" s="290"/>
+      <c r="CE13" s="290"/>
+      <c r="CF13" s="290"/>
+      <c r="CG13" s="290"/>
+      <c r="CH13" s="290"/>
+      <c r="CI13" s="302"/>
       <c r="CJ13" s="153">
         <v>7</v>
       </c>
@@ -11106,9 +12332,9 @@
       </c>
       <c r="W14" s="175"/>
       <c r="X14" s="176"/>
-      <c r="Y14" s="295"/>
-      <c r="Z14" s="296"/>
-      <c r="AA14" s="297"/>
+      <c r="Y14" s="289"/>
+      <c r="Z14" s="290"/>
+      <c r="AA14" s="291"/>
       <c r="AB14" s="176"/>
       <c r="AC14" s="175"/>
       <c r="AD14" s="175" t="s">
@@ -11116,61 +12342,61 @@
       </c>
       <c r="AE14" s="175"/>
       <c r="AF14" s="181"/>
-      <c r="AG14" s="298"/>
-      <c r="AH14" s="299"/>
-      <c r="AI14" s="299"/>
-      <c r="AJ14" s="299"/>
-      <c r="AK14" s="299"/>
-      <c r="AL14" s="299"/>
-      <c r="AM14" s="299"/>
-      <c r="AN14" s="299"/>
-      <c r="AO14" s="299"/>
-      <c r="AP14" s="300"/>
-      <c r="AQ14" s="298"/>
-      <c r="AR14" s="299"/>
-      <c r="AS14" s="299"/>
-      <c r="AT14" s="299"/>
-      <c r="AU14" s="299"/>
-      <c r="AV14" s="299"/>
-      <c r="AW14" s="299"/>
-      <c r="AX14" s="299"/>
-      <c r="AY14" s="299"/>
-      <c r="AZ14" s="300"/>
-      <c r="BA14" s="315"/>
-      <c r="BB14" s="305"/>
-      <c r="BC14" s="305"/>
-      <c r="BD14" s="305"/>
-      <c r="BE14" s="305"/>
-      <c r="BF14" s="305"/>
-      <c r="BG14" s="305"/>
-      <c r="BH14" s="305"/>
-      <c r="BI14" s="305"/>
-      <c r="BJ14" s="306"/>
-      <c r="BK14" s="307"/>
-      <c r="BL14" s="296"/>
-      <c r="BM14" s="296"/>
-      <c r="BN14" s="296"/>
-      <c r="BO14" s="296"/>
-      <c r="BP14" s="296"/>
-      <c r="BQ14" s="296"/>
-      <c r="BR14" s="296"/>
-      <c r="BS14" s="296"/>
-      <c r="BT14" s="296"/>
-      <c r="BU14" s="296"/>
-      <c r="BV14" s="296"/>
-      <c r="BW14" s="296"/>
-      <c r="BX14" s="296"/>
-      <c r="BY14" s="296"/>
-      <c r="BZ14" s="296"/>
-      <c r="CA14" s="296"/>
-      <c r="CB14" s="296"/>
-      <c r="CC14" s="296"/>
-      <c r="CD14" s="296"/>
-      <c r="CE14" s="296"/>
-      <c r="CF14" s="296"/>
-      <c r="CG14" s="296"/>
-      <c r="CH14" s="296"/>
-      <c r="CI14" s="308"/>
+      <c r="AG14" s="292"/>
+      <c r="AH14" s="293"/>
+      <c r="AI14" s="293"/>
+      <c r="AJ14" s="293"/>
+      <c r="AK14" s="293"/>
+      <c r="AL14" s="293"/>
+      <c r="AM14" s="293"/>
+      <c r="AN14" s="293"/>
+      <c r="AO14" s="293"/>
+      <c r="AP14" s="294"/>
+      <c r="AQ14" s="292"/>
+      <c r="AR14" s="293"/>
+      <c r="AS14" s="293"/>
+      <c r="AT14" s="293"/>
+      <c r="AU14" s="293"/>
+      <c r="AV14" s="293"/>
+      <c r="AW14" s="293"/>
+      <c r="AX14" s="293"/>
+      <c r="AY14" s="293"/>
+      <c r="AZ14" s="294"/>
+      <c r="BA14" s="309"/>
+      <c r="BB14" s="299"/>
+      <c r="BC14" s="299"/>
+      <c r="BD14" s="299"/>
+      <c r="BE14" s="299"/>
+      <c r="BF14" s="299"/>
+      <c r="BG14" s="299"/>
+      <c r="BH14" s="299"/>
+      <c r="BI14" s="299"/>
+      <c r="BJ14" s="300"/>
+      <c r="BK14" s="301"/>
+      <c r="BL14" s="290"/>
+      <c r="BM14" s="290"/>
+      <c r="BN14" s="290"/>
+      <c r="BO14" s="290"/>
+      <c r="BP14" s="290"/>
+      <c r="BQ14" s="290"/>
+      <c r="BR14" s="290"/>
+      <c r="BS14" s="290"/>
+      <c r="BT14" s="290"/>
+      <c r="BU14" s="290"/>
+      <c r="BV14" s="290"/>
+      <c r="BW14" s="290"/>
+      <c r="BX14" s="290"/>
+      <c r="BY14" s="290"/>
+      <c r="BZ14" s="290"/>
+      <c r="CA14" s="290"/>
+      <c r="CB14" s="290"/>
+      <c r="CC14" s="290"/>
+      <c r="CD14" s="290"/>
+      <c r="CE14" s="290"/>
+      <c r="CF14" s="290"/>
+      <c r="CG14" s="290"/>
+      <c r="CH14" s="290"/>
+      <c r="CI14" s="302"/>
       <c r="CJ14" s="153">
         <v>8</v>
       </c>
@@ -11182,69 +12408,69 @@
       <c r="V15" s="175"/>
       <c r="W15" s="175"/>
       <c r="X15" s="181"/>
-      <c r="Y15" s="295"/>
-      <c r="Z15" s="296"/>
-      <c r="AA15" s="297"/>
+      <c r="Y15" s="289"/>
+      <c r="Z15" s="290"/>
+      <c r="AA15" s="291"/>
       <c r="AB15" s="174"/>
       <c r="AC15" s="175"/>
       <c r="AD15" s="175"/>
       <c r="AE15" s="175"/>
       <c r="AF15" s="181"/>
-      <c r="AG15" s="298"/>
-      <c r="AH15" s="299"/>
-      <c r="AI15" s="299"/>
-      <c r="AJ15" s="299"/>
-      <c r="AK15" s="299"/>
-      <c r="AL15" s="299"/>
-      <c r="AM15" s="299"/>
-      <c r="AN15" s="299"/>
-      <c r="AO15" s="299"/>
-      <c r="AP15" s="300"/>
-      <c r="AQ15" s="298"/>
-      <c r="AR15" s="299"/>
-      <c r="AS15" s="299"/>
-      <c r="AT15" s="299"/>
-      <c r="AU15" s="299"/>
-      <c r="AV15" s="299"/>
-      <c r="AW15" s="299"/>
-      <c r="AX15" s="299"/>
-      <c r="AY15" s="299"/>
-      <c r="AZ15" s="300"/>
-      <c r="BA15" s="315"/>
-      <c r="BB15" s="305"/>
-      <c r="BC15" s="305"/>
-      <c r="BD15" s="305"/>
-      <c r="BE15" s="305"/>
-      <c r="BF15" s="305"/>
-      <c r="BG15" s="305"/>
-      <c r="BH15" s="305"/>
-      <c r="BI15" s="305"/>
-      <c r="BJ15" s="306"/>
-      <c r="BK15" s="307"/>
-      <c r="BL15" s="296"/>
-      <c r="BM15" s="296"/>
-      <c r="BN15" s="296"/>
-      <c r="BO15" s="296"/>
-      <c r="BP15" s="296"/>
-      <c r="BQ15" s="296"/>
-      <c r="BR15" s="296"/>
-      <c r="BS15" s="296"/>
-      <c r="BT15" s="296"/>
-      <c r="BU15" s="296"/>
-      <c r="BV15" s="296"/>
-      <c r="BW15" s="296"/>
-      <c r="BX15" s="296"/>
-      <c r="BY15" s="296"/>
-      <c r="BZ15" s="296"/>
-      <c r="CA15" s="296"/>
-      <c r="CB15" s="296"/>
-      <c r="CC15" s="296"/>
-      <c r="CD15" s="296"/>
-      <c r="CE15" s="296"/>
-      <c r="CF15" s="296"/>
-      <c r="CG15" s="296"/>
-      <c r="CH15" s="296"/>
-      <c r="CI15" s="308"/>
+      <c r="AG15" s="292"/>
+      <c r="AH15" s="293"/>
+      <c r="AI15" s="293"/>
+      <c r="AJ15" s="293"/>
+      <c r="AK15" s="293"/>
+      <c r="AL15" s="293"/>
+      <c r="AM15" s="293"/>
+      <c r="AN15" s="293"/>
+      <c r="AO15" s="293"/>
+      <c r="AP15" s="294"/>
+      <c r="AQ15" s="292"/>
+      <c r="AR15" s="293"/>
+      <c r="AS15" s="293"/>
+      <c r="AT15" s="293"/>
+      <c r="AU15" s="293"/>
+      <c r="AV15" s="293"/>
+      <c r="AW15" s="293"/>
+      <c r="AX15" s="293"/>
+      <c r="AY15" s="293"/>
+      <c r="AZ15" s="294"/>
+      <c r="BA15" s="309"/>
+      <c r="BB15" s="299"/>
+      <c r="BC15" s="299"/>
+      <c r="BD15" s="299"/>
+      <c r="BE15" s="299"/>
+      <c r="BF15" s="299"/>
+      <c r="BG15" s="299"/>
+      <c r="BH15" s="299"/>
+      <c r="BI15" s="299"/>
+      <c r="BJ15" s="300"/>
+      <c r="BK15" s="301"/>
+      <c r="BL15" s="290"/>
+      <c r="BM15" s="290"/>
+      <c r="BN15" s="290"/>
+      <c r="BO15" s="290"/>
+      <c r="BP15" s="290"/>
+      <c r="BQ15" s="290"/>
+      <c r="BR15" s="290"/>
+      <c r="BS15" s="290"/>
+      <c r="BT15" s="290"/>
+      <c r="BU15" s="290"/>
+      <c r="BV15" s="290"/>
+      <c r="BW15" s="290"/>
+      <c r="BX15" s="290"/>
+      <c r="BY15" s="290"/>
+      <c r="BZ15" s="290"/>
+      <c r="CA15" s="290"/>
+      <c r="CB15" s="290"/>
+      <c r="CC15" s="290"/>
+      <c r="CD15" s="290"/>
+      <c r="CE15" s="290"/>
+      <c r="CF15" s="290"/>
+      <c r="CG15" s="290"/>
+      <c r="CH15" s="290"/>
+      <c r="CI15" s="302"/>
       <c r="CJ15" s="153">
         <v>9</v>
       </c>
@@ -11259,472 +12485,472 @@
       <c r="P16" s="155"/>
       <c r="Q16" s="155"/>
       <c r="R16" s="155"/>
-      <c r="S16" s="316"/>
+      <c r="S16" s="310"/>
       <c r="T16" s="177"/>
       <c r="U16" s="178"/>
       <c r="V16" s="178"/>
       <c r="W16" s="178"/>
       <c r="X16" s="179"/>
-      <c r="Y16" s="295"/>
-      <c r="Z16" s="296"/>
-      <c r="AA16" s="297"/>
+      <c r="Y16" s="289"/>
+      <c r="Z16" s="290"/>
+      <c r="AA16" s="291"/>
       <c r="AB16" s="177"/>
       <c r="AC16" s="178"/>
       <c r="AD16" s="178"/>
       <c r="AE16" s="178"/>
       <c r="AF16" s="179"/>
-      <c r="AG16" s="317"/>
-      <c r="AH16" s="318"/>
-      <c r="AI16" s="319"/>
-      <c r="AJ16" s="318"/>
-      <c r="AK16" s="318"/>
-      <c r="AL16" s="318"/>
-      <c r="AM16" s="318"/>
-      <c r="AN16" s="318"/>
-      <c r="AO16" s="318"/>
-      <c r="AP16" s="320"/>
-      <c r="AQ16" s="317"/>
-      <c r="AR16" s="318"/>
-      <c r="AS16" s="319"/>
-      <c r="AT16" s="318"/>
-      <c r="AU16" s="318"/>
-      <c r="AV16" s="318"/>
-      <c r="AW16" s="318"/>
-      <c r="AX16" s="318"/>
-      <c r="AY16" s="318"/>
-      <c r="AZ16" s="320"/>
-      <c r="BA16" s="321"/>
-      <c r="BB16" s="322"/>
-      <c r="BC16" s="323"/>
-      <c r="BD16" s="322"/>
-      <c r="BE16" s="322"/>
-      <c r="BF16" s="322"/>
-      <c r="BG16" s="322"/>
-      <c r="BH16" s="322"/>
-      <c r="BI16" s="322"/>
-      <c r="BJ16" s="324"/>
-      <c r="BK16" s="307"/>
-      <c r="BL16" s="296"/>
-      <c r="BM16" s="296"/>
-      <c r="BN16" s="296"/>
-      <c r="BO16" s="296"/>
-      <c r="BP16" s="296"/>
-      <c r="BQ16" s="296"/>
-      <c r="BR16" s="296"/>
-      <c r="BS16" s="296"/>
-      <c r="BT16" s="296"/>
-      <c r="BU16" s="296"/>
-      <c r="BV16" s="296"/>
-      <c r="BW16" s="296"/>
-      <c r="BX16" s="296"/>
-      <c r="BY16" s="296"/>
-      <c r="BZ16" s="296"/>
-      <c r="CA16" s="296"/>
-      <c r="CB16" s="296"/>
-      <c r="CC16" s="296"/>
-      <c r="CD16" s="296"/>
-      <c r="CE16" s="296"/>
-      <c r="CF16" s="296"/>
-      <c r="CG16" s="296"/>
-      <c r="CH16" s="296"/>
-      <c r="CI16" s="308"/>
+      <c r="AG16" s="311"/>
+      <c r="AH16" s="312"/>
+      <c r="AI16" s="313"/>
+      <c r="AJ16" s="312"/>
+      <c r="AK16" s="312"/>
+      <c r="AL16" s="312"/>
+      <c r="AM16" s="312"/>
+      <c r="AN16" s="312"/>
+      <c r="AO16" s="312"/>
+      <c r="AP16" s="314"/>
+      <c r="AQ16" s="311"/>
+      <c r="AR16" s="312"/>
+      <c r="AS16" s="313"/>
+      <c r="AT16" s="312"/>
+      <c r="AU16" s="312"/>
+      <c r="AV16" s="312"/>
+      <c r="AW16" s="312"/>
+      <c r="AX16" s="312"/>
+      <c r="AY16" s="312"/>
+      <c r="AZ16" s="314"/>
+      <c r="BA16" s="315"/>
+      <c r="BB16" s="316"/>
+      <c r="BC16" s="317"/>
+      <c r="BD16" s="316"/>
+      <c r="BE16" s="316"/>
+      <c r="BF16" s="316"/>
+      <c r="BG16" s="316"/>
+      <c r="BH16" s="316"/>
+      <c r="BI16" s="316"/>
+      <c r="BJ16" s="318"/>
+      <c r="BK16" s="301"/>
+      <c r="BL16" s="290"/>
+      <c r="BM16" s="290"/>
+      <c r="BN16" s="290"/>
+      <c r="BO16" s="290"/>
+      <c r="BP16" s="290"/>
+      <c r="BQ16" s="290"/>
+      <c r="BR16" s="290"/>
+      <c r="BS16" s="290"/>
+      <c r="BT16" s="290"/>
+      <c r="BU16" s="290"/>
+      <c r="BV16" s="290"/>
+      <c r="BW16" s="290"/>
+      <c r="BX16" s="290"/>
+      <c r="BY16" s="290"/>
+      <c r="BZ16" s="290"/>
+      <c r="CA16" s="290"/>
+      <c r="CB16" s="290"/>
+      <c r="CC16" s="290"/>
+      <c r="CD16" s="290"/>
+      <c r="CE16" s="290"/>
+      <c r="CF16" s="290"/>
+      <c r="CG16" s="290"/>
+      <c r="CH16" s="290"/>
+      <c r="CI16" s="302"/>
       <c r="CJ16" s="153">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="9:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I17" s="154"/>
-      <c r="O17" s="325"/>
-      <c r="P17" s="326"/>
-      <c r="Q17" s="326"/>
-      <c r="R17" s="326"/>
-      <c r="S17" s="326"/>
-      <c r="T17" s="326"/>
-      <c r="U17" s="326"/>
-      <c r="V17" s="326"/>
-      <c r="W17" s="326"/>
-      <c r="X17" s="327"/>
-      <c r="Y17" s="296"/>
-      <c r="Z17" s="296"/>
-      <c r="AA17" s="296"/>
-      <c r="AB17" s="328"/>
-      <c r="AC17" s="328"/>
-      <c r="AD17" s="328"/>
-      <c r="AE17" s="328"/>
-      <c r="AF17" s="328"/>
-      <c r="AG17" s="328"/>
-      <c r="AH17" s="328"/>
-      <c r="AI17" s="328"/>
-      <c r="AJ17" s="328"/>
-      <c r="AK17" s="328"/>
-      <c r="AL17" s="328"/>
-      <c r="AM17" s="328"/>
-      <c r="AN17" s="328"/>
-      <c r="AO17" s="328"/>
-      <c r="AP17" s="328"/>
-      <c r="AQ17" s="296"/>
-      <c r="AR17" s="296"/>
-      <c r="AS17" s="328"/>
-      <c r="AT17" s="296"/>
-      <c r="AU17" s="296"/>
-      <c r="AV17" s="296"/>
-      <c r="AW17" s="296"/>
-      <c r="AX17" s="296"/>
-      <c r="AY17" s="296"/>
-      <c r="AZ17" s="296"/>
-      <c r="BA17" s="296"/>
-      <c r="BB17" s="296"/>
-      <c r="BC17" s="328"/>
-      <c r="BD17" s="296"/>
-      <c r="BE17" s="296"/>
-      <c r="BF17" s="296"/>
-      <c r="BG17" s="296"/>
-      <c r="BH17" s="296"/>
-      <c r="BI17" s="296"/>
-      <c r="BJ17" s="284"/>
-      <c r="BK17" s="295"/>
-      <c r="BL17" s="296"/>
-      <c r="BM17" s="296"/>
-      <c r="BN17" s="296"/>
-      <c r="BO17" s="296"/>
-      <c r="BP17" s="296"/>
-      <c r="BQ17" s="296"/>
-      <c r="BR17" s="296"/>
-      <c r="BS17" s="296"/>
-      <c r="BT17" s="296"/>
-      <c r="BU17" s="296"/>
-      <c r="BV17" s="296"/>
-      <c r="BW17" s="296"/>
-      <c r="BX17" s="296"/>
-      <c r="BY17" s="296"/>
-      <c r="BZ17" s="296"/>
-      <c r="CA17" s="296"/>
-      <c r="CB17" s="296"/>
-      <c r="CC17" s="296"/>
-      <c r="CD17" s="296"/>
-      <c r="CE17" s="296"/>
-      <c r="CF17" s="296"/>
-      <c r="CG17" s="296"/>
-      <c r="CH17" s="296"/>
-      <c r="CI17" s="308"/>
+      <c r="O17" s="319"/>
+      <c r="P17" s="320"/>
+      <c r="Q17" s="320"/>
+      <c r="R17" s="320"/>
+      <c r="S17" s="320"/>
+      <c r="T17" s="320"/>
+      <c r="U17" s="320"/>
+      <c r="V17" s="320"/>
+      <c r="W17" s="320"/>
+      <c r="X17" s="321"/>
+      <c r="Y17" s="290"/>
+      <c r="Z17" s="290"/>
+      <c r="AA17" s="290"/>
+      <c r="AB17" s="322"/>
+      <c r="AC17" s="322"/>
+      <c r="AD17" s="322"/>
+      <c r="AE17" s="322"/>
+      <c r="AF17" s="322"/>
+      <c r="AG17" s="322"/>
+      <c r="AH17" s="322"/>
+      <c r="AI17" s="322"/>
+      <c r="AJ17" s="322"/>
+      <c r="AK17" s="322"/>
+      <c r="AL17" s="322"/>
+      <c r="AM17" s="322"/>
+      <c r="AN17" s="322"/>
+      <c r="AO17" s="322"/>
+      <c r="AP17" s="322"/>
+      <c r="AQ17" s="290"/>
+      <c r="AR17" s="290"/>
+      <c r="AS17" s="322"/>
+      <c r="AT17" s="290"/>
+      <c r="AU17" s="290"/>
+      <c r="AV17" s="290"/>
+      <c r="AW17" s="290"/>
+      <c r="AX17" s="290"/>
+      <c r="AY17" s="290"/>
+      <c r="AZ17" s="290"/>
+      <c r="BA17" s="290"/>
+      <c r="BB17" s="290"/>
+      <c r="BC17" s="322"/>
+      <c r="BD17" s="290"/>
+      <c r="BE17" s="290"/>
+      <c r="BF17" s="290"/>
+      <c r="BG17" s="290"/>
+      <c r="BH17" s="290"/>
+      <c r="BI17" s="290"/>
+      <c r="BJ17" s="278"/>
+      <c r="BK17" s="289"/>
+      <c r="BL17" s="290"/>
+      <c r="BM17" s="290"/>
+      <c r="BN17" s="290"/>
+      <c r="BO17" s="290"/>
+      <c r="BP17" s="290"/>
+      <c r="BQ17" s="290"/>
+      <c r="BR17" s="290"/>
+      <c r="BS17" s="290"/>
+      <c r="BT17" s="290"/>
+      <c r="BU17" s="290"/>
+      <c r="BV17" s="290"/>
+      <c r="BW17" s="290"/>
+      <c r="BX17" s="290"/>
+      <c r="BY17" s="290"/>
+      <c r="BZ17" s="290"/>
+      <c r="CA17" s="290"/>
+      <c r="CB17" s="290"/>
+      <c r="CC17" s="290"/>
+      <c r="CD17" s="290"/>
+      <c r="CE17" s="290"/>
+      <c r="CF17" s="290"/>
+      <c r="CG17" s="290"/>
+      <c r="CH17" s="290"/>
+      <c r="CI17" s="302"/>
       <c r="CJ17" s="153">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="9:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I18" s="154"/>
-      <c r="O18" s="329"/>
-      <c r="P18" s="330"/>
-      <c r="Q18" s="330"/>
-      <c r="R18" s="330"/>
-      <c r="S18" s="330"/>
-      <c r="T18" s="330"/>
-      <c r="U18" s="330"/>
-      <c r="V18" s="330"/>
-      <c r="W18" s="330"/>
-      <c r="X18" s="331"/>
-      <c r="Y18" s="296"/>
-      <c r="Z18" s="296"/>
-      <c r="AA18" s="296"/>
-      <c r="AB18" s="296"/>
-      <c r="AC18" s="296"/>
-      <c r="AD18" s="296"/>
-      <c r="AE18" s="296"/>
-      <c r="AF18" s="296"/>
-      <c r="AG18" s="296"/>
-      <c r="AH18" s="296"/>
-      <c r="AI18" s="296"/>
-      <c r="AJ18" s="296"/>
-      <c r="AK18" s="296"/>
-      <c r="AL18" s="296"/>
-      <c r="AM18" s="296"/>
-      <c r="AN18" s="296"/>
-      <c r="AO18" s="296"/>
-      <c r="AP18" s="296"/>
-      <c r="AQ18" s="296"/>
-      <c r="AR18" s="296"/>
-      <c r="AS18" s="296"/>
-      <c r="AT18" s="296"/>
-      <c r="AU18" s="296"/>
-      <c r="AV18" s="296"/>
-      <c r="AW18" s="296"/>
-      <c r="AX18" s="296"/>
-      <c r="AY18" s="296"/>
-      <c r="AZ18" s="296"/>
-      <c r="BA18" s="296"/>
-      <c r="BB18" s="296"/>
-      <c r="BC18" s="296"/>
-      <c r="BD18" s="296"/>
-      <c r="BE18" s="296"/>
-      <c r="BF18" s="296"/>
-      <c r="BG18" s="296"/>
-      <c r="BH18" s="296"/>
-      <c r="BI18" s="296"/>
-      <c r="BJ18" s="296"/>
-      <c r="BK18" s="295"/>
-      <c r="BL18" s="296"/>
-      <c r="BM18" s="296"/>
-      <c r="BN18" s="296"/>
-      <c r="BO18" s="296"/>
-      <c r="BP18" s="296"/>
-      <c r="BQ18" s="296"/>
-      <c r="BR18" s="296"/>
-      <c r="BS18" s="296"/>
-      <c r="BT18" s="296"/>
-      <c r="BU18" s="296"/>
-      <c r="BV18" s="296"/>
-      <c r="BW18" s="296"/>
-      <c r="BX18" s="296"/>
-      <c r="BY18" s="296"/>
-      <c r="BZ18" s="296"/>
-      <c r="CA18" s="296"/>
-      <c r="CB18" s="296"/>
-      <c r="CC18" s="296"/>
-      <c r="CD18" s="296"/>
-      <c r="CE18" s="296"/>
-      <c r="CF18" s="296"/>
-      <c r="CG18" s="296"/>
-      <c r="CH18" s="296"/>
-      <c r="CI18" s="308"/>
+      <c r="O18" s="323"/>
+      <c r="P18" s="324"/>
+      <c r="Q18" s="324"/>
+      <c r="R18" s="324"/>
+      <c r="S18" s="324"/>
+      <c r="T18" s="324"/>
+      <c r="U18" s="324"/>
+      <c r="V18" s="324"/>
+      <c r="W18" s="324"/>
+      <c r="X18" s="325"/>
+      <c r="Y18" s="290"/>
+      <c r="Z18" s="290"/>
+      <c r="AA18" s="290"/>
+      <c r="AB18" s="290"/>
+      <c r="AC18" s="290"/>
+      <c r="AD18" s="290"/>
+      <c r="AE18" s="290"/>
+      <c r="AF18" s="290"/>
+      <c r="AG18" s="290"/>
+      <c r="AH18" s="290"/>
+      <c r="AI18" s="290"/>
+      <c r="AJ18" s="290"/>
+      <c r="AK18" s="290"/>
+      <c r="AL18" s="290"/>
+      <c r="AM18" s="290"/>
+      <c r="AN18" s="290"/>
+      <c r="AO18" s="290"/>
+      <c r="AP18" s="290"/>
+      <c r="AQ18" s="290"/>
+      <c r="AR18" s="290"/>
+      <c r="AS18" s="290"/>
+      <c r="AT18" s="290"/>
+      <c r="AU18" s="290"/>
+      <c r="AV18" s="290"/>
+      <c r="AW18" s="290"/>
+      <c r="AX18" s="290"/>
+      <c r="AY18" s="290"/>
+      <c r="AZ18" s="290"/>
+      <c r="BA18" s="290"/>
+      <c r="BB18" s="290"/>
+      <c r="BC18" s="290"/>
+      <c r="BD18" s="290"/>
+      <c r="BE18" s="290"/>
+      <c r="BF18" s="290"/>
+      <c r="BG18" s="290"/>
+      <c r="BH18" s="290"/>
+      <c r="BI18" s="290"/>
+      <c r="BJ18" s="290"/>
+      <c r="BK18" s="289"/>
+      <c r="BL18" s="290"/>
+      <c r="BM18" s="290"/>
+      <c r="BN18" s="290"/>
+      <c r="BO18" s="290"/>
+      <c r="BP18" s="290"/>
+      <c r="BQ18" s="290"/>
+      <c r="BR18" s="290"/>
+      <c r="BS18" s="290"/>
+      <c r="BT18" s="290"/>
+      <c r="BU18" s="290"/>
+      <c r="BV18" s="290"/>
+      <c r="BW18" s="290"/>
+      <c r="BX18" s="290"/>
+      <c r="BY18" s="290"/>
+      <c r="BZ18" s="290"/>
+      <c r="CA18" s="290"/>
+      <c r="CB18" s="290"/>
+      <c r="CC18" s="290"/>
+      <c r="CD18" s="290"/>
+      <c r="CE18" s="290"/>
+      <c r="CF18" s="290"/>
+      <c r="CG18" s="290"/>
+      <c r="CH18" s="290"/>
+      <c r="CI18" s="302"/>
       <c r="CJ18" s="153">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="9:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I19" s="154"/>
-      <c r="O19" s="329"/>
-      <c r="P19" s="330"/>
-      <c r="Q19" s="330"/>
-      <c r="R19" s="330"/>
-      <c r="S19" s="330" t="s">
+      <c r="O19" s="323"/>
+      <c r="P19" s="324"/>
+      <c r="Q19" s="324"/>
+      <c r="R19" s="324"/>
+      <c r="S19" s="324" t="s">
         <v>188</v>
       </c>
-      <c r="T19" s="330"/>
-      <c r="U19" s="330"/>
-      <c r="V19" s="330"/>
-      <c r="W19" s="330"/>
-      <c r="X19" s="332"/>
-      <c r="Y19" s="296"/>
-      <c r="Z19" s="296"/>
-      <c r="AA19" s="296"/>
-      <c r="AB19" s="296"/>
-      <c r="AC19" s="296"/>
-      <c r="AD19" s="296"/>
-      <c r="AE19" s="296"/>
-      <c r="AF19" s="296"/>
-      <c r="AG19" s="296"/>
-      <c r="AH19" s="296"/>
-      <c r="AI19" s="296"/>
-      <c r="AJ19" s="296"/>
-      <c r="AK19" s="296"/>
-      <c r="AL19" s="296"/>
-      <c r="AM19" s="296"/>
-      <c r="AN19" s="296"/>
-      <c r="AO19" s="296"/>
-      <c r="AP19" s="296"/>
-      <c r="AQ19" s="296"/>
-      <c r="AR19" s="296"/>
-      <c r="AS19" s="296"/>
-      <c r="AT19" s="296"/>
-      <c r="AU19" s="296"/>
-      <c r="AV19" s="296"/>
-      <c r="AW19" s="296"/>
-      <c r="AX19" s="296"/>
-      <c r="AY19" s="296"/>
-      <c r="AZ19" s="296"/>
-      <c r="BA19" s="296"/>
-      <c r="BB19" s="296"/>
-      <c r="BC19" s="296"/>
-      <c r="BD19" s="296"/>
-      <c r="BE19" s="296"/>
-      <c r="BF19" s="296"/>
-      <c r="BG19" s="296"/>
-      <c r="BH19" s="296"/>
-      <c r="BI19" s="296"/>
-      <c r="BJ19" s="296"/>
-      <c r="BK19" s="295"/>
-      <c r="BL19" s="296"/>
-      <c r="BM19" s="296"/>
-      <c r="BN19" s="296"/>
-      <c r="BO19" s="296"/>
-      <c r="BP19" s="296"/>
-      <c r="BQ19" s="296"/>
-      <c r="BR19" s="296"/>
-      <c r="BS19" s="296"/>
-      <c r="BT19" s="296"/>
-      <c r="BU19" s="296"/>
-      <c r="BV19" s="296"/>
-      <c r="BW19" s="296"/>
-      <c r="BX19" s="296"/>
-      <c r="BY19" s="296"/>
-      <c r="BZ19" s="296"/>
-      <c r="CA19" s="296"/>
-      <c r="CB19" s="296"/>
-      <c r="CC19" s="296"/>
-      <c r="CD19" s="296"/>
-      <c r="CE19" s="296"/>
-      <c r="CF19" s="296"/>
-      <c r="CG19" s="296"/>
-      <c r="CH19" s="296"/>
-      <c r="CI19" s="308"/>
+      <c r="T19" s="324"/>
+      <c r="U19" s="324"/>
+      <c r="V19" s="324"/>
+      <c r="W19" s="324"/>
+      <c r="X19" s="326"/>
+      <c r="Y19" s="290"/>
+      <c r="Z19" s="290"/>
+      <c r="AA19" s="290"/>
+      <c r="AB19" s="290"/>
+      <c r="AC19" s="290"/>
+      <c r="AD19" s="290"/>
+      <c r="AE19" s="290"/>
+      <c r="AF19" s="290"/>
+      <c r="AG19" s="290"/>
+      <c r="AH19" s="290"/>
+      <c r="AI19" s="290"/>
+      <c r="AJ19" s="290"/>
+      <c r="AK19" s="290"/>
+      <c r="AL19" s="290"/>
+      <c r="AM19" s="290"/>
+      <c r="AN19" s="290"/>
+      <c r="AO19" s="290"/>
+      <c r="AP19" s="290"/>
+      <c r="AQ19" s="290"/>
+      <c r="AR19" s="290"/>
+      <c r="AS19" s="290"/>
+      <c r="AT19" s="290"/>
+      <c r="AU19" s="290"/>
+      <c r="AV19" s="290"/>
+      <c r="AW19" s="290"/>
+      <c r="AX19" s="290"/>
+      <c r="AY19" s="290"/>
+      <c r="AZ19" s="290"/>
+      <c r="BA19" s="290"/>
+      <c r="BB19" s="290"/>
+      <c r="BC19" s="290"/>
+      <c r="BD19" s="290"/>
+      <c r="BE19" s="290"/>
+      <c r="BF19" s="290"/>
+      <c r="BG19" s="290"/>
+      <c r="BH19" s="290"/>
+      <c r="BI19" s="290"/>
+      <c r="BJ19" s="290"/>
+      <c r="BK19" s="289"/>
+      <c r="BL19" s="290"/>
+      <c r="BM19" s="290"/>
+      <c r="BN19" s="290"/>
+      <c r="BO19" s="290"/>
+      <c r="BP19" s="290"/>
+      <c r="BQ19" s="290"/>
+      <c r="BR19" s="290"/>
+      <c r="BS19" s="290"/>
+      <c r="BT19" s="290"/>
+      <c r="BU19" s="290"/>
+      <c r="BV19" s="290"/>
+      <c r="BW19" s="290"/>
+      <c r="BX19" s="290"/>
+      <c r="BY19" s="290"/>
+      <c r="BZ19" s="290"/>
+      <c r="CA19" s="290"/>
+      <c r="CB19" s="290"/>
+      <c r="CC19" s="290"/>
+      <c r="CD19" s="290"/>
+      <c r="CE19" s="290"/>
+      <c r="CF19" s="290"/>
+      <c r="CG19" s="290"/>
+      <c r="CH19" s="290"/>
+      <c r="CI19" s="302"/>
       <c r="CJ19" s="153">
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="9:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I20" s="154"/>
-      <c r="O20" s="329"/>
-      <c r="P20" s="330"/>
-      <c r="Q20" s="330"/>
-      <c r="R20" s="330"/>
-      <c r="S20" s="330"/>
-      <c r="T20" s="330"/>
-      <c r="U20" s="330"/>
-      <c r="V20" s="330"/>
-      <c r="W20" s="330"/>
-      <c r="X20" s="331"/>
-      <c r="Y20" s="296"/>
-      <c r="Z20" s="296"/>
-      <c r="AA20" s="296"/>
-      <c r="AB20" s="296"/>
-      <c r="AC20" s="296"/>
-      <c r="AD20" s="296"/>
-      <c r="AE20" s="296"/>
-      <c r="AF20" s="296"/>
-      <c r="AG20" s="296"/>
-      <c r="AH20" s="296"/>
-      <c r="AI20" s="296"/>
-      <c r="AJ20" s="296"/>
-      <c r="AK20" s="296"/>
-      <c r="AL20" s="296"/>
-      <c r="AM20" s="296"/>
-      <c r="AN20" s="296"/>
-      <c r="AO20" s="296"/>
-      <c r="AP20" s="296"/>
-      <c r="AQ20" s="296"/>
-      <c r="AR20" s="296"/>
-      <c r="AS20" s="296"/>
-      <c r="AT20" s="296"/>
-      <c r="AU20" s="296"/>
-      <c r="AV20" s="296"/>
-      <c r="AW20" s="296"/>
-      <c r="AX20" s="296"/>
-      <c r="AY20" s="296"/>
-      <c r="AZ20" s="296"/>
-      <c r="BA20" s="296"/>
-      <c r="BB20" s="296"/>
-      <c r="BC20" s="296"/>
-      <c r="BD20" s="296"/>
-      <c r="BE20" s="296"/>
-      <c r="BF20" s="296"/>
-      <c r="BG20" s="296"/>
-      <c r="BH20" s="296"/>
-      <c r="BI20" s="296"/>
-      <c r="BJ20" s="296"/>
-      <c r="BK20" s="295"/>
-      <c r="BL20" s="296"/>
-      <c r="BM20" s="296"/>
-      <c r="BN20" s="296"/>
-      <c r="BO20" s="296"/>
-      <c r="BP20" s="296"/>
-      <c r="BQ20" s="296"/>
-      <c r="BR20" s="296"/>
-      <c r="BS20" s="296"/>
-      <c r="BT20" s="296"/>
-      <c r="BU20" s="296"/>
-      <c r="BV20" s="296"/>
-      <c r="BW20" s="296"/>
-      <c r="BX20" s="296"/>
-      <c r="BY20" s="296"/>
-      <c r="BZ20" s="296"/>
-      <c r="CA20" s="296"/>
-      <c r="CB20" s="296"/>
-      <c r="CC20" s="296"/>
-      <c r="CD20" s="296"/>
-      <c r="CE20" s="296"/>
-      <c r="CF20" s="296"/>
-      <c r="CG20" s="296"/>
-      <c r="CH20" s="296"/>
-      <c r="CI20" s="308"/>
+      <c r="O20" s="323"/>
+      <c r="P20" s="324"/>
+      <c r="Q20" s="324"/>
+      <c r="R20" s="324"/>
+      <c r="S20" s="324"/>
+      <c r="T20" s="324"/>
+      <c r="U20" s="324"/>
+      <c r="V20" s="324"/>
+      <c r="W20" s="324"/>
+      <c r="X20" s="325"/>
+      <c r="Y20" s="290"/>
+      <c r="Z20" s="290"/>
+      <c r="AA20" s="290"/>
+      <c r="AB20" s="290"/>
+      <c r="AC20" s="290"/>
+      <c r="AD20" s="290"/>
+      <c r="AE20" s="290"/>
+      <c r="AF20" s="290"/>
+      <c r="AG20" s="290"/>
+      <c r="AH20" s="290"/>
+      <c r="AI20" s="290"/>
+      <c r="AJ20" s="290"/>
+      <c r="AK20" s="290"/>
+      <c r="AL20" s="290"/>
+      <c r="AM20" s="290"/>
+      <c r="AN20" s="290"/>
+      <c r="AO20" s="290"/>
+      <c r="AP20" s="290"/>
+      <c r="AQ20" s="290"/>
+      <c r="AR20" s="290"/>
+      <c r="AS20" s="290"/>
+      <c r="AT20" s="290"/>
+      <c r="AU20" s="290"/>
+      <c r="AV20" s="290"/>
+      <c r="AW20" s="290"/>
+      <c r="AX20" s="290"/>
+      <c r="AY20" s="290"/>
+      <c r="AZ20" s="290"/>
+      <c r="BA20" s="290"/>
+      <c r="BB20" s="290"/>
+      <c r="BC20" s="290"/>
+      <c r="BD20" s="290"/>
+      <c r="BE20" s="290"/>
+      <c r="BF20" s="290"/>
+      <c r="BG20" s="290"/>
+      <c r="BH20" s="290"/>
+      <c r="BI20" s="290"/>
+      <c r="BJ20" s="290"/>
+      <c r="BK20" s="289"/>
+      <c r="BL20" s="290"/>
+      <c r="BM20" s="290"/>
+      <c r="BN20" s="290"/>
+      <c r="BO20" s="290"/>
+      <c r="BP20" s="290"/>
+      <c r="BQ20" s="290"/>
+      <c r="BR20" s="290"/>
+      <c r="BS20" s="290"/>
+      <c r="BT20" s="290"/>
+      <c r="BU20" s="290"/>
+      <c r="BV20" s="290"/>
+      <c r="BW20" s="290"/>
+      <c r="BX20" s="290"/>
+      <c r="BY20" s="290"/>
+      <c r="BZ20" s="290"/>
+      <c r="CA20" s="290"/>
+      <c r="CB20" s="290"/>
+      <c r="CC20" s="290"/>
+      <c r="CD20" s="290"/>
+      <c r="CE20" s="290"/>
+      <c r="CF20" s="290"/>
+      <c r="CG20" s="290"/>
+      <c r="CH20" s="290"/>
+      <c r="CI20" s="302"/>
       <c r="CJ20" s="153">
         <v>14</v>
       </c>
     </row>
     <row r="21" spans="9:88" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I21" s="154"/>
-      <c r="O21" s="333"/>
-      <c r="P21" s="334"/>
-      <c r="Q21" s="334"/>
-      <c r="R21" s="334"/>
-      <c r="S21" s="334"/>
-      <c r="T21" s="334"/>
-      <c r="U21" s="334"/>
-      <c r="V21" s="334"/>
-      <c r="W21" s="344"/>
-      <c r="X21" s="335"/>
-      <c r="Y21" s="336"/>
-      <c r="Z21" s="336"/>
-      <c r="AA21" s="296"/>
-      <c r="AB21" s="336"/>
-      <c r="AC21" s="296"/>
-      <c r="AD21" s="296"/>
-      <c r="AE21" s="296"/>
-      <c r="AF21" s="296"/>
-      <c r="AG21" s="296"/>
-      <c r="AH21" s="296"/>
-      <c r="AI21" s="336"/>
-      <c r="AJ21" s="296"/>
-      <c r="AK21" s="296"/>
-      <c r="AL21" s="296"/>
-      <c r="AM21" s="296"/>
-      <c r="AN21" s="296"/>
-      <c r="AO21" s="296"/>
-      <c r="AP21" s="296"/>
-      <c r="AQ21" s="296"/>
-      <c r="AR21" s="296"/>
-      <c r="AS21" s="336"/>
-      <c r="AT21" s="296"/>
-      <c r="AU21" s="296"/>
-      <c r="AV21" s="296"/>
-      <c r="AW21" s="296"/>
-      <c r="AX21" s="296"/>
-      <c r="AY21" s="296"/>
-      <c r="AZ21" s="296"/>
-      <c r="BA21" s="296"/>
-      <c r="BB21" s="296"/>
-      <c r="BC21" s="336"/>
-      <c r="BD21" s="296"/>
-      <c r="BE21" s="296"/>
-      <c r="BF21" s="296"/>
-      <c r="BG21" s="296"/>
-      <c r="BH21" s="296"/>
-      <c r="BI21" s="296"/>
-      <c r="BJ21" s="337"/>
-      <c r="BK21" s="295"/>
-      <c r="BL21" s="296"/>
-      <c r="BM21" s="296"/>
-      <c r="BN21" s="296"/>
-      <c r="BO21" s="296"/>
-      <c r="BP21" s="296"/>
-      <c r="BQ21" s="296"/>
-      <c r="BR21" s="296"/>
-      <c r="BS21" s="296"/>
-      <c r="BT21" s="296"/>
-      <c r="BU21" s="296"/>
-      <c r="BV21" s="296"/>
-      <c r="BW21" s="296"/>
-      <c r="BX21" s="296"/>
-      <c r="BY21" s="296"/>
-      <c r="BZ21" s="296"/>
-      <c r="CA21" s="296"/>
-      <c r="CB21" s="296"/>
-      <c r="CC21" s="296"/>
-      <c r="CD21" s="296"/>
-      <c r="CE21" s="296"/>
-      <c r="CF21" s="296"/>
-      <c r="CG21" s="296"/>
-      <c r="CH21" s="296"/>
-      <c r="CI21" s="308"/>
+      <c r="O21" s="327"/>
+      <c r="P21" s="328"/>
+      <c r="Q21" s="328"/>
+      <c r="R21" s="328"/>
+      <c r="S21" s="328"/>
+      <c r="T21" s="328"/>
+      <c r="U21" s="328"/>
+      <c r="V21" s="328"/>
+      <c r="W21" s="338"/>
+      <c r="X21" s="329"/>
+      <c r="Y21" s="330"/>
+      <c r="Z21" s="330"/>
+      <c r="AA21" s="290"/>
+      <c r="AB21" s="330"/>
+      <c r="AC21" s="290"/>
+      <c r="AD21" s="290"/>
+      <c r="AE21" s="290"/>
+      <c r="AF21" s="290"/>
+      <c r="AG21" s="290"/>
+      <c r="AH21" s="290"/>
+      <c r="AI21" s="330"/>
+      <c r="AJ21" s="290"/>
+      <c r="AK21" s="290"/>
+      <c r="AL21" s="290"/>
+      <c r="AM21" s="290"/>
+      <c r="AN21" s="290"/>
+      <c r="AO21" s="290"/>
+      <c r="AP21" s="290"/>
+      <c r="AQ21" s="290"/>
+      <c r="AR21" s="290"/>
+      <c r="AS21" s="330"/>
+      <c r="AT21" s="290"/>
+      <c r="AU21" s="290"/>
+      <c r="AV21" s="290"/>
+      <c r="AW21" s="290"/>
+      <c r="AX21" s="290"/>
+      <c r="AY21" s="290"/>
+      <c r="AZ21" s="290"/>
+      <c r="BA21" s="290"/>
+      <c r="BB21" s="290"/>
+      <c r="BC21" s="330"/>
+      <c r="BD21" s="290"/>
+      <c r="BE21" s="290"/>
+      <c r="BF21" s="290"/>
+      <c r="BG21" s="290"/>
+      <c r="BH21" s="290"/>
+      <c r="BI21" s="290"/>
+      <c r="BJ21" s="331"/>
+      <c r="BK21" s="289"/>
+      <c r="BL21" s="290"/>
+      <c r="BM21" s="290"/>
+      <c r="BN21" s="290"/>
+      <c r="BO21" s="290"/>
+      <c r="BP21" s="290"/>
+      <c r="BQ21" s="290"/>
+      <c r="BR21" s="290"/>
+      <c r="BS21" s="290"/>
+      <c r="BT21" s="290"/>
+      <c r="BU21" s="290"/>
+      <c r="BV21" s="290"/>
+      <c r="BW21" s="290"/>
+      <c r="BX21" s="290"/>
+      <c r="BY21" s="290"/>
+      <c r="BZ21" s="290"/>
+      <c r="CA21" s="290"/>
+      <c r="CB21" s="290"/>
+      <c r="CC21" s="290"/>
+      <c r="CD21" s="290"/>
+      <c r="CE21" s="290"/>
+      <c r="CF21" s="290"/>
+      <c r="CG21" s="290"/>
+      <c r="CH21" s="290"/>
+      <c r="CI21" s="302"/>
       <c r="CJ21" s="153">
         <v>15</v>
       </c>
@@ -11745,34 +12971,34 @@
       <c r="V22" s="187"/>
       <c r="W22" s="187"/>
       <c r="X22" s="188"/>
-      <c r="Y22" s="296"/>
-      <c r="Z22" s="296"/>
+      <c r="Y22" s="290"/>
+      <c r="Z22" s="290"/>
       <c r="AA22" s="185"/>
       <c r="AB22" s="187"/>
       <c r="AC22" s="187"/>
       <c r="AD22" s="187"/>
       <c r="AE22" s="187"/>
       <c r="AF22" s="187"/>
-      <c r="AG22" s="286"/>
-      <c r="AH22" s="287"/>
-      <c r="AI22" s="319"/>
-      <c r="AJ22" s="287"/>
-      <c r="AK22" s="287"/>
-      <c r="AL22" s="287"/>
-      <c r="AM22" s="287"/>
-      <c r="AN22" s="287"/>
-      <c r="AO22" s="287"/>
-      <c r="AP22" s="288"/>
-      <c r="AQ22" s="286"/>
-      <c r="AR22" s="287"/>
-      <c r="AS22" s="319"/>
-      <c r="AT22" s="287"/>
-      <c r="AU22" s="287"/>
-      <c r="AV22" s="287"/>
-      <c r="AW22" s="287"/>
-      <c r="AX22" s="287"/>
-      <c r="AY22" s="287"/>
-      <c r="AZ22" s="288"/>
+      <c r="AG22" s="280"/>
+      <c r="AH22" s="281"/>
+      <c r="AI22" s="313"/>
+      <c r="AJ22" s="281"/>
+      <c r="AK22" s="281"/>
+      <c r="AL22" s="281"/>
+      <c r="AM22" s="281"/>
+      <c r="AN22" s="281"/>
+      <c r="AO22" s="281"/>
+      <c r="AP22" s="282"/>
+      <c r="AQ22" s="280"/>
+      <c r="AR22" s="281"/>
+      <c r="AS22" s="313"/>
+      <c r="AT22" s="281"/>
+      <c r="AU22" s="281"/>
+      <c r="AV22" s="281"/>
+      <c r="AW22" s="281"/>
+      <c r="AX22" s="281"/>
+      <c r="AY22" s="281"/>
+      <c r="AZ22" s="282"/>
       <c r="BA22" s="240"/>
       <c r="BB22" s="241"/>
       <c r="BC22" s="242"/>
@@ -11782,32 +13008,32 @@
       <c r="BG22" s="241"/>
       <c r="BH22" s="241"/>
       <c r="BI22" s="241"/>
-      <c r="BJ22" s="339"/>
-      <c r="BK22" s="307"/>
-      <c r="BL22" s="296"/>
-      <c r="BM22" s="296"/>
-      <c r="BN22" s="296"/>
-      <c r="BO22" s="296"/>
-      <c r="BP22" s="296"/>
-      <c r="BQ22" s="296"/>
-      <c r="BR22" s="296"/>
-      <c r="BS22" s="296"/>
-      <c r="BT22" s="296"/>
-      <c r="BU22" s="296"/>
-      <c r="BV22" s="296"/>
-      <c r="BW22" s="296"/>
-      <c r="BX22" s="296"/>
-      <c r="BY22" s="296"/>
-      <c r="BZ22" s="296"/>
-      <c r="CA22" s="296"/>
-      <c r="CB22" s="296"/>
-      <c r="CC22" s="296"/>
-      <c r="CD22" s="296"/>
-      <c r="CE22" s="296"/>
-      <c r="CF22" s="296"/>
-      <c r="CG22" s="296"/>
-      <c r="CH22" s="296"/>
-      <c r="CI22" s="308"/>
+      <c r="BJ22" s="333"/>
+      <c r="BK22" s="301"/>
+      <c r="BL22" s="290"/>
+      <c r="BM22" s="290"/>
+      <c r="BN22" s="290"/>
+      <c r="BO22" s="290"/>
+      <c r="BP22" s="290"/>
+      <c r="BQ22" s="290"/>
+      <c r="BR22" s="290"/>
+      <c r="BS22" s="290"/>
+      <c r="BT22" s="290"/>
+      <c r="BU22" s="290"/>
+      <c r="BV22" s="290"/>
+      <c r="BW22" s="290"/>
+      <c r="BX22" s="290"/>
+      <c r="BY22" s="290"/>
+      <c r="BZ22" s="290"/>
+      <c r="CA22" s="290"/>
+      <c r="CB22" s="290"/>
+      <c r="CC22" s="290"/>
+      <c r="CD22" s="290"/>
+      <c r="CE22" s="290"/>
+      <c r="CF22" s="290"/>
+      <c r="CG22" s="290"/>
+      <c r="CH22" s="290"/>
+      <c r="CI22" s="302"/>
       <c r="CJ22" s="153">
         <v>16</v>
       </c>
@@ -11819,34 +13045,34 @@
       <c r="V23" s="191"/>
       <c r="W23" s="191"/>
       <c r="X23" s="192"/>
-      <c r="Y23" s="296"/>
-      <c r="Z23" s="296"/>
+      <c r="Y23" s="290"/>
+      <c r="Z23" s="290"/>
       <c r="AA23" s="190"/>
       <c r="AB23" s="191"/>
       <c r="AC23" s="191"/>
       <c r="AD23" s="191"/>
       <c r="AE23" s="191"/>
       <c r="AF23" s="191"/>
-      <c r="AG23" s="298"/>
-      <c r="AH23" s="299"/>
-      <c r="AI23" s="299"/>
-      <c r="AJ23" s="299"/>
-      <c r="AK23" s="299"/>
-      <c r="AL23" s="299"/>
-      <c r="AM23" s="299"/>
-      <c r="AN23" s="299"/>
-      <c r="AO23" s="299"/>
-      <c r="AP23" s="300"/>
-      <c r="AQ23" s="298"/>
-      <c r="AR23" s="299"/>
-      <c r="AS23" s="299"/>
-      <c r="AT23" s="299"/>
-      <c r="AU23" s="299"/>
-      <c r="AV23" s="299"/>
-      <c r="AW23" s="299"/>
-      <c r="AX23" s="299"/>
-      <c r="AY23" s="299"/>
-      <c r="AZ23" s="300"/>
+      <c r="AG23" s="292"/>
+      <c r="AH23" s="293"/>
+      <c r="AI23" s="293"/>
+      <c r="AJ23" s="293"/>
+      <c r="AK23" s="293"/>
+      <c r="AL23" s="293"/>
+      <c r="AM23" s="293"/>
+      <c r="AN23" s="293"/>
+      <c r="AO23" s="293"/>
+      <c r="AP23" s="294"/>
+      <c r="AQ23" s="292"/>
+      <c r="AR23" s="293"/>
+      <c r="AS23" s="293"/>
+      <c r="AT23" s="293"/>
+      <c r="AU23" s="293"/>
+      <c r="AV23" s="293"/>
+      <c r="AW23" s="293"/>
+      <c r="AX23" s="293"/>
+      <c r="AY23" s="293"/>
+      <c r="AZ23" s="294"/>
       <c r="BA23" s="244"/>
       <c r="BB23" s="245"/>
       <c r="BC23" s="245"/>
@@ -11856,32 +13082,32 @@
       <c r="BG23" s="245"/>
       <c r="BH23" s="245"/>
       <c r="BI23" s="245"/>
-      <c r="BJ23" s="340"/>
-      <c r="BK23" s="307"/>
-      <c r="BL23" s="296"/>
-      <c r="BM23" s="296"/>
-      <c r="BN23" s="296"/>
-      <c r="BO23" s="296"/>
-      <c r="BP23" s="296"/>
-      <c r="BQ23" s="296"/>
-      <c r="BR23" s="296"/>
-      <c r="BS23" s="296"/>
-      <c r="BT23" s="296"/>
-      <c r="BU23" s="296"/>
-      <c r="BV23" s="296"/>
-      <c r="BW23" s="296"/>
-      <c r="BX23" s="296"/>
-      <c r="BY23" s="296"/>
-      <c r="BZ23" s="296"/>
-      <c r="CA23" s="296"/>
-      <c r="CB23" s="296"/>
-      <c r="CC23" s="296"/>
-      <c r="CD23" s="296"/>
-      <c r="CE23" s="296"/>
-      <c r="CF23" s="296"/>
-      <c r="CG23" s="296"/>
-      <c r="CH23" s="296"/>
-      <c r="CI23" s="308"/>
+      <c r="BJ23" s="334"/>
+      <c r="BK23" s="301"/>
+      <c r="BL23" s="290"/>
+      <c r="BM23" s="290"/>
+      <c r="BN23" s="290"/>
+      <c r="BO23" s="290"/>
+      <c r="BP23" s="290"/>
+      <c r="BQ23" s="290"/>
+      <c r="BR23" s="290"/>
+      <c r="BS23" s="290"/>
+      <c r="BT23" s="290"/>
+      <c r="BU23" s="290"/>
+      <c r="BV23" s="290"/>
+      <c r="BW23" s="290"/>
+      <c r="BX23" s="290"/>
+      <c r="BY23" s="290"/>
+      <c r="BZ23" s="290"/>
+      <c r="CA23" s="290"/>
+      <c r="CB23" s="290"/>
+      <c r="CC23" s="290"/>
+      <c r="CD23" s="290"/>
+      <c r="CE23" s="290"/>
+      <c r="CF23" s="290"/>
+      <c r="CG23" s="290"/>
+      <c r="CH23" s="290"/>
+      <c r="CI23" s="302"/>
       <c r="CJ23" s="153">
         <v>17</v>
       </c>
@@ -11894,10 +13120,10 @@
       </c>
       <c r="V24" s="191"/>
       <c r="W24" s="191"/>
-      <c r="X24" s="338"/>
-      <c r="Y24" s="295"/>
-      <c r="Z24" s="297"/>
-      <c r="AA24" s="338"/>
+      <c r="X24" s="332"/>
+      <c r="Y24" s="289"/>
+      <c r="Z24" s="291"/>
+      <c r="AA24" s="332"/>
       <c r="AB24" s="191"/>
       <c r="AC24" s="191" t="s">
         <v>194</v>
@@ -11905,26 +13131,26 @@
       <c r="AD24" s="191"/>
       <c r="AE24" s="191"/>
       <c r="AF24" s="191"/>
-      <c r="AG24" s="298"/>
-      <c r="AH24" s="299"/>
-      <c r="AI24" s="299"/>
-      <c r="AJ24" s="299"/>
-      <c r="AK24" s="299"/>
-      <c r="AL24" s="299"/>
-      <c r="AM24" s="299"/>
-      <c r="AN24" s="299"/>
-      <c r="AO24" s="299"/>
-      <c r="AP24" s="300"/>
-      <c r="AQ24" s="298"/>
-      <c r="AR24" s="299"/>
-      <c r="AS24" s="299"/>
-      <c r="AT24" s="299"/>
-      <c r="AU24" s="299"/>
-      <c r="AV24" s="299"/>
-      <c r="AW24" s="299"/>
-      <c r="AX24" s="299"/>
-      <c r="AY24" s="299"/>
-      <c r="AZ24" s="300"/>
+      <c r="AG24" s="292"/>
+      <c r="AH24" s="293"/>
+      <c r="AI24" s="293"/>
+      <c r="AJ24" s="293"/>
+      <c r="AK24" s="293"/>
+      <c r="AL24" s="293"/>
+      <c r="AM24" s="293"/>
+      <c r="AN24" s="293"/>
+      <c r="AO24" s="293"/>
+      <c r="AP24" s="294"/>
+      <c r="AQ24" s="292"/>
+      <c r="AR24" s="293"/>
+      <c r="AS24" s="293"/>
+      <c r="AT24" s="293"/>
+      <c r="AU24" s="293"/>
+      <c r="AV24" s="293"/>
+      <c r="AW24" s="293"/>
+      <c r="AX24" s="293"/>
+      <c r="AY24" s="293"/>
+      <c r="AZ24" s="294"/>
       <c r="BA24" s="244"/>
       <c r="BB24" s="245"/>
       <c r="BC24" s="245"/>
@@ -11934,32 +13160,32 @@
       <c r="BG24" s="245"/>
       <c r="BH24" s="245"/>
       <c r="BI24" s="245"/>
-      <c r="BJ24" s="340"/>
-      <c r="BK24" s="307"/>
-      <c r="BL24" s="296"/>
-      <c r="BM24" s="296"/>
-      <c r="BN24" s="296"/>
-      <c r="BO24" s="296"/>
-      <c r="BP24" s="296"/>
-      <c r="BQ24" s="296"/>
-      <c r="BR24" s="296"/>
-      <c r="BS24" s="296"/>
-      <c r="BT24" s="296"/>
-      <c r="BU24" s="296"/>
-      <c r="BV24" s="296"/>
-      <c r="BW24" s="296"/>
-      <c r="BX24" s="296"/>
-      <c r="BY24" s="296"/>
-      <c r="BZ24" s="296"/>
-      <c r="CA24" s="296"/>
-      <c r="CB24" s="296"/>
-      <c r="CC24" s="296"/>
-      <c r="CD24" s="296"/>
-      <c r="CE24" s="296"/>
-      <c r="CF24" s="296"/>
-      <c r="CG24" s="296"/>
-      <c r="CH24" s="296"/>
-      <c r="CI24" s="308"/>
+      <c r="BJ24" s="334"/>
+      <c r="BK24" s="301"/>
+      <c r="BL24" s="290"/>
+      <c r="BM24" s="290"/>
+      <c r="BN24" s="290"/>
+      <c r="BO24" s="290"/>
+      <c r="BP24" s="290"/>
+      <c r="BQ24" s="290"/>
+      <c r="BR24" s="290"/>
+      <c r="BS24" s="290"/>
+      <c r="BT24" s="290"/>
+      <c r="BU24" s="290"/>
+      <c r="BV24" s="290"/>
+      <c r="BW24" s="290"/>
+      <c r="BX24" s="290"/>
+      <c r="BY24" s="290"/>
+      <c r="BZ24" s="290"/>
+      <c r="CA24" s="290"/>
+      <c r="CB24" s="290"/>
+      <c r="CC24" s="290"/>
+      <c r="CD24" s="290"/>
+      <c r="CE24" s="290"/>
+      <c r="CF24" s="290"/>
+      <c r="CG24" s="290"/>
+      <c r="CH24" s="290"/>
+      <c r="CI24" s="302"/>
       <c r="CJ24" s="153">
         <v>18</v>
       </c>
@@ -11971,34 +13197,34 @@
       <c r="V25" s="191"/>
       <c r="W25" s="191"/>
       <c r="X25" s="192"/>
-      <c r="Y25" s="296"/>
-      <c r="Z25" s="296"/>
+      <c r="Y25" s="290"/>
+      <c r="Z25" s="290"/>
       <c r="AA25" s="190"/>
       <c r="AB25" s="191"/>
       <c r="AC25" s="191"/>
       <c r="AD25" s="191"/>
       <c r="AE25" s="191"/>
       <c r="AF25" s="191"/>
-      <c r="AG25" s="298"/>
-      <c r="AH25" s="299"/>
-      <c r="AI25" s="299"/>
-      <c r="AJ25" s="299"/>
-      <c r="AK25" s="299"/>
-      <c r="AL25" s="299"/>
-      <c r="AM25" s="299"/>
-      <c r="AN25" s="299"/>
-      <c r="AO25" s="299"/>
-      <c r="AP25" s="300"/>
-      <c r="AQ25" s="298"/>
-      <c r="AR25" s="299"/>
-      <c r="AS25" s="299"/>
-      <c r="AT25" s="299"/>
-      <c r="AU25" s="299"/>
-      <c r="AV25" s="299"/>
-      <c r="AW25" s="299"/>
-      <c r="AX25" s="299"/>
-      <c r="AY25" s="299"/>
-      <c r="AZ25" s="300"/>
+      <c r="AG25" s="292"/>
+      <c r="AH25" s="293"/>
+      <c r="AI25" s="293"/>
+      <c r="AJ25" s="293"/>
+      <c r="AK25" s="293"/>
+      <c r="AL25" s="293"/>
+      <c r="AM25" s="293"/>
+      <c r="AN25" s="293"/>
+      <c r="AO25" s="293"/>
+      <c r="AP25" s="294"/>
+      <c r="AQ25" s="292"/>
+      <c r="AR25" s="293"/>
+      <c r="AS25" s="293"/>
+      <c r="AT25" s="293"/>
+      <c r="AU25" s="293"/>
+      <c r="AV25" s="293"/>
+      <c r="AW25" s="293"/>
+      <c r="AX25" s="293"/>
+      <c r="AY25" s="293"/>
+      <c r="AZ25" s="294"/>
       <c r="BA25" s="244"/>
       <c r="BB25" s="245"/>
       <c r="BC25" s="245"/>
@@ -12008,32 +13234,32 @@
       <c r="BG25" s="245"/>
       <c r="BH25" s="245"/>
       <c r="BI25" s="245"/>
-      <c r="BJ25" s="340"/>
-      <c r="BK25" s="307"/>
-      <c r="BL25" s="296"/>
-      <c r="BM25" s="296"/>
-      <c r="BN25" s="296"/>
-      <c r="BO25" s="296"/>
-      <c r="BP25" s="296"/>
-      <c r="BQ25" s="296"/>
-      <c r="BR25" s="296"/>
-      <c r="BS25" s="296"/>
-      <c r="BT25" s="296"/>
-      <c r="BU25" s="296"/>
-      <c r="BV25" s="296"/>
-      <c r="BW25" s="296"/>
-      <c r="BX25" s="296"/>
-      <c r="BY25" s="296"/>
-      <c r="BZ25" s="296"/>
-      <c r="CA25" s="296"/>
-      <c r="CB25" s="296"/>
-      <c r="CC25" s="296"/>
-      <c r="CD25" s="296"/>
-      <c r="CE25" s="296"/>
-      <c r="CF25" s="296"/>
-      <c r="CG25" s="296"/>
-      <c r="CH25" s="296"/>
-      <c r="CI25" s="308"/>
+      <c r="BJ25" s="334"/>
+      <c r="BK25" s="301"/>
+      <c r="BL25" s="290"/>
+      <c r="BM25" s="290"/>
+      <c r="BN25" s="290"/>
+      <c r="BO25" s="290"/>
+      <c r="BP25" s="290"/>
+      <c r="BQ25" s="290"/>
+      <c r="BR25" s="290"/>
+      <c r="BS25" s="290"/>
+      <c r="BT25" s="290"/>
+      <c r="BU25" s="290"/>
+      <c r="BV25" s="290"/>
+      <c r="BW25" s="290"/>
+      <c r="BX25" s="290"/>
+      <c r="BY25" s="290"/>
+      <c r="BZ25" s="290"/>
+      <c r="CA25" s="290"/>
+      <c r="CB25" s="290"/>
+      <c r="CC25" s="290"/>
+      <c r="CD25" s="290"/>
+      <c r="CE25" s="290"/>
+      <c r="CF25" s="290"/>
+      <c r="CG25" s="290"/>
+      <c r="CH25" s="290"/>
+      <c r="CI25" s="302"/>
       <c r="CJ25" s="153">
         <v>19</v>
       </c>
@@ -12045,38 +13271,38 @@
       <c r="V26" s="195"/>
       <c r="W26" s="195"/>
       <c r="X26" s="196"/>
-      <c r="Y26" s="342"/>
-      <c r="Z26" s="343"/>
+      <c r="Y26" s="336"/>
+      <c r="Z26" s="337"/>
       <c r="AA26" s="194"/>
       <c r="AB26" s="195"/>
       <c r="AC26" s="195"/>
       <c r="AD26" s="195"/>
       <c r="AE26" s="195"/>
       <c r="AF26" s="195"/>
-      <c r="AG26" s="298"/>
-      <c r="AH26" s="299"/>
-      <c r="AI26" s="299"/>
-      <c r="AJ26" s="299"/>
-      <c r="AK26" s="299" t="s">
+      <c r="AG26" s="292"/>
+      <c r="AH26" s="293"/>
+      <c r="AI26" s="293"/>
+      <c r="AJ26" s="293"/>
+      <c r="AK26" s="293" t="s">
         <v>184</v>
       </c>
-      <c r="AL26" s="299"/>
-      <c r="AM26" s="299"/>
-      <c r="AN26" s="299"/>
-      <c r="AO26" s="299"/>
-      <c r="AP26" s="300"/>
-      <c r="AQ26" s="298"/>
-      <c r="AR26" s="299"/>
-      <c r="AS26" s="299"/>
-      <c r="AT26" s="299"/>
-      <c r="AU26" s="299" t="s">
+      <c r="AL26" s="293"/>
+      <c r="AM26" s="293"/>
+      <c r="AN26" s="293"/>
+      <c r="AO26" s="293"/>
+      <c r="AP26" s="294"/>
+      <c r="AQ26" s="292"/>
+      <c r="AR26" s="293"/>
+      <c r="AS26" s="293"/>
+      <c r="AT26" s="293"/>
+      <c r="AU26" s="293" t="s">
         <v>185</v>
       </c>
-      <c r="AV26" s="299"/>
-      <c r="AW26" s="299"/>
-      <c r="AX26" s="299"/>
-      <c r="AY26" s="299"/>
-      <c r="AZ26" s="300"/>
+      <c r="AV26" s="293"/>
+      <c r="AW26" s="293"/>
+      <c r="AX26" s="293"/>
+      <c r="AY26" s="293"/>
+      <c r="AZ26" s="294"/>
       <c r="BA26" s="244"/>
       <c r="BB26" s="245"/>
       <c r="BC26" s="245"/>
@@ -12086,32 +13312,32 @@
       <c r="BG26" s="245"/>
       <c r="BH26" s="245"/>
       <c r="BI26" s="245"/>
-      <c r="BJ26" s="340"/>
-      <c r="BK26" s="307"/>
-      <c r="BL26" s="296"/>
-      <c r="BM26" s="296"/>
-      <c r="BN26" s="296"/>
-      <c r="BO26" s="296"/>
-      <c r="BP26" s="296"/>
-      <c r="BQ26" s="296"/>
-      <c r="BR26" s="296"/>
-      <c r="BS26" s="296"/>
-      <c r="BT26" s="296"/>
-      <c r="BU26" s="296"/>
-      <c r="BV26" s="296"/>
-      <c r="BW26" s="296"/>
-      <c r="BX26" s="296"/>
-      <c r="BY26" s="296"/>
-      <c r="BZ26" s="296"/>
-      <c r="CA26" s="296"/>
-      <c r="CB26" s="296"/>
-      <c r="CC26" s="296"/>
-      <c r="CD26" s="296"/>
-      <c r="CE26" s="296"/>
-      <c r="CF26" s="296"/>
-      <c r="CG26" s="296"/>
-      <c r="CH26" s="296"/>
-      <c r="CI26" s="308"/>
+      <c r="BJ26" s="334"/>
+      <c r="BK26" s="301"/>
+      <c r="BL26" s="290"/>
+      <c r="BM26" s="290"/>
+      <c r="BN26" s="290"/>
+      <c r="BO26" s="290"/>
+      <c r="BP26" s="290"/>
+      <c r="BQ26" s="290"/>
+      <c r="BR26" s="290"/>
+      <c r="BS26" s="290"/>
+      <c r="BT26" s="290"/>
+      <c r="BU26" s="290"/>
+      <c r="BV26" s="290"/>
+      <c r="BW26" s="290"/>
+      <c r="BX26" s="290"/>
+      <c r="BY26" s="290"/>
+      <c r="BZ26" s="290"/>
+      <c r="CA26" s="290"/>
+      <c r="CB26" s="290"/>
+      <c r="CC26" s="290"/>
+      <c r="CD26" s="290"/>
+      <c r="CE26" s="290"/>
+      <c r="CF26" s="290"/>
+      <c r="CG26" s="290"/>
+      <c r="CH26" s="290"/>
+      <c r="CI26" s="302"/>
       <c r="CJ26" s="153">
         <v>20</v>
       </c>
@@ -12124,26 +13350,26 @@
       <c r="X27" s="157"/>
       <c r="Y27" s="157"/>
       <c r="Z27" s="157"/>
-      <c r="AG27" s="298"/>
-      <c r="AH27" s="299"/>
-      <c r="AI27" s="299"/>
-      <c r="AJ27" s="299"/>
-      <c r="AK27" s="299"/>
-      <c r="AL27" s="299"/>
-      <c r="AM27" s="299"/>
-      <c r="AN27" s="299"/>
-      <c r="AO27" s="299"/>
-      <c r="AP27" s="300"/>
-      <c r="AQ27" s="298"/>
-      <c r="AR27" s="299"/>
-      <c r="AS27" s="299"/>
-      <c r="AT27" s="299"/>
-      <c r="AU27" s="299"/>
-      <c r="AV27" s="299"/>
-      <c r="AW27" s="299"/>
-      <c r="AX27" s="299"/>
-      <c r="AY27" s="299"/>
-      <c r="AZ27" s="300"/>
+      <c r="AG27" s="292"/>
+      <c r="AH27" s="293"/>
+      <c r="AI27" s="293"/>
+      <c r="AJ27" s="293"/>
+      <c r="AK27" s="293"/>
+      <c r="AL27" s="293"/>
+      <c r="AM27" s="293"/>
+      <c r="AN27" s="293"/>
+      <c r="AO27" s="293"/>
+      <c r="AP27" s="294"/>
+      <c r="AQ27" s="292"/>
+      <c r="AR27" s="293"/>
+      <c r="AS27" s="293"/>
+      <c r="AT27" s="293"/>
+      <c r="AU27" s="293"/>
+      <c r="AV27" s="293"/>
+      <c r="AW27" s="293"/>
+      <c r="AX27" s="293"/>
+      <c r="AY27" s="293"/>
+      <c r="AZ27" s="294"/>
       <c r="BA27" s="244"/>
       <c r="BB27" s="245"/>
       <c r="BC27" s="245"/>
@@ -12155,57 +13381,57 @@
       <c r="BG27" s="245"/>
       <c r="BH27" s="245"/>
       <c r="BI27" s="245"/>
-      <c r="BJ27" s="340"/>
-      <c r="BK27" s="307"/>
-      <c r="BL27" s="296"/>
-      <c r="BM27" s="296"/>
-      <c r="BN27" s="296"/>
-      <c r="BO27" s="296"/>
-      <c r="BP27" s="296"/>
-      <c r="BQ27" s="296"/>
-      <c r="BR27" s="296"/>
-      <c r="BS27" s="296"/>
-      <c r="BT27" s="296"/>
-      <c r="BU27" s="296"/>
-      <c r="BV27" s="296"/>
-      <c r="BW27" s="296"/>
-      <c r="BX27" s="296"/>
-      <c r="BY27" s="296"/>
-      <c r="BZ27" s="296"/>
-      <c r="CA27" s="296"/>
-      <c r="CB27" s="296"/>
-      <c r="CC27" s="296"/>
-      <c r="CD27" s="296"/>
-      <c r="CE27" s="296"/>
-      <c r="CF27" s="296"/>
-      <c r="CG27" s="296"/>
-      <c r="CH27" s="296"/>
-      <c r="CI27" s="308"/>
+      <c r="BJ27" s="334"/>
+      <c r="BK27" s="301"/>
+      <c r="BL27" s="290"/>
+      <c r="BM27" s="290"/>
+      <c r="BN27" s="290"/>
+      <c r="BO27" s="290"/>
+      <c r="BP27" s="290"/>
+      <c r="BQ27" s="290"/>
+      <c r="BR27" s="290"/>
+      <c r="BS27" s="290"/>
+      <c r="BT27" s="290"/>
+      <c r="BU27" s="290"/>
+      <c r="BV27" s="290"/>
+      <c r="BW27" s="290"/>
+      <c r="BX27" s="290"/>
+      <c r="BY27" s="290"/>
+      <c r="BZ27" s="290"/>
+      <c r="CA27" s="290"/>
+      <c r="CB27" s="290"/>
+      <c r="CC27" s="290"/>
+      <c r="CD27" s="290"/>
+      <c r="CE27" s="290"/>
+      <c r="CF27" s="290"/>
+      <c r="CG27" s="290"/>
+      <c r="CH27" s="290"/>
+      <c r="CI27" s="302"/>
       <c r="CJ27" s="153">
         <v>21</v>
       </c>
     </row>
     <row r="28" spans="9:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AG28" s="298"/>
-      <c r="AH28" s="299"/>
-      <c r="AI28" s="299"/>
-      <c r="AJ28" s="299"/>
-      <c r="AK28" s="299"/>
-      <c r="AL28" s="299"/>
-      <c r="AM28" s="299"/>
-      <c r="AN28" s="299"/>
-      <c r="AO28" s="299"/>
-      <c r="AP28" s="300"/>
-      <c r="AQ28" s="298"/>
-      <c r="AR28" s="299"/>
-      <c r="AS28" s="299"/>
-      <c r="AT28" s="299"/>
-      <c r="AU28" s="299"/>
-      <c r="AV28" s="299"/>
-      <c r="AW28" s="299"/>
-      <c r="AX28" s="299"/>
-      <c r="AY28" s="299"/>
-      <c r="AZ28" s="300"/>
+      <c r="AG28" s="292"/>
+      <c r="AH28" s="293"/>
+      <c r="AI28" s="293"/>
+      <c r="AJ28" s="293"/>
+      <c r="AK28" s="293"/>
+      <c r="AL28" s="293"/>
+      <c r="AM28" s="293"/>
+      <c r="AN28" s="293"/>
+      <c r="AO28" s="293"/>
+      <c r="AP28" s="294"/>
+      <c r="AQ28" s="292"/>
+      <c r="AR28" s="293"/>
+      <c r="AS28" s="293"/>
+      <c r="AT28" s="293"/>
+      <c r="AU28" s="293"/>
+      <c r="AV28" s="293"/>
+      <c r="AW28" s="293"/>
+      <c r="AX28" s="293"/>
+      <c r="AY28" s="293"/>
+      <c r="AZ28" s="294"/>
       <c r="BA28" s="244"/>
       <c r="BB28" s="245"/>
       <c r="BC28" s="245"/>
@@ -12215,57 +13441,57 @@
       <c r="BG28" s="245"/>
       <c r="BH28" s="245"/>
       <c r="BI28" s="245"/>
-      <c r="BJ28" s="340"/>
-      <c r="BK28" s="307"/>
-      <c r="BL28" s="296"/>
-      <c r="BM28" s="296"/>
-      <c r="BN28" s="296"/>
-      <c r="BO28" s="296"/>
-      <c r="BP28" s="296"/>
-      <c r="BQ28" s="296"/>
-      <c r="BR28" s="296"/>
-      <c r="BS28" s="296"/>
-      <c r="BT28" s="296"/>
-      <c r="BU28" s="296"/>
-      <c r="BV28" s="296"/>
-      <c r="BW28" s="296"/>
-      <c r="BX28" s="296"/>
-      <c r="BY28" s="296"/>
-      <c r="BZ28" s="296"/>
-      <c r="CA28" s="296"/>
-      <c r="CB28" s="296"/>
-      <c r="CC28" s="296"/>
-      <c r="CD28" s="296"/>
-      <c r="CE28" s="296"/>
-      <c r="CF28" s="296"/>
-      <c r="CG28" s="296"/>
-      <c r="CH28" s="296"/>
-      <c r="CI28" s="308"/>
+      <c r="BJ28" s="334"/>
+      <c r="BK28" s="301"/>
+      <c r="BL28" s="290"/>
+      <c r="BM28" s="290"/>
+      <c r="BN28" s="290"/>
+      <c r="BO28" s="290"/>
+      <c r="BP28" s="290"/>
+      <c r="BQ28" s="290"/>
+      <c r="BR28" s="290"/>
+      <c r="BS28" s="290"/>
+      <c r="BT28" s="290"/>
+      <c r="BU28" s="290"/>
+      <c r="BV28" s="290"/>
+      <c r="BW28" s="290"/>
+      <c r="BX28" s="290"/>
+      <c r="BY28" s="290"/>
+      <c r="BZ28" s="290"/>
+      <c r="CA28" s="290"/>
+      <c r="CB28" s="290"/>
+      <c r="CC28" s="290"/>
+      <c r="CD28" s="290"/>
+      <c r="CE28" s="290"/>
+      <c r="CF28" s="290"/>
+      <c r="CG28" s="290"/>
+      <c r="CH28" s="290"/>
+      <c r="CI28" s="302"/>
       <c r="CJ28" s="153">
         <v>22</v>
       </c>
     </row>
     <row r="29" spans="9:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AG29" s="298"/>
-      <c r="AH29" s="299"/>
-      <c r="AI29" s="299"/>
-      <c r="AJ29" s="299"/>
-      <c r="AK29" s="299"/>
-      <c r="AL29" s="299"/>
-      <c r="AM29" s="299"/>
-      <c r="AN29" s="299"/>
-      <c r="AO29" s="299"/>
-      <c r="AP29" s="300"/>
-      <c r="AQ29" s="298"/>
-      <c r="AR29" s="299"/>
-      <c r="AS29" s="299"/>
-      <c r="AT29" s="299"/>
-      <c r="AU29" s="299"/>
-      <c r="AV29" s="299"/>
-      <c r="AW29" s="299"/>
-      <c r="AX29" s="299"/>
-      <c r="AY29" s="299"/>
-      <c r="AZ29" s="300"/>
+      <c r="AG29" s="292"/>
+      <c r="AH29" s="293"/>
+      <c r="AI29" s="293"/>
+      <c r="AJ29" s="293"/>
+      <c r="AK29" s="293"/>
+      <c r="AL29" s="293"/>
+      <c r="AM29" s="293"/>
+      <c r="AN29" s="293"/>
+      <c r="AO29" s="293"/>
+      <c r="AP29" s="294"/>
+      <c r="AQ29" s="292"/>
+      <c r="AR29" s="293"/>
+      <c r="AS29" s="293"/>
+      <c r="AT29" s="293"/>
+      <c r="AU29" s="293"/>
+      <c r="AV29" s="293"/>
+      <c r="AW29" s="293"/>
+      <c r="AX29" s="293"/>
+      <c r="AY29" s="293"/>
+      <c r="AZ29" s="294"/>
       <c r="BA29" s="244"/>
       <c r="BB29" s="245"/>
       <c r="BC29" s="245"/>
@@ -12275,57 +13501,57 @@
       <c r="BG29" s="245"/>
       <c r="BH29" s="245"/>
       <c r="BI29" s="245"/>
-      <c r="BJ29" s="340"/>
-      <c r="BK29" s="307"/>
-      <c r="BL29" s="296"/>
-      <c r="BM29" s="296"/>
-      <c r="BN29" s="296"/>
-      <c r="BO29" s="296"/>
-      <c r="BP29" s="296"/>
-      <c r="BQ29" s="296"/>
-      <c r="BR29" s="296"/>
-      <c r="BS29" s="296"/>
-      <c r="BT29" s="296"/>
-      <c r="BU29" s="296"/>
-      <c r="BV29" s="296"/>
-      <c r="BW29" s="296"/>
-      <c r="BX29" s="296"/>
-      <c r="BY29" s="296"/>
-      <c r="BZ29" s="296"/>
-      <c r="CA29" s="296"/>
-      <c r="CB29" s="296"/>
-      <c r="CC29" s="296"/>
-      <c r="CD29" s="296"/>
-      <c r="CE29" s="296"/>
-      <c r="CF29" s="296"/>
-      <c r="CG29" s="296"/>
-      <c r="CH29" s="296"/>
-      <c r="CI29" s="308"/>
+      <c r="BJ29" s="334"/>
+      <c r="BK29" s="301"/>
+      <c r="BL29" s="290"/>
+      <c r="BM29" s="290"/>
+      <c r="BN29" s="290"/>
+      <c r="BO29" s="290"/>
+      <c r="BP29" s="290"/>
+      <c r="BQ29" s="290"/>
+      <c r="BR29" s="290"/>
+      <c r="BS29" s="290"/>
+      <c r="BT29" s="290"/>
+      <c r="BU29" s="290"/>
+      <c r="BV29" s="290"/>
+      <c r="BW29" s="290"/>
+      <c r="BX29" s="290"/>
+      <c r="BY29" s="290"/>
+      <c r="BZ29" s="290"/>
+      <c r="CA29" s="290"/>
+      <c r="CB29" s="290"/>
+      <c r="CC29" s="290"/>
+      <c r="CD29" s="290"/>
+      <c r="CE29" s="290"/>
+      <c r="CF29" s="290"/>
+      <c r="CG29" s="290"/>
+      <c r="CH29" s="290"/>
+      <c r="CI29" s="302"/>
       <c r="CJ29" s="153">
         <v>23</v>
       </c>
     </row>
     <row r="30" spans="9:88" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AG30" s="298"/>
-      <c r="AH30" s="299"/>
-      <c r="AI30" s="299"/>
-      <c r="AJ30" s="299"/>
-      <c r="AK30" s="299"/>
-      <c r="AL30" s="299"/>
-      <c r="AM30" s="299"/>
-      <c r="AN30" s="299"/>
-      <c r="AO30" s="299"/>
-      <c r="AP30" s="300"/>
-      <c r="AQ30" s="298"/>
-      <c r="AR30" s="299"/>
-      <c r="AS30" s="299"/>
-      <c r="AT30" s="299"/>
-      <c r="AU30" s="299"/>
-      <c r="AV30" s="299"/>
-      <c r="AW30" s="299"/>
-      <c r="AX30" s="299"/>
-      <c r="AY30" s="299"/>
-      <c r="AZ30" s="300"/>
+      <c r="AG30" s="292"/>
+      <c r="AH30" s="293"/>
+      <c r="AI30" s="293"/>
+      <c r="AJ30" s="293"/>
+      <c r="AK30" s="293"/>
+      <c r="AL30" s="293"/>
+      <c r="AM30" s="293"/>
+      <c r="AN30" s="293"/>
+      <c r="AO30" s="293"/>
+      <c r="AP30" s="294"/>
+      <c r="AQ30" s="292"/>
+      <c r="AR30" s="293"/>
+      <c r="AS30" s="293"/>
+      <c r="AT30" s="293"/>
+      <c r="AU30" s="293"/>
+      <c r="AV30" s="293"/>
+      <c r="AW30" s="293"/>
+      <c r="AX30" s="293"/>
+      <c r="AY30" s="293"/>
+      <c r="AZ30" s="294"/>
       <c r="BA30" s="244"/>
       <c r="BB30" s="245"/>
       <c r="BC30" s="245"/>
@@ -12335,57 +13561,57 @@
       <c r="BG30" s="245"/>
       <c r="BH30" s="245"/>
       <c r="BI30" s="245"/>
-      <c r="BJ30" s="340"/>
-      <c r="BK30" s="307"/>
-      <c r="BL30" s="296"/>
-      <c r="BM30" s="296"/>
-      <c r="BN30" s="296"/>
-      <c r="BO30" s="296"/>
-      <c r="BP30" s="296"/>
-      <c r="BQ30" s="296"/>
-      <c r="BR30" s="296"/>
-      <c r="BS30" s="296"/>
-      <c r="BT30" s="296"/>
-      <c r="BU30" s="296"/>
-      <c r="BV30" s="296"/>
-      <c r="BW30" s="296"/>
-      <c r="BX30" s="296"/>
-      <c r="BY30" s="296"/>
-      <c r="BZ30" s="296"/>
-      <c r="CA30" s="296"/>
-      <c r="CB30" s="296"/>
-      <c r="CC30" s="296"/>
-      <c r="CD30" s="296"/>
-      <c r="CE30" s="296"/>
-      <c r="CF30" s="296"/>
-      <c r="CG30" s="296"/>
-      <c r="CH30" s="296"/>
-      <c r="CI30" s="308"/>
+      <c r="BJ30" s="334"/>
+      <c r="BK30" s="301"/>
+      <c r="BL30" s="290"/>
+      <c r="BM30" s="290"/>
+      <c r="BN30" s="290"/>
+      <c r="BO30" s="290"/>
+      <c r="BP30" s="290"/>
+      <c r="BQ30" s="290"/>
+      <c r="BR30" s="290"/>
+      <c r="BS30" s="290"/>
+      <c r="BT30" s="290"/>
+      <c r="BU30" s="290"/>
+      <c r="BV30" s="290"/>
+      <c r="BW30" s="290"/>
+      <c r="BX30" s="290"/>
+      <c r="BY30" s="290"/>
+      <c r="BZ30" s="290"/>
+      <c r="CA30" s="290"/>
+      <c r="CB30" s="290"/>
+      <c r="CC30" s="290"/>
+      <c r="CD30" s="290"/>
+      <c r="CE30" s="290"/>
+      <c r="CF30" s="290"/>
+      <c r="CG30" s="290"/>
+      <c r="CH30" s="290"/>
+      <c r="CI30" s="302"/>
       <c r="CJ30" s="153">
         <v>24</v>
       </c>
     </row>
     <row r="31" spans="9:88" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AG31" s="317"/>
-      <c r="AH31" s="318"/>
-      <c r="AI31" s="318"/>
-      <c r="AJ31" s="318"/>
-      <c r="AK31" s="318"/>
-      <c r="AL31" s="318"/>
-      <c r="AM31" s="318"/>
-      <c r="AN31" s="318"/>
-      <c r="AO31" s="318"/>
-      <c r="AP31" s="320"/>
-      <c r="AQ31" s="317"/>
-      <c r="AR31" s="318"/>
-      <c r="AS31" s="318"/>
-      <c r="AT31" s="318"/>
-      <c r="AU31" s="318"/>
-      <c r="AV31" s="318"/>
-      <c r="AW31" s="318"/>
-      <c r="AX31" s="318"/>
-      <c r="AY31" s="318"/>
-      <c r="AZ31" s="320"/>
+      <c r="AG31" s="311"/>
+      <c r="AH31" s="312"/>
+      <c r="AI31" s="312"/>
+      <c r="AJ31" s="312"/>
+      <c r="AK31" s="312"/>
+      <c r="AL31" s="312"/>
+      <c r="AM31" s="312"/>
+      <c r="AN31" s="312"/>
+      <c r="AO31" s="312"/>
+      <c r="AP31" s="314"/>
+      <c r="AQ31" s="311"/>
+      <c r="AR31" s="312"/>
+      <c r="AS31" s="312"/>
+      <c r="AT31" s="312"/>
+      <c r="AU31" s="312"/>
+      <c r="AV31" s="312"/>
+      <c r="AW31" s="312"/>
+      <c r="AX31" s="312"/>
+      <c r="AY31" s="312"/>
+      <c r="AZ31" s="314"/>
       <c r="BA31" s="247"/>
       <c r="BB31" s="248"/>
       <c r="BC31" s="248"/>
@@ -12395,32 +13621,32 @@
       <c r="BG31" s="248"/>
       <c r="BH31" s="248"/>
       <c r="BI31" s="248"/>
-      <c r="BJ31" s="341"/>
-      <c r="BK31" s="342"/>
-      <c r="BL31" s="337"/>
-      <c r="BM31" s="337"/>
-      <c r="BN31" s="337"/>
-      <c r="BO31" s="337"/>
-      <c r="BP31" s="337"/>
-      <c r="BQ31" s="337"/>
-      <c r="BR31" s="337"/>
-      <c r="BS31" s="337"/>
-      <c r="BT31" s="337"/>
-      <c r="BU31" s="337"/>
-      <c r="BV31" s="337"/>
-      <c r="BW31" s="337"/>
-      <c r="BX31" s="337"/>
-      <c r="BY31" s="337"/>
-      <c r="BZ31" s="337"/>
-      <c r="CA31" s="337"/>
-      <c r="CB31" s="337"/>
-      <c r="CC31" s="337"/>
-      <c r="CD31" s="337"/>
-      <c r="CE31" s="337"/>
-      <c r="CF31" s="337"/>
-      <c r="CG31" s="337"/>
-      <c r="CH31" s="337"/>
-      <c r="CI31" s="343"/>
+      <c r="BJ31" s="335"/>
+      <c r="BK31" s="336"/>
+      <c r="BL31" s="331"/>
+      <c r="BM31" s="331"/>
+      <c r="BN31" s="331"/>
+      <c r="BO31" s="331"/>
+      <c r="BP31" s="331"/>
+      <c r="BQ31" s="331"/>
+      <c r="BR31" s="331"/>
+      <c r="BS31" s="331"/>
+      <c r="BT31" s="331"/>
+      <c r="BU31" s="331"/>
+      <c r="BV31" s="331"/>
+      <c r="BW31" s="331"/>
+      <c r="BX31" s="331"/>
+      <c r="BY31" s="331"/>
+      <c r="BZ31" s="331"/>
+      <c r="CA31" s="331"/>
+      <c r="CB31" s="331"/>
+      <c r="CC31" s="331"/>
+      <c r="CD31" s="331"/>
+      <c r="CE31" s="331"/>
+      <c r="CF31" s="331"/>
+      <c r="CG31" s="331"/>
+      <c r="CH31" s="331"/>
+      <c r="CI31" s="337"/>
       <c r="CJ31" s="153">
         <v>25</v>
       </c>

--- a/Assets/Level blueprint.xlsx
+++ b/Assets/Level blueprint.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\Documents\GitHub\Horror_FPS\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B16B29-D694-40F2-93D5-EC34AF549B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0075995-6933-42DA-8439-F7C97A4DD676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -654,7 +654,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -781,12 +781,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0000CC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="131">
     <border>
@@ -3532,7 +3526,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="130" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="130" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6451,7 +6445,7 @@
   <dimension ref="I1:CJ689"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AE3" sqref="AE3"/>
+      <selection activeCell="O7" sqref="O7:CI31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
